--- a/Global_M2/TVDataFeed/FinalData/United Kingdom.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/United Kingdom.xlsx
@@ -458,6722 +458,6734 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>29830</v>
+        <v>29921</v>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>1.810610241195374</v>
+        <v>1.910949778539075</v>
       </c>
       <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>29860</v>
+        <v>29952</v>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>1.845358990417383</v>
+        <v>1.883593897155773</v>
       </c>
       <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>29891</v>
+        <v>29983</v>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>1.960015603292215</v>
+        <v>1.82248958711462</v>
       </c>
       <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>29921</v>
+        <v>30011</v>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>1.910949778539075</v>
+        <v>1.783166840828572</v>
       </c>
       <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>29952</v>
+        <v>30042</v>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>1.883593897155773</v>
+        <v>1.79694512859137</v>
       </c>
       <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>29983</v>
+        <v>30072</v>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>1.82248958711462</v>
+        <v>1.793078780458267</v>
       </c>
       <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>30011</v>
+        <v>30103</v>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>1.783166840828572</v>
+        <v>1.743071261232852</v>
       </c>
       <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>30042</v>
+        <v>30133</v>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>1.79694512859137</v>
+        <v>1.740643977697338</v>
       </c>
       <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>30072</v>
+        <v>30164</v>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>1.793078780458267</v>
+        <v>1.717327808392104</v>
       </c>
       <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>30103</v>
+        <v>30195</v>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>1.743071261232852</v>
+        <v>1.694628057865244</v>
       </c>
       <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>30133</v>
+        <v>30225</v>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>1.740643977697338</v>
+        <v>1.67644599082803</v>
       </c>
       <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>30164</v>
+        <v>30256</v>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>1.717327808392104</v>
+        <v>1.61472627781808</v>
       </c>
       <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>30195</v>
+        <v>30286</v>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
-        <v>1.694628057865244</v>
+        <v>1.617599482368166</v>
       </c>
       <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>30225</v>
+        <v>30317</v>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="n">
-        <v>1.67644599082803</v>
+        <v>1.525320294000606</v>
       </c>
       <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>30256</v>
+        <v>30348</v>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="n">
-        <v>1.61472627781808</v>
+        <v>1.515610814119594</v>
       </c>
       <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>30286</v>
+        <v>30376</v>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="n">
-        <v>1.617599482368166</v>
+        <v>1.481700992739665</v>
       </c>
       <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>30317</v>
+        <v>30407</v>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="n">
-        <v>1.525320294000606</v>
+        <v>1.562011822492602</v>
       </c>
       <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>30348</v>
+        <v>30437</v>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="n">
-        <v>1.515610814119594</v>
+        <v>1.606167632310709</v>
       </c>
       <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>30376</v>
+        <v>30468</v>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="n">
-        <v>1.481700992739665</v>
+        <v>1.534683855125844</v>
       </c>
       <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>30407</v>
+        <v>30498</v>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="n">
-        <v>1.562011822492602</v>
+        <v>1.520450053215752</v>
       </c>
       <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>30437</v>
+        <v>30529</v>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="n">
-        <v>1.606167632310709</v>
+        <v>1.493652001398835</v>
       </c>
       <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>30468</v>
+        <v>30560</v>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="n">
-        <v>1.534683855125844</v>
+        <v>1.49499175519522</v>
       </c>
       <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>30498</v>
+        <v>30590</v>
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="n">
-        <v>1.520450053215752</v>
+        <v>1.494321578003586</v>
       </c>
       <c r="D24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>30529</v>
+        <v>30621</v>
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="n">
-        <v>1.493652001398835</v>
+        <v>1.466490644772235</v>
       </c>
       <c r="D25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>30560</v>
+        <v>30651</v>
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="n">
-        <v>1.49499175519522</v>
+        <v>1.452010993117149</v>
       </c>
       <c r="D26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>30590</v>
+        <v>30682</v>
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="n">
-        <v>1.494321578003586</v>
+        <v>1.403311835578331</v>
       </c>
       <c r="D27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>30621</v>
+        <v>30713</v>
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="n">
-        <v>1.466490644772235</v>
+        <v>1.491424354703187</v>
       </c>
       <c r="D28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>30651</v>
+        <v>30742</v>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="n">
-        <v>1.452010993117149</v>
+        <v>1.441545295039778</v>
       </c>
       <c r="D29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>30682</v>
+        <v>30773</v>
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="n">
-        <v>1.403311835578331</v>
+        <v>1.396258047979029</v>
       </c>
       <c r="D30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>30713</v>
+        <v>30803</v>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="n">
-        <v>1.491424354703187</v>
+        <v>1.386577944905407</v>
       </c>
       <c r="D31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>30742</v>
+        <v>30834</v>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="n">
-        <v>1.441545295039778</v>
+        <v>1.356300050353996</v>
       </c>
       <c r="D32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>30773</v>
+        <v>30864</v>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="n">
-        <v>1.396258047979029</v>
+        <v>1.310959656815932</v>
       </c>
       <c r="D33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>30803</v>
+        <v>30895</v>
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="n">
-        <v>1.386577944905407</v>
+        <v>1.309757729135762</v>
       </c>
       <c r="D34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>30834</v>
+        <v>30926</v>
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="n">
-        <v>1.356300050353996</v>
+        <v>1.238696936901905</v>
       </c>
       <c r="D35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>30864</v>
+        <v>30956</v>
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="n">
-        <v>1.310959656815932</v>
+        <v>1.216693013545529</v>
       </c>
       <c r="D36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>30895</v>
+        <v>30987</v>
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="n">
-        <v>1.309757729135762</v>
+        <v>1.203659123736158</v>
       </c>
       <c r="D37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>30926</v>
+        <v>31017</v>
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="n">
-        <v>1.238696936901905</v>
+        <v>1.157943465540911</v>
       </c>
       <c r="D38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>30956</v>
+        <v>31048</v>
       </c>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="n">
-        <v>1.216693013545529</v>
+        <v>1.12968818053122</v>
       </c>
       <c r="D39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>30987</v>
+        <v>31079</v>
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="n">
-        <v>1.203659123736158</v>
+        <v>1.08201687946332</v>
       </c>
       <c r="D40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>31017</v>
+        <v>31107</v>
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="n">
-        <v>1.157943465540911</v>
+        <v>1.230012269864397</v>
       </c>
       <c r="D41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>31048</v>
+        <v>31138</v>
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="n">
-        <v>1.12968818053122</v>
+        <v>1.238543488215798</v>
       </c>
       <c r="D42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>31079</v>
+        <v>31168</v>
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="n">
-        <v>1.08201687946332</v>
+        <v>1.286504567091213</v>
       </c>
       <c r="D43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>31107</v>
+        <v>31199</v>
       </c>
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="n">
-        <v>1.230012269864397</v>
+        <v>1.311991603253739</v>
       </c>
       <c r="D44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>31138</v>
+        <v>31229</v>
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="n">
-        <v>1.238543488215798</v>
+        <v>1.416029453412631</v>
       </c>
       <c r="D45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>31168</v>
+        <v>31260</v>
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="n">
-        <v>1.286504567091213</v>
+        <v>1.396453048357857</v>
       </c>
       <c r="D46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>31199</v>
+        <v>31291</v>
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="n">
-        <v>1.311991603253739</v>
+        <v>1.407063498158534</v>
       </c>
       <c r="D47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>31229</v>
+        <v>31321</v>
       </c>
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="n">
-        <v>1.416029453412631</v>
+        <v>1.445086767850582</v>
       </c>
       <c r="D48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>31260</v>
+        <v>31352</v>
       </c>
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="n">
-        <v>1.396453048357857</v>
+        <v>1.490312965722802</v>
       </c>
       <c r="D49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>31291</v>
+        <v>31382</v>
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="n">
-        <v>1.407063498158534</v>
+        <v>1.445504481063891</v>
       </c>
       <c r="D50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>31321</v>
+        <v>31413</v>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="n">
-        <v>1.445086767850582</v>
+        <v>1.408649065821973</v>
       </c>
       <c r="D51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>31352</v>
+        <v>31444</v>
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>1.490312965722802</v>
+        <v>1.450536656497341</v>
       </c>
       <c r="D52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>31382</v>
+        <v>31472</v>
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="n">
-        <v>1.445504481063891</v>
+        <v>1.477978169612124</v>
       </c>
       <c r="D53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>31413</v>
+        <v>31503</v>
       </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="n">
-        <v>1.408649065821973</v>
+        <v>1.553518719900575</v>
       </c>
       <c r="D54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>31444</v>
+        <v>31533</v>
       </c>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="n">
-        <v>1.450536656497341</v>
+        <v>1.472537224931151</v>
       </c>
       <c r="D55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>31472</v>
+        <v>31564</v>
       </c>
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="n">
-        <v>1.477978169612124</v>
+        <v>1.533507060258838</v>
       </c>
       <c r="D56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>31503</v>
+        <v>31594</v>
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="n">
-        <v>1.553518719900575</v>
+        <v>1.492091935125216</v>
       </c>
       <c r="D57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>31533</v>
+        <v>31625</v>
       </c>
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="n">
-        <v>1.472537224931151</v>
+        <v>1.487431250555741</v>
       </c>
       <c r="D58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>31564</v>
+        <v>31656</v>
       </c>
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="n">
-        <v>1.533507060258838</v>
+        <v>1.447596968042893</v>
       </c>
       <c r="D59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>31594</v>
+        <v>31686</v>
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="n">
-        <v>1.492091935125216</v>
+        <v>1.408450743900021</v>
       </c>
       <c r="D60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>31625</v>
+        <v>31717</v>
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="n">
-        <v>1.487431250555741</v>
+        <v>1.437194575493036</v>
       </c>
       <c r="D61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>31656</v>
-      </c>
-      <c r="B62" t="inlineStr"/>
+        <v>31747</v>
+      </c>
+      <c r="B62" t="n">
+        <v>167346000000</v>
+      </c>
       <c r="C62" t="n">
-        <v>1.447596968042893</v>
-      </c>
-      <c r="D62" t="inlineStr"/>
+        <v>1.483679481196454</v>
+      </c>
+      <c r="D62" t="n">
+        <v>248287826460.3018</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>31686</v>
-      </c>
-      <c r="B63" t="inlineStr"/>
+        <v>31778</v>
+      </c>
+      <c r="B63" t="n">
+        <v>256387000000</v>
+      </c>
       <c r="C63" t="n">
-        <v>1.408450743900021</v>
-      </c>
-      <c r="D63" t="inlineStr"/>
+        <v>1.51446307695099</v>
+      </c>
+      <c r="D63" t="n">
+        <v>388288644910.2334</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>31717</v>
-      </c>
-      <c r="B64" t="inlineStr"/>
+        <v>31809</v>
+      </c>
+      <c r="B64" t="n">
+        <v>259227000000</v>
+      </c>
       <c r="C64" t="n">
-        <v>1.437194575493036</v>
-      </c>
-      <c r="D64" t="inlineStr"/>
+        <v>1.546551166926212</v>
+      </c>
+      <c r="D64" t="n">
+        <v>400907819348.781</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>31747</v>
+        <v>31837</v>
       </c>
       <c r="B65" t="n">
-        <v>167346000000</v>
+        <v>263558000000</v>
       </c>
       <c r="C65" t="n">
-        <v>1.483679481196454</v>
+        <v>1.604106589867176</v>
       </c>
       <c r="D65" t="n">
-        <v>248287826460.3018</v>
+        <v>422775124612.2133</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>31778</v>
+        <v>31868</v>
       </c>
       <c r="B66" t="n">
-        <v>256387000000</v>
+        <v>267827000000</v>
       </c>
       <c r="C66" t="n">
-        <v>1.51446307695099</v>
+        <v>1.660577963828195</v>
       </c>
       <c r="D66" t="n">
-        <v>388288644910.2334</v>
+        <v>444747614318.2139</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>31809</v>
+        <v>31898</v>
       </c>
       <c r="B67" t="n">
-        <v>259227000000</v>
+        <v>270696000000</v>
       </c>
       <c r="C67" t="n">
-        <v>1.546551166926212</v>
+        <v>1.62813415825464</v>
       </c>
       <c r="D67" t="n">
-        <v>400907819348.781</v>
+        <v>440729404102.8981</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>31837</v>
+        <v>31929</v>
       </c>
       <c r="B68" t="n">
-        <v>263558000000</v>
+        <v>272706000000</v>
       </c>
       <c r="C68" t="n">
-        <v>1.604106589867176</v>
+        <v>1.612383154220676</v>
       </c>
       <c r="D68" t="n">
-        <v>422775124612.2133</v>
+        <v>439706560454.9036</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>31868</v>
+        <v>31959</v>
       </c>
       <c r="B69" t="n">
-        <v>267827000000</v>
+        <v>277426000000</v>
       </c>
       <c r="C69" t="n">
-        <v>1.660577963828195</v>
+        <v>1.593117807541077</v>
       </c>
       <c r="D69" t="n">
-        <v>444747614318.2139</v>
+        <v>441972300874.8909</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>31898</v>
+        <v>31990</v>
       </c>
       <c r="B70" t="n">
-        <v>270696000000</v>
+        <v>280137000000</v>
       </c>
       <c r="C70" t="n">
-        <v>1.62813415825464</v>
+        <v>1.630523318252569</v>
       </c>
       <c r="D70" t="n">
-        <v>440729404102.8981</v>
+        <v>456769910805.3199</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>31929</v>
+        <v>32021</v>
       </c>
       <c r="B71" t="n">
-        <v>272706000000</v>
+        <v>281239000000</v>
       </c>
       <c r="C71" t="n">
-        <v>1.612383154220676</v>
+        <v>1.628929766591794</v>
       </c>
       <c r="D71" t="n">
-        <v>439706560454.9036</v>
+        <v>458118578626.5095</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>31959</v>
+        <v>32051</v>
       </c>
       <c r="B72" t="n">
-        <v>277426000000</v>
+        <v>286877000000</v>
       </c>
       <c r="C72" t="n">
-        <v>1.593117807541077</v>
+        <v>1.722949719554613</v>
       </c>
       <c r="D72" t="n">
-        <v>441972300874.8909</v>
+        <v>494274646696.6686</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>31990</v>
+        <v>32082</v>
       </c>
       <c r="B73" t="n">
-        <v>280137000000</v>
+        <v>289336000000</v>
       </c>
       <c r="C73" t="n">
-        <v>1.630523318252569</v>
+        <v>1.831837366401124</v>
       </c>
       <c r="D73" t="n">
-        <v>456769910805.3199</v>
+        <v>530016496245.0356</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>32021</v>
+        <v>32112</v>
       </c>
       <c r="B74" t="n">
-        <v>281239000000</v>
+        <v>291584000000</v>
       </c>
       <c r="C74" t="n">
-        <v>1.628929766591794</v>
+        <v>1.887148482975118</v>
       </c>
       <c r="D74" t="n">
-        <v>458118578626.5095</v>
+        <v>550262303259.8169</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>32051</v>
+        <v>32143</v>
       </c>
       <c r="B75" t="n">
-        <v>286877000000</v>
+        <v>295153000000</v>
       </c>
       <c r="C75" t="n">
-        <v>1.722949719554613</v>
+        <v>1.769911504424779</v>
       </c>
       <c r="D75" t="n">
-        <v>494274646696.6686</v>
+        <v>522394690265.4868</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>32082</v>
+        <v>32174</v>
       </c>
       <c r="B76" t="n">
-        <v>289336000000</v>
+        <v>297480000000</v>
       </c>
       <c r="C76" t="n">
-        <v>1.831837366401124</v>
+        <v>1.773049613953021</v>
       </c>
       <c r="D76" t="n">
-        <v>530016496245.0356</v>
+        <v>527446799158.7447</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>32112</v>
+        <v>32203</v>
       </c>
       <c r="B77" t="n">
-        <v>291584000000</v>
+        <v>302560000000</v>
       </c>
       <c r="C77" t="n">
-        <v>1.887148482975118</v>
+        <v>1.884658841223919</v>
       </c>
       <c r="D77" t="n">
-        <v>550262303259.8169</v>
+        <v>570222379000.709</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>32143</v>
+        <v>32234</v>
       </c>
       <c r="B78" t="n">
-        <v>295153000000</v>
+        <v>305045000000</v>
       </c>
       <c r="C78" t="n">
-        <v>1.769911504424779</v>
+        <v>1.879345916957492</v>
       </c>
       <c r="D78" t="n">
-        <v>522394690265.4868</v>
+        <v>573285075238.2982</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>32174</v>
+        <v>32264</v>
       </c>
       <c r="B79" t="n">
-        <v>297480000000</v>
+        <v>307415000000</v>
       </c>
       <c r="C79" t="n">
-        <v>1.773049613953021</v>
+        <v>1.840265032025488</v>
       </c>
       <c r="D79" t="n">
-        <v>527446799158.7447</v>
+        <v>565725074820.1155</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>32203</v>
+        <v>32295</v>
       </c>
       <c r="B80" t="n">
-        <v>302560000000</v>
+        <v>313692000000</v>
       </c>
       <c r="C80" t="n">
-        <v>1.884658841223919</v>
+        <v>1.705611403526816</v>
       </c>
       <c r="D80" t="n">
-        <v>570222379000.709</v>
+        <v>535036652395.1338</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>32234</v>
+        <v>32325</v>
       </c>
       <c r="B81" t="n">
-        <v>305045000000</v>
+        <v>319146000000</v>
       </c>
       <c r="C81" t="n">
-        <v>1.879345916957492</v>
+        <v>1.711449656390541</v>
       </c>
       <c r="D81" t="n">
-        <v>573285075238.2982</v>
+        <v>546202312038.4155</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>32264</v>
+        <v>32356</v>
       </c>
       <c r="B82" t="n">
-        <v>307415000000</v>
+        <v>323042000000</v>
       </c>
       <c r="C82" t="n">
-        <v>1.840265032025488</v>
+        <v>1.680954754060266</v>
       </c>
       <c r="D82" t="n">
-        <v>565725074820.1155</v>
+        <v>543018985661.1365</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>32295</v>
+        <v>32387</v>
       </c>
       <c r="B83" t="n">
-        <v>313692000000</v>
+        <v>327821000000</v>
       </c>
       <c r="C83" t="n">
-        <v>1.705611403526816</v>
+        <v>1.686056285853039</v>
       </c>
       <c r="D83" t="n">
-        <v>535036652395.1338</v>
+        <v>552724657684.6289</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>32325</v>
+        <v>32417</v>
       </c>
       <c r="B84" t="n">
-        <v>319146000000</v>
+        <v>331767000000</v>
       </c>
       <c r="C84" t="n">
-        <v>1.711449656390541</v>
+        <v>1.76959826987085</v>
       </c>
       <c r="D84" t="n">
-        <v>546202312038.4155</v>
+        <v>587094309200.2423</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>32356</v>
+        <v>32448</v>
       </c>
       <c r="B85" t="n">
-        <v>323042000000</v>
+        <v>333365000000</v>
       </c>
       <c r="C85" t="n">
-        <v>1.680954754060266</v>
+        <v>1.848087127254456</v>
       </c>
       <c r="D85" t="n">
-        <v>543018985661.1365</v>
+        <v>616087565177.1819</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>32387</v>
+        <v>32478</v>
       </c>
       <c r="B86" t="n">
-        <v>327821000000</v>
+        <v>339273000000</v>
       </c>
       <c r="C86" t="n">
-        <v>1.686056285853039</v>
+        <v>1.807991354329983</v>
       </c>
       <c r="D86" t="n">
-        <v>552724657684.6289</v>
+        <v>613402650757.5963</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>32417</v>
+        <v>32509</v>
       </c>
       <c r="B87" t="n">
-        <v>331767000000</v>
+        <v>343548000000</v>
       </c>
       <c r="C87" t="n">
-        <v>1.76959826987085</v>
+        <v>1.755926158599149</v>
       </c>
       <c r="D87" t="n">
-        <v>587094309200.2423</v>
+        <v>603244919934.4203</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>32448</v>
+        <v>32540</v>
       </c>
       <c r="B88" t="n">
-        <v>333365000000</v>
+        <v>349624000000</v>
       </c>
       <c r="C88" t="n">
-        <v>1.848087127254456</v>
+        <v>1.743071261232852</v>
       </c>
       <c r="D88" t="n">
-        <v>616087565177.1819</v>
+        <v>609419546637.2748</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>32478</v>
+        <v>32568</v>
       </c>
       <c r="B89" t="n">
-        <v>339273000000</v>
+        <v>353708000000</v>
       </c>
       <c r="C89" t="n">
-        <v>1.807991354329983</v>
+        <v>1.685488005578561</v>
       </c>
       <c r="D89" t="n">
-        <v>613402650757.5963</v>
+        <v>596170591477.1816</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>32509</v>
+        <v>32599</v>
       </c>
       <c r="B90" t="n">
-        <v>343548000000</v>
+        <v>357496000000</v>
       </c>
       <c r="C90" t="n">
-        <v>1.755926158599149</v>
+        <v>1.688048587305054</v>
       </c>
       <c r="D90" t="n">
-        <v>603244919934.4203</v>
+        <v>603470617767.2078</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>32540</v>
+        <v>32629</v>
       </c>
       <c r="B91" t="n">
-        <v>349624000000</v>
+        <v>363871000000</v>
       </c>
       <c r="C91" t="n">
-        <v>1.743071261232852</v>
+        <v>1.572079886371324</v>
       </c>
       <c r="D91" t="n">
-        <v>609419546637.2748</v>
+        <v>572034280333.8199</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>32568</v>
+        <v>32660</v>
       </c>
       <c r="B92" t="n">
-        <v>353708000000</v>
+        <v>375179000000</v>
       </c>
       <c r="C92" t="n">
-        <v>1.685488005578561</v>
+        <v>1.550147263990079</v>
       </c>
       <c r="D92" t="n">
-        <v>596170591477.1816</v>
+        <v>581582700356.5339</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>32599</v>
+        <v>32690</v>
       </c>
       <c r="B93" t="n">
-        <v>357496000000</v>
+        <v>377375000000</v>
       </c>
       <c r="C93" t="n">
-        <v>1.688048587305054</v>
+        <v>1.661129568106312</v>
       </c>
       <c r="D93" t="n">
-        <v>603470617767.2078</v>
+        <v>626868770764.1196</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>32629</v>
+        <v>32721</v>
       </c>
       <c r="B94" t="n">
-        <v>363871000000</v>
+        <v>384845000000</v>
       </c>
       <c r="C94" t="n">
-        <v>1.572079886371324</v>
+        <v>1.573564097976961</v>
       </c>
       <c r="D94" t="n">
-        <v>572034280333.8199</v>
+        <v>605578275285.9437</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>32660</v>
+        <v>32752</v>
       </c>
       <c r="B95" t="n">
-        <v>375179000000</v>
+        <v>389532000000</v>
       </c>
       <c r="C95" t="n">
-        <v>1.550147263990079</v>
+        <v>1.618908907848758</v>
       </c>
       <c r="D95" t="n">
-        <v>581582700356.5339</v>
+        <v>630616824692.1426</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>32690</v>
+        <v>32782</v>
       </c>
       <c r="B96" t="n">
-        <v>377375000000</v>
+        <v>396177000000</v>
       </c>
       <c r="C96" t="n">
-        <v>1.661129568106312</v>
+        <v>1.579778781049644</v>
       </c>
       <c r="D96" t="n">
-        <v>626868770764.1196</v>
+        <v>625872018139.9047</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>32721</v>
+        <v>32813</v>
       </c>
       <c r="B97" t="n">
-        <v>384845000000</v>
+        <v>398365000000</v>
       </c>
       <c r="C97" t="n">
-        <v>1.573564097976961</v>
+        <v>1.569119699213562</v>
       </c>
       <c r="D97" t="n">
-        <v>605578275285.9437</v>
+        <v>625082368977.2106</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>32752</v>
+        <v>32843</v>
       </c>
       <c r="B98" t="n">
-        <v>389532000000</v>
+        <v>406096000000</v>
       </c>
       <c r="C98" t="n">
-        <v>1.618908907848758</v>
+        <v>1.612383154220676</v>
       </c>
       <c r="D98" t="n">
-        <v>630616824692.1426</v>
+        <v>654782349396.3995</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>32782</v>
+        <v>32874</v>
       </c>
       <c r="B99" t="n">
-        <v>396177000000</v>
+        <v>411078000000</v>
       </c>
       <c r="C99" t="n">
-        <v>1.579778781049644</v>
+        <v>1.68010752688172</v>
       </c>
       <c r="D99" t="n">
-        <v>625872018139.9047</v>
+        <v>690655241935.4839</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>32813</v>
+        <v>32905</v>
       </c>
       <c r="B100" t="n">
-        <v>398365000000</v>
+        <v>414389000000</v>
       </c>
       <c r="C100" t="n">
-        <v>1.569119699213562</v>
+        <v>1.690617132396184</v>
       </c>
       <c r="D100" t="n">
-        <v>625082368977.2106</v>
+        <v>700573142876.5221</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>32843</v>
+        <v>32933</v>
       </c>
       <c r="B101" t="n">
-        <v>406096000000</v>
+        <v>420831000000</v>
       </c>
       <c r="C101" t="n">
-        <v>1.612383154220676</v>
+        <v>1.645548817599948</v>
       </c>
       <c r="D101" t="n">
-        <v>654782349396.3995</v>
+        <v>692497954459.4036</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>32874</v>
+        <v>32964</v>
       </c>
       <c r="B102" t="n">
-        <v>411078000000</v>
+        <v>424488000000</v>
       </c>
       <c r="C102" t="n">
-        <v>1.68010752688172</v>
+        <v>1.635055645358262</v>
       </c>
       <c r="D102" t="n">
-        <v>690655241935.4839</v>
+        <v>694061500786.8378</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>32905</v>
+        <v>32994</v>
       </c>
       <c r="B103" t="n">
-        <v>414389000000</v>
+        <v>427456000000</v>
       </c>
       <c r="C103" t="n">
-        <v>1.690617132396184</v>
+        <v>1.677570961796895</v>
       </c>
       <c r="D103" t="n">
-        <v>700573142876.5221</v>
+        <v>717087773045.8534</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>32933</v>
+        <v>33025</v>
       </c>
       <c r="B104" t="n">
-        <v>420831000000</v>
+        <v>431401000000</v>
       </c>
       <c r="C104" t="n">
-        <v>1.645548817599948</v>
+        <v>1.743983196931175</v>
       </c>
       <c r="D104" t="n">
-        <v>692497954459.4036</v>
+        <v>752356095139.306</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>32964</v>
+        <v>33055</v>
       </c>
       <c r="B105" t="n">
-        <v>424488000000</v>
+        <v>432318000000</v>
       </c>
       <c r="C105" t="n">
-        <v>1.635055645358262</v>
+        <v>1.85908171736838</v>
       </c>
       <c r="D105" t="n">
-        <v>694061500786.8378</v>
+        <v>803714489889.2632</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>32994</v>
+        <v>33086</v>
       </c>
       <c r="B106" t="n">
-        <v>427456000000</v>
+        <v>435026000000</v>
       </c>
       <c r="C106" t="n">
-        <v>1.677570961796895</v>
+        <v>1.890716474340151</v>
       </c>
       <c r="D106" t="n">
-        <v>717087773045.8534</v>
+        <v>822510824966.2986</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>33025</v>
+        <v>33117</v>
       </c>
       <c r="B107" t="n">
-        <v>431401000000</v>
+        <v>439553000000</v>
       </c>
       <c r="C107" t="n">
-        <v>1.743983196931175</v>
+        <v>1.870557356133283</v>
       </c>
       <c r="D107" t="n">
-        <v>752356095139.306</v>
+        <v>822209097560.4528</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>33055</v>
+        <v>33147</v>
       </c>
       <c r="B108" t="n">
-        <v>432318000000</v>
+        <v>441296000000</v>
       </c>
       <c r="C108" t="n">
-        <v>1.85908171736838</v>
+        <v>1.944390471405609</v>
       </c>
       <c r="D108" t="n">
-        <v>803714489889.2632</v>
+        <v>858051737469.4095</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>33086</v>
+        <v>33178</v>
       </c>
       <c r="B109" t="n">
-        <v>435026000000</v>
+        <v>446453000000</v>
       </c>
       <c r="C109" t="n">
-        <v>1.890716474340151</v>
+        <v>1.936858340621409</v>
       </c>
       <c r="D109" t="n">
-        <v>822510824966.2986</v>
+        <v>864716216745.4497</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>33117</v>
+        <v>33208</v>
       </c>
       <c r="B110" t="n">
-        <v>439553000000</v>
+        <v>448038000000</v>
       </c>
       <c r="C110" t="n">
-        <v>1.870557356133283</v>
+        <v>1.929384526336099</v>
       </c>
       <c r="D110" t="n">
-        <v>822209097560.4528</v>
+        <v>864437584410.5731</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>33147</v>
+        <v>33239</v>
       </c>
       <c r="B111" t="n">
-        <v>441296000000</v>
+        <v>449369000000</v>
       </c>
       <c r="C111" t="n">
-        <v>1.944390471405609</v>
+        <v>1.958863820590327</v>
       </c>
       <c r="D111" t="n">
-        <v>858051737469.4095</v>
+        <v>880252676194.8546</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>33178</v>
+        <v>33270</v>
       </c>
       <c r="B112" t="n">
-        <v>446453000000</v>
+        <v>450805000000</v>
       </c>
       <c r="C112" t="n">
-        <v>1.936858340621409</v>
+        <v>1.912045889101338</v>
       </c>
       <c r="D112" t="n">
-        <v>864716216745.4497</v>
+        <v>861959847036.3289</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>33208</v>
+        <v>33298</v>
       </c>
       <c r="B113" t="n">
-        <v>448038000000</v>
+        <v>452892000000</v>
       </c>
       <c r="C113" t="n">
-        <v>1.929384526336099</v>
+        <v>1.740644038294169</v>
       </c>
       <c r="D113" t="n">
-        <v>864437584410.5731</v>
+        <v>788323759791.1227</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>33239</v>
+        <v>33329</v>
       </c>
       <c r="B114" t="n">
-        <v>449369000000</v>
+        <v>454708000000</v>
       </c>
       <c r="C114" t="n">
-        <v>1.958863820590327</v>
+        <v>1.732501732501732</v>
       </c>
       <c r="D114" t="n">
-        <v>880252676194.8546</v>
+        <v>787782397782.3977</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>33270</v>
+        <v>33359</v>
       </c>
       <c r="B115" t="n">
-        <v>450805000000</v>
+        <v>457271000000</v>
       </c>
       <c r="C115" t="n">
-        <v>1.912045889101338</v>
+        <v>1.697216564833673</v>
       </c>
       <c r="D115" t="n">
-        <v>861959847036.3289</v>
+        <v>776087915818.0585</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>33298</v>
+        <v>33390</v>
       </c>
       <c r="B116" t="n">
-        <v>452892000000</v>
+        <v>458100000000</v>
       </c>
       <c r="C116" t="n">
-        <v>1.740644038294169</v>
+        <v>1.619170984455959</v>
       </c>
       <c r="D116" t="n">
-        <v>788323759791.1227</v>
+        <v>741742227979.2747</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>33329</v>
+        <v>33420</v>
       </c>
       <c r="B117" t="n">
-        <v>454708000000</v>
+        <v>457943000000</v>
       </c>
       <c r="C117" t="n">
-        <v>1.732501732501732</v>
+        <v>1.685772083614296</v>
       </c>
       <c r="D117" t="n">
-        <v>787782397782.3977</v>
+        <v>771987525286.5813</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>33359</v>
+        <v>33451</v>
       </c>
       <c r="B118" t="n">
-        <v>457271000000</v>
+        <v>459644000000</v>
       </c>
       <c r="C118" t="n">
-        <v>1.697216564833673</v>
+        <v>1.68321831341525</v>
       </c>
       <c r="D118" t="n">
-        <v>776087915818.0585</v>
+        <v>773681198451.4392</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>33390</v>
+        <v>33482</v>
       </c>
       <c r="B119" t="n">
-        <v>458100000000</v>
+        <v>461653000000</v>
       </c>
       <c r="C119" t="n">
-        <v>1.619170984455959</v>
+        <v>1.747030048916841</v>
       </c>
       <c r="D119" t="n">
-        <v>741742227979.2747</v>
+        <v>806521663172.6066</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>33420</v>
+        <v>33512</v>
       </c>
       <c r="B120" t="n">
-        <v>457943000000</v>
+        <v>460828000000</v>
       </c>
       <c r="C120" t="n">
-        <v>1.685772083614296</v>
+        <v>1.742160278745645</v>
       </c>
       <c r="D120" t="n">
-        <v>771987525286.5813</v>
+        <v>802836236933.798</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>33451</v>
+        <v>33543</v>
       </c>
       <c r="B121" t="n">
-        <v>459644000000</v>
+        <v>461197000000</v>
       </c>
       <c r="C121" t="n">
-        <v>1.68321831341525</v>
+        <v>1.76772140710624</v>
       </c>
       <c r="D121" t="n">
-        <v>773681198451.4392</v>
+        <v>815267809793.1766</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>33482</v>
+        <v>33573</v>
       </c>
       <c r="B122" t="n">
-        <v>461653000000</v>
+        <v>462476000000</v>
       </c>
       <c r="C122" t="n">
-        <v>1.747030048916841</v>
+        <v>1.868460388639761</v>
       </c>
       <c r="D122" t="n">
-        <v>806521663172.6066</v>
+        <v>864118086696.562</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>33512</v>
+        <v>33604</v>
       </c>
       <c r="B123" t="n">
-        <v>460828000000</v>
+        <v>466076000000</v>
       </c>
       <c r="C123" t="n">
-        <v>1.742160278745645</v>
+        <v>1.787629603146228</v>
       </c>
       <c r="D123" t="n">
-        <v>802836236933.798</v>
+        <v>833171254915.9813</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>33543</v>
+        <v>33635</v>
       </c>
       <c r="B124" t="n">
-        <v>461197000000</v>
+        <v>467471000000</v>
       </c>
       <c r="C124" t="n">
-        <v>1.76772140710624</v>
+        <v>1.757469244288225</v>
       </c>
       <c r="D124" t="n">
-        <v>815267809793.1766</v>
+        <v>821565905096.6609</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>33573</v>
+        <v>33664</v>
       </c>
       <c r="B125" t="n">
-        <v>462476000000</v>
+        <v>468718000000</v>
       </c>
       <c r="C125" t="n">
-        <v>1.868460388639761</v>
+        <v>1.735809755250825</v>
       </c>
       <c r="D125" t="n">
-        <v>864118086696.562</v>
+        <v>813605276861.656</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>33604</v>
+        <v>33695</v>
       </c>
       <c r="B126" t="n">
-        <v>466076000000</v>
+        <v>472082000000</v>
       </c>
       <c r="C126" t="n">
-        <v>1.787629603146228</v>
+        <v>1.779359430604982</v>
       </c>
       <c r="D126" t="n">
-        <v>833171254915.9813</v>
+        <v>840003558718.8611</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>33635</v>
+        <v>33725</v>
       </c>
       <c r="B127" t="n">
-        <v>467471000000</v>
+        <v>469296000000</v>
       </c>
       <c r="C127" t="n">
-        <v>1.757469244288225</v>
+        <v>1.827485380116959</v>
       </c>
       <c r="D127" t="n">
-        <v>821565905096.6609</v>
+        <v>857631578947.3684</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>33664</v>
+        <v>33756</v>
       </c>
       <c r="B128" t="n">
-        <v>468718000000</v>
+        <v>471863000000</v>
       </c>
       <c r="C128" t="n">
-        <v>1.735809755250825</v>
+        <v>1.903311762466692</v>
       </c>
       <c r="D128" t="n">
-        <v>813605276861.656</v>
+        <v>898102398172.8208</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>33695</v>
+        <v>33786</v>
       </c>
       <c r="B129" t="n">
-        <v>472082000000</v>
+        <v>473181000000</v>
       </c>
       <c r="C129" t="n">
-        <v>1.779359430604982</v>
+        <v>1.927153594141453</v>
       </c>
       <c r="D129" t="n">
-        <v>840003558718.8611</v>
+        <v>911892464829.4469</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>33725</v>
+        <v>33817</v>
       </c>
       <c r="B130" t="n">
-        <v>469296000000</v>
+        <v>472137000000</v>
       </c>
       <c r="C130" t="n">
-        <v>1.827485380116959</v>
+        <v>1.990842126219391</v>
       </c>
       <c r="D130" t="n">
-        <v>857631578947.3684</v>
+        <v>939950228946.8446</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>33756</v>
+        <v>33848</v>
       </c>
       <c r="B131" t="n">
-        <v>471863000000</v>
+        <v>478052000000</v>
       </c>
       <c r="C131" t="n">
-        <v>1.903311762466692</v>
+        <v>1.786033220217896</v>
       </c>
       <c r="D131" t="n">
-        <v>898102398172.8208</v>
+        <v>853816752991.6057</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>33786</v>
+        <v>33878</v>
       </c>
       <c r="B132" t="n">
-        <v>473181000000</v>
+        <v>484454000000</v>
       </c>
       <c r="C132" t="n">
-        <v>1.927153594141453</v>
+        <v>1.556904873112253</v>
       </c>
       <c r="D132" t="n">
-        <v>911892464829.4469</v>
+        <v>754248793398.7233</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>33817</v>
+        <v>33909</v>
       </c>
       <c r="B133" t="n">
-        <v>472137000000</v>
+        <v>483020000000</v>
       </c>
       <c r="C133" t="n">
-        <v>1.990842126219391</v>
+        <v>1.516990291262136</v>
       </c>
       <c r="D133" t="n">
-        <v>939950228946.8446</v>
+        <v>732736650485.4369</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>33848</v>
+        <v>33939</v>
       </c>
       <c r="B134" t="n">
-        <v>478052000000</v>
+        <v>481568000000</v>
       </c>
       <c r="C134" t="n">
-        <v>1.786033220217896</v>
+        <v>1.510117789187557</v>
       </c>
       <c r="D134" t="n">
-        <v>853816752991.6057</v>
+        <v>727224403503.4733</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>33878</v>
+        <v>33970</v>
       </c>
       <c r="B135" t="n">
-        <v>484454000000</v>
+        <v>481936000000</v>
       </c>
       <c r="C135" t="n">
-        <v>1.556904873112253</v>
+        <v>1.48720999405116</v>
       </c>
       <c r="D135" t="n">
-        <v>754248793398.7233</v>
+        <v>716740035693.0399</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>33909</v>
+        <v>34001</v>
       </c>
       <c r="B136" t="n">
-        <v>483020000000</v>
+        <v>483932000000</v>
       </c>
       <c r="C136" t="n">
-        <v>1.516990291262136</v>
+        <v>1.426533523537803</v>
       </c>
       <c r="D136" t="n">
-        <v>732736650485.4369</v>
+        <v>690345221112.6962</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>33939</v>
+        <v>34029</v>
       </c>
       <c r="B137" t="n">
-        <v>481568000000</v>
+        <v>484453000000</v>
       </c>
       <c r="C137" t="n">
-        <v>1.510117789187557</v>
+        <v>1.511944360447536</v>
       </c>
       <c r="D137" t="n">
-        <v>727224403503.4733</v>
+        <v>732465981251.8899</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>33970</v>
+        <v>34060</v>
       </c>
       <c r="B138" t="n">
-        <v>481936000000</v>
+        <v>486535000000</v>
       </c>
       <c r="C138" t="n">
-        <v>1.48720999405116</v>
+        <v>1.573564122738002</v>
       </c>
       <c r="D138" t="n">
-        <v>716740035693.0399</v>
+        <v>765594020456.3336</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>34001</v>
+        <v>34090</v>
       </c>
       <c r="B139" t="n">
-        <v>483932000000</v>
+        <v>487020000000</v>
       </c>
       <c r="C139" t="n">
-        <v>1.426533523537803</v>
+        <v>1.562011871290222</v>
       </c>
       <c r="D139" t="n">
-        <v>690345221112.6962</v>
+        <v>760731021555.7638</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>34029</v>
+        <v>34121</v>
       </c>
       <c r="B140" t="n">
-        <v>484453000000</v>
+        <v>490095000000</v>
       </c>
       <c r="C140" t="n">
-        <v>1.511944360447536</v>
+        <v>1.491646778042959</v>
       </c>
       <c r="D140" t="n">
-        <v>732465981251.8899</v>
+        <v>731048627684.9642</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>34060</v>
+        <v>34151</v>
       </c>
       <c r="B141" t="n">
-        <v>486535000000</v>
+        <v>493315000000</v>
       </c>
       <c r="C141" t="n">
-        <v>1.573564122738002</v>
+        <v>1.48214021046391</v>
       </c>
       <c r="D141" t="n">
-        <v>765594020456.3336</v>
+        <v>731161997925.0037</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>34090</v>
+        <v>34182</v>
       </c>
       <c r="B142" t="n">
-        <v>487020000000</v>
+        <v>495794000000</v>
       </c>
       <c r="C142" t="n">
-        <v>1.562011871290222</v>
+        <v>1.492091912861832</v>
       </c>
       <c r="D142" t="n">
-        <v>760731021555.7638</v>
+        <v>739770217845.4192</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>34121</v>
+        <v>34213</v>
       </c>
       <c r="B143" t="n">
-        <v>490095000000</v>
+        <v>497197000000</v>
       </c>
       <c r="C143" t="n">
-        <v>1.491646778042959</v>
+        <v>1.49655791679138</v>
       </c>
       <c r="D143" t="n">
-        <v>731048627684.9642</v>
+        <v>744084106554.9237</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>34151</v>
+        <v>34243</v>
       </c>
       <c r="B144" t="n">
-        <v>493315000000</v>
+        <v>500895000000</v>
       </c>
       <c r="C144" t="n">
-        <v>1.48214021046391</v>
+        <v>1.478852410529429</v>
       </c>
       <c r="D144" t="n">
-        <v>731161997925.0037</v>
+        <v>740749778172.1384</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>34182</v>
+        <v>34274</v>
       </c>
       <c r="B145" t="n">
-        <v>495794000000</v>
+        <v>503932000000</v>
       </c>
       <c r="C145" t="n">
-        <v>1.492091912861832</v>
+        <v>1.485663348685188</v>
       </c>
       <c r="D145" t="n">
-        <v>739770217845.4192</v>
+        <v>748673302629.624</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>34213</v>
+        <v>34304</v>
       </c>
       <c r="B146" t="n">
-        <v>497197000000</v>
+        <v>509187000000</v>
       </c>
       <c r="C146" t="n">
-        <v>1.49655791679138</v>
+        <v>1.477104874446086</v>
       </c>
       <c r="D146" t="n">
-        <v>744084106554.9237</v>
+        <v>752122599704.579</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>34243</v>
+        <v>34335</v>
       </c>
       <c r="B147" t="n">
-        <v>500895000000</v>
+        <v>510055000000</v>
       </c>
       <c r="C147" t="n">
-        <v>1.478852410529429</v>
+        <v>1.506931886678722</v>
       </c>
       <c r="D147" t="n">
-        <v>740749778172.1384</v>
+        <v>768618143459.9156</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>34274</v>
+        <v>34366</v>
       </c>
       <c r="B148" t="n">
-        <v>503932000000</v>
+        <v>514151000000</v>
       </c>
       <c r="C148" t="n">
-        <v>1.485663348685188</v>
+        <v>1.485222040695084</v>
       </c>
       <c r="D148" t="n">
-        <v>748673302629.624</v>
+        <v>763628397445.418</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>34304</v>
+        <v>34394</v>
       </c>
       <c r="B149" t="n">
-        <v>509187000000</v>
+        <v>515832000000</v>
       </c>
       <c r="C149" t="n">
-        <v>1.477104874446086</v>
+        <v>1.483459427384661</v>
       </c>
       <c r="D149" t="n">
-        <v>752122599704.579</v>
+        <v>765215843346.6843</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>34335</v>
+        <v>34425</v>
       </c>
       <c r="B150" t="n">
-        <v>510055000000</v>
+        <v>514532000000</v>
       </c>
       <c r="C150" t="n">
-        <v>1.506931886678722</v>
+        <v>1.51952590791673</v>
       </c>
       <c r="D150" t="n">
-        <v>768618143459.9156</v>
+        <v>781844704452.2109</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>34366</v>
+        <v>34455</v>
       </c>
       <c r="B151" t="n">
-        <v>514151000000</v>
+        <v>517754000000</v>
       </c>
       <c r="C151" t="n">
-        <v>1.485222040695084</v>
+        <v>1.511030522816561</v>
       </c>
       <c r="D151" t="n">
-        <v>763628397445.418</v>
+        <v>782342097310.3656</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>34394</v>
+        <v>34486</v>
       </c>
       <c r="B152" t="n">
-        <v>515832000000</v>
+        <v>517107000000</v>
       </c>
       <c r="C152" t="n">
-        <v>1.483459427384661</v>
+        <v>1.544401544401544</v>
       </c>
       <c r="D152" t="n">
-        <v>765215843346.6843</v>
+        <v>798620849420.8495</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>34425</v>
+        <v>34516</v>
       </c>
       <c r="B153" t="n">
-        <v>514532000000</v>
+        <v>516586000000</v>
       </c>
       <c r="C153" t="n">
-        <v>1.51952590791673</v>
+        <v>1.544163063619518</v>
       </c>
       <c r="D153" t="n">
-        <v>781844704452.2109</v>
+        <v>797693020382.9525</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>34455</v>
+        <v>34547</v>
       </c>
       <c r="B154" t="n">
-        <v>517754000000</v>
+        <v>518463000000</v>
       </c>
       <c r="C154" t="n">
-        <v>1.511030522816561</v>
+        <v>1.534448365812491</v>
       </c>
       <c r="D154" t="n">
-        <v>782342097310.3656</v>
+        <v>795554703084.2413</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>34486</v>
+        <v>34578</v>
       </c>
       <c r="B155" t="n">
-        <v>517107000000</v>
+        <v>521869000000</v>
       </c>
       <c r="C155" t="n">
-        <v>1.544401544401544</v>
+        <v>1.577535888941473</v>
       </c>
       <c r="D155" t="n">
-        <v>798620849420.8495</v>
+        <v>823267076825.9978</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>34516</v>
+        <v>34608</v>
       </c>
       <c r="B156" t="n">
-        <v>516586000000</v>
+        <v>521360000000</v>
       </c>
       <c r="C156" t="n">
-        <v>1.544163063619518</v>
+        <v>1.635858007524947</v>
       </c>
       <c r="D156" t="n">
-        <v>797693020382.9525</v>
+        <v>852870930803.2063</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>34547</v>
+        <v>34639</v>
       </c>
       <c r="B157" t="n">
-        <v>518463000000</v>
+        <v>524815000000</v>
       </c>
       <c r="C157" t="n">
-        <v>1.534448365812491</v>
+        <v>1.563477173233271</v>
       </c>
       <c r="D157" t="n">
-        <v>795554703084.2413</v>
+        <v>820536272670.4191</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>34578</v>
+        <v>34669</v>
       </c>
       <c r="B158" t="n">
-        <v>521869000000</v>
+        <v>527178000000</v>
       </c>
       <c r="C158" t="n">
-        <v>1.577535888941473</v>
+        <v>1.564700359881083</v>
       </c>
       <c r="D158" t="n">
-        <v>823267076825.9978</v>
+        <v>824875606321.3894</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>34608</v>
+        <v>34700</v>
       </c>
       <c r="B159" t="n">
-        <v>521360000000</v>
+        <v>529805000000</v>
       </c>
       <c r="C159" t="n">
-        <v>1.635858007524947</v>
+        <v>1.57952930026852</v>
       </c>
       <c r="D159" t="n">
-        <v>852870930803.2063</v>
+        <v>836842520928.7632</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>34639</v>
+        <v>34731</v>
       </c>
       <c r="B160" t="n">
-        <v>524815000000</v>
+        <v>533740000000</v>
       </c>
       <c r="C160" t="n">
-        <v>1.563477173233271</v>
+        <v>1.58378207158695</v>
       </c>
       <c r="D160" t="n">
-        <v>820536272670.4191</v>
+        <v>845327842888.8186</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>34669</v>
+        <v>34759</v>
       </c>
       <c r="B161" t="n">
-        <v>527178000000</v>
+        <v>542845000000</v>
       </c>
       <c r="C161" t="n">
-        <v>1.564700359881083</v>
+        <v>1.621533971136695</v>
       </c>
       <c r="D161" t="n">
-        <v>824875606321.3894</v>
+        <v>880241608561.6993</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>34700</v>
+        <v>34790</v>
       </c>
       <c r="B162" t="n">
-        <v>529805000000</v>
+        <v>542972000000</v>
       </c>
       <c r="C162" t="n">
-        <v>1.57952930026852</v>
+        <v>1.612383102225089</v>
       </c>
       <c r="D162" t="n">
-        <v>836842520928.7632</v>
+        <v>875478877781.3608</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>34731</v>
+        <v>34820</v>
       </c>
       <c r="B163" t="n">
-        <v>533740000000</v>
+        <v>546596000000</v>
       </c>
       <c r="C163" t="n">
-        <v>1.58378207158695</v>
+        <v>1.587301587301587</v>
       </c>
       <c r="D163" t="n">
-        <v>845327842888.8186</v>
+        <v>867612698412.6984</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>34759</v>
+        <v>34851</v>
       </c>
       <c r="B164" t="n">
-        <v>542845000000</v>
+        <v>550517000000</v>
       </c>
       <c r="C164" t="n">
-        <v>1.621533971136695</v>
+        <v>1.594896331738437</v>
       </c>
       <c r="D164" t="n">
-        <v>880241608561.6993</v>
+        <v>878017543859.6492</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>34790</v>
+        <v>34881</v>
       </c>
       <c r="B165" t="n">
-        <v>542972000000</v>
+        <v>558132000000</v>
       </c>
       <c r="C165" t="n">
-        <v>1.612383102225089</v>
+        <v>1.597444089456869</v>
       </c>
       <c r="D165" t="n">
-        <v>875478877781.3608</v>
+        <v>891584664536.7412</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>34820</v>
+        <v>34912</v>
       </c>
       <c r="B166" t="n">
-        <v>546596000000</v>
+        <v>564063000000</v>
       </c>
       <c r="C166" t="n">
-        <v>1.587301587301587</v>
+        <v>1.549907005579665</v>
       </c>
       <c r="D166" t="n">
-        <v>867612698412.6984</v>
+        <v>874245195288.2827</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>34851</v>
+        <v>34943</v>
       </c>
       <c r="B167" t="n">
-        <v>550517000000</v>
+        <v>568088000000</v>
       </c>
       <c r="C167" t="n">
-        <v>1.594896331738437</v>
+        <v>1.584534938995405</v>
       </c>
       <c r="D167" t="n">
-        <v>878017543859.6492</v>
+        <v>900155284424.0216</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>34881</v>
+        <v>34973</v>
       </c>
       <c r="B168" t="n">
-        <v>558132000000</v>
+        <v>573759000000</v>
       </c>
       <c r="C168" t="n">
-        <v>1.597444089456869</v>
+        <v>1.58052789631737</v>
       </c>
       <c r="D168" t="n">
-        <v>891584664536.7412</v>
+        <v>906842105263.1578</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>34912</v>
+        <v>35004</v>
       </c>
       <c r="B169" t="n">
-        <v>564063000000</v>
+        <v>577784000000</v>
       </c>
       <c r="C169" t="n">
-        <v>1.549907005579665</v>
+        <v>1.531159087429184</v>
       </c>
       <c r="D169" t="n">
-        <v>874245195288.2827</v>
+        <v>884679222171.1836</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>34943</v>
+        <v>35034</v>
       </c>
       <c r="B170" t="n">
-        <v>568088000000</v>
+        <v>580773000000</v>
       </c>
       <c r="C170" t="n">
-        <v>1.584534938995405</v>
+        <v>1.550628004341758</v>
       </c>
       <c r="D170" t="n">
-        <v>900155284424.0216</v>
+        <v>900562877965.576</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>34973</v>
+        <v>35065</v>
       </c>
       <c r="B171" t="n">
-        <v>573759000000</v>
+        <v>588717000000</v>
       </c>
       <c r="C171" t="n">
-        <v>1.58052789631737</v>
+        <v>1.504890895410083</v>
       </c>
       <c r="D171" t="n">
-        <v>906842105263.1578</v>
+        <v>885954853273.1377</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>35004</v>
+        <v>35096</v>
       </c>
       <c r="B172" t="n">
-        <v>577784000000</v>
+        <v>591420000000</v>
       </c>
       <c r="C172" t="n">
-        <v>1.531159087429184</v>
+        <v>1.531628120692296</v>
       </c>
       <c r="D172" t="n">
-        <v>884679222171.1836</v>
+        <v>905835503139.8376</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>35034</v>
+        <v>35125</v>
       </c>
       <c r="B173" t="n">
-        <v>580773000000</v>
+        <v>595989000000</v>
       </c>
       <c r="C173" t="n">
-        <v>1.550628004341758</v>
+        <v>1.526717557251908</v>
       </c>
       <c r="D173" t="n">
-        <v>900562877965.576</v>
+        <v>909906870229.0076</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>35065</v>
+        <v>35156</v>
       </c>
       <c r="B174" t="n">
-        <v>588717000000</v>
+        <v>601125000000</v>
       </c>
       <c r="C174" t="n">
-        <v>1.504890895410083</v>
+        <v>1.507159005275057</v>
       </c>
       <c r="D174" t="n">
-        <v>885954853273.1377</v>
+        <v>905990957045.9684</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>35096</v>
+        <v>35186</v>
       </c>
       <c r="B175" t="n">
-        <v>591420000000</v>
+        <v>601642000000</v>
       </c>
       <c r="C175" t="n">
-        <v>1.531628120692296</v>
+        <v>1.55110904296572</v>
       </c>
       <c r="D175" t="n">
-        <v>905835503139.8376</v>
+        <v>933212346827.9819</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>35125</v>
+        <v>35217</v>
       </c>
       <c r="B176" t="n">
-        <v>595989000000</v>
+        <v>610805000000</v>
       </c>
       <c r="C176" t="n">
-        <v>1.526717557251908</v>
+        <v>1.552795031055901</v>
       </c>
       <c r="D176" t="n">
-        <v>909906870229.0076</v>
+        <v>948454968944.0994</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>35156</v>
+        <v>35247</v>
       </c>
       <c r="B177" t="n">
-        <v>601125000000</v>
+        <v>613639000000</v>
       </c>
       <c r="C177" t="n">
-        <v>1.507159005275057</v>
+        <v>1.556904873112253</v>
       </c>
       <c r="D177" t="n">
-        <v>905990957045.9684</v>
+        <v>955377549431.7297</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>35186</v>
+        <v>35278</v>
       </c>
       <c r="B178" t="n">
-        <v>601642000000</v>
+        <v>617692000000</v>
       </c>
       <c r="C178" t="n">
-        <v>1.55110904296572</v>
+        <v>1.562011871290222</v>
       </c>
       <c r="D178" t="n">
-        <v>933212346827.9819</v>
+        <v>964842236800.9996</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>35217</v>
+        <v>35309</v>
       </c>
       <c r="B179" t="n">
-        <v>610805000000</v>
+        <v>627444000000</v>
       </c>
       <c r="C179" t="n">
-        <v>1.552795031055901</v>
+        <v>1.565435190983093</v>
       </c>
       <c r="D179" t="n">
-        <v>948454968944.0994</v>
+        <v>982222917971.1959</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>35247</v>
+        <v>35339</v>
       </c>
       <c r="B180" t="n">
-        <v>613639000000</v>
+        <v>627153000000</v>
       </c>
       <c r="C180" t="n">
-        <v>1.556904873112253</v>
+        <v>1.627339300244101</v>
       </c>
       <c r="D180" t="n">
-        <v>955377549431.7297</v>
+        <v>1020590724165.989</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>35278</v>
+        <v>35370</v>
       </c>
       <c r="B181" t="n">
-        <v>617692000000</v>
+        <v>633342000000</v>
       </c>
       <c r="C181" t="n">
-        <v>1.562011871290222</v>
+        <v>1.682085786375105</v>
       </c>
       <c r="D181" t="n">
-        <v>964842236800.9996</v>
+        <v>1065335576114.382</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>35309</v>
+        <v>35400</v>
       </c>
       <c r="B182" t="n">
-        <v>627444000000</v>
+        <v>638019000000</v>
       </c>
       <c r="C182" t="n">
-        <v>1.565435190983093</v>
+        <v>1.714383679067375</v>
       </c>
       <c r="D182" t="n">
-        <v>982222917971.1959</v>
+        <v>1093809360534.888</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>35339</v>
+        <v>35431</v>
       </c>
       <c r="B183" t="n">
-        <v>627153000000</v>
+        <v>648709000000</v>
       </c>
       <c r="C183" t="n">
-        <v>1.627339300244101</v>
+        <v>1.602564102564103</v>
       </c>
       <c r="D183" t="n">
-        <v>1020590724165.989</v>
+        <v>1039597756410.256</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>35370</v>
+        <v>35462</v>
       </c>
       <c r="B184" t="n">
-        <v>633342000000</v>
+        <v>654750000000</v>
       </c>
       <c r="C184" t="n">
-        <v>1.682085786375105</v>
+        <v>1.628664495114007</v>
       </c>
       <c r="D184" t="n">
-        <v>1065335576114.382</v>
+        <v>1066368078175.896</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>35400</v>
+        <v>35490</v>
       </c>
       <c r="B185" t="n">
-        <v>638019000000</v>
+        <v>659709000000</v>
       </c>
       <c r="C185" t="n">
-        <v>1.714383679067375</v>
+        <v>1.637465203864418</v>
       </c>
       <c r="D185" t="n">
-        <v>1093809360534.888</v>
+        <v>1080250532176.191</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>35431</v>
+        <v>35521</v>
       </c>
       <c r="B186" t="n">
-        <v>648709000000</v>
+        <v>663306000000</v>
       </c>
       <c r="C186" t="n">
-        <v>1.602564102564103</v>
+        <v>1.623903864891198</v>
       </c>
       <c r="D186" t="n">
-        <v>1039597756410.256</v>
+        <v>1077145177005.521</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>35462</v>
+        <v>35551</v>
       </c>
       <c r="B187" t="n">
-        <v>654750000000</v>
+        <v>669269000000</v>
       </c>
       <c r="C187" t="n">
-        <v>1.628664495114007</v>
+        <v>1.641227638273429</v>
       </c>
       <c r="D187" t="n">
-        <v>1066368078175.896</v>
+        <v>1098422780239.619</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>35490</v>
+        <v>35582</v>
       </c>
       <c r="B188" t="n">
-        <v>659709000000</v>
+        <v>691845000000</v>
       </c>
       <c r="C188" t="n">
-        <v>1.637465203864418</v>
+        <v>1.665556295802798</v>
       </c>
       <c r="D188" t="n">
-        <v>1080250532176.191</v>
+        <v>1152306795469.687</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>35521</v>
+        <v>35612</v>
       </c>
       <c r="B189" t="n">
-        <v>663306000000</v>
+        <v>697606000000</v>
       </c>
       <c r="C189" t="n">
-        <v>1.623903864891198</v>
+        <v>1.640419947506562</v>
       </c>
       <c r="D189" t="n">
-        <v>1077145177005.521</v>
+        <v>1144366797900.262</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>35551</v>
+        <v>35643</v>
       </c>
       <c r="B190" t="n">
-        <v>669269000000</v>
+        <v>700496000000</v>
       </c>
       <c r="C190" t="n">
-        <v>1.641227638273429</v>
+        <v>1.620745542949757</v>
       </c>
       <c r="D190" t="n">
-        <v>1098422780239.619</v>
+        <v>1135325769854.133</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>35582</v>
+        <v>35674</v>
       </c>
       <c r="B191" t="n">
-        <v>691845000000</v>
+        <v>660642000000</v>
       </c>
       <c r="C191" t="n">
-        <v>1.665556295802798</v>
+        <v>1.617861187510112</v>
       </c>
       <c r="D191" t="n">
-        <v>1152306795469.687</v>
+        <v>1068827050639.055</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>35612</v>
+        <v>35704</v>
       </c>
       <c r="B192" t="n">
-        <v>697606000000</v>
+        <v>680538000000</v>
       </c>
       <c r="C192" t="n">
-        <v>1.640419947506562</v>
+        <v>1.672520488375983</v>
       </c>
       <c r="D192" t="n">
-        <v>1144366797900.262</v>
+        <v>1138213748118.414</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>35643</v>
+        <v>35735</v>
       </c>
       <c r="B193" t="n">
-        <v>700496000000</v>
+        <v>684616000000</v>
       </c>
       <c r="C193" t="n">
-        <v>1.620745542949757</v>
+        <v>1.688618709895306</v>
       </c>
       <c r="D193" t="n">
-        <v>1135325769854.133</v>
+        <v>1156055386693.685</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>35674</v>
+        <v>35765</v>
       </c>
       <c r="B194" t="n">
-        <v>660642000000</v>
+        <v>691552000000</v>
       </c>
       <c r="C194" t="n">
-        <v>1.617861187510112</v>
+        <v>1.651800462504129</v>
       </c>
       <c r="D194" t="n">
-        <v>1068827050639.055</v>
+        <v>1142305913445.656</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>35704</v>
+        <v>35796</v>
       </c>
       <c r="B195" t="n">
-        <v>680538000000</v>
+        <v>693281000000</v>
       </c>
       <c r="C195" t="n">
-        <v>1.672520488375983</v>
+        <v>1.63425396306586</v>
       </c>
       <c r="D195" t="n">
-        <v>1138213748118.414</v>
+        <v>1132997221768.263</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>35735</v>
+        <v>35827</v>
       </c>
       <c r="B196" t="n">
-        <v>684616000000</v>
+        <v>696643000000</v>
       </c>
       <c r="C196" t="n">
-        <v>1.688618709895306</v>
+        <v>1.643925694558606</v>
       </c>
       <c r="D196" t="n">
-        <v>1156055386693.685</v>
+        <v>1145229327634.391</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>35765</v>
+        <v>35855</v>
       </c>
       <c r="B197" t="n">
-        <v>691552000000</v>
+        <v>700815000000</v>
       </c>
       <c r="C197" t="n">
-        <v>1.651800462504129</v>
+        <v>1.672520488375983</v>
       </c>
       <c r="D197" t="n">
-        <v>1142305913445.656</v>
+        <v>1172127446061.214</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>35796</v>
+        <v>35886</v>
       </c>
       <c r="B198" t="n">
-        <v>693281000000</v>
+        <v>703314000000</v>
       </c>
       <c r="C198" t="n">
-        <v>1.63425396306586</v>
+        <v>1.672240802675585</v>
       </c>
       <c r="D198" t="n">
-        <v>1132997221768.263</v>
+        <v>1176110367892.977</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>35827</v>
+        <v>35916</v>
       </c>
       <c r="B199" t="n">
-        <v>696643000000</v>
+        <v>706425000000</v>
       </c>
       <c r="C199" t="n">
-        <v>1.643925694558606</v>
+        <v>1.630523398010762</v>
       </c>
       <c r="D199" t="n">
-        <v>1145229327634.391</v>
+        <v>1151842491439.752</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>35855</v>
+        <v>35947</v>
       </c>
       <c r="B200" t="n">
-        <v>700815000000</v>
+        <v>708353000000</v>
       </c>
       <c r="C200" t="n">
-        <v>1.672520488375983</v>
+        <v>1.667500416875104</v>
       </c>
       <c r="D200" t="n">
-        <v>1172127446061.214</v>
+        <v>1181178922794.731</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>35886</v>
+        <v>35977</v>
       </c>
       <c r="B201" t="n">
-        <v>703314000000</v>
+        <v>713928000000</v>
       </c>
       <c r="C201" t="n">
-        <v>1.672240802675585</v>
+        <v>1.633986928104575</v>
       </c>
       <c r="D201" t="n">
-        <v>1176110367892.977</v>
+        <v>1166549019607.843</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>35916</v>
+        <v>36008</v>
       </c>
       <c r="B202" t="n">
-        <v>706425000000</v>
+        <v>716561000000</v>
       </c>
       <c r="C202" t="n">
-        <v>1.630523398010762</v>
+        <v>1.682935038707506</v>
       </c>
       <c r="D202" t="n">
-        <v>1151842491439.752</v>
+        <v>1205925614271.289</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>35947</v>
+        <v>36039</v>
       </c>
       <c r="B203" t="n">
-        <v>708353000000</v>
+        <v>722399000000</v>
       </c>
       <c r="C203" t="n">
-        <v>1.667500416875104</v>
+        <v>1.701837985023826</v>
       </c>
       <c r="D203" t="n">
-        <v>1181178922794.731</v>
+        <v>1229406058543.227</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>35977</v>
+        <v>36069</v>
       </c>
       <c r="B204" t="n">
-        <v>713928000000</v>
+        <v>726082000000</v>
       </c>
       <c r="C204" t="n">
-        <v>1.633986928104575</v>
+        <v>1.675603217158177</v>
       </c>
       <c r="D204" t="n">
-        <v>1166549019607.843</v>
+        <v>1216625335120.644</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>36008</v>
+        <v>36100</v>
       </c>
       <c r="B205" t="n">
-        <v>716561000000</v>
+        <v>728959000000</v>
       </c>
       <c r="C205" t="n">
-        <v>1.682935038707506</v>
+        <v>1.649348507339601</v>
       </c>
       <c r="D205" t="n">
-        <v>1205925614271.289</v>
+        <v>1202307438561.768</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>36039</v>
+        <v>36130</v>
       </c>
       <c r="B206" t="n">
-        <v>722399000000</v>
+        <v>732227000000</v>
       </c>
       <c r="C206" t="n">
-        <v>1.701837985023826</v>
+        <v>1.658374792703151</v>
       </c>
       <c r="D206" t="n">
-        <v>1229406058543.227</v>
+        <v>1214306799336.65</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>36069</v>
+        <v>36161</v>
       </c>
       <c r="B207" t="n">
-        <v>726082000000</v>
+        <v>728221000000</v>
       </c>
       <c r="C207" t="n">
-        <v>1.675603217158177</v>
+        <v>1.645007402533311</v>
       </c>
       <c r="D207" t="n">
-        <v>1216625335120.644</v>
+        <v>1197928935680.211</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>36100</v>
+        <v>36192</v>
       </c>
       <c r="B208" t="n">
-        <v>728959000000</v>
+        <v>730690000000</v>
       </c>
       <c r="C208" t="n">
-        <v>1.649348507339601</v>
+        <v>1.60333493666827</v>
       </c>
       <c r="D208" t="n">
-        <v>1202307438561.768</v>
+        <v>1171540804874.138</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>36130</v>
+        <v>36220</v>
       </c>
       <c r="B209" t="n">
-        <v>732227000000</v>
+        <v>728509000000</v>
       </c>
       <c r="C209" t="n">
-        <v>1.658374792703151</v>
+        <v>1.6116035455278</v>
       </c>
       <c r="D209" t="n">
-        <v>1214306799336.65</v>
+        <v>1174067687348.912</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>36161</v>
+        <v>36251</v>
       </c>
       <c r="B210" t="n">
-        <v>728221000000</v>
+        <v>734269000000</v>
       </c>
       <c r="C210" t="n">
-        <v>1.645007402533311</v>
+        <v>1.609528408176404</v>
       </c>
       <c r="D210" t="n">
-        <v>1197928935680.211</v>
+        <v>1181826814743.28</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>36192</v>
+        <v>36281</v>
       </c>
       <c r="B211" t="n">
-        <v>730690000000</v>
+        <v>738227000000</v>
       </c>
       <c r="C211" t="n">
-        <v>1.60333493666827</v>
+        <v>1.602564102564103</v>
       </c>
       <c r="D211" t="n">
-        <v>1171540804874.138</v>
+        <v>1183056089743.59</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>36220</v>
+        <v>36312</v>
       </c>
       <c r="B212" t="n">
-        <v>728509000000</v>
+        <v>742236000000</v>
       </c>
       <c r="C212" t="n">
-        <v>1.6116035455278</v>
+        <v>1.578282828282828</v>
       </c>
       <c r="D212" t="n">
-        <v>1174067687348.912</v>
+        <v>1171458333333.333</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>36251</v>
+        <v>36342</v>
       </c>
       <c r="B213" t="n">
-        <v>734269000000</v>
+        <v>742970000000</v>
       </c>
       <c r="C213" t="n">
-        <v>1.609528408176404</v>
+        <v>1.621533971136695</v>
       </c>
       <c r="D213" t="n">
-        <v>1181826814743.28</v>
+        <v>1204751094535.43</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>36281</v>
+        <v>36373</v>
       </c>
       <c r="B214" t="n">
-        <v>738227000000</v>
+        <v>743994000000</v>
       </c>
       <c r="C214" t="n">
-        <v>1.602564102564103</v>
+        <v>1.603849238171612</v>
       </c>
       <c r="D214" t="n">
-        <v>1183056089743.59</v>
+        <v>1193254210104.25</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>36312</v>
+        <v>36404</v>
       </c>
       <c r="B215" t="n">
-        <v>742236000000</v>
+        <v>738215000000</v>
       </c>
       <c r="C215" t="n">
-        <v>1.578282828282828</v>
+        <v>1.647446457990115</v>
       </c>
       <c r="D215" t="n">
-        <v>1171458333333.333</v>
+        <v>1216169686985.173</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>36342</v>
+        <v>36434</v>
       </c>
       <c r="B216" t="n">
-        <v>742970000000</v>
+        <v>741828000000</v>
       </c>
       <c r="C216" t="n">
-        <v>1.621533971136695</v>
+        <v>1.644195988161789</v>
       </c>
       <c r="D216" t="n">
-        <v>1204751094535.43</v>
+        <v>1219710621506.083</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>36373</v>
+        <v>36465</v>
       </c>
       <c r="B217" t="n">
-        <v>743994000000</v>
+        <v>748145000000</v>
       </c>
       <c r="C217" t="n">
-        <v>1.603849238171612</v>
+        <v>1.599232368463138</v>
       </c>
       <c r="D217" t="n">
-        <v>1193254210104.25</v>
+        <v>1196457700303.854</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>36404</v>
+        <v>36495</v>
       </c>
       <c r="B218" t="n">
-        <v>738215000000</v>
+        <v>754848000000</v>
       </c>
       <c r="C218" t="n">
-        <v>1.647446457990115</v>
+        <v>1.614726303891491</v>
       </c>
       <c r="D218" t="n">
-        <v>1216169686985.173</v>
+        <v>1218872921039.884</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>36434</v>
+        <v>36526</v>
       </c>
       <c r="B219" t="n">
-        <v>741828000000</v>
+        <v>754955000000</v>
       </c>
       <c r="C219" t="n">
-        <v>1.644195988161789</v>
+        <v>1.616553507921112</v>
       </c>
       <c r="D219" t="n">
-        <v>1219710621506.083</v>
+        <v>1220425153572.583</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>36465</v>
+        <v>36557</v>
       </c>
       <c r="B220" t="n">
-        <v>748145000000</v>
+        <v>762648000000</v>
       </c>
       <c r="C220" t="n">
-        <v>1.599232368463138</v>
+        <v>1.579279848389135</v>
       </c>
       <c r="D220" t="n">
-        <v>1196457700303.854</v>
+        <v>1204434617814.277</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>36495</v>
+        <v>36586</v>
       </c>
       <c r="B221" t="n">
-        <v>754848000000</v>
+        <v>765260000000</v>
       </c>
       <c r="C221" t="n">
-        <v>1.614726303891491</v>
+        <v>1.591596371160274</v>
       </c>
       <c r="D221" t="n">
-        <v>1218872921039.884</v>
+        <v>1217985038994.111</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>36526</v>
+        <v>36617</v>
       </c>
       <c r="B222" t="n">
-        <v>754955000000</v>
+        <v>775440000000</v>
       </c>
       <c r="C222" t="n">
-        <v>1.616553507921112</v>
+        <v>1.553760099440646</v>
       </c>
       <c r="D222" t="n">
-        <v>1220425153572.583</v>
+        <v>1204847731510.255</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>36557</v>
+        <v>36647</v>
       </c>
       <c r="B223" t="n">
-        <v>762648000000</v>
+        <v>786485000000</v>
       </c>
       <c r="C223" t="n">
-        <v>1.579279848389135</v>
+        <v>1.5008254539997</v>
       </c>
       <c r="D223" t="n">
-        <v>1204434617814.277</v>
+        <v>1180376707188.954</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>36586</v>
+        <v>36678</v>
       </c>
       <c r="B224" t="n">
-        <v>765260000000</v>
+        <v>792246000000</v>
       </c>
       <c r="C224" t="n">
-        <v>1.591596371160274</v>
+        <v>1.517450682852807</v>
       </c>
       <c r="D224" t="n">
-        <v>1217985038994.111</v>
+        <v>1202194233687.405</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>36617</v>
+        <v>36708</v>
       </c>
       <c r="B225" t="n">
-        <v>775440000000</v>
+        <v>793545000000</v>
       </c>
       <c r="C225" t="n">
-        <v>1.553760099440646</v>
+        <v>1.5001500150015</v>
       </c>
       <c r="D225" t="n">
-        <v>1204847731510.255</v>
+        <v>1190436543654.365</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>36647</v>
+        <v>36739</v>
       </c>
       <c r="B226" t="n">
-        <v>786485000000</v>
+        <v>801161000000</v>
       </c>
       <c r="C226" t="n">
-        <v>1.5008254539997</v>
+        <v>1.446968600781363</v>
       </c>
       <c r="D226" t="n">
-        <v>1180376707188.954</v>
+        <v>1159254811170.597</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>36678</v>
+        <v>36770</v>
       </c>
       <c r="B227" t="n">
-        <v>792246000000</v>
+        <v>804824000000</v>
       </c>
       <c r="C227" t="n">
-        <v>1.517450682852807</v>
+        <v>1.476232654266312</v>
       </c>
       <c r="D227" t="n">
-        <v>1202194233687.405</v>
+        <v>1188107469737.231</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>36708</v>
+        <v>36800</v>
       </c>
       <c r="B228" t="n">
-        <v>793545000000</v>
+        <v>812493000000</v>
       </c>
       <c r="C228" t="n">
-        <v>1.5001500150015</v>
+        <v>1.447806573041842</v>
       </c>
       <c r="D228" t="n">
-        <v>1190436543654.365</v>
+        <v>1176332705950.485</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>36739</v>
+        <v>36831</v>
       </c>
       <c r="B229" t="n">
-        <v>801161000000</v>
+        <v>816921000000</v>
       </c>
       <c r="C229" t="n">
-        <v>1.446968600781363</v>
+        <v>1.42551674982181</v>
       </c>
       <c r="D229" t="n">
-        <v>1159254811170.597</v>
+        <v>1164534568781.183</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>36770</v>
+        <v>36861</v>
       </c>
       <c r="B230" t="n">
-        <v>804824000000</v>
+        <v>825869000000</v>
       </c>
       <c r="C230" t="n">
-        <v>1.476232654266312</v>
+        <v>1.496333981744725</v>
       </c>
       <c r="D230" t="n">
-        <v>1188107469737.231</v>
+        <v>1235775849169.535</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>36800</v>
+        <v>36892</v>
       </c>
       <c r="B231" t="n">
-        <v>812493000000</v>
+        <v>834842000000</v>
       </c>
       <c r="C231" t="n">
-        <v>1.447806573041842</v>
+        <v>1.463914507392768</v>
       </c>
       <c r="D231" t="n">
-        <v>1176332705950.485</v>
+        <v>1222137315180.793</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>36831</v>
+        <v>36923</v>
       </c>
       <c r="B232" t="n">
-        <v>816921000000</v>
+        <v>833897000000</v>
       </c>
       <c r="C232" t="n">
-        <v>1.42551674982181</v>
+        <v>1.445504481063891</v>
       </c>
       <c r="D232" t="n">
-        <v>1164534568781.183</v>
+        <v>1205401850245.736</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>36861</v>
+        <v>36951</v>
       </c>
       <c r="B233" t="n">
-        <v>825869000000</v>
+        <v>848383000000</v>
       </c>
       <c r="C233" t="n">
-        <v>1.496333981744725</v>
+        <v>1.414627245720753</v>
       </c>
       <c r="D233" t="n">
-        <v>1235775849169.535</v>
+        <v>1200145706606.309</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>36892</v>
+        <v>36982</v>
       </c>
       <c r="B234" t="n">
-        <v>834842000000</v>
+        <v>849541000000</v>
       </c>
       <c r="C234" t="n">
-        <v>1.463914507392768</v>
+        <v>1.433280779704744</v>
       </c>
       <c r="D234" t="n">
-        <v>1222137315180.793</v>
+        <v>1217630786871.148</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>36923</v>
+        <v>37012</v>
       </c>
       <c r="B235" t="n">
-        <v>833897000000</v>
+        <v>850868000000</v>
       </c>
       <c r="C235" t="n">
-        <v>1.445504481063891</v>
+        <v>1.418439716312057</v>
       </c>
       <c r="D235" t="n">
-        <v>1205401850245.736</v>
+        <v>1206904964539.007</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>36951</v>
+        <v>37043</v>
       </c>
       <c r="B236" t="n">
-        <v>848383000000</v>
+        <v>852866000000</v>
       </c>
       <c r="C236" t="n">
-        <v>1.414627245720753</v>
+        <v>1.41622999575131</v>
       </c>
       <c r="D236" t="n">
-        <v>1200145706606.309</v>
+        <v>1207854411556.437</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>36982</v>
+        <v>37073</v>
       </c>
       <c r="B237" t="n">
-        <v>849541000000</v>
+        <v>865203000000</v>
       </c>
       <c r="C237" t="n">
-        <v>1.433280779704744</v>
+        <v>1.425313568985177</v>
       </c>
       <c r="D237" t="n">
-        <v>1217630786871.148</v>
+        <v>1233185575826.682</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>37012</v>
+        <v>37104</v>
       </c>
       <c r="B238" t="n">
-        <v>850868000000</v>
+        <v>867454000000</v>
       </c>
       <c r="C238" t="n">
-        <v>1.418439716312057</v>
+        <v>1.454122437109205</v>
       </c>
       <c r="D238" t="n">
-        <v>1206904964539.007</v>
+        <v>1261384324560.128</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>37043</v>
+        <v>37135</v>
       </c>
       <c r="B239" t="n">
-        <v>852866000000</v>
+        <v>879987000000</v>
       </c>
       <c r="C239" t="n">
-        <v>1.41622999575131</v>
+        <v>1.474491300501327</v>
       </c>
       <c r="D239" t="n">
-        <v>1207854411556.437</v>
+        <v>1297533176054.261</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>37073</v>
+        <v>37165</v>
       </c>
       <c r="B240" t="n">
-        <v>865203000000</v>
+        <v>886072000000</v>
       </c>
       <c r="C240" t="n">
-        <v>1.425313568985177</v>
+        <v>1.455180442374854</v>
       </c>
       <c r="D240" t="n">
-        <v>1233185575826.682</v>
+        <v>1289394644935.972</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>37104</v>
+        <v>37196</v>
       </c>
       <c r="B241" t="n">
-        <v>867454000000</v>
+        <v>887278000000</v>
       </c>
       <c r="C241" t="n">
-        <v>1.454122437109205</v>
+        <v>1.424501424501425</v>
       </c>
       <c r="D241" t="n">
-        <v>1261384324560.128</v>
+        <v>1263928774928.775</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>37135</v>
+        <v>37226</v>
       </c>
       <c r="B242" t="n">
-        <v>879987000000</v>
+        <v>891991000000</v>
       </c>
       <c r="C242" t="n">
-        <v>1.474491300501327</v>
+        <v>1.450747134774409</v>
       </c>
       <c r="D242" t="n">
-        <v>1297533176054.261</v>
+        <v>1294053387494.56</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>37165</v>
+        <v>37257</v>
       </c>
       <c r="B243" t="n">
-        <v>886072000000</v>
+        <v>885687000000</v>
       </c>
       <c r="C243" t="n">
-        <v>1.455180442374854</v>
+        <v>1.410835214446953</v>
       </c>
       <c r="D243" t="n">
-        <v>1289394644935.972</v>
+        <v>1249558408577.878</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>37196</v>
+        <v>37288</v>
       </c>
       <c r="B244" t="n">
-        <v>887278000000</v>
+        <v>887743000000</v>
       </c>
       <c r="C244" t="n">
-        <v>1.424501424501425</v>
+        <v>1.416831963729102</v>
       </c>
       <c r="D244" t="n">
-        <v>1263928774928.775</v>
+        <v>1257782657976.764</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>37226</v>
+        <v>37316</v>
       </c>
       <c r="B245" t="n">
-        <v>891991000000</v>
+        <v>892226000000</v>
       </c>
       <c r="C245" t="n">
-        <v>1.450747134774409</v>
+        <v>1.425923285327249</v>
       </c>
       <c r="D245" t="n">
-        <v>1294053387494.56</v>
+        <v>1272245829174.39</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>37257</v>
+        <v>37347</v>
       </c>
       <c r="B246" t="n">
-        <v>885687000000</v>
+        <v>894471000000</v>
       </c>
       <c r="C246" t="n">
-        <v>1.410835214446953</v>
+        <v>1.457938474996355</v>
       </c>
       <c r="D246" t="n">
-        <v>1249558408577.878</v>
+        <v>1304083685668.465</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>37288</v>
+        <v>37377</v>
       </c>
       <c r="B247" t="n">
-        <v>887743000000</v>
+        <v>899930000000</v>
       </c>
       <c r="C247" t="n">
-        <v>1.416831963729102</v>
+        <v>1.45602795573675</v>
       </c>
       <c r="D247" t="n">
-        <v>1257782657976.764</v>
+        <v>1310323238206.174</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>37316</v>
+        <v>37408</v>
       </c>
       <c r="B248" t="n">
-        <v>892226000000</v>
+        <v>903027000000</v>
       </c>
       <c r="C248" t="n">
-        <v>1.425923285327249</v>
+        <v>1.533272002453235</v>
       </c>
       <c r="D248" t="n">
-        <v>1272245829174.39</v>
+        <v>1384586016559.338</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>37347</v>
+        <v>37438</v>
       </c>
       <c r="B249" t="n">
-        <v>894471000000</v>
+        <v>909293000000</v>
       </c>
       <c r="C249" t="n">
-        <v>1.457938474996355</v>
+        <v>1.563477173233271</v>
       </c>
       <c r="D249" t="n">
-        <v>1304083685668.465</v>
+        <v>1421658849280.801</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>37377</v>
+        <v>37469</v>
       </c>
       <c r="B250" t="n">
-        <v>899930000000</v>
+        <v>917621000000</v>
       </c>
       <c r="C250" t="n">
-        <v>1.45602795573675</v>
+        <v>1.550387596899225</v>
       </c>
       <c r="D250" t="n">
-        <v>1310323238206.174</v>
+        <v>1422668217054.263</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>37408</v>
+        <v>37500</v>
       </c>
       <c r="B251" t="n">
-        <v>903027000000</v>
+        <v>917388000000</v>
       </c>
       <c r="C251" t="n">
-        <v>1.533272002453235</v>
+        <v>1.568381430363865</v>
       </c>
       <c r="D251" t="n">
-        <v>1384586016559.338</v>
+        <v>1438814303638.645</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>37438</v>
+        <v>37530</v>
       </c>
       <c r="B252" t="n">
-        <v>909293000000</v>
+        <v>927082000000</v>
       </c>
       <c r="C252" t="n">
-        <v>1.563477173233271</v>
+        <v>1.564455569461827</v>
       </c>
       <c r="D252" t="n">
-        <v>1421658849280.801</v>
+        <v>1450378598247.81</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>37469</v>
+        <v>37561</v>
       </c>
       <c r="B253" t="n">
-        <v>917621000000</v>
+        <v>930517000000</v>
       </c>
       <c r="C253" t="n">
-        <v>1.550387596899225</v>
+        <v>1.557875058420315</v>
       </c>
       <c r="D253" t="n">
-        <v>1422668217054.263</v>
+        <v>1449629225736.096</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>37500</v>
+        <v>37591</v>
       </c>
       <c r="B254" t="n">
-        <v>917388000000</v>
+        <v>932657000000</v>
       </c>
       <c r="C254" t="n">
-        <v>1.568381430363865</v>
+        <v>1.6116035455278</v>
       </c>
       <c r="D254" t="n">
-        <v>1438814303638.645</v>
+        <v>1503073327961.321</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>37530</v>
+        <v>37622</v>
       </c>
       <c r="B255" t="n">
-        <v>927082000000</v>
+        <v>932003000000</v>
       </c>
       <c r="C255" t="n">
-        <v>1.564455569461827</v>
+        <v>1.646903820816864</v>
       </c>
       <c r="D255" t="n">
-        <v>1450378598247.81</v>
+        <v>1534919301712.78</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>37561</v>
+        <v>37653</v>
       </c>
       <c r="B256" t="n">
-        <v>930517000000</v>
+        <v>943614000000</v>
       </c>
       <c r="C256" t="n">
-        <v>1.557875058420315</v>
+        <v>1.573069057731634</v>
       </c>
       <c r="D256" t="n">
-        <v>1449629225736.096</v>
+        <v>1484369985842.378</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>37591</v>
+        <v>37681</v>
       </c>
       <c r="B257" t="n">
-        <v>932657000000</v>
+        <v>940236000000</v>
       </c>
       <c r="C257" t="n">
-        <v>1.6116035455278</v>
+        <v>1.58202816010125</v>
       </c>
       <c r="D257" t="n">
-        <v>1503073327961.321</v>
+        <v>1487479829140.959</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>37622</v>
+        <v>37712</v>
       </c>
       <c r="B258" t="n">
-        <v>932003000000</v>
+        <v>947408000000</v>
       </c>
       <c r="C258" t="n">
-        <v>1.646903820816864</v>
+        <v>1.597954618088846</v>
       </c>
       <c r="D258" t="n">
-        <v>1534919301712.78</v>
+        <v>1513914988814.318</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>37653</v>
+        <v>37742</v>
       </c>
       <c r="B259" t="n">
-        <v>943614000000</v>
+        <v>950798000000</v>
       </c>
       <c r="C259" t="n">
-        <v>1.573069057731634</v>
+        <v>1.636393388970709</v>
       </c>
       <c r="D259" t="n">
-        <v>1484369985842.378</v>
+        <v>1555879561446.572</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>37681</v>
+        <v>37773</v>
       </c>
       <c r="B260" t="n">
-        <v>940236000000</v>
+        <v>958714000000</v>
       </c>
       <c r="C260" t="n">
-        <v>1.58202816010125</v>
+        <v>1.655355073663301</v>
       </c>
       <c r="D260" t="n">
-        <v>1487479829140.959</v>
+        <v>1587012084092.038</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>37712</v>
+        <v>37803</v>
       </c>
       <c r="B261" t="n">
-        <v>947408000000</v>
+        <v>963666000000</v>
       </c>
       <c r="C261" t="n">
-        <v>1.597954618088846</v>
+        <v>1.610824742268041</v>
       </c>
       <c r="D261" t="n">
-        <v>1513914988814.318</v>
+        <v>1552297036082.474</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>37742</v>
+        <v>37834</v>
       </c>
       <c r="B262" t="n">
-        <v>950798000000</v>
+        <v>968885000000</v>
       </c>
       <c r="C262" t="n">
-        <v>1.636393388970709</v>
+        <v>1.577784790154623</v>
       </c>
       <c r="D262" t="n">
-        <v>1555879561446.572</v>
+        <v>1528692016408.962</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>37773</v>
+        <v>37865</v>
       </c>
       <c r="B263" t="n">
-        <v>958714000000</v>
+        <v>971903000000</v>
       </c>
       <c r="C263" t="n">
-        <v>1.655355073663301</v>
+        <v>1.661957786272229</v>
       </c>
       <c r="D263" t="n">
-        <v>1587012084092.038</v>
+        <v>1615261758351.338</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>37803</v>
+        <v>37895</v>
       </c>
       <c r="B264" t="n">
-        <v>963666000000</v>
+        <v>978266000000</v>
       </c>
       <c r="C264" t="n">
-        <v>1.610824742268041</v>
+        <v>1.695777513990165</v>
       </c>
       <c r="D264" t="n">
-        <v>1552297036082.474</v>
+        <v>1658921485501.102</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>37834</v>
+        <v>37926</v>
       </c>
       <c r="B265" t="n">
-        <v>968885000000</v>
+        <v>988316000000</v>
       </c>
       <c r="C265" t="n">
-        <v>1.577784790154623</v>
+        <v>1.722059583261581</v>
       </c>
       <c r="D265" t="n">
-        <v>1528692016408.962</v>
+        <v>1701939039090.752</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>37865</v>
+        <v>37956</v>
       </c>
       <c r="B266" t="n">
-        <v>971903000000</v>
+        <v>997912000000</v>
       </c>
       <c r="C266" t="n">
-        <v>1.661957786272229</v>
+        <v>1.77683013503909</v>
       </c>
       <c r="D266" t="n">
-        <v>1615261758351.338</v>
+        <v>1773120113717.129</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>37895</v>
+        <v>37987</v>
       </c>
       <c r="B267" t="n">
-        <v>978266000000</v>
+        <v>1006962000000</v>
       </c>
       <c r="C267" t="n">
-        <v>1.695777513990165</v>
+        <v>1.823486506199854</v>
       </c>
       <c r="D267" t="n">
-        <v>1658921485501.102</v>
+        <v>1836181619256.018</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>37926</v>
+        <v>38018</v>
       </c>
       <c r="B268" t="n">
-        <v>988316000000</v>
+        <v>1014061000000</v>
       </c>
       <c r="C268" t="n">
-        <v>1.722059583261581</v>
+        <v>1.868460388639761</v>
       </c>
       <c r="D268" t="n">
-        <v>1701939039090.752</v>
+        <v>1894732810164.425</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>37956</v>
+        <v>38047</v>
       </c>
       <c r="B269" t="n">
-        <v>997912000000</v>
+        <v>1019915000000</v>
       </c>
       <c r="C269" t="n">
-        <v>1.77683013503909</v>
+        <v>1.845699520118125</v>
       </c>
       <c r="D269" t="n">
-        <v>1773120113717.129</v>
+        <v>1882456626061.277</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>37987</v>
+        <v>38078</v>
       </c>
       <c r="B270" t="n">
-        <v>1006962000000</v>
+        <v>1029056000000</v>
       </c>
       <c r="C270" t="n">
-        <v>1.823486506199854</v>
+        <v>1.778410101369376</v>
       </c>
       <c r="D270" t="n">
-        <v>1836181619256.018</v>
+        <v>1830083585274.764</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>38018</v>
+        <v>38108</v>
       </c>
       <c r="B271" t="n">
-        <v>1014061000000</v>
+        <v>1032555000000</v>
       </c>
       <c r="C271" t="n">
-        <v>1.868460388639761</v>
+        <v>1.832172957127153</v>
       </c>
       <c r="D271" t="n">
-        <v>1894732810164.425</v>
+        <v>1891819347746.427</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>38047</v>
+        <v>38139</v>
       </c>
       <c r="B272" t="n">
-        <v>1019915000000</v>
+        <v>1047560000000</v>
       </c>
       <c r="C272" t="n">
-        <v>1.845699520118125</v>
+        <v>1.820498816675769</v>
       </c>
       <c r="D272" t="n">
-        <v>1882456626061.277</v>
+        <v>1907081740396.869</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>38078</v>
+        <v>38169</v>
       </c>
       <c r="B273" t="n">
-        <v>1029056000000</v>
+        <v>1052762000000</v>
       </c>
       <c r="C273" t="n">
-        <v>1.778410101369376</v>
+        <v>1.819836214740673</v>
       </c>
       <c r="D273" t="n">
-        <v>1830083585274.764</v>
+        <v>1915854413102.821</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>38108</v>
+        <v>38200</v>
       </c>
       <c r="B274" t="n">
-        <v>1032555000000</v>
+        <v>1065228000000</v>
       </c>
       <c r="C274" t="n">
-        <v>1.832172957127153</v>
+        <v>1.802776275464215</v>
       </c>
       <c r="D274" t="n">
-        <v>1891819347746.427</v>
+        <v>1920367766360.195</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>38139</v>
+        <v>38231</v>
       </c>
       <c r="B275" t="n">
-        <v>1047560000000</v>
+        <v>1073281000000</v>
       </c>
       <c r="C275" t="n">
-        <v>1.820498816675769</v>
+        <v>1.81257930034439</v>
       </c>
       <c r="D275" t="n">
-        <v>1907081740396.869</v>
+        <v>1945406924052.927</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>38169</v>
+        <v>38261</v>
       </c>
       <c r="B276" t="n">
-        <v>1052762000000</v>
+        <v>1081801000000</v>
       </c>
       <c r="C276" t="n">
-        <v>1.819836214740673</v>
+        <v>1.836547291092746</v>
       </c>
       <c r="D276" t="n">
-        <v>1915854413102.821</v>
+        <v>1986778696051.423</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>38200</v>
+        <v>38292</v>
       </c>
       <c r="B277" t="n">
-        <v>1065228000000</v>
+        <v>1093138000000</v>
       </c>
       <c r="C277" t="n">
-        <v>1.802776275464215</v>
+        <v>1.909490166125644</v>
       </c>
       <c r="D277" t="n">
-        <v>1920367766360.195</v>
+        <v>2087336261218.255</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>38231</v>
+        <v>38322</v>
       </c>
       <c r="B278" t="n">
-        <v>1073281000000</v>
+        <v>1097978000000</v>
       </c>
       <c r="C278" t="n">
-        <v>1.81257930034439</v>
+        <v>1.918649270913277</v>
       </c>
       <c r="D278" t="n">
-        <v>1945406924052.927</v>
+        <v>2106634689178.818</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>38261</v>
+        <v>38353</v>
       </c>
       <c r="B279" t="n">
-        <v>1081801000000</v>
+        <v>1109892000000</v>
       </c>
       <c r="C279" t="n">
-        <v>1.836547291092746</v>
+        <v>1.883239171374764</v>
       </c>
       <c r="D279" t="n">
-        <v>1986778696051.423</v>
+        <v>2090192090395.48</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>38292</v>
+        <v>38384</v>
       </c>
       <c r="B280" t="n">
-        <v>1093138000000</v>
+        <v>1114148000000</v>
       </c>
       <c r="C280" t="n">
-        <v>1.909490166125644</v>
+        <v>1.921229586935639</v>
       </c>
       <c r="D280" t="n">
-        <v>2087336261218.255</v>
+        <v>2140534101825.168</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>38322</v>
+        <v>38412</v>
       </c>
       <c r="B281" t="n">
-        <v>1097978000000</v>
+        <v>1126646000000</v>
       </c>
       <c r="C281" t="n">
-        <v>1.918649270913277</v>
+        <v>1.89000189000189</v>
       </c>
       <c r="D281" t="n">
-        <v>2106634689178.818</v>
+        <v>2129363069363.069</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>38353</v>
+        <v>38443</v>
       </c>
       <c r="B282" t="n">
-        <v>1109892000000</v>
+        <v>1140929000000</v>
       </c>
       <c r="C282" t="n">
-        <v>1.883239171374764</v>
+        <v>1.909125620465826</v>
       </c>
       <c r="D282" t="n">
-        <v>2090192090395.48</v>
+        <v>2178176785032.455</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>38384</v>
+        <v>38473</v>
       </c>
       <c r="B283" t="n">
-        <v>1114148000000</v>
+        <v>1156762000000</v>
       </c>
       <c r="C283" t="n">
-        <v>1.921229586935639</v>
+        <v>1.817190623296384</v>
       </c>
       <c r="D283" t="n">
-        <v>2140534101825.168</v>
+        <v>2102057059785.571</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>38412</v>
+        <v>38504</v>
       </c>
       <c r="B284" t="n">
-        <v>1126646000000</v>
+        <v>1163969000000</v>
       </c>
       <c r="C284" t="n">
-        <v>1.89000189000189</v>
+        <v>1.791793585378964</v>
       </c>
       <c r="D284" t="n">
-        <v>2129363069363.069</v>
+        <v>2085592187779.968</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>38443</v>
+        <v>38534</v>
       </c>
       <c r="B285" t="n">
-        <v>1140929000000</v>
+        <v>1176847000000</v>
       </c>
       <c r="C285" t="n">
-        <v>1.909125620465826</v>
+        <v>1.758087201125176</v>
       </c>
       <c r="D285" t="n">
-        <v>2178176785032.455</v>
+        <v>2068999648382.56</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>38473</v>
+        <v>38565</v>
       </c>
       <c r="B286" t="n">
-        <v>1156762000000</v>
+        <v>1173492000000</v>
       </c>
       <c r="C286" t="n">
-        <v>1.817190623296384</v>
+        <v>1.804728388377549</v>
       </c>
       <c r="D286" t="n">
-        <v>2102057059785.571</v>
+        <v>2117834325933.947</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>38504</v>
+        <v>38596</v>
       </c>
       <c r="B287" t="n">
-        <v>1163969000000</v>
+        <v>1192842000000</v>
       </c>
       <c r="C287" t="n">
-        <v>1.791793585378964</v>
+        <v>1.768659356207994</v>
       </c>
       <c r="D287" t="n">
-        <v>2085592187779.968</v>
+        <v>2109731163777.856</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>38534</v>
+        <v>38626</v>
       </c>
       <c r="B288" t="n">
-        <v>1176847000000</v>
+        <v>1202350000000</v>
       </c>
       <c r="C288" t="n">
-        <v>1.758087201125176</v>
+        <v>1.771165426850868</v>
       </c>
       <c r="D288" t="n">
-        <v>2068999648382.56</v>
+        <v>2129560750974.141</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>38565</v>
+        <v>38657</v>
       </c>
       <c r="B289" t="n">
-        <v>1173492000000</v>
+        <v>1212784000000</v>
       </c>
       <c r="C289" t="n">
-        <v>1.804728388377549</v>
+        <v>1.730403183941859</v>
       </c>
       <c r="D289" t="n">
-        <v>2117834325933.947</v>
+        <v>2098605295033.743</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>38596</v>
+        <v>38687</v>
       </c>
       <c r="B290" t="n">
-        <v>1192842000000</v>
+        <v>1226816000000</v>
       </c>
       <c r="C290" t="n">
-        <v>1.768659356207994</v>
+        <v>1.723840717117739</v>
       </c>
       <c r="D290" t="n">
-        <v>2109731163777.856</v>
+        <v>2114835373211.516</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>38626</v>
+        <v>38718</v>
       </c>
       <c r="B291" t="n">
-        <v>1202350000000</v>
+        <v>1233249000000</v>
       </c>
       <c r="C291" t="n">
-        <v>1.771165426850868</v>
+        <v>1.779676098949991</v>
       </c>
       <c r="D291" t="n">
-        <v>2129560750974.141</v>
+        <v>2194783769353.978</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>38657</v>
+        <v>38749</v>
       </c>
       <c r="B292" t="n">
-        <v>1212784000000</v>
+        <v>1252399000000</v>
       </c>
       <c r="C292" t="n">
-        <v>1.730403183941859</v>
+        <v>1.754693805930865</v>
       </c>
       <c r="D292" t="n">
-        <v>2098605295033.743</v>
+        <v>2197576767854.01</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>38687</v>
+        <v>38777</v>
       </c>
       <c r="B293" t="n">
-        <v>1226816000000</v>
+        <v>1261556000000</v>
       </c>
       <c r="C293" t="n">
-        <v>1.723840717117739</v>
+        <v>1.738223535546671</v>
       </c>
       <c r="D293" t="n">
-        <v>2114835373211.516</v>
+        <v>2192866330610.116</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>38718</v>
+        <v>38808</v>
       </c>
       <c r="B294" t="n">
-        <v>1233249000000</v>
+        <v>1275592000000</v>
       </c>
       <c r="C294" t="n">
-        <v>1.779676098949991</v>
+        <v>1.825817053131276</v>
       </c>
       <c r="D294" t="n">
-        <v>2194783769353.978</v>
+        <v>2328997626437.831</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>38749</v>
+        <v>38838</v>
       </c>
       <c r="B295" t="n">
-        <v>1252399000000</v>
+        <v>1279453000000</v>
       </c>
       <c r="C295" t="n">
-        <v>1.754693805930865</v>
+        <v>1.872308556450103</v>
       </c>
       <c r="D295" t="n">
-        <v>2197576767854.01</v>
+        <v>2395530799475.753</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>38777</v>
+        <v>38869</v>
       </c>
       <c r="B296" t="n">
-        <v>1261556000000</v>
+        <v>1297935000000</v>
       </c>
       <c r="C296" t="n">
-        <v>1.738223535546671</v>
+        <v>1.849112426035503</v>
       </c>
       <c r="D296" t="n">
-        <v>2192866330610.116</v>
+        <v>2400027736686.391</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>38808</v>
+        <v>38899</v>
       </c>
       <c r="B297" t="n">
-        <v>1275592000000</v>
+        <v>1310653000000</v>
       </c>
       <c r="C297" t="n">
-        <v>1.825817053131276</v>
+        <v>1.868460388639761</v>
       </c>
       <c r="D297" t="n">
-        <v>2328997626437.831</v>
+        <v>2448903213751.869</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>38838</v>
+        <v>38930</v>
       </c>
       <c r="B298" t="n">
-        <v>1279453000000</v>
+        <v>1321994000000</v>
       </c>
       <c r="C298" t="n">
-        <v>1.872308556450103</v>
+        <v>1.904761904761905</v>
       </c>
       <c r="D298" t="n">
-        <v>2395530799475.753</v>
+        <v>2518083809523.81</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>38869</v>
+        <v>38961</v>
       </c>
       <c r="B299" t="n">
-        <v>1297935000000</v>
+        <v>1340264000000</v>
       </c>
       <c r="C299" t="n">
-        <v>1.849112426035503</v>
+        <v>1.874062968515742</v>
       </c>
       <c r="D299" t="n">
-        <v>2400027736686.391</v>
+        <v>2511739130434.783</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>38899</v>
+        <v>38991</v>
       </c>
       <c r="B300" t="n">
-        <v>1310653000000</v>
+        <v>1362315000000</v>
       </c>
       <c r="C300" t="n">
-        <v>1.868460388639761</v>
+        <v>1.907304978065993</v>
       </c>
       <c r="D300" t="n">
-        <v>2448903213751.869</v>
+        <v>2598350181193.973</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>38930</v>
+        <v>39022</v>
       </c>
       <c r="B301" t="n">
-        <v>1321994000000</v>
+        <v>1373525000000</v>
       </c>
       <c r="C301" t="n">
-        <v>1.904761904761905</v>
+        <v>1.966568338249754</v>
       </c>
       <c r="D301" t="n">
-        <v>2518083809523.81</v>
+        <v>2701130776794.494</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>38961</v>
+        <v>39052</v>
       </c>
       <c r="B302" t="n">
-        <v>1340264000000</v>
+        <v>1399282000000</v>
       </c>
       <c r="C302" t="n">
-        <v>1.874062968515742</v>
+        <v>1.96078431372549</v>
       </c>
       <c r="D302" t="n">
-        <v>2511739130434.783</v>
+        <v>2743690196078.431</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>38991</v>
+        <v>39083</v>
       </c>
       <c r="B303" t="n">
-        <v>1362315000000</v>
+        <v>1400913000000</v>
       </c>
       <c r="C303" t="n">
-        <v>1.907304978065993</v>
+        <v>1.966181675186787</v>
       </c>
       <c r="D303" t="n">
-        <v>2598350181193.973</v>
+        <v>2754449469130.947</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>39022</v>
+        <v>39114</v>
       </c>
       <c r="B304" t="n">
-        <v>1373525000000</v>
+        <v>1419922000000</v>
       </c>
       <c r="C304" t="n">
-        <v>1.966568338249754</v>
+        <v>1.965022597759874</v>
       </c>
       <c r="D304" t="n">
-        <v>2701130776794.494</v>
+        <v>2790178817056.396</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>39052</v>
+        <v>39142</v>
       </c>
       <c r="B305" t="n">
-        <v>1399282000000</v>
+        <v>1441473000000</v>
       </c>
       <c r="C305" t="n">
-        <v>1.96078431372549</v>
+        <v>1.968503937007874</v>
       </c>
       <c r="D305" t="n">
-        <v>2743690196078.431</v>
+        <v>2837545275590.551</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>39083</v>
+        <v>39173</v>
       </c>
       <c r="B306" t="n">
-        <v>1400913000000</v>
+        <v>1458867000000</v>
       </c>
       <c r="C306" t="n">
-        <v>1.966181675186787</v>
+        <v>2.000400080016003</v>
       </c>
       <c r="D306" t="n">
-        <v>2754449469130.947</v>
+        <v>2918317663532.707</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>39114</v>
+        <v>39203</v>
       </c>
       <c r="B307" t="n">
-        <v>1419922000000</v>
+        <v>1480553000000</v>
       </c>
       <c r="C307" t="n">
-        <v>1.965022597759874</v>
+        <v>1.980590215884333</v>
       </c>
       <c r="D307" t="n">
-        <v>2790178817056.396</v>
+        <v>2932368785898.197</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>39142</v>
+        <v>39234</v>
       </c>
       <c r="B308" t="n">
-        <v>1441473000000</v>
+        <v>1498230000000</v>
       </c>
       <c r="C308" t="n">
-        <v>1.968503937007874</v>
+        <v>2.009646302250804</v>
       </c>
       <c r="D308" t="n">
-        <v>2837545275590.551</v>
+        <v>3010912379421.222</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>39173</v>
+        <v>39264</v>
       </c>
       <c r="B309" t="n">
-        <v>1458867000000</v>
+        <v>1513047000000</v>
       </c>
       <c r="C309" t="n">
-        <v>2.000400080016003</v>
+        <v>2.030869212022746</v>
       </c>
       <c r="D309" t="n">
-        <v>2918317663532.707</v>
+        <v>3072800568643.379</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>39203</v>
+        <v>39295</v>
       </c>
       <c r="B310" t="n">
-        <v>1480553000000</v>
+        <v>1538917000000</v>
       </c>
       <c r="C310" t="n">
-        <v>1.980590215884333</v>
+        <v>2.01816347124117</v>
       </c>
       <c r="D310" t="n">
-        <v>2932368785898.197</v>
+        <v>3105786074672.048</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>39234</v>
+        <v>39326</v>
       </c>
       <c r="B311" t="n">
-        <v>1498230000000</v>
+        <v>1538463000000</v>
       </c>
       <c r="C311" t="n">
-        <v>2.009646302250804</v>
+        <v>2.047082906857728</v>
       </c>
       <c r="D311" t="n">
-        <v>3010912379421.222</v>
+        <v>3149361310133.06</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>39264</v>
+        <v>39356</v>
       </c>
       <c r="B312" t="n">
-        <v>1513047000000</v>
+        <v>1529564000000</v>
       </c>
       <c r="C312" t="n">
-        <v>2.030869212022746</v>
+        <v>2.082465639316951</v>
       </c>
       <c r="D312" t="n">
-        <v>3072800568643.379</v>
+        <v>3185264473136.193</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>39295</v>
+        <v>39387</v>
       </c>
       <c r="B313" t="n">
-        <v>1538917000000</v>
+        <v>1539804000000</v>
       </c>
       <c r="C313" t="n">
-        <v>2.01816347124117</v>
+        <v>2.058884084826024</v>
       </c>
       <c r="D313" t="n">
-        <v>3105786074672.048</v>
+        <v>3170277949351.452</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>39326</v>
+        <v>39417</v>
       </c>
       <c r="B314" t="n">
-        <v>1538463000000</v>
+        <v>1552599000000</v>
       </c>
       <c r="C314" t="n">
-        <v>2.047082906857728</v>
+        <v>1.987676406281057</v>
       </c>
       <c r="D314" t="n">
-        <v>3149361310133.06</v>
+        <v>3086064400715.563</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>39356</v>
+        <v>39448</v>
       </c>
       <c r="B315" t="n">
-        <v>1529564000000</v>
+        <v>1614854000000</v>
       </c>
       <c r="C315" t="n">
-        <v>2.082465639316951</v>
+        <v>1.988466892026248</v>
       </c>
       <c r="D315" t="n">
-        <v>3185264473136.193</v>
+        <v>3211083714456.154</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>39387</v>
+        <v>39479</v>
       </c>
       <c r="B316" t="n">
-        <v>1539804000000</v>
+        <v>1619530000000</v>
       </c>
       <c r="C316" t="n">
-        <v>2.058884084826024</v>
+        <v>1.989653800238758</v>
       </c>
       <c r="D316" t="n">
-        <v>3170277949351.452</v>
+        <v>3222304019100.676</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>39417</v>
+        <v>39508</v>
       </c>
       <c r="B317" t="n">
-        <v>1552599000000</v>
+        <v>1642340000000</v>
       </c>
       <c r="C317" t="n">
-        <v>1.987676406281057</v>
+        <v>1.984126984126984</v>
       </c>
       <c r="D317" t="n">
-        <v>3086064400715.563</v>
+        <v>3258611111111.111</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>39448</v>
+        <v>39539</v>
       </c>
       <c r="B318" t="n">
-        <v>1614854000000</v>
+        <v>1653922000000</v>
       </c>
       <c r="C318" t="n">
-        <v>1.988466892026248</v>
+        <v>1.988862370723946</v>
       </c>
       <c r="D318" t="n">
-        <v>3211083714456.154</v>
+        <v>3289423229912.49</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>39479</v>
+        <v>39569</v>
       </c>
       <c r="B319" t="n">
-        <v>1619530000000</v>
+        <v>1659104000000</v>
       </c>
       <c r="C319" t="n">
-        <v>1.989653800238758</v>
+        <v>1.983339944466482</v>
       </c>
       <c r="D319" t="n">
-        <v>3222304019100.676</v>
+        <v>3290567235224.118</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>39508</v>
+        <v>39600</v>
       </c>
       <c r="B320" t="n">
-        <v>1642340000000</v>
+        <v>1670886000000</v>
       </c>
       <c r="C320" t="n">
-        <v>1.984126984126984</v>
+        <v>1.994017946161516</v>
       </c>
       <c r="D320" t="n">
-        <v>3258611111111.111</v>
+        <v>3331776669990.03</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>39539</v>
+        <v>39630</v>
       </c>
       <c r="B321" t="n">
-        <v>1653922000000</v>
+        <v>1673872000000</v>
       </c>
       <c r="C321" t="n">
-        <v>1.988862370723946</v>
+        <v>1.984520738241714</v>
       </c>
       <c r="D321" t="n">
-        <v>3289423229912.49</v>
+        <v>3321833697162.135</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>39569</v>
+        <v>39661</v>
       </c>
       <c r="B322" t="n">
-        <v>1659104000000</v>
+        <v>1680692000000</v>
       </c>
       <c r="C322" t="n">
-        <v>1.983339944466482</v>
+        <v>1.817190623296384</v>
       </c>
       <c r="D322" t="n">
-        <v>3290567235224.118</v>
+        <v>3054137743049.246</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>39600</v>
+        <v>39692</v>
       </c>
       <c r="B323" t="n">
-        <v>1670886000000</v>
+        <v>1687905000000</v>
       </c>
       <c r="C323" t="n">
-        <v>1.994017946161516</v>
+        <v>1.784121320249777</v>
       </c>
       <c r="D323" t="n">
-        <v>3331776669990.03</v>
+        <v>3011427297056.2</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>39630</v>
+        <v>39722</v>
       </c>
       <c r="B324" t="n">
-        <v>1673872000000</v>
+        <v>1743423000000</v>
       </c>
       <c r="C324" t="n">
-        <v>1.984520738241714</v>
+        <v>1.605394124257505</v>
       </c>
       <c r="D324" t="n">
-        <v>3321833697162.135</v>
+        <v>2798881040295.393</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>39661</v>
+        <v>39753</v>
       </c>
       <c r="B325" t="n">
-        <v>1680692000000</v>
+        <v>1793409000000</v>
       </c>
       <c r="C325" t="n">
-        <v>1.817190623296384</v>
+        <v>1.538224888478696</v>
       </c>
       <c r="D325" t="n">
-        <v>3054137743049.246</v>
+        <v>2758666359021.689</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>39692</v>
+        <v>39783</v>
       </c>
       <c r="B326" t="n">
-        <v>1687905000000</v>
+        <v>1838255000000</v>
       </c>
       <c r="C326" t="n">
-        <v>1.784121320249777</v>
+        <v>1.462629808395495</v>
       </c>
       <c r="D326" t="n">
-        <v>3011427297056.2</v>
+        <v>2688686558432.061</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>39722</v>
+        <v>39814</v>
       </c>
       <c r="B327" t="n">
-        <v>1743423000000</v>
+        <v>1847702000000</v>
       </c>
       <c r="C327" t="n">
-        <v>1.605394124257505</v>
+        <v>1.452011035283868</v>
       </c>
       <c r="D327" t="n">
-        <v>2798881040295.393</v>
+        <v>2682883693916.074</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>39753</v>
+        <v>39845</v>
       </c>
       <c r="B328" t="n">
-        <v>1793409000000</v>
+        <v>1839023000000</v>
       </c>
       <c r="C328" t="n">
-        <v>1.538224888478696</v>
+        <v>1.431639226914817</v>
       </c>
       <c r="D328" t="n">
-        <v>2758666359021.689</v>
+        <v>2632817465998.568</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>39783</v>
+        <v>39873</v>
       </c>
       <c r="B329" t="n">
-        <v>1838255000000</v>
+        <v>1852329000000</v>
       </c>
       <c r="C329" t="n">
-        <v>1.462629808395495</v>
+        <v>1.433280779704744</v>
       </c>
       <c r="D329" t="n">
-        <v>2688686558432.061</v>
+        <v>2654907553389.709</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>39814</v>
+        <v>39904</v>
       </c>
       <c r="B330" t="n">
-        <v>1847702000000</v>
+        <v>1828272000000</v>
       </c>
       <c r="C330" t="n">
-        <v>1.452011035283868</v>
+        <v>1.478633742422002</v>
       </c>
       <c r="D330" t="n">
-        <v>2682883693916.074</v>
+        <v>2703344669525.358</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>39845</v>
+        <v>39934</v>
       </c>
       <c r="B331" t="n">
-        <v>1839023000000</v>
+        <v>1820835000000</v>
       </c>
       <c r="C331" t="n">
-        <v>1.431639226914817</v>
+        <v>1.619695497246518</v>
       </c>
       <c r="D331" t="n">
-        <v>2632817465998.568</v>
+        <v>2949198250728.863</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>39873</v>
+        <v>39965</v>
       </c>
       <c r="B332" t="n">
-        <v>1852329000000</v>
+        <v>1813696000000</v>
       </c>
       <c r="C332" t="n">
-        <v>1.433280779704744</v>
+        <v>1.647446457990115</v>
       </c>
       <c r="D332" t="n">
-        <v>2654907553389.709</v>
+        <v>2987967051070.84</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>39904</v>
+        <v>39995</v>
       </c>
       <c r="B333" t="n">
-        <v>1828272000000</v>
+        <v>1825789000000</v>
       </c>
       <c r="C333" t="n">
-        <v>1.478633742422002</v>
+        <v>1.671402306535183</v>
       </c>
       <c r="D333" t="n">
-        <v>2703344669525.358</v>
+        <v>3051627945846.565</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>39934</v>
+        <v>40026</v>
       </c>
       <c r="B334" t="n">
-        <v>1820835000000</v>
+        <v>1837957000000</v>
       </c>
       <c r="C334" t="n">
-        <v>1.619695497246518</v>
+        <v>1.628399283504315</v>
       </c>
       <c r="D334" t="n">
-        <v>2949198250728.863</v>
+        <v>2992927861911.741</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>39965</v>
+        <v>40057</v>
       </c>
       <c r="B335" t="n">
-        <v>1813696000000</v>
+        <v>1860645000000</v>
       </c>
       <c r="C335" t="n">
-        <v>1.647446457990115</v>
+        <v>1.601537475976938</v>
       </c>
       <c r="D335" t="n">
-        <v>2987967051070.84</v>
+        <v>2979892696989.11</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>39995</v>
+        <v>40087</v>
       </c>
       <c r="B336" t="n">
-        <v>1825789000000</v>
+        <v>1897982000000</v>
       </c>
       <c r="C336" t="n">
-        <v>1.671402306535183</v>
+        <v>1.645278051990786</v>
       </c>
       <c r="D336" t="n">
-        <v>3051627945846.565</v>
+        <v>3122708127673.577</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>40026</v>
+        <v>40118</v>
       </c>
       <c r="B337" t="n">
-        <v>1837957000000</v>
+        <v>1898826000000</v>
       </c>
       <c r="C337" t="n">
-        <v>1.628399283504315</v>
+        <v>1.645007402533311</v>
       </c>
       <c r="D337" t="n">
-        <v>2992927861911.741</v>
+        <v>3123582826122.718</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>40057</v>
+        <v>40148</v>
       </c>
       <c r="B338" t="n">
-        <v>1860645000000</v>
+        <v>1900656000000</v>
       </c>
       <c r="C338" t="n">
-        <v>1.601537475976938</v>
+        <v>1.616292225634395</v>
       </c>
       <c r="D338" t="n">
-        <v>2979892696989.11</v>
+        <v>3072015516405.366</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>40087</v>
+        <v>40179</v>
       </c>
       <c r="B339" t="n">
-        <v>1897982000000</v>
+        <v>2092623000000</v>
       </c>
       <c r="C339" t="n">
-        <v>1.645278051990786</v>
+        <v>1.600256040966555</v>
       </c>
       <c r="D339" t="n">
-        <v>3122708127673.577</v>
+        <v>3348732597215.555</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>40118</v>
+        <v>40210</v>
       </c>
       <c r="B340" t="n">
-        <v>1898826000000</v>
+        <v>2120132000000</v>
       </c>
       <c r="C340" t="n">
-        <v>1.645007402533311</v>
+        <v>1.524157902758726</v>
       </c>
       <c r="D340" t="n">
-        <v>3123582826122.718</v>
+        <v>3231415942691.663</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>40148</v>
+        <v>40238</v>
       </c>
       <c r="B341" t="n">
-        <v>1900656000000</v>
+        <v>2104225000000</v>
       </c>
       <c r="C341" t="n">
-        <v>1.616292225634395</v>
+        <v>1.519064256418047</v>
       </c>
       <c r="D341" t="n">
-        <v>3072015516405.366</v>
+        <v>3196452984961.264</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>40179</v>
+        <v>40269</v>
       </c>
       <c r="B342" t="n">
-        <v>2092623000000</v>
+        <v>2075222000000</v>
       </c>
       <c r="C342" t="n">
-        <v>1.600256040966555</v>
+        <v>1.527883880825057</v>
       </c>
       <c r="D342" t="n">
-        <v>3348732597215.555</v>
+        <v>3170698242933.537</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>40210</v>
+        <v>40299</v>
       </c>
       <c r="B343" t="n">
-        <v>2120132000000</v>
+        <v>2089615000000</v>
       </c>
       <c r="C343" t="n">
-        <v>1.524157902758726</v>
+        <v>1.453911020645537</v>
       </c>
       <c r="D343" t="n">
-        <v>3231415942691.663</v>
+        <v>3038114277406.223</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>40238</v>
+        <v>40330</v>
       </c>
       <c r="B344" t="n">
-        <v>2104225000000</v>
+        <v>2093060000000</v>
       </c>
       <c r="C344" t="n">
-        <v>1.519064256418047</v>
+        <v>1.494544911074578</v>
       </c>
       <c r="D344" t="n">
-        <v>3196452984961.264</v>
+        <v>3128172171573.755</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>40269</v>
+        <v>40360</v>
       </c>
       <c r="B345" t="n">
-        <v>2075222000000</v>
+        <v>2089590000000</v>
       </c>
       <c r="C345" t="n">
-        <v>1.527883880825057</v>
+        <v>1.569612305760477</v>
       </c>
       <c r="D345" t="n">
-        <v>3170698242933.537</v>
+        <v>3279846177994.036</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>40299</v>
+        <v>40391</v>
       </c>
       <c r="B346" t="n">
-        <v>2089615000000</v>
+        <v>2081045000000</v>
       </c>
       <c r="C346" t="n">
-        <v>1.453911020645537</v>
+        <v>1.535862386730149</v>
       </c>
       <c r="D346" t="n">
-        <v>3038114277406.223</v>
+        <v>3196198740592.843</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>40330</v>
+        <v>40422</v>
       </c>
       <c r="B347" t="n">
-        <v>2093060000000</v>
+        <v>2081775000000</v>
       </c>
       <c r="C347" t="n">
-        <v>1.494544911074578</v>
+        <v>1.571585730001572</v>
       </c>
       <c r="D347" t="n">
-        <v>3128172171573.755</v>
+        <v>3271687883074.022</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>40360</v>
+        <v>40452</v>
       </c>
       <c r="B348" t="n">
-        <v>2089590000000</v>
+        <v>2093324000000</v>
       </c>
       <c r="C348" t="n">
-        <v>1.569612305760477</v>
+        <v>1.604621309370988</v>
       </c>
       <c r="D348" t="n">
-        <v>3279846177994.036</v>
+        <v>3358992297817.715</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>40391</v>
+        <v>40483</v>
       </c>
       <c r="B349" t="n">
-        <v>2081045000000</v>
+        <v>2084027000000</v>
       </c>
       <c r="C349" t="n">
-        <v>1.535862386730149</v>
+        <v>1.556904873112253</v>
       </c>
       <c r="D349" t="n">
-        <v>3196198740592.843</v>
+        <v>3244631791997.509</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>40422</v>
+        <v>40513</v>
       </c>
       <c r="B350" t="n">
-        <v>2081775000000</v>
+        <v>2079662000000</v>
       </c>
       <c r="C350" t="n">
-        <v>1.571585730001572</v>
+        <v>1.561524047470331</v>
       </c>
       <c r="D350" t="n">
-        <v>3271687883074.022</v>
+        <v>3247442223610.244</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>40452</v>
+        <v>40544</v>
       </c>
       <c r="B351" t="n">
-        <v>2093324000000</v>
+        <v>2065737000000</v>
       </c>
       <c r="C351" t="n">
-        <v>1.604621309370988</v>
+        <v>1.601794009290405</v>
       </c>
       <c r="D351" t="n">
-        <v>3358992297817.715</v>
+        <v>3308885151369.534</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>40483</v>
+        <v>40575</v>
       </c>
       <c r="B352" t="n">
-        <v>2084027000000</v>
+        <v>2059607000000</v>
       </c>
       <c r="C352" t="n">
-        <v>1.556904873112253</v>
+        <v>1.626545217957059</v>
       </c>
       <c r="D352" t="n">
-        <v>3244631791997.509</v>
+        <v>3350043916720.885</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>40513</v>
+        <v>40603</v>
       </c>
       <c r="B353" t="n">
-        <v>2079662000000</v>
+        <v>2083557000000</v>
       </c>
       <c r="C353" t="n">
-        <v>1.561524047470331</v>
+        <v>1.604621309370988</v>
       </c>
       <c r="D353" t="n">
-        <v>3247442223610.244</v>
+        <v>3343319961489.088</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>40544</v>
+        <v>40634</v>
       </c>
       <c r="B354" t="n">
-        <v>2065737000000</v>
+        <v>2083933000000</v>
       </c>
       <c r="C354" t="n">
-        <v>1.601794009290405</v>
+        <v>1.671122994652406</v>
       </c>
       <c r="D354" t="n">
-        <v>3308885151369.534</v>
+        <v>3482508355614.973</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>40575</v>
+        <v>40664</v>
       </c>
       <c r="B355" t="n">
-        <v>2059607000000</v>
+        <v>2084349000000</v>
       </c>
       <c r="C355" t="n">
-        <v>1.626545217957059</v>
+        <v>1.645819618169849</v>
       </c>
       <c r="D355" t="n">
-        <v>3350043916720.885</v>
+        <v>3430462475312.706</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>40603</v>
+        <v>40695</v>
       </c>
       <c r="B356" t="n">
-        <v>2083557000000</v>
+        <v>2083095000000</v>
       </c>
       <c r="C356" t="n">
-        <v>1.604621309370988</v>
+        <v>1.604878831648211</v>
       </c>
       <c r="D356" t="n">
-        <v>3343319961489.088</v>
+        <v>3343115069812.229</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>40634</v>
+        <v>40725</v>
       </c>
       <c r="B357" t="n">
-        <v>2083933000000</v>
+        <v>2079274000000</v>
       </c>
       <c r="C357" t="n">
-        <v>1.671122994652406</v>
+        <v>1.642845408247084</v>
       </c>
       <c r="D357" t="n">
-        <v>3482508355614.973</v>
+        <v>3415925743387.547</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>40664</v>
+        <v>40756</v>
       </c>
       <c r="B358" t="n">
-        <v>2084349000000</v>
+        <v>2090532000000</v>
       </c>
       <c r="C358" t="n">
-        <v>1.645819618169849</v>
+        <v>1.626280696048138</v>
       </c>
       <c r="D358" t="n">
-        <v>3430462475312.706</v>
+        <v>3399791836070.906</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>40695</v>
+        <v>40787</v>
       </c>
       <c r="B359" t="n">
-        <v>2083095000000</v>
+        <v>2090991000000</v>
       </c>
       <c r="C359" t="n">
-        <v>1.604878831648211</v>
+        <v>1.559089491736826</v>
       </c>
       <c r="D359" t="n">
-        <v>3343115069812.229</v>
+        <v>3260042095416.277</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>40725</v>
+        <v>40817</v>
       </c>
       <c r="B360" t="n">
-        <v>2079274000000</v>
+        <v>2069799000000</v>
       </c>
       <c r="C360" t="n">
-        <v>1.642845408247084</v>
+        <v>1.608751608751609</v>
       </c>
       <c r="D360" t="n">
-        <v>3415925743387.547</v>
+        <v>3329792471042.471</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>40756</v>
+        <v>40848</v>
       </c>
       <c r="B361" t="n">
-        <v>2090532000000</v>
+        <v>2075668000000</v>
       </c>
       <c r="C361" t="n">
-        <v>1.626280696048138</v>
+        <v>1.571091908876669</v>
       </c>
       <c r="D361" t="n">
-        <v>3399791836070.906</v>
+        <v>3261065200314.219</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>40787</v>
+        <v>40878</v>
       </c>
       <c r="B362" t="n">
-        <v>2090991000000</v>
+        <v>2034688000000</v>
       </c>
       <c r="C362" t="n">
-        <v>1.559089491736826</v>
+        <v>1.555935895441108</v>
       </c>
       <c r="D362" t="n">
-        <v>3260042095416.277</v>
+        <v>3165844095223.277</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>40817</v>
+        <v>40909</v>
       </c>
       <c r="B363" t="n">
-        <v>2069799000000</v>
+        <v>2049989000000</v>
       </c>
       <c r="C363" t="n">
-        <v>1.608751608751609</v>
+        <v>1.576789656259855</v>
       </c>
       <c r="D363" t="n">
-        <v>3329792471042.471</v>
+        <v>3232401450646.484</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>40848</v>
+        <v>40940</v>
       </c>
       <c r="B364" t="n">
-        <v>2075668000000</v>
+        <v>2016377000000</v>
       </c>
       <c r="C364" t="n">
-        <v>1.571091908876669</v>
+        <v>1.592103168285305</v>
       </c>
       <c r="D364" t="n">
-        <v>3261065200314.219</v>
+        <v>3210280210157.618</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>40878</v>
+        <v>40969</v>
       </c>
       <c r="B365" t="n">
-        <v>2034688000000</v>
+        <v>2022884000000</v>
       </c>
       <c r="C365" t="n">
-        <v>1.555935895441108</v>
+        <v>1.602050624799744</v>
       </c>
       <c r="D365" t="n">
-        <v>3165844095223.277</v>
+        <v>3240762576097.405</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>40909</v>
+        <v>41000</v>
       </c>
       <c r="B366" t="n">
-        <v>2049989000000</v>
+        <v>2032569000000</v>
       </c>
       <c r="C366" t="n">
-        <v>1.576789656259855</v>
+        <v>1.624431448992852</v>
       </c>
       <c r="D366" t="n">
-        <v>3232401450646.484</v>
+        <v>3301769005847.953</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>40940</v>
+        <v>41030</v>
       </c>
       <c r="B367" t="n">
-        <v>2016377000000</v>
+        <v>2035395000000</v>
       </c>
       <c r="C367" t="n">
-        <v>1.592103168285305</v>
+        <v>1.541069502234551</v>
       </c>
       <c r="D367" t="n">
-        <v>3210280210157.618</v>
+        <v>3136685159500.693</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>40969</v>
+        <v>41061</v>
       </c>
       <c r="B368" t="n">
-        <v>2022884000000</v>
+        <v>2028016000000</v>
       </c>
       <c r="C368" t="n">
-        <v>1.602050624799744</v>
+        <v>1.570598397989634</v>
       </c>
       <c r="D368" t="n">
-        <v>3240762576097.405</v>
+        <v>3185198680697.345</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>41000</v>
+        <v>41091</v>
       </c>
       <c r="B369" t="n">
-        <v>2032569000000</v>
+        <v>2029297000000</v>
       </c>
       <c r="C369" t="n">
-        <v>1.624431448992852</v>
+        <v>1.568135486906069</v>
       </c>
       <c r="D369" t="n">
-        <v>3301769005847.953</v>
+        <v>3182212639172.024</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>41030</v>
+        <v>41122</v>
       </c>
       <c r="B370" t="n">
-        <v>2035395000000</v>
+        <v>2024977000000</v>
       </c>
       <c r="C370" t="n">
-        <v>1.541069502234551</v>
+        <v>1.587301587301587</v>
       </c>
       <c r="D370" t="n">
-        <v>3136685159500.693</v>
+        <v>3214249206349.206</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>41061</v>
+        <v>41153</v>
       </c>
       <c r="B371" t="n">
-        <v>2028016000000</v>
+        <v>2023200000000</v>
       </c>
       <c r="C371" t="n">
-        <v>1.570598397989634</v>
+        <v>1.617076326002588</v>
       </c>
       <c r="D371" t="n">
-        <v>3185198680697.345</v>
+        <v>3271668822768.435</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>41091</v>
+        <v>41183</v>
       </c>
       <c r="B372" t="n">
-        <v>2029297000000</v>
+        <v>2021961000000</v>
       </c>
       <c r="C372" t="n">
-        <v>1.568135486906069</v>
+        <v>1.613684040664838</v>
       </c>
       <c r="D372" t="n">
-        <v>3182212639172.024</v>
+        <v>3262806196546.716</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>41122</v>
+        <v>41214</v>
       </c>
       <c r="B373" t="n">
-        <v>2024977000000</v>
+        <v>2020136000000</v>
       </c>
       <c r="C373" t="n">
-        <v>1.587301587301587</v>
+        <v>1.602307322544464</v>
       </c>
       <c r="D373" t="n">
-        <v>3214249206349.206</v>
+        <v>3236878705335.683</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>41153</v>
+        <v>41244</v>
       </c>
       <c r="B374" t="n">
-        <v>2023200000000</v>
+        <v>2043137000000</v>
       </c>
       <c r="C374" t="n">
-        <v>1.617076326002588</v>
+        <v>1.626545217957059</v>
       </c>
       <c r="D374" t="n">
-        <v>3271668822768.435</v>
+        <v>3323254716981.132</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>41183</v>
+        <v>41275</v>
       </c>
       <c r="B375" t="n">
-        <v>2021961000000</v>
+        <v>2056674000000</v>
       </c>
       <c r="C375" t="n">
-        <v>1.613684040664838</v>
+        <v>1.586294416243655</v>
       </c>
       <c r="D375" t="n">
-        <v>3262806196546.716</v>
+        <v>3262490482233.503</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>41214</v>
+        <v>41306</v>
       </c>
       <c r="B376" t="n">
-        <v>2020136000000</v>
+        <v>2075622000000</v>
       </c>
       <c r="C376" t="n">
-        <v>1.602307322544464</v>
+        <v>1.516990291262136</v>
       </c>
       <c r="D376" t="n">
-        <v>3236878705335.683</v>
+        <v>3148698422330.097</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
-        <v>41244</v>
+        <v>41334</v>
       </c>
       <c r="B377" t="n">
-        <v>2043137000000</v>
+        <v>2074600000000</v>
       </c>
       <c r="C377" t="n">
-        <v>1.626545217957059</v>
+        <v>1.521606816798539</v>
       </c>
       <c r="D377" t="n">
-        <v>3323254716981.132</v>
+        <v>3156725502130.25</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
-        <v>41275</v>
+        <v>41365</v>
       </c>
       <c r="B378" t="n">
-        <v>2056674000000</v>
+        <v>2079867000000</v>
       </c>
       <c r="C378" t="n">
-        <v>1.586294416243655</v>
+        <v>1.55448468832582</v>
       </c>
       <c r="D378" t="n">
-        <v>3262490482233.503</v>
+        <v>3233121405254.159</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
-        <v>41306</v>
+        <v>41395</v>
       </c>
       <c r="B379" t="n">
-        <v>2075622000000</v>
+        <v>2080598000000</v>
       </c>
       <c r="C379" t="n">
-        <v>1.516990291262136</v>
+        <v>1.520218911523259</v>
       </c>
       <c r="D379" t="n">
-        <v>3148698422330.097</v>
+        <v>3162964426877.47</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
-        <v>41334</v>
+        <v>41426</v>
       </c>
       <c r="B380" t="n">
-        <v>2074600000000</v>
+        <v>2086463000000</v>
       </c>
       <c r="C380" t="n">
-        <v>1.521606816798539</v>
+        <v>1.522533495736906</v>
       </c>
       <c r="D380" t="n">
-        <v>3156725502130.25</v>
+        <v>3176709805115.712</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
-        <v>41365</v>
+        <v>41456</v>
       </c>
       <c r="B381" t="n">
-        <v>2079867000000</v>
+        <v>2100189000000</v>
       </c>
       <c r="C381" t="n">
-        <v>1.55448468832582</v>
+        <v>1.519987840097279</v>
       </c>
       <c r="D381" t="n">
-        <v>3233121405254.159</v>
+        <v>3192261741906.064</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
-        <v>41395</v>
+        <v>41487</v>
       </c>
       <c r="B382" t="n">
-        <v>2080598000000</v>
+        <v>2105684000000</v>
       </c>
       <c r="C382" t="n">
-        <v>1.520218911523259</v>
+        <v>1.550868486352357</v>
       </c>
       <c r="D382" t="n">
-        <v>3162964426877.47</v>
+        <v>3265638957816.377</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
-        <v>41426</v>
+        <v>41518</v>
       </c>
       <c r="B383" t="n">
-        <v>2086463000000</v>
+        <v>2089184000000</v>
       </c>
       <c r="C383" t="n">
-        <v>1.522533495736906</v>
+        <v>1.619170984455959</v>
       </c>
       <c r="D383" t="n">
-        <v>3176709805115.712</v>
+        <v>3382746113989.637</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
-        <v>41456</v>
+        <v>41548</v>
       </c>
       <c r="B384" t="n">
-        <v>2100189000000</v>
+        <v>2104033000000</v>
       </c>
       <c r="C384" t="n">
-        <v>1.519987840097279</v>
+        <v>1.604621309370988</v>
       </c>
       <c r="D384" t="n">
-        <v>3192261741906.064</v>
+        <v>3376176187419.769</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
-        <v>41487</v>
+        <v>41579</v>
       </c>
       <c r="B385" t="n">
-        <v>2105684000000</v>
+        <v>2100835000000</v>
       </c>
       <c r="C385" t="n">
-        <v>1.550868486352357</v>
+        <v>1.637465203864418</v>
       </c>
       <c r="D385" t="n">
-        <v>3265638957816.377</v>
+        <v>3440044211560.504</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
-        <v>41518</v>
+        <v>41609</v>
       </c>
       <c r="B386" t="n">
-        <v>2089184000000</v>
+        <v>2078521000000</v>
       </c>
       <c r="C386" t="n">
-        <v>1.619170984455959</v>
+        <v>1.655629139072848</v>
       </c>
       <c r="D386" t="n">
-        <v>3382746113989.637</v>
+        <v>3441259933774.834</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>41548</v>
+        <v>41640</v>
       </c>
       <c r="B387" t="n">
-        <v>2104033000000</v>
+        <v>2092490000000</v>
       </c>
       <c r="C387" t="n">
-        <v>1.604621309370988</v>
+        <v>1.64446637066272</v>
       </c>
       <c r="D387" t="n">
-        <v>3376176187419.769</v>
+        <v>3441029435948.035</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
-        <v>41579</v>
+        <v>41671</v>
       </c>
       <c r="B388" t="n">
-        <v>2100835000000</v>
+        <v>2110351000000</v>
       </c>
       <c r="C388" t="n">
-        <v>1.637465203864418</v>
+        <v>1.674761346508123</v>
       </c>
       <c r="D388" t="n">
-        <v>3440044211560.504</v>
+        <v>3534334282364.763</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
-        <v>41609</v>
+        <v>41699</v>
       </c>
       <c r="B389" t="n">
-        <v>2078521000000</v>
+        <v>2083894000000</v>
       </c>
       <c r="C389" t="n">
-        <v>1.655629139072848</v>
+        <v>1.666944490748458</v>
       </c>
       <c r="D389" t="n">
-        <v>3441259933774.834</v>
+        <v>3473735622603.767</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
-        <v>41640</v>
+        <v>41730</v>
       </c>
       <c r="B390" t="n">
-        <v>2092490000000</v>
+        <v>2077452000000</v>
       </c>
       <c r="C390" t="n">
-        <v>1.64446637066272</v>
+        <v>1.688333614722269</v>
       </c>
       <c r="D390" t="n">
-        <v>3441029435948.035</v>
+        <v>3507432044572.007</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>41671</v>
+        <v>41760</v>
       </c>
       <c r="B391" t="n">
-        <v>2110351000000</v>
+        <v>2072230000000</v>
       </c>
       <c r="C391" t="n">
-        <v>1.674761346508123</v>
+        <v>1.676164934629568</v>
       </c>
       <c r="D391" t="n">
-        <v>3534334282364.763</v>
+        <v>3473399262487.429</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
-        <v>41699</v>
+        <v>41791</v>
       </c>
       <c r="B392" t="n">
-        <v>2083894000000</v>
+        <v>2063644000000</v>
       </c>
       <c r="C392" t="n">
-        <v>1.666944490748458</v>
+        <v>1.71174255391989</v>
       </c>
       <c r="D392" t="n">
-        <v>3473735622603.767</v>
+        <v>3532427250941.458</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
-        <v>41730</v>
+        <v>41821</v>
       </c>
       <c r="B393" t="n">
-        <v>2077452000000</v>
+        <v>2065107000000</v>
       </c>
       <c r="C393" t="n">
-        <v>1.688333614722269</v>
+        <v>1.689189189189189</v>
       </c>
       <c r="D393" t="n">
-        <v>3507432044572.007</v>
+        <v>3488356418918.919</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>41760</v>
+        <v>41852</v>
       </c>
       <c r="B394" t="n">
-        <v>2072230000000</v>
+        <v>2066020000000</v>
       </c>
       <c r="C394" t="n">
-        <v>1.676164934629568</v>
+        <v>1.660577881102624</v>
       </c>
       <c r="D394" t="n">
-        <v>3473399262487.429</v>
+        <v>3430787113915.643</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>41791</v>
+        <v>41883</v>
       </c>
       <c r="B395" t="n">
-        <v>2063644000000</v>
+        <v>2073182000000</v>
       </c>
       <c r="C395" t="n">
-        <v>1.71174255391989</v>
+        <v>1.6220600162206</v>
       </c>
       <c r="D395" t="n">
-        <v>3532427250941.458</v>
+        <v>3362825628548.256</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>41821</v>
+        <v>41913</v>
       </c>
       <c r="B396" t="n">
-        <v>2065107000000</v>
+        <v>2060745000000</v>
       </c>
       <c r="C396" t="n">
-        <v>1.689189189189189</v>
+        <v>1.600256040966555</v>
       </c>
       <c r="D396" t="n">
-        <v>3488356418918.919</v>
+        <v>3297719635141.623</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>41852</v>
+        <v>41944</v>
       </c>
       <c r="B397" t="n">
-        <v>2066020000000</v>
+        <v>2068777000000</v>
       </c>
       <c r="C397" t="n">
-        <v>1.660577881102624</v>
+        <v>1.565680288085173</v>
       </c>
       <c r="D397" t="n">
-        <v>3430787113915.643</v>
+        <v>3239043369343.979</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>41883</v>
+        <v>41974</v>
       </c>
       <c r="B398" t="n">
-        <v>2073182000000</v>
+        <v>2080602000000</v>
       </c>
       <c r="C398" t="n">
-        <v>1.6220600162206</v>
+        <v>1.558360604643914</v>
       </c>
       <c r="D398" t="n">
-        <v>3362825628548.256</v>
+        <v>3242328190743.338</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>41913</v>
+        <v>42005</v>
       </c>
       <c r="B399" t="n">
-        <v>2060745000000</v>
+        <v>2074266000000</v>
       </c>
       <c r="C399" t="n">
-        <v>1.600256040966555</v>
+        <v>1.506250941406838</v>
       </c>
       <c r="D399" t="n">
-        <v>3297719635141.623</v>
+        <v>3124365115228.197</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
-        <v>41944</v>
+        <v>42036</v>
       </c>
       <c r="B400" t="n">
-        <v>2068777000000</v>
+        <v>2070057000000</v>
       </c>
       <c r="C400" t="n">
-        <v>1.565680288085173</v>
+        <v>1.544401544401544</v>
       </c>
       <c r="D400" t="n">
-        <v>3239043369343.979</v>
+        <v>3196999227799.228</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
-        <v>41974</v>
+        <v>42064</v>
       </c>
       <c r="B401" t="n">
-        <v>2080602000000</v>
+        <v>2088476000000</v>
       </c>
       <c r="C401" t="n">
-        <v>1.558360604643914</v>
+        <v>1.483239394838327</v>
       </c>
       <c r="D401" t="n">
-        <v>3242328190743.338</v>
+        <v>3097709878374.37</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
-        <v>42005</v>
+        <v>42095</v>
       </c>
       <c r="B402" t="n">
-        <v>2074266000000</v>
+        <v>2093493000000</v>
       </c>
       <c r="C402" t="n">
-        <v>1.506250941406838</v>
+        <v>1.534801626889725</v>
       </c>
       <c r="D402" t="n">
-        <v>3124365115228.197</v>
+        <v>3213096462282.25</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
-        <v>42036</v>
+        <v>42125</v>
       </c>
       <c r="B403" t="n">
-        <v>2070057000000</v>
+        <v>2090432000000</v>
       </c>
       <c r="C403" t="n">
-        <v>1.544401544401544</v>
+        <v>1.528701368187724</v>
       </c>
       <c r="D403" t="n">
-        <v>3196999227799.228</v>
+        <v>3195646258503.401</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
-        <v>42064</v>
+        <v>42156</v>
       </c>
       <c r="B404" t="n">
-        <v>2088476000000</v>
+        <v>2088479000000</v>
       </c>
       <c r="C404" t="n">
-        <v>1.483239394838327</v>
+        <v>1.571388164304347</v>
       </c>
       <c r="D404" t="n">
-        <v>3097709878374.37</v>
+        <v>3281811181998.177</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
-        <v>42095</v>
+        <v>42186</v>
       </c>
       <c r="B405" t="n">
-        <v>2093493000000</v>
+        <v>2102076000000</v>
       </c>
       <c r="C405" t="n">
-        <v>1.534801626889725</v>
+        <v>1.562207086171343</v>
       </c>
       <c r="D405" t="n">
-        <v>3213096462282.25</v>
+        <v>3283878022870.712</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
-        <v>42125</v>
+        <v>42217</v>
       </c>
       <c r="B406" t="n">
-        <v>2090432000000</v>
+        <v>2103201000000</v>
       </c>
       <c r="C406" t="n">
-        <v>1.528701368187724</v>
+        <v>1.534589650727396</v>
       </c>
       <c r="D406" t="n">
-        <v>3195646258503.401</v>
+        <v>3227550487999.509</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
-        <v>42156</v>
+        <v>42248</v>
       </c>
       <c r="B407" t="n">
-        <v>2088479000000</v>
+        <v>2111839000000</v>
       </c>
       <c r="C407" t="n">
-        <v>1.571388164304347</v>
+        <v>1.512538947877908</v>
       </c>
       <c r="D407" t="n">
-        <v>3281811181998.177</v>
+        <v>3194238739147.533</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
-        <v>42186</v>
+        <v>42278</v>
       </c>
       <c r="B408" t="n">
-        <v>2102076000000</v>
+        <v>2123379000000</v>
       </c>
       <c r="C408" t="n">
-        <v>1.562207086171343</v>
+        <v>1.543519533239693</v>
       </c>
       <c r="D408" t="n">
-        <v>3283878022870.712</v>
+        <v>3277476962970.967</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
-        <v>42217</v>
+        <v>42309</v>
       </c>
       <c r="B409" t="n">
-        <v>2103201000000</v>
+        <v>2120917000000</v>
       </c>
       <c r="C409" t="n">
-        <v>1.534589650727396</v>
+        <v>1.505706628120577</v>
       </c>
       <c r="D409" t="n">
-        <v>3227550487999.509</v>
+        <v>3193478784593.61</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
-        <v>42248</v>
+        <v>42339</v>
       </c>
       <c r="B410" t="n">
-        <v>2111839000000</v>
+        <v>2133161000000</v>
       </c>
       <c r="C410" t="n">
-        <v>1.512538947877908</v>
+        <v>1.473600447974536</v>
       </c>
       <c r="D410" t="n">
-        <v>3194238739147.533</v>
+        <v>3143427005201.81</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
-        <v>42278</v>
+        <v>42370</v>
       </c>
       <c r="B411" t="n">
-        <v>2123379000000</v>
+        <v>2159868000000</v>
       </c>
       <c r="C411" t="n">
-        <v>1.543519533239693</v>
+        <v>1.424278246998333</v>
       </c>
       <c r="D411" t="n">
-        <v>3277476962970.967</v>
+        <v>3076253008787.796</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
-        <v>42309</v>
+        <v>42401</v>
       </c>
       <c r="B412" t="n">
-        <v>2120917000000</v>
+        <v>2181858000000</v>
       </c>
       <c r="C412" t="n">
-        <v>1.505706628120577</v>
+        <v>1.391594767603674</v>
       </c>
       <c r="D412" t="n">
-        <v>3193478784593.61</v>
+        <v>3036262176454.216</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
-        <v>42339</v>
+        <v>42430</v>
       </c>
       <c r="B413" t="n">
-        <v>2133161000000</v>
+        <v>2183504000000</v>
       </c>
       <c r="C413" t="n">
-        <v>1.473600447974536</v>
+        <v>1.436513294930545</v>
       </c>
       <c r="D413" t="n">
-        <v>3143427005201.81</v>
+        <v>3136632525534.024</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
-        <v>42370</v>
+        <v>42461</v>
       </c>
       <c r="B414" t="n">
-        <v>2159868000000</v>
+        <v>2177010000000</v>
       </c>
       <c r="C414" t="n">
-        <v>1.424278246998333</v>
+        <v>1.460984411296331</v>
       </c>
       <c r="D414" t="n">
-        <v>3076253008787.796</v>
+        <v>3180577673236.227</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
-        <v>42401</v>
+        <v>42491</v>
       </c>
       <c r="B415" t="n">
-        <v>2181858000000</v>
+        <v>2180072000000</v>
       </c>
       <c r="C415" t="n">
-        <v>1.391594767603674</v>
+        <v>1.448204949964519</v>
       </c>
       <c r="D415" t="n">
-        <v>3036262176454.216</v>
+        <v>3157191061679.049</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
-        <v>42430</v>
+        <v>42522</v>
       </c>
       <c r="B416" t="n">
-        <v>2183504000000</v>
+        <v>2246217000000</v>
       </c>
       <c r="C416" t="n">
-        <v>1.436513294930545</v>
+        <v>1.328762390709293</v>
       </c>
       <c r="D416" t="n">
-        <v>3136632525534.024</v>
+        <v>2984688670971.857</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
-        <v>42461</v>
+        <v>42552</v>
       </c>
       <c r="B417" t="n">
-        <v>2177010000000</v>
+        <v>2255422000000</v>
       </c>
       <c r="C417" t="n">
-        <v>1.460984411296331</v>
+        <v>1.323171377156769</v>
       </c>
       <c r="D417" t="n">
-        <v>3180577673236.227</v>
+        <v>2984309833809.675</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
-        <v>42491</v>
+        <v>42583</v>
       </c>
       <c r="B418" t="n">
-        <v>2180072000000</v>
+        <v>2269525000000</v>
       </c>
       <c r="C418" t="n">
-        <v>1.448204949964519</v>
+        <v>1.314008646176892</v>
       </c>
       <c r="D418" t="n">
-        <v>3157191061679.049</v>
+        <v>2982175472714.61</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
-        <v>42522</v>
+        <v>42614</v>
       </c>
       <c r="B419" t="n">
-        <v>2246217000000</v>
+        <v>2275185000000</v>
       </c>
       <c r="C419" t="n">
-        <v>1.328762390709293</v>
+        <v>1.297875378006204</v>
       </c>
       <c r="D419" t="n">
-        <v>2984688670971.857</v>
+        <v>2952906591909.045</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
-        <v>42552</v>
+        <v>42644</v>
       </c>
       <c r="B420" t="n">
-        <v>2255422000000</v>
+        <v>2289715000000</v>
       </c>
       <c r="C420" t="n">
-        <v>1.323171377156769</v>
+        <v>1.223945265167742</v>
       </c>
       <c r="D420" t="n">
-        <v>2984309833809.675</v>
+        <v>2802485832833.556</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
-        <v>42583</v>
+        <v>42675</v>
       </c>
       <c r="B421" t="n">
-        <v>2269525000000</v>
+        <v>2277832000000</v>
       </c>
       <c r="C421" t="n">
-        <v>1.314008646176892</v>
+        <v>1.250750450270162</v>
       </c>
       <c r="D421" t="n">
-        <v>2982175472714.61</v>
+        <v>2848999399639.784</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="2" t="n">
-        <v>42614</v>
+        <v>42705</v>
       </c>
       <c r="B422" t="n">
-        <v>2275185000000</v>
+        <v>2280305000000</v>
       </c>
       <c r="C422" t="n">
-        <v>1.297875378006204</v>
+        <v>1.23449169804333</v>
       </c>
       <c r="D422" t="n">
-        <v>2952906591909.045</v>
+        <v>2815017591506.697</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
-        <v>42644</v>
+        <v>42736</v>
       </c>
       <c r="B423" t="n">
-        <v>2289715000000</v>
+        <v>2282011000000</v>
       </c>
       <c r="C423" t="n">
-        <v>1.223945265167742</v>
+        <v>1.257940750990628</v>
       </c>
       <c r="D423" t="n">
-        <v>2802485832833.556</v>
+        <v>2870634631108.875</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="2" t="n">
-        <v>42675</v>
+        <v>42767</v>
       </c>
       <c r="B424" t="n">
-        <v>2277832000000</v>
+        <v>2287466000000</v>
       </c>
       <c r="C424" t="n">
-        <v>1.250750450270162</v>
+        <v>1.238236750866766</v>
       </c>
       <c r="D424" t="n">
-        <v>2848999399639.784</v>
+        <v>2832424467558.197</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="2" t="n">
-        <v>42705</v>
+        <v>42795</v>
       </c>
       <c r="B425" t="n">
-        <v>2280305000000</v>
+        <v>2294949000000</v>
       </c>
       <c r="C425" t="n">
-        <v>1.23449169804333</v>
+        <v>1.254500520617716</v>
       </c>
       <c r="D425" t="n">
-        <v>2815017591506.697</v>
+        <v>2879014715291.107</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
-        <v>42736</v>
+        <v>42826</v>
       </c>
       <c r="B426" t="n">
-        <v>2282011000000</v>
+        <v>2301706000000</v>
       </c>
       <c r="C426" t="n">
-        <v>1.257940750990628</v>
+        <v>1.295018065502014</v>
       </c>
       <c r="D426" t="n">
-        <v>2870634631108.875</v>
+        <v>2980750851474.378</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
-        <v>42767</v>
+        <v>42856</v>
       </c>
       <c r="B427" t="n">
-        <v>2287466000000</v>
+        <v>2309386000000</v>
       </c>
       <c r="C427" t="n">
-        <v>1.238236750866766</v>
+        <v>1.287316074715825</v>
       </c>
       <c r="D427" t="n">
-        <v>2832424467558.197</v>
+        <v>2972909720523.68</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
-        <v>42795</v>
+        <v>42887</v>
       </c>
       <c r="B428" t="n">
-        <v>2294949000000</v>
+        <v>2315550000000</v>
       </c>
       <c r="C428" t="n">
-        <v>1.254500520617716</v>
+        <v>1.302677001237543</v>
       </c>
       <c r="D428" t="n">
-        <v>2879014715291.107</v>
+        <v>3016413730215.593</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
-        <v>42826</v>
+        <v>42917</v>
       </c>
       <c r="B429" t="n">
-        <v>2301706000000</v>
+        <v>2309957000000</v>
       </c>
       <c r="C429" t="n">
-        <v>1.295018065502014</v>
+        <v>1.320742257148517</v>
       </c>
       <c r="D429" t="n">
-        <v>2980750851474.378</v>
+        <v>3050857822096.018</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
-        <v>42856</v>
+        <v>42948</v>
       </c>
       <c r="B430" t="n">
-        <v>2309386000000</v>
+        <v>2332726000000</v>
       </c>
       <c r="C430" t="n">
-        <v>1.287316074715825</v>
+        <v>1.292791395180474</v>
       </c>
       <c r="D430" t="n">
-        <v>2972909720523.68</v>
+        <v>3015728100113.766</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
-        <v>42887</v>
+        <v>42979</v>
       </c>
       <c r="B431" t="n">
-        <v>2315550000000</v>
+        <v>2336880000000</v>
       </c>
       <c r="C431" t="n">
-        <v>1.302677001237543</v>
+        <v>1.339764201500536</v>
       </c>
       <c r="D431" t="n">
-        <v>3016413730215.593</v>
+        <v>3130868167202.573</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="n">
-        <v>42917</v>
+        <v>43009</v>
       </c>
       <c r="B432" t="n">
-        <v>2309957000000</v>
+        <v>2340379000000</v>
       </c>
       <c r="C432" t="n">
-        <v>1.320742257148517</v>
+        <v>1.328427009577959</v>
       </c>
       <c r="D432" t="n">
-        <v>3050857822096.018</v>
+        <v>3109022676249.053</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="n">
-        <v>42948</v>
+        <v>43040</v>
       </c>
       <c r="B433" t="n">
-        <v>2332726000000</v>
+        <v>2345208000000</v>
       </c>
       <c r="C433" t="n">
-        <v>1.292791395180474</v>
+        <v>1.352905364269769</v>
       </c>
       <c r="D433" t="n">
-        <v>3015728100113.766</v>
+        <v>3172844483528.377</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="2" t="n">
-        <v>42979</v>
+        <v>43070</v>
       </c>
       <c r="B434" t="n">
-        <v>2336880000000</v>
+        <v>2346342000000</v>
       </c>
       <c r="C434" t="n">
-        <v>1.339764201500536</v>
+        <v>1.351351351351351</v>
       </c>
       <c r="D434" t="n">
-        <v>3130868167202.573</v>
+        <v>3170732432432.432</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="n">
-        <v>43009</v>
+        <v>43101</v>
       </c>
       <c r="B435" t="n">
-        <v>2340379000000</v>
+        <v>2358144000000</v>
       </c>
       <c r="C435" t="n">
-        <v>1.328427009577959</v>
+        <v>1.419385973627809</v>
       </c>
       <c r="D435" t="n">
-        <v>3109022676249.053</v>
+        <v>3347116517394.575</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="n">
-        <v>43040</v>
+        <v>43132</v>
       </c>
       <c r="B436" t="n">
-        <v>2345208000000</v>
+        <v>2359478000000</v>
       </c>
       <c r="C436" t="n">
-        <v>1.352905364269769</v>
+        <v>1.376026860044308</v>
       </c>
       <c r="D436" t="n">
-        <v>3172844483528.377</v>
+        <v>3246705103683.624</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="2" t="n">
-        <v>43070</v>
+        <v>43160</v>
       </c>
       <c r="B437" t="n">
-        <v>2346342000000</v>
+        <v>2346725000000</v>
       </c>
       <c r="C437" t="n">
-        <v>1.351351351351351</v>
+        <v>1.401600627917081</v>
       </c>
       <c r="D437" t="n">
-        <v>3170732432432.432</v>
+        <v>3289171233548.712</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="n">
-        <v>43101</v>
+        <v>43191</v>
       </c>
       <c r="B438" t="n">
-        <v>2358144000000</v>
+        <v>2351179000000</v>
       </c>
       <c r="C438" t="n">
-        <v>1.419385973627809</v>
+        <v>1.37680361273268</v>
       </c>
       <c r="D438" t="n">
-        <v>3347116517394.575</v>
+        <v>3237111741381.209</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="n">
-        <v>43132</v>
+        <v>43221</v>
       </c>
       <c r="B439" t="n">
-        <v>2359478000000</v>
+        <v>2371695000000</v>
       </c>
       <c r="C439" t="n">
-        <v>1.376026860044308</v>
+        <v>1.329469010077375</v>
       </c>
       <c r="D439" t="n">
-        <v>3246705103683.624</v>
+        <v>3153095003855.46</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="n">
-        <v>43160</v>
+        <v>43252</v>
       </c>
       <c r="B440" t="n">
-        <v>2346725000000</v>
+        <v>2370936000000</v>
       </c>
       <c r="C440" t="n">
-        <v>1.401600627917081</v>
+        <v>1.320620163228652</v>
       </c>
       <c r="D440" t="n">
-        <v>3289171233548.712</v>
+        <v>3131105887324.688</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="n">
-        <v>43191</v>
+        <v>43282</v>
       </c>
       <c r="B441" t="n">
-        <v>2351179000000</v>
+        <v>2372237000000</v>
       </c>
       <c r="C441" t="n">
-        <v>1.37680361273268</v>
+        <v>1.311733455761789</v>
       </c>
       <c r="D441" t="n">
-        <v>3237111741381.209</v>
+        <v>3111742637895.979</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="n">
-        <v>43221</v>
+        <v>43313</v>
       </c>
       <c r="B442" t="n">
-        <v>2371695000000</v>
+        <v>2375322000000</v>
       </c>
       <c r="C442" t="n">
-        <v>1.329469010077375</v>
+        <v>1.295706030215865</v>
       </c>
       <c r="D442" t="n">
-        <v>3153095003855.46</v>
+        <v>3077719039104.408</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="2" t="n">
-        <v>43252</v>
+        <v>43344</v>
       </c>
       <c r="B443" t="n">
-        <v>2370936000000</v>
+        <v>2387804000000</v>
       </c>
       <c r="C443" t="n">
-        <v>1.320620163228652</v>
+        <v>1.303237241307408</v>
       </c>
       <c r="D443" t="n">
-        <v>3131105887324.688</v>
+        <v>3111875097742.793</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="2" t="n">
-        <v>43282</v>
+        <v>43374</v>
       </c>
       <c r="B444" t="n">
-        <v>2372237000000</v>
+        <v>2417700000000</v>
       </c>
       <c r="C444" t="n">
-        <v>1.311733455761789</v>
+        <v>1.276959814074651</v>
       </c>
       <c r="D444" t="n">
-        <v>3111742637895.979</v>
+        <v>3087305742488.284</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
-        <v>43313</v>
+        <v>43405</v>
       </c>
       <c r="B445" t="n">
-        <v>2375322000000</v>
+        <v>2415829000000</v>
       </c>
       <c r="C445" t="n">
-        <v>1.295706030215865</v>
+        <v>1.275152380709495</v>
       </c>
       <c r="D445" t="n">
-        <v>3077719039104.408</v>
+        <v>3080550100737.038</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="2" t="n">
-        <v>43344</v>
+        <v>43435</v>
       </c>
       <c r="B446" t="n">
-        <v>2387804000000</v>
+        <v>2415228000000</v>
       </c>
       <c r="C446" t="n">
-        <v>1.303237241307408</v>
+        <v>1.275705465122213</v>
       </c>
       <c r="D446" t="n">
-        <v>3111875097742.793</v>
+        <v>3081119559116.191</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="2" t="n">
-        <v>43374</v>
+        <v>43466</v>
       </c>
       <c r="B447" t="n">
-        <v>2417700000000</v>
+        <v>2408195000000</v>
       </c>
       <c r="C447" t="n">
-        <v>1.276959814074651</v>
+        <v>1.311114316057217</v>
       </c>
       <c r="D447" t="n">
-        <v>3087305742488.284</v>
+        <v>3157418940357.41</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="n">
-        <v>43405</v>
+        <v>43497</v>
       </c>
       <c r="B448" t="n">
-        <v>2415829000000</v>
+        <v>2404540000000</v>
       </c>
       <c r="C448" t="n">
-        <v>1.275152380709495</v>
+        <v>1.326277536837358</v>
       </c>
       <c r="D448" t="n">
-        <v>3080550100737.038</v>
+        <v>3189087388426.902</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="2" t="n">
-        <v>43435</v>
+        <v>43525</v>
       </c>
       <c r="B449" t="n">
-        <v>2415228000000</v>
+        <v>2415324000000</v>
       </c>
       <c r="C449" t="n">
-        <v>1.275705465122213</v>
+        <v>1.304597401241977</v>
       </c>
       <c r="D449" t="n">
-        <v>3081119559116.191</v>
+        <v>3151025413557.376</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="2" t="n">
-        <v>43466</v>
+        <v>43556</v>
       </c>
       <c r="B450" t="n">
-        <v>2408195000000</v>
+        <v>2414883000000</v>
       </c>
       <c r="C450" t="n">
-        <v>1.311114316057217</v>
+        <v>1.303322168206759</v>
       </c>
       <c r="D450" t="n">
-        <v>3157418940357.41</v>
+        <v>3147370547525.643</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="2" t="n">
-        <v>43497</v>
+        <v>43586</v>
       </c>
       <c r="B451" t="n">
-        <v>2404540000000</v>
+        <v>2405369000000</v>
       </c>
       <c r="C451" t="n">
-        <v>1.326277536837358</v>
+        <v>1.263839037460189</v>
       </c>
       <c r="D451" t="n">
-        <v>3189087388426.902</v>
+        <v>3039999241696.577</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="2" t="n">
-        <v>43525</v>
+        <v>43617</v>
       </c>
       <c r="B452" t="n">
-        <v>2415324000000</v>
+        <v>2415011000000</v>
       </c>
       <c r="C452" t="n">
-        <v>1.304597401241977</v>
+        <v>1.269132167423916</v>
       </c>
       <c r="D452" t="n">
-        <v>3151025413557.376</v>
+        <v>3064968144782.598</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="2" t="n">
-        <v>43556</v>
+        <v>43647</v>
       </c>
       <c r="B453" t="n">
-        <v>2414883000000</v>
+        <v>2419765000000</v>
       </c>
       <c r="C453" t="n">
-        <v>1.303322168206759</v>
+        <v>1.215199718073665</v>
       </c>
       <c r="D453" t="n">
-        <v>3147370547525.643</v>
+        <v>2940497745804.523</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="2" t="n">
-        <v>43586</v>
+        <v>43678</v>
       </c>
       <c r="B454" t="n">
-        <v>2405369000000</v>
+        <v>2430126000000</v>
       </c>
       <c r="C454" t="n">
-        <v>1.263839037460189</v>
+        <v>1.216130758379141</v>
       </c>
       <c r="D454" t="n">
-        <v>3039999241696.577</v>
+        <v>2955350975336.868</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="2" t="n">
-        <v>43617</v>
+        <v>43709</v>
       </c>
       <c r="B455" t="n">
-        <v>2415011000000</v>
+        <v>2427830000000</v>
       </c>
       <c r="C455" t="n">
-        <v>1.269132167423916</v>
+        <v>1.229316745752711</v>
       </c>
       <c r="D455" t="n">
-        <v>3064968144782.598</v>
+        <v>2984572074840.804</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="2" t="n">
-        <v>43647</v>
+        <v>43739</v>
       </c>
       <c r="B456" t="n">
-        <v>2419765000000</v>
+        <v>2422845000000</v>
       </c>
       <c r="C456" t="n">
-        <v>1.215199718073665</v>
+        <v>1.292874966062032</v>
       </c>
       <c r="D456" t="n">
-        <v>2940497745804.523</v>
+        <v>3132435647148.564</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="2" t="n">
-        <v>43678</v>
+        <v>43770</v>
       </c>
       <c r="B457" t="n">
-        <v>2430126000000</v>
+        <v>2431821000000</v>
       </c>
       <c r="C457" t="n">
-        <v>1.216130758379141</v>
+        <v>1.293560655059116</v>
       </c>
       <c r="D457" t="n">
-        <v>2955350975336.868</v>
+        <v>3145707965746.514</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="2" t="n">
-        <v>43709</v>
+        <v>43800</v>
       </c>
       <c r="B458" t="n">
-        <v>2427830000000</v>
+        <v>2447095000000</v>
       </c>
       <c r="C458" t="n">
-        <v>1.229316745752711</v>
+        <v>1.326154417420365</v>
       </c>
       <c r="D458" t="n">
-        <v>2984572074840.804</v>
+        <v>3245225844097.287</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="2" t="n">
-        <v>43739</v>
+        <v>43831</v>
       </c>
       <c r="B459" t="n">
-        <v>2422845000000</v>
+        <v>2455675000000</v>
       </c>
       <c r="C459" t="n">
-        <v>1.292874966062032</v>
+        <v>1.320515529262624</v>
       </c>
       <c r="D459" t="n">
-        <v>3132435647148.564</v>
+        <v>3242756972321.995</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="2" t="n">
-        <v>43770</v>
+        <v>43862</v>
       </c>
       <c r="B460" t="n">
-        <v>2431821000000</v>
+        <v>2480997000000</v>
       </c>
       <c r="C460" t="n">
-        <v>1.293560655059116</v>
+        <v>1.281640499839795</v>
       </c>
       <c r="D460" t="n">
-        <v>3145707965746.514</v>
+        <v>3179746235181.032</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="2" t="n">
-        <v>43800</v>
+        <v>43891</v>
       </c>
       <c r="B461" t="n">
-        <v>2447095000000</v>
+        <v>2602223000000</v>
       </c>
       <c r="C461" t="n">
-        <v>1.326154417420365</v>
+        <v>1.243471773190749</v>
       </c>
       <c r="D461" t="n">
-        <v>3245225844097.287</v>
+        <v>3235790848047.749</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="2" t="n">
-        <v>43831</v>
+        <v>43922</v>
       </c>
       <c r="B462" t="n">
-        <v>2455675000000</v>
+        <v>2637679000000</v>
       </c>
       <c r="C462" t="n">
-        <v>1.320515529262624</v>
+        <v>1.259556887886841</v>
       </c>
       <c r="D462" t="n">
-        <v>3242756972321.995</v>
+        <v>3322306752484.476</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="2" t="n">
-        <v>43862</v>
+        <v>43952</v>
       </c>
       <c r="B463" t="n">
-        <v>2480997000000</v>
+        <v>2678816000000</v>
       </c>
       <c r="C463" t="n">
-        <v>1.281640499839795</v>
+        <v>1.235177865612648</v>
       </c>
       <c r="D463" t="n">
-        <v>3179746235181.032</v>
+        <v>3308814229249.012</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="2" t="n">
-        <v>43891</v>
+        <v>43983</v>
       </c>
       <c r="B464" t="n">
-        <v>2602223000000</v>
+        <v>2698296000000</v>
       </c>
       <c r="C464" t="n">
-        <v>1.243471773190749</v>
+        <v>1.240110121778814</v>
       </c>
       <c r="D464" t="n">
-        <v>3235790848047.749</v>
+        <v>3346184181155.287</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="2" t="n">
-        <v>43922</v>
+        <v>44013</v>
       </c>
       <c r="B465" t="n">
-        <v>2637679000000</v>
+        <v>2718664000000</v>
       </c>
       <c r="C465" t="n">
-        <v>1.259556887886841</v>
+        <v>1.308335404864391</v>
       </c>
       <c r="D465" t="n">
-        <v>3322306752484.476</v>
+        <v>3556924365130.245</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="2" t="n">
-        <v>43952</v>
+        <v>44044</v>
       </c>
       <c r="B466" t="n">
-        <v>2678816000000</v>
+        <v>2721942000000</v>
       </c>
       <c r="C466" t="n">
-        <v>1.235177865612648</v>
+        <v>1.336630354875359</v>
       </c>
       <c r="D466" t="n">
-        <v>3308814229249.012</v>
+        <v>3638230301410.145</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="2" t="n">
-        <v>43983</v>
+        <v>44075</v>
       </c>
       <c r="B467" t="n">
-        <v>2698296000000</v>
+        <v>2729344000000</v>
       </c>
       <c r="C467" t="n">
-        <v>1.240110121778814</v>
+        <v>1.291972971925427</v>
       </c>
       <c r="D467" t="n">
-        <v>3346184181155.287</v>
+        <v>3526238679086.833</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="2" t="n">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="B468" t="n">
-        <v>2718664000000</v>
+        <v>2763331000000</v>
       </c>
       <c r="C468" t="n">
-        <v>1.308335404864391</v>
+        <v>1.29510192452146</v>
       </c>
       <c r="D468" t="n">
-        <v>3556924365130.245</v>
+        <v>3578795296189.81</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="2" t="n">
-        <v>44044</v>
+        <v>44136</v>
       </c>
       <c r="B469" t="n">
-        <v>2721942000000</v>
+        <v>2774261000000</v>
       </c>
       <c r="C469" t="n">
-        <v>1.336630354875359</v>
+        <v>1.332480545784031</v>
       </c>
       <c r="D469" t="n">
-        <v>3638230301410.145</v>
+        <v>3696648811427.353</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="2" t="n">
-        <v>44075</v>
+        <v>44166</v>
       </c>
       <c r="B470" t="n">
-        <v>2729344000000</v>
+        <v>2813606000000</v>
       </c>
       <c r="C470" t="n">
-        <v>1.291972971925427</v>
+        <v>1.366288204833928</v>
       </c>
       <c r="D470" t="n">
-        <v>3526238679086.833</v>
+        <v>3844196690849.968</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="n">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="B471" t="n">
-        <v>2763331000000</v>
+        <v>2819716000000</v>
       </c>
       <c r="C471" t="n">
-        <v>1.29510192452146</v>
+        <v>1.370050691875599</v>
       </c>
       <c r="D471" t="n">
-        <v>3578795296189.81</v>
+        <v>3863153856692.698</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="2" t="n">
-        <v>44136</v>
+        <v>44228</v>
       </c>
       <c r="B472" t="n">
-        <v>2774261000000</v>
+        <v>2841646000000</v>
       </c>
       <c r="C472" t="n">
-        <v>1.332480545784031</v>
+        <v>1.392079070091181</v>
       </c>
       <c r="D472" t="n">
-        <v>3696648811427.353</v>
+        <v>3955795921208.325</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="2" t="n">
-        <v>44166</v>
+        <v>44256</v>
       </c>
       <c r="B473" t="n">
-        <v>2813606000000</v>
+        <v>2855530000000</v>
       </c>
       <c r="C473" t="n">
-        <v>1.366288204833928</v>
+        <v>1.378169790518192</v>
       </c>
       <c r="D473" t="n">
-        <v>3844196690849.968</v>
+        <v>3935405181918.412</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="n">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="B474" t="n">
-        <v>2819716000000</v>
+        <v>2871786000000</v>
       </c>
       <c r="C474" t="n">
-        <v>1.370050691875599</v>
+        <v>1.381654392970142</v>
       </c>
       <c r="D474" t="n">
-        <v>3863153856692.698</v>
+        <v>3967815742570.153</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="2" t="n">
-        <v>44228</v>
+        <v>44317</v>
       </c>
       <c r="B475" t="n">
-        <v>2841646000000</v>
+        <v>2864727000000</v>
       </c>
       <c r="C475" t="n">
-        <v>1.392079070091181</v>
+        <v>1.420555437175936</v>
       </c>
       <c r="D475" t="n">
-        <v>3955795921208.325</v>
+        <v>4069503515874.708</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="2" t="n">
-        <v>44256</v>
+        <v>44348</v>
       </c>
       <c r="B476" t="n">
-        <v>2855530000000</v>
+        <v>2885838000000</v>
       </c>
       <c r="C476" t="n">
-        <v>1.378169790518192</v>
+        <v>1.382934587194026</v>
       </c>
       <c r="D476" t="n">
-        <v>3935405181918.412</v>
+        <v>3990925183238.833</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="B477" t="n">
-        <v>2871786000000</v>
+        <v>2894990000000</v>
       </c>
       <c r="C477" t="n">
-        <v>1.381654392970142</v>
+        <v>1.390607834684541</v>
       </c>
       <c r="D477" t="n">
-        <v>3967815742570.153</v>
+        <v>4025795775333.398</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
-        <v>44317</v>
+        <v>44409</v>
       </c>
       <c r="B478" t="n">
-        <v>2864727000000</v>
+        <v>2897494000000</v>
       </c>
       <c r="C478" t="n">
-        <v>1.420555437175936</v>
+        <v>1.375459059461095</v>
       </c>
       <c r="D478" t="n">
-        <v>4069503515874.708</v>
+        <v>3985384372034.167</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
-        <v>44348</v>
+        <v>44440</v>
       </c>
       <c r="B479" t="n">
-        <v>2885838000000</v>
+        <v>2937600000000</v>
       </c>
       <c r="C479" t="n">
-        <v>1.382934587194026</v>
+        <v>1.347745222243187</v>
       </c>
       <c r="D479" t="n">
-        <v>3990925183238.833</v>
+        <v>3959136364861.586</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="B480" t="n">
-        <v>2894990000000</v>
+        <v>2958555000000</v>
       </c>
       <c r="C480" t="n">
-        <v>1.390607834684541</v>
+        <v>1.370275973581079</v>
       </c>
       <c r="D480" t="n">
-        <v>4025795775333.398</v>
+        <v>4054036833018.17</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
-        <v>44409</v>
+        <v>44501</v>
       </c>
       <c r="B481" t="n">
-        <v>2897494000000</v>
+        <v>2977539000000</v>
       </c>
       <c r="C481" t="n">
-        <v>1.375459059461095</v>
+        <v>1.330353341847595</v>
       </c>
       <c r="D481" t="n">
-        <v>3985384372034.167</v>
+        <v>3961178959131.545</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="B482" t="n">
-        <v>2937600000000</v>
+        <v>2983868000000</v>
       </c>
       <c r="C482" t="n">
-        <v>1.347745222243187</v>
+        <v>1.353473011748146</v>
       </c>
       <c r="D482" t="n">
-        <v>3959136364861.586</v>
+        <v>4038584808618.916</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="B483" t="n">
-        <v>2958555000000</v>
+        <v>2973269000000</v>
       </c>
       <c r="C483" t="n">
-        <v>1.370275973581079</v>
+        <v>1.344501660459551</v>
       </c>
       <c r="D483" t="n">
-        <v>4054036833018.17</v>
+        <v>3997565107492.907</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
-        <v>44501</v>
+        <v>44593</v>
       </c>
       <c r="B484" t="n">
-        <v>2977539000000</v>
+        <v>2993506000000</v>
       </c>
       <c r="C484" t="n">
-        <v>1.330353341847595</v>
+        <v>1.34197565656159</v>
       </c>
       <c r="D484" t="n">
-        <v>3961178959131.545</v>
+        <v>4017212179771.059</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="B485" t="n">
-        <v>2983868000000</v>
+        <v>3031444000000</v>
       </c>
       <c r="C485" t="n">
-        <v>1.353473011748146</v>
+        <v>1.313905057220565</v>
       </c>
       <c r="D485" t="n">
-        <v>4038584808618.916</v>
+        <v>3983029602280.939</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="B486" t="n">
-        <v>2973269000000</v>
+        <v>3037813000000</v>
       </c>
       <c r="C486" t="n">
-        <v>1.344501660459551</v>
+        <v>1.257308103350726</v>
       </c>
       <c r="D486" t="n">
-        <v>3997565107492.907</v>
+        <v>3819466901364.179</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
-        <v>44593</v>
+        <v>44682</v>
       </c>
       <c r="B487" t="n">
-        <v>2993506000000</v>
+        <v>3038313000000</v>
       </c>
       <c r="C487" t="n">
-        <v>1.34197565656159</v>
+        <v>1.260112402026261</v>
       </c>
       <c r="D487" t="n">
-        <v>4017212179771.059</v>
+        <v>3828615892537.615</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="B488" t="n">
-        <v>3031444000000</v>
+        <v>3070326000000</v>
       </c>
       <c r="C488" t="n">
-        <v>1.313905057220565</v>
+        <v>1.217626359175424</v>
       </c>
       <c r="D488" t="n">
-        <v>3983029602280.939</v>
+        <v>3738509868861.641</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="B489" t="n">
-        <v>3037813000000</v>
+        <v>3082372000000</v>
       </c>
       <c r="C489" t="n">
-        <v>1.257308103350726</v>
+        <v>1.218011960877456</v>
       </c>
       <c r="D489" t="n">
-        <v>3819466901364.179</v>
+        <v>3754365963873.765</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
-        <v>44682</v>
+        <v>44774</v>
       </c>
       <c r="B490" t="n">
-        <v>3038313000000</v>
+        <v>3112903000000</v>
       </c>
       <c r="C490" t="n">
-        <v>1.260112402026261</v>
+        <v>1.161750525692113</v>
       </c>
       <c r="D490" t="n">
-        <v>3828615892537.615</v>
+        <v>3616416696678.555</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="B491" t="n">
-        <v>3070326000000</v>
+        <v>3213819000000</v>
       </c>
       <c r="C491" t="n">
-        <v>1.217626359175424</v>
+        <v>1.116769409452336</v>
       </c>
       <c r="D491" t="n">
-        <v>3738509868861.641</v>
+        <v>3589094746716.698</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="B492" t="n">
-        <v>3082372000000</v>
+        <v>3133801000000</v>
       </c>
       <c r="C492" t="n">
-        <v>1.218011960877456</v>
+        <v>1.146920518408074</v>
       </c>
       <c r="D492" t="n">
-        <v>3754365963873.765</v>
+        <v>3594220667507.742</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
-        <v>44774</v>
+        <v>44866</v>
       </c>
       <c r="B493" t="n">
-        <v>3112903000000</v>
+        <v>3097634000000</v>
       </c>
       <c r="C493" t="n">
-        <v>1.161750525692113</v>
+        <v>1.2059234962134</v>
       </c>
       <c r="D493" t="n">
-        <v>3616416696678.555</v>
+        <v>3735509623269.5</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
-        <v>44805</v>
+        <v>44896</v>
       </c>
       <c r="B494" t="n">
-        <v>3213819000000</v>
+        <v>3066368000000</v>
       </c>
       <c r="C494" t="n">
-        <v>1.116769409452336</v>
+        <v>1.209643276197849</v>
       </c>
       <c r="D494" t="n">
-        <v>3589094746716.698</v>
+        <v>3709211433548.247</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="B495" t="n">
-        <v>3133801000000</v>
+        <v>3097286000000</v>
       </c>
       <c r="C495" t="n">
-        <v>1.146920518408074</v>
+        <v>1.23164843826978</v>
       </c>
       <c r="D495" t="n">
-        <v>3594220667507.742</v>
+        <v>3814767464774.855</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
-        <v>44866</v>
+        <v>44958</v>
       </c>
       <c r="B496" t="n">
-        <v>3097634000000</v>
+        <v>3100990000000</v>
       </c>
       <c r="C496" t="n">
-        <v>1.2059234962134</v>
+        <v>1.20225543118891</v>
       </c>
       <c r="D496" t="n">
-        <v>3735509623269.5</v>
+        <v>3728182069562.5</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
-        <v>44896</v>
+        <v>44986</v>
       </c>
       <c r="B497" t="n">
-        <v>3066368000000</v>
+        <v>3074346000000</v>
       </c>
       <c r="C497" t="n">
-        <v>1.209643276197849</v>
+        <v>1.233486696845975</v>
       </c>
       <c r="D497" t="n">
-        <v>3709211433548.247</v>
+        <v>3792164892501.634</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
-        <v>44927</v>
+        <v>45017</v>
       </c>
       <c r="B498" t="n">
-        <v>3097286000000</v>
+        <v>3060169000000</v>
       </c>
       <c r="C498" t="n">
-        <v>1.23164843826978</v>
+        <v>1.256644507835178</v>
       </c>
       <c r="D498" t="n">
-        <v>3814767464774.855</v>
+        <v>3845544566897.47</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
-        <v>44958</v>
+        <v>45047</v>
       </c>
       <c r="B499" t="n">
-        <v>3100990000000</v>
+        <v>3061343000000</v>
       </c>
       <c r="C499" t="n">
-        <v>1.20225543118891</v>
+        <v>1.243873920939374</v>
       </c>
       <c r="D499" t="n">
-        <v>3728182069562.5</v>
+        <v>3807924720750.305</v>
       </c>
     </row>
   </sheetData>

--- a/Global_M2/TVDataFeed/FinalData/United Kingdom.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/United Kingdom.xlsx
@@ -458,6734 +458,6738 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>29921</v>
+        <v>29952</v>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>1.910949778539075</v>
+        <v>1.883593897155773</v>
       </c>
       <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>29952</v>
+        <v>29983</v>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>1.883593897155773</v>
+        <v>1.82248958711462</v>
       </c>
       <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>29983</v>
+        <v>30011</v>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>1.82248958711462</v>
+        <v>1.783166840828572</v>
       </c>
       <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>30011</v>
+        <v>30042</v>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>1.783166840828572</v>
+        <v>1.79694512859137</v>
       </c>
       <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>30042</v>
+        <v>30072</v>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>1.79694512859137</v>
+        <v>1.793078780458267</v>
       </c>
       <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>30072</v>
+        <v>30103</v>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>1.793078780458267</v>
+        <v>1.743071261232852</v>
       </c>
       <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>30103</v>
+        <v>30133</v>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>1.743071261232852</v>
+        <v>1.740643977697338</v>
       </c>
       <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>30133</v>
+        <v>30164</v>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>1.740643977697338</v>
+        <v>1.717327808392104</v>
       </c>
       <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>30164</v>
+        <v>30195</v>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>1.717327808392104</v>
+        <v>1.694628057865244</v>
       </c>
       <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>30195</v>
+        <v>30225</v>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>1.694628057865244</v>
+        <v>1.67644599082803</v>
       </c>
       <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>30225</v>
+        <v>30256</v>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>1.67644599082803</v>
+        <v>1.61472627781808</v>
       </c>
       <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>30256</v>
+        <v>30286</v>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>1.61472627781808</v>
+        <v>1.617599482368166</v>
       </c>
       <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>30286</v>
+        <v>30317</v>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
-        <v>1.617599482368166</v>
+        <v>1.525320294000606</v>
       </c>
       <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>30317</v>
+        <v>30348</v>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="n">
-        <v>1.525320294000606</v>
+        <v>1.515610814119594</v>
       </c>
       <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>30348</v>
+        <v>30376</v>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="n">
-        <v>1.515610814119594</v>
+        <v>1.481700992739665</v>
       </c>
       <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>30376</v>
+        <v>30407</v>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="n">
-        <v>1.481700992739665</v>
+        <v>1.562011822492602</v>
       </c>
       <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>30407</v>
+        <v>30437</v>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="n">
-        <v>1.562011822492602</v>
+        <v>1.606167632310709</v>
       </c>
       <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>30437</v>
+        <v>30468</v>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="n">
-        <v>1.606167632310709</v>
+        <v>1.534683855125844</v>
       </c>
       <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>30468</v>
+        <v>30498</v>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="n">
-        <v>1.534683855125844</v>
+        <v>1.520450053215752</v>
       </c>
       <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>30498</v>
+        <v>30529</v>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="n">
-        <v>1.520450053215752</v>
+        <v>1.493652001398835</v>
       </c>
       <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>30529</v>
+        <v>30560</v>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="n">
-        <v>1.493652001398835</v>
+        <v>1.49499175519522</v>
       </c>
       <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>30560</v>
+        <v>30590</v>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="n">
-        <v>1.49499175519522</v>
+        <v>1.494321578003586</v>
       </c>
       <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>30590</v>
+        <v>30621</v>
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="n">
-        <v>1.494321578003586</v>
+        <v>1.466490644772235</v>
       </c>
       <c r="D24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>30621</v>
+        <v>30651</v>
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="n">
-        <v>1.466490644772235</v>
+        <v>1.452010993117149</v>
       </c>
       <c r="D25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>30651</v>
+        <v>30682</v>
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="n">
-        <v>1.452010993117149</v>
+        <v>1.403311835578331</v>
       </c>
       <c r="D26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>30682</v>
+        <v>30713</v>
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="n">
-        <v>1.403311835578331</v>
+        <v>1.491424354703187</v>
       </c>
       <c r="D27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>30713</v>
+        <v>30742</v>
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="n">
-        <v>1.491424354703187</v>
+        <v>1.441545295039778</v>
       </c>
       <c r="D28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>30742</v>
+        <v>30773</v>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="n">
-        <v>1.441545295039778</v>
+        <v>1.396258047979029</v>
       </c>
       <c r="D29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>30773</v>
+        <v>30803</v>
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="n">
-        <v>1.396258047979029</v>
+        <v>1.386577944905407</v>
       </c>
       <c r="D30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>30803</v>
+        <v>30834</v>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="n">
-        <v>1.386577944905407</v>
+        <v>1.356300050353996</v>
       </c>
       <c r="D31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>30834</v>
+        <v>30864</v>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="n">
-        <v>1.356300050353996</v>
+        <v>1.310959656815932</v>
       </c>
       <c r="D32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>30864</v>
+        <v>30895</v>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="n">
-        <v>1.310959656815932</v>
+        <v>1.309757729135762</v>
       </c>
       <c r="D33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>30895</v>
+        <v>30926</v>
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="n">
-        <v>1.309757729135762</v>
+        <v>1.238696936901905</v>
       </c>
       <c r="D34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>30926</v>
+        <v>30956</v>
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="n">
-        <v>1.238696936901905</v>
+        <v>1.216693013545529</v>
       </c>
       <c r="D35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>30956</v>
+        <v>30987</v>
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="n">
-        <v>1.216693013545529</v>
+        <v>1.203659123736158</v>
       </c>
       <c r="D36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>30987</v>
+        <v>31017</v>
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="n">
-        <v>1.203659123736158</v>
+        <v>1.157943465540911</v>
       </c>
       <c r="D37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>31017</v>
+        <v>31048</v>
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="n">
-        <v>1.157943465540911</v>
+        <v>1.12968818053122</v>
       </c>
       <c r="D38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>31048</v>
+        <v>31079</v>
       </c>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="n">
-        <v>1.12968818053122</v>
+        <v>1.08201687946332</v>
       </c>
       <c r="D39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>31079</v>
+        <v>31107</v>
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="n">
-        <v>1.08201687946332</v>
+        <v>1.230012269864397</v>
       </c>
       <c r="D40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>31107</v>
+        <v>31138</v>
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="n">
-        <v>1.230012269864397</v>
+        <v>1.238543488215798</v>
       </c>
       <c r="D41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>31138</v>
+        <v>31168</v>
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="n">
-        <v>1.238543488215798</v>
+        <v>1.286504567091213</v>
       </c>
       <c r="D42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>31168</v>
+        <v>31199</v>
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="n">
-        <v>1.286504567091213</v>
+        <v>1.311991603253739</v>
       </c>
       <c r="D43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>31199</v>
+        <v>31229</v>
       </c>
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="n">
-        <v>1.311991603253739</v>
+        <v>1.416029453412631</v>
       </c>
       <c r="D44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>31229</v>
+        <v>31260</v>
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="n">
-        <v>1.416029453412631</v>
+        <v>1.396453048357857</v>
       </c>
       <c r="D45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>31260</v>
+        <v>31291</v>
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="n">
-        <v>1.396453048357857</v>
+        <v>1.407063498158534</v>
       </c>
       <c r="D46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>31291</v>
+        <v>31321</v>
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="n">
-        <v>1.407063498158534</v>
+        <v>1.445086767850582</v>
       </c>
       <c r="D47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>31321</v>
+        <v>31352</v>
       </c>
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="n">
-        <v>1.445086767850582</v>
+        <v>1.490312965722802</v>
       </c>
       <c r="D48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>31352</v>
+        <v>31382</v>
       </c>
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="n">
-        <v>1.490312965722802</v>
+        <v>1.445504481063891</v>
       </c>
       <c r="D49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>31382</v>
+        <v>31413</v>
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="n">
-        <v>1.445504481063891</v>
+        <v>1.408649065821973</v>
       </c>
       <c r="D50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>31413</v>
+        <v>31444</v>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="n">
-        <v>1.408649065821973</v>
+        <v>1.450536656497341</v>
       </c>
       <c r="D51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>31444</v>
+        <v>31472</v>
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>1.450536656497341</v>
+        <v>1.477978169612124</v>
       </c>
       <c r="D52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>31472</v>
+        <v>31503</v>
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="n">
-        <v>1.477978169612124</v>
+        <v>1.553518719900575</v>
       </c>
       <c r="D53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>31503</v>
+        <v>31533</v>
       </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="n">
-        <v>1.553518719900575</v>
+        <v>1.472537224931151</v>
       </c>
       <c r="D54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>31533</v>
+        <v>31564</v>
       </c>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="n">
-        <v>1.472537224931151</v>
+        <v>1.533507060258838</v>
       </c>
       <c r="D55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>31564</v>
+        <v>31594</v>
       </c>
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="n">
-        <v>1.533507060258838</v>
+        <v>1.492091935125216</v>
       </c>
       <c r="D56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>31594</v>
+        <v>31625</v>
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="n">
-        <v>1.492091935125216</v>
+        <v>1.487431250555741</v>
       </c>
       <c r="D57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>31625</v>
+        <v>31656</v>
       </c>
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="n">
-        <v>1.487431250555741</v>
+        <v>1.447596968042893</v>
       </c>
       <c r="D58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>31656</v>
+        <v>31686</v>
       </c>
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="n">
-        <v>1.447596968042893</v>
+        <v>1.408450743900021</v>
       </c>
       <c r="D59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>31686</v>
+        <v>31717</v>
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="n">
-        <v>1.408450743900021</v>
+        <v>1.437194575493036</v>
       </c>
       <c r="D60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>31717</v>
-      </c>
-      <c r="B61" t="inlineStr"/>
+        <v>31747</v>
+      </c>
+      <c r="B61" t="n">
+        <v>167337000000</v>
+      </c>
       <c r="C61" t="n">
-        <v>1.437194575493036</v>
-      </c>
-      <c r="D61" t="inlineStr"/>
+        <v>1.483679481196454</v>
+      </c>
+      <c r="D61" t="n">
+        <v>248274473344.9711</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>31747</v>
+        <v>31778</v>
       </c>
       <c r="B62" t="n">
-        <v>167346000000</v>
+        <v>256330000000</v>
       </c>
       <c r="C62" t="n">
-        <v>1.483679481196454</v>
+        <v>1.51446307695099</v>
       </c>
       <c r="D62" t="n">
-        <v>248287826460.3018</v>
+        <v>388202320514.8472</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>31778</v>
+        <v>31809</v>
       </c>
       <c r="B63" t="n">
-        <v>256387000000</v>
+        <v>259350000000</v>
       </c>
       <c r="C63" t="n">
-        <v>1.51446307695099</v>
+        <v>1.546551166926212</v>
       </c>
       <c r="D63" t="n">
-        <v>388288644910.2334</v>
+        <v>401098045142.313</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>31809</v>
+        <v>31837</v>
       </c>
       <c r="B64" t="n">
-        <v>259227000000</v>
+        <v>263525000000</v>
       </c>
       <c r="C64" t="n">
-        <v>1.546551166926212</v>
+        <v>1.604106589867176</v>
       </c>
       <c r="D64" t="n">
-        <v>400907819348.781</v>
+        <v>422722189094.7476</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>31837</v>
+        <v>31868</v>
       </c>
       <c r="B65" t="n">
-        <v>263558000000</v>
+        <v>267778000000</v>
       </c>
       <c r="C65" t="n">
-        <v>1.604106589867176</v>
+        <v>1.660577963828195</v>
       </c>
       <c r="D65" t="n">
-        <v>422775124612.2133</v>
+        <v>444666245997.9863</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>31868</v>
+        <v>31898</v>
       </c>
       <c r="B66" t="n">
-        <v>267827000000</v>
+        <v>270680000000</v>
       </c>
       <c r="C66" t="n">
-        <v>1.660577963828195</v>
+        <v>1.62813415825464</v>
       </c>
       <c r="D66" t="n">
-        <v>444747614318.2139</v>
+        <v>440703353956.366</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>31898</v>
+        <v>31929</v>
       </c>
       <c r="B67" t="n">
-        <v>270696000000</v>
+        <v>272668000000</v>
       </c>
       <c r="C67" t="n">
-        <v>1.62813415825464</v>
+        <v>1.612383154220676</v>
       </c>
       <c r="D67" t="n">
-        <v>440729404102.8981</v>
+        <v>439645289895.0432</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>31929</v>
+        <v>31959</v>
       </c>
       <c r="B68" t="n">
-        <v>272706000000</v>
+        <v>277412000000</v>
       </c>
       <c r="C68" t="n">
-        <v>1.612383154220676</v>
+        <v>1.593117807541077</v>
       </c>
       <c r="D68" t="n">
-        <v>439706560454.9036</v>
+        <v>441949997225.5853</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>31959</v>
+        <v>31990</v>
       </c>
       <c r="B69" t="n">
-        <v>277426000000</v>
+        <v>280135000000</v>
       </c>
       <c r="C69" t="n">
-        <v>1.593117807541077</v>
+        <v>1.630523318252569</v>
       </c>
       <c r="D69" t="n">
-        <v>441972300874.8909</v>
+        <v>456766649758.6834</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>31990</v>
+        <v>32021</v>
       </c>
       <c r="B70" t="n">
-        <v>280137000000</v>
+        <v>281174000000</v>
       </c>
       <c r="C70" t="n">
-        <v>1.630523318252569</v>
+        <v>1.628929766591794</v>
       </c>
       <c r="D70" t="n">
-        <v>456769910805.3199</v>
+        <v>458012698191.681</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>32021</v>
+        <v>32051</v>
       </c>
       <c r="B71" t="n">
-        <v>281239000000</v>
+        <v>287018000000</v>
       </c>
       <c r="C71" t="n">
-        <v>1.628929766591794</v>
+        <v>1.722949719554613</v>
       </c>
       <c r="D71" t="n">
-        <v>458118578626.5095</v>
+        <v>494517582607.1259</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>32051</v>
+        <v>32082</v>
       </c>
       <c r="B72" t="n">
-        <v>286877000000</v>
+        <v>289312000000</v>
       </c>
       <c r="C72" t="n">
-        <v>1.722949719554613</v>
+        <v>1.831837366401124</v>
       </c>
       <c r="D72" t="n">
-        <v>494274646696.6686</v>
+        <v>529972532148.242</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>32082</v>
+        <v>32112</v>
       </c>
       <c r="B73" t="n">
-        <v>289336000000</v>
+        <v>291620000000</v>
       </c>
       <c r="C73" t="n">
-        <v>1.831837366401124</v>
+        <v>1.887148482975118</v>
       </c>
       <c r="D73" t="n">
-        <v>530016496245.0356</v>
+        <v>550330240605.204</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>32112</v>
+        <v>32143</v>
       </c>
       <c r="B74" t="n">
-        <v>291584000000</v>
+        <v>295118000000</v>
       </c>
       <c r="C74" t="n">
-        <v>1.887148482975118</v>
+        <v>1.769911504424779</v>
       </c>
       <c r="D74" t="n">
-        <v>550262303259.8169</v>
+        <v>522332743362.8319</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>32143</v>
+        <v>32174</v>
       </c>
       <c r="B75" t="n">
-        <v>295153000000</v>
+        <v>297648000000</v>
       </c>
       <c r="C75" t="n">
-        <v>1.769911504424779</v>
+        <v>1.773049613953021</v>
       </c>
       <c r="D75" t="n">
-        <v>522394690265.4868</v>
+        <v>527744671493.8888</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>32174</v>
+        <v>32203</v>
       </c>
       <c r="B76" t="n">
-        <v>297480000000</v>
+        <v>302568000000</v>
       </c>
       <c r="C76" t="n">
-        <v>1.773049613953021</v>
+        <v>1.884658841223919</v>
       </c>
       <c r="D76" t="n">
-        <v>527446799158.7447</v>
+        <v>570237456271.4388</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>32203</v>
+        <v>32234</v>
       </c>
       <c r="B77" t="n">
-        <v>302560000000</v>
+        <v>304944000000</v>
       </c>
       <c r="C77" t="n">
-        <v>1.884658841223919</v>
+        <v>1.879345916957492</v>
       </c>
       <c r="D77" t="n">
-        <v>570222379000.709</v>
+        <v>573095261300.6855</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>32234</v>
+        <v>32264</v>
       </c>
       <c r="B78" t="n">
-        <v>305045000000</v>
+        <v>307352000000</v>
       </c>
       <c r="C78" t="n">
-        <v>1.879345916957492</v>
+        <v>1.840265032025488</v>
       </c>
       <c r="D78" t="n">
-        <v>573285075238.2982</v>
+        <v>565609138123.0978</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>32264</v>
+        <v>32295</v>
       </c>
       <c r="B79" t="n">
-        <v>307415000000</v>
+        <v>313693000000</v>
       </c>
       <c r="C79" t="n">
-        <v>1.840265032025488</v>
+        <v>1.705611403526816</v>
       </c>
       <c r="D79" t="n">
-        <v>565725074820.1155</v>
+        <v>535038358006.5374</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>32295</v>
+        <v>32325</v>
       </c>
       <c r="B80" t="n">
-        <v>313692000000</v>
+        <v>319150000000</v>
       </c>
       <c r="C80" t="n">
-        <v>1.705611403526816</v>
+        <v>1.711449656390541</v>
       </c>
       <c r="D80" t="n">
-        <v>535036652395.1338</v>
+        <v>546209157837.0411</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>32325</v>
+        <v>32356</v>
       </c>
       <c r="B81" t="n">
-        <v>319146000000</v>
+        <v>322998000000</v>
       </c>
       <c r="C81" t="n">
-        <v>1.711449656390541</v>
+        <v>1.680954754060266</v>
       </c>
       <c r="D81" t="n">
-        <v>546202312038.4155</v>
+        <v>542945023651.9579</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>32356</v>
+        <v>32387</v>
       </c>
       <c r="B82" t="n">
-        <v>323042000000</v>
+        <v>327792000000</v>
       </c>
       <c r="C82" t="n">
-        <v>1.680954754060266</v>
+        <v>1.686056285853039</v>
       </c>
       <c r="D82" t="n">
-        <v>543018985661.1365</v>
+        <v>552675762052.3392</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>32387</v>
+        <v>32417</v>
       </c>
       <c r="B83" t="n">
-        <v>327821000000</v>
+        <v>331929000000</v>
       </c>
       <c r="C83" t="n">
-        <v>1.686056285853039</v>
+        <v>1.76959826987085</v>
       </c>
       <c r="D83" t="n">
-        <v>552724657684.6289</v>
+        <v>587380984119.9613</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>32417</v>
+        <v>32448</v>
       </c>
       <c r="B84" t="n">
-        <v>331767000000</v>
+        <v>333292000000</v>
       </c>
       <c r="C84" t="n">
-        <v>1.76959826987085</v>
+        <v>1.848087127254456</v>
       </c>
       <c r="D84" t="n">
-        <v>587094309200.2423</v>
+        <v>615952654816.8922</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>32448</v>
+        <v>32478</v>
       </c>
       <c r="B85" t="n">
-        <v>333365000000</v>
+        <v>339315000000</v>
       </c>
       <c r="C85" t="n">
-        <v>1.848087127254456</v>
+        <v>1.807991354329983</v>
       </c>
       <c r="D85" t="n">
-        <v>616087565177.1819</v>
+        <v>613478586394.4781</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>32478</v>
+        <v>32509</v>
       </c>
       <c r="B86" t="n">
-        <v>339273000000</v>
+        <v>343458000000</v>
       </c>
       <c r="C86" t="n">
-        <v>1.807991354329983</v>
+        <v>1.755926158599149</v>
       </c>
       <c r="D86" t="n">
-        <v>613402650757.5963</v>
+        <v>603086886580.1464</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>32509</v>
+        <v>32540</v>
       </c>
       <c r="B87" t="n">
-        <v>343548000000</v>
+        <v>349706000000</v>
       </c>
       <c r="C87" t="n">
-        <v>1.755926158599149</v>
+        <v>1.743071261232852</v>
       </c>
       <c r="D87" t="n">
-        <v>603244919934.4203</v>
+        <v>609562478480.6958</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>32540</v>
+        <v>32568</v>
       </c>
       <c r="B88" t="n">
-        <v>349624000000</v>
+        <v>353731000000</v>
       </c>
       <c r="C88" t="n">
-        <v>1.743071261232852</v>
+        <v>1.685488005578561</v>
       </c>
       <c r="D88" t="n">
-        <v>609419546637.2748</v>
+        <v>596209357701.3099</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>32568</v>
+        <v>32599</v>
       </c>
       <c r="B89" t="n">
-        <v>353708000000</v>
+        <v>357398000000</v>
       </c>
       <c r="C89" t="n">
-        <v>1.685488005578561</v>
+        <v>1.688048587305054</v>
       </c>
       <c r="D89" t="n">
-        <v>596170591477.1816</v>
+        <v>603305189005.6519</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>32599</v>
+        <v>32629</v>
       </c>
       <c r="B90" t="n">
-        <v>357496000000</v>
+        <v>363831000000</v>
       </c>
       <c r="C90" t="n">
-        <v>1.688048587305054</v>
+        <v>1.572079886371324</v>
       </c>
       <c r="D90" t="n">
-        <v>603470617767.2078</v>
+        <v>571971397138.3651</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>32629</v>
+        <v>32660</v>
       </c>
       <c r="B91" t="n">
-        <v>363871000000</v>
+        <v>375182000000</v>
       </c>
       <c r="C91" t="n">
-        <v>1.572079886371324</v>
+        <v>1.550147263990079</v>
       </c>
       <c r="D91" t="n">
-        <v>572034280333.8199</v>
+        <v>581587350798.3258</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>32660</v>
+        <v>32690</v>
       </c>
       <c r="B92" t="n">
-        <v>375179000000</v>
+        <v>377388000000</v>
       </c>
       <c r="C92" t="n">
-        <v>1.550147263990079</v>
+        <v>1.661129568106312</v>
       </c>
       <c r="D92" t="n">
-        <v>581582700356.5339</v>
+        <v>626890365448.505</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>32690</v>
+        <v>32721</v>
       </c>
       <c r="B93" t="n">
-        <v>377375000000</v>
+        <v>384841000000</v>
       </c>
       <c r="C93" t="n">
-        <v>1.661129568106312</v>
+        <v>1.573564097976961</v>
       </c>
       <c r="D93" t="n">
-        <v>626868770764.1196</v>
+        <v>605571981029.5518</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>32721</v>
+        <v>32752</v>
       </c>
       <c r="B94" t="n">
-        <v>384845000000</v>
+        <v>389500000000</v>
       </c>
       <c r="C94" t="n">
-        <v>1.573564097976961</v>
+        <v>1.618908907848758</v>
       </c>
       <c r="D94" t="n">
-        <v>605578275285.9437</v>
+        <v>630565019607.0914</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>32752</v>
+        <v>32782</v>
       </c>
       <c r="B95" t="n">
-        <v>389532000000</v>
+        <v>396239000000</v>
       </c>
       <c r="C95" t="n">
-        <v>1.618908907848758</v>
+        <v>1.579778781049644</v>
       </c>
       <c r="D95" t="n">
-        <v>630616824692.1426</v>
+        <v>625969964424.3297</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>32782</v>
+        <v>32813</v>
       </c>
       <c r="B96" t="n">
-        <v>396177000000</v>
+        <v>398328000000</v>
       </c>
       <c r="C96" t="n">
-        <v>1.579778781049644</v>
+        <v>1.569119699213562</v>
       </c>
       <c r="D96" t="n">
-        <v>625872018139.9047</v>
+        <v>625024311548.3397</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>32813</v>
+        <v>32843</v>
       </c>
       <c r="B97" t="n">
-        <v>398365000000</v>
+        <v>406221000000</v>
       </c>
       <c r="C97" t="n">
-        <v>1.569119699213562</v>
+        <v>1.612383154220676</v>
       </c>
       <c r="D97" t="n">
-        <v>625082368977.2106</v>
+        <v>654983897290.6771</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>32843</v>
+        <v>32874</v>
       </c>
       <c r="B98" t="n">
-        <v>406096000000</v>
+        <v>410998000000</v>
       </c>
       <c r="C98" t="n">
-        <v>1.612383154220676</v>
+        <v>1.68010752688172</v>
       </c>
       <c r="D98" t="n">
-        <v>654782349396.3995</v>
+        <v>690520833333.3334</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>32874</v>
+        <v>32905</v>
       </c>
       <c r="B99" t="n">
-        <v>411078000000</v>
+        <v>414453000000</v>
       </c>
       <c r="C99" t="n">
-        <v>1.68010752688172</v>
+        <v>1.690617132396184</v>
       </c>
       <c r="D99" t="n">
-        <v>690655241935.4839</v>
+        <v>700681342372.9955</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>32905</v>
+        <v>32933</v>
       </c>
       <c r="B100" t="n">
-        <v>414389000000</v>
+        <v>420826000000</v>
       </c>
       <c r="C100" t="n">
-        <v>1.690617132396184</v>
+        <v>1.645548817599948</v>
       </c>
       <c r="D100" t="n">
-        <v>700573142876.5221</v>
+        <v>692489726715.3157</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>32933</v>
+        <v>32964</v>
       </c>
       <c r="B101" t="n">
-        <v>420831000000</v>
+        <v>424388000000</v>
       </c>
       <c r="C101" t="n">
-        <v>1.645548817599948</v>
+        <v>1.635055645358262</v>
       </c>
       <c r="D101" t="n">
-        <v>692497954459.4036</v>
+        <v>693897995222.302</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>32964</v>
+        <v>32994</v>
       </c>
       <c r="B102" t="n">
-        <v>424488000000</v>
+        <v>427459000000</v>
       </c>
       <c r="C102" t="n">
-        <v>1.635055645358262</v>
+        <v>1.677570961796895</v>
       </c>
       <c r="D102" t="n">
-        <v>694061500786.8378</v>
+        <v>717092805758.7388</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>32994</v>
+        <v>33025</v>
       </c>
       <c r="B103" t="n">
-        <v>427456000000</v>
+        <v>431386000000</v>
       </c>
       <c r="C103" t="n">
-        <v>1.677570961796895</v>
+        <v>1.743983196931175</v>
       </c>
       <c r="D103" t="n">
-        <v>717087773045.8534</v>
+        <v>752329935391.3521</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>33025</v>
+        <v>33055</v>
       </c>
       <c r="B104" t="n">
-        <v>431401000000</v>
+        <v>432274000000</v>
       </c>
       <c r="C104" t="n">
-        <v>1.743983196931175</v>
+        <v>1.85908171736838</v>
       </c>
       <c r="D104" t="n">
-        <v>752356095139.306</v>
+        <v>803632690293.699</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>33055</v>
+        <v>33086</v>
       </c>
       <c r="B105" t="n">
-        <v>432318000000</v>
+        <v>435024000000</v>
       </c>
       <c r="C105" t="n">
-        <v>1.85908171736838</v>
+        <v>1.890716474340151</v>
       </c>
       <c r="D105" t="n">
-        <v>803714489889.2632</v>
+        <v>822507043533.3499</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>33086</v>
+        <v>33117</v>
       </c>
       <c r="B106" t="n">
-        <v>435026000000</v>
+        <v>439582000000</v>
       </c>
       <c r="C106" t="n">
-        <v>1.890716474340151</v>
+        <v>1.870557356133283</v>
       </c>
       <c r="D106" t="n">
-        <v>822510824966.2986</v>
+        <v>822263343723.7806</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>33117</v>
+        <v>33147</v>
       </c>
       <c r="B107" t="n">
-        <v>439553000000</v>
+        <v>441307000000</v>
       </c>
       <c r="C107" t="n">
-        <v>1.870557356133283</v>
+        <v>1.944390471405609</v>
       </c>
       <c r="D107" t="n">
-        <v>822209097560.4528</v>
+        <v>858073125764.595</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>33147</v>
+        <v>33178</v>
       </c>
       <c r="B108" t="n">
-        <v>441296000000</v>
+        <v>446449000000</v>
       </c>
       <c r="C108" t="n">
-        <v>1.944390471405609</v>
+        <v>1.936858340621409</v>
       </c>
       <c r="D108" t="n">
-        <v>858051737469.4095</v>
+        <v>864708469312.0873</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>33178</v>
+        <v>33208</v>
       </c>
       <c r="B109" t="n">
-        <v>446453000000</v>
+        <v>448146000000</v>
       </c>
       <c r="C109" t="n">
-        <v>1.936858340621409</v>
+        <v>1.929384526336099</v>
       </c>
       <c r="D109" t="n">
-        <v>864716216745.4497</v>
+        <v>864645957939.4174</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>33208</v>
+        <v>33239</v>
       </c>
       <c r="B110" t="n">
-        <v>448038000000</v>
+        <v>449344000000</v>
       </c>
       <c r="C110" t="n">
-        <v>1.929384526336099</v>
+        <v>1.958863820590327</v>
       </c>
       <c r="D110" t="n">
-        <v>864437584410.5731</v>
+        <v>880203704599.3398</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>33239</v>
+        <v>33270</v>
       </c>
       <c r="B111" t="n">
-        <v>449369000000</v>
+        <v>450873000000</v>
       </c>
       <c r="C111" t="n">
-        <v>1.958863820590327</v>
+        <v>1.912045889101338</v>
       </c>
       <c r="D111" t="n">
-        <v>880252676194.8546</v>
+        <v>862089866156.7877</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>33270</v>
+        <v>33298</v>
       </c>
       <c r="B112" t="n">
-        <v>450805000000</v>
+        <v>452937000000</v>
       </c>
       <c r="C112" t="n">
-        <v>1.912045889101338</v>
+        <v>1.740644038294169</v>
       </c>
       <c r="D112" t="n">
-        <v>861959847036.3289</v>
+        <v>788402088772.8459</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>33298</v>
+        <v>33329</v>
       </c>
       <c r="B113" t="n">
-        <v>452892000000</v>
+        <v>454555000000</v>
       </c>
       <c r="C113" t="n">
-        <v>1.740644038294169</v>
+        <v>1.732501732501732</v>
       </c>
       <c r="D113" t="n">
-        <v>788323759791.1227</v>
+        <v>787517325017.325</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>33329</v>
+        <v>33359</v>
       </c>
       <c r="B114" t="n">
-        <v>454708000000</v>
+        <v>457272000000</v>
       </c>
       <c r="C114" t="n">
-        <v>1.732501732501732</v>
+        <v>1.697216564833673</v>
       </c>
       <c r="D114" t="n">
-        <v>787782397782.3977</v>
+        <v>776089613034.6233</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>33359</v>
+        <v>33390</v>
       </c>
       <c r="B115" t="n">
-        <v>457271000000</v>
+        <v>458137000000</v>
       </c>
       <c r="C115" t="n">
-        <v>1.697216564833673</v>
+        <v>1.619170984455959</v>
       </c>
       <c r="D115" t="n">
-        <v>776087915818.0585</v>
+        <v>741802137305.6995</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>33390</v>
+        <v>33420</v>
       </c>
       <c r="B116" t="n">
-        <v>458100000000</v>
+        <v>457924000000</v>
       </c>
       <c r="C116" t="n">
-        <v>1.619170984455959</v>
+        <v>1.685772083614296</v>
       </c>
       <c r="D116" t="n">
-        <v>741742227979.2747</v>
+        <v>771955495616.9927</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>33420</v>
+        <v>33451</v>
       </c>
       <c r="B117" t="n">
-        <v>457943000000</v>
+        <v>459621000000</v>
       </c>
       <c r="C117" t="n">
-        <v>1.685772083614296</v>
+        <v>1.68321831341525</v>
       </c>
       <c r="D117" t="n">
-        <v>771987525286.5813</v>
+        <v>773642484430.2307</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>33451</v>
+        <v>33482</v>
       </c>
       <c r="B118" t="n">
-        <v>459644000000</v>
+        <v>461685000000</v>
       </c>
       <c r="C118" t="n">
-        <v>1.68321831341525</v>
+        <v>1.747030048916841</v>
       </c>
       <c r="D118" t="n">
-        <v>773681198451.4392</v>
+        <v>806577568134.1719</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>33482</v>
+        <v>33512</v>
       </c>
       <c r="B119" t="n">
-        <v>461653000000</v>
+        <v>460857000000</v>
       </c>
       <c r="C119" t="n">
-        <v>1.747030048916841</v>
+        <v>1.742160278745645</v>
       </c>
       <c r="D119" t="n">
-        <v>806521663172.6066</v>
+        <v>802886759581.8816</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>33512</v>
+        <v>33543</v>
       </c>
       <c r="B120" t="n">
-        <v>460828000000</v>
+        <v>461192000000</v>
       </c>
       <c r="C120" t="n">
-        <v>1.742160278745645</v>
+        <v>1.76772140710624</v>
       </c>
       <c r="D120" t="n">
-        <v>802836236933.798</v>
+        <v>815258971186.1411</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>33543</v>
+        <v>33573</v>
       </c>
       <c r="B121" t="n">
-        <v>461197000000</v>
+        <v>462474000000</v>
       </c>
       <c r="C121" t="n">
-        <v>1.76772140710624</v>
+        <v>1.868460388639761</v>
       </c>
       <c r="D121" t="n">
-        <v>815267809793.1766</v>
+        <v>864114349775.7848</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>33573</v>
+        <v>33604</v>
       </c>
       <c r="B122" t="n">
-        <v>462476000000</v>
+        <v>466039000000</v>
       </c>
       <c r="C122" t="n">
-        <v>1.868460388639761</v>
+        <v>1.787629603146228</v>
       </c>
       <c r="D122" t="n">
-        <v>864118086696.562</v>
+        <v>833105112620.6649</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>33604</v>
+        <v>33635</v>
       </c>
       <c r="B123" t="n">
-        <v>466076000000</v>
+        <v>467522000000</v>
       </c>
       <c r="C123" t="n">
-        <v>1.787629603146228</v>
+        <v>1.757469244288225</v>
       </c>
       <c r="D123" t="n">
-        <v>833171254915.9813</v>
+        <v>821655536028.1196</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>33635</v>
+        <v>33664</v>
       </c>
       <c r="B124" t="n">
-        <v>467471000000</v>
+        <v>468671000000</v>
       </c>
       <c r="C124" t="n">
-        <v>1.757469244288225</v>
+        <v>1.735809755250825</v>
       </c>
       <c r="D124" t="n">
-        <v>821565905096.6609</v>
+        <v>813523693803.1593</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>33664</v>
+        <v>33695</v>
       </c>
       <c r="B125" t="n">
-        <v>468718000000</v>
+        <v>472022000000</v>
       </c>
       <c r="C125" t="n">
-        <v>1.735809755250825</v>
+        <v>1.779359430604982</v>
       </c>
       <c r="D125" t="n">
-        <v>813605276861.656</v>
+        <v>839896797153.0248</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>33695</v>
+        <v>33725</v>
       </c>
       <c r="B126" t="n">
-        <v>472082000000</v>
+        <v>469326000000</v>
       </c>
       <c r="C126" t="n">
-        <v>1.779359430604982</v>
+        <v>1.827485380116959</v>
       </c>
       <c r="D126" t="n">
-        <v>840003558718.8611</v>
+        <v>857686403508.772</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>33725</v>
+        <v>33756</v>
       </c>
       <c r="B127" t="n">
-        <v>469296000000</v>
+        <v>471818000000</v>
       </c>
       <c r="C127" t="n">
-        <v>1.827485380116959</v>
+        <v>1.903311762466692</v>
       </c>
       <c r="D127" t="n">
-        <v>857631578947.3684</v>
+        <v>898016749143.5098</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>33756</v>
+        <v>33786</v>
       </c>
       <c r="B128" t="n">
-        <v>471863000000</v>
+        <v>473207000000</v>
       </c>
       <c r="C128" t="n">
-        <v>1.903311762466692</v>
+        <v>1.927153594141453</v>
       </c>
       <c r="D128" t="n">
-        <v>898102398172.8208</v>
+        <v>911942570822.8945</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>33786</v>
+        <v>33817</v>
       </c>
       <c r="B129" t="n">
-        <v>473181000000</v>
+        <v>472158000000</v>
       </c>
       <c r="C129" t="n">
-        <v>1.927153594141453</v>
+        <v>1.990842126219391</v>
       </c>
       <c r="D129" t="n">
-        <v>911892464829.4469</v>
+        <v>939992036631.4952</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>33817</v>
+        <v>33848</v>
       </c>
       <c r="B130" t="n">
-        <v>472137000000</v>
+        <v>478016000000</v>
       </c>
       <c r="C130" t="n">
-        <v>1.990842126219391</v>
+        <v>1.786033220217896</v>
       </c>
       <c r="D130" t="n">
-        <v>939950228946.8446</v>
+        <v>853752455795.6779</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>33848</v>
+        <v>33878</v>
       </c>
       <c r="B131" t="n">
-        <v>478052000000</v>
+        <v>484458000000</v>
       </c>
       <c r="C131" t="n">
-        <v>1.786033220217896</v>
+        <v>1.556904873112253</v>
       </c>
       <c r="D131" t="n">
-        <v>853816752991.6057</v>
+        <v>754255021018.2158</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>33878</v>
+        <v>33909</v>
       </c>
       <c r="B132" t="n">
-        <v>484454000000</v>
+        <v>483067000000</v>
       </c>
       <c r="C132" t="n">
-        <v>1.556904873112253</v>
+        <v>1.516990291262136</v>
       </c>
       <c r="D132" t="n">
-        <v>754248793398.7233</v>
+        <v>732807949029.1261</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>33909</v>
+        <v>33939</v>
       </c>
       <c r="B133" t="n">
-        <v>483020000000</v>
+        <v>481596000000</v>
       </c>
       <c r="C133" t="n">
-        <v>1.516990291262136</v>
+        <v>1.510117789187557</v>
       </c>
       <c r="D133" t="n">
-        <v>732736650485.4369</v>
+        <v>727266686801.5704</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>33939</v>
+        <v>33970</v>
       </c>
       <c r="B134" t="n">
-        <v>481568000000</v>
+        <v>481917000000</v>
       </c>
       <c r="C134" t="n">
-        <v>1.510117789187557</v>
+        <v>1.48720999405116</v>
       </c>
       <c r="D134" t="n">
-        <v>727224403503.4733</v>
+        <v>716711778703.153</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>33970</v>
+        <v>34001</v>
       </c>
       <c r="B135" t="n">
-        <v>481936000000</v>
+        <v>484041000000</v>
       </c>
       <c r="C135" t="n">
-        <v>1.48720999405116</v>
+        <v>1.426533523537803</v>
       </c>
       <c r="D135" t="n">
-        <v>716740035693.0399</v>
+        <v>690500713266.7618</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>34001</v>
+        <v>34029</v>
       </c>
       <c r="B136" t="n">
-        <v>483932000000</v>
+        <v>484433000000</v>
       </c>
       <c r="C136" t="n">
-        <v>1.426533523537803</v>
+        <v>1.511944360447536</v>
       </c>
       <c r="D136" t="n">
-        <v>690345221112.6962</v>
+        <v>732435742364.681</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>34029</v>
+        <v>34060</v>
       </c>
       <c r="B137" t="n">
-        <v>484453000000</v>
+        <v>486469000000</v>
       </c>
       <c r="C137" t="n">
-        <v>1.511944360447536</v>
+        <v>1.573564122738002</v>
       </c>
       <c r="D137" t="n">
-        <v>732465981251.8899</v>
+        <v>765490165224.2329</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>34060</v>
+        <v>34090</v>
       </c>
       <c r="B138" t="n">
-        <v>486535000000</v>
+        <v>487062000000</v>
       </c>
       <c r="C138" t="n">
-        <v>1.573564122738002</v>
+        <v>1.562011871290222</v>
       </c>
       <c r="D138" t="n">
-        <v>765594020456.3336</v>
+        <v>760796626054.358</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>34090</v>
+        <v>34121</v>
       </c>
       <c r="B139" t="n">
-        <v>487020000000</v>
+        <v>490077000000</v>
       </c>
       <c r="C139" t="n">
-        <v>1.562011871290222</v>
+        <v>1.491646778042959</v>
       </c>
       <c r="D139" t="n">
-        <v>760731021555.7638</v>
+        <v>731021778042.9595</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>34121</v>
+        <v>34151</v>
       </c>
       <c r="B140" t="n">
-        <v>490095000000</v>
+        <v>493309000000</v>
       </c>
       <c r="C140" t="n">
-        <v>1.491646778042959</v>
+        <v>1.48214021046391</v>
       </c>
       <c r="D140" t="n">
-        <v>731048627684.9642</v>
+        <v>731153105083.741</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>34151</v>
+        <v>34182</v>
       </c>
       <c r="B141" t="n">
-        <v>493315000000</v>
+        <v>495733000000</v>
       </c>
       <c r="C141" t="n">
-        <v>1.48214021046391</v>
+        <v>1.492091912861832</v>
       </c>
       <c r="D141" t="n">
-        <v>731161997925.0037</v>
+        <v>739679200238.7346</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>34182</v>
+        <v>34213</v>
       </c>
       <c r="B142" t="n">
-        <v>495794000000</v>
+        <v>497207000000</v>
       </c>
       <c r="C142" t="n">
-        <v>1.492091912861832</v>
+        <v>1.49655791679138</v>
       </c>
       <c r="D142" t="n">
-        <v>739770217845.4192</v>
+        <v>744099072134.0916</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>34213</v>
+        <v>34243</v>
       </c>
       <c r="B143" t="n">
-        <v>497197000000</v>
+        <v>500927000000</v>
       </c>
       <c r="C143" t="n">
-        <v>1.49655791679138</v>
+        <v>1.478852410529429</v>
       </c>
       <c r="D143" t="n">
-        <v>744084106554.9237</v>
+        <v>740797101449.2754</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>34243</v>
+        <v>34274</v>
       </c>
       <c r="B144" t="n">
-        <v>500895000000</v>
+        <v>503892000000</v>
       </c>
       <c r="C144" t="n">
-        <v>1.478852410529429</v>
+        <v>1.485663348685188</v>
       </c>
       <c r="D144" t="n">
-        <v>740749778172.1384</v>
+        <v>748613876095.6766</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>34274</v>
+        <v>34304</v>
       </c>
       <c r="B145" t="n">
-        <v>503932000000</v>
+        <v>509210000000</v>
       </c>
       <c r="C145" t="n">
-        <v>1.485663348685188</v>
+        <v>1.477104874446086</v>
       </c>
       <c r="D145" t="n">
-        <v>748673302629.624</v>
+        <v>752156573116.6912</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>34304</v>
+        <v>34335</v>
       </c>
       <c r="B146" t="n">
-        <v>509187000000</v>
+        <v>510037000000</v>
       </c>
       <c r="C146" t="n">
-        <v>1.477104874446086</v>
+        <v>1.506931886678722</v>
       </c>
       <c r="D146" t="n">
-        <v>752122599704.579</v>
+        <v>768591018685.9554</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>34335</v>
+        <v>34366</v>
       </c>
       <c r="B147" t="n">
-        <v>510055000000</v>
+        <v>514263000000</v>
       </c>
       <c r="C147" t="n">
-        <v>1.506931886678722</v>
+        <v>1.485222040695084</v>
       </c>
       <c r="D147" t="n">
-        <v>768618143459.9156</v>
+        <v>763794742313.9758</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>34366</v>
+        <v>34394</v>
       </c>
       <c r="B148" t="n">
-        <v>514151000000</v>
+        <v>515860000000</v>
       </c>
       <c r="C148" t="n">
-        <v>1.485222040695084</v>
+        <v>1.483459427384661</v>
       </c>
       <c r="D148" t="n">
-        <v>763628397445.418</v>
+        <v>765257380210.6511</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>34394</v>
+        <v>34425</v>
       </c>
       <c r="B149" t="n">
-        <v>515832000000</v>
+        <v>514461000000</v>
       </c>
       <c r="C149" t="n">
-        <v>1.483459427384661</v>
+        <v>1.51952590791673</v>
       </c>
       <c r="D149" t="n">
-        <v>765215843346.6843</v>
+        <v>781736818112.7489</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>34425</v>
+        <v>34455</v>
       </c>
       <c r="B150" t="n">
-        <v>514532000000</v>
+        <v>517715000000</v>
       </c>
       <c r="C150" t="n">
-        <v>1.51952590791673</v>
+        <v>1.511030522816561</v>
       </c>
       <c r="D150" t="n">
-        <v>781844704452.2109</v>
+        <v>782283167119.9758</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>34455</v>
+        <v>34486</v>
       </c>
       <c r="B151" t="n">
-        <v>517754000000</v>
+        <v>517126000000</v>
       </c>
       <c r="C151" t="n">
-        <v>1.511030522816561</v>
+        <v>1.544401544401544</v>
       </c>
       <c r="D151" t="n">
-        <v>782342097310.3656</v>
+        <v>798650193050.1931</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>34486</v>
+        <v>34516</v>
       </c>
       <c r="B152" t="n">
-        <v>517107000000</v>
+        <v>516622000000</v>
       </c>
       <c r="C152" t="n">
-        <v>1.544401544401544</v>
+        <v>1.544163063619518</v>
       </c>
       <c r="D152" t="n">
-        <v>798620849420.8495</v>
+        <v>797748610253.2428</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>34516</v>
+        <v>34547</v>
       </c>
       <c r="B153" t="n">
-        <v>516586000000</v>
+        <v>518433000000</v>
       </c>
       <c r="C153" t="n">
-        <v>1.544163063619518</v>
+        <v>1.534448365812491</v>
       </c>
       <c r="D153" t="n">
-        <v>797693020382.9525</v>
+        <v>795508669633.267</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>34547</v>
+        <v>34578</v>
       </c>
       <c r="B154" t="n">
-        <v>518463000000</v>
+        <v>521855000000</v>
       </c>
       <c r="C154" t="n">
-        <v>1.534448365812491</v>
+        <v>1.577535888941473</v>
       </c>
       <c r="D154" t="n">
-        <v>795554703084.2413</v>
+        <v>823244991323.5526</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>34578</v>
+        <v>34608</v>
       </c>
       <c r="B155" t="n">
-        <v>521869000000</v>
+        <v>521392000000</v>
       </c>
       <c r="C155" t="n">
-        <v>1.577535888941473</v>
+        <v>1.635858007524947</v>
       </c>
       <c r="D155" t="n">
-        <v>823267076825.9978</v>
+        <v>852923278259.4471</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>34608</v>
+        <v>34639</v>
       </c>
       <c r="B156" t="n">
-        <v>521360000000</v>
+        <v>524793000000</v>
       </c>
       <c r="C156" t="n">
-        <v>1.635858007524947</v>
+        <v>1.563477173233271</v>
       </c>
       <c r="D156" t="n">
-        <v>852870930803.2063</v>
+        <v>820501876172.6079</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>34639</v>
+        <v>34669</v>
       </c>
       <c r="B157" t="n">
-        <v>524815000000</v>
+        <v>527181000000</v>
       </c>
       <c r="C157" t="n">
-        <v>1.563477173233271</v>
+        <v>1.564700359881083</v>
       </c>
       <c r="D157" t="n">
-        <v>820536272670.4191</v>
+        <v>824880300422.469</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>34669</v>
+        <v>34700</v>
       </c>
       <c r="B158" t="n">
-        <v>527178000000</v>
+        <v>529705000000</v>
       </c>
       <c r="C158" t="n">
-        <v>1.564700359881083</v>
+        <v>1.57952930026852</v>
       </c>
       <c r="D158" t="n">
-        <v>824875606321.3894</v>
+        <v>836684567998.7365</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>34700</v>
+        <v>34731</v>
       </c>
       <c r="B159" t="n">
-        <v>529805000000</v>
+        <v>533748000000</v>
       </c>
       <c r="C159" t="n">
-        <v>1.57952930026852</v>
+        <v>1.58378207158695</v>
       </c>
       <c r="D159" t="n">
-        <v>836842520928.7632</v>
+        <v>845340513145.3912</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>34731</v>
+        <v>34759</v>
       </c>
       <c r="B160" t="n">
-        <v>533740000000</v>
+        <v>542868000000</v>
       </c>
       <c r="C160" t="n">
-        <v>1.58378207158695</v>
+        <v>1.621533971136695</v>
       </c>
       <c r="D160" t="n">
-        <v>845327842888.8186</v>
+        <v>880278903843.0354</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>34759</v>
+        <v>34790</v>
       </c>
       <c r="B161" t="n">
-        <v>542845000000</v>
+        <v>542961000000</v>
       </c>
       <c r="C161" t="n">
-        <v>1.621533971136695</v>
+        <v>1.612383102225089</v>
       </c>
       <c r="D161" t="n">
-        <v>880241608561.6993</v>
+        <v>875461141567.2365</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>34790</v>
+        <v>34820</v>
       </c>
       <c r="B162" t="n">
-        <v>542972000000</v>
+        <v>546565000000</v>
       </c>
       <c r="C162" t="n">
-        <v>1.612383102225089</v>
+        <v>1.587301587301587</v>
       </c>
       <c r="D162" t="n">
-        <v>875478877781.3608</v>
+        <v>867563492063.4921</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>34820</v>
+        <v>34851</v>
       </c>
       <c r="B163" t="n">
-        <v>546596000000</v>
+        <v>550525000000</v>
       </c>
       <c r="C163" t="n">
-        <v>1.587301587301587</v>
+        <v>1.594896331738437</v>
       </c>
       <c r="D163" t="n">
-        <v>867612698412.6984</v>
+        <v>878030303030.3031</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>34851</v>
+        <v>34881</v>
       </c>
       <c r="B164" t="n">
-        <v>550517000000</v>
+        <v>558179000000</v>
       </c>
       <c r="C164" t="n">
-        <v>1.594896331738437</v>
+        <v>1.597444089456869</v>
       </c>
       <c r="D164" t="n">
-        <v>878017543859.6492</v>
+        <v>891659744408.9458</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>34881</v>
+        <v>34912</v>
       </c>
       <c r="B165" t="n">
-        <v>558132000000</v>
+        <v>564095000000</v>
       </c>
       <c r="C165" t="n">
-        <v>1.597444089456869</v>
+        <v>1.549907005579665</v>
       </c>
       <c r="D165" t="n">
-        <v>891584664536.7412</v>
+        <v>874294792312.4613</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>34912</v>
+        <v>34943</v>
       </c>
       <c r="B166" t="n">
-        <v>564063000000</v>
+        <v>568034000000</v>
       </c>
       <c r="C166" t="n">
-        <v>1.549907005579665</v>
+        <v>1.584534938995405</v>
       </c>
       <c r="D166" t="n">
-        <v>874245195288.2827</v>
+        <v>900069719537.3158</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>34943</v>
+        <v>34973</v>
       </c>
       <c r="B167" t="n">
-        <v>568088000000</v>
+        <v>573708000000</v>
       </c>
       <c r="C167" t="n">
-        <v>1.584534938995405</v>
+        <v>1.58052789631737</v>
       </c>
       <c r="D167" t="n">
-        <v>900155284424.0216</v>
+        <v>906761498340.4457</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>34973</v>
+        <v>35004</v>
       </c>
       <c r="B168" t="n">
-        <v>573759000000</v>
+        <v>577801000000</v>
       </c>
       <c r="C168" t="n">
-        <v>1.58052789631737</v>
+        <v>1.531159087429184</v>
       </c>
       <c r="D168" t="n">
-        <v>906842105263.1578</v>
+        <v>884705251875.6698</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>35004</v>
+        <v>35034</v>
       </c>
       <c r="B169" t="n">
-        <v>577784000000</v>
+        <v>580830000000</v>
       </c>
       <c r="C169" t="n">
-        <v>1.531159087429184</v>
+        <v>1.550628004341758</v>
       </c>
       <c r="D169" t="n">
-        <v>884679222171.1836</v>
+        <v>900651263761.8235</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>35034</v>
+        <v>35065</v>
       </c>
       <c r="B170" t="n">
-        <v>580773000000</v>
+        <v>588649000000</v>
       </c>
       <c r="C170" t="n">
-        <v>1.550628004341758</v>
+        <v>1.504890895410083</v>
       </c>
       <c r="D170" t="n">
-        <v>900562877965.576</v>
+        <v>885852520692.2499</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>35065</v>
+        <v>35096</v>
       </c>
       <c r="B171" t="n">
-        <v>588717000000</v>
+        <v>591470000000</v>
       </c>
       <c r="C171" t="n">
-        <v>1.504890895410083</v>
+        <v>1.531628120692296</v>
       </c>
       <c r="D171" t="n">
-        <v>885954853273.1377</v>
+        <v>905912084545.8723</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>35096</v>
+        <v>35125</v>
       </c>
       <c r="B172" t="n">
-        <v>591420000000</v>
+        <v>596040000000</v>
       </c>
       <c r="C172" t="n">
-        <v>1.531628120692296</v>
+        <v>1.526717557251908</v>
       </c>
       <c r="D172" t="n">
-        <v>905835503139.8376</v>
+        <v>909984732824.4274</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>35125</v>
+        <v>35156</v>
       </c>
       <c r="B173" t="n">
-        <v>595989000000</v>
+        <v>601041000000</v>
       </c>
       <c r="C173" t="n">
-        <v>1.526717557251908</v>
+        <v>1.507159005275057</v>
       </c>
       <c r="D173" t="n">
-        <v>909906870229.0076</v>
+        <v>905864355689.5253</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>35156</v>
+        <v>35186</v>
       </c>
       <c r="B174" t="n">
-        <v>601125000000</v>
+        <v>601655000000</v>
       </c>
       <c r="C174" t="n">
-        <v>1.507159005275057</v>
+        <v>1.55110904296572</v>
       </c>
       <c r="D174" t="n">
-        <v>905990957045.9684</v>
+        <v>933232511245.5405</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>35186</v>
+        <v>35217</v>
       </c>
       <c r="B175" t="n">
-        <v>601642000000</v>
+        <v>610828000000</v>
       </c>
       <c r="C175" t="n">
-        <v>1.55110904296572</v>
+        <v>1.552795031055901</v>
       </c>
       <c r="D175" t="n">
-        <v>933212346827.9819</v>
+        <v>948490683229.8137</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>35217</v>
+        <v>35247</v>
       </c>
       <c r="B176" t="n">
-        <v>610805000000</v>
+        <v>613606000000</v>
       </c>
       <c r="C176" t="n">
-        <v>1.552795031055901</v>
+        <v>1.556904873112253</v>
       </c>
       <c r="D176" t="n">
-        <v>948454968944.0994</v>
+        <v>955326171570.917</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>35247</v>
+        <v>35278</v>
       </c>
       <c r="B177" t="n">
-        <v>613639000000</v>
+        <v>617724000000</v>
       </c>
       <c r="C177" t="n">
-        <v>1.556904873112253</v>
+        <v>1.562011871290222</v>
       </c>
       <c r="D177" t="n">
-        <v>955377549431.7297</v>
+        <v>964892221180.881</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>35278</v>
+        <v>35309</v>
       </c>
       <c r="B178" t="n">
-        <v>617692000000</v>
+        <v>627413000000</v>
       </c>
       <c r="C178" t="n">
-        <v>1.562011871290222</v>
+        <v>1.565435190983093</v>
       </c>
       <c r="D178" t="n">
-        <v>964842236800.9996</v>
+        <v>982174389480.2755</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>35309</v>
+        <v>35339</v>
       </c>
       <c r="B179" t="n">
-        <v>627444000000</v>
+        <v>627188000000</v>
       </c>
       <c r="C179" t="n">
-        <v>1.565435190983093</v>
+        <v>1.627339300244101</v>
       </c>
       <c r="D179" t="n">
-        <v>982222917971.1959</v>
+        <v>1020647681041.497</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>35339</v>
+        <v>35370</v>
       </c>
       <c r="B180" t="n">
-        <v>627153000000</v>
+        <v>633338000000</v>
       </c>
       <c r="C180" t="n">
-        <v>1.627339300244101</v>
+        <v>1.682085786375105</v>
       </c>
       <c r="D180" t="n">
-        <v>1020590724165.989</v>
+        <v>1065328847771.236</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>35370</v>
+        <v>35400</v>
       </c>
       <c r="B181" t="n">
-        <v>633342000000</v>
+        <v>637978000000</v>
       </c>
       <c r="C181" t="n">
-        <v>1.682085786375105</v>
+        <v>1.714383679067375</v>
       </c>
       <c r="D181" t="n">
-        <v>1065335576114.382</v>
+        <v>1093739070804.046</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>35400</v>
+        <v>35431</v>
       </c>
       <c r="B182" t="n">
-        <v>638019000000</v>
+        <v>648710000000</v>
       </c>
       <c r="C182" t="n">
-        <v>1.714383679067375</v>
+        <v>1.602564102564103</v>
       </c>
       <c r="D182" t="n">
-        <v>1093809360534.888</v>
+        <v>1039599358974.359</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>35431</v>
+        <v>35462</v>
       </c>
       <c r="B183" t="n">
-        <v>648709000000</v>
+        <v>654773000000</v>
       </c>
       <c r="C183" t="n">
-        <v>1.602564102564103</v>
+        <v>1.628664495114007</v>
       </c>
       <c r="D183" t="n">
-        <v>1039597756410.256</v>
+        <v>1066405537459.283</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>35462</v>
+        <v>35490</v>
       </c>
       <c r="B184" t="n">
-        <v>654750000000</v>
+        <v>659765000000</v>
       </c>
       <c r="C184" t="n">
-        <v>1.628664495114007</v>
+        <v>1.637465203864418</v>
       </c>
       <c r="D184" t="n">
-        <v>1066368078175.896</v>
+        <v>1080342230227.608</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>35490</v>
+        <v>35521</v>
       </c>
       <c r="B185" t="n">
-        <v>659709000000</v>
+        <v>663261000000</v>
       </c>
       <c r="C185" t="n">
-        <v>1.637465203864418</v>
+        <v>1.623903864891198</v>
       </c>
       <c r="D185" t="n">
-        <v>1080250532176.191</v>
+        <v>1077072101331.601</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>35521</v>
+        <v>35551</v>
       </c>
       <c r="B186" t="n">
-        <v>663306000000</v>
+        <v>669271000000</v>
       </c>
       <c r="C186" t="n">
-        <v>1.623903864891198</v>
+        <v>1.641227638273429</v>
       </c>
       <c r="D186" t="n">
-        <v>1077145177005.521</v>
+        <v>1098426062694.896</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>35551</v>
+        <v>35582</v>
       </c>
       <c r="B187" t="n">
-        <v>669269000000</v>
+        <v>691887000000</v>
       </c>
       <c r="C187" t="n">
-        <v>1.641227638273429</v>
+        <v>1.665556295802798</v>
       </c>
       <c r="D187" t="n">
-        <v>1098422780239.619</v>
+        <v>1152376748834.111</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>35582</v>
+        <v>35612</v>
       </c>
       <c r="B188" t="n">
-        <v>691845000000</v>
+        <v>697613000000</v>
       </c>
       <c r="C188" t="n">
-        <v>1.665556295802798</v>
+        <v>1.640419947506562</v>
       </c>
       <c r="D188" t="n">
-        <v>1152306795469.687</v>
+        <v>1144378280839.895</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>35612</v>
+        <v>35643</v>
       </c>
       <c r="B189" t="n">
-        <v>697606000000</v>
+        <v>700574000000</v>
       </c>
       <c r="C189" t="n">
-        <v>1.640419947506562</v>
+        <v>1.620745542949757</v>
       </c>
       <c r="D189" t="n">
-        <v>1144366797900.262</v>
+        <v>1135452188006.483</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>35643</v>
+        <v>35674</v>
       </c>
       <c r="B190" t="n">
-        <v>700496000000</v>
+        <v>660511000000</v>
       </c>
       <c r="C190" t="n">
-        <v>1.620745542949757</v>
+        <v>1.617861187510112</v>
       </c>
       <c r="D190" t="n">
-        <v>1135325769854.133</v>
+        <v>1068615110823.491</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>35674</v>
+        <v>35704</v>
       </c>
       <c r="B191" t="n">
-        <v>660642000000</v>
+        <v>680557000000</v>
       </c>
       <c r="C191" t="n">
-        <v>1.617861187510112</v>
+        <v>1.672520488375983</v>
       </c>
       <c r="D191" t="n">
-        <v>1068827050639.055</v>
+        <v>1138245526007.694</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>35704</v>
+        <v>35735</v>
       </c>
       <c r="B192" t="n">
-        <v>680538000000</v>
+        <v>684652000000</v>
       </c>
       <c r="C192" t="n">
-        <v>1.672520488375983</v>
+        <v>1.688618709895306</v>
       </c>
       <c r="D192" t="n">
-        <v>1138213748118.414</v>
+        <v>1156116176967.241</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>35735</v>
+        <v>35765</v>
       </c>
       <c r="B193" t="n">
-        <v>684616000000</v>
+        <v>691536000000</v>
       </c>
       <c r="C193" t="n">
-        <v>1.688618709895306</v>
+        <v>1.651800462504129</v>
       </c>
       <c r="D193" t="n">
-        <v>1156055386693.685</v>
+        <v>1142279484638.256</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>35765</v>
+        <v>35796</v>
       </c>
       <c r="B194" t="n">
-        <v>691552000000</v>
+        <v>693275000000</v>
       </c>
       <c r="C194" t="n">
-        <v>1.651800462504129</v>
+        <v>1.63425396306586</v>
       </c>
       <c r="D194" t="n">
-        <v>1142305913445.656</v>
+        <v>1132987416244.484</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>35796</v>
+        <v>35827</v>
       </c>
       <c r="B195" t="n">
-        <v>693281000000</v>
+        <v>696661000000</v>
       </c>
       <c r="C195" t="n">
-        <v>1.63425396306586</v>
+        <v>1.643925694558606</v>
       </c>
       <c r="D195" t="n">
-        <v>1132997221768.263</v>
+        <v>1145258918296.893</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>35827</v>
+        <v>35855</v>
       </c>
       <c r="B196" t="n">
-        <v>696643000000</v>
+        <v>700760000000</v>
       </c>
       <c r="C196" t="n">
-        <v>1.643925694558606</v>
+        <v>1.672520488375983</v>
       </c>
       <c r="D196" t="n">
-        <v>1145229327634.391</v>
+        <v>1172035457434.354</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>35855</v>
+        <v>35886</v>
       </c>
       <c r="B197" t="n">
-        <v>700815000000</v>
+        <v>703334000000</v>
       </c>
       <c r="C197" t="n">
-        <v>1.672520488375983</v>
+        <v>1.672240802675585</v>
       </c>
       <c r="D197" t="n">
-        <v>1172127446061.214</v>
+        <v>1176143812709.03</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>35886</v>
+        <v>35916</v>
       </c>
       <c r="B198" t="n">
-        <v>703314000000</v>
+        <v>706460000000</v>
       </c>
       <c r="C198" t="n">
-        <v>1.672240802675585</v>
+        <v>1.630523398010762</v>
       </c>
       <c r="D198" t="n">
-        <v>1176110367892.977</v>
+        <v>1151899559758.683</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>35916</v>
+        <v>35947</v>
       </c>
       <c r="B199" t="n">
-        <v>706425000000</v>
+        <v>708285000000</v>
       </c>
       <c r="C199" t="n">
-        <v>1.630523398010762</v>
+        <v>1.667500416875104</v>
       </c>
       <c r="D199" t="n">
-        <v>1151842491439.752</v>
+        <v>1181065532766.383</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>35947</v>
+        <v>35977</v>
       </c>
       <c r="B200" t="n">
-        <v>708353000000</v>
+        <v>713910000000</v>
       </c>
       <c r="C200" t="n">
-        <v>1.667500416875104</v>
+        <v>1.633986928104575</v>
       </c>
       <c r="D200" t="n">
-        <v>1181178922794.731</v>
+        <v>1166519607843.137</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>35977</v>
+        <v>36008</v>
       </c>
       <c r="B201" t="n">
-        <v>713928000000</v>
+        <v>716631000000</v>
       </c>
       <c r="C201" t="n">
-        <v>1.633986928104575</v>
+        <v>1.682935038707506</v>
       </c>
       <c r="D201" t="n">
-        <v>1166549019607.843</v>
+        <v>1206043419723.999</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>36008</v>
+        <v>36039</v>
       </c>
       <c r="B202" t="n">
-        <v>716561000000</v>
+        <v>722282000000</v>
       </c>
       <c r="C202" t="n">
-        <v>1.682935038707506</v>
+        <v>1.701837985023826</v>
       </c>
       <c r="D202" t="n">
-        <v>1205925614271.289</v>
+        <v>1229206943498.979</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>36039</v>
+        <v>36069</v>
       </c>
       <c r="B203" t="n">
-        <v>722399000000</v>
+        <v>726110000000</v>
       </c>
       <c r="C203" t="n">
-        <v>1.701837985023826</v>
+        <v>1.675603217158177</v>
       </c>
       <c r="D203" t="n">
-        <v>1229406058543.227</v>
+        <v>1216672252010.724</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>36069</v>
+        <v>36100</v>
       </c>
       <c r="B204" t="n">
-        <v>726082000000</v>
+        <v>729033000000</v>
       </c>
       <c r="C204" t="n">
-        <v>1.675603217158177</v>
+        <v>1.649348507339601</v>
       </c>
       <c r="D204" t="n">
-        <v>1216625335120.644</v>
+        <v>1202429490351.311</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>36100</v>
+        <v>36130</v>
       </c>
       <c r="B205" t="n">
-        <v>728959000000</v>
+        <v>732269000000</v>
       </c>
       <c r="C205" t="n">
-        <v>1.649348507339601</v>
+        <v>1.658374792703151</v>
       </c>
       <c r="D205" t="n">
-        <v>1202307438561.768</v>
+        <v>1214376451077.944</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>36130</v>
+        <v>36161</v>
       </c>
       <c r="B206" t="n">
-        <v>732227000000</v>
+        <v>728216000000</v>
       </c>
       <c r="C206" t="n">
-        <v>1.658374792703151</v>
+        <v>1.645007402533311</v>
       </c>
       <c r="D206" t="n">
-        <v>1214306799336.65</v>
+        <v>1197920710643.198</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>36161</v>
+        <v>36192</v>
       </c>
       <c r="B207" t="n">
-        <v>728221000000</v>
+        <v>730714000000</v>
       </c>
       <c r="C207" t="n">
-        <v>1.645007402533311</v>
+        <v>1.60333493666827</v>
       </c>
       <c r="D207" t="n">
-        <v>1197928935680.211</v>
+        <v>1171579284912.618</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>36192</v>
+        <v>36220</v>
       </c>
       <c r="B208" t="n">
-        <v>730690000000</v>
+        <v>728468000000</v>
       </c>
       <c r="C208" t="n">
-        <v>1.60333493666827</v>
+        <v>1.6116035455278</v>
       </c>
       <c r="D208" t="n">
-        <v>1171540804874.138</v>
+        <v>1174001611603.545</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>36220</v>
+        <v>36251</v>
       </c>
       <c r="B209" t="n">
-        <v>728509000000</v>
+        <v>734284000000</v>
       </c>
       <c r="C209" t="n">
-        <v>1.6116035455278</v>
+        <v>1.609528408176404</v>
       </c>
       <c r="D209" t="n">
-        <v>1174067687348.912</v>
+        <v>1181850957669.403</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>36251</v>
+        <v>36281</v>
       </c>
       <c r="B210" t="n">
-        <v>734269000000</v>
+        <v>738281000000</v>
       </c>
       <c r="C210" t="n">
-        <v>1.609528408176404</v>
+        <v>1.602564102564103</v>
       </c>
       <c r="D210" t="n">
-        <v>1181826814743.28</v>
+        <v>1183142628205.128</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>36281</v>
+        <v>36312</v>
       </c>
       <c r="B211" t="n">
-        <v>738227000000</v>
+        <v>742206000000</v>
       </c>
       <c r="C211" t="n">
-        <v>1.602564102564103</v>
+        <v>1.578282828282828</v>
       </c>
       <c r="D211" t="n">
-        <v>1183056089743.59</v>
+        <v>1171410984848.485</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>36312</v>
+        <v>36342</v>
       </c>
       <c r="B212" t="n">
-        <v>742236000000</v>
+        <v>742956000000</v>
       </c>
       <c r="C212" t="n">
-        <v>1.578282828282828</v>
+        <v>1.621533971136695</v>
       </c>
       <c r="D212" t="n">
-        <v>1171458333333.333</v>
+        <v>1204728393059.834</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>36342</v>
+        <v>36373</v>
       </c>
       <c r="B213" t="n">
-        <v>742970000000</v>
+        <v>743936000000</v>
       </c>
       <c r="C213" t="n">
-        <v>1.621533971136695</v>
+        <v>1.603849238171612</v>
       </c>
       <c r="D213" t="n">
-        <v>1204751094535.43</v>
+        <v>1193161186848.436</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>36373</v>
+        <v>36404</v>
       </c>
       <c r="B214" t="n">
-        <v>743994000000</v>
+        <v>738153000000</v>
       </c>
       <c r="C214" t="n">
-        <v>1.603849238171612</v>
+        <v>1.647446457990115</v>
       </c>
       <c r="D214" t="n">
-        <v>1193254210104.25</v>
+        <v>1216067545304.778</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>36404</v>
+        <v>36434</v>
       </c>
       <c r="B215" t="n">
-        <v>738215000000</v>
+        <v>741867000000</v>
       </c>
       <c r="C215" t="n">
-        <v>1.647446457990115</v>
+        <v>1.644195988161789</v>
       </c>
       <c r="D215" t="n">
-        <v>1216169686985.173</v>
+        <v>1219774745149.622</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>36434</v>
+        <v>36465</v>
       </c>
       <c r="B216" t="n">
-        <v>741828000000</v>
+        <v>748108000000</v>
       </c>
       <c r="C216" t="n">
-        <v>1.644195988161789</v>
+        <v>1.599232368463138</v>
       </c>
       <c r="D216" t="n">
-        <v>1219710621506.083</v>
+        <v>1196398528706.221</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>36465</v>
+        <v>36495</v>
       </c>
       <c r="B217" t="n">
-        <v>748145000000</v>
+        <v>754881000000</v>
       </c>
       <c r="C217" t="n">
-        <v>1.599232368463138</v>
+        <v>1.614726303891491</v>
       </c>
       <c r="D217" t="n">
-        <v>1196457700303.854</v>
+        <v>1218926207007.912</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>36495</v>
+        <v>36526</v>
       </c>
       <c r="B218" t="n">
-        <v>754848000000</v>
+        <v>754976000000</v>
       </c>
       <c r="C218" t="n">
-        <v>1.614726303891491</v>
+        <v>1.616553507921112</v>
       </c>
       <c r="D218" t="n">
-        <v>1218872921039.884</v>
+        <v>1220459101196.25</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>36526</v>
+        <v>36557</v>
       </c>
       <c r="B219" t="n">
-        <v>754955000000</v>
+        <v>762560000000</v>
       </c>
       <c r="C219" t="n">
-        <v>1.616553507921112</v>
+        <v>1.579279848389135</v>
       </c>
       <c r="D219" t="n">
-        <v>1220425153572.583</v>
+        <v>1204295641187.618</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>36557</v>
+        <v>36586</v>
       </c>
       <c r="B220" t="n">
-        <v>762648000000</v>
+        <v>765278000000</v>
       </c>
       <c r="C220" t="n">
-        <v>1.579279848389135</v>
+        <v>1.591596371160274</v>
       </c>
       <c r="D220" t="n">
-        <v>1204434617814.277</v>
+        <v>1218013687728.792</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>36586</v>
+        <v>36617</v>
       </c>
       <c r="B221" t="n">
-        <v>765260000000</v>
+        <v>775478000000</v>
       </c>
       <c r="C221" t="n">
-        <v>1.591596371160274</v>
+        <v>1.553760099440646</v>
       </c>
       <c r="D221" t="n">
-        <v>1217985038994.111</v>
+        <v>1204906774394.034</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>36617</v>
+        <v>36647</v>
       </c>
       <c r="B222" t="n">
-        <v>775440000000</v>
+        <v>786464000000</v>
       </c>
       <c r="C222" t="n">
-        <v>1.553760099440646</v>
+        <v>1.5008254539997</v>
       </c>
       <c r="D222" t="n">
-        <v>1204847731510.255</v>
+        <v>1180345189854.42</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>36647</v>
+        <v>36678</v>
       </c>
       <c r="B223" t="n">
-        <v>786485000000</v>
+        <v>792285000000</v>
       </c>
       <c r="C223" t="n">
-        <v>1.5008254539997</v>
+        <v>1.517450682852807</v>
       </c>
       <c r="D223" t="n">
-        <v>1180376707188.954</v>
+        <v>1202253414264.036</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>36678</v>
+        <v>36708</v>
       </c>
       <c r="B224" t="n">
-        <v>792246000000</v>
+        <v>793560000000</v>
       </c>
       <c r="C224" t="n">
-        <v>1.517450682852807</v>
+        <v>1.5001500150015</v>
       </c>
       <c r="D224" t="n">
-        <v>1202194233687.405</v>
+        <v>1190459045904.59</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>36708</v>
+        <v>36739</v>
       </c>
       <c r="B225" t="n">
-        <v>793545000000</v>
+        <v>801124000000</v>
       </c>
       <c r="C225" t="n">
-        <v>1.5001500150015</v>
+        <v>1.446968600781363</v>
       </c>
       <c r="D225" t="n">
-        <v>1190436543654.365</v>
+        <v>1159201273332.369</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>36739</v>
+        <v>36770</v>
       </c>
       <c r="B226" t="n">
-        <v>801161000000</v>
+        <v>804801000000</v>
       </c>
       <c r="C226" t="n">
-        <v>1.446968600781363</v>
+        <v>1.476232654266312</v>
       </c>
       <c r="D226" t="n">
-        <v>1159254811170.597</v>
+        <v>1188073516386.183</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>36770</v>
+        <v>36800</v>
       </c>
       <c r="B227" t="n">
-        <v>804824000000</v>
+        <v>812457000000</v>
       </c>
       <c r="C227" t="n">
-        <v>1.476232654266312</v>
+        <v>1.447806573041842</v>
       </c>
       <c r="D227" t="n">
-        <v>1188107469737.231</v>
+        <v>1176280584913.855</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>36800</v>
+        <v>36831</v>
       </c>
       <c r="B228" t="n">
-        <v>812493000000</v>
+        <v>816938000000</v>
       </c>
       <c r="C228" t="n">
-        <v>1.447806573041842</v>
+        <v>1.42551674982181</v>
       </c>
       <c r="D228" t="n">
-        <v>1176332705950.485</v>
+        <v>1164558802565.93</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>36831</v>
+        <v>36861</v>
       </c>
       <c r="B229" t="n">
-        <v>816921000000</v>
+        <v>825923000000</v>
       </c>
       <c r="C229" t="n">
-        <v>1.42551674982181</v>
+        <v>1.496333981744725</v>
       </c>
       <c r="D229" t="n">
-        <v>1164534568781.183</v>
+        <v>1235856651204.549</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>36861</v>
+        <v>36892</v>
       </c>
       <c r="B230" t="n">
-        <v>825869000000</v>
+        <v>834764000000</v>
       </c>
       <c r="C230" t="n">
-        <v>1.496333981744725</v>
+        <v>1.463914507392768</v>
       </c>
       <c r="D230" t="n">
-        <v>1235775849169.535</v>
+        <v>1222023129849.217</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>36892</v>
+        <v>36923</v>
       </c>
       <c r="B231" t="n">
-        <v>834842000000</v>
+        <v>833802000000</v>
       </c>
       <c r="C231" t="n">
-        <v>1.463914507392768</v>
+        <v>1.445504481063891</v>
       </c>
       <c r="D231" t="n">
-        <v>1222137315180.793</v>
+        <v>1205264527320.035</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>36923</v>
+        <v>36951</v>
       </c>
       <c r="B232" t="n">
-        <v>833897000000</v>
+        <v>848447000000</v>
       </c>
       <c r="C232" t="n">
-        <v>1.445504481063891</v>
+        <v>1.414627245720753</v>
       </c>
       <c r="D232" t="n">
-        <v>1205401850245.736</v>
+        <v>1200236242750.035</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>36951</v>
+        <v>36982</v>
       </c>
       <c r="B233" t="n">
-        <v>848383000000</v>
+        <v>849640000000</v>
       </c>
       <c r="C233" t="n">
-        <v>1.414627245720753</v>
+        <v>1.433280779704744</v>
       </c>
       <c r="D233" t="n">
-        <v>1200145706606.309</v>
+        <v>1217772681668.339</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>36982</v>
+        <v>37012</v>
       </c>
       <c r="B234" t="n">
-        <v>849541000000</v>
+        <v>850900000000</v>
       </c>
       <c r="C234" t="n">
-        <v>1.433280779704744</v>
+        <v>1.418439716312057</v>
       </c>
       <c r="D234" t="n">
-        <v>1217630786871.148</v>
+        <v>1206950354609.929</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>37012</v>
+        <v>37043</v>
       </c>
       <c r="B235" t="n">
-        <v>850868000000</v>
+        <v>852964000000</v>
       </c>
       <c r="C235" t="n">
-        <v>1.418439716312057</v>
+        <v>1.41622999575131</v>
       </c>
       <c r="D235" t="n">
-        <v>1206904964539.007</v>
+        <v>1207993202096.021</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>37043</v>
+        <v>37073</v>
       </c>
       <c r="B236" t="n">
-        <v>852866000000</v>
+        <v>865098000000</v>
       </c>
       <c r="C236" t="n">
-        <v>1.41622999575131</v>
+        <v>1.425313568985177</v>
       </c>
       <c r="D236" t="n">
-        <v>1207854411556.437</v>
+        <v>1233035917901.938</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>37073</v>
+        <v>37104</v>
       </c>
       <c r="B237" t="n">
-        <v>865203000000</v>
+        <v>867380000000</v>
       </c>
       <c r="C237" t="n">
-        <v>1.425313568985177</v>
+        <v>1.454122437109205</v>
       </c>
       <c r="D237" t="n">
-        <v>1233185575826.682</v>
+        <v>1261276719499.782</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>37104</v>
+        <v>37135</v>
       </c>
       <c r="B238" t="n">
-        <v>867454000000</v>
+        <v>879928000000</v>
       </c>
       <c r="C238" t="n">
-        <v>1.454122437109205</v>
+        <v>1.474491300501327</v>
       </c>
       <c r="D238" t="n">
-        <v>1261384324560.128</v>
+        <v>1297446181067.531</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>37135</v>
+        <v>37165</v>
       </c>
       <c r="B239" t="n">
-        <v>879987000000</v>
+        <v>886058000000</v>
       </c>
       <c r="C239" t="n">
-        <v>1.474491300501327</v>
+        <v>1.455180442374854</v>
       </c>
       <c r="D239" t="n">
-        <v>1297533176054.261</v>
+        <v>1289374272409.779</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>37165</v>
+        <v>37196</v>
       </c>
       <c r="B240" t="n">
-        <v>886072000000</v>
+        <v>887299000000</v>
       </c>
       <c r="C240" t="n">
-        <v>1.455180442374854</v>
+        <v>1.424501424501425</v>
       </c>
       <c r="D240" t="n">
-        <v>1289394644935.972</v>
+        <v>1263958689458.69</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>37196</v>
+        <v>37226</v>
       </c>
       <c r="B241" t="n">
-        <v>887278000000</v>
+        <v>892092000000</v>
       </c>
       <c r="C241" t="n">
-        <v>1.424501424501425</v>
+        <v>1.450747134774409</v>
       </c>
       <c r="D241" t="n">
-        <v>1263928774928.775</v>
+        <v>1294199912955.172</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>37226</v>
+        <v>37257</v>
       </c>
       <c r="B242" t="n">
-        <v>891991000000</v>
+        <v>885660000000</v>
       </c>
       <c r="C242" t="n">
-        <v>1.450747134774409</v>
+        <v>1.410835214446953</v>
       </c>
       <c r="D242" t="n">
-        <v>1294053387494.56</v>
+        <v>1249520316027.088</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>37257</v>
+        <v>37288</v>
       </c>
       <c r="B243" t="n">
-        <v>885687000000</v>
+        <v>887715000000</v>
       </c>
       <c r="C243" t="n">
-        <v>1.410835214446953</v>
+        <v>1.416831963729102</v>
       </c>
       <c r="D243" t="n">
-        <v>1249558408577.878</v>
+        <v>1257742986681.78</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>37288</v>
+        <v>37316</v>
       </c>
       <c r="B244" t="n">
-        <v>887743000000</v>
+        <v>892250000000</v>
       </c>
       <c r="C244" t="n">
-        <v>1.416831963729102</v>
+        <v>1.425923285327249</v>
       </c>
       <c r="D244" t="n">
-        <v>1257782657976.764</v>
+        <v>1272280051333.238</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>37316</v>
+        <v>37347</v>
       </c>
       <c r="B245" t="n">
-        <v>892226000000</v>
+        <v>894430000000</v>
       </c>
       <c r="C245" t="n">
-        <v>1.425923285327249</v>
+        <v>1.457938474996355</v>
       </c>
       <c r="D245" t="n">
-        <v>1272245829174.39</v>
+        <v>1304023910190.99</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>37347</v>
+        <v>37377</v>
       </c>
       <c r="B246" t="n">
-        <v>894471000000</v>
+        <v>899945000000</v>
       </c>
       <c r="C246" t="n">
-        <v>1.457938474996355</v>
+        <v>1.45602795573675</v>
       </c>
       <c r="D246" t="n">
-        <v>1304083685668.465</v>
+        <v>1310345078625.51</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>37377</v>
+        <v>37408</v>
       </c>
       <c r="B247" t="n">
-        <v>899930000000</v>
+        <v>903077000000</v>
       </c>
       <c r="C247" t="n">
-        <v>1.45602795573675</v>
+        <v>1.533272002453235</v>
       </c>
       <c r="D247" t="n">
-        <v>1310323238206.174</v>
+        <v>1384662680159.46</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>37408</v>
+        <v>37438</v>
       </c>
       <c r="B248" t="n">
-        <v>903027000000</v>
+        <v>909219000000</v>
       </c>
       <c r="C248" t="n">
-        <v>1.533272002453235</v>
+        <v>1.563477173233271</v>
       </c>
       <c r="D248" t="n">
-        <v>1384586016559.338</v>
+        <v>1421543151969.981</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>37438</v>
+        <v>37469</v>
       </c>
       <c r="B249" t="n">
-        <v>909293000000</v>
+        <v>917594000000</v>
       </c>
       <c r="C249" t="n">
-        <v>1.563477173233271</v>
+        <v>1.550387596899225</v>
       </c>
       <c r="D249" t="n">
-        <v>1421658849280.801</v>
+        <v>1422626356589.147</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>37469</v>
+        <v>37500</v>
       </c>
       <c r="B250" t="n">
-        <v>917621000000</v>
+        <v>917418000000</v>
       </c>
       <c r="C250" t="n">
-        <v>1.550387596899225</v>
+        <v>1.568381430363865</v>
       </c>
       <c r="D250" t="n">
-        <v>1422668217054.263</v>
+        <v>1438861355081.556</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>37500</v>
+        <v>37530</v>
       </c>
       <c r="B251" t="n">
-        <v>917388000000</v>
+        <v>927127000000</v>
       </c>
       <c r="C251" t="n">
-        <v>1.568381430363865</v>
+        <v>1.564455569461827</v>
       </c>
       <c r="D251" t="n">
-        <v>1438814303638.645</v>
+        <v>1450448998748.436</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>37530</v>
+        <v>37561</v>
       </c>
       <c r="B252" t="n">
-        <v>927082000000</v>
+        <v>930599000000</v>
       </c>
       <c r="C252" t="n">
-        <v>1.564455569461827</v>
+        <v>1.557875058420315</v>
       </c>
       <c r="D252" t="n">
-        <v>1450378598247.81</v>
+        <v>1449756971490.886</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>37561</v>
+        <v>37591</v>
       </c>
       <c r="B253" t="n">
-        <v>930517000000</v>
+        <v>932613000000</v>
       </c>
       <c r="C253" t="n">
-        <v>1.557875058420315</v>
+        <v>1.6116035455278</v>
       </c>
       <c r="D253" t="n">
-        <v>1449629225736.096</v>
+        <v>1503002417405.318</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>37591</v>
+        <v>37622</v>
       </c>
       <c r="B254" t="n">
-        <v>932657000000</v>
+        <v>931975000000</v>
       </c>
       <c r="C254" t="n">
-        <v>1.6116035455278</v>
+        <v>1.646903820816864</v>
       </c>
       <c r="D254" t="n">
-        <v>1503073327961.321</v>
+        <v>1534873188405.797</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>37622</v>
+        <v>37653</v>
       </c>
       <c r="B255" t="n">
-        <v>932003000000</v>
+        <v>943601000000</v>
       </c>
       <c r="C255" t="n">
-        <v>1.646903820816864</v>
+        <v>1.573069057731634</v>
       </c>
       <c r="D255" t="n">
-        <v>1534919301712.78</v>
+        <v>1484349535944.628</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>37653</v>
+        <v>37681</v>
       </c>
       <c r="B256" t="n">
-        <v>943614000000</v>
+        <v>940321000000</v>
       </c>
       <c r="C256" t="n">
-        <v>1.573069057731634</v>
+        <v>1.58202816010125</v>
       </c>
       <c r="D256" t="n">
-        <v>1484369985842.378</v>
+        <v>1487614301534.567</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>37681</v>
+        <v>37712</v>
       </c>
       <c r="B257" t="n">
-        <v>940236000000</v>
+        <v>947364000000</v>
       </c>
       <c r="C257" t="n">
-        <v>1.58202816010125</v>
+        <v>1.597954618088846</v>
       </c>
       <c r="D257" t="n">
-        <v>1487479829140.959</v>
+        <v>1513844678811.122</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>37712</v>
+        <v>37742</v>
       </c>
       <c r="B258" t="n">
-        <v>947408000000</v>
+        <v>950862000000</v>
       </c>
       <c r="C258" t="n">
-        <v>1.597954618088846</v>
+        <v>1.636393388970709</v>
       </c>
       <c r="D258" t="n">
-        <v>1513914988814.318</v>
+        <v>1555984290623.466</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>37742</v>
+        <v>37773</v>
       </c>
       <c r="B259" t="n">
-        <v>950798000000</v>
+        <v>958829000000</v>
       </c>
       <c r="C259" t="n">
-        <v>1.636393388970709</v>
+        <v>1.655355073663301</v>
       </c>
       <c r="D259" t="n">
-        <v>1555879561446.572</v>
+        <v>1587202449925.509</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>37773</v>
+        <v>37803</v>
       </c>
       <c r="B260" t="n">
-        <v>958714000000</v>
+        <v>963655000000</v>
       </c>
       <c r="C260" t="n">
-        <v>1.655355073663301</v>
+        <v>1.610824742268041</v>
       </c>
       <c r="D260" t="n">
-        <v>1587012084092.038</v>
+        <v>1552279317010.309</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>37803</v>
+        <v>37834</v>
       </c>
       <c r="B261" t="n">
-        <v>963666000000</v>
+        <v>968813000000</v>
       </c>
       <c r="C261" t="n">
-        <v>1.610824742268041</v>
+        <v>1.577784790154623</v>
       </c>
       <c r="D261" t="n">
-        <v>1552297036082.474</v>
+        <v>1528578415904.071</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>37834</v>
+        <v>37865</v>
       </c>
       <c r="B262" t="n">
-        <v>968885000000</v>
+        <v>971827000000</v>
       </c>
       <c r="C262" t="n">
-        <v>1.577784790154623</v>
+        <v>1.661957786272229</v>
       </c>
       <c r="D262" t="n">
-        <v>1528692016408.962</v>
+        <v>1615135449559.581</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>37865</v>
+        <v>37895</v>
       </c>
       <c r="B263" t="n">
-        <v>971903000000</v>
+        <v>978301000000</v>
       </c>
       <c r="C263" t="n">
-        <v>1.661957786272229</v>
+        <v>1.695777513990165</v>
       </c>
       <c r="D263" t="n">
-        <v>1615261758351.338</v>
+        <v>1658980837714.092</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>37895</v>
+        <v>37926</v>
       </c>
       <c r="B264" t="n">
-        <v>978266000000</v>
+        <v>988357000000</v>
       </c>
       <c r="C264" t="n">
-        <v>1.695777513990165</v>
+        <v>1.722059583261581</v>
       </c>
       <c r="D264" t="n">
-        <v>1658921485501.102</v>
+        <v>1702009643533.666</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>37926</v>
+        <v>37956</v>
       </c>
       <c r="B265" t="n">
-        <v>988316000000</v>
+        <v>997851000000</v>
       </c>
       <c r="C265" t="n">
-        <v>1.722059583261581</v>
+        <v>1.77683013503909</v>
       </c>
       <c r="D265" t="n">
-        <v>1701939039090.752</v>
+        <v>1773011727078.891</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>37956</v>
+        <v>37987</v>
       </c>
       <c r="B266" t="n">
-        <v>997912000000</v>
+        <v>1006978000000</v>
       </c>
       <c r="C266" t="n">
-        <v>1.77683013503909</v>
+        <v>1.823486506199854</v>
       </c>
       <c r="D266" t="n">
-        <v>1773120113717.129</v>
+        <v>1836210795040.117</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>37987</v>
+        <v>38018</v>
       </c>
       <c r="B267" t="n">
-        <v>1006962000000</v>
+        <v>1014085000000</v>
       </c>
       <c r="C267" t="n">
-        <v>1.823486506199854</v>
+        <v>1.868460388639761</v>
       </c>
       <c r="D267" t="n">
-        <v>1836181619256.018</v>
+        <v>1894777653213.752</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>38018</v>
+        <v>38047</v>
       </c>
       <c r="B268" t="n">
-        <v>1014061000000</v>
+        <v>1019859000000</v>
       </c>
       <c r="C268" t="n">
-        <v>1.868460388639761</v>
+        <v>1.845699520118125</v>
       </c>
       <c r="D268" t="n">
-        <v>1894732810164.425</v>
+        <v>1882353266888.151</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>38047</v>
+        <v>38078</v>
       </c>
       <c r="B269" t="n">
-        <v>1019915000000</v>
+        <v>1029044000000</v>
       </c>
       <c r="C269" t="n">
-        <v>1.845699520118125</v>
+        <v>1.778410101369376</v>
       </c>
       <c r="D269" t="n">
-        <v>1882456626061.277</v>
+        <v>1830062244353.548</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>38078</v>
+        <v>38108</v>
       </c>
       <c r="B270" t="n">
-        <v>1029056000000</v>
+        <v>1032543000000</v>
       </c>
       <c r="C270" t="n">
-        <v>1.778410101369376</v>
+        <v>1.832172957127153</v>
       </c>
       <c r="D270" t="n">
-        <v>1830083585274.764</v>
+        <v>1891797361670.942</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>38108</v>
+        <v>38139</v>
       </c>
       <c r="B271" t="n">
-        <v>1032555000000</v>
+        <v>1047513000000</v>
       </c>
       <c r="C271" t="n">
-        <v>1.832172957127153</v>
+        <v>1.820498816675769</v>
       </c>
       <c r="D271" t="n">
-        <v>1891819347746.427</v>
+        <v>1906996176952.485</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>38139</v>
+        <v>38169</v>
       </c>
       <c r="B272" t="n">
-        <v>1047560000000</v>
+        <v>1052837000000</v>
       </c>
       <c r="C272" t="n">
-        <v>1.820498816675769</v>
+        <v>1.819836214740673</v>
       </c>
       <c r="D272" t="n">
-        <v>1907081740396.869</v>
+        <v>1915990900818.927</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>38169</v>
+        <v>38200</v>
       </c>
       <c r="B273" t="n">
-        <v>1052762000000</v>
+        <v>1065074000000</v>
       </c>
       <c r="C273" t="n">
-        <v>1.819836214740673</v>
+        <v>1.802776275464215</v>
       </c>
       <c r="D273" t="n">
-        <v>1915854413102.821</v>
+        <v>1920090138813.773</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>38200</v>
+        <v>38231</v>
       </c>
       <c r="B274" t="n">
-        <v>1065228000000</v>
+        <v>1073345000000</v>
       </c>
       <c r="C274" t="n">
-        <v>1.802776275464215</v>
+        <v>1.81257930034439</v>
       </c>
       <c r="D274" t="n">
-        <v>1920367766360.195</v>
+        <v>1945522929128.149</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>38231</v>
+        <v>38261</v>
       </c>
       <c r="B275" t="n">
-        <v>1073281000000</v>
+        <v>1081834000000</v>
       </c>
       <c r="C275" t="n">
-        <v>1.81257930034439</v>
+        <v>1.836547291092746</v>
       </c>
       <c r="D275" t="n">
-        <v>1945406924052.927</v>
+        <v>1986839302112.029</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>38261</v>
+        <v>38292</v>
       </c>
       <c r="B276" t="n">
-        <v>1081801000000</v>
+        <v>1093089000000</v>
       </c>
       <c r="C276" t="n">
-        <v>1.836547291092746</v>
+        <v>1.909490166125644</v>
       </c>
       <c r="D276" t="n">
-        <v>1986778696051.423</v>
+        <v>2087242696200.114</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>38292</v>
+        <v>38322</v>
       </c>
       <c r="B277" t="n">
-        <v>1093138000000</v>
+        <v>1097970000000</v>
       </c>
       <c r="C277" t="n">
-        <v>1.909490166125644</v>
+        <v>1.918649270913277</v>
       </c>
       <c r="D277" t="n">
-        <v>2087336261218.255</v>
+        <v>2106619339984.651</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>38322</v>
+        <v>38353</v>
       </c>
       <c r="B278" t="n">
-        <v>1097978000000</v>
+        <v>1109901000000</v>
       </c>
       <c r="C278" t="n">
-        <v>1.918649270913277</v>
+        <v>1.883239171374764</v>
       </c>
       <c r="D278" t="n">
-        <v>2106634689178.818</v>
+        <v>2090209039548.022</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>38353</v>
+        <v>38384</v>
       </c>
       <c r="B279" t="n">
-        <v>1109892000000</v>
+        <v>1114245000000</v>
       </c>
       <c r="C279" t="n">
-        <v>1.883239171374764</v>
+        <v>1.921229586935639</v>
       </c>
       <c r="D279" t="n">
-        <v>2090192090395.48</v>
+        <v>2140720461095.101</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>38384</v>
+        <v>38412</v>
       </c>
       <c r="B280" t="n">
-        <v>1114148000000</v>
+        <v>1126640000000</v>
       </c>
       <c r="C280" t="n">
-        <v>1.921229586935639</v>
+        <v>1.89000189000189</v>
       </c>
       <c r="D280" t="n">
-        <v>2140534101825.168</v>
+        <v>2129351729351.729</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>38412</v>
+        <v>38443</v>
       </c>
       <c r="B281" t="n">
-        <v>1126646000000</v>
+        <v>1140999000000</v>
       </c>
       <c r="C281" t="n">
-        <v>1.89000189000189</v>
+        <v>1.909125620465826</v>
       </c>
       <c r="D281" t="n">
-        <v>2129363069363.069</v>
+        <v>2178310423825.887</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>38443</v>
+        <v>38473</v>
       </c>
       <c r="B282" t="n">
-        <v>1140929000000</v>
+        <v>1156686000000</v>
       </c>
       <c r="C282" t="n">
-        <v>1.909125620465826</v>
+        <v>1.817190623296384</v>
       </c>
       <c r="D282" t="n">
-        <v>2178176785032.455</v>
+        <v>2101918953298.201</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>38473</v>
+        <v>38504</v>
       </c>
       <c r="B283" t="n">
-        <v>1156762000000</v>
+        <v>1163944000000</v>
       </c>
       <c r="C283" t="n">
-        <v>1.817190623296384</v>
+        <v>1.791793585378964</v>
       </c>
       <c r="D283" t="n">
-        <v>2102057059785.571</v>
+        <v>2085547392940.333</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>38504</v>
+        <v>38534</v>
       </c>
       <c r="B284" t="n">
-        <v>1163969000000</v>
+        <v>1176813000000</v>
       </c>
       <c r="C284" t="n">
-        <v>1.791793585378964</v>
+        <v>1.758087201125176</v>
       </c>
       <c r="D284" t="n">
-        <v>2085592187779.968</v>
+        <v>2068939873417.721</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>38534</v>
+        <v>38565</v>
       </c>
       <c r="B285" t="n">
-        <v>1176847000000</v>
+        <v>1173350000000</v>
       </c>
       <c r="C285" t="n">
-        <v>1.758087201125176</v>
+        <v>1.804728388377549</v>
       </c>
       <c r="D285" t="n">
-        <v>2068999648382.56</v>
+        <v>2117578054502.797</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>38565</v>
+        <v>38596</v>
       </c>
       <c r="B286" t="n">
-        <v>1173492000000</v>
+        <v>1192996000000</v>
       </c>
       <c r="C286" t="n">
-        <v>1.804728388377549</v>
+        <v>1.768659356207994</v>
       </c>
       <c r="D286" t="n">
-        <v>2117834325933.947</v>
+        <v>2110003537318.712</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>38596</v>
+        <v>38626</v>
       </c>
       <c r="B287" t="n">
-        <v>1192842000000</v>
+        <v>1202450000000</v>
       </c>
       <c r="C287" t="n">
-        <v>1.768659356207994</v>
+        <v>1.771165426850868</v>
       </c>
       <c r="D287" t="n">
-        <v>2109731163777.856</v>
+        <v>2129737867516.826</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>38626</v>
+        <v>38657</v>
       </c>
       <c r="B288" t="n">
-        <v>1202350000000</v>
+        <v>1212721000000</v>
       </c>
       <c r="C288" t="n">
-        <v>1.771165426850868</v>
+        <v>1.730403183941859</v>
       </c>
       <c r="D288" t="n">
-        <v>2129560750974.141</v>
+        <v>2098496279633.155</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>38657</v>
+        <v>38687</v>
       </c>
       <c r="B289" t="n">
-        <v>1212784000000</v>
+        <v>1226957000000</v>
       </c>
       <c r="C289" t="n">
-        <v>1.730403183941859</v>
+        <v>1.723840717117739</v>
       </c>
       <c r="D289" t="n">
-        <v>2098605295033.743</v>
+        <v>2115078434752.629</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>38687</v>
+        <v>38718</v>
       </c>
       <c r="B290" t="n">
-        <v>1226816000000</v>
+        <v>1233048000000</v>
       </c>
       <c r="C290" t="n">
-        <v>1.723840717117739</v>
+        <v>1.779676098949991</v>
       </c>
       <c r="D290" t="n">
-        <v>2114835373211.516</v>
+        <v>2194426054458.089</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>38718</v>
+        <v>38749</v>
       </c>
       <c r="B291" t="n">
-        <v>1233249000000</v>
+        <v>1252304000000</v>
       </c>
       <c r="C291" t="n">
-        <v>1.779676098949991</v>
+        <v>1.754693805930865</v>
       </c>
       <c r="D291" t="n">
-        <v>2194783769353.978</v>
+        <v>2197410071942.446</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>38749</v>
+        <v>38777</v>
       </c>
       <c r="B292" t="n">
-        <v>1252399000000</v>
+        <v>1261536000000</v>
       </c>
       <c r="C292" t="n">
-        <v>1.754693805930865</v>
+        <v>1.738223535546671</v>
       </c>
       <c r="D292" t="n">
-        <v>2197576767854.01</v>
+        <v>2192831566139.406</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>38777</v>
+        <v>38808</v>
       </c>
       <c r="B293" t="n">
-        <v>1261556000000</v>
+        <v>1275554000000</v>
       </c>
       <c r="C293" t="n">
-        <v>1.738223535546671</v>
+        <v>1.825817053131276</v>
       </c>
       <c r="D293" t="n">
-        <v>2192866330610.116</v>
+        <v>2328928245389.812</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>38808</v>
+        <v>38838</v>
       </c>
       <c r="B294" t="n">
-        <v>1275592000000</v>
+        <v>1279377000000</v>
       </c>
       <c r="C294" t="n">
-        <v>1.825817053131276</v>
+        <v>1.872308556450103</v>
       </c>
       <c r="D294" t="n">
-        <v>2328997626437.831</v>
+        <v>2395388504025.463</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>38838</v>
+        <v>38869</v>
       </c>
       <c r="B295" t="n">
-        <v>1279453000000</v>
+        <v>1297903000000</v>
       </c>
       <c r="C295" t="n">
-        <v>1.872308556450103</v>
+        <v>1.849112426035503</v>
       </c>
       <c r="D295" t="n">
-        <v>2395530799475.753</v>
+        <v>2399968565088.758</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>38869</v>
+        <v>38899</v>
       </c>
       <c r="B296" t="n">
-        <v>1297935000000</v>
+        <v>1310728000000</v>
       </c>
       <c r="C296" t="n">
-        <v>1.849112426035503</v>
+        <v>1.868460388639761</v>
       </c>
       <c r="D296" t="n">
-        <v>2400027736686.391</v>
+        <v>2449043348281.017</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>38899</v>
+        <v>38930</v>
       </c>
       <c r="B297" t="n">
-        <v>1310653000000</v>
+        <v>1321901000000</v>
       </c>
       <c r="C297" t="n">
-        <v>1.868460388639761</v>
+        <v>1.904761904761905</v>
       </c>
       <c r="D297" t="n">
-        <v>2448903213751.869</v>
+        <v>2517906666666.667</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>38930</v>
+        <v>38961</v>
       </c>
       <c r="B298" t="n">
-        <v>1321994000000</v>
+        <v>1340630000000</v>
       </c>
       <c r="C298" t="n">
-        <v>1.904761904761905</v>
+        <v>1.874062968515742</v>
       </c>
       <c r="D298" t="n">
-        <v>2518083809523.81</v>
+        <v>2512425037481.259</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>38961</v>
+        <v>38991</v>
       </c>
       <c r="B299" t="n">
-        <v>1340264000000</v>
+        <v>1362172000000</v>
       </c>
       <c r="C299" t="n">
-        <v>1.874062968515742</v>
+        <v>1.907304978065993</v>
       </c>
       <c r="D299" t="n">
-        <v>2511739130434.783</v>
+        <v>2598077436582.109</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>38991</v>
+        <v>39022</v>
       </c>
       <c r="B300" t="n">
-        <v>1362315000000</v>
+        <v>1373474000000</v>
       </c>
       <c r="C300" t="n">
-        <v>1.907304978065993</v>
+        <v>1.966568338249754</v>
       </c>
       <c r="D300" t="n">
-        <v>2598350181193.973</v>
+        <v>2701030481809.243</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>39022</v>
+        <v>39052</v>
       </c>
       <c r="B301" t="n">
-        <v>1373525000000</v>
+        <v>1399379000000</v>
       </c>
       <c r="C301" t="n">
-        <v>1.966568338249754</v>
+        <v>1.96078431372549</v>
       </c>
       <c r="D301" t="n">
-        <v>2701130776794.494</v>
+        <v>2743880392156.863</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>39052</v>
+        <v>39083</v>
       </c>
       <c r="B302" t="n">
-        <v>1399282000000</v>
+        <v>1400702000000</v>
       </c>
       <c r="C302" t="n">
-        <v>1.96078431372549</v>
+        <v>1.966181675186787</v>
       </c>
       <c r="D302" t="n">
-        <v>2743690196078.431</v>
+        <v>2754034604797.483</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>39083</v>
+        <v>39114</v>
       </c>
       <c r="B303" t="n">
-        <v>1400913000000</v>
+        <v>1419772000000</v>
       </c>
       <c r="C303" t="n">
-        <v>1.966181675186787</v>
+        <v>1.965022597759874</v>
       </c>
       <c r="D303" t="n">
-        <v>2754449469130.947</v>
+        <v>2789884063666.732</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>39114</v>
+        <v>39142</v>
       </c>
       <c r="B304" t="n">
-        <v>1419922000000</v>
+        <v>1441541000000</v>
       </c>
       <c r="C304" t="n">
-        <v>1.965022597759874</v>
+        <v>1.968503937007874</v>
       </c>
       <c r="D304" t="n">
-        <v>2790178817056.396</v>
+        <v>2837679133858.268</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>39142</v>
+        <v>39173</v>
       </c>
       <c r="B305" t="n">
-        <v>1441473000000</v>
+        <v>1458997000000</v>
       </c>
       <c r="C305" t="n">
-        <v>1.968503937007874</v>
+        <v>2.000400080016003</v>
       </c>
       <c r="D305" t="n">
-        <v>2837545275590.551</v>
+        <v>2918577715543.108</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>39173</v>
+        <v>39203</v>
       </c>
       <c r="B306" t="n">
-        <v>1458867000000</v>
+        <v>1480565000000</v>
       </c>
       <c r="C306" t="n">
-        <v>2.000400080016003</v>
+        <v>1.980590215884333</v>
       </c>
       <c r="D306" t="n">
-        <v>2918317663532.707</v>
+        <v>2932392552980.788</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>39203</v>
+        <v>39234</v>
       </c>
       <c r="B307" t="n">
-        <v>1480553000000</v>
+        <v>1498321000000</v>
       </c>
       <c r="C307" t="n">
-        <v>1.980590215884333</v>
+        <v>2.009646302250804</v>
       </c>
       <c r="D307" t="n">
-        <v>2932368785898.197</v>
+        <v>3011095257234.727</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>39234</v>
+        <v>39264</v>
       </c>
       <c r="B308" t="n">
-        <v>1498230000000</v>
+        <v>1512968000000</v>
       </c>
       <c r="C308" t="n">
-        <v>2.009646302250804</v>
+        <v>2.030869212022746</v>
       </c>
       <c r="D308" t="n">
-        <v>3010912379421.222</v>
+        <v>3072640129975.629</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>39264</v>
+        <v>39295</v>
       </c>
       <c r="B309" t="n">
-        <v>1513047000000</v>
+        <v>1538846000000</v>
       </c>
       <c r="C309" t="n">
-        <v>2.030869212022746</v>
+        <v>2.01816347124117</v>
       </c>
       <c r="D309" t="n">
-        <v>3072800568643.379</v>
+        <v>3105642785065.59</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>39295</v>
+        <v>39326</v>
       </c>
       <c r="B310" t="n">
-        <v>1538917000000</v>
+        <v>1538697000000</v>
       </c>
       <c r="C310" t="n">
-        <v>2.01816347124117</v>
+        <v>2.047082906857728</v>
       </c>
       <c r="D310" t="n">
-        <v>3105786074672.048</v>
+        <v>3149840327533.265</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>39326</v>
+        <v>39356</v>
       </c>
       <c r="B311" t="n">
-        <v>1538463000000</v>
+        <v>1529352000000</v>
       </c>
       <c r="C311" t="n">
-        <v>2.047082906857728</v>
+        <v>2.082465639316951</v>
       </c>
       <c r="D311" t="n">
-        <v>3149361310133.06</v>
+        <v>3184822990420.658</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>39356</v>
+        <v>39387</v>
       </c>
       <c r="B312" t="n">
-        <v>1529564000000</v>
+        <v>1539713000000</v>
       </c>
       <c r="C312" t="n">
-        <v>2.082465639316951</v>
+        <v>2.058884084826024</v>
       </c>
       <c r="D312" t="n">
-        <v>3185264473136.193</v>
+        <v>3170090590899.732</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>39387</v>
+        <v>39417</v>
       </c>
       <c r="B313" t="n">
-        <v>1539804000000</v>
+        <v>1552882000000</v>
       </c>
       <c r="C313" t="n">
-        <v>2.058884084826024</v>
+        <v>1.987676406281057</v>
       </c>
       <c r="D313" t="n">
-        <v>3170277949351.452</v>
+        <v>3086626913138.541</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>39417</v>
+        <v>39448</v>
       </c>
       <c r="B314" t="n">
-        <v>1552599000000</v>
+        <v>1614640000000</v>
       </c>
       <c r="C314" t="n">
-        <v>1.987676406281057</v>
+        <v>1.988466892026248</v>
       </c>
       <c r="D314" t="n">
-        <v>3086064400715.563</v>
+        <v>3210658182541.26</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>39448</v>
+        <v>39479</v>
       </c>
       <c r="B315" t="n">
-        <v>1614854000000</v>
+        <v>1619403000000</v>
       </c>
       <c r="C315" t="n">
-        <v>1.988466892026248</v>
+        <v>1.989653800238758</v>
       </c>
       <c r="D315" t="n">
-        <v>3211083714456.154</v>
+        <v>3222051333068.046</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>39479</v>
+        <v>39508</v>
       </c>
       <c r="B316" t="n">
-        <v>1619530000000</v>
+        <v>1642425000000</v>
       </c>
       <c r="C316" t="n">
-        <v>1.989653800238758</v>
+        <v>1.984126984126984</v>
       </c>
       <c r="D316" t="n">
-        <v>3222304019100.676</v>
+        <v>3258779761904.762</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>39508</v>
+        <v>39539</v>
       </c>
       <c r="B317" t="n">
-        <v>1642340000000</v>
+        <v>1653904000000</v>
       </c>
       <c r="C317" t="n">
-        <v>1.984126984126984</v>
+        <v>1.988862370723946</v>
       </c>
       <c r="D317" t="n">
-        <v>3258611111111.111</v>
+        <v>3289387430389.817</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>39539</v>
+        <v>39569</v>
       </c>
       <c r="B318" t="n">
-        <v>1653922000000</v>
+        <v>1659319000000</v>
       </c>
       <c r="C318" t="n">
-        <v>1.988862370723946</v>
+        <v>1.983339944466482</v>
       </c>
       <c r="D318" t="n">
-        <v>3289423229912.49</v>
+        <v>3290993653312.178</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>39569</v>
+        <v>39600</v>
       </c>
       <c r="B319" t="n">
-        <v>1659104000000</v>
+        <v>1671092000000</v>
       </c>
       <c r="C319" t="n">
-        <v>1.983339944466482</v>
+        <v>1.994017946161516</v>
       </c>
       <c r="D319" t="n">
-        <v>3290567235224.118</v>
+        <v>3332187437686.939</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>39600</v>
+        <v>39630</v>
       </c>
       <c r="B320" t="n">
-        <v>1670886000000</v>
+        <v>1673932000000</v>
       </c>
       <c r="C320" t="n">
-        <v>1.994017946161516</v>
+        <v>1.984520738241714</v>
       </c>
       <c r="D320" t="n">
-        <v>3331776669990.03</v>
+        <v>3321952768406.43</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>39630</v>
+        <v>39661</v>
       </c>
       <c r="B321" t="n">
-        <v>1673872000000</v>
+        <v>1680693000000</v>
       </c>
       <c r="C321" t="n">
-        <v>1.984520738241714</v>
+        <v>1.817190623296384</v>
       </c>
       <c r="D321" t="n">
-        <v>3321833697162.135</v>
+        <v>3054139560239.869</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>39661</v>
+        <v>39692</v>
       </c>
       <c r="B322" t="n">
-        <v>1680692000000</v>
+        <v>1687890000000</v>
       </c>
       <c r="C322" t="n">
-        <v>1.817190623296384</v>
+        <v>1.784121320249777</v>
       </c>
       <c r="D322" t="n">
-        <v>3054137743049.246</v>
+        <v>3011400535236.396</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>39692</v>
+        <v>39722</v>
       </c>
       <c r="B323" t="n">
-        <v>1687905000000</v>
+        <v>1743225000000</v>
       </c>
       <c r="C323" t="n">
-        <v>1.784121320249777</v>
+        <v>1.605394124257505</v>
       </c>
       <c r="D323" t="n">
-        <v>3011427297056.2</v>
+        <v>2798563172258.79</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>39722</v>
+        <v>39753</v>
       </c>
       <c r="B324" t="n">
-        <v>1743423000000</v>
+        <v>1793355000000</v>
       </c>
       <c r="C324" t="n">
-        <v>1.605394124257505</v>
+        <v>1.538224888478696</v>
       </c>
       <c r="D324" t="n">
-        <v>2798881040295.393</v>
+        <v>2758583294877.711</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>39753</v>
+        <v>39783</v>
       </c>
       <c r="B325" t="n">
-        <v>1793409000000</v>
+        <v>1838199000000</v>
       </c>
       <c r="C325" t="n">
-        <v>1.538224888478696</v>
+        <v>1.462629808395495</v>
       </c>
       <c r="D325" t="n">
-        <v>2758666359021.689</v>
+        <v>2688604651162.791</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>39783</v>
+        <v>39814</v>
       </c>
       <c r="B326" t="n">
-        <v>1838255000000</v>
+        <v>1847617000000</v>
       </c>
       <c r="C326" t="n">
-        <v>1.462629808395495</v>
+        <v>1.452011035283868</v>
       </c>
       <c r="D326" t="n">
-        <v>2688686558432.061</v>
+        <v>2682760272978.075</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>39814</v>
+        <v>39845</v>
       </c>
       <c r="B327" t="n">
-        <v>1847702000000</v>
+        <v>1839006000000</v>
       </c>
       <c r="C327" t="n">
-        <v>1.452011035283868</v>
+        <v>1.431639226914817</v>
       </c>
       <c r="D327" t="n">
-        <v>2682883693916.074</v>
+        <v>2632793128131.711</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>39845</v>
+        <v>39873</v>
       </c>
       <c r="B328" t="n">
-        <v>1839023000000</v>
+        <v>1852086000000</v>
       </c>
       <c r="C328" t="n">
-        <v>1.431639226914817</v>
+        <v>1.433280779704744</v>
       </c>
       <c r="D328" t="n">
-        <v>2632817465998.568</v>
+        <v>2654559266160.241</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>39873</v>
+        <v>39904</v>
       </c>
       <c r="B329" t="n">
-        <v>1852329000000</v>
+        <v>1828295000000</v>
       </c>
       <c r="C329" t="n">
-        <v>1.433280779704744</v>
+        <v>1.478633742422002</v>
       </c>
       <c r="D329" t="n">
-        <v>2654907553389.709</v>
+        <v>2703378678101.434</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>39904</v>
+        <v>39934</v>
       </c>
       <c r="B330" t="n">
-        <v>1828272000000</v>
+        <v>1821502000000</v>
       </c>
       <c r="C330" t="n">
-        <v>1.478633742422002</v>
+        <v>1.619695497246518</v>
       </c>
       <c r="D330" t="n">
-        <v>2703344669525.358</v>
+        <v>2950278587625.527</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>39934</v>
+        <v>39965</v>
       </c>
       <c r="B331" t="n">
-        <v>1820835000000</v>
+        <v>1813613000000</v>
       </c>
       <c r="C331" t="n">
-        <v>1.619695497246518</v>
+        <v>1.647446457990115</v>
       </c>
       <c r="D331" t="n">
-        <v>2949198250728.863</v>
+        <v>2987830313014.827</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>39965</v>
+        <v>39995</v>
       </c>
       <c r="B332" t="n">
-        <v>1813696000000</v>
+        <v>1825805000000</v>
       </c>
       <c r="C332" t="n">
-        <v>1.647446457990115</v>
+        <v>1.671402306535183</v>
       </c>
       <c r="D332" t="n">
-        <v>2987967051070.84</v>
+        <v>3051654688283.47</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>39995</v>
+        <v>40026</v>
       </c>
       <c r="B333" t="n">
-        <v>1825789000000</v>
+        <v>1837996000000</v>
       </c>
       <c r="C333" t="n">
-        <v>1.671402306535183</v>
+        <v>1.628399283504315</v>
       </c>
       <c r="D333" t="n">
-        <v>3051627945846.565</v>
+        <v>2992991369483.797</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>40026</v>
+        <v>40057</v>
       </c>
       <c r="B334" t="n">
-        <v>1837957000000</v>
+        <v>1860489000000</v>
       </c>
       <c r="C334" t="n">
-        <v>1.628399283504315</v>
+        <v>1.601537475976938</v>
       </c>
       <c r="D334" t="n">
-        <v>2992927861911.741</v>
+        <v>2979642857142.857</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>40057</v>
+        <v>40087</v>
       </c>
       <c r="B335" t="n">
-        <v>1860645000000</v>
+        <v>1897866000000</v>
       </c>
       <c r="C335" t="n">
-        <v>1.601537475976938</v>
+        <v>1.645278051990786</v>
       </c>
       <c r="D335" t="n">
-        <v>2979892696989.11</v>
+        <v>3122517275419.546</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>40087</v>
+        <v>40118</v>
       </c>
       <c r="B336" t="n">
-        <v>1897982000000</v>
+        <v>1898769000000</v>
       </c>
       <c r="C336" t="n">
-        <v>1.645278051990786</v>
+        <v>1.645007402533311</v>
       </c>
       <c r="D336" t="n">
-        <v>3122708127673.577</v>
+        <v>3123489060700.773</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>40118</v>
+        <v>40148</v>
       </c>
       <c r="B337" t="n">
-        <v>1898826000000</v>
+        <v>1900621000000</v>
       </c>
       <c r="C337" t="n">
-        <v>1.645007402533311</v>
+        <v>1.616292225634395</v>
       </c>
       <c r="D337" t="n">
-        <v>3123582826122.718</v>
+        <v>3071958946177.469</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>40148</v>
+        <v>40179</v>
       </c>
       <c r="B338" t="n">
-        <v>1900656000000</v>
+        <v>2092454000000</v>
       </c>
       <c r="C338" t="n">
-        <v>1.616292225634395</v>
+        <v>1.600256040966555</v>
       </c>
       <c r="D338" t="n">
-        <v>3072015516405.366</v>
+        <v>3348462153944.631</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>40179</v>
+        <v>40210</v>
       </c>
       <c r="B339" t="n">
-        <v>2092623000000</v>
+        <v>2120088000000</v>
       </c>
       <c r="C339" t="n">
-        <v>1.600256040966555</v>
+        <v>1.524157902758726</v>
       </c>
       <c r="D339" t="n">
-        <v>3348732597215.555</v>
+        <v>3231348879743.941</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>40210</v>
+        <v>40238</v>
       </c>
       <c r="B340" t="n">
-        <v>2120132000000</v>
+        <v>2103917000000</v>
       </c>
       <c r="C340" t="n">
-        <v>1.524157902758726</v>
+        <v>1.519064256418047</v>
       </c>
       <c r="D340" t="n">
-        <v>3231415942691.663</v>
+        <v>3195985113170.287</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>40238</v>
+        <v>40269</v>
       </c>
       <c r="B341" t="n">
-        <v>2104225000000</v>
+        <v>2075206000000</v>
       </c>
       <c r="C341" t="n">
-        <v>1.519064256418047</v>
+        <v>1.527883880825057</v>
       </c>
       <c r="D341" t="n">
-        <v>3196452984961.264</v>
+        <v>3170673796791.444</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>40269</v>
+        <v>40299</v>
       </c>
       <c r="B342" t="n">
-        <v>2075222000000</v>
+        <v>2090963000000</v>
       </c>
       <c r="C342" t="n">
-        <v>1.527883880825057</v>
+        <v>1.453911020645537</v>
       </c>
       <c r="D342" t="n">
-        <v>3170698242933.537</v>
+        <v>3040074149462.053</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>40299</v>
+        <v>40330</v>
       </c>
       <c r="B343" t="n">
-        <v>2089615000000</v>
+        <v>2092986000000</v>
       </c>
       <c r="C343" t="n">
-        <v>1.453911020645537</v>
+        <v>1.494544911074578</v>
       </c>
       <c r="D343" t="n">
-        <v>3038114277406.223</v>
+        <v>3128061575250.336</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>40330</v>
+        <v>40360</v>
       </c>
       <c r="B344" t="n">
-        <v>2093060000000</v>
+        <v>2089620000000</v>
       </c>
       <c r="C344" t="n">
-        <v>1.494544911074578</v>
+        <v>1.569612305760477</v>
       </c>
       <c r="D344" t="n">
-        <v>3128172171573.755</v>
+        <v>3279893266363.208</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>40360</v>
+        <v>40391</v>
       </c>
       <c r="B345" t="n">
-        <v>2089590000000</v>
+        <v>2080822000000</v>
       </c>
       <c r="C345" t="n">
-        <v>1.569612305760477</v>
+        <v>1.535862386730149</v>
       </c>
       <c r="D345" t="n">
-        <v>3279846177994.036</v>
+        <v>3195856243280.602</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>40391</v>
+        <v>40422</v>
       </c>
       <c r="B346" t="n">
-        <v>2081045000000</v>
+        <v>2081684000000</v>
       </c>
       <c r="C346" t="n">
-        <v>1.535862386730149</v>
+        <v>1.571585730001572</v>
       </c>
       <c r="D346" t="n">
-        <v>3196198740592.843</v>
+        <v>3271544868772.592</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>40422</v>
+        <v>40452</v>
       </c>
       <c r="B347" t="n">
-        <v>2081775000000</v>
+        <v>2093123000000</v>
       </c>
       <c r="C347" t="n">
-        <v>1.571585730001572</v>
+        <v>1.604621309370988</v>
       </c>
       <c r="D347" t="n">
-        <v>3271687883074.022</v>
+        <v>3358669768934.531</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>40452</v>
+        <v>40483</v>
       </c>
       <c r="B348" t="n">
-        <v>2093324000000</v>
+        <v>2083491000000</v>
       </c>
       <c r="C348" t="n">
-        <v>1.604621309370988</v>
+        <v>1.556904873112253</v>
       </c>
       <c r="D348" t="n">
-        <v>3358992297817.715</v>
+        <v>3243797290985.521</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>40483</v>
+        <v>40513</v>
       </c>
       <c r="B349" t="n">
-        <v>2084027000000</v>
+        <v>2079505000000</v>
       </c>
       <c r="C349" t="n">
-        <v>1.556904873112253</v>
+        <v>1.561524047470331</v>
       </c>
       <c r="D349" t="n">
-        <v>3244631791997.509</v>
+        <v>3247197064334.791</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>40513</v>
+        <v>40544</v>
       </c>
       <c r="B350" t="n">
-        <v>2079662000000</v>
+        <v>2065671000000</v>
       </c>
       <c r="C350" t="n">
-        <v>1.561524047470331</v>
+        <v>1.601794009290405</v>
       </c>
       <c r="D350" t="n">
-        <v>3247442223610.244</v>
+        <v>3308779432964.921</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>40544</v>
+        <v>40575</v>
       </c>
       <c r="B351" t="n">
-        <v>2065737000000</v>
+        <v>2059742000000</v>
       </c>
       <c r="C351" t="n">
-        <v>1.601794009290405</v>
+        <v>1.626545217957059</v>
       </c>
       <c r="D351" t="n">
-        <v>3308885151369.534</v>
+        <v>3350263500325.309</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>40575</v>
+        <v>40603</v>
       </c>
       <c r="B352" t="n">
-        <v>2059607000000</v>
+        <v>2083321000000</v>
       </c>
       <c r="C352" t="n">
-        <v>1.626545217957059</v>
+        <v>1.604621309370988</v>
       </c>
       <c r="D352" t="n">
-        <v>3350043916720.885</v>
+        <v>3342941270860.077</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>40603</v>
+        <v>40634</v>
       </c>
       <c r="B353" t="n">
-        <v>2083557000000</v>
+        <v>2083903000000</v>
       </c>
       <c r="C353" t="n">
-        <v>1.604621309370988</v>
+        <v>1.671122994652406</v>
       </c>
       <c r="D353" t="n">
-        <v>3343319961489.088</v>
+        <v>3482458221925.133</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>40634</v>
+        <v>40664</v>
       </c>
       <c r="B354" t="n">
-        <v>2083933000000</v>
+        <v>2085957000000</v>
       </c>
       <c r="C354" t="n">
-        <v>1.671122994652406</v>
+        <v>1.645819618169849</v>
       </c>
       <c r="D354" t="n">
-        <v>3482508355614.973</v>
+        <v>3433108953258.723</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>40664</v>
+        <v>40695</v>
       </c>
       <c r="B355" t="n">
-        <v>2084349000000</v>
+        <v>2083059000000</v>
       </c>
       <c r="C355" t="n">
-        <v>1.645819618169849</v>
+        <v>1.604878831648211</v>
       </c>
       <c r="D355" t="n">
-        <v>3430462475312.706</v>
+        <v>3343057294174.29</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>40695</v>
+        <v>40725</v>
       </c>
       <c r="B356" t="n">
-        <v>2083095000000</v>
+        <v>2079175000000</v>
       </c>
       <c r="C356" t="n">
-        <v>1.604878831648211</v>
+        <v>1.642845408247084</v>
       </c>
       <c r="D356" t="n">
-        <v>3343115069812.229</v>
+        <v>3415763101692.13</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>40725</v>
+        <v>40756</v>
       </c>
       <c r="B357" t="n">
-        <v>2079274000000</v>
+        <v>2090266000000</v>
       </c>
       <c r="C357" t="n">
-        <v>1.642845408247084</v>
+        <v>1.626280696048138</v>
       </c>
       <c r="D357" t="n">
-        <v>3415925743387.547</v>
+        <v>3399359245405.757</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>40756</v>
+        <v>40787</v>
       </c>
       <c r="B358" t="n">
-        <v>2090532000000</v>
+        <v>2090956000000</v>
       </c>
       <c r="C358" t="n">
-        <v>1.626280696048138</v>
+        <v>1.559089491736826</v>
       </c>
       <c r="D358" t="n">
-        <v>3399791836070.906</v>
+        <v>3259987527284.066</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>40787</v>
+        <v>40817</v>
       </c>
       <c r="B359" t="n">
-        <v>2090991000000</v>
+        <v>2069753000000</v>
       </c>
       <c r="C359" t="n">
-        <v>1.559089491736826</v>
+        <v>1.608751608751609</v>
       </c>
       <c r="D359" t="n">
-        <v>3260042095416.277</v>
+        <v>3329718468468.468</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>40817</v>
+        <v>40848</v>
       </c>
       <c r="B360" t="n">
-        <v>2069799000000</v>
+        <v>2075063000000</v>
       </c>
       <c r="C360" t="n">
-        <v>1.608751608751609</v>
+        <v>1.571091908876669</v>
       </c>
       <c r="D360" t="n">
-        <v>3329792471042.471</v>
+        <v>3260114689709.349</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>40848</v>
+        <v>40878</v>
       </c>
       <c r="B361" t="n">
-        <v>2075668000000</v>
+        <v>2034653000000</v>
       </c>
       <c r="C361" t="n">
-        <v>1.571091908876669</v>
+        <v>1.555935895441108</v>
       </c>
       <c r="D361" t="n">
-        <v>3261065200314.219</v>
+        <v>3165789637466.936</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>40878</v>
+        <v>40909</v>
       </c>
       <c r="B362" t="n">
-        <v>2034688000000</v>
+        <v>2049488000000</v>
       </c>
       <c r="C362" t="n">
-        <v>1.555935895441108</v>
+        <v>1.576789656259855</v>
       </c>
       <c r="D362" t="n">
-        <v>3165844095223.277</v>
+        <v>3231611479028.697</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>40909</v>
+        <v>40940</v>
       </c>
       <c r="B363" t="n">
-        <v>2049989000000</v>
+        <v>2016287000000</v>
       </c>
       <c r="C363" t="n">
-        <v>1.576789656259855</v>
+        <v>1.592103168285305</v>
       </c>
       <c r="D363" t="n">
-        <v>3232401450646.484</v>
+        <v>3210136920872.473</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>40940</v>
+        <v>40969</v>
       </c>
       <c r="B364" t="n">
-        <v>2016377000000</v>
+        <v>2022805000000</v>
       </c>
       <c r="C364" t="n">
-        <v>1.592103168285305</v>
+        <v>1.602050624799744</v>
       </c>
       <c r="D364" t="n">
-        <v>3210280210157.618</v>
+        <v>3240636014098.045</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>40969</v>
+        <v>41000</v>
       </c>
       <c r="B365" t="n">
-        <v>2022884000000</v>
+        <v>2032819000000</v>
       </c>
       <c r="C365" t="n">
-        <v>1.602050624799744</v>
+        <v>1.624431448992852</v>
       </c>
       <c r="D365" t="n">
-        <v>3240762576097.405</v>
+        <v>3302175113710.201</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>41000</v>
+        <v>41030</v>
       </c>
       <c r="B366" t="n">
-        <v>2032569000000</v>
+        <v>2036780000000</v>
       </c>
       <c r="C366" t="n">
-        <v>1.624431448992852</v>
+        <v>1.541069502234551</v>
       </c>
       <c r="D366" t="n">
-        <v>3301769005847.953</v>
+        <v>3138819540761.288</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>41030</v>
+        <v>41061</v>
       </c>
       <c r="B367" t="n">
-        <v>2035395000000</v>
+        <v>2028086000000</v>
       </c>
       <c r="C367" t="n">
-        <v>1.541069502234551</v>
+        <v>1.570598397989634</v>
       </c>
       <c r="D367" t="n">
-        <v>3136685159500.693</v>
+        <v>3185308622585.205</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>41061</v>
+        <v>41091</v>
       </c>
       <c r="B368" t="n">
-        <v>2028016000000</v>
+        <v>2029012000000</v>
       </c>
       <c r="C368" t="n">
-        <v>1.570598397989634</v>
+        <v>1.568135486906069</v>
       </c>
       <c r="D368" t="n">
-        <v>3185198680697.345</v>
+        <v>3181765720558.256</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>41091</v>
+        <v>41122</v>
       </c>
       <c r="B369" t="n">
-        <v>2029297000000</v>
+        <v>2024836000000</v>
       </c>
       <c r="C369" t="n">
-        <v>1.568135486906069</v>
+        <v>1.587301587301587</v>
       </c>
       <c r="D369" t="n">
-        <v>3182212639172.024</v>
+        <v>3214025396825.396</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>41122</v>
+        <v>41153</v>
       </c>
       <c r="B370" t="n">
-        <v>2024977000000</v>
+        <v>2023351000000</v>
       </c>
       <c r="C370" t="n">
-        <v>1.587301587301587</v>
+        <v>1.617076326002588</v>
       </c>
       <c r="D370" t="n">
-        <v>3214249206349.206</v>
+        <v>3271913001293.662</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>41153</v>
+        <v>41183</v>
       </c>
       <c r="B371" t="n">
-        <v>2023200000000</v>
+        <v>2021667000000</v>
       </c>
       <c r="C371" t="n">
-        <v>1.617076326002588</v>
+        <v>1.613684040664838</v>
       </c>
       <c r="D371" t="n">
-        <v>3271668822768.435</v>
+        <v>3262331773438.761</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>41183</v>
+        <v>41214</v>
       </c>
       <c r="B372" t="n">
-        <v>2021961000000</v>
+        <v>2019753000000</v>
       </c>
       <c r="C372" t="n">
-        <v>1.613684040664838</v>
+        <v>1.602307322544464</v>
       </c>
       <c r="D372" t="n">
-        <v>3262806196546.716</v>
+        <v>3236265021631.149</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>41214</v>
+        <v>41244</v>
       </c>
       <c r="B373" t="n">
-        <v>2020136000000</v>
+        <v>2043190000000</v>
       </c>
       <c r="C373" t="n">
-        <v>1.602307322544464</v>
+        <v>1.626545217957059</v>
       </c>
       <c r="D373" t="n">
-        <v>3236878705335.683</v>
+        <v>3323340923877.684</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>41244</v>
+        <v>41275</v>
       </c>
       <c r="B374" t="n">
-        <v>2043137000000</v>
+        <v>2056215000000</v>
       </c>
       <c r="C374" t="n">
-        <v>1.626545217957059</v>
+        <v>1.586294416243655</v>
       </c>
       <c r="D374" t="n">
-        <v>3323254716981.132</v>
+        <v>3261762373096.447</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>41275</v>
+        <v>41306</v>
       </c>
       <c r="B375" t="n">
-        <v>2056674000000</v>
+        <v>2075694000000</v>
       </c>
       <c r="C375" t="n">
-        <v>1.586294416243655</v>
+        <v>1.516990291262136</v>
       </c>
       <c r="D375" t="n">
-        <v>3262490482233.503</v>
+        <v>3148807645631.068</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>41306</v>
+        <v>41334</v>
       </c>
       <c r="B376" t="n">
-        <v>2075622000000</v>
+        <v>2074495000000</v>
       </c>
       <c r="C376" t="n">
-        <v>1.516990291262136</v>
+        <v>1.521606816798539</v>
       </c>
       <c r="D376" t="n">
-        <v>3148698422330.097</v>
+        <v>3156565733414.486</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
-        <v>41334</v>
+        <v>41365</v>
       </c>
       <c r="B377" t="n">
-        <v>2074600000000</v>
+        <v>2079926000000</v>
       </c>
       <c r="C377" t="n">
-        <v>1.521606816798539</v>
+        <v>1.55448468832582</v>
       </c>
       <c r="D377" t="n">
-        <v>3156725502130.25</v>
+        <v>3233213119850.77</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
-        <v>41365</v>
+        <v>41395</v>
       </c>
       <c r="B378" t="n">
-        <v>2079867000000</v>
+        <v>2081316000000</v>
       </c>
       <c r="C378" t="n">
-        <v>1.55448468832582</v>
+        <v>1.520218911523259</v>
       </c>
       <c r="D378" t="n">
-        <v>3233121405254.159</v>
+        <v>3164055944055.944</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
-        <v>41395</v>
+        <v>41426</v>
       </c>
       <c r="B379" t="n">
-        <v>2080598000000</v>
+        <v>2086478000000</v>
       </c>
       <c r="C379" t="n">
-        <v>1.520218911523259</v>
+        <v>1.522533495736906</v>
       </c>
       <c r="D379" t="n">
-        <v>3162964426877.47</v>
+        <v>3176732643118.148</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
-        <v>41426</v>
+        <v>41456</v>
       </c>
       <c r="B380" t="n">
-        <v>2086463000000</v>
+        <v>2099995000000</v>
       </c>
       <c r="C380" t="n">
-        <v>1.522533495736906</v>
+        <v>1.519987840097279</v>
       </c>
       <c r="D380" t="n">
-        <v>3176709805115.712</v>
+        <v>3191966864265.085</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
-        <v>41456</v>
+        <v>41487</v>
       </c>
       <c r="B381" t="n">
-        <v>2100189000000</v>
+        <v>2105700000000</v>
       </c>
       <c r="C381" t="n">
-        <v>1.519987840097279</v>
+        <v>1.550868486352357</v>
       </c>
       <c r="D381" t="n">
-        <v>3192261741906.064</v>
+        <v>3265663771712.159</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
-        <v>41487</v>
+        <v>41518</v>
       </c>
       <c r="B382" t="n">
-        <v>2105684000000</v>
+        <v>2089626000000</v>
       </c>
       <c r="C382" t="n">
-        <v>1.550868486352357</v>
+        <v>1.619170984455959</v>
       </c>
       <c r="D382" t="n">
-        <v>3265638957816.377</v>
+        <v>3383461787564.767</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
-        <v>41518</v>
+        <v>41548</v>
       </c>
       <c r="B383" t="n">
-        <v>2089184000000</v>
+        <v>2104155000000</v>
       </c>
       <c r="C383" t="n">
-        <v>1.619170984455959</v>
+        <v>1.604621309370988</v>
       </c>
       <c r="D383" t="n">
-        <v>3382746113989.637</v>
+        <v>3376371951219.512</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
-        <v>41548</v>
+        <v>41579</v>
       </c>
       <c r="B384" t="n">
-        <v>2104033000000</v>
+        <v>2100629000000</v>
       </c>
       <c r="C384" t="n">
-        <v>1.604621309370988</v>
+        <v>1.637465203864418</v>
       </c>
       <c r="D384" t="n">
-        <v>3376176187419.769</v>
+        <v>3439706893728.508</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
-        <v>41579</v>
+        <v>41609</v>
       </c>
       <c r="B385" t="n">
-        <v>2100835000000</v>
+        <v>2078311000000</v>
       </c>
       <c r="C385" t="n">
-        <v>1.637465203864418</v>
+        <v>1.655629139072848</v>
       </c>
       <c r="D385" t="n">
-        <v>3440044211560.504</v>
+        <v>3440912251655.629</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
-        <v>41609</v>
+        <v>41640</v>
       </c>
       <c r="B386" t="n">
-        <v>2078521000000</v>
+        <v>2091895000000</v>
       </c>
       <c r="C386" t="n">
-        <v>1.655629139072848</v>
+        <v>1.64446637066272</v>
       </c>
       <c r="D386" t="n">
-        <v>3441259933774.834</v>
+        <v>3440050978457.491</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>41640</v>
+        <v>41671</v>
       </c>
       <c r="B387" t="n">
-        <v>2092490000000</v>
+        <v>2110365000000</v>
       </c>
       <c r="C387" t="n">
-        <v>1.64446637066272</v>
+        <v>1.674761346508123</v>
       </c>
       <c r="D387" t="n">
-        <v>3441029435948.035</v>
+        <v>3534357729023.614</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
-        <v>41671</v>
+        <v>41699</v>
       </c>
       <c r="B388" t="n">
-        <v>2110351000000</v>
+        <v>2083972000000</v>
       </c>
       <c r="C388" t="n">
-        <v>1.674761346508123</v>
+        <v>1.666944490748458</v>
       </c>
       <c r="D388" t="n">
-        <v>3534334282364.763</v>
+        <v>3473865644274.046</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
-        <v>41699</v>
+        <v>41730</v>
       </c>
       <c r="B389" t="n">
-        <v>2083894000000</v>
+        <v>2077754000000</v>
       </c>
       <c r="C389" t="n">
-        <v>1.666944490748458</v>
+        <v>1.688333614722269</v>
       </c>
       <c r="D389" t="n">
-        <v>3473735622603.767</v>
+        <v>3507941921323.653</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
-        <v>41730</v>
+        <v>41760</v>
       </c>
       <c r="B390" t="n">
-        <v>2077452000000</v>
+        <v>2072526000000</v>
       </c>
       <c r="C390" t="n">
-        <v>1.688333614722269</v>
+        <v>1.676164934629568</v>
       </c>
       <c r="D390" t="n">
-        <v>3507432044572.007</v>
+        <v>3473895407308.079</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>41760</v>
+        <v>41791</v>
       </c>
       <c r="B391" t="n">
-        <v>2072230000000</v>
+        <v>2063778000000</v>
       </c>
       <c r="C391" t="n">
-        <v>1.676164934629568</v>
+        <v>1.71174255391989</v>
       </c>
       <c r="D391" t="n">
-        <v>3473399262487.429</v>
+        <v>3532656624443.683</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
-        <v>41791</v>
+        <v>41821</v>
       </c>
       <c r="B392" t="n">
-        <v>2063644000000</v>
+        <v>2065115000000</v>
       </c>
       <c r="C392" t="n">
-        <v>1.71174255391989</v>
+        <v>1.689189189189189</v>
       </c>
       <c r="D392" t="n">
-        <v>3532427250941.458</v>
+        <v>3488369932432.433</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
-        <v>41821</v>
+        <v>41852</v>
       </c>
       <c r="B393" t="n">
-        <v>2065107000000</v>
+        <v>2065974000000</v>
       </c>
       <c r="C393" t="n">
-        <v>1.689189189189189</v>
+        <v>1.660577881102624</v>
       </c>
       <c r="D393" t="n">
-        <v>3488356418918.919</v>
+        <v>3430710727333.112</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>41852</v>
+        <v>41883</v>
       </c>
       <c r="B394" t="n">
-        <v>2066020000000</v>
+        <v>2073256000000</v>
       </c>
       <c r="C394" t="n">
-        <v>1.660577881102624</v>
+        <v>1.6220600162206</v>
       </c>
       <c r="D394" t="n">
-        <v>3430787113915.643</v>
+        <v>3362945660989.457</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>41883</v>
+        <v>41913</v>
       </c>
       <c r="B395" t="n">
-        <v>2073182000000</v>
+        <v>2061155000000</v>
       </c>
       <c r="C395" t="n">
-        <v>1.6220600162206</v>
+        <v>1.600256040966555</v>
       </c>
       <c r="D395" t="n">
-        <v>3362825628548.256</v>
+        <v>3298375740118.419</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>41913</v>
+        <v>41944</v>
       </c>
       <c r="B396" t="n">
-        <v>2060745000000</v>
+        <v>2068525000000</v>
       </c>
       <c r="C396" t="n">
-        <v>1.600256040966555</v>
+        <v>1.565680288085173</v>
       </c>
       <c r="D396" t="n">
-        <v>3297719635141.623</v>
+        <v>3238648817911.382</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>41944</v>
+        <v>41974</v>
       </c>
       <c r="B397" t="n">
-        <v>2068777000000</v>
+        <v>2080376000000</v>
       </c>
       <c r="C397" t="n">
-        <v>1.565680288085173</v>
+        <v>1.558360604643914</v>
       </c>
       <c r="D397" t="n">
-        <v>3239043369343.979</v>
+        <v>3241976001246.688</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>41974</v>
+        <v>42005</v>
       </c>
       <c r="B398" t="n">
-        <v>2080602000000</v>
+        <v>2073821000000</v>
       </c>
       <c r="C398" t="n">
-        <v>1.558360604643914</v>
+        <v>1.506250941406838</v>
       </c>
       <c r="D398" t="n">
-        <v>3242328190743.338</v>
+        <v>3123694833559.271</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>42005</v>
+        <v>42036</v>
       </c>
       <c r="B399" t="n">
-        <v>2074266000000</v>
+        <v>2070266000000</v>
       </c>
       <c r="C399" t="n">
-        <v>1.506250941406838</v>
+        <v>1.544401544401544</v>
       </c>
       <c r="D399" t="n">
-        <v>3124365115228.197</v>
+        <v>3197322007722.008</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
-        <v>42036</v>
+        <v>42064</v>
       </c>
       <c r="B400" t="n">
-        <v>2070057000000</v>
+        <v>2088245000000</v>
       </c>
       <c r="C400" t="n">
-        <v>1.544401544401544</v>
+        <v>1.483239394838327</v>
       </c>
       <c r="D400" t="n">
-        <v>3196999227799.228</v>
+        <v>3097367250074.162</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
-        <v>42064</v>
+        <v>42095</v>
       </c>
       <c r="B401" t="n">
-        <v>2088476000000</v>
+        <v>2093869000000</v>
       </c>
       <c r="C401" t="n">
-        <v>1.483239394838327</v>
+        <v>1.534801626889725</v>
       </c>
       <c r="D401" t="n">
-        <v>3097709878374.37</v>
+        <v>3213673547693.961</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
-        <v>42095</v>
+        <v>42125</v>
       </c>
       <c r="B402" t="n">
-        <v>2093493000000</v>
+        <v>2090426000000</v>
       </c>
       <c r="C402" t="n">
-        <v>1.534801626889725</v>
+        <v>1.528701368187724</v>
       </c>
       <c r="D402" t="n">
-        <v>3213096462282.25</v>
+        <v>3195637086295.192</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
-        <v>42125</v>
+        <v>42156</v>
       </c>
       <c r="B403" t="n">
-        <v>2090432000000</v>
+        <v>2088212000000</v>
       </c>
       <c r="C403" t="n">
-        <v>1.528701368187724</v>
+        <v>1.571388164304347</v>
       </c>
       <c r="D403" t="n">
-        <v>3195646258503.401</v>
+        <v>3281391621358.308</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
-        <v>42156</v>
+        <v>42186</v>
       </c>
       <c r="B404" t="n">
-        <v>2088479000000</v>
+        <v>2102039000000</v>
       </c>
       <c r="C404" t="n">
-        <v>1.571388164304347</v>
+        <v>1.562207086171343</v>
       </c>
       <c r="D404" t="n">
-        <v>3281811181998.177</v>
+        <v>3283820221208.523</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
-        <v>42186</v>
+        <v>42217</v>
       </c>
       <c r="B405" t="n">
-        <v>2102076000000</v>
+        <v>2103149000000</v>
       </c>
       <c r="C405" t="n">
-        <v>1.562207086171343</v>
+        <v>1.534589650727396</v>
       </c>
       <c r="D405" t="n">
-        <v>3283878022870.712</v>
+        <v>3227470689337.671</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
-        <v>42217</v>
+        <v>42248</v>
       </c>
       <c r="B406" t="n">
-        <v>2103201000000</v>
+        <v>2112023000000</v>
       </c>
       <c r="C406" t="n">
-        <v>1.534589650727396</v>
+        <v>1.512538947877908</v>
       </c>
       <c r="D406" t="n">
-        <v>3227550487999.509</v>
+        <v>3194517046313.943</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
-        <v>42248</v>
+        <v>42278</v>
       </c>
       <c r="B407" t="n">
-        <v>2111839000000</v>
+        <v>2124276000000</v>
       </c>
       <c r="C407" t="n">
-        <v>1.512538947877908</v>
+        <v>1.543519533239693</v>
       </c>
       <c r="D407" t="n">
-        <v>3194238739147.533</v>
+        <v>3278861499992.283</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="B408" t="n">
-        <v>2123379000000</v>
+        <v>2120902000000</v>
       </c>
       <c r="C408" t="n">
-        <v>1.543519533239693</v>
+        <v>1.505706628120577</v>
       </c>
       <c r="D408" t="n">
-        <v>3277476962970.967</v>
+        <v>3193456198994.188</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="B409" t="n">
-        <v>2120917000000</v>
+        <v>2132966000000</v>
       </c>
       <c r="C409" t="n">
-        <v>1.505706628120577</v>
+        <v>1.473600447974536</v>
       </c>
       <c r="D409" t="n">
-        <v>3193478784593.61</v>
+        <v>3143139653114.455</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
-        <v>42339</v>
+        <v>42370</v>
       </c>
       <c r="B410" t="n">
-        <v>2133161000000</v>
+        <v>2159029000000</v>
       </c>
       <c r="C410" t="n">
-        <v>1.473600447974536</v>
+        <v>1.424278246998333</v>
       </c>
       <c r="D410" t="n">
-        <v>3143427005201.81</v>
+        <v>3075058039338.565</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
-        <v>42370</v>
+        <v>42401</v>
       </c>
       <c r="B411" t="n">
-        <v>2159868000000</v>
+        <v>2181985000000</v>
       </c>
       <c r="C411" t="n">
-        <v>1.424278246998333</v>
+        <v>1.391594767603674</v>
       </c>
       <c r="D411" t="n">
-        <v>3076253008787.796</v>
+        <v>3036438908989.702</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
-        <v>42401</v>
+        <v>42430</v>
       </c>
       <c r="B412" t="n">
-        <v>2181858000000</v>
+        <v>2183306000000</v>
       </c>
       <c r="C412" t="n">
-        <v>1.391594767603674</v>
+        <v>1.436513294930545</v>
       </c>
       <c r="D412" t="n">
-        <v>3036262176454.216</v>
+        <v>3136348095901.627</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
-        <v>42430</v>
+        <v>42461</v>
       </c>
       <c r="B413" t="n">
-        <v>2183504000000</v>
+        <v>2177774000000</v>
       </c>
       <c r="C413" t="n">
-        <v>1.436513294930545</v>
+        <v>1.460984411296331</v>
       </c>
       <c r="D413" t="n">
-        <v>3136632525534.024</v>
+        <v>3181693865326.457</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
-        <v>42461</v>
+        <v>42491</v>
       </c>
       <c r="B414" t="n">
-        <v>2177010000000</v>
+        <v>2179951000000</v>
       </c>
       <c r="C414" t="n">
-        <v>1.460984411296331</v>
+        <v>1.448204949964519</v>
       </c>
       <c r="D414" t="n">
-        <v>3180577673236.227</v>
+        <v>3157015828880.104</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
-        <v>42491</v>
+        <v>42522</v>
       </c>
       <c r="B415" t="n">
-        <v>2180072000000</v>
+        <v>2245947000000</v>
       </c>
       <c r="C415" t="n">
-        <v>1.448204949964519</v>
+        <v>1.328762390709293</v>
       </c>
       <c r="D415" t="n">
-        <v>3157191061679.049</v>
+        <v>2984329905126.365</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
-        <v>42522</v>
+        <v>42552</v>
       </c>
       <c r="B416" t="n">
-        <v>2246217000000</v>
+        <v>2255327000000</v>
       </c>
       <c r="C416" t="n">
-        <v>1.328762390709293</v>
+        <v>1.323171377156769</v>
       </c>
       <c r="D416" t="n">
-        <v>2984688670971.857</v>
+        <v>2984184132528.845</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
-        <v>42552</v>
+        <v>42583</v>
       </c>
       <c r="B417" t="n">
-        <v>2255422000000</v>
+        <v>2269315000000</v>
       </c>
       <c r="C417" t="n">
-        <v>1.323171377156769</v>
+        <v>1.314008646176892</v>
       </c>
       <c r="D417" t="n">
-        <v>2984309833809.675</v>
+        <v>2981899530898.913</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
-        <v>42583</v>
+        <v>42614</v>
       </c>
       <c r="B418" t="n">
-        <v>2269525000000</v>
+        <v>2275788000000</v>
       </c>
       <c r="C418" t="n">
-        <v>1.314008646176892</v>
+        <v>1.297875378006204</v>
       </c>
       <c r="D418" t="n">
-        <v>2982175472714.61</v>
+        <v>2953689210761.982</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
-        <v>42614</v>
+        <v>42644</v>
       </c>
       <c r="B419" t="n">
-        <v>2275185000000</v>
+        <v>2290212000000</v>
       </c>
       <c r="C419" t="n">
-        <v>1.297875378006204</v>
+        <v>1.223945265167742</v>
       </c>
       <c r="D419" t="n">
-        <v>2952906591909.045</v>
+        <v>2803094133630.344</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
-        <v>42644</v>
+        <v>42675</v>
       </c>
       <c r="B420" t="n">
-        <v>2289715000000</v>
+        <v>2277591000000</v>
       </c>
       <c r="C420" t="n">
-        <v>1.223945265167742</v>
+        <v>1.250750450270162</v>
       </c>
       <c r="D420" t="n">
-        <v>2802485832833.556</v>
+        <v>2848697968781.269</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
-        <v>42675</v>
+        <v>42705</v>
       </c>
       <c r="B421" t="n">
-        <v>2277832000000</v>
+        <v>2280441000000</v>
       </c>
       <c r="C421" t="n">
-        <v>1.250750450270162</v>
+        <v>1.23449169804333</v>
       </c>
       <c r="D421" t="n">
-        <v>2848999399639.784</v>
+        <v>2815185482377.63</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="2" t="n">
-        <v>42705</v>
+        <v>42736</v>
       </c>
       <c r="B422" t="n">
-        <v>2280305000000</v>
+        <v>2281069000000</v>
       </c>
       <c r="C422" t="n">
-        <v>1.23449169804333</v>
+        <v>1.257940750990628</v>
       </c>
       <c r="D422" t="n">
-        <v>2815017591506.697</v>
+        <v>2869449650921.441</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
-        <v>42736</v>
+        <v>42767</v>
       </c>
       <c r="B423" t="n">
-        <v>2282011000000</v>
+        <v>2287213000000</v>
       </c>
       <c r="C423" t="n">
-        <v>1.257940750990628</v>
+        <v>1.238236750866766</v>
       </c>
       <c r="D423" t="n">
-        <v>2870634631108.875</v>
+        <v>2832111193660.228</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="2" t="n">
-        <v>42767</v>
+        <v>42795</v>
       </c>
       <c r="B424" t="n">
-        <v>2287466000000</v>
+        <v>2294876000000</v>
       </c>
       <c r="C424" t="n">
-        <v>1.238236750866766</v>
+        <v>1.254500520617716</v>
       </c>
       <c r="D424" t="n">
-        <v>2832424467558.197</v>
+        <v>2878923136753.102</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="2" t="n">
-        <v>42795</v>
+        <v>42826</v>
       </c>
       <c r="B425" t="n">
-        <v>2294949000000</v>
+        <v>2302031000000</v>
       </c>
       <c r="C425" t="n">
-        <v>1.254500520617716</v>
+        <v>1.295018065502014</v>
       </c>
       <c r="D425" t="n">
-        <v>2879014715291.107</v>
+        <v>2981171732345.666</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
-        <v>42826</v>
+        <v>42856</v>
       </c>
       <c r="B426" t="n">
-        <v>2301706000000</v>
+        <v>2309314000000</v>
       </c>
       <c r="C426" t="n">
-        <v>1.295018065502014</v>
+        <v>1.287316074715825</v>
       </c>
       <c r="D426" t="n">
-        <v>2980750851474.378</v>
+        <v>2972817033766.301</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
-        <v>42856</v>
+        <v>42887</v>
       </c>
       <c r="B427" t="n">
-        <v>2309386000000</v>
+        <v>2315432000000</v>
       </c>
       <c r="C427" t="n">
-        <v>1.287316074715825</v>
+        <v>1.302677001237543</v>
       </c>
       <c r="D427" t="n">
-        <v>2972909720523.68</v>
+        <v>3016260014329.447</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
-        <v>42887</v>
+        <v>42917</v>
       </c>
       <c r="B428" t="n">
-        <v>2315550000000</v>
+        <v>2310115000000</v>
       </c>
       <c r="C428" t="n">
-        <v>1.302677001237543</v>
+        <v>1.320742257148517</v>
       </c>
       <c r="D428" t="n">
-        <v>3016413730215.593</v>
+        <v>3051066499372.647</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
-        <v>42917</v>
+        <v>42948</v>
       </c>
       <c r="B429" t="n">
-        <v>2309957000000</v>
+        <v>2332390000000</v>
       </c>
       <c r="C429" t="n">
-        <v>1.320742257148517</v>
+        <v>1.292791395180474</v>
       </c>
       <c r="D429" t="n">
-        <v>3050857822096.018</v>
+        <v>3015293722204.985</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
-        <v>42948</v>
+        <v>42979</v>
       </c>
       <c r="B430" t="n">
-        <v>2332726000000</v>
+        <v>2338250000000</v>
       </c>
       <c r="C430" t="n">
-        <v>1.292791395180474</v>
+        <v>1.339764201500536</v>
       </c>
       <c r="D430" t="n">
-        <v>3015728100113.766</v>
+        <v>3132703644158.628</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
-        <v>42979</v>
+        <v>43009</v>
       </c>
       <c r="B431" t="n">
-        <v>2336880000000</v>
+        <v>2340053000000</v>
       </c>
       <c r="C431" t="n">
-        <v>1.339764201500536</v>
+        <v>1.328427009577959</v>
       </c>
       <c r="D431" t="n">
-        <v>3130868167202.573</v>
+        <v>3108589609043.931</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="n">
-        <v>43009</v>
+        <v>43040</v>
       </c>
       <c r="B432" t="n">
-        <v>2340379000000</v>
+        <v>2344861000000</v>
       </c>
       <c r="C432" t="n">
-        <v>1.328427009577959</v>
+        <v>1.352905364269769</v>
       </c>
       <c r="D432" t="n">
-        <v>3109022676249.053</v>
+        <v>3172375025366.976</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="n">
-        <v>43040</v>
+        <v>43070</v>
       </c>
       <c r="B433" t="n">
-        <v>2345208000000</v>
+        <v>2346041000000</v>
       </c>
       <c r="C433" t="n">
-        <v>1.352905364269769</v>
+        <v>1.351351351351351</v>
       </c>
       <c r="D433" t="n">
-        <v>3172844483528.377</v>
+        <v>3170325675675.676</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="2" t="n">
-        <v>43070</v>
+        <v>43101</v>
       </c>
       <c r="B434" t="n">
-        <v>2346342000000</v>
+        <v>2357338000000</v>
       </c>
       <c r="C434" t="n">
-        <v>1.351351351351351</v>
+        <v>1.419385973627809</v>
       </c>
       <c r="D434" t="n">
-        <v>3170732432432.432</v>
+        <v>3345972492299.832</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="n">
-        <v>43101</v>
+        <v>43132</v>
       </c>
       <c r="B435" t="n">
-        <v>2358144000000</v>
+        <v>2359089000000</v>
       </c>
       <c r="C435" t="n">
-        <v>1.419385973627809</v>
+        <v>1.376026860044308</v>
       </c>
       <c r="D435" t="n">
-        <v>3347116517394.575</v>
+        <v>3246169829235.067</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="n">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="B436" t="n">
-        <v>2359478000000</v>
+        <v>2347301000000</v>
       </c>
       <c r="C436" t="n">
-        <v>1.376026860044308</v>
+        <v>1.401600627917081</v>
       </c>
       <c r="D436" t="n">
-        <v>3246705103683.624</v>
+        <v>3289978555510.393</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="2" t="n">
-        <v>43160</v>
+        <v>43191</v>
       </c>
       <c r="B437" t="n">
-        <v>2346725000000</v>
+        <v>2351933000000</v>
       </c>
       <c r="C437" t="n">
-        <v>1.401600627917081</v>
+        <v>1.37680361273268</v>
       </c>
       <c r="D437" t="n">
-        <v>3289171233548.712</v>
+        <v>3238149851305.21</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="n">
-        <v>43191</v>
+        <v>43221</v>
       </c>
       <c r="B438" t="n">
-        <v>2351179000000</v>
+        <v>2372057000000</v>
       </c>
       <c r="C438" t="n">
-        <v>1.37680361273268</v>
+        <v>1.329469010077375</v>
       </c>
       <c r="D438" t="n">
-        <v>3237111741381.209</v>
+        <v>3153576271637.108</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="n">
-        <v>43221</v>
+        <v>43252</v>
       </c>
       <c r="B439" t="n">
-        <v>2371695000000</v>
+        <v>2371724000000</v>
       </c>
       <c r="C439" t="n">
-        <v>1.329469010077375</v>
+        <v>1.320620163228652</v>
       </c>
       <c r="D439" t="n">
-        <v>3153095003855.46</v>
+        <v>3132146536013.312</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="n">
-        <v>43252</v>
+        <v>43282</v>
       </c>
       <c r="B440" t="n">
-        <v>2370936000000</v>
+        <v>2371462000000</v>
       </c>
       <c r="C440" t="n">
-        <v>1.320620163228652</v>
+        <v>1.311733455761789</v>
       </c>
       <c r="D440" t="n">
-        <v>3131105887324.688</v>
+        <v>3110726044467.764</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="n">
-        <v>43282</v>
+        <v>43313</v>
       </c>
       <c r="B441" t="n">
-        <v>2372237000000</v>
+        <v>2374948000000</v>
       </c>
       <c r="C441" t="n">
-        <v>1.311733455761789</v>
+        <v>1.295706030215865</v>
       </c>
       <c r="D441" t="n">
-        <v>3111742637895.979</v>
+        <v>3077234445049.107</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="n">
-        <v>43313</v>
+        <v>43344</v>
       </c>
       <c r="B442" t="n">
-        <v>2375322000000</v>
+        <v>2388943000000</v>
       </c>
       <c r="C442" t="n">
-        <v>1.295706030215865</v>
+        <v>1.303237241307408</v>
       </c>
       <c r="D442" t="n">
-        <v>3077719039104.408</v>
+        <v>3113359484960.642</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="2" t="n">
-        <v>43344</v>
+        <v>43374</v>
       </c>
       <c r="B443" t="n">
-        <v>2387804000000</v>
+        <v>2416346000000</v>
       </c>
       <c r="C443" t="n">
-        <v>1.303237241307408</v>
+        <v>1.276959814074651</v>
       </c>
       <c r="D443" t="n">
-        <v>3111875097742.793</v>
+        <v>3085576738900.027</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="2" t="n">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B444" t="n">
-        <v>2417700000000</v>
+        <v>2414578000000</v>
       </c>
       <c r="C444" t="n">
-        <v>1.276959814074651</v>
+        <v>1.275152380709495</v>
       </c>
       <c r="D444" t="n">
-        <v>3087305742488.284</v>
+        <v>3078954885108.77</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B445" t="n">
-        <v>2415829000000</v>
+        <v>2414732000000</v>
       </c>
       <c r="C445" t="n">
-        <v>1.275152380709495</v>
+        <v>1.275705465122213</v>
       </c>
       <c r="D445" t="n">
-        <v>3080550100737.038</v>
+        <v>3080486809205.491</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="2" t="n">
-        <v>43435</v>
+        <v>43466</v>
       </c>
       <c r="B446" t="n">
-        <v>2415228000000</v>
+        <v>2407117000000</v>
       </c>
       <c r="C446" t="n">
-        <v>1.275705465122213</v>
+        <v>1.311114316057217</v>
       </c>
       <c r="D446" t="n">
-        <v>3081119559116.191</v>
+        <v>3156005559124.7</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="2" t="n">
-        <v>43466</v>
+        <v>43497</v>
       </c>
       <c r="B447" t="n">
-        <v>2408195000000</v>
+        <v>2403420000000</v>
       </c>
       <c r="C447" t="n">
-        <v>1.311114316057217</v>
+        <v>1.326277536837358</v>
       </c>
       <c r="D447" t="n">
-        <v>3157418940357.41</v>
+        <v>3187601957585.644</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="n">
-        <v>43497</v>
+        <v>43525</v>
       </c>
       <c r="B448" t="n">
-        <v>2404540000000</v>
+        <v>2415213000000</v>
       </c>
       <c r="C448" t="n">
-        <v>1.326277536837358</v>
+        <v>1.304597401241977</v>
       </c>
       <c r="D448" t="n">
-        <v>3189087388426.902</v>
+        <v>3150880603245.838</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="2" t="n">
-        <v>43525</v>
+        <v>43556</v>
       </c>
       <c r="B449" t="n">
-        <v>2415324000000</v>
+        <v>2415116000000</v>
       </c>
       <c r="C449" t="n">
-        <v>1.304597401241977</v>
+        <v>1.303322168206759</v>
       </c>
       <c r="D449" t="n">
-        <v>3151025413557.376</v>
+        <v>3147674221590.835</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="2" t="n">
-        <v>43556</v>
+        <v>43586</v>
       </c>
       <c r="B450" t="n">
-        <v>2414883000000</v>
+        <v>2405874000000</v>
       </c>
       <c r="C450" t="n">
-        <v>1.303322168206759</v>
+        <v>1.263839037460189</v>
       </c>
       <c r="D450" t="n">
-        <v>3147370547525.643</v>
+        <v>3040637480410.495</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="2" t="n">
-        <v>43586</v>
+        <v>43617</v>
       </c>
       <c r="B451" t="n">
-        <v>2405369000000</v>
+        <v>2415734000000</v>
       </c>
       <c r="C451" t="n">
-        <v>1.263839037460189</v>
+        <v>1.269132167423916</v>
       </c>
       <c r="D451" t="n">
-        <v>3039999241696.577</v>
+        <v>3065885727339.645</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="2" t="n">
-        <v>43617</v>
+        <v>43647</v>
       </c>
       <c r="B452" t="n">
-        <v>2415011000000</v>
+        <v>2417935000000</v>
       </c>
       <c r="C452" t="n">
-        <v>1.269132167423916</v>
+        <v>1.215199718073665</v>
       </c>
       <c r="D452" t="n">
-        <v>3064968144782.598</v>
+        <v>2938273930320.448</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="2" t="n">
-        <v>43647</v>
+        <v>43678</v>
       </c>
       <c r="B453" t="n">
-        <v>2419765000000</v>
+        <v>2429454000000</v>
       </c>
       <c r="C453" t="n">
-        <v>1.215199718073665</v>
+        <v>1.216130758379141</v>
       </c>
       <c r="D453" t="n">
-        <v>2940497745804.523</v>
+        <v>2954533735467.238</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="2" t="n">
-        <v>43678</v>
+        <v>43709</v>
       </c>
       <c r="B454" t="n">
-        <v>2430126000000</v>
+        <v>2429425000000</v>
       </c>
       <c r="C454" t="n">
-        <v>1.216130758379141</v>
+        <v>1.229316745752711</v>
       </c>
       <c r="D454" t="n">
-        <v>2955350975336.868</v>
+        <v>2986532835050.279</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="2" t="n">
-        <v>43709</v>
+        <v>43739</v>
       </c>
       <c r="B455" t="n">
-        <v>2427830000000</v>
+        <v>2419686000000</v>
       </c>
       <c r="C455" t="n">
-        <v>1.229316745752711</v>
+        <v>1.292874966062032</v>
       </c>
       <c r="D455" t="n">
-        <v>2984572074840.804</v>
+        <v>3128351455130.774</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="2" t="n">
-        <v>43739</v>
+        <v>43770</v>
       </c>
       <c r="B456" t="n">
-        <v>2422845000000</v>
+        <v>2430588000000</v>
       </c>
       <c r="C456" t="n">
-        <v>1.292874966062032</v>
+        <v>1.293560655059116</v>
       </c>
       <c r="D456" t="n">
-        <v>3132435647148.564</v>
+        <v>3144113005458.826</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="2" t="n">
-        <v>43770</v>
+        <v>43800</v>
       </c>
       <c r="B457" t="n">
-        <v>2431821000000</v>
+        <v>2446771000000</v>
       </c>
       <c r="C457" t="n">
-        <v>1.293560655059116</v>
+        <v>1.326154417420365</v>
       </c>
       <c r="D457" t="n">
-        <v>3145707965746.514</v>
+        <v>3244796170066.043</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="2" t="n">
-        <v>43800</v>
+        <v>43831</v>
       </c>
       <c r="B458" t="n">
-        <v>2447095000000</v>
+        <v>2456253000000</v>
       </c>
       <c r="C458" t="n">
-        <v>1.326154417420365</v>
+        <v>1.320515529262624</v>
       </c>
       <c r="D458" t="n">
-        <v>3245225844097.287</v>
+        <v>3243520230297.909</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="2" t="n">
-        <v>43831</v>
+        <v>43862</v>
       </c>
       <c r="B459" t="n">
-        <v>2455675000000</v>
+        <v>2481573000000</v>
       </c>
       <c r="C459" t="n">
-        <v>1.320515529262624</v>
+        <v>1.281640499839795</v>
       </c>
       <c r="D459" t="n">
-        <v>3242756972321.995</v>
+        <v>3180484460108.939</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="2" t="n">
-        <v>43862</v>
+        <v>43891</v>
       </c>
       <c r="B460" t="n">
-        <v>2480997000000</v>
+        <v>2603729000000</v>
       </c>
       <c r="C460" t="n">
-        <v>1.281640499839795</v>
+        <v>1.243471773190749</v>
       </c>
       <c r="D460" t="n">
-        <v>3179746235181.032</v>
+        <v>3237663516538.174</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="2" t="n">
-        <v>43891</v>
+        <v>43922</v>
       </c>
       <c r="B461" t="n">
-        <v>2602223000000</v>
+        <v>2639671000000</v>
       </c>
       <c r="C461" t="n">
-        <v>1.243471773190749</v>
+        <v>1.259556887886841</v>
       </c>
       <c r="D461" t="n">
-        <v>3235790848047.749</v>
+        <v>3324815789805.146</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="2" t="n">
-        <v>43922</v>
+        <v>43952</v>
       </c>
       <c r="B462" t="n">
-        <v>2637679000000</v>
+        <v>2682569000000</v>
       </c>
       <c r="C462" t="n">
-        <v>1.259556887886841</v>
+        <v>1.235177865612648</v>
       </c>
       <c r="D462" t="n">
-        <v>3322306752484.476</v>
+        <v>3313449851778.656</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="2" t="n">
-        <v>43952</v>
+        <v>43983</v>
       </c>
       <c r="B463" t="n">
-        <v>2678816000000</v>
+        <v>2700238000000</v>
       </c>
       <c r="C463" t="n">
-        <v>1.235177865612648</v>
+        <v>1.240110121778814</v>
       </c>
       <c r="D463" t="n">
-        <v>3308814229249.012</v>
+        <v>3348592475011.781</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="2" t="n">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="B464" t="n">
-        <v>2698296000000</v>
+        <v>2715572000000</v>
       </c>
       <c r="C464" t="n">
-        <v>1.240110121778814</v>
+        <v>1.308335404864391</v>
       </c>
       <c r="D464" t="n">
-        <v>3346184181155.287</v>
+        <v>3552878992058.404</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="2" t="n">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="B465" t="n">
-        <v>2718664000000</v>
+        <v>2719296000000</v>
       </c>
       <c r="C465" t="n">
-        <v>1.308335404864391</v>
+        <v>1.336630354875359</v>
       </c>
       <c r="D465" t="n">
-        <v>3556924365130.245</v>
+        <v>3634693577491.145</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="2" t="n">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="B466" t="n">
-        <v>2721942000000</v>
+        <v>2729471000000</v>
       </c>
       <c r="C466" t="n">
-        <v>1.336630354875359</v>
+        <v>1.291972971925427</v>
       </c>
       <c r="D466" t="n">
-        <v>3638230301410.145</v>
+        <v>3526402759654.268</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="2" t="n">
-        <v>44075</v>
+        <v>44105</v>
       </c>
       <c r="B467" t="n">
-        <v>2729344000000</v>
+        <v>2757371000000</v>
       </c>
       <c r="C467" t="n">
-        <v>1.291972971925427</v>
+        <v>1.29510192452146</v>
       </c>
       <c r="D467" t="n">
-        <v>3526238679086.833</v>
+        <v>3571076488719.662</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="2" t="n">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B468" t="n">
-        <v>2763331000000</v>
+        <v>2769783000000</v>
       </c>
       <c r="C468" t="n">
-        <v>1.29510192452146</v>
+        <v>1.332480545784031</v>
       </c>
       <c r="D468" t="n">
-        <v>3578795296189.81</v>
+        <v>3690681963543.332</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="2" t="n">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B469" t="n">
-        <v>2774261000000</v>
+        <v>2811114000000</v>
       </c>
       <c r="C469" t="n">
-        <v>1.332480545784031</v>
+        <v>1.366288204833928</v>
       </c>
       <c r="D469" t="n">
-        <v>3696648811427.353</v>
+        <v>3840791900643.522</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="2" t="n">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="B470" t="n">
-        <v>2813606000000</v>
+        <v>2821294000000</v>
       </c>
       <c r="C470" t="n">
-        <v>1.366288204833928</v>
+        <v>1.370050691875599</v>
       </c>
       <c r="D470" t="n">
-        <v>3844196690849.968</v>
+        <v>3865315796684.478</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="n">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B471" t="n">
-        <v>2819716000000</v>
+        <v>2842039000000</v>
       </c>
       <c r="C471" t="n">
-        <v>1.370050691875599</v>
+        <v>1.392079070091181</v>
       </c>
       <c r="D471" t="n">
-        <v>3863153856692.698</v>
+        <v>3956343008282.871</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="2" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B472" t="n">
-        <v>2841646000000</v>
+        <v>2858641000000</v>
       </c>
       <c r="C472" t="n">
-        <v>1.392079070091181</v>
+        <v>1.378169790518192</v>
       </c>
       <c r="D472" t="n">
-        <v>3955795921208.325</v>
+        <v>3939692668136.714</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="2" t="n">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B473" t="n">
-        <v>2855530000000</v>
+        <v>2875661000000</v>
       </c>
       <c r="C473" t="n">
-        <v>1.378169790518192</v>
+        <v>1.381654392970142</v>
       </c>
       <c r="D473" t="n">
-        <v>3935405181918.412</v>
+        <v>3973169653342.913</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="n">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B474" t="n">
-        <v>2871786000000</v>
+        <v>2871100000000</v>
       </c>
       <c r="C474" t="n">
-        <v>1.381654392970142</v>
+        <v>1.420555437175936</v>
       </c>
       <c r="D474" t="n">
-        <v>3967815742570.153</v>
+        <v>4078556715675.83</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="2" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B475" t="n">
-        <v>2864727000000</v>
+        <v>2887669000000</v>
       </c>
       <c r="C475" t="n">
-        <v>1.420555437175936</v>
+        <v>1.382934587194026</v>
       </c>
       <c r="D475" t="n">
-        <v>4069503515874.708</v>
+        <v>3993457336467.985</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="2" t="n">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B476" t="n">
-        <v>2885838000000</v>
+        <v>2891958000000</v>
       </c>
       <c r="C476" t="n">
-        <v>1.382934587194026</v>
+        <v>1.390607834684541</v>
       </c>
       <c r="D476" t="n">
-        <v>3990925183238.833</v>
+        <v>4021579452378.634</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B477" t="n">
-        <v>2894990000000</v>
+        <v>2890725000000</v>
       </c>
       <c r="C477" t="n">
-        <v>1.390607834684541</v>
+        <v>1.375459059461095</v>
       </c>
       <c r="D477" t="n">
-        <v>4025795775333.398</v>
+        <v>3976073889660.674</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B478" t="n">
-        <v>2897494000000</v>
+        <v>2933914000000</v>
       </c>
       <c r="C478" t="n">
-        <v>1.375459059461095</v>
+        <v>1.347745222243187</v>
       </c>
       <c r="D478" t="n">
-        <v>3985384372034.167</v>
+        <v>3954168575972.398</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B479" t="n">
-        <v>2937600000000</v>
+        <v>2946119000000</v>
       </c>
       <c r="C479" t="n">
-        <v>1.347745222243187</v>
+        <v>1.370275973581079</v>
       </c>
       <c r="D479" t="n">
-        <v>3959136364861.586</v>
+        <v>4036996081010.715</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B480" t="n">
-        <v>2958555000000</v>
+        <v>2967796000000</v>
       </c>
       <c r="C480" t="n">
-        <v>1.370275973581079</v>
+        <v>1.330353341847595</v>
       </c>
       <c r="D480" t="n">
-        <v>4054036833018.17</v>
+        <v>3948217326521.924</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B481" t="n">
-        <v>2977539000000</v>
+        <v>2979644000000</v>
       </c>
       <c r="C481" t="n">
-        <v>1.330353341847595</v>
+        <v>1.353473011748146</v>
       </c>
       <c r="D481" t="n">
-        <v>3961178959131.545</v>
+        <v>4032867738617.292</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B482" t="n">
-        <v>2983868000000</v>
+        <v>2970964000000</v>
       </c>
       <c r="C482" t="n">
-        <v>1.353473011748146</v>
+        <v>1.344501660459551</v>
       </c>
       <c r="D482" t="n">
-        <v>4038584808618.916</v>
+        <v>3994466031165.548</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B483" t="n">
-        <v>2973269000000</v>
+        <v>2986940000000</v>
       </c>
       <c r="C483" t="n">
-        <v>1.344501660459551</v>
+        <v>1.34197565656159</v>
       </c>
       <c r="D483" t="n">
-        <v>3997565107492.907</v>
+        <v>4008400767610.075</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B484" t="n">
-        <v>2993506000000</v>
+        <v>3032968000000</v>
       </c>
       <c r="C484" t="n">
-        <v>1.34197565656159</v>
+        <v>1.313905057220565</v>
       </c>
       <c r="D484" t="n">
-        <v>4017212179771.059</v>
+        <v>3985031993588.144</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B485" t="n">
-        <v>3031444000000</v>
+        <v>3040741000000</v>
       </c>
       <c r="C485" t="n">
-        <v>1.313905057220565</v>
+        <v>1.257308103350726</v>
       </c>
       <c r="D485" t="n">
-        <v>3983029602280.939</v>
+        <v>3823148299490.79</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B486" t="n">
-        <v>3037813000000</v>
+        <v>3041169000000</v>
       </c>
       <c r="C486" t="n">
-        <v>1.257308103350726</v>
+        <v>1.260112402026261</v>
       </c>
       <c r="D486" t="n">
-        <v>3819466901364.179</v>
+        <v>3832214773557.802</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B487" t="n">
-        <v>3038313000000</v>
+        <v>3068315000000</v>
       </c>
       <c r="C487" t="n">
-        <v>1.260112402026261</v>
+        <v>1.217626359175424</v>
       </c>
       <c r="D487" t="n">
-        <v>3828615892537.615</v>
+        <v>3736061222253.339</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B488" t="n">
-        <v>3070326000000</v>
+        <v>3076270000000</v>
       </c>
       <c r="C488" t="n">
-        <v>1.217626359175424</v>
+        <v>1.218011960877456</v>
       </c>
       <c r="D488" t="n">
-        <v>3738509868861.641</v>
+        <v>3746933654888.491</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B489" t="n">
-        <v>3082372000000</v>
+        <v>3105687000000</v>
       </c>
       <c r="C489" t="n">
-        <v>1.218011960877456</v>
+        <v>1.161750525692113</v>
       </c>
       <c r="D489" t="n">
-        <v>3754365963873.765</v>
+        <v>3608033504885.161</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B490" t="n">
-        <v>3112903000000</v>
+        <v>3218141000000</v>
       </c>
       <c r="C490" t="n">
-        <v>1.161750525692113</v>
+        <v>1.116769409452336</v>
       </c>
       <c r="D490" t="n">
-        <v>3616416696678.555</v>
+        <v>3593921424104.351</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B491" t="n">
-        <v>3213819000000</v>
+        <v>3099604000000</v>
       </c>
       <c r="C491" t="n">
-        <v>1.116769409452336</v>
+        <v>1.146920518408074</v>
       </c>
       <c r="D491" t="n">
-        <v>3589094746716.698</v>
+        <v>3554999426539.741</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B492" t="n">
-        <v>3133801000000</v>
+        <v>3096278000000</v>
       </c>
       <c r="C492" t="n">
-        <v>1.146920518408074</v>
+        <v>1.2059234962134</v>
       </c>
       <c r="D492" t="n">
-        <v>3594220667507.742</v>
+        <v>3733874391008.634</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B493" t="n">
-        <v>3097634000000</v>
+        <v>3068065000000</v>
       </c>
       <c r="C493" t="n">
-        <v>1.2059234962134</v>
+        <v>1.209643276197849</v>
       </c>
       <c r="D493" t="n">
-        <v>3735509623269.5</v>
+        <v>3711264198187.955</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B494" t="n">
-        <v>3066368000000</v>
+        <v>3095353000000</v>
       </c>
       <c r="C494" t="n">
-        <v>1.209643276197849</v>
+        <v>1.23164843826978</v>
       </c>
       <c r="D494" t="n">
-        <v>3709211433548.247</v>
+        <v>3812386688343.679</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
-        <v>44927</v>
+        <v>44958</v>
       </c>
       <c r="B495" t="n">
-        <v>3097286000000</v>
+        <v>3096698000000</v>
       </c>
       <c r="C495" t="n">
-        <v>1.23164843826978</v>
+        <v>1.20225543118891</v>
       </c>
       <c r="D495" t="n">
-        <v>3814767464774.855</v>
+        <v>3723021989251.836</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B496" t="n">
-        <v>3100990000000</v>
+        <v>3071723000000</v>
       </c>
       <c r="C496" t="n">
-        <v>1.20225543118891</v>
+        <v>1.233486696845975</v>
       </c>
       <c r="D496" t="n">
-        <v>3728182069562.5</v>
+        <v>3788929456895.808</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B497" t="n">
-        <v>3074346000000</v>
+        <v>3060169000000</v>
       </c>
       <c r="C497" t="n">
-        <v>1.233486696845975</v>
+        <v>1.256644507835178</v>
       </c>
       <c r="D497" t="n">
-        <v>3792164892501.634</v>
+        <v>3845544566897.47</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B498" t="n">
-        <v>3060169000000</v>
+        <v>3058913000000</v>
       </c>
       <c r="C498" t="n">
-        <v>1.256644507835178</v>
+        <v>1.243873920939374</v>
       </c>
       <c r="D498" t="n">
-        <v>3845544566897.47</v>
+        <v>3804902107122.422</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B499" t="n">
-        <v>3061343000000</v>
+        <v>3045763000000</v>
       </c>
       <c r="C499" t="n">
-        <v>1.243873920939374</v>
+        <v>1.269938027024281</v>
       </c>
       <c r="D499" t="n">
-        <v>3807924720750.305</v>
+        <v>3867930255003.556</v>
       </c>
     </row>
   </sheetData>

--- a/Global_M2/TVDataFeed/FinalData/United Kingdom.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/United Kingdom.xlsx
@@ -458,6738 +458,6750 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>29952</v>
+        <v>30042</v>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>1.883593897155773</v>
+        <v>1.79694512859137</v>
       </c>
       <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>29983</v>
+        <v>30072</v>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>1.82248958711462</v>
+        <v>1.793078780458267</v>
       </c>
       <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>30011</v>
+        <v>30103</v>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>1.783166840828572</v>
+        <v>1.743071261232852</v>
       </c>
       <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>30042</v>
+        <v>30133</v>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>1.79694512859137</v>
+        <v>1.740643977697338</v>
       </c>
       <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>30072</v>
+        <v>30164</v>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>1.793078780458267</v>
+        <v>1.717327808392104</v>
       </c>
       <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>30103</v>
+        <v>30195</v>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>1.743071261232852</v>
+        <v>1.694628057865244</v>
       </c>
       <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>30133</v>
+        <v>30225</v>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>1.740643977697338</v>
+        <v>1.67644599082803</v>
       </c>
       <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>30164</v>
+        <v>30256</v>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>1.717327808392104</v>
+        <v>1.61472627781808</v>
       </c>
       <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>30195</v>
+        <v>30286</v>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>1.694628057865244</v>
+        <v>1.617599482368166</v>
       </c>
       <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>30225</v>
+        <v>30317</v>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>1.67644599082803</v>
+        <v>1.525320294000606</v>
       </c>
       <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>30256</v>
+        <v>30348</v>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>1.61472627781808</v>
+        <v>1.515610814119594</v>
       </c>
       <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>30286</v>
+        <v>30376</v>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>1.617599482368166</v>
+        <v>1.481700992739665</v>
       </c>
       <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>30317</v>
+        <v>30407</v>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
-        <v>1.525320294000606</v>
+        <v>1.562011822492602</v>
       </c>
       <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>30348</v>
+        <v>30437</v>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="n">
-        <v>1.515610814119594</v>
+        <v>1.606167632310709</v>
       </c>
       <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>30376</v>
+        <v>30468</v>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="n">
-        <v>1.481700992739665</v>
+        <v>1.534683855125844</v>
       </c>
       <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>30407</v>
+        <v>30498</v>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="n">
-        <v>1.562011822492602</v>
+        <v>1.520450053215752</v>
       </c>
       <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>30437</v>
+        <v>30529</v>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="n">
-        <v>1.606167632310709</v>
+        <v>1.493652001398835</v>
       </c>
       <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>30468</v>
+        <v>30560</v>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="n">
-        <v>1.534683855125844</v>
+        <v>1.49499175519522</v>
       </c>
       <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>30498</v>
+        <v>30590</v>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="n">
-        <v>1.520450053215752</v>
+        <v>1.494321578003586</v>
       </c>
       <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>30529</v>
+        <v>30621</v>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="n">
-        <v>1.493652001398835</v>
+        <v>1.466490644772235</v>
       </c>
       <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>30560</v>
+        <v>30651</v>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="n">
-        <v>1.49499175519522</v>
+        <v>1.452010993117149</v>
       </c>
       <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>30590</v>
+        <v>30682</v>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="n">
-        <v>1.494321578003586</v>
+        <v>1.403311835578331</v>
       </c>
       <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>30621</v>
+        <v>30713</v>
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="n">
-        <v>1.466490644772235</v>
+        <v>1.491424354703187</v>
       </c>
       <c r="D24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>30651</v>
+        <v>30742</v>
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="n">
-        <v>1.452010993117149</v>
+        <v>1.441545295039778</v>
       </c>
       <c r="D25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>30682</v>
+        <v>30773</v>
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="n">
-        <v>1.403311835578331</v>
+        <v>1.396258047979029</v>
       </c>
       <c r="D26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>30713</v>
+        <v>30803</v>
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="n">
-        <v>1.491424354703187</v>
+        <v>1.386577944905407</v>
       </c>
       <c r="D27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>30742</v>
+        <v>30834</v>
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="n">
-        <v>1.441545295039778</v>
+        <v>1.356300050353996</v>
       </c>
       <c r="D28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>30773</v>
+        <v>30864</v>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="n">
-        <v>1.396258047979029</v>
+        <v>1.310959656815932</v>
       </c>
       <c r="D29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>30803</v>
+        <v>30895</v>
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="n">
-        <v>1.386577944905407</v>
+        <v>1.309757729135762</v>
       </c>
       <c r="D30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>30834</v>
+        <v>30926</v>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="n">
-        <v>1.356300050353996</v>
+        <v>1.238696936901905</v>
       </c>
       <c r="D31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>30864</v>
+        <v>30956</v>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="n">
-        <v>1.310959656815932</v>
+        <v>1.216693013545529</v>
       </c>
       <c r="D32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>30895</v>
+        <v>30987</v>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="n">
-        <v>1.309757729135762</v>
+        <v>1.203659123736158</v>
       </c>
       <c r="D33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>30926</v>
+        <v>31017</v>
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="n">
-        <v>1.238696936901905</v>
+        <v>1.157943465540911</v>
       </c>
       <c r="D34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>30956</v>
+        <v>31048</v>
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="n">
-        <v>1.216693013545529</v>
+        <v>1.12968818053122</v>
       </c>
       <c r="D35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>30987</v>
+        <v>31079</v>
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="n">
-        <v>1.203659123736158</v>
+        <v>1.08201687946332</v>
       </c>
       <c r="D36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>31017</v>
+        <v>31107</v>
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="n">
-        <v>1.157943465540911</v>
+        <v>1.230012269864397</v>
       </c>
       <c r="D37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>31048</v>
+        <v>31138</v>
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="n">
-        <v>1.12968818053122</v>
+        <v>1.238543488215798</v>
       </c>
       <c r="D38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>31079</v>
+        <v>31168</v>
       </c>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="n">
-        <v>1.08201687946332</v>
+        <v>1.286504567091213</v>
       </c>
       <c r="D39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>31107</v>
+        <v>31199</v>
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="n">
-        <v>1.230012269864397</v>
+        <v>1.311991603253739</v>
       </c>
       <c r="D40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>31138</v>
+        <v>31229</v>
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="n">
-        <v>1.238543488215798</v>
+        <v>1.416029453412631</v>
       </c>
       <c r="D41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>31168</v>
+        <v>31260</v>
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="n">
-        <v>1.286504567091213</v>
+        <v>1.396453048357857</v>
       </c>
       <c r="D42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>31199</v>
+        <v>31291</v>
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="n">
-        <v>1.311991603253739</v>
+        <v>1.407063498158534</v>
       </c>
       <c r="D43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>31229</v>
+        <v>31321</v>
       </c>
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="n">
-        <v>1.416029453412631</v>
+        <v>1.445086767850582</v>
       </c>
       <c r="D44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>31260</v>
+        <v>31352</v>
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="n">
-        <v>1.396453048357857</v>
+        <v>1.490312965722802</v>
       </c>
       <c r="D45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>31291</v>
+        <v>31382</v>
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="n">
-        <v>1.407063498158534</v>
+        <v>1.445504481063891</v>
       </c>
       <c r="D46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>31321</v>
+        <v>31413</v>
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="n">
-        <v>1.445086767850582</v>
+        <v>1.408649065821973</v>
       </c>
       <c r="D47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>31352</v>
+        <v>31444</v>
       </c>
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="n">
-        <v>1.490312965722802</v>
+        <v>1.450536656497341</v>
       </c>
       <c r="D48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>31382</v>
+        <v>31472</v>
       </c>
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="n">
-        <v>1.445504481063891</v>
+        <v>1.477978169612124</v>
       </c>
       <c r="D49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>31413</v>
+        <v>31503</v>
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="n">
-        <v>1.408649065821973</v>
+        <v>1.553518719900575</v>
       </c>
       <c r="D50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>31444</v>
+        <v>31533</v>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="n">
-        <v>1.450536656497341</v>
+        <v>1.472537224931151</v>
       </c>
       <c r="D51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>31472</v>
+        <v>31564</v>
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>1.477978169612124</v>
+        <v>1.533507060258838</v>
       </c>
       <c r="D52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>31503</v>
+        <v>31594</v>
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="n">
-        <v>1.553518719900575</v>
+        <v>1.492091935125216</v>
       </c>
       <c r="D53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>31533</v>
+        <v>31625</v>
       </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="n">
-        <v>1.472537224931151</v>
+        <v>1.487431250555741</v>
       </c>
       <c r="D54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>31564</v>
+        <v>31656</v>
       </c>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="n">
-        <v>1.533507060258838</v>
+        <v>1.447596968042893</v>
       </c>
       <c r="D55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>31594</v>
+        <v>31686</v>
       </c>
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="n">
-        <v>1.492091935125216</v>
+        <v>1.408450743900021</v>
       </c>
       <c r="D56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>31625</v>
+        <v>31717</v>
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="n">
-        <v>1.487431250555741</v>
+        <v>1.437194575493036</v>
       </c>
       <c r="D57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>31656</v>
-      </c>
-      <c r="B58" t="inlineStr"/>
+        <v>31747</v>
+      </c>
+      <c r="B58" t="n">
+        <v>167337000000</v>
+      </c>
       <c r="C58" t="n">
-        <v>1.447596968042893</v>
-      </c>
-      <c r="D58" t="inlineStr"/>
+        <v>1.483679481196454</v>
+      </c>
+      <c r="D58" t="n">
+        <v>248274473344.9711</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>31686</v>
-      </c>
-      <c r="B59" t="inlineStr"/>
+        <v>31778</v>
+      </c>
+      <c r="B59" t="n">
+        <v>256330000000</v>
+      </c>
       <c r="C59" t="n">
-        <v>1.408450743900021</v>
-      </c>
-      <c r="D59" t="inlineStr"/>
+        <v>1.51446307695099</v>
+      </c>
+      <c r="D59" t="n">
+        <v>388202320514.8472</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>31717</v>
-      </c>
-      <c r="B60" t="inlineStr"/>
+        <v>31809</v>
+      </c>
+      <c r="B60" t="n">
+        <v>259350000000</v>
+      </c>
       <c r="C60" t="n">
-        <v>1.437194575493036</v>
-      </c>
-      <c r="D60" t="inlineStr"/>
+        <v>1.546551166926212</v>
+      </c>
+      <c r="D60" t="n">
+        <v>401098045142.313</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>31747</v>
+        <v>31837</v>
       </c>
       <c r="B61" t="n">
-        <v>167337000000</v>
+        <v>263526000000</v>
       </c>
       <c r="C61" t="n">
-        <v>1.483679481196454</v>
+        <v>1.604106589867176</v>
       </c>
       <c r="D61" t="n">
-        <v>248274473344.9711</v>
+        <v>422723793201.3375</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>31778</v>
+        <v>31868</v>
       </c>
       <c r="B62" t="n">
-        <v>256330000000</v>
+        <v>267779000000</v>
       </c>
       <c r="C62" t="n">
-        <v>1.51446307695099</v>
+        <v>1.660577963828195</v>
       </c>
       <c r="D62" t="n">
-        <v>388202320514.8472</v>
+        <v>444667906575.9502</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>31809</v>
+        <v>31898</v>
       </c>
       <c r="B63" t="n">
-        <v>259350000000</v>
+        <v>270683000000</v>
       </c>
       <c r="C63" t="n">
-        <v>1.546551166926212</v>
+        <v>1.62813415825464</v>
       </c>
       <c r="D63" t="n">
-        <v>401098045142.313</v>
+        <v>440708238358.8408</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>31837</v>
+        <v>31929</v>
       </c>
       <c r="B64" t="n">
-        <v>263525000000</v>
+        <v>272668000000</v>
       </c>
       <c r="C64" t="n">
-        <v>1.604106589867176</v>
+        <v>1.612383154220676</v>
       </c>
       <c r="D64" t="n">
-        <v>422722189094.7476</v>
+        <v>439645289895.0432</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>31868</v>
+        <v>31959</v>
       </c>
       <c r="B65" t="n">
-        <v>267778000000</v>
+        <v>277415000000</v>
       </c>
       <c r="C65" t="n">
-        <v>1.660577963828195</v>
+        <v>1.593117807541077</v>
       </c>
       <c r="D65" t="n">
-        <v>444666245997.9863</v>
+        <v>441954776579.0079</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>31898</v>
+        <v>31990</v>
       </c>
       <c r="B66" t="n">
-        <v>270680000000</v>
+        <v>280138000000</v>
       </c>
       <c r="C66" t="n">
-        <v>1.62813415825464</v>
+        <v>1.630523318252569</v>
       </c>
       <c r="D66" t="n">
-        <v>440703353956.366</v>
+        <v>456771541328.6381</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>31929</v>
+        <v>32021</v>
       </c>
       <c r="B67" t="n">
-        <v>272668000000</v>
+        <v>281171000000</v>
       </c>
       <c r="C67" t="n">
-        <v>1.612383154220676</v>
+        <v>1.628929766591794</v>
       </c>
       <c r="D67" t="n">
-        <v>439645289895.0432</v>
+        <v>458007811402.3813</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>31959</v>
+        <v>32051</v>
       </c>
       <c r="B68" t="n">
-        <v>277412000000</v>
+        <v>287007000000</v>
       </c>
       <c r="C68" t="n">
-        <v>1.593117807541077</v>
+        <v>1.722949719554613</v>
       </c>
       <c r="D68" t="n">
-        <v>441949997225.5853</v>
+        <v>494498630160.2108</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>31990</v>
+        <v>32082</v>
       </c>
       <c r="B69" t="n">
-        <v>280135000000</v>
+        <v>289314000000</v>
       </c>
       <c r="C69" t="n">
-        <v>1.630523318252569</v>
+        <v>1.831837366401124</v>
       </c>
       <c r="D69" t="n">
-        <v>456766649758.6834</v>
+        <v>529976195822.9748</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>32021</v>
+        <v>32112</v>
       </c>
       <c r="B70" t="n">
-        <v>281174000000</v>
+        <v>291622000000</v>
       </c>
       <c r="C70" t="n">
-        <v>1.628929766591794</v>
+        <v>1.887148482975118</v>
       </c>
       <c r="D70" t="n">
-        <v>458012698191.681</v>
+        <v>550334014902.1699</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>32051</v>
+        <v>32143</v>
       </c>
       <c r="B71" t="n">
-        <v>287018000000</v>
+        <v>295120000000</v>
       </c>
       <c r="C71" t="n">
-        <v>1.722949719554613</v>
+        <v>1.769911504424779</v>
       </c>
       <c r="D71" t="n">
-        <v>494517582607.1259</v>
+        <v>522336283185.8408</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>32082</v>
+        <v>32174</v>
       </c>
       <c r="B72" t="n">
-        <v>289312000000</v>
+        <v>297648000000</v>
       </c>
       <c r="C72" t="n">
-        <v>1.831837366401124</v>
+        <v>1.773049613953021</v>
       </c>
       <c r="D72" t="n">
-        <v>529972532148.242</v>
+        <v>527744671493.8888</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>32112</v>
+        <v>32203</v>
       </c>
       <c r="B73" t="n">
-        <v>291620000000</v>
+        <v>302566000000</v>
       </c>
       <c r="C73" t="n">
-        <v>1.887148482975118</v>
+        <v>1.884658841223919</v>
       </c>
       <c r="D73" t="n">
-        <v>550330240605.204</v>
+        <v>570233686953.7563</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>32143</v>
+        <v>32234</v>
       </c>
       <c r="B74" t="n">
-        <v>295118000000</v>
+        <v>304945000000</v>
       </c>
       <c r="C74" t="n">
-        <v>1.769911504424779</v>
+        <v>1.879345916957492</v>
       </c>
       <c r="D74" t="n">
-        <v>522332743362.8319</v>
+        <v>573097140646.6024</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>32174</v>
+        <v>32264</v>
       </c>
       <c r="B75" t="n">
-        <v>297648000000</v>
+        <v>307356000000</v>
       </c>
       <c r="C75" t="n">
-        <v>1.773049613953021</v>
+        <v>1.840265032025488</v>
       </c>
       <c r="D75" t="n">
-        <v>527744671493.8888</v>
+        <v>565616499183.226</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>32203</v>
+        <v>32295</v>
       </c>
       <c r="B76" t="n">
-        <v>302568000000</v>
+        <v>313691000000</v>
       </c>
       <c r="C76" t="n">
-        <v>1.884658841223919</v>
+        <v>1.705611403526816</v>
       </c>
       <c r="D76" t="n">
-        <v>570237456271.4388</v>
+        <v>535034946783.7303</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>32234</v>
+        <v>32325</v>
       </c>
       <c r="B77" t="n">
-        <v>304944000000</v>
+        <v>319150000000</v>
       </c>
       <c r="C77" t="n">
-        <v>1.879345916957492</v>
+        <v>1.711449656390541</v>
       </c>
       <c r="D77" t="n">
-        <v>573095261300.6855</v>
+        <v>546209157837.0411</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>32264</v>
+        <v>32356</v>
       </c>
       <c r="B78" t="n">
-        <v>307352000000</v>
+        <v>322995000000</v>
       </c>
       <c r="C78" t="n">
-        <v>1.840265032025488</v>
+        <v>1.680954754060266</v>
       </c>
       <c r="D78" t="n">
-        <v>565609138123.0978</v>
+        <v>542939980787.6957</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>32295</v>
+        <v>32387</v>
       </c>
       <c r="B79" t="n">
-        <v>313693000000</v>
+        <v>327797000000</v>
       </c>
       <c r="C79" t="n">
-        <v>1.705611403526816</v>
+        <v>1.686056285853039</v>
       </c>
       <c r="D79" t="n">
-        <v>535038358006.5374</v>
+        <v>552684192333.7684</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>32325</v>
+        <v>32417</v>
       </c>
       <c r="B80" t="n">
-        <v>319150000000</v>
+        <v>331916000000</v>
       </c>
       <c r="C80" t="n">
-        <v>1.711449656390541</v>
+        <v>1.76959826987085</v>
       </c>
       <c r="D80" t="n">
-        <v>546209157837.0411</v>
+        <v>587357979342.453</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>32356</v>
+        <v>32448</v>
       </c>
       <c r="B81" t="n">
-        <v>322998000000</v>
+        <v>333293000000</v>
       </c>
       <c r="C81" t="n">
-        <v>1.680954754060266</v>
+        <v>1.848087127254456</v>
       </c>
       <c r="D81" t="n">
-        <v>542945023651.9579</v>
+        <v>615954502904.0195</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>32387</v>
+        <v>32478</v>
       </c>
       <c r="B82" t="n">
-        <v>327792000000</v>
+        <v>339317000000</v>
       </c>
       <c r="C82" t="n">
-        <v>1.686056285853039</v>
+        <v>1.807991354329983</v>
       </c>
       <c r="D82" t="n">
-        <v>552675762052.3392</v>
+        <v>613482202377.1869</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>32417</v>
+        <v>32509</v>
       </c>
       <c r="B83" t="n">
-        <v>331929000000</v>
+        <v>343461000000</v>
       </c>
       <c r="C83" t="n">
-        <v>1.76959826987085</v>
+        <v>1.755926158599149</v>
       </c>
       <c r="D83" t="n">
-        <v>587380984119.9613</v>
+        <v>603092154358.6222</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>32448</v>
+        <v>32540</v>
       </c>
       <c r="B84" t="n">
-        <v>333292000000</v>
+        <v>349710000000</v>
       </c>
       <c r="C84" t="n">
-        <v>1.848087127254456</v>
+        <v>1.743071261232852</v>
       </c>
       <c r="D84" t="n">
-        <v>615952654816.8922</v>
+        <v>609569450765.7407</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>32478</v>
+        <v>32568</v>
       </c>
       <c r="B85" t="n">
-        <v>339315000000</v>
+        <v>353734000000</v>
       </c>
       <c r="C85" t="n">
-        <v>1.807991354329983</v>
+        <v>1.685488005578561</v>
       </c>
       <c r="D85" t="n">
-        <v>613478586394.4781</v>
+        <v>596214414165.3267</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>32509</v>
+        <v>32599</v>
       </c>
       <c r="B86" t="n">
-        <v>343458000000</v>
+        <v>357400000000</v>
       </c>
       <c r="C86" t="n">
-        <v>1.755926158599149</v>
+        <v>1.688048587305054</v>
       </c>
       <c r="D86" t="n">
-        <v>603086886580.1464</v>
+        <v>603308565102.8264</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>32540</v>
+        <v>32629</v>
       </c>
       <c r="B87" t="n">
-        <v>349706000000</v>
+        <v>363827000000</v>
       </c>
       <c r="C87" t="n">
-        <v>1.743071261232852</v>
+        <v>1.572079886371324</v>
       </c>
       <c r="D87" t="n">
-        <v>609562478480.6958</v>
+        <v>571965108818.8196</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>32568</v>
+        <v>32660</v>
       </c>
       <c r="B88" t="n">
-        <v>353731000000</v>
+        <v>375186000000</v>
       </c>
       <c r="C88" t="n">
-        <v>1.685488005578561</v>
+        <v>1.550147263990079</v>
       </c>
       <c r="D88" t="n">
-        <v>596209357701.3099</v>
+        <v>581593551387.3818</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>32599</v>
+        <v>32690</v>
       </c>
       <c r="B89" t="n">
-        <v>357398000000</v>
+        <v>377386000000</v>
       </c>
       <c r="C89" t="n">
-        <v>1.688048587305054</v>
+        <v>1.661129568106312</v>
       </c>
       <c r="D89" t="n">
-        <v>603305189005.6519</v>
+        <v>626887043189.3688</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>32629</v>
+        <v>32721</v>
       </c>
       <c r="B90" t="n">
-        <v>363831000000</v>
+        <v>384842000000</v>
       </c>
       <c r="C90" t="n">
-        <v>1.572079886371324</v>
+        <v>1.573564097976961</v>
       </c>
       <c r="D90" t="n">
-        <v>571971397138.3651</v>
+        <v>605573554593.6498</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>32660</v>
+        <v>32752</v>
       </c>
       <c r="B91" t="n">
-        <v>375182000000</v>
+        <v>389498000000</v>
       </c>
       <c r="C91" t="n">
-        <v>1.550147263990079</v>
+        <v>1.618908907848758</v>
       </c>
       <c r="D91" t="n">
-        <v>581587350798.3258</v>
+        <v>630561781789.2758</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>32690</v>
+        <v>32782</v>
       </c>
       <c r="B92" t="n">
-        <v>377388000000</v>
+        <v>396227000000</v>
       </c>
       <c r="C92" t="n">
-        <v>1.661129568106312</v>
+        <v>1.579778781049644</v>
       </c>
       <c r="D92" t="n">
-        <v>626890365448.505</v>
+        <v>625951007078.9572</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>32721</v>
+        <v>32813</v>
       </c>
       <c r="B93" t="n">
-        <v>384841000000</v>
+        <v>398337000000</v>
       </c>
       <c r="C93" t="n">
-        <v>1.573564097976961</v>
+        <v>1.569119699213562</v>
       </c>
       <c r="D93" t="n">
-        <v>605571981029.5518</v>
+        <v>625038433625.6326</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>32752</v>
+        <v>32843</v>
       </c>
       <c r="B94" t="n">
-        <v>389500000000</v>
+        <v>406224000000</v>
       </c>
       <c r="C94" t="n">
-        <v>1.618908907848758</v>
+        <v>1.612383154220676</v>
       </c>
       <c r="D94" t="n">
-        <v>630565019607.0914</v>
+        <v>654988734440.1398</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>32782</v>
+        <v>32874</v>
       </c>
       <c r="B95" t="n">
-        <v>396239000000</v>
+        <v>410992000000</v>
       </c>
       <c r="C95" t="n">
-        <v>1.579778781049644</v>
+        <v>1.68010752688172</v>
       </c>
       <c r="D95" t="n">
-        <v>625969964424.3297</v>
+        <v>690510752688.1721</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>32813</v>
+        <v>32905</v>
       </c>
       <c r="B96" t="n">
-        <v>398328000000</v>
+        <v>414448000000</v>
       </c>
       <c r="C96" t="n">
-        <v>1.569119699213562</v>
+        <v>1.690617132396184</v>
       </c>
       <c r="D96" t="n">
-        <v>625024311548.3397</v>
+        <v>700672889287.3335</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>32843</v>
+        <v>32933</v>
       </c>
       <c r="B97" t="n">
-        <v>406221000000</v>
+        <v>420823000000</v>
       </c>
       <c r="C97" t="n">
-        <v>1.612383154220676</v>
+        <v>1.645548817599948</v>
       </c>
       <c r="D97" t="n">
-        <v>654983897290.6771</v>
+        <v>692484790068.8628</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>32874</v>
+        <v>32964</v>
       </c>
       <c r="B98" t="n">
-        <v>410998000000</v>
+        <v>424387000000</v>
       </c>
       <c r="C98" t="n">
-        <v>1.68010752688172</v>
+        <v>1.635055645358262</v>
       </c>
       <c r="D98" t="n">
-        <v>690520833333.3334</v>
+        <v>693896360166.6566</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>32905</v>
+        <v>32994</v>
       </c>
       <c r="B99" t="n">
-        <v>414453000000</v>
+        <v>427459000000</v>
       </c>
       <c r="C99" t="n">
-        <v>1.690617132396184</v>
+        <v>1.677570961796895</v>
       </c>
       <c r="D99" t="n">
-        <v>700681342372.9955</v>
+        <v>717092805758.7388</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>32933</v>
+        <v>33025</v>
       </c>
       <c r="B100" t="n">
-        <v>420826000000</v>
+        <v>431382000000</v>
       </c>
       <c r="C100" t="n">
-        <v>1.645548817599948</v>
+        <v>1.743983196931175</v>
       </c>
       <c r="D100" t="n">
-        <v>692489726715.3157</v>
+        <v>752322959458.5643</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>32964</v>
+        <v>33055</v>
       </c>
       <c r="B101" t="n">
-        <v>424388000000</v>
+        <v>432276000000</v>
       </c>
       <c r="C101" t="n">
-        <v>1.635055645358262</v>
+        <v>1.85908171736838</v>
       </c>
       <c r="D101" t="n">
-        <v>693897995222.302</v>
+        <v>803636408457.1338</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>32994</v>
+        <v>33086</v>
       </c>
       <c r="B102" t="n">
-        <v>427459000000</v>
+        <v>435034000000</v>
       </c>
       <c r="C102" t="n">
-        <v>1.677570961796895</v>
+        <v>1.890716474340151</v>
       </c>
       <c r="D102" t="n">
-        <v>717092805758.7388</v>
+        <v>822525950698.0933</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>33025</v>
+        <v>33117</v>
       </c>
       <c r="B103" t="n">
-        <v>431386000000</v>
+        <v>439584000000</v>
       </c>
       <c r="C103" t="n">
-        <v>1.743983196931175</v>
+        <v>1.870557356133283</v>
       </c>
       <c r="D103" t="n">
-        <v>752329935391.3521</v>
+        <v>822267084838.4929</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>33055</v>
+        <v>33147</v>
       </c>
       <c r="B104" t="n">
-        <v>432274000000</v>
+        <v>441285000000</v>
       </c>
       <c r="C104" t="n">
-        <v>1.85908171736838</v>
+        <v>1.944390471405609</v>
       </c>
       <c r="D104" t="n">
-        <v>803632690293.699</v>
+        <v>858030349174.2241</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>33086</v>
+        <v>33178</v>
       </c>
       <c r="B105" t="n">
-        <v>435024000000</v>
+        <v>446469000000</v>
       </c>
       <c r="C105" t="n">
-        <v>1.890716474340151</v>
+        <v>1.936858340621409</v>
       </c>
       <c r="D105" t="n">
-        <v>822507043533.3499</v>
+        <v>864747206478.8997</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>33117</v>
+        <v>33208</v>
       </c>
       <c r="B106" t="n">
-        <v>439582000000</v>
+        <v>448145000000</v>
       </c>
       <c r="C106" t="n">
-        <v>1.870557356133283</v>
+        <v>1.929384526336099</v>
       </c>
       <c r="D106" t="n">
-        <v>822263343723.7806</v>
+        <v>864644028554.891</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>33147</v>
+        <v>33239</v>
       </c>
       <c r="B107" t="n">
-        <v>441307000000</v>
+        <v>449342000000</v>
       </c>
       <c r="C107" t="n">
-        <v>1.944390471405609</v>
+        <v>1.958863820590327</v>
       </c>
       <c r="D107" t="n">
-        <v>858073125764.595</v>
+        <v>880199786871.6986</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>33178</v>
+        <v>33270</v>
       </c>
       <c r="B108" t="n">
-        <v>446449000000</v>
+        <v>450874000000</v>
       </c>
       <c r="C108" t="n">
-        <v>1.936858340621409</v>
+        <v>1.912045889101338</v>
       </c>
       <c r="D108" t="n">
-        <v>864708469312.0873</v>
+        <v>862091778202.6768</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>33208</v>
+        <v>33298</v>
       </c>
       <c r="B109" t="n">
-        <v>448146000000</v>
+        <v>452937000000</v>
       </c>
       <c r="C109" t="n">
-        <v>1.929384526336099</v>
+        <v>1.740644038294169</v>
       </c>
       <c r="D109" t="n">
-        <v>864645957939.4174</v>
+        <v>788402088772.8459</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>33239</v>
+        <v>33329</v>
       </c>
       <c r="B110" t="n">
-        <v>449344000000</v>
+        <v>454556000000</v>
       </c>
       <c r="C110" t="n">
-        <v>1.958863820590327</v>
+        <v>1.732501732501732</v>
       </c>
       <c r="D110" t="n">
-        <v>880203704599.3398</v>
+        <v>787519057519.0575</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>33270</v>
+        <v>33359</v>
       </c>
       <c r="B111" t="n">
-        <v>450873000000</v>
+        <v>457279000000</v>
       </c>
       <c r="C111" t="n">
-        <v>1.912045889101338</v>
+        <v>1.697216564833673</v>
       </c>
       <c r="D111" t="n">
-        <v>862089866156.7877</v>
+        <v>776101493550.5771</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>33298</v>
+        <v>33390</v>
       </c>
       <c r="B112" t="n">
-        <v>452937000000</v>
+        <v>458137000000</v>
       </c>
       <c r="C112" t="n">
-        <v>1.740644038294169</v>
+        <v>1.619170984455959</v>
       </c>
       <c r="D112" t="n">
-        <v>788402088772.8459</v>
+        <v>741802137305.6995</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>33329</v>
+        <v>33420</v>
       </c>
       <c r="B113" t="n">
-        <v>454555000000</v>
+        <v>457916000000</v>
       </c>
       <c r="C113" t="n">
-        <v>1.732501732501732</v>
+        <v>1.685772083614296</v>
       </c>
       <c r="D113" t="n">
-        <v>787517325017.325</v>
+        <v>771942009440.3237</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>33359</v>
+        <v>33451</v>
       </c>
       <c r="B114" t="n">
-        <v>457272000000</v>
+        <v>459621000000</v>
       </c>
       <c r="C114" t="n">
-        <v>1.697216564833673</v>
+        <v>1.68321831341525</v>
       </c>
       <c r="D114" t="n">
-        <v>776089613034.6233</v>
+        <v>773642484430.2307</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>33390</v>
+        <v>33482</v>
       </c>
       <c r="B115" t="n">
-        <v>458137000000</v>
+        <v>461686000000</v>
       </c>
       <c r="C115" t="n">
-        <v>1.619170984455959</v>
+        <v>1.747030048916841</v>
       </c>
       <c r="D115" t="n">
-        <v>741802137305.6995</v>
+        <v>806579315164.2208</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>33420</v>
+        <v>33512</v>
       </c>
       <c r="B116" t="n">
-        <v>457924000000</v>
+        <v>460846000000</v>
       </c>
       <c r="C116" t="n">
-        <v>1.685772083614296</v>
+        <v>1.742160278745645</v>
       </c>
       <c r="D116" t="n">
-        <v>771955495616.9927</v>
+        <v>802867595818.8154</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>33451</v>
+        <v>33543</v>
       </c>
       <c r="B117" t="n">
-        <v>459621000000</v>
+        <v>461203000000</v>
       </c>
       <c r="C117" t="n">
-        <v>1.68321831341525</v>
+        <v>1.76772140710624</v>
       </c>
       <c r="D117" t="n">
-        <v>773642484430.2307</v>
+        <v>815278416121.6193</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>33482</v>
+        <v>33573</v>
       </c>
       <c r="B118" t="n">
-        <v>461685000000</v>
+        <v>462476000000</v>
       </c>
       <c r="C118" t="n">
-        <v>1.747030048916841</v>
+        <v>1.868460388639761</v>
       </c>
       <c r="D118" t="n">
-        <v>806577568134.1719</v>
+        <v>864118086696.562</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>33512</v>
+        <v>33604</v>
       </c>
       <c r="B119" t="n">
-        <v>460857000000</v>
+        <v>466046000000</v>
       </c>
       <c r="C119" t="n">
-        <v>1.742160278745645</v>
+        <v>1.787629603146228</v>
       </c>
       <c r="D119" t="n">
-        <v>802886759581.8816</v>
+        <v>833117626027.887</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>33543</v>
+        <v>33635</v>
       </c>
       <c r="B120" t="n">
-        <v>461192000000</v>
+        <v>467523000000</v>
       </c>
       <c r="C120" t="n">
-        <v>1.76772140710624</v>
+        <v>1.757469244288225</v>
       </c>
       <c r="D120" t="n">
-        <v>815258971186.1411</v>
+        <v>821657293497.3639</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>33573</v>
+        <v>33664</v>
       </c>
       <c r="B121" t="n">
-        <v>462474000000</v>
+        <v>468674000000</v>
       </c>
       <c r="C121" t="n">
-        <v>1.868460388639761</v>
+        <v>1.735809755250825</v>
       </c>
       <c r="D121" t="n">
-        <v>864114349775.7848</v>
+        <v>813528901232.425</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>33604</v>
+        <v>33695</v>
       </c>
       <c r="B122" t="n">
-        <v>466039000000</v>
+        <v>472017000000</v>
       </c>
       <c r="C122" t="n">
-        <v>1.787629603146228</v>
+        <v>1.779359430604982</v>
       </c>
       <c r="D122" t="n">
-        <v>833105112620.6649</v>
+        <v>839887900355.8718</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>33635</v>
+        <v>33725</v>
       </c>
       <c r="B123" t="n">
-        <v>467522000000</v>
+        <v>469327000000</v>
       </c>
       <c r="C123" t="n">
-        <v>1.757469244288225</v>
+        <v>1.827485380116959</v>
       </c>
       <c r="D123" t="n">
-        <v>821655536028.1196</v>
+        <v>857688230994.152</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>33664</v>
+        <v>33756</v>
       </c>
       <c r="B124" t="n">
-        <v>468671000000</v>
+        <v>471821000000</v>
       </c>
       <c r="C124" t="n">
-        <v>1.735809755250825</v>
+        <v>1.903311762466692</v>
       </c>
       <c r="D124" t="n">
-        <v>813523693803.1593</v>
+        <v>898022459078.7972</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>33695</v>
+        <v>33786</v>
       </c>
       <c r="B125" t="n">
-        <v>472022000000</v>
+        <v>473214000000</v>
       </c>
       <c r="C125" t="n">
-        <v>1.779359430604982</v>
+        <v>1.927153594141453</v>
       </c>
       <c r="D125" t="n">
-        <v>839896797153.0248</v>
+        <v>911956060898.0536</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>33725</v>
+        <v>33817</v>
       </c>
       <c r="B126" t="n">
-        <v>469326000000</v>
+        <v>472160000000</v>
       </c>
       <c r="C126" t="n">
-        <v>1.827485380116959</v>
+        <v>1.990842126219391</v>
       </c>
       <c r="D126" t="n">
-        <v>857686403508.772</v>
+        <v>939996018315.7477</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>33756</v>
+        <v>33848</v>
       </c>
       <c r="B127" t="n">
-        <v>471818000000</v>
+        <v>478010000000</v>
       </c>
       <c r="C127" t="n">
-        <v>1.903311762466692</v>
+        <v>1.786033220217896</v>
       </c>
       <c r="D127" t="n">
-        <v>898016749143.5098</v>
+        <v>853741739596.3566</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>33786</v>
+        <v>33878</v>
       </c>
       <c r="B128" t="n">
-        <v>473207000000</v>
+        <v>484452000000</v>
       </c>
       <c r="C128" t="n">
-        <v>1.927153594141453</v>
+        <v>1.556904873112253</v>
       </c>
       <c r="D128" t="n">
-        <v>911942570822.8945</v>
+        <v>754245679588.9771</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>33817</v>
+        <v>33909</v>
       </c>
       <c r="B129" t="n">
-        <v>472158000000</v>
+        <v>483075000000</v>
       </c>
       <c r="C129" t="n">
-        <v>1.990842126219391</v>
+        <v>1.516990291262136</v>
       </c>
       <c r="D129" t="n">
-        <v>939992036631.4952</v>
+        <v>732820084951.4563</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>33848</v>
+        <v>33939</v>
       </c>
       <c r="B130" t="n">
-        <v>478016000000</v>
+        <v>481592000000</v>
       </c>
       <c r="C130" t="n">
-        <v>1.786033220217896</v>
+        <v>1.510117789187557</v>
       </c>
       <c r="D130" t="n">
-        <v>853752455795.6779</v>
+        <v>727260646330.4137</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>33878</v>
+        <v>33970</v>
       </c>
       <c r="B131" t="n">
-        <v>484458000000</v>
+        <v>481917000000</v>
       </c>
       <c r="C131" t="n">
-        <v>1.556904873112253</v>
+        <v>1.48720999405116</v>
       </c>
       <c r="D131" t="n">
-        <v>754255021018.2158</v>
+        <v>716711778703.153</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>33909</v>
+        <v>34001</v>
       </c>
       <c r="B132" t="n">
-        <v>483067000000</v>
+        <v>484043000000</v>
       </c>
       <c r="C132" t="n">
-        <v>1.516990291262136</v>
+        <v>1.426533523537803</v>
       </c>
       <c r="D132" t="n">
-        <v>732807949029.1261</v>
+        <v>690503566333.8088</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>33939</v>
+        <v>34029</v>
       </c>
       <c r="B133" t="n">
-        <v>481596000000</v>
+        <v>484425000000</v>
       </c>
       <c r="C133" t="n">
-        <v>1.510117789187557</v>
+        <v>1.511944360447536</v>
       </c>
       <c r="D133" t="n">
-        <v>727266686801.5704</v>
+        <v>732423646809.7974</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>33970</v>
+        <v>34060</v>
       </c>
       <c r="B134" t="n">
-        <v>481917000000</v>
+        <v>486473000000</v>
       </c>
       <c r="C134" t="n">
-        <v>1.48720999405116</v>
+        <v>1.573564122738002</v>
       </c>
       <c r="D134" t="n">
-        <v>716711778703.153</v>
+        <v>765496459480.7239</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>34001</v>
+        <v>34090</v>
       </c>
       <c r="B135" t="n">
-        <v>484041000000</v>
+        <v>487064000000</v>
       </c>
       <c r="C135" t="n">
-        <v>1.426533523537803</v>
+        <v>1.562011871290222</v>
       </c>
       <c r="D135" t="n">
-        <v>690500713266.7618</v>
+        <v>760799750078.1006</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>34029</v>
+        <v>34121</v>
       </c>
       <c r="B136" t="n">
-        <v>484433000000</v>
+        <v>490069000000</v>
       </c>
       <c r="C136" t="n">
-        <v>1.511944360447536</v>
+        <v>1.491646778042959</v>
       </c>
       <c r="D136" t="n">
-        <v>732435742364.681</v>
+        <v>731009844868.7351</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>34060</v>
+        <v>34151</v>
       </c>
       <c r="B137" t="n">
-        <v>486469000000</v>
+        <v>493307000000</v>
       </c>
       <c r="C137" t="n">
-        <v>1.573564122738002</v>
+        <v>1.48214021046391</v>
       </c>
       <c r="D137" t="n">
-        <v>765490165224.2329</v>
+        <v>731150140803.3199</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>34090</v>
+        <v>34182</v>
       </c>
       <c r="B138" t="n">
-        <v>487062000000</v>
+        <v>495736000000</v>
       </c>
       <c r="C138" t="n">
-        <v>1.562011871290222</v>
+        <v>1.492091912861832</v>
       </c>
       <c r="D138" t="n">
-        <v>760796626054.358</v>
+        <v>739683676514.4733</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>34121</v>
+        <v>34213</v>
       </c>
       <c r="B139" t="n">
-        <v>490077000000</v>
+        <v>497207000000</v>
       </c>
       <c r="C139" t="n">
-        <v>1.491646778042959</v>
+        <v>1.49655791679138</v>
       </c>
       <c r="D139" t="n">
-        <v>731021778042.9595</v>
+        <v>744099072134.0916</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>34151</v>
+        <v>34243</v>
       </c>
       <c r="B140" t="n">
-        <v>493309000000</v>
+        <v>500928000000</v>
       </c>
       <c r="C140" t="n">
-        <v>1.48214021046391</v>
+        <v>1.478852410529429</v>
       </c>
       <c r="D140" t="n">
-        <v>731153105083.741</v>
+        <v>740798580301.6859</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>34182</v>
+        <v>34274</v>
       </c>
       <c r="B141" t="n">
-        <v>495733000000</v>
+        <v>503900000000</v>
       </c>
       <c r="C141" t="n">
-        <v>1.492091912861832</v>
+        <v>1.485663348685188</v>
       </c>
       <c r="D141" t="n">
-        <v>739679200238.7346</v>
+        <v>748625761402.4662</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>34213</v>
+        <v>34304</v>
       </c>
       <c r="B142" t="n">
-        <v>497207000000</v>
+        <v>509216000000</v>
       </c>
       <c r="C142" t="n">
-        <v>1.49655791679138</v>
+        <v>1.477104874446086</v>
       </c>
       <c r="D142" t="n">
-        <v>744099072134.0916</v>
+        <v>752165435745.9379</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>34243</v>
+        <v>34335</v>
       </c>
       <c r="B143" t="n">
-        <v>500927000000</v>
+        <v>510034000000</v>
       </c>
       <c r="C143" t="n">
-        <v>1.478852410529429</v>
+        <v>1.506931886678722</v>
       </c>
       <c r="D143" t="n">
-        <v>740797101449.2754</v>
+        <v>768586497890.2954</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>34274</v>
+        <v>34366</v>
       </c>
       <c r="B144" t="n">
-        <v>503892000000</v>
+        <v>514261000000</v>
       </c>
       <c r="C144" t="n">
-        <v>1.485663348685188</v>
+        <v>1.485222040695084</v>
       </c>
       <c r="D144" t="n">
-        <v>748613876095.6766</v>
+        <v>763791771869.8945</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>34304</v>
+        <v>34394</v>
       </c>
       <c r="B145" t="n">
-        <v>509210000000</v>
+        <v>515859000000</v>
       </c>
       <c r="C145" t="n">
-        <v>1.477104874446086</v>
+        <v>1.483459427384661</v>
       </c>
       <c r="D145" t="n">
-        <v>752156573116.6912</v>
+        <v>765255896751.2238</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>34335</v>
+        <v>34425</v>
       </c>
       <c r="B146" t="n">
-        <v>510037000000</v>
+        <v>514456000000</v>
       </c>
       <c r="C146" t="n">
-        <v>1.506931886678722</v>
+        <v>1.51952590791673</v>
       </c>
       <c r="D146" t="n">
-        <v>768591018685.9554</v>
+        <v>781729220483.2092</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>34366</v>
+        <v>34455</v>
       </c>
       <c r="B147" t="n">
-        <v>514263000000</v>
+        <v>517720000000</v>
       </c>
       <c r="C147" t="n">
-        <v>1.485222040695084</v>
+        <v>1.511030522816561</v>
       </c>
       <c r="D147" t="n">
-        <v>763794742313.9758</v>
+        <v>782290722272.5898</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>34394</v>
+        <v>34486</v>
       </c>
       <c r="B148" t="n">
-        <v>515860000000</v>
+        <v>517125000000</v>
       </c>
       <c r="C148" t="n">
-        <v>1.483459427384661</v>
+        <v>1.544401544401544</v>
       </c>
       <c r="D148" t="n">
-        <v>765257380210.6511</v>
+        <v>798648648648.6487</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>34425</v>
+        <v>34516</v>
       </c>
       <c r="B149" t="n">
-        <v>514461000000</v>
+        <v>516624000000</v>
       </c>
       <c r="C149" t="n">
-        <v>1.51952590791673</v>
+        <v>1.544163063619518</v>
       </c>
       <c r="D149" t="n">
-        <v>781736818112.7489</v>
+        <v>797751698579.37</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>34455</v>
+        <v>34547</v>
       </c>
       <c r="B150" t="n">
-        <v>517715000000</v>
+        <v>518423000000</v>
       </c>
       <c r="C150" t="n">
-        <v>1.511030522816561</v>
+        <v>1.534448365812491</v>
       </c>
       <c r="D150" t="n">
-        <v>782283167119.9758</v>
+        <v>795493325149.6088</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>34486</v>
+        <v>34578</v>
       </c>
       <c r="B151" t="n">
-        <v>517126000000</v>
+        <v>521865000000</v>
       </c>
       <c r="C151" t="n">
-        <v>1.544401544401544</v>
+        <v>1.577535888941473</v>
       </c>
       <c r="D151" t="n">
-        <v>798650193050.1931</v>
+        <v>823260766682.442</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>34516</v>
+        <v>34608</v>
       </c>
       <c r="B152" t="n">
-        <v>516622000000</v>
+        <v>521391000000</v>
       </c>
       <c r="C152" t="n">
-        <v>1.544163063619518</v>
+        <v>1.635858007524947</v>
       </c>
       <c r="D152" t="n">
-        <v>797748610253.2428</v>
+        <v>852921642401.4396</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>34547</v>
+        <v>34639</v>
       </c>
       <c r="B153" t="n">
-        <v>518433000000</v>
+        <v>524786000000</v>
       </c>
       <c r="C153" t="n">
-        <v>1.534448365812491</v>
+        <v>1.563477173233271</v>
       </c>
       <c r="D153" t="n">
-        <v>795508669633.267</v>
+        <v>820490931832.3953</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>34578</v>
+        <v>34669</v>
       </c>
       <c r="B154" t="n">
-        <v>521855000000</v>
+        <v>527178000000</v>
       </c>
       <c r="C154" t="n">
-        <v>1.577535888941473</v>
+        <v>1.564700359881083</v>
       </c>
       <c r="D154" t="n">
-        <v>823244991323.5526</v>
+        <v>824875606321.3894</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>34608</v>
+        <v>34700</v>
       </c>
       <c r="B155" t="n">
-        <v>521392000000</v>
+        <v>529708000000</v>
       </c>
       <c r="C155" t="n">
-        <v>1.635858007524947</v>
+        <v>1.57952930026852</v>
       </c>
       <c r="D155" t="n">
-        <v>852923278259.4471</v>
+        <v>836689306586.6372</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>34639</v>
+        <v>34731</v>
       </c>
       <c r="B156" t="n">
-        <v>524793000000</v>
+        <v>533750000000</v>
       </c>
       <c r="C156" t="n">
-        <v>1.563477173233271</v>
+        <v>1.58378207158695</v>
       </c>
       <c r="D156" t="n">
-        <v>820501876172.6079</v>
+        <v>845343680709.5344</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>34669</v>
+        <v>34759</v>
       </c>
       <c r="B157" t="n">
-        <v>527181000000</v>
+        <v>542876000000</v>
       </c>
       <c r="C157" t="n">
-        <v>1.564700359881083</v>
+        <v>1.621533971136695</v>
       </c>
       <c r="D157" t="n">
-        <v>824880300422.469</v>
+        <v>880291876114.8046</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>34700</v>
+        <v>34790</v>
       </c>
       <c r="B158" t="n">
-        <v>529705000000</v>
+        <v>542961000000</v>
       </c>
       <c r="C158" t="n">
-        <v>1.57952930026852</v>
+        <v>1.612383102225089</v>
       </c>
       <c r="D158" t="n">
-        <v>836684567998.7365</v>
+        <v>875461141567.2365</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>34731</v>
+        <v>34820</v>
       </c>
       <c r="B159" t="n">
-        <v>533748000000</v>
+        <v>546560000000</v>
       </c>
       <c r="C159" t="n">
-        <v>1.58378207158695</v>
+        <v>1.587301587301587</v>
       </c>
       <c r="D159" t="n">
-        <v>845340513145.3912</v>
+        <v>867555555555.5555</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>34759</v>
+        <v>34851</v>
       </c>
       <c r="B160" t="n">
-        <v>542868000000</v>
+        <v>550532000000</v>
       </c>
       <c r="C160" t="n">
-        <v>1.621533971136695</v>
+        <v>1.594896331738437</v>
       </c>
       <c r="D160" t="n">
-        <v>880278903843.0354</v>
+        <v>878041467304.6252</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>34790</v>
+        <v>34881</v>
       </c>
       <c r="B161" t="n">
-        <v>542961000000</v>
+        <v>558179000000</v>
       </c>
       <c r="C161" t="n">
-        <v>1.612383102225089</v>
+        <v>1.597444089456869</v>
       </c>
       <c r="D161" t="n">
-        <v>875461141567.2365</v>
+        <v>891659744408.9458</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>34820</v>
+        <v>34912</v>
       </c>
       <c r="B162" t="n">
-        <v>546565000000</v>
+        <v>564092000000</v>
       </c>
       <c r="C162" t="n">
-        <v>1.587301587301587</v>
+        <v>1.549907005579665</v>
       </c>
       <c r="D162" t="n">
-        <v>867563492063.4921</v>
+        <v>874290142591.4446</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>34851</v>
+        <v>34943</v>
       </c>
       <c r="B163" t="n">
-        <v>550525000000</v>
+        <v>568035000000</v>
       </c>
       <c r="C163" t="n">
-        <v>1.594896331738437</v>
+        <v>1.584534938995405</v>
       </c>
       <c r="D163" t="n">
-        <v>878030303030.3031</v>
+        <v>900071304072.2548</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>34881</v>
+        <v>34973</v>
       </c>
       <c r="B164" t="n">
-        <v>558179000000</v>
+        <v>573711000000</v>
       </c>
       <c r="C164" t="n">
-        <v>1.597444089456869</v>
+        <v>1.58052789631737</v>
       </c>
       <c r="D164" t="n">
-        <v>891659744408.9458</v>
+        <v>906766239924.1346</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>34912</v>
+        <v>35004</v>
       </c>
       <c r="B165" t="n">
-        <v>564095000000</v>
+        <v>577801000000</v>
       </c>
       <c r="C165" t="n">
-        <v>1.549907005579665</v>
+        <v>1.531159087429184</v>
       </c>
       <c r="D165" t="n">
-        <v>874294792312.4613</v>
+        <v>884705251875.6698</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>34943</v>
+        <v>35034</v>
       </c>
       <c r="B166" t="n">
-        <v>568034000000</v>
+        <v>580830000000</v>
       </c>
       <c r="C166" t="n">
-        <v>1.584534938995405</v>
+        <v>1.550628004341758</v>
       </c>
       <c r="D166" t="n">
-        <v>900069719537.3158</v>
+        <v>900651263761.8235</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>34973</v>
+        <v>35065</v>
       </c>
       <c r="B167" t="n">
-        <v>573708000000</v>
+        <v>588638000000</v>
       </c>
       <c r="C167" t="n">
-        <v>1.58052789631737</v>
+        <v>1.504890895410083</v>
       </c>
       <c r="D167" t="n">
-        <v>906761498340.4457</v>
+        <v>885835966892.4003</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>35004</v>
+        <v>35096</v>
       </c>
       <c r="B168" t="n">
-        <v>577801000000</v>
+        <v>591466000000</v>
       </c>
       <c r="C168" t="n">
-        <v>1.531159087429184</v>
+        <v>1.531628120692296</v>
       </c>
       <c r="D168" t="n">
-        <v>884705251875.6698</v>
+        <v>905905958033.3895</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>35034</v>
+        <v>35125</v>
       </c>
       <c r="B169" t="n">
-        <v>580830000000</v>
+        <v>596040000000</v>
       </c>
       <c r="C169" t="n">
-        <v>1.550628004341758</v>
+        <v>1.526717557251908</v>
       </c>
       <c r="D169" t="n">
-        <v>900651263761.8235</v>
+        <v>909984732824.4274</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>35065</v>
+        <v>35156</v>
       </c>
       <c r="B170" t="n">
-        <v>588649000000</v>
+        <v>601044000000</v>
       </c>
       <c r="C170" t="n">
-        <v>1.504890895410083</v>
+        <v>1.507159005275057</v>
       </c>
       <c r="D170" t="n">
-        <v>885852520692.2499</v>
+        <v>905868877166.541</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>35096</v>
+        <v>35186</v>
       </c>
       <c r="B171" t="n">
-        <v>591470000000</v>
+        <v>601672000000</v>
       </c>
       <c r="C171" t="n">
-        <v>1.531628120692296</v>
+        <v>1.55110904296572</v>
       </c>
       <c r="D171" t="n">
-        <v>905912084545.8723</v>
+        <v>933258880099.2709</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>35125</v>
+        <v>35217</v>
       </c>
       <c r="B172" t="n">
-        <v>596040000000</v>
+        <v>610827000000</v>
       </c>
       <c r="C172" t="n">
-        <v>1.526717557251908</v>
+        <v>1.552795031055901</v>
       </c>
       <c r="D172" t="n">
-        <v>909984732824.4274</v>
+        <v>948489130434.7826</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>35156</v>
+        <v>35247</v>
       </c>
       <c r="B173" t="n">
-        <v>601041000000</v>
+        <v>613598000000</v>
       </c>
       <c r="C173" t="n">
-        <v>1.507159005275057</v>
+        <v>1.556904873112253</v>
       </c>
       <c r="D173" t="n">
-        <v>905864355689.5253</v>
+        <v>955313716331.9321</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>35186</v>
+        <v>35278</v>
       </c>
       <c r="B174" t="n">
-        <v>601655000000</v>
+        <v>617720000000</v>
       </c>
       <c r="C174" t="n">
-        <v>1.55110904296572</v>
+        <v>1.562011871290222</v>
       </c>
       <c r="D174" t="n">
-        <v>933232511245.5405</v>
+        <v>964885973133.3958</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>35217</v>
+        <v>35309</v>
       </c>
       <c r="B175" t="n">
-        <v>610828000000</v>
+        <v>627415000000</v>
       </c>
       <c r="C175" t="n">
-        <v>1.552795031055901</v>
+        <v>1.565435190983093</v>
       </c>
       <c r="D175" t="n">
-        <v>948490683229.8137</v>
+        <v>982177520350.6575</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>35247</v>
+        <v>35339</v>
       </c>
       <c r="B176" t="n">
-        <v>613606000000</v>
+        <v>627185000000</v>
       </c>
       <c r="C176" t="n">
-        <v>1.556904873112253</v>
+        <v>1.627339300244101</v>
       </c>
       <c r="D176" t="n">
-        <v>955326171570.917</v>
+        <v>1020642799023.596</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>35278</v>
+        <v>35370</v>
       </c>
       <c r="B177" t="n">
-        <v>617724000000</v>
+        <v>633336000000</v>
       </c>
       <c r="C177" t="n">
-        <v>1.562011871290222</v>
+        <v>1.682085786375105</v>
       </c>
       <c r="D177" t="n">
-        <v>964892221180.881</v>
+        <v>1065325483599.664</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>35309</v>
+        <v>35400</v>
       </c>
       <c r="B178" t="n">
-        <v>627413000000</v>
+        <v>637982000000</v>
       </c>
       <c r="C178" t="n">
-        <v>1.565435190983093</v>
+        <v>1.714383679067375</v>
       </c>
       <c r="D178" t="n">
-        <v>982174389480.2755</v>
+        <v>1093745928338.762</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>35339</v>
+        <v>35431</v>
       </c>
       <c r="B179" t="n">
-        <v>627188000000</v>
+        <v>648719000000</v>
       </c>
       <c r="C179" t="n">
-        <v>1.627339300244101</v>
+        <v>1.602564102564103</v>
       </c>
       <c r="D179" t="n">
-        <v>1020647681041.497</v>
+        <v>1039613782051.282</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>35370</v>
+        <v>35462</v>
       </c>
       <c r="B180" t="n">
-        <v>633338000000</v>
+        <v>654780000000</v>
       </c>
       <c r="C180" t="n">
-        <v>1.682085786375105</v>
+        <v>1.628664495114007</v>
       </c>
       <c r="D180" t="n">
-        <v>1065328847771.236</v>
+        <v>1066416938110.749</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>35400</v>
+        <v>35490</v>
       </c>
       <c r="B181" t="n">
-        <v>637978000000</v>
+        <v>659762000000</v>
       </c>
       <c r="C181" t="n">
-        <v>1.714383679067375</v>
+        <v>1.637465203864418</v>
       </c>
       <c r="D181" t="n">
-        <v>1093739070804.046</v>
+        <v>1080337317831.996</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>35431</v>
+        <v>35521</v>
       </c>
       <c r="B182" t="n">
-        <v>648710000000</v>
+        <v>663250000000</v>
       </c>
       <c r="C182" t="n">
-        <v>1.602564102564103</v>
+        <v>1.623903864891198</v>
       </c>
       <c r="D182" t="n">
-        <v>1039599358974.359</v>
+        <v>1077054238389.087</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>35462</v>
+        <v>35551</v>
       </c>
       <c r="B183" t="n">
-        <v>654773000000</v>
+        <v>669276000000</v>
       </c>
       <c r="C183" t="n">
-        <v>1.628664495114007</v>
+        <v>1.641227638273429</v>
       </c>
       <c r="D183" t="n">
-        <v>1066405537459.283</v>
+        <v>1098434268833.087</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>35490</v>
+        <v>35582</v>
       </c>
       <c r="B184" t="n">
-        <v>659765000000</v>
+        <v>691883000000</v>
       </c>
       <c r="C184" t="n">
-        <v>1.637465203864418</v>
+        <v>1.665556295802798</v>
       </c>
       <c r="D184" t="n">
-        <v>1080342230227.608</v>
+        <v>1152370086608.927</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>35521</v>
+        <v>35612</v>
       </c>
       <c r="B185" t="n">
-        <v>663261000000</v>
+        <v>697612000000</v>
       </c>
       <c r="C185" t="n">
-        <v>1.623903864891198</v>
+        <v>1.640419947506562</v>
       </c>
       <c r="D185" t="n">
-        <v>1077072101331.601</v>
+        <v>1144376640419.947</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>35551</v>
+        <v>35643</v>
       </c>
       <c r="B186" t="n">
-        <v>669271000000</v>
+        <v>700575000000</v>
       </c>
       <c r="C186" t="n">
-        <v>1.641227638273429</v>
+        <v>1.620745542949757</v>
       </c>
       <c r="D186" t="n">
-        <v>1098426062694.896</v>
+        <v>1135453808752.026</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>35582</v>
+        <v>35674</v>
       </c>
       <c r="B187" t="n">
-        <v>691887000000</v>
+        <v>660520000000</v>
       </c>
       <c r="C187" t="n">
-        <v>1.665556295802798</v>
+        <v>1.617861187510112</v>
       </c>
       <c r="D187" t="n">
-        <v>1152376748834.111</v>
+        <v>1068629671574.179</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>35612</v>
+        <v>35704</v>
       </c>
       <c r="B188" t="n">
-        <v>697613000000</v>
+        <v>680566000000</v>
       </c>
       <c r="C188" t="n">
-        <v>1.640419947506562</v>
+        <v>1.672520488375983</v>
       </c>
       <c r="D188" t="n">
-        <v>1144378280839.895</v>
+        <v>1138260578692.089</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>35643</v>
+        <v>35735</v>
       </c>
       <c r="B189" t="n">
-        <v>700574000000</v>
+        <v>684652000000</v>
       </c>
       <c r="C189" t="n">
-        <v>1.620745542949757</v>
+        <v>1.688618709895306</v>
       </c>
       <c r="D189" t="n">
-        <v>1135452188006.483</v>
+        <v>1156116176967.241</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>35674</v>
+        <v>35765</v>
       </c>
       <c r="B190" t="n">
-        <v>660511000000</v>
+        <v>691525000000</v>
       </c>
       <c r="C190" t="n">
-        <v>1.617861187510112</v>
+        <v>1.651800462504129</v>
       </c>
       <c r="D190" t="n">
-        <v>1068615110823.491</v>
+        <v>1142261314833.168</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>35704</v>
+        <v>35796</v>
       </c>
       <c r="B191" t="n">
-        <v>680557000000</v>
+        <v>693271000000</v>
       </c>
       <c r="C191" t="n">
-        <v>1.672520488375983</v>
+        <v>1.63425396306586</v>
       </c>
       <c r="D191" t="n">
-        <v>1138245526007.694</v>
+        <v>1132980879228.632</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>35735</v>
+        <v>35827</v>
       </c>
       <c r="B192" t="n">
-        <v>684652000000</v>
+        <v>696656000000</v>
       </c>
       <c r="C192" t="n">
-        <v>1.688618709895306</v>
+        <v>1.643925694558606</v>
       </c>
       <c r="D192" t="n">
-        <v>1156116176967.241</v>
+        <v>1145250698668.42</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>35765</v>
+        <v>35855</v>
       </c>
       <c r="B193" t="n">
-        <v>691536000000</v>
+        <v>700764000000</v>
       </c>
       <c r="C193" t="n">
-        <v>1.651800462504129</v>
+        <v>1.672520488375983</v>
       </c>
       <c r="D193" t="n">
-        <v>1142279484638.256</v>
+        <v>1172042147516.307</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>35796</v>
+        <v>35886</v>
       </c>
       <c r="B194" t="n">
-        <v>693275000000</v>
+        <v>703331000000</v>
       </c>
       <c r="C194" t="n">
-        <v>1.63425396306586</v>
+        <v>1.672240802675585</v>
       </c>
       <c r="D194" t="n">
-        <v>1132987416244.484</v>
+        <v>1176138795986.622</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>35827</v>
+        <v>35916</v>
       </c>
       <c r="B195" t="n">
-        <v>696661000000</v>
+        <v>706471000000</v>
       </c>
       <c r="C195" t="n">
-        <v>1.643925694558606</v>
+        <v>1.630523398010762</v>
       </c>
       <c r="D195" t="n">
-        <v>1145258918296.893</v>
+        <v>1151917495516.061</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>35855</v>
+        <v>35947</v>
       </c>
       <c r="B196" t="n">
-        <v>700760000000</v>
+        <v>708289000000</v>
       </c>
       <c r="C196" t="n">
-        <v>1.672520488375983</v>
+        <v>1.667500416875104</v>
       </c>
       <c r="D196" t="n">
-        <v>1172035457434.354</v>
+        <v>1181072202768.051</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>35886</v>
+        <v>35977</v>
       </c>
       <c r="B197" t="n">
-        <v>703334000000</v>
+        <v>713922000000</v>
       </c>
       <c r="C197" t="n">
-        <v>1.672240802675585</v>
+        <v>1.633986928104575</v>
       </c>
       <c r="D197" t="n">
-        <v>1176143812709.03</v>
+        <v>1166539215686.274</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>35916</v>
+        <v>36008</v>
       </c>
       <c r="B198" t="n">
-        <v>706460000000</v>
+        <v>716632000000</v>
       </c>
       <c r="C198" t="n">
-        <v>1.630523398010762</v>
+        <v>1.682935038707506</v>
       </c>
       <c r="D198" t="n">
-        <v>1151899559758.683</v>
+        <v>1206045102659.037</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>35947</v>
+        <v>36039</v>
       </c>
       <c r="B199" t="n">
-        <v>708285000000</v>
+        <v>722274000000</v>
       </c>
       <c r="C199" t="n">
-        <v>1.667500416875104</v>
+        <v>1.701837985023826</v>
       </c>
       <c r="D199" t="n">
-        <v>1181065532766.383</v>
+        <v>1229193328795.099</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>35977</v>
+        <v>36069</v>
       </c>
       <c r="B200" t="n">
-        <v>713910000000</v>
+        <v>726106000000</v>
       </c>
       <c r="C200" t="n">
-        <v>1.633986928104575</v>
+        <v>1.675603217158177</v>
       </c>
       <c r="D200" t="n">
-        <v>1166519607843.137</v>
+        <v>1216665549597.855</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>36008</v>
+        <v>36100</v>
       </c>
       <c r="B201" t="n">
-        <v>716631000000</v>
+        <v>729029000000</v>
       </c>
       <c r="C201" t="n">
-        <v>1.682935038707506</v>
+        <v>1.649348507339601</v>
       </c>
       <c r="D201" t="n">
-        <v>1206043419723.999</v>
+        <v>1202422892957.282</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>36039</v>
+        <v>36130</v>
       </c>
       <c r="B202" t="n">
-        <v>722282000000</v>
+        <v>732268000000</v>
       </c>
       <c r="C202" t="n">
-        <v>1.701837985023826</v>
+        <v>1.658374792703151</v>
       </c>
       <c r="D202" t="n">
-        <v>1229206943498.979</v>
+        <v>1214374792703.151</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>36069</v>
+        <v>36161</v>
       </c>
       <c r="B203" t="n">
-        <v>726110000000</v>
+        <v>728217000000</v>
       </c>
       <c r="C203" t="n">
-        <v>1.675603217158177</v>
+        <v>1.645007402533311</v>
       </c>
       <c r="D203" t="n">
-        <v>1216672252010.724</v>
+        <v>1197922355650.601</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>36100</v>
+        <v>36192</v>
       </c>
       <c r="B204" t="n">
-        <v>729033000000</v>
+        <v>730712000000</v>
       </c>
       <c r="C204" t="n">
-        <v>1.649348507339601</v>
+        <v>1.60333493666827</v>
       </c>
       <c r="D204" t="n">
-        <v>1202429490351.311</v>
+        <v>1171576078242.745</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>36130</v>
+        <v>36220</v>
       </c>
       <c r="B205" t="n">
-        <v>732269000000</v>
+        <v>728454000000</v>
       </c>
       <c r="C205" t="n">
-        <v>1.658374792703151</v>
+        <v>1.6116035455278</v>
       </c>
       <c r="D205" t="n">
-        <v>1214376451077.944</v>
+        <v>1173979049153.908</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>36161</v>
+        <v>36251</v>
       </c>
       <c r="B206" t="n">
-        <v>728216000000</v>
+        <v>734294000000</v>
       </c>
       <c r="C206" t="n">
-        <v>1.645007402533311</v>
+        <v>1.609528408176404</v>
       </c>
       <c r="D206" t="n">
-        <v>1197920710643.198</v>
+        <v>1181867052953.485</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>36192</v>
+        <v>36281</v>
       </c>
       <c r="B207" t="n">
-        <v>730714000000</v>
+        <v>738292000000</v>
       </c>
       <c r="C207" t="n">
-        <v>1.60333493666827</v>
+        <v>1.602564102564103</v>
       </c>
       <c r="D207" t="n">
-        <v>1171579284912.618</v>
+        <v>1183160256410.256</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>36220</v>
+        <v>36312</v>
       </c>
       <c r="B208" t="n">
-        <v>728468000000</v>
+        <v>742193000000</v>
       </c>
       <c r="C208" t="n">
-        <v>1.6116035455278</v>
+        <v>1.578282828282828</v>
       </c>
       <c r="D208" t="n">
-        <v>1174001611603.545</v>
+        <v>1171390467171.717</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>36251</v>
+        <v>36342</v>
       </c>
       <c r="B209" t="n">
-        <v>734284000000</v>
+        <v>742954000000</v>
       </c>
       <c r="C209" t="n">
-        <v>1.609528408176404</v>
+        <v>1.621533971136695</v>
       </c>
       <c r="D209" t="n">
-        <v>1181850957669.403</v>
+        <v>1204725149991.892</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>36281</v>
+        <v>36373</v>
       </c>
       <c r="B210" t="n">
-        <v>738281000000</v>
+        <v>743940000000</v>
       </c>
       <c r="C210" t="n">
-        <v>1.602564102564103</v>
+        <v>1.603849238171612</v>
       </c>
       <c r="D210" t="n">
-        <v>1183142628205.128</v>
+        <v>1193167602245.389</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>36312</v>
+        <v>36404</v>
       </c>
       <c r="B211" t="n">
-        <v>742206000000</v>
+        <v>738154000000</v>
       </c>
       <c r="C211" t="n">
-        <v>1.578282828282828</v>
+        <v>1.647446457990115</v>
       </c>
       <c r="D211" t="n">
-        <v>1171410984848.485</v>
+        <v>1216069192751.236</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>36342</v>
+        <v>36434</v>
       </c>
       <c r="B212" t="n">
-        <v>742956000000</v>
+        <v>741868000000</v>
       </c>
       <c r="C212" t="n">
-        <v>1.621533971136695</v>
+        <v>1.644195988161789</v>
       </c>
       <c r="D212" t="n">
-        <v>1204728393059.834</v>
+        <v>1219776389345.61</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>36373</v>
+        <v>36465</v>
       </c>
       <c r="B213" t="n">
-        <v>743936000000</v>
+        <v>748110000000</v>
       </c>
       <c r="C213" t="n">
-        <v>1.603849238171612</v>
+        <v>1.599232368463138</v>
       </c>
       <c r="D213" t="n">
-        <v>1193161186848.436</v>
+        <v>1196401727170.958</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>36404</v>
+        <v>36495</v>
       </c>
       <c r="B214" t="n">
-        <v>738153000000</v>
+        <v>754894000000</v>
       </c>
       <c r="C214" t="n">
-        <v>1.647446457990115</v>
+        <v>1.614726303891491</v>
       </c>
       <c r="D214" t="n">
-        <v>1216067545304.778</v>
+        <v>1218947198449.863</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>36434</v>
+        <v>36526</v>
       </c>
       <c r="B215" t="n">
-        <v>741867000000</v>
+        <v>754973000000</v>
       </c>
       <c r="C215" t="n">
-        <v>1.644195988161789</v>
+        <v>1.616553507921112</v>
       </c>
       <c r="D215" t="n">
-        <v>1219774745149.622</v>
+        <v>1220454251535.726</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>36465</v>
+        <v>36557</v>
       </c>
       <c r="B216" t="n">
-        <v>748108000000</v>
+        <v>762561000000</v>
       </c>
       <c r="C216" t="n">
-        <v>1.599232368463138</v>
+        <v>1.579279848389135</v>
       </c>
       <c r="D216" t="n">
-        <v>1196398528706.221</v>
+        <v>1204297220467.467</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>36495</v>
+        <v>36586</v>
       </c>
       <c r="B217" t="n">
-        <v>754881000000</v>
+        <v>765290000000</v>
       </c>
       <c r="C217" t="n">
-        <v>1.614726303891491</v>
+        <v>1.591596371160274</v>
       </c>
       <c r="D217" t="n">
-        <v>1218926207007.912</v>
+        <v>1218032786885.246</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>36526</v>
+        <v>36617</v>
       </c>
       <c r="B218" t="n">
-        <v>754976000000</v>
+        <v>775477000000</v>
       </c>
       <c r="C218" t="n">
-        <v>1.616553507921112</v>
+        <v>1.553760099440646</v>
       </c>
       <c r="D218" t="n">
-        <v>1220459101196.25</v>
+        <v>1204905220633.934</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>36557</v>
+        <v>36647</v>
       </c>
       <c r="B219" t="n">
-        <v>762560000000</v>
+        <v>786459000000</v>
       </c>
       <c r="C219" t="n">
-        <v>1.579279848389135</v>
+        <v>1.5008254539997</v>
       </c>
       <c r="D219" t="n">
-        <v>1204295641187.618</v>
+        <v>1180337685727.15</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>36586</v>
+        <v>36678</v>
       </c>
       <c r="B220" t="n">
-        <v>765278000000</v>
+        <v>792298000000</v>
       </c>
       <c r="C220" t="n">
-        <v>1.591596371160274</v>
+        <v>1.517450682852807</v>
       </c>
       <c r="D220" t="n">
-        <v>1218013687728.792</v>
+        <v>1202273141122.913</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>36617</v>
+        <v>36708</v>
       </c>
       <c r="B221" t="n">
-        <v>775478000000</v>
+        <v>793562000000</v>
       </c>
       <c r="C221" t="n">
-        <v>1.553760099440646</v>
+        <v>1.5001500150015</v>
       </c>
       <c r="D221" t="n">
-        <v>1204906774394.034</v>
+        <v>1190462046204.62</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>36647</v>
+        <v>36739</v>
       </c>
       <c r="B222" t="n">
-        <v>786464000000</v>
+        <v>801121000000</v>
       </c>
       <c r="C222" t="n">
-        <v>1.5008254539997</v>
+        <v>1.446968600781363</v>
       </c>
       <c r="D222" t="n">
-        <v>1180345189854.42</v>
+        <v>1159196932426.566</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>36678</v>
+        <v>36770</v>
       </c>
       <c r="B223" t="n">
-        <v>792285000000</v>
+        <v>804800000000</v>
       </c>
       <c r="C223" t="n">
-        <v>1.517450682852807</v>
+        <v>1.476232654266312</v>
       </c>
       <c r="D223" t="n">
-        <v>1202253414264.036</v>
+        <v>1188072040153.528</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>36708</v>
+        <v>36800</v>
       </c>
       <c r="B224" t="n">
-        <v>793560000000</v>
+        <v>812462000000</v>
       </c>
       <c r="C224" t="n">
-        <v>1.5001500150015</v>
+        <v>1.447806573041842</v>
       </c>
       <c r="D224" t="n">
-        <v>1190459045904.59</v>
+        <v>1176287823946.721</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>36739</v>
+        <v>36831</v>
       </c>
       <c r="B225" t="n">
-        <v>801124000000</v>
+        <v>816932000000</v>
       </c>
       <c r="C225" t="n">
-        <v>1.446968600781363</v>
+        <v>1.42551674982181</v>
       </c>
       <c r="D225" t="n">
-        <v>1159201273332.369</v>
+        <v>1164550249465.431</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>36770</v>
+        <v>36861</v>
       </c>
       <c r="B226" t="n">
-        <v>804801000000</v>
+        <v>825924000000</v>
       </c>
       <c r="C226" t="n">
-        <v>1.476232654266312</v>
+        <v>1.496333981744725</v>
       </c>
       <c r="D226" t="n">
-        <v>1188073516386.183</v>
+        <v>1235858147538.531</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>36800</v>
+        <v>36892</v>
       </c>
       <c r="B227" t="n">
-        <v>812457000000</v>
+        <v>834749000000</v>
       </c>
       <c r="C227" t="n">
-        <v>1.447806573041842</v>
+        <v>1.463914507392768</v>
       </c>
       <c r="D227" t="n">
-        <v>1176280584913.855</v>
+        <v>1222001171131.606</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>36831</v>
+        <v>36923</v>
       </c>
       <c r="B228" t="n">
-        <v>816938000000</v>
+        <v>833780000000</v>
       </c>
       <c r="C228" t="n">
-        <v>1.42551674982181</v>
+        <v>1.445504481063891</v>
       </c>
       <c r="D228" t="n">
-        <v>1164558802565.93</v>
+        <v>1205232726221.451</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>36861</v>
+        <v>36951</v>
       </c>
       <c r="B229" t="n">
-        <v>825923000000</v>
+        <v>848444000000</v>
       </c>
       <c r="C229" t="n">
-        <v>1.496333981744725</v>
+        <v>1.414627245720753</v>
       </c>
       <c r="D229" t="n">
-        <v>1235856651204.549</v>
+        <v>1200231998868.298</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>36892</v>
+        <v>36982</v>
       </c>
       <c r="B230" t="n">
-        <v>834764000000</v>
+        <v>849637000000</v>
       </c>
       <c r="C230" t="n">
-        <v>1.463914507392768</v>
+        <v>1.433280779704744</v>
       </c>
       <c r="D230" t="n">
-        <v>1222023129849.217</v>
+        <v>1217768381826</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>36923</v>
+        <v>37012</v>
       </c>
       <c r="B231" t="n">
-        <v>833802000000</v>
+        <v>850902000000</v>
       </c>
       <c r="C231" t="n">
-        <v>1.445504481063891</v>
+        <v>1.418439716312057</v>
       </c>
       <c r="D231" t="n">
-        <v>1205264527320.035</v>
+        <v>1206953191489.362</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>36951</v>
+        <v>37043</v>
       </c>
       <c r="B232" t="n">
-        <v>848447000000</v>
+        <v>852962000000</v>
       </c>
       <c r="C232" t="n">
-        <v>1.414627245720753</v>
+        <v>1.41622999575131</v>
       </c>
       <c r="D232" t="n">
-        <v>1200236242750.035</v>
+        <v>1207990369636.029</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>36982</v>
+        <v>37073</v>
       </c>
       <c r="B233" t="n">
-        <v>849640000000</v>
+        <v>865112000000</v>
       </c>
       <c r="C233" t="n">
-        <v>1.433280779704744</v>
+        <v>1.425313568985177</v>
       </c>
       <c r="D233" t="n">
-        <v>1217772681668.339</v>
+        <v>1233055872291.904</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>37012</v>
+        <v>37104</v>
       </c>
       <c r="B234" t="n">
-        <v>850900000000</v>
+        <v>867394000000</v>
       </c>
       <c r="C234" t="n">
-        <v>1.418439716312057</v>
+        <v>1.454122437109205</v>
       </c>
       <c r="D234" t="n">
-        <v>1206950354609.929</v>
+        <v>1261297077213.902</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>37043</v>
+        <v>37135</v>
       </c>
       <c r="B235" t="n">
-        <v>852964000000</v>
+        <v>879930000000</v>
       </c>
       <c r="C235" t="n">
-        <v>1.41622999575131</v>
+        <v>1.474491300501327</v>
       </c>
       <c r="D235" t="n">
-        <v>1207993202096.021</v>
+        <v>1297449130050.133</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>37073</v>
+        <v>37165</v>
       </c>
       <c r="B236" t="n">
-        <v>865098000000</v>
+        <v>886043000000</v>
       </c>
       <c r="C236" t="n">
-        <v>1.425313568985177</v>
+        <v>1.455180442374854</v>
       </c>
       <c r="D236" t="n">
-        <v>1233035917901.938</v>
+        <v>1289352444703.143</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>37104</v>
+        <v>37196</v>
       </c>
       <c r="B237" t="n">
-        <v>867380000000</v>
+        <v>887309000000</v>
       </c>
       <c r="C237" t="n">
-        <v>1.454122437109205</v>
+        <v>1.424501424501425</v>
       </c>
       <c r="D237" t="n">
-        <v>1261276719499.782</v>
+        <v>1263972934472.935</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>37135</v>
+        <v>37226</v>
       </c>
       <c r="B238" t="n">
-        <v>879928000000</v>
+        <v>892090000000</v>
       </c>
       <c r="C238" t="n">
-        <v>1.474491300501327</v>
+        <v>1.450747134774409</v>
       </c>
       <c r="D238" t="n">
-        <v>1297446181067.531</v>
+        <v>1294197011460.902</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>37165</v>
+        <v>37257</v>
       </c>
       <c r="B239" t="n">
-        <v>886058000000</v>
+        <v>885655000000</v>
       </c>
       <c r="C239" t="n">
-        <v>1.455180442374854</v>
+        <v>1.410835214446953</v>
       </c>
       <c r="D239" t="n">
-        <v>1289374272409.779</v>
+        <v>1249513261851.016</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>37196</v>
+        <v>37288</v>
       </c>
       <c r="B240" t="n">
-        <v>887299000000</v>
+        <v>887706000000</v>
       </c>
       <c r="C240" t="n">
-        <v>1.424501424501425</v>
+        <v>1.416831963729102</v>
       </c>
       <c r="D240" t="n">
-        <v>1263958689458.69</v>
+        <v>1257730235194.106</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>37226</v>
+        <v>37316</v>
       </c>
       <c r="B241" t="n">
-        <v>892092000000</v>
+        <v>892254000000</v>
       </c>
       <c r="C241" t="n">
-        <v>1.450747134774409</v>
+        <v>1.425923285327249</v>
       </c>
       <c r="D241" t="n">
-        <v>1294199912955.172</v>
+        <v>1272285755026.38</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>37257</v>
+        <v>37347</v>
       </c>
       <c r="B242" t="n">
-        <v>885660000000</v>
+        <v>894439000000</v>
       </c>
       <c r="C242" t="n">
-        <v>1.410835214446953</v>
+        <v>1.457938474996355</v>
       </c>
       <c r="D242" t="n">
-        <v>1249520316027.088</v>
+        <v>1304037031637.265</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>37288</v>
+        <v>37377</v>
       </c>
       <c r="B243" t="n">
-        <v>887715000000</v>
+        <v>899955000000</v>
       </c>
       <c r="C243" t="n">
-        <v>1.416831963729102</v>
+        <v>1.45602795573675</v>
       </c>
       <c r="D243" t="n">
-        <v>1257742986681.78</v>
+        <v>1310359638905.067</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>37316</v>
+        <v>37408</v>
       </c>
       <c r="B244" t="n">
-        <v>892250000000</v>
+        <v>903085000000</v>
       </c>
       <c r="C244" t="n">
-        <v>1.425923285327249</v>
+        <v>1.533272002453235</v>
       </c>
       <c r="D244" t="n">
-        <v>1272280051333.238</v>
+        <v>1384674946335.48</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>37347</v>
+        <v>37438</v>
       </c>
       <c r="B245" t="n">
-        <v>894430000000</v>
+        <v>909212000000</v>
       </c>
       <c r="C245" t="n">
-        <v>1.457938474996355</v>
+        <v>1.563477173233271</v>
       </c>
       <c r="D245" t="n">
-        <v>1304023910190.99</v>
+        <v>1421532207629.769</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>37377</v>
+        <v>37469</v>
       </c>
       <c r="B246" t="n">
-        <v>899945000000</v>
+        <v>917589000000</v>
       </c>
       <c r="C246" t="n">
-        <v>1.45602795573675</v>
+        <v>1.550387596899225</v>
       </c>
       <c r="D246" t="n">
-        <v>1310345078625.51</v>
+        <v>1422618604651.163</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>37408</v>
+        <v>37500</v>
       </c>
       <c r="B247" t="n">
-        <v>903077000000</v>
+        <v>917413000000</v>
       </c>
       <c r="C247" t="n">
-        <v>1.533272002453235</v>
+        <v>1.568381430363865</v>
       </c>
       <c r="D247" t="n">
-        <v>1384662680159.46</v>
+        <v>1438853513174.404</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>37438</v>
+        <v>37530</v>
       </c>
       <c r="B248" t="n">
-        <v>909219000000</v>
+        <v>927123000000</v>
       </c>
       <c r="C248" t="n">
-        <v>1.563477173233271</v>
+        <v>1.564455569461827</v>
       </c>
       <c r="D248" t="n">
-        <v>1421543151969.981</v>
+        <v>1450442740926.158</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>37469</v>
+        <v>37561</v>
       </c>
       <c r="B249" t="n">
-        <v>917594000000</v>
+        <v>930592000000</v>
       </c>
       <c r="C249" t="n">
-        <v>1.550387596899225</v>
+        <v>1.557875058420315</v>
       </c>
       <c r="D249" t="n">
-        <v>1422626356589.147</v>
+        <v>1449746066365.478</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>37500</v>
+        <v>37591</v>
       </c>
       <c r="B250" t="n">
-        <v>917418000000</v>
+        <v>932620000000</v>
       </c>
       <c r="C250" t="n">
-        <v>1.568381430363865</v>
+        <v>1.6116035455278</v>
       </c>
       <c r="D250" t="n">
-        <v>1438861355081.556</v>
+        <v>1503013698630.137</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>37530</v>
+        <v>37622</v>
       </c>
       <c r="B251" t="n">
-        <v>927127000000</v>
+        <v>931987000000</v>
       </c>
       <c r="C251" t="n">
-        <v>1.564455569461827</v>
+        <v>1.646903820816864</v>
       </c>
       <c r="D251" t="n">
-        <v>1450448998748.436</v>
+        <v>1534892951251.647</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>37561</v>
+        <v>37653</v>
       </c>
       <c r="B252" t="n">
-        <v>930599000000</v>
+        <v>943611000000</v>
       </c>
       <c r="C252" t="n">
-        <v>1.557875058420315</v>
+        <v>1.573069057731634</v>
       </c>
       <c r="D252" t="n">
-        <v>1449756971490.886</v>
+        <v>1484365266635.205</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>37591</v>
+        <v>37681</v>
       </c>
       <c r="B253" t="n">
-        <v>932613000000</v>
+        <v>940322000000</v>
       </c>
       <c r="C253" t="n">
-        <v>1.6116035455278</v>
+        <v>1.58202816010125</v>
       </c>
       <c r="D253" t="n">
-        <v>1503002417405.318</v>
+        <v>1487615883562.728</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>37622</v>
+        <v>37712</v>
       </c>
       <c r="B254" t="n">
-        <v>931975000000</v>
+        <v>947353000000</v>
       </c>
       <c r="C254" t="n">
-        <v>1.646903820816864</v>
+        <v>1.597954618088846</v>
       </c>
       <c r="D254" t="n">
-        <v>1534873188405.797</v>
+        <v>1513827101310.323</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>37653</v>
+        <v>37742</v>
       </c>
       <c r="B255" t="n">
-        <v>943601000000</v>
+        <v>950857000000</v>
       </c>
       <c r="C255" t="n">
-        <v>1.573069057731634</v>
+        <v>1.636393388970709</v>
       </c>
       <c r="D255" t="n">
-        <v>1484349535944.628</v>
+        <v>1555976108656.521</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>37681</v>
+        <v>37773</v>
       </c>
       <c r="B256" t="n">
-        <v>940321000000</v>
+        <v>958832000000</v>
       </c>
       <c r="C256" t="n">
-        <v>1.58202816010125</v>
+        <v>1.655355073663301</v>
       </c>
       <c r="D256" t="n">
-        <v>1487614301534.567</v>
+        <v>1587207415990.73</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>37712</v>
+        <v>37803</v>
       </c>
       <c r="B257" t="n">
-        <v>947364000000</v>
+        <v>963658000000</v>
       </c>
       <c r="C257" t="n">
-        <v>1.597954618088846</v>
+        <v>1.610824742268041</v>
       </c>
       <c r="D257" t="n">
-        <v>1513844678811.122</v>
+        <v>1552284149484.536</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>37742</v>
+        <v>37834</v>
       </c>
       <c r="B258" t="n">
-        <v>950862000000</v>
+        <v>968813000000</v>
       </c>
       <c r="C258" t="n">
-        <v>1.636393388970709</v>
+        <v>1.577784790154623</v>
       </c>
       <c r="D258" t="n">
-        <v>1555984290623.466</v>
+        <v>1528578415904.071</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>37773</v>
+        <v>37865</v>
       </c>
       <c r="B259" t="n">
-        <v>958829000000</v>
+        <v>971829000000</v>
       </c>
       <c r="C259" t="n">
-        <v>1.655355073663301</v>
+        <v>1.661957786272229</v>
       </c>
       <c r="D259" t="n">
-        <v>1587202449925.509</v>
+        <v>1615138773475.154</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>37803</v>
+        <v>37895</v>
       </c>
       <c r="B260" t="n">
-        <v>963655000000</v>
+        <v>978314000000</v>
       </c>
       <c r="C260" t="n">
-        <v>1.610824742268041</v>
+        <v>1.695777513990165</v>
       </c>
       <c r="D260" t="n">
-        <v>1552279317010.309</v>
+        <v>1659002882821.774</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>37834</v>
+        <v>37926</v>
       </c>
       <c r="B261" t="n">
-        <v>968813000000</v>
+        <v>988357000000</v>
       </c>
       <c r="C261" t="n">
-        <v>1.577784790154623</v>
+        <v>1.722059583261581</v>
       </c>
       <c r="D261" t="n">
-        <v>1528578415904.071</v>
+        <v>1702009643533.666</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>37865</v>
+        <v>37956</v>
       </c>
       <c r="B262" t="n">
-        <v>971827000000</v>
+        <v>997834000000</v>
       </c>
       <c r="C262" t="n">
-        <v>1.661957786272229</v>
+        <v>1.77683013503909</v>
       </c>
       <c r="D262" t="n">
-        <v>1615135449559.581</v>
+        <v>1772981520966.596</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>37895</v>
+        <v>37987</v>
       </c>
       <c r="B263" t="n">
-        <v>978301000000</v>
+        <v>1006973000000</v>
       </c>
       <c r="C263" t="n">
-        <v>1.695777513990165</v>
+        <v>1.823486506199854</v>
       </c>
       <c r="D263" t="n">
-        <v>1658980837714.092</v>
+        <v>1836201677607.586</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>37926</v>
+        <v>38018</v>
       </c>
       <c r="B264" t="n">
-        <v>988357000000</v>
+        <v>1014084000000</v>
       </c>
       <c r="C264" t="n">
-        <v>1.722059583261581</v>
+        <v>1.868460388639761</v>
       </c>
       <c r="D264" t="n">
-        <v>1702009643533.666</v>
+        <v>1894775784753.363</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>37956</v>
+        <v>38047</v>
       </c>
       <c r="B265" t="n">
-        <v>997851000000</v>
+        <v>1019846000000</v>
       </c>
       <c r="C265" t="n">
-        <v>1.77683013503909</v>
+        <v>1.845699520118125</v>
       </c>
       <c r="D265" t="n">
-        <v>1773011727078.891</v>
+        <v>1882329272794.389</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>37987</v>
+        <v>38078</v>
       </c>
       <c r="B266" t="n">
-        <v>1006978000000</v>
+        <v>1029067000000</v>
       </c>
       <c r="C266" t="n">
-        <v>1.823486506199854</v>
+        <v>1.778410101369376</v>
       </c>
       <c r="D266" t="n">
-        <v>1836210795040.117</v>
+        <v>1830103147785.879</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>38018</v>
+        <v>38108</v>
       </c>
       <c r="B267" t="n">
-        <v>1014085000000</v>
+        <v>1032545000000</v>
       </c>
       <c r="C267" t="n">
-        <v>1.868460388639761</v>
+        <v>1.832172957127153</v>
       </c>
       <c r="D267" t="n">
-        <v>1894777653213.752</v>
+        <v>1891801026016.856</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>38047</v>
+        <v>38139</v>
       </c>
       <c r="B268" t="n">
-        <v>1019859000000</v>
+        <v>1047502000000</v>
       </c>
       <c r="C268" t="n">
-        <v>1.845699520118125</v>
+        <v>1.820498816675769</v>
       </c>
       <c r="D268" t="n">
-        <v>1882353266888.151</v>
+        <v>1906976151465.501</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>38078</v>
+        <v>38169</v>
       </c>
       <c r="B269" t="n">
-        <v>1029044000000</v>
+        <v>1052836000000</v>
       </c>
       <c r="C269" t="n">
-        <v>1.778410101369376</v>
+        <v>1.819836214740673</v>
       </c>
       <c r="D269" t="n">
-        <v>1830062244353.548</v>
+        <v>1915989080982.712</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>38108</v>
+        <v>38200</v>
       </c>
       <c r="B270" t="n">
-        <v>1032543000000</v>
+        <v>1065079000000</v>
       </c>
       <c r="C270" t="n">
-        <v>1.832172957127153</v>
+        <v>1.802776275464215</v>
       </c>
       <c r="D270" t="n">
-        <v>1891797361670.942</v>
+        <v>1920099152695.151</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>38139</v>
+        <v>38231</v>
       </c>
       <c r="B271" t="n">
-        <v>1047513000000</v>
+        <v>1073336000000</v>
       </c>
       <c r="C271" t="n">
-        <v>1.820498816675769</v>
+        <v>1.81257930034439</v>
       </c>
       <c r="D271" t="n">
-        <v>1906996176952.485</v>
+        <v>1945506615914.446</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>38169</v>
+        <v>38261</v>
       </c>
       <c r="B272" t="n">
-        <v>1052837000000</v>
+        <v>1081830000000</v>
       </c>
       <c r="C272" t="n">
-        <v>1.819836214740673</v>
+        <v>1.836547291092746</v>
       </c>
       <c r="D272" t="n">
-        <v>1915990900818.927</v>
+        <v>1986831955922.865</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>38200</v>
+        <v>38292</v>
       </c>
       <c r="B273" t="n">
-        <v>1065074000000</v>
+        <v>1093097000000</v>
       </c>
       <c r="C273" t="n">
-        <v>1.802776275464215</v>
+        <v>1.909490166125644</v>
       </c>
       <c r="D273" t="n">
-        <v>1920090138813.773</v>
+        <v>2087257972121.443</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>38231</v>
+        <v>38322</v>
       </c>
       <c r="B274" t="n">
-        <v>1073345000000</v>
+        <v>1097986000000</v>
       </c>
       <c r="C274" t="n">
-        <v>1.81257930034439</v>
+        <v>1.918649270913277</v>
       </c>
       <c r="D274" t="n">
-        <v>1945522929128.149</v>
+        <v>2106650038372.985</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>38261</v>
+        <v>38353</v>
       </c>
       <c r="B275" t="n">
-        <v>1081834000000</v>
+        <v>1109899000000</v>
       </c>
       <c r="C275" t="n">
-        <v>1.836547291092746</v>
+        <v>1.883239171374764</v>
       </c>
       <c r="D275" t="n">
-        <v>1986839302112.029</v>
+        <v>2090205273069.68</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>38292</v>
+        <v>38384</v>
       </c>
       <c r="B276" t="n">
-        <v>1093089000000</v>
+        <v>1114240000000</v>
       </c>
       <c r="C276" t="n">
-        <v>1.909490166125644</v>
+        <v>1.921229586935639</v>
       </c>
       <c r="D276" t="n">
-        <v>2087242696200.114</v>
+        <v>2140710854947.167</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>38322</v>
+        <v>38412</v>
       </c>
       <c r="B277" t="n">
-        <v>1097970000000</v>
+        <v>1126640000000</v>
       </c>
       <c r="C277" t="n">
-        <v>1.918649270913277</v>
+        <v>1.89000189000189</v>
       </c>
       <c r="D277" t="n">
-        <v>2106619339984.651</v>
+        <v>2129351729351.729</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>38353</v>
+        <v>38443</v>
       </c>
       <c r="B278" t="n">
-        <v>1109901000000</v>
+        <v>1141002000000</v>
       </c>
       <c r="C278" t="n">
-        <v>1.883239171374764</v>
+        <v>1.909125620465826</v>
       </c>
       <c r="D278" t="n">
-        <v>2090209039548.022</v>
+        <v>2178316151202.749</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>38384</v>
+        <v>38473</v>
       </c>
       <c r="B279" t="n">
-        <v>1114245000000</v>
+        <v>1156696000000</v>
       </c>
       <c r="C279" t="n">
-        <v>1.921229586935639</v>
+        <v>1.817190623296384</v>
       </c>
       <c r="D279" t="n">
-        <v>2140720461095.101</v>
+        <v>2101937125204.434</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>38412</v>
+        <v>38504</v>
       </c>
       <c r="B280" t="n">
-        <v>1126640000000</v>
+        <v>1163947000000</v>
       </c>
       <c r="C280" t="n">
-        <v>1.89000189000189</v>
+        <v>1.791793585378964</v>
       </c>
       <c r="D280" t="n">
-        <v>2129351729351.729</v>
+        <v>2085552768321.089</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>38443</v>
+        <v>38534</v>
       </c>
       <c r="B281" t="n">
-        <v>1140999000000</v>
+        <v>1176816000000</v>
       </c>
       <c r="C281" t="n">
-        <v>1.909125620465826</v>
+        <v>1.758087201125176</v>
       </c>
       <c r="D281" t="n">
-        <v>2178310423825.887</v>
+        <v>2068945147679.325</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>38473</v>
+        <v>38565</v>
       </c>
       <c r="B282" t="n">
-        <v>1156686000000</v>
+        <v>1173328000000</v>
       </c>
       <c r="C282" t="n">
-        <v>1.817190623296384</v>
+        <v>1.804728388377549</v>
       </c>
       <c r="D282" t="n">
-        <v>2101918953298.201</v>
+        <v>2117538350478.253</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>38504</v>
+        <v>38596</v>
       </c>
       <c r="B283" t="n">
-        <v>1163944000000</v>
+        <v>1193005000000</v>
       </c>
       <c r="C283" t="n">
-        <v>1.791793585378964</v>
+        <v>1.768659356207994</v>
       </c>
       <c r="D283" t="n">
-        <v>2085547392940.333</v>
+        <v>2110019455252.918</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>38534</v>
+        <v>38626</v>
       </c>
       <c r="B284" t="n">
-        <v>1176813000000</v>
+        <v>1202441000000</v>
       </c>
       <c r="C284" t="n">
-        <v>1.758087201125176</v>
+        <v>1.771165426850868</v>
       </c>
       <c r="D284" t="n">
-        <v>2068939873417.721</v>
+        <v>2129721927027.984</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>38565</v>
+        <v>38657</v>
       </c>
       <c r="B285" t="n">
-        <v>1173350000000</v>
+        <v>1212700000000</v>
       </c>
       <c r="C285" t="n">
-        <v>1.804728388377549</v>
+        <v>1.730403183941859</v>
       </c>
       <c r="D285" t="n">
-        <v>2117578054502.797</v>
+        <v>2098459941166.292</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>38596</v>
+        <v>38687</v>
       </c>
       <c r="B286" t="n">
-        <v>1192996000000</v>
+        <v>1226950000000</v>
       </c>
       <c r="C286" t="n">
-        <v>1.768659356207994</v>
+        <v>1.723840717117739</v>
       </c>
       <c r="D286" t="n">
-        <v>2110003537318.712</v>
+        <v>2115066367867.609</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>38626</v>
+        <v>38718</v>
       </c>
       <c r="B287" t="n">
-        <v>1202450000000</v>
+        <v>1233062000000</v>
       </c>
       <c r="C287" t="n">
-        <v>1.771165426850868</v>
+        <v>1.779676098949991</v>
       </c>
       <c r="D287" t="n">
-        <v>2129737867516.826</v>
+        <v>2194450969923.474</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>38657</v>
+        <v>38749</v>
       </c>
       <c r="B288" t="n">
-        <v>1212721000000</v>
+        <v>1252313000000</v>
       </c>
       <c r="C288" t="n">
-        <v>1.730403183941859</v>
+        <v>1.754693805930865</v>
       </c>
       <c r="D288" t="n">
-        <v>2098496279633.155</v>
+        <v>2197425864186.7</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>38687</v>
+        <v>38777</v>
       </c>
       <c r="B289" t="n">
-        <v>1226957000000</v>
+        <v>1261558000000</v>
       </c>
       <c r="C289" t="n">
-        <v>1.723840717117739</v>
+        <v>1.738223535546671</v>
       </c>
       <c r="D289" t="n">
-        <v>2115078434752.629</v>
+        <v>2192869807057.188</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>38718</v>
+        <v>38808</v>
       </c>
       <c r="B290" t="n">
-        <v>1233048000000</v>
+        <v>1275564000000</v>
       </c>
       <c r="C290" t="n">
-        <v>1.779676098949991</v>
+        <v>1.825817053131276</v>
       </c>
       <c r="D290" t="n">
-        <v>2194426054458.089</v>
+        <v>2328946503560.343</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>38749</v>
+        <v>38838</v>
       </c>
       <c r="B291" t="n">
-        <v>1252304000000</v>
+        <v>1279359000000</v>
       </c>
       <c r="C291" t="n">
-        <v>1.754693805930865</v>
+        <v>1.872308556450103</v>
       </c>
       <c r="D291" t="n">
-        <v>2197410071942.446</v>
+        <v>2395354802471.447</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>38777</v>
+        <v>38869</v>
       </c>
       <c r="B292" t="n">
-        <v>1261536000000</v>
+        <v>1297929000000</v>
       </c>
       <c r="C292" t="n">
-        <v>1.738223535546671</v>
+        <v>1.849112426035503</v>
       </c>
       <c r="D292" t="n">
-        <v>2192831566139.406</v>
+        <v>2400016642011.834</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>38808</v>
+        <v>38899</v>
       </c>
       <c r="B293" t="n">
-        <v>1275554000000</v>
+        <v>1310723000000</v>
       </c>
       <c r="C293" t="n">
-        <v>1.825817053131276</v>
+        <v>1.868460388639761</v>
       </c>
       <c r="D293" t="n">
-        <v>2328928245389.812</v>
+        <v>2449034005979.073</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>38838</v>
+        <v>38930</v>
       </c>
       <c r="B294" t="n">
-        <v>1279377000000</v>
+        <v>1321893000000</v>
       </c>
       <c r="C294" t="n">
-        <v>1.872308556450103</v>
+        <v>1.904761904761905</v>
       </c>
       <c r="D294" t="n">
-        <v>2395388504025.463</v>
+        <v>2517891428571.428</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>38869</v>
+        <v>38961</v>
       </c>
       <c r="B295" t="n">
-        <v>1297903000000</v>
+        <v>1340612000000</v>
       </c>
       <c r="C295" t="n">
-        <v>1.849112426035503</v>
+        <v>1.874062968515742</v>
       </c>
       <c r="D295" t="n">
-        <v>2399968565088.758</v>
+        <v>2512391304347.826</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>38899</v>
+        <v>38991</v>
       </c>
       <c r="B296" t="n">
-        <v>1310728000000</v>
+        <v>1362179000000</v>
       </c>
       <c r="C296" t="n">
-        <v>1.868460388639761</v>
+        <v>1.907304978065993</v>
       </c>
       <c r="D296" t="n">
-        <v>2449043348281.017</v>
+        <v>2598090787716.956</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>38930</v>
+        <v>39022</v>
       </c>
       <c r="B297" t="n">
-        <v>1321901000000</v>
+        <v>1373469000000</v>
       </c>
       <c r="C297" t="n">
-        <v>1.904761904761905</v>
+        <v>1.966568338249754</v>
       </c>
       <c r="D297" t="n">
-        <v>2517906666666.667</v>
+        <v>2701020648967.552</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>38961</v>
+        <v>39052</v>
       </c>
       <c r="B298" t="n">
-        <v>1340630000000</v>
+        <v>1399379000000</v>
       </c>
       <c r="C298" t="n">
-        <v>1.874062968515742</v>
+        <v>1.96078431372549</v>
       </c>
       <c r="D298" t="n">
-        <v>2512425037481.259</v>
+        <v>2743880392156.863</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>38991</v>
+        <v>39083</v>
       </c>
       <c r="B299" t="n">
-        <v>1362172000000</v>
+        <v>1400685000000</v>
       </c>
       <c r="C299" t="n">
-        <v>1.907304978065993</v>
+        <v>1.966181675186787</v>
       </c>
       <c r="D299" t="n">
-        <v>2598077436582.109</v>
+        <v>2754001179709.005</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>39022</v>
+        <v>39114</v>
       </c>
       <c r="B300" t="n">
-        <v>1373474000000</v>
+        <v>1419749000000</v>
       </c>
       <c r="C300" t="n">
-        <v>1.966568338249754</v>
+        <v>1.965022597759874</v>
       </c>
       <c r="D300" t="n">
-        <v>2701030481809.243</v>
+        <v>2789838868146.983</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>39052</v>
+        <v>39142</v>
       </c>
       <c r="B301" t="n">
-        <v>1399379000000</v>
+        <v>1441536000000</v>
       </c>
       <c r="C301" t="n">
-        <v>1.96078431372549</v>
+        <v>1.968503937007874</v>
       </c>
       <c r="D301" t="n">
-        <v>2743880392156.863</v>
+        <v>2837669291338.583</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>39083</v>
+        <v>39173</v>
       </c>
       <c r="B302" t="n">
-        <v>1400702000000</v>
+        <v>1459002000000</v>
       </c>
       <c r="C302" t="n">
-        <v>1.966181675186787</v>
+        <v>2.000400080016003</v>
       </c>
       <c r="D302" t="n">
-        <v>2754034604797.483</v>
+        <v>2918587717543.509</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>39114</v>
+        <v>39203</v>
       </c>
       <c r="B303" t="n">
-        <v>1419772000000</v>
+        <v>1480566000000</v>
       </c>
       <c r="C303" t="n">
-        <v>1.965022597759874</v>
+        <v>1.980590215884333</v>
       </c>
       <c r="D303" t="n">
-        <v>2789884063666.732</v>
+        <v>2932394533571.004</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>39142</v>
+        <v>39234</v>
       </c>
       <c r="B304" t="n">
-        <v>1441541000000</v>
+        <v>1498320000000</v>
       </c>
       <c r="C304" t="n">
-        <v>1.968503937007874</v>
+        <v>2.009646302250804</v>
       </c>
       <c r="D304" t="n">
-        <v>2837679133858.268</v>
+        <v>3011093247588.425</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>39173</v>
+        <v>39264</v>
       </c>
       <c r="B305" t="n">
-        <v>1458997000000</v>
+        <v>1512976000000</v>
       </c>
       <c r="C305" t="n">
-        <v>2.000400080016003</v>
+        <v>2.030869212022746</v>
       </c>
       <c r="D305" t="n">
-        <v>2918577715543.108</v>
+        <v>3072656376929.326</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>39203</v>
+        <v>39295</v>
       </c>
       <c r="B306" t="n">
-        <v>1480565000000</v>
+        <v>1538862000000</v>
       </c>
       <c r="C306" t="n">
-        <v>1.980590215884333</v>
+        <v>2.01816347124117</v>
       </c>
       <c r="D306" t="n">
-        <v>2932392552980.788</v>
+        <v>3105675075681.13</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>39234</v>
+        <v>39326</v>
       </c>
       <c r="B307" t="n">
-        <v>1498321000000</v>
+        <v>1538690000000</v>
       </c>
       <c r="C307" t="n">
-        <v>2.009646302250804</v>
+        <v>2.047082906857728</v>
       </c>
       <c r="D307" t="n">
-        <v>3011095257234.727</v>
+        <v>3149825997952.917</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>39264</v>
+        <v>39356</v>
       </c>
       <c r="B308" t="n">
-        <v>1512968000000</v>
+        <v>1529328000000</v>
       </c>
       <c r="C308" t="n">
-        <v>2.030869212022746</v>
+        <v>2.082465639316951</v>
       </c>
       <c r="D308" t="n">
-        <v>3072640129975.629</v>
+        <v>3184773011245.314</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>39295</v>
+        <v>39387</v>
       </c>
       <c r="B309" t="n">
-        <v>1538846000000</v>
+        <v>1539735000000</v>
       </c>
       <c r="C309" t="n">
-        <v>2.01816347124117</v>
+        <v>2.058884084826024</v>
       </c>
       <c r="D309" t="n">
-        <v>3105642785065.59</v>
+        <v>3170135886349.599</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>39326</v>
+        <v>39417</v>
       </c>
       <c r="B310" t="n">
-        <v>1538697000000</v>
+        <v>1552875000000</v>
       </c>
       <c r="C310" t="n">
-        <v>2.047082906857728</v>
+        <v>1.987676406281057</v>
       </c>
       <c r="D310" t="n">
-        <v>3149840327533.265</v>
+        <v>3086612999403.697</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>39356</v>
+        <v>39448</v>
       </c>
       <c r="B311" t="n">
-        <v>1529352000000</v>
+        <v>1614644000000</v>
       </c>
       <c r="C311" t="n">
-        <v>2.082465639316951</v>
+        <v>1.988466892026248</v>
       </c>
       <c r="D311" t="n">
-        <v>3184822990420.658</v>
+        <v>3210666136408.829</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>39387</v>
+        <v>39479</v>
       </c>
       <c r="B312" t="n">
-        <v>1539713000000</v>
+        <v>1619432000000</v>
       </c>
       <c r="C312" t="n">
-        <v>2.058884084826024</v>
+        <v>1.989653800238758</v>
       </c>
       <c r="D312" t="n">
-        <v>3170090590899.732</v>
+        <v>3222109033028.253</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>39417</v>
+        <v>39508</v>
       </c>
       <c r="B313" t="n">
-        <v>1552882000000</v>
+        <v>1642420000000</v>
       </c>
       <c r="C313" t="n">
-        <v>1.987676406281057</v>
+        <v>1.984126984126984</v>
       </c>
       <c r="D313" t="n">
-        <v>3086626913138.541</v>
+        <v>3258769841269.841</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>39448</v>
+        <v>39539</v>
       </c>
       <c r="B314" t="n">
-        <v>1614640000000</v>
+        <v>1653886000000</v>
       </c>
       <c r="C314" t="n">
-        <v>1.988466892026248</v>
+        <v>1.988862370723946</v>
       </c>
       <c r="D314" t="n">
-        <v>3210658182541.26</v>
+        <v>3289351630867.144</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>39479</v>
+        <v>39569</v>
       </c>
       <c r="B315" t="n">
-        <v>1619403000000</v>
+        <v>1659316000000</v>
       </c>
       <c r="C315" t="n">
-        <v>1.989653800238758</v>
+        <v>1.983339944466482</v>
       </c>
       <c r="D315" t="n">
-        <v>3222051333068.046</v>
+        <v>3290987703292.344</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>39508</v>
+        <v>39600</v>
       </c>
       <c r="B316" t="n">
-        <v>1642425000000</v>
+        <v>1671091000000</v>
       </c>
       <c r="C316" t="n">
-        <v>1.984126984126984</v>
+        <v>1.994017946161516</v>
       </c>
       <c r="D316" t="n">
-        <v>3258779761904.762</v>
+        <v>3332185443668.994</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>39539</v>
+        <v>39630</v>
       </c>
       <c r="B317" t="n">
-        <v>1653904000000</v>
+        <v>1673925000000</v>
       </c>
       <c r="C317" t="n">
-        <v>1.988862370723946</v>
+        <v>1.984520738241714</v>
       </c>
       <c r="D317" t="n">
-        <v>3289387430389.817</v>
+        <v>3321938876761.262</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>39569</v>
+        <v>39661</v>
       </c>
       <c r="B318" t="n">
-        <v>1659319000000</v>
+        <v>1680684000000</v>
       </c>
       <c r="C318" t="n">
-        <v>1.983339944466482</v>
+        <v>1.817190623296384</v>
       </c>
       <c r="D318" t="n">
-        <v>3290993653312.178</v>
+        <v>3054123205524.259</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>39600</v>
+        <v>39692</v>
       </c>
       <c r="B319" t="n">
-        <v>1671092000000</v>
+        <v>1687895000000</v>
       </c>
       <c r="C319" t="n">
-        <v>1.994017946161516</v>
+        <v>1.784121320249777</v>
       </c>
       <c r="D319" t="n">
-        <v>3332187437686.939</v>
+        <v>3011409455842.998</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>39630</v>
+        <v>39722</v>
       </c>
       <c r="B320" t="n">
-        <v>1673932000000</v>
+        <v>1743259000000</v>
       </c>
       <c r="C320" t="n">
-        <v>1.984520738241714</v>
+        <v>1.605394124257505</v>
       </c>
       <c r="D320" t="n">
-        <v>3321952768406.43</v>
+        <v>2798617755659.014</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>39661</v>
+        <v>39753</v>
       </c>
       <c r="B321" t="n">
-        <v>1680693000000</v>
+        <v>1793354000000</v>
       </c>
       <c r="C321" t="n">
-        <v>1.817190623296384</v>
+        <v>1.538224888478696</v>
       </c>
       <c r="D321" t="n">
-        <v>3054139560239.869</v>
+        <v>2758581756652.823</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>39692</v>
+        <v>39783</v>
       </c>
       <c r="B322" t="n">
-        <v>1687890000000</v>
+        <v>1838164000000</v>
       </c>
       <c r="C322" t="n">
-        <v>1.784121320249777</v>
+        <v>1.462629808395495</v>
       </c>
       <c r="D322" t="n">
-        <v>3011400535236.396</v>
+        <v>2688553459119.497</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>39722</v>
+        <v>39814</v>
       </c>
       <c r="B323" t="n">
-        <v>1743225000000</v>
+        <v>1847619000000</v>
       </c>
       <c r="C323" t="n">
-        <v>1.605394124257505</v>
+        <v>1.452011035283868</v>
       </c>
       <c r="D323" t="n">
-        <v>2798563172258.79</v>
+        <v>2682763177000.146</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>39753</v>
+        <v>39845</v>
       </c>
       <c r="B324" t="n">
-        <v>1793355000000</v>
+        <v>1839000000000</v>
       </c>
       <c r="C324" t="n">
-        <v>1.538224888478696</v>
+        <v>1.431639226914817</v>
       </c>
       <c r="D324" t="n">
-        <v>2758583294877.711</v>
+        <v>2632784538296.349</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>39783</v>
+        <v>39873</v>
       </c>
       <c r="B325" t="n">
-        <v>1838199000000</v>
+        <v>1852102000000</v>
       </c>
       <c r="C325" t="n">
-        <v>1.462629808395495</v>
+        <v>1.433280779704744</v>
       </c>
       <c r="D325" t="n">
-        <v>2688604651162.791</v>
+        <v>2654582198652.716</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>39814</v>
+        <v>39904</v>
       </c>
       <c r="B326" t="n">
-        <v>1847617000000</v>
+        <v>1828305000000</v>
       </c>
       <c r="C326" t="n">
-        <v>1.452011035283868</v>
+        <v>1.478633742422002</v>
       </c>
       <c r="D326" t="n">
-        <v>2682760272978.075</v>
+        <v>2703393464438.858</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>39845</v>
+        <v>39934</v>
       </c>
       <c r="B327" t="n">
-        <v>1839006000000</v>
+        <v>1821504000000</v>
       </c>
       <c r="C327" t="n">
-        <v>1.431639226914817</v>
+        <v>1.619695497246518</v>
       </c>
       <c r="D327" t="n">
-        <v>2632793128131.711</v>
+        <v>2950281827016.521</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>39873</v>
+        <v>39965</v>
       </c>
       <c r="B328" t="n">
-        <v>1852086000000</v>
+        <v>1813632000000</v>
       </c>
       <c r="C328" t="n">
-        <v>1.433280779704744</v>
+        <v>1.647446457990115</v>
       </c>
       <c r="D328" t="n">
-        <v>2654559266160.241</v>
+        <v>2987861614497.529</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>39904</v>
+        <v>39995</v>
       </c>
       <c r="B329" t="n">
-        <v>1828295000000</v>
+        <v>1825833000000</v>
       </c>
       <c r="C329" t="n">
-        <v>1.478633742422002</v>
+        <v>1.671402306535183</v>
       </c>
       <c r="D329" t="n">
-        <v>2703378678101.434</v>
+        <v>3051701487548.053</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>39934</v>
+        <v>40026</v>
       </c>
       <c r="B330" t="n">
-        <v>1821502000000</v>
+        <v>1837989000000</v>
       </c>
       <c r="C330" t="n">
-        <v>1.619695497246518</v>
+        <v>1.628399283504315</v>
       </c>
       <c r="D330" t="n">
-        <v>2950278587625.527</v>
+        <v>2992979970688.813</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>39965</v>
+        <v>40057</v>
       </c>
       <c r="B331" t="n">
-        <v>1813613000000</v>
+        <v>1860450000000</v>
       </c>
       <c r="C331" t="n">
-        <v>1.647446457990115</v>
+        <v>1.601537475976938</v>
       </c>
       <c r="D331" t="n">
-        <v>2987830313014.827</v>
+        <v>2979580397181.294</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>39995</v>
+        <v>40087</v>
       </c>
       <c r="B332" t="n">
-        <v>1825805000000</v>
+        <v>1897862000000</v>
       </c>
       <c r="C332" t="n">
-        <v>1.671402306535183</v>
+        <v>1.645278051990786</v>
       </c>
       <c r="D332" t="n">
-        <v>3051654688283.47</v>
+        <v>3122510694307.338</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>40026</v>
+        <v>40118</v>
       </c>
       <c r="B333" t="n">
-        <v>1837996000000</v>
+        <v>1898759000000</v>
       </c>
       <c r="C333" t="n">
-        <v>1.628399283504315</v>
+        <v>1.645007402533311</v>
       </c>
       <c r="D333" t="n">
-        <v>2992991369483.797</v>
+        <v>3123472610626.748</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>40057</v>
+        <v>40148</v>
       </c>
       <c r="B334" t="n">
-        <v>1860489000000</v>
+        <v>1900611000000</v>
       </c>
       <c r="C334" t="n">
-        <v>1.601537475976938</v>
+        <v>1.616292225634395</v>
       </c>
       <c r="D334" t="n">
-        <v>2979642857142.857</v>
+        <v>3071942783255.212</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>40087</v>
+        <v>40179</v>
       </c>
       <c r="B335" t="n">
-        <v>1897866000000</v>
+        <v>2092468000000</v>
       </c>
       <c r="C335" t="n">
-        <v>1.645278051990786</v>
+        <v>1.600256040966555</v>
       </c>
       <c r="D335" t="n">
-        <v>3122517275419.546</v>
+        <v>3348484557529.205</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>40118</v>
+        <v>40210</v>
       </c>
       <c r="B336" t="n">
-        <v>1898769000000</v>
+        <v>2120092000000</v>
       </c>
       <c r="C336" t="n">
-        <v>1.645007402533311</v>
+        <v>1.524157902758726</v>
       </c>
       <c r="D336" t="n">
-        <v>3123489060700.773</v>
+        <v>3231354976375.552</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>40148</v>
+        <v>40238</v>
       </c>
       <c r="B337" t="n">
-        <v>1900621000000</v>
+        <v>2103885000000</v>
       </c>
       <c r="C337" t="n">
-        <v>1.616292225634395</v>
+        <v>1.519064256418047</v>
       </c>
       <c r="D337" t="n">
-        <v>3071958946177.469</v>
+        <v>3195936503114.082</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>40179</v>
+        <v>40269</v>
       </c>
       <c r="B338" t="n">
-        <v>2092454000000</v>
+        <v>2075259000000</v>
       </c>
       <c r="C338" t="n">
-        <v>1.600256040966555</v>
+        <v>1.527883880825057</v>
       </c>
       <c r="D338" t="n">
-        <v>3348462153944.631</v>
+        <v>3170754774637.128</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>40210</v>
+        <v>40299</v>
       </c>
       <c r="B339" t="n">
-        <v>2120088000000</v>
+        <v>2090960000000</v>
       </c>
       <c r="C339" t="n">
-        <v>1.524157902758726</v>
+        <v>1.453911020645537</v>
       </c>
       <c r="D339" t="n">
-        <v>3231348879743.941</v>
+        <v>3040069787728.991</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>40238</v>
+        <v>40330</v>
       </c>
       <c r="B340" t="n">
-        <v>2103917000000</v>
+        <v>2092957000000</v>
       </c>
       <c r="C340" t="n">
-        <v>1.519064256418047</v>
+        <v>1.494544911074578</v>
       </c>
       <c r="D340" t="n">
-        <v>3195985113170.287</v>
+        <v>3128018233447.915</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>40269</v>
+        <v>40360</v>
       </c>
       <c r="B341" t="n">
-        <v>2075206000000</v>
+        <v>2089612000000</v>
       </c>
       <c r="C341" t="n">
-        <v>1.527883880825057</v>
+        <v>1.569612305760477</v>
       </c>
       <c r="D341" t="n">
-        <v>3170673796791.444</v>
+        <v>3279880709464.762</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>40299</v>
+        <v>40391</v>
       </c>
       <c r="B342" t="n">
-        <v>2090963000000</v>
+        <v>2080823000000</v>
       </c>
       <c r="C342" t="n">
-        <v>1.453911020645537</v>
+        <v>1.535862386730149</v>
       </c>
       <c r="D342" t="n">
-        <v>3040074149462.053</v>
+        <v>3195857779142.989</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>40330</v>
+        <v>40422</v>
       </c>
       <c r="B343" t="n">
-        <v>2092986000000</v>
+        <v>2081669000000</v>
       </c>
       <c r="C343" t="n">
-        <v>1.494544911074578</v>
+        <v>1.571585730001572</v>
       </c>
       <c r="D343" t="n">
-        <v>3128061575250.336</v>
+        <v>3271521294986.642</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>40360</v>
+        <v>40452</v>
       </c>
       <c r="B344" t="n">
-        <v>2089620000000</v>
+        <v>2093135000000</v>
       </c>
       <c r="C344" t="n">
-        <v>1.569612305760477</v>
+        <v>1.604621309370988</v>
       </c>
       <c r="D344" t="n">
-        <v>3279893266363.208</v>
+        <v>3358689024390.244</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>40391</v>
+        <v>40483</v>
       </c>
       <c r="B345" t="n">
-        <v>2080822000000</v>
+        <v>2083505000000</v>
       </c>
       <c r="C345" t="n">
-        <v>1.535862386730149</v>
+        <v>1.556904873112253</v>
       </c>
       <c r="D345" t="n">
-        <v>3195856243280.602</v>
+        <v>3243819087653.744</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>40422</v>
+        <v>40513</v>
       </c>
       <c r="B346" t="n">
-        <v>2081684000000</v>
+        <v>2079532000000</v>
       </c>
       <c r="C346" t="n">
-        <v>1.571585730001572</v>
+        <v>1.561524047470331</v>
       </c>
       <c r="D346" t="n">
-        <v>3271544868772.592</v>
+        <v>3247239225484.073</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>40452</v>
+        <v>40544</v>
       </c>
       <c r="B347" t="n">
-        <v>2093123000000</v>
+        <v>2065670000000</v>
       </c>
       <c r="C347" t="n">
-        <v>1.604621309370988</v>
+        <v>1.601794009290405</v>
       </c>
       <c r="D347" t="n">
-        <v>3358669768934.531</v>
+        <v>3308777831170.912</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>40483</v>
+        <v>40575</v>
       </c>
       <c r="B348" t="n">
-        <v>2083491000000</v>
+        <v>2059734000000</v>
       </c>
       <c r="C348" t="n">
-        <v>1.556904873112253</v>
+        <v>1.626545217957059</v>
       </c>
       <c r="D348" t="n">
-        <v>3243797290985.521</v>
+        <v>3350250487963.565</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>40513</v>
+        <v>40603</v>
       </c>
       <c r="B349" t="n">
-        <v>2079505000000</v>
+        <v>2083323000000</v>
       </c>
       <c r="C349" t="n">
-        <v>1.561524047470331</v>
+        <v>1.604621309370988</v>
       </c>
       <c r="D349" t="n">
-        <v>3247197064334.791</v>
+        <v>3342944480102.696</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>40544</v>
+        <v>40634</v>
       </c>
       <c r="B350" t="n">
-        <v>2065671000000</v>
+        <v>2083914000000</v>
       </c>
       <c r="C350" t="n">
-        <v>1.601794009290405</v>
+        <v>1.671122994652406</v>
       </c>
       <c r="D350" t="n">
-        <v>3308779432964.921</v>
+        <v>3482476604278.074</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>40575</v>
+        <v>40664</v>
       </c>
       <c r="B351" t="n">
-        <v>2059742000000</v>
+        <v>2085955000000</v>
       </c>
       <c r="C351" t="n">
-        <v>1.626545217957059</v>
+        <v>1.645819618169849</v>
       </c>
       <c r="D351" t="n">
-        <v>3350263500325.309</v>
+        <v>3433105661619.486</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>40603</v>
+        <v>40695</v>
       </c>
       <c r="B352" t="n">
-        <v>2083321000000</v>
+        <v>2083062000000</v>
       </c>
       <c r="C352" t="n">
-        <v>1.604621309370988</v>
+        <v>1.604878831648211</v>
       </c>
       <c r="D352" t="n">
-        <v>3342941270860.077</v>
+        <v>3343062108810.785</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>40634</v>
+        <v>40725</v>
       </c>
       <c r="B353" t="n">
-        <v>2083903000000</v>
+        <v>2079183000000</v>
       </c>
       <c r="C353" t="n">
-        <v>1.671122994652406</v>
+        <v>1.642845408247084</v>
       </c>
       <c r="D353" t="n">
-        <v>3482458221925.133</v>
+        <v>3415776244455.396</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>40664</v>
+        <v>40756</v>
       </c>
       <c r="B354" t="n">
-        <v>2085957000000</v>
+        <v>2090215000000</v>
       </c>
       <c r="C354" t="n">
-        <v>1.645819618169849</v>
+        <v>1.626280696048138</v>
       </c>
       <c r="D354" t="n">
-        <v>3433108953258.723</v>
+        <v>3399276305090.259</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>40695</v>
+        <v>40787</v>
       </c>
       <c r="B355" t="n">
-        <v>2083059000000</v>
+        <v>2090984000000</v>
       </c>
       <c r="C355" t="n">
-        <v>1.604878831648211</v>
+        <v>1.559089491736826</v>
       </c>
       <c r="D355" t="n">
-        <v>3343057294174.29</v>
+        <v>3260031181789.835</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>40725</v>
+        <v>40817</v>
       </c>
       <c r="B356" t="n">
-        <v>2079175000000</v>
+        <v>2069754000000</v>
       </c>
       <c r="C356" t="n">
-        <v>1.642845408247084</v>
+        <v>1.608751608751609</v>
       </c>
       <c r="D356" t="n">
-        <v>3415763101692.13</v>
+        <v>3329720077220.077</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>40756</v>
+        <v>40848</v>
       </c>
       <c r="B357" t="n">
-        <v>2090266000000</v>
+        <v>2075028000000</v>
       </c>
       <c r="C357" t="n">
-        <v>1.626280696048138</v>
+        <v>1.571091908876669</v>
       </c>
       <c r="D357" t="n">
-        <v>3399359245405.757</v>
+        <v>3260059701492.538</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>40787</v>
+        <v>40878</v>
       </c>
       <c r="B358" t="n">
-        <v>2090956000000</v>
+        <v>2034632000000</v>
       </c>
       <c r="C358" t="n">
-        <v>1.559089491736826</v>
+        <v>1.555935895441108</v>
       </c>
       <c r="D358" t="n">
-        <v>3259987527284.066</v>
+        <v>3165756962813.132</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>40817</v>
+        <v>40909</v>
       </c>
       <c r="B359" t="n">
-        <v>2069753000000</v>
+        <v>2049504000000</v>
       </c>
       <c r="C359" t="n">
-        <v>1.608751608751609</v>
+        <v>1.576789656259855</v>
       </c>
       <c r="D359" t="n">
-        <v>3329718468468.468</v>
+        <v>3231636707663.198</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>40848</v>
+        <v>40940</v>
       </c>
       <c r="B360" t="n">
-        <v>2075063000000</v>
+        <v>2016250000000</v>
       </c>
       <c r="C360" t="n">
-        <v>1.571091908876669</v>
+        <v>1.592103168285305</v>
       </c>
       <c r="D360" t="n">
-        <v>3260114689709.349</v>
+        <v>3210078013055.246</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>40878</v>
+        <v>40969</v>
       </c>
       <c r="B361" t="n">
-        <v>2034653000000</v>
+        <v>2022808000000</v>
       </c>
       <c r="C361" t="n">
-        <v>1.555935895441108</v>
+        <v>1.602050624799744</v>
       </c>
       <c r="D361" t="n">
-        <v>3165789637466.936</v>
+        <v>3240640820249.92</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>40909</v>
+        <v>41000</v>
       </c>
       <c r="B362" t="n">
-        <v>2049488000000</v>
+        <v>2032829000000</v>
       </c>
       <c r="C362" t="n">
-        <v>1.576789656259855</v>
+        <v>1.624431448992852</v>
       </c>
       <c r="D362" t="n">
-        <v>3231611479028.697</v>
+        <v>3302191358024.691</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>40940</v>
+        <v>41030</v>
       </c>
       <c r="B363" t="n">
-        <v>2016287000000</v>
+        <v>2036778000000</v>
       </c>
       <c r="C363" t="n">
-        <v>1.592103168285305</v>
+        <v>1.541069502234551</v>
       </c>
       <c r="D363" t="n">
-        <v>3210136920872.473</v>
+        <v>3138816458622.284</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>40969</v>
+        <v>41061</v>
       </c>
       <c r="B364" t="n">
-        <v>2022805000000</v>
+        <v>2028076000000</v>
       </c>
       <c r="C364" t="n">
-        <v>1.602050624799744</v>
+        <v>1.570598397989634</v>
       </c>
       <c r="D364" t="n">
-        <v>3240636014098.045</v>
+        <v>3185292916601.225</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>41000</v>
+        <v>41091</v>
       </c>
       <c r="B365" t="n">
-        <v>2032819000000</v>
+        <v>2029029000000</v>
       </c>
       <c r="C365" t="n">
-        <v>1.624431448992852</v>
+        <v>1.568135486906069</v>
       </c>
       <c r="D365" t="n">
-        <v>3302175113710.201</v>
+        <v>3181792378861.534</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>41030</v>
+        <v>41122</v>
       </c>
       <c r="B366" t="n">
-        <v>2036780000000</v>
+        <v>2024862000000</v>
       </c>
       <c r="C366" t="n">
-        <v>1.541069502234551</v>
+        <v>1.587301587301587</v>
       </c>
       <c r="D366" t="n">
-        <v>3138819540761.288</v>
+        <v>3214066666666.667</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>41061</v>
+        <v>41153</v>
       </c>
       <c r="B367" t="n">
-        <v>2028086000000</v>
+        <v>2023352000000</v>
       </c>
       <c r="C367" t="n">
-        <v>1.570598397989634</v>
+        <v>1.617076326002588</v>
       </c>
       <c r="D367" t="n">
-        <v>3185308622585.205</v>
+        <v>3271914618369.987</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>41091</v>
+        <v>41183</v>
       </c>
       <c r="B368" t="n">
-        <v>2029012000000</v>
+        <v>2021639000000</v>
       </c>
       <c r="C368" t="n">
-        <v>1.568135486906069</v>
+        <v>1.613684040664838</v>
       </c>
       <c r="D368" t="n">
-        <v>3181765720558.256</v>
+        <v>3262286590285.622</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>41122</v>
+        <v>41214</v>
       </c>
       <c r="B369" t="n">
-        <v>2024836000000</v>
+        <v>2019792000000</v>
       </c>
       <c r="C369" t="n">
-        <v>1.587301587301587</v>
+        <v>1.602307322544464</v>
       </c>
       <c r="D369" t="n">
-        <v>3214025396825.396</v>
+        <v>3236327511616.728</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>41153</v>
+        <v>41244</v>
       </c>
       <c r="B370" t="n">
-        <v>2023351000000</v>
+        <v>2043169000000</v>
       </c>
       <c r="C370" t="n">
-        <v>1.617076326002588</v>
+        <v>1.626545217957059</v>
       </c>
       <c r="D370" t="n">
-        <v>3271913001293.662</v>
+        <v>3323306766428.106</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>41183</v>
+        <v>41275</v>
       </c>
       <c r="B371" t="n">
-        <v>2021667000000</v>
+        <v>2056209000000</v>
       </c>
       <c r="C371" t="n">
-        <v>1.613684040664838</v>
+        <v>1.586294416243655</v>
       </c>
       <c r="D371" t="n">
-        <v>3262331773438.761</v>
+        <v>3261752855329.95</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>41214</v>
+        <v>41306</v>
       </c>
       <c r="B372" t="n">
-        <v>2019753000000</v>
+        <v>2075688000000</v>
       </c>
       <c r="C372" t="n">
-        <v>1.602307322544464</v>
+        <v>1.516990291262136</v>
       </c>
       <c r="D372" t="n">
-        <v>3236265021631.149</v>
+        <v>3148798543689.32</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>41244</v>
+        <v>41334</v>
       </c>
       <c r="B373" t="n">
-        <v>2043190000000</v>
+        <v>2074510000000</v>
       </c>
       <c r="C373" t="n">
-        <v>1.626545217957059</v>
+        <v>1.521606816798539</v>
       </c>
       <c r="D373" t="n">
-        <v>3323340923877.684</v>
+        <v>3156588557516.738</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>41275</v>
+        <v>41365</v>
       </c>
       <c r="B374" t="n">
-        <v>2056215000000</v>
+        <v>2079958000000</v>
       </c>
       <c r="C374" t="n">
-        <v>1.586294416243655</v>
+        <v>1.55448468832582</v>
       </c>
       <c r="D374" t="n">
-        <v>3261762373096.447</v>
+        <v>3233262863360.796</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>41306</v>
+        <v>41395</v>
       </c>
       <c r="B375" t="n">
-        <v>2075694000000</v>
+        <v>2081336000000</v>
       </c>
       <c r="C375" t="n">
-        <v>1.516990291262136</v>
+        <v>1.520218911523259</v>
       </c>
       <c r="D375" t="n">
-        <v>3148807645631.068</v>
+        <v>3164086348434.174</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>41334</v>
+        <v>41426</v>
       </c>
       <c r="B376" t="n">
-        <v>2074495000000</v>
+        <v>2086483000000</v>
       </c>
       <c r="C376" t="n">
-        <v>1.521606816798539</v>
+        <v>1.522533495736906</v>
       </c>
       <c r="D376" t="n">
-        <v>3156565733414.486</v>
+        <v>3176740255785.627</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
-        <v>41365</v>
+        <v>41456</v>
       </c>
       <c r="B377" t="n">
-        <v>2079926000000</v>
+        <v>2099960000000</v>
       </c>
       <c r="C377" t="n">
-        <v>1.55448468832582</v>
+        <v>1.519987840097279</v>
       </c>
       <c r="D377" t="n">
-        <v>3233213119850.77</v>
+        <v>3191913664690.682</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
-        <v>41395</v>
+        <v>41487</v>
       </c>
       <c r="B378" t="n">
-        <v>2081316000000</v>
+        <v>2105687000000</v>
       </c>
       <c r="C378" t="n">
-        <v>1.520218911523259</v>
+        <v>1.550868486352357</v>
       </c>
       <c r="D378" t="n">
-        <v>3164055944055.944</v>
+        <v>3265643610421.836</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
-        <v>41426</v>
+        <v>41518</v>
       </c>
       <c r="B379" t="n">
-        <v>2086478000000</v>
+        <v>2089621000000</v>
       </c>
       <c r="C379" t="n">
-        <v>1.522533495736906</v>
+        <v>1.619170984455959</v>
       </c>
       <c r="D379" t="n">
-        <v>3176732643118.148</v>
+        <v>3383453691709.845</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
-        <v>41456</v>
+        <v>41548</v>
       </c>
       <c r="B380" t="n">
-        <v>2099995000000</v>
+        <v>2104154000000</v>
       </c>
       <c r="C380" t="n">
-        <v>1.519987840097279</v>
+        <v>1.604621309370988</v>
       </c>
       <c r="D380" t="n">
-        <v>3191966864265.085</v>
+        <v>3376370346598.203</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
-        <v>41487</v>
+        <v>41579</v>
       </c>
       <c r="B381" t="n">
-        <v>2105700000000</v>
+        <v>2100629000000</v>
       </c>
       <c r="C381" t="n">
-        <v>1.550868486352357</v>
+        <v>1.637465203864418</v>
       </c>
       <c r="D381" t="n">
-        <v>3265663771712.159</v>
+        <v>3439706893728.508</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
-        <v>41518</v>
+        <v>41609</v>
       </c>
       <c r="B382" t="n">
-        <v>2089626000000</v>
+        <v>2078312000000</v>
       </c>
       <c r="C382" t="n">
-        <v>1.619170984455959</v>
+        <v>1.655629139072848</v>
       </c>
       <c r="D382" t="n">
-        <v>3383461787564.767</v>
+        <v>3440913907284.768</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
-        <v>41548</v>
+        <v>41640</v>
       </c>
       <c r="B383" t="n">
-        <v>2104155000000</v>
+        <v>2091926000000</v>
       </c>
       <c r="C383" t="n">
-        <v>1.604621309370988</v>
+        <v>1.64446637066272</v>
       </c>
       <c r="D383" t="n">
-        <v>3376371951219.512</v>
+        <v>3440101956914.981</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
-        <v>41579</v>
+        <v>41671</v>
       </c>
       <c r="B384" t="n">
-        <v>2100629000000</v>
+        <v>2110400000000</v>
       </c>
       <c r="C384" t="n">
-        <v>1.637465203864418</v>
+        <v>1.674761346508123</v>
       </c>
       <c r="D384" t="n">
-        <v>3439706893728.508</v>
+        <v>3534416345670.742</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
-        <v>41609</v>
+        <v>41699</v>
       </c>
       <c r="B385" t="n">
-        <v>2078311000000</v>
+        <v>2083975000000</v>
       </c>
       <c r="C385" t="n">
-        <v>1.655629139072848</v>
+        <v>1.666944490748458</v>
       </c>
       <c r="D385" t="n">
-        <v>3440912251655.629</v>
+        <v>3473870645107.518</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
-        <v>41640</v>
+        <v>41730</v>
       </c>
       <c r="B386" t="n">
-        <v>2091895000000</v>
+        <v>2077730000000</v>
       </c>
       <c r="C386" t="n">
-        <v>1.64446637066272</v>
+        <v>1.688333614722269</v>
       </c>
       <c r="D386" t="n">
-        <v>3440050978457.491</v>
+        <v>3507901401316.9</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>41671</v>
+        <v>41760</v>
       </c>
       <c r="B387" t="n">
-        <v>2110365000000</v>
+        <v>2072517000000</v>
       </c>
       <c r="C387" t="n">
-        <v>1.674761346508123</v>
+        <v>1.676164934629568</v>
       </c>
       <c r="D387" t="n">
-        <v>3534357729023.614</v>
+        <v>3473880321823.667</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
-        <v>41699</v>
+        <v>41791</v>
       </c>
       <c r="B388" t="n">
-        <v>2083972000000</v>
+        <v>2063761000000</v>
       </c>
       <c r="C388" t="n">
-        <v>1.666944490748458</v>
+        <v>1.71174255391989</v>
       </c>
       <c r="D388" t="n">
-        <v>3473865644274.046</v>
+        <v>3532627524820.267</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
-        <v>41730</v>
+        <v>41821</v>
       </c>
       <c r="B389" t="n">
-        <v>2077754000000</v>
+        <v>2065111000000</v>
       </c>
       <c r="C389" t="n">
-        <v>1.688333614722269</v>
+        <v>1.689189189189189</v>
       </c>
       <c r="D389" t="n">
-        <v>3507941921323.653</v>
+        <v>3488363175675.676</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
-        <v>41760</v>
+        <v>41852</v>
       </c>
       <c r="B390" t="n">
-        <v>2072526000000</v>
+        <v>2065981000000</v>
       </c>
       <c r="C390" t="n">
-        <v>1.676164934629568</v>
+        <v>1.660577881102624</v>
       </c>
       <c r="D390" t="n">
-        <v>3473895407308.079</v>
+        <v>3430722351378.28</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>41791</v>
+        <v>41883</v>
       </c>
       <c r="B391" t="n">
-        <v>2063778000000</v>
+        <v>2073272000000</v>
       </c>
       <c r="C391" t="n">
-        <v>1.71174255391989</v>
+        <v>1.6220600162206</v>
       </c>
       <c r="D391" t="n">
-        <v>3532656624443.683</v>
+        <v>3362971613949.716</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
-        <v>41821</v>
+        <v>41913</v>
       </c>
       <c r="B392" t="n">
-        <v>2065115000000</v>
+        <v>2061189000000</v>
       </c>
       <c r="C392" t="n">
-        <v>1.689189189189189</v>
+        <v>1.600256040966555</v>
       </c>
       <c r="D392" t="n">
-        <v>3488369932432.433</v>
+        <v>3298430148823.812</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
-        <v>41852</v>
+        <v>41944</v>
       </c>
       <c r="B393" t="n">
-        <v>2065974000000</v>
+        <v>2068537000000</v>
       </c>
       <c r="C393" t="n">
-        <v>1.660577881102624</v>
+        <v>1.565680288085173</v>
       </c>
       <c r="D393" t="n">
-        <v>3430710727333.112</v>
+        <v>3238667606074.839</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>41883</v>
+        <v>41974</v>
       </c>
       <c r="B394" t="n">
-        <v>2073256000000</v>
+        <v>2080329000000</v>
       </c>
       <c r="C394" t="n">
-        <v>1.6220600162206</v>
+        <v>1.558360604643914</v>
       </c>
       <c r="D394" t="n">
-        <v>3362945660989.457</v>
+        <v>3241902758298.27</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>41913</v>
+        <v>42005</v>
       </c>
       <c r="B395" t="n">
-        <v>2061155000000</v>
+        <v>2073808000000</v>
       </c>
       <c r="C395" t="n">
-        <v>1.600256040966555</v>
+        <v>1.506250941406838</v>
       </c>
       <c r="D395" t="n">
-        <v>3298375740118.419</v>
+        <v>3123675252297.033</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>41944</v>
+        <v>42036</v>
       </c>
       <c r="B396" t="n">
-        <v>2068525000000</v>
+        <v>2070258000000</v>
       </c>
       <c r="C396" t="n">
-        <v>1.565680288085173</v>
+        <v>1.544401544401544</v>
       </c>
       <c r="D396" t="n">
-        <v>3238648817911.382</v>
+        <v>3197309652509.652</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>41974</v>
+        <v>42064</v>
       </c>
       <c r="B397" t="n">
-        <v>2080376000000</v>
+        <v>2088266000000</v>
       </c>
       <c r="C397" t="n">
-        <v>1.558360604643914</v>
+        <v>1.483239394838327</v>
       </c>
       <c r="D397" t="n">
-        <v>3241976001246.688</v>
+        <v>3097398398101.454</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>42005</v>
+        <v>42095</v>
       </c>
       <c r="B398" t="n">
-        <v>2073821000000</v>
+        <v>2093872000000</v>
       </c>
       <c r="C398" t="n">
-        <v>1.506250941406838</v>
+        <v>1.534801626889725</v>
       </c>
       <c r="D398" t="n">
-        <v>3123694833559.271</v>
+        <v>3213678152098.841</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>42036</v>
+        <v>42125</v>
       </c>
       <c r="B399" t="n">
-        <v>2070266000000</v>
+        <v>2090446000000</v>
       </c>
       <c r="C399" t="n">
-        <v>1.544401544401544</v>
+        <v>1.528701368187724</v>
       </c>
       <c r="D399" t="n">
-        <v>3197322007722.008</v>
+        <v>3195667660322.556</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
-        <v>42064</v>
+        <v>42156</v>
       </c>
       <c r="B400" t="n">
-        <v>2088245000000</v>
+        <v>2088205000000</v>
       </c>
       <c r="C400" t="n">
-        <v>1.483239394838327</v>
+        <v>1.571388164304347</v>
       </c>
       <c r="D400" t="n">
-        <v>3097367250074.162</v>
+        <v>3281380621641.158</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
-        <v>42095</v>
+        <v>42186</v>
       </c>
       <c r="B401" t="n">
-        <v>2093869000000</v>
+        <v>2102076000000</v>
       </c>
       <c r="C401" t="n">
-        <v>1.534801626889725</v>
+        <v>1.562207086171343</v>
       </c>
       <c r="D401" t="n">
-        <v>3213673547693.961</v>
+        <v>3283878022870.712</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
-        <v>42125</v>
+        <v>42217</v>
       </c>
       <c r="B402" t="n">
-        <v>2090426000000</v>
+        <v>2103164000000</v>
       </c>
       <c r="C402" t="n">
-        <v>1.528701368187724</v>
+        <v>1.534589650727396</v>
       </c>
       <c r="D402" t="n">
-        <v>3195637086295.192</v>
+        <v>3227493708182.432</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
-        <v>42156</v>
+        <v>42248</v>
       </c>
       <c r="B403" t="n">
-        <v>2088212000000</v>
+        <v>2111984000000</v>
       </c>
       <c r="C403" t="n">
-        <v>1.571388164304347</v>
+        <v>1.512538947877908</v>
       </c>
       <c r="D403" t="n">
-        <v>3281391621358.308</v>
+        <v>3194458057294.976</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
-        <v>42186</v>
+        <v>42278</v>
       </c>
       <c r="B404" t="n">
-        <v>2102039000000</v>
+        <v>2124264000000</v>
       </c>
       <c r="C404" t="n">
-        <v>1.562207086171343</v>
+        <v>1.543519533239693</v>
       </c>
       <c r="D404" t="n">
-        <v>3283820221208.523</v>
+        <v>3278842977757.884</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
-        <v>42217</v>
+        <v>42309</v>
       </c>
       <c r="B405" t="n">
-        <v>2103149000000</v>
+        <v>2120899000000</v>
       </c>
       <c r="C405" t="n">
-        <v>1.534589650727396</v>
+        <v>1.505706628120577</v>
       </c>
       <c r="D405" t="n">
-        <v>3227470689337.671</v>
+        <v>3193451681874.304</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
-        <v>42248</v>
+        <v>42339</v>
       </c>
       <c r="B406" t="n">
-        <v>2112023000000</v>
+        <v>2132947000000</v>
       </c>
       <c r="C406" t="n">
-        <v>1.512538947877908</v>
+        <v>1.473600447974536</v>
       </c>
       <c r="D406" t="n">
-        <v>3194517046313.943</v>
+        <v>3143111654705.943</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
-        <v>42278</v>
+        <v>42370</v>
       </c>
       <c r="B407" t="n">
-        <v>2124276000000</v>
+        <v>2159028000000</v>
       </c>
       <c r="C407" t="n">
-        <v>1.543519533239693</v>
+        <v>1.424278246998333</v>
       </c>
       <c r="D407" t="n">
-        <v>3278861499992.283</v>
+        <v>3075056615060.318</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
-        <v>42309</v>
+        <v>42401</v>
       </c>
       <c r="B408" t="n">
-        <v>2120902000000</v>
+        <v>2181982000000</v>
       </c>
       <c r="C408" t="n">
-        <v>1.505706628120577</v>
+        <v>1.391594767603674</v>
       </c>
       <c r="D408" t="n">
-        <v>3193456198994.188</v>
+        <v>3036434734205.399</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
-        <v>42339</v>
+        <v>42430</v>
       </c>
       <c r="B409" t="n">
-        <v>2132966000000</v>
+        <v>2183304000000</v>
       </c>
       <c r="C409" t="n">
-        <v>1.473600447974536</v>
+        <v>1.436513294930545</v>
       </c>
       <c r="D409" t="n">
-        <v>3143139653114.455</v>
+        <v>3136345222875.038</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
-        <v>42370</v>
+        <v>42461</v>
       </c>
       <c r="B410" t="n">
-        <v>2159029000000</v>
+        <v>2177769000000</v>
       </c>
       <c r="C410" t="n">
-        <v>1.424278246998333</v>
+        <v>1.460984411296331</v>
       </c>
       <c r="D410" t="n">
-        <v>3075058039338.565</v>
+        <v>3181686560404.4</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
-        <v>42401</v>
+        <v>42491</v>
       </c>
       <c r="B411" t="n">
-        <v>2181985000000</v>
+        <v>2179996000000</v>
       </c>
       <c r="C411" t="n">
-        <v>1.391594767603674</v>
+        <v>1.448204949964519</v>
       </c>
       <c r="D411" t="n">
-        <v>3036438908989.702</v>
+        <v>3157080998102.852</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
-        <v>42430</v>
+        <v>42522</v>
       </c>
       <c r="B412" t="n">
-        <v>2183306000000</v>
+        <v>2245921000000</v>
       </c>
       <c r="C412" t="n">
-        <v>1.436513294930545</v>
+        <v>1.328762390709293</v>
       </c>
       <c r="D412" t="n">
-        <v>3136348095901.627</v>
+        <v>2984295357304.207</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
-        <v>42461</v>
+        <v>42552</v>
       </c>
       <c r="B413" t="n">
-        <v>2177774000000</v>
+        <v>2255333000000</v>
       </c>
       <c r="C413" t="n">
-        <v>1.460984411296331</v>
+        <v>1.323171377156769</v>
       </c>
       <c r="D413" t="n">
-        <v>3181693865326.457</v>
+        <v>2984192071557.108</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
-        <v>42491</v>
+        <v>42583</v>
       </c>
       <c r="B414" t="n">
-        <v>2179951000000</v>
+        <v>2269290000000</v>
       </c>
       <c r="C414" t="n">
-        <v>1.448204949964519</v>
+        <v>1.314008646176892</v>
       </c>
       <c r="D414" t="n">
-        <v>3157015828880.104</v>
+        <v>2981866680682.759</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
-        <v>42522</v>
+        <v>42614</v>
       </c>
       <c r="B415" t="n">
-        <v>2245947000000</v>
+        <v>2275824000000</v>
       </c>
       <c r="C415" t="n">
-        <v>1.328762390709293</v>
+        <v>1.297875378006204</v>
       </c>
       <c r="D415" t="n">
-        <v>2984329905126.365</v>
+        <v>2953735934275.591</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
-        <v>42552</v>
+        <v>42644</v>
       </c>
       <c r="B416" t="n">
-        <v>2255327000000</v>
+        <v>2290205000000</v>
       </c>
       <c r="C416" t="n">
-        <v>1.323171377156769</v>
+        <v>1.223945265167742</v>
       </c>
       <c r="D416" t="n">
-        <v>2984184132528.845</v>
+        <v>2803085566013.488</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
-        <v>42583</v>
+        <v>42675</v>
       </c>
       <c r="B417" t="n">
-        <v>2269315000000</v>
+        <v>2277516000000</v>
       </c>
       <c r="C417" t="n">
-        <v>1.314008646176892</v>
+        <v>1.250750450270162</v>
       </c>
       <c r="D417" t="n">
-        <v>2981899530898.913</v>
+        <v>2848604162497.499</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
-        <v>42614</v>
+        <v>42705</v>
       </c>
       <c r="B418" t="n">
-        <v>2275788000000</v>
+        <v>2280428000000</v>
       </c>
       <c r="C418" t="n">
-        <v>1.297875378006204</v>
+        <v>1.23449169804333</v>
       </c>
       <c r="D418" t="n">
-        <v>2953689210761.982</v>
+        <v>2815169433985.556</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
-        <v>42644</v>
+        <v>42736</v>
       </c>
       <c r="B419" t="n">
-        <v>2290212000000</v>
+        <v>2281087000000</v>
       </c>
       <c r="C419" t="n">
-        <v>1.223945265167742</v>
+        <v>1.257940750990628</v>
       </c>
       <c r="D419" t="n">
-        <v>2803094133630.344</v>
+        <v>2869472293854.959</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
-        <v>42675</v>
+        <v>42767</v>
       </c>
       <c r="B420" t="n">
-        <v>2277591000000</v>
+        <v>2287240000000</v>
       </c>
       <c r="C420" t="n">
-        <v>1.250750450270162</v>
+        <v>1.238236750866766</v>
       </c>
       <c r="D420" t="n">
-        <v>2848697968781.269</v>
+        <v>2832144626052.501</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
-        <v>42705</v>
+        <v>42795</v>
       </c>
       <c r="B421" t="n">
-        <v>2280441000000</v>
+        <v>2294915000000</v>
       </c>
       <c r="C421" t="n">
-        <v>1.23449169804333</v>
+        <v>1.254500520617716</v>
       </c>
       <c r="D421" t="n">
-        <v>2815185482377.63</v>
+        <v>2878972062273.406</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="2" t="n">
-        <v>42736</v>
+        <v>42826</v>
       </c>
       <c r="B422" t="n">
-        <v>2281069000000</v>
+        <v>2302035000000</v>
       </c>
       <c r="C422" t="n">
-        <v>1.257940750990628</v>
+        <v>1.295018065502014</v>
       </c>
       <c r="D422" t="n">
-        <v>2869449650921.441</v>
+        <v>2981176912417.928</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
-        <v>42767</v>
+        <v>42856</v>
       </c>
       <c r="B423" t="n">
-        <v>2287213000000</v>
+        <v>2309303000000</v>
       </c>
       <c r="C423" t="n">
-        <v>1.238236750866766</v>
+        <v>1.287316074715825</v>
       </c>
       <c r="D423" t="n">
-        <v>2832111193660.228</v>
+        <v>2972802873289.479</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="2" t="n">
-        <v>42795</v>
+        <v>42887</v>
       </c>
       <c r="B424" t="n">
-        <v>2294876000000</v>
+        <v>2315462000000</v>
       </c>
       <c r="C424" t="n">
-        <v>1.254500520617716</v>
+        <v>1.302677001237543</v>
       </c>
       <c r="D424" t="n">
-        <v>2878923136753.102</v>
+        <v>3016299094639.484</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="2" t="n">
-        <v>42826</v>
+        <v>42917</v>
       </c>
       <c r="B425" t="n">
-        <v>2302031000000</v>
+        <v>2310118000000</v>
       </c>
       <c r="C425" t="n">
-        <v>1.295018065502014</v>
+        <v>1.320742257148517</v>
       </c>
       <c r="D425" t="n">
-        <v>2981171732345.666</v>
+        <v>3051070461599.419</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
-        <v>42856</v>
+        <v>42948</v>
       </c>
       <c r="B426" t="n">
-        <v>2309314000000</v>
+        <v>2332401000000</v>
       </c>
       <c r="C426" t="n">
-        <v>1.287316074715825</v>
+        <v>1.292791395180474</v>
       </c>
       <c r="D426" t="n">
-        <v>2972817033766.301</v>
+        <v>3015307942910.332</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
-        <v>42887</v>
+        <v>42979</v>
       </c>
       <c r="B427" t="n">
-        <v>2315432000000</v>
+        <v>2338246000000</v>
       </c>
       <c r="C427" t="n">
-        <v>1.302677001237543</v>
+        <v>1.339764201500536</v>
       </c>
       <c r="D427" t="n">
-        <v>3016260014329.447</v>
+        <v>3132698285101.822</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
-        <v>42917</v>
+        <v>43009</v>
       </c>
       <c r="B428" t="n">
-        <v>2310115000000</v>
+        <v>2340072000000</v>
       </c>
       <c r="C428" t="n">
-        <v>1.320742257148517</v>
+        <v>1.328427009577959</v>
       </c>
       <c r="D428" t="n">
-        <v>3051066499372.647</v>
+        <v>3108614849157.113</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
-        <v>42948</v>
+        <v>43040</v>
       </c>
       <c r="B429" t="n">
-        <v>2332390000000</v>
+        <v>2344772000000</v>
       </c>
       <c r="C429" t="n">
-        <v>1.292791395180474</v>
+        <v>1.352905364269769</v>
       </c>
       <c r="D429" t="n">
-        <v>3015293722204.985</v>
+        <v>3172254616789.556</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
-        <v>42979</v>
+        <v>43070</v>
       </c>
       <c r="B430" t="n">
-        <v>2338250000000</v>
+        <v>2346035000000</v>
       </c>
       <c r="C430" t="n">
-        <v>1.339764201500536</v>
+        <v>1.351351351351351</v>
       </c>
       <c r="D430" t="n">
-        <v>3132703644158.628</v>
+        <v>3170317567567.567</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
-        <v>43009</v>
+        <v>43101</v>
       </c>
       <c r="B431" t="n">
-        <v>2340053000000</v>
+        <v>2357302000000</v>
       </c>
       <c r="C431" t="n">
-        <v>1.328427009577959</v>
+        <v>1.419385973627809</v>
       </c>
       <c r="D431" t="n">
-        <v>3108589609043.931</v>
+        <v>3345921394404.781</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="n">
-        <v>43040</v>
+        <v>43132</v>
       </c>
       <c r="B432" t="n">
-        <v>2344861000000</v>
+        <v>2359071000000</v>
       </c>
       <c r="C432" t="n">
-        <v>1.352905364269769</v>
+        <v>1.376026860044308</v>
       </c>
       <c r="D432" t="n">
-        <v>3172375025366.976</v>
+        <v>3246145060751.586</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="n">
-        <v>43070</v>
+        <v>43160</v>
       </c>
       <c r="B433" t="n">
-        <v>2346041000000</v>
+        <v>2347292000000</v>
       </c>
       <c r="C433" t="n">
-        <v>1.351351351351351</v>
+        <v>1.401600627917081</v>
       </c>
       <c r="D433" t="n">
-        <v>3170325675675.676</v>
+        <v>3289965941104.741</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="2" t="n">
-        <v>43101</v>
+        <v>43191</v>
       </c>
       <c r="B434" t="n">
-        <v>2357338000000</v>
+        <v>2351932000000</v>
       </c>
       <c r="C434" t="n">
-        <v>1.419385973627809</v>
+        <v>1.37680361273268</v>
       </c>
       <c r="D434" t="n">
-        <v>3345972492299.832</v>
+        <v>3238148474501.597</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="n">
-        <v>43132</v>
+        <v>43221</v>
       </c>
       <c r="B435" t="n">
-        <v>2359089000000</v>
+        <v>2372075000000</v>
       </c>
       <c r="C435" t="n">
-        <v>1.376026860044308</v>
+        <v>1.329469010077375</v>
       </c>
       <c r="D435" t="n">
-        <v>3246169829235.067</v>
+        <v>3153600202079.29</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="n">
-        <v>43160</v>
+        <v>43252</v>
       </c>
       <c r="B436" t="n">
-        <v>2347301000000</v>
+        <v>2371730000000</v>
       </c>
       <c r="C436" t="n">
-        <v>1.401600627917081</v>
+        <v>1.320620163228652</v>
       </c>
       <c r="D436" t="n">
-        <v>3289978555510.393</v>
+        <v>3132154459734.292</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="2" t="n">
-        <v>43191</v>
+        <v>43282</v>
       </c>
       <c r="B437" t="n">
-        <v>2351933000000</v>
+        <v>2371507000000</v>
       </c>
       <c r="C437" t="n">
-        <v>1.37680361273268</v>
+        <v>1.311733455761789</v>
       </c>
       <c r="D437" t="n">
-        <v>3238149851305.21</v>
+        <v>3110785072473.273</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="n">
-        <v>43221</v>
+        <v>43313</v>
       </c>
       <c r="B438" t="n">
-        <v>2372057000000</v>
+        <v>2375015000000</v>
       </c>
       <c r="C438" t="n">
-        <v>1.329469010077375</v>
+        <v>1.295706030215865</v>
       </c>
       <c r="D438" t="n">
-        <v>3153576271637.108</v>
+        <v>3077321257353.131</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="n">
-        <v>43252</v>
+        <v>43344</v>
       </c>
       <c r="B439" t="n">
-        <v>2371724000000</v>
+        <v>2388940000000</v>
       </c>
       <c r="C439" t="n">
-        <v>1.320620163228652</v>
+        <v>1.303237241307408</v>
       </c>
       <c r="D439" t="n">
-        <v>3132146536013.312</v>
+        <v>3113355575248.918</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="n">
-        <v>43282</v>
+        <v>43374</v>
       </c>
       <c r="B440" t="n">
-        <v>2371462000000</v>
+        <v>2416323000000</v>
       </c>
       <c r="C440" t="n">
-        <v>1.311733455761789</v>
+        <v>1.276959814074651</v>
       </c>
       <c r="D440" t="n">
-        <v>3110726044467.764</v>
+        <v>3085547368824.303</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="n">
-        <v>43313</v>
+        <v>43405</v>
       </c>
       <c r="B441" t="n">
-        <v>2374948000000</v>
+        <v>2414471000000</v>
       </c>
       <c r="C441" t="n">
-        <v>1.295706030215865</v>
+        <v>1.275152380709495</v>
       </c>
       <c r="D441" t="n">
-        <v>3077234445049.107</v>
+        <v>3078818443804.034</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="n">
-        <v>43344</v>
+        <v>43435</v>
       </c>
       <c r="B442" t="n">
-        <v>2388943000000</v>
+        <v>2414673000000</v>
       </c>
       <c r="C442" t="n">
-        <v>1.303237241307408</v>
+        <v>1.275705465122213</v>
       </c>
       <c r="D442" t="n">
-        <v>3113359484960.642</v>
+        <v>3080411542583.048</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="2" t="n">
-        <v>43374</v>
+        <v>43466</v>
       </c>
       <c r="B443" t="n">
-        <v>2416346000000</v>
+        <v>2407134000000</v>
       </c>
       <c r="C443" t="n">
-        <v>1.276959814074651</v>
+        <v>1.311114316057217</v>
       </c>
       <c r="D443" t="n">
-        <v>3085576738900.027</v>
+        <v>3156027848068.073</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="2" t="n">
-        <v>43405</v>
+        <v>43497</v>
       </c>
       <c r="B444" t="n">
-        <v>2414578000000</v>
+        <v>2403459000000</v>
       </c>
       <c r="C444" t="n">
-        <v>1.275152380709495</v>
+        <v>1.326277536837358</v>
       </c>
       <c r="D444" t="n">
-        <v>3078954885108.77</v>
+        <v>3187653682409.581</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
-        <v>43435</v>
+        <v>43525</v>
       </c>
       <c r="B445" t="n">
-        <v>2414732000000</v>
+        <v>2415238000000</v>
       </c>
       <c r="C445" t="n">
-        <v>1.275705465122213</v>
+        <v>1.304597401241977</v>
       </c>
       <c r="D445" t="n">
-        <v>3080486809205.491</v>
+        <v>3150913218180.87</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="2" t="n">
-        <v>43466</v>
+        <v>43556</v>
       </c>
       <c r="B446" t="n">
-        <v>2407117000000</v>
+        <v>2415149000000</v>
       </c>
       <c r="C446" t="n">
-        <v>1.311114316057217</v>
+        <v>1.303322168206759</v>
       </c>
       <c r="D446" t="n">
-        <v>3156005559124.7</v>
+        <v>3147717231222.386</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="2" t="n">
-        <v>43497</v>
+        <v>43586</v>
       </c>
       <c r="B447" t="n">
-        <v>2403420000000</v>
+        <v>2405921000000</v>
       </c>
       <c r="C447" t="n">
-        <v>1.326277536837358</v>
+        <v>1.263839037460189</v>
       </c>
       <c r="D447" t="n">
-        <v>3187601957585.644</v>
+        <v>3040696880845.255</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="n">
-        <v>43525</v>
+        <v>43617</v>
       </c>
       <c r="B448" t="n">
-        <v>2415213000000</v>
+        <v>2415770000000</v>
       </c>
       <c r="C448" t="n">
-        <v>1.304597401241977</v>
+        <v>1.269132167423916</v>
       </c>
       <c r="D448" t="n">
-        <v>3150880603245.838</v>
+        <v>3065931416097.672</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="2" t="n">
-        <v>43556</v>
+        <v>43647</v>
       </c>
       <c r="B449" t="n">
-        <v>2415116000000</v>
+        <v>2417956000000</v>
       </c>
       <c r="C449" t="n">
-        <v>1.303322168206759</v>
+        <v>1.215199718073665</v>
       </c>
       <c r="D449" t="n">
-        <v>3147674221590.835</v>
+        <v>2938299449514.527</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="2" t="n">
-        <v>43586</v>
+        <v>43678</v>
       </c>
       <c r="B450" t="n">
-        <v>2405874000000</v>
+        <v>2429486000000</v>
       </c>
       <c r="C450" t="n">
-        <v>1.263839037460189</v>
+        <v>1.216130758379141</v>
       </c>
       <c r="D450" t="n">
-        <v>3040637480410.495</v>
+        <v>2954572651651.506</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="2" t="n">
-        <v>43617</v>
+        <v>43709</v>
       </c>
       <c r="B451" t="n">
-        <v>2415734000000</v>
+        <v>2429391000000</v>
       </c>
       <c r="C451" t="n">
-        <v>1.269132167423916</v>
+        <v>1.229316745752711</v>
       </c>
       <c r="D451" t="n">
-        <v>3065885727339.645</v>
+        <v>2986491038280.924</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="2" t="n">
-        <v>43647</v>
+        <v>43739</v>
       </c>
       <c r="B452" t="n">
-        <v>2417935000000</v>
+        <v>2419713000000</v>
       </c>
       <c r="C452" t="n">
-        <v>1.215199718073665</v>
+        <v>1.292874966062032</v>
       </c>
       <c r="D452" t="n">
-        <v>2938273930320.448</v>
+        <v>3128386362754.858</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="2" t="n">
-        <v>43678</v>
+        <v>43770</v>
       </c>
       <c r="B453" t="n">
-        <v>2429454000000</v>
+        <v>2430432000000</v>
       </c>
       <c r="C453" t="n">
-        <v>1.216130758379141</v>
+        <v>1.293560655059116</v>
       </c>
       <c r="D453" t="n">
-        <v>2954533735467.238</v>
+        <v>3143911209996.637</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="2" t="n">
-        <v>43709</v>
+        <v>43800</v>
       </c>
       <c r="B454" t="n">
-        <v>2429425000000</v>
+        <v>2446557000000</v>
       </c>
       <c r="C454" t="n">
-        <v>1.229316745752711</v>
+        <v>1.326154417420365</v>
       </c>
       <c r="D454" t="n">
-        <v>2986532835050.279</v>
+        <v>3244512373020.715</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="2" t="n">
-        <v>43739</v>
+        <v>43831</v>
       </c>
       <c r="B455" t="n">
-        <v>2419686000000</v>
+        <v>2456339000000</v>
       </c>
       <c r="C455" t="n">
-        <v>1.292874966062032</v>
+        <v>1.320515529262624</v>
       </c>
       <c r="D455" t="n">
-        <v>3128351455130.774</v>
+        <v>3243633794633.425</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="2" t="n">
-        <v>43770</v>
+        <v>43862</v>
       </c>
       <c r="B456" t="n">
-        <v>2430588000000</v>
+        <v>2481709000000</v>
       </c>
       <c r="C456" t="n">
-        <v>1.293560655059116</v>
+        <v>1.281640499839795</v>
       </c>
       <c r="D456" t="n">
-        <v>3144113005458.826</v>
+        <v>3180658763216.918</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="2" t="n">
-        <v>43800</v>
+        <v>43891</v>
       </c>
       <c r="B457" t="n">
-        <v>2446771000000</v>
+        <v>2603794000000</v>
       </c>
       <c r="C457" t="n">
-        <v>1.326154417420365</v>
+        <v>1.243471773190749</v>
       </c>
       <c r="D457" t="n">
-        <v>3244796170066.043</v>
+        <v>3237744342203.432</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="2" t="n">
-        <v>43831</v>
+        <v>43922</v>
       </c>
       <c r="B458" t="n">
-        <v>2456253000000</v>
+        <v>2639714000000</v>
       </c>
       <c r="C458" t="n">
-        <v>1.320515529262624</v>
+        <v>1.259556887886841</v>
       </c>
       <c r="D458" t="n">
-        <v>3243520230297.909</v>
+        <v>3324869950751.325</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="2" t="n">
-        <v>43862</v>
+        <v>43952</v>
       </c>
       <c r="B459" t="n">
-        <v>2481573000000</v>
+        <v>2682519000000</v>
       </c>
       <c r="C459" t="n">
-        <v>1.281640499839795</v>
+        <v>1.235177865612648</v>
       </c>
       <c r="D459" t="n">
-        <v>3180484460108.939</v>
+        <v>3313388092885.375</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="2" t="n">
-        <v>43891</v>
+        <v>43983</v>
       </c>
       <c r="B460" t="n">
-        <v>2603729000000</v>
+        <v>2700321000000</v>
       </c>
       <c r="C460" t="n">
-        <v>1.243471773190749</v>
+        <v>1.240110121778814</v>
       </c>
       <c r="D460" t="n">
-        <v>3237663516538.174</v>
+        <v>3348695404151.889</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="2" t="n">
-        <v>43922</v>
+        <v>44013</v>
       </c>
       <c r="B461" t="n">
-        <v>2639671000000</v>
+        <v>2715730000000</v>
       </c>
       <c r="C461" t="n">
-        <v>1.259556887886841</v>
+        <v>1.308335404864391</v>
       </c>
       <c r="D461" t="n">
-        <v>3324815789805.146</v>
+        <v>3553085709052.373</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="2" t="n">
-        <v>43952</v>
+        <v>44044</v>
       </c>
       <c r="B462" t="n">
-        <v>2682569000000</v>
+        <v>2719354000000</v>
       </c>
       <c r="C462" t="n">
-        <v>1.235177865612648</v>
+        <v>1.336630354875359</v>
       </c>
       <c r="D462" t="n">
-        <v>3313449851778.656</v>
+        <v>3634771102051.728</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="2" t="n">
-        <v>43983</v>
+        <v>44075</v>
       </c>
       <c r="B463" t="n">
-        <v>2700238000000</v>
+        <v>2729336000000</v>
       </c>
       <c r="C463" t="n">
-        <v>1.240110121778814</v>
+        <v>1.291972971925427</v>
       </c>
       <c r="D463" t="n">
-        <v>3348592475011.781</v>
+        <v>3526228343303.058</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="2" t="n">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="B464" t="n">
-        <v>2715572000000</v>
+        <v>2757401000000</v>
       </c>
       <c r="C464" t="n">
-        <v>1.308335404864391</v>
+        <v>1.29510192452146</v>
       </c>
       <c r="D464" t="n">
-        <v>3552878992058.404</v>
+        <v>3571115341777.397</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="2" t="n">
-        <v>44044</v>
+        <v>44136</v>
       </c>
       <c r="B465" t="n">
-        <v>2719296000000</v>
+        <v>2769646000000</v>
       </c>
       <c r="C465" t="n">
-        <v>1.336630354875359</v>
+        <v>1.332480545784031</v>
       </c>
       <c r="D465" t="n">
-        <v>3634693577491.145</v>
+        <v>3690499413708.56</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="2" t="n">
-        <v>44075</v>
+        <v>44166</v>
       </c>
       <c r="B466" t="n">
-        <v>2729471000000</v>
+        <v>2810605000000</v>
       </c>
       <c r="C466" t="n">
-        <v>1.291972971925427</v>
+        <v>1.366288204833928</v>
       </c>
       <c r="D466" t="n">
-        <v>3526402759654.268</v>
+        <v>3840096459947.262</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="2" t="n">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="B467" t="n">
-        <v>2757371000000</v>
+        <v>2821228000000</v>
       </c>
       <c r="C467" t="n">
-        <v>1.29510192452146</v>
+        <v>1.370050691875599</v>
       </c>
       <c r="D467" t="n">
-        <v>3571076488719.662</v>
+        <v>3865225373338.814</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="2" t="n">
-        <v>44136</v>
+        <v>44228</v>
       </c>
       <c r="B468" t="n">
-        <v>2769783000000</v>
+        <v>2842868000000</v>
       </c>
       <c r="C468" t="n">
-        <v>1.332480545784031</v>
+        <v>1.392079070091181</v>
       </c>
       <c r="D468" t="n">
-        <v>3690681963543.332</v>
+        <v>3957497041831.976</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="2" t="n">
-        <v>44166</v>
+        <v>44256</v>
       </c>
       <c r="B469" t="n">
-        <v>2811114000000</v>
+        <v>2858521000000</v>
       </c>
       <c r="C469" t="n">
-        <v>1.366288204833928</v>
+        <v>1.378169790518192</v>
       </c>
       <c r="D469" t="n">
-        <v>3840791900643.522</v>
+        <v>3939527287761.852</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="2" t="n">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="B470" t="n">
-        <v>2821294000000</v>
+        <v>2875638000000</v>
       </c>
       <c r="C470" t="n">
-        <v>1.370050691875599</v>
+        <v>1.381654392970142</v>
       </c>
       <c r="D470" t="n">
-        <v>3865315796684.478</v>
+        <v>3973137875291.874</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="n">
-        <v>44228</v>
+        <v>44317</v>
       </c>
       <c r="B471" t="n">
-        <v>2842039000000</v>
+        <v>2870729000000</v>
       </c>
       <c r="C471" t="n">
-        <v>1.392079070091181</v>
+        <v>1.420555437175936</v>
       </c>
       <c r="D471" t="n">
-        <v>3956343008282.871</v>
+        <v>4078029689608.637</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="2" t="n">
-        <v>44256</v>
+        <v>44348</v>
       </c>
       <c r="B472" t="n">
-        <v>2858641000000</v>
+        <v>2887930000000</v>
       </c>
       <c r="C472" t="n">
-        <v>1.378169790518192</v>
+        <v>1.382934587194026</v>
       </c>
       <c r="D472" t="n">
-        <v>3939692668136.714</v>
+        <v>3993818282395.243</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="2" t="n">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="B473" t="n">
-        <v>2875661000000</v>
+        <v>2892060000000</v>
       </c>
       <c r="C473" t="n">
-        <v>1.381654392970142</v>
+        <v>1.390607834684541</v>
       </c>
       <c r="D473" t="n">
-        <v>3973169653342.913</v>
+        <v>4021721294377.772</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="n">
-        <v>44317</v>
+        <v>44409</v>
       </c>
       <c r="B474" t="n">
-        <v>2871100000000</v>
+        <v>2890721000000</v>
       </c>
       <c r="C474" t="n">
-        <v>1.420555437175936</v>
+        <v>1.375459059461095</v>
       </c>
       <c r="D474" t="n">
-        <v>4078556715675.83</v>
+        <v>3976068387824.437</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="2" t="n">
-        <v>44348</v>
+        <v>44440</v>
       </c>
       <c r="B475" t="n">
-        <v>2887669000000</v>
+        <v>2933670000000</v>
       </c>
       <c r="C475" t="n">
-        <v>1.382934587194026</v>
+        <v>1.347745222243187</v>
       </c>
       <c r="D475" t="n">
-        <v>3993457336467.985</v>
+        <v>3953839726138.171</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="2" t="n">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="B476" t="n">
-        <v>2891958000000</v>
+        <v>2946167000000</v>
       </c>
       <c r="C476" t="n">
-        <v>1.390607834684541</v>
+        <v>1.370275973581079</v>
       </c>
       <c r="D476" t="n">
-        <v>4021579452378.634</v>
+        <v>4037061854257.447</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
-        <v>44409</v>
+        <v>44501</v>
       </c>
       <c r="B477" t="n">
-        <v>2890725000000</v>
+        <v>2968038000000</v>
       </c>
       <c r="C477" t="n">
-        <v>1.375459059461095</v>
+        <v>1.330353341847595</v>
       </c>
       <c r="D477" t="n">
-        <v>3976073889660.674</v>
+        <v>3948539272030.651</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="B478" t="n">
-        <v>2933914000000</v>
+        <v>2978879000000</v>
       </c>
       <c r="C478" t="n">
-        <v>1.347745222243187</v>
+        <v>1.353473011748146</v>
       </c>
       <c r="D478" t="n">
-        <v>3954168575972.398</v>
+        <v>4031832331763.305</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="B479" t="n">
-        <v>2946119000000</v>
+        <v>2970952000000</v>
       </c>
       <c r="C479" t="n">
-        <v>1.370275973581079</v>
+        <v>1.344501660459551</v>
       </c>
       <c r="D479" t="n">
-        <v>4036996081010.715</v>
+        <v>3994449897145.623</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
-        <v>44501</v>
+        <v>44593</v>
       </c>
       <c r="B480" t="n">
-        <v>2967796000000</v>
+        <v>2988480000000</v>
       </c>
       <c r="C480" t="n">
-        <v>1.330353341847595</v>
+        <v>1.34197565656159</v>
       </c>
       <c r="D480" t="n">
-        <v>3948217326521.924</v>
+        <v>4010467410121.18</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="B481" t="n">
-        <v>2979644000000</v>
+        <v>3032901000000</v>
       </c>
       <c r="C481" t="n">
-        <v>1.353473011748146</v>
+        <v>1.313905057220565</v>
       </c>
       <c r="D481" t="n">
-        <v>4032867738617.292</v>
+        <v>3984943961949.31</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="B482" t="n">
-        <v>2970964000000</v>
+        <v>3040249000000</v>
       </c>
       <c r="C482" t="n">
-        <v>1.344501660459551</v>
+        <v>1.257308103350726</v>
       </c>
       <c r="D482" t="n">
-        <v>3994466031165.548</v>
+        <v>3822529703903.941</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
-        <v>44593</v>
+        <v>44682</v>
       </c>
       <c r="B483" t="n">
-        <v>2986940000000</v>
+        <v>3040088000000</v>
       </c>
       <c r="C483" t="n">
-        <v>1.34197565656159</v>
+        <v>1.260112402026261</v>
       </c>
       <c r="D483" t="n">
-        <v>4008400767610.075</v>
+        <v>3830852592051.211</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="B484" t="n">
-        <v>3032968000000</v>
+        <v>3068538000000</v>
       </c>
       <c r="C484" t="n">
-        <v>1.313905057220565</v>
+        <v>1.217626359175424</v>
       </c>
       <c r="D484" t="n">
-        <v>3985031993588.144</v>
+        <v>3736332752931.436</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="B485" t="n">
-        <v>3040741000000</v>
+        <v>3076742000000</v>
       </c>
       <c r="C485" t="n">
-        <v>1.257308103350726</v>
+        <v>1.218011960877456</v>
       </c>
       <c r="D485" t="n">
-        <v>3823148299490.79</v>
+        <v>3747508556534.025</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
-        <v>44682</v>
+        <v>44774</v>
       </c>
       <c r="B486" t="n">
-        <v>3041169000000</v>
+        <v>3105571000000</v>
       </c>
       <c r="C486" t="n">
-        <v>1.260112402026261</v>
+        <v>1.161750525692113</v>
       </c>
       <c r="D486" t="n">
-        <v>3832214773557.802</v>
+        <v>3607898741824.18</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="B487" t="n">
-        <v>3068315000000</v>
+        <v>3217985000000</v>
       </c>
       <c r="C487" t="n">
-        <v>1.217626359175424</v>
+        <v>1.116769409452336</v>
       </c>
       <c r="D487" t="n">
-        <v>3736061222253.339</v>
+        <v>3593747208076.476</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="B488" t="n">
-        <v>3076270000000</v>
+        <v>3099642000000</v>
       </c>
       <c r="C488" t="n">
-        <v>1.218011960877456</v>
+        <v>1.146920518408074</v>
       </c>
       <c r="D488" t="n">
-        <v>3746933654888.491</v>
+        <v>3555043009519.44</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
-        <v>44774</v>
+        <v>44866</v>
       </c>
       <c r="B489" t="n">
-        <v>3105687000000</v>
+        <v>3096180000000</v>
       </c>
       <c r="C489" t="n">
-        <v>1.161750525692113</v>
+        <v>1.2059234962134</v>
       </c>
       <c r="D489" t="n">
-        <v>3608033504885.161</v>
+        <v>3733756210506.005</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
-        <v>44805</v>
+        <v>44896</v>
       </c>
       <c r="B490" t="n">
-        <v>3218141000000</v>
+        <v>3067035000000</v>
       </c>
       <c r="C490" t="n">
-        <v>1.116769409452336</v>
+        <v>1.209643276197849</v>
       </c>
       <c r="D490" t="n">
-        <v>3593921424104.351</v>
+        <v>3710018265613.471</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="B491" t="n">
-        <v>3099604000000</v>
+        <v>3094336000000</v>
       </c>
       <c r="C491" t="n">
-        <v>1.146920518408074</v>
+        <v>1.23164843826978</v>
       </c>
       <c r="D491" t="n">
-        <v>3554999426539.741</v>
+        <v>3811134101881.959</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
-        <v>44866</v>
+        <v>44958</v>
       </c>
       <c r="B492" t="n">
-        <v>3096278000000</v>
+        <v>3097533000000</v>
       </c>
       <c r="C492" t="n">
-        <v>1.2059234962134</v>
+        <v>1.20225543118891</v>
       </c>
       <c r="D492" t="n">
-        <v>3733874391008.634</v>
+        <v>3724025872536.879</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
-        <v>44896</v>
+        <v>44986</v>
       </c>
       <c r="B493" t="n">
-        <v>3068065000000</v>
+        <v>3069687000000</v>
       </c>
       <c r="C493" t="n">
-        <v>1.209643276197849</v>
+        <v>1.233486696845975</v>
       </c>
       <c r="D493" t="n">
-        <v>3711264198187.955</v>
+        <v>3786418077981.029</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
-        <v>44927</v>
+        <v>45017</v>
       </c>
       <c r="B494" t="n">
-        <v>3095353000000</v>
+        <v>3057863000000</v>
       </c>
       <c r="C494" t="n">
-        <v>1.23164843826978</v>
+        <v>1.256644507835178</v>
       </c>
       <c r="D494" t="n">
-        <v>3812386688343.679</v>
+        <v>3842646744662.402</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
-        <v>44958</v>
+        <v>45047</v>
       </c>
       <c r="B495" t="n">
-        <v>3096698000000</v>
+        <v>3058434000000</v>
       </c>
       <c r="C495" t="n">
-        <v>1.20225543118891</v>
+        <v>1.243873920939374</v>
       </c>
       <c r="D495" t="n">
-        <v>3723021989251.836</v>
+        <v>3804306291514.292</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
-        <v>44986</v>
+        <v>45078</v>
       </c>
       <c r="B496" t="n">
-        <v>3071723000000</v>
+        <v>3044958000000</v>
       </c>
       <c r="C496" t="n">
-        <v>1.233486696845975</v>
+        <v>1.269938027024281</v>
       </c>
       <c r="D496" t="n">
-        <v>3788929456895.808</v>
+        <v>3866907954891.801</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
-        <v>45017</v>
+        <v>45108</v>
       </c>
       <c r="B497" t="n">
-        <v>3060169000000</v>
+        <v>3014302000000</v>
       </c>
       <c r="C497" t="n">
-        <v>1.256644507835178</v>
+        <v>1.283960762159108</v>
       </c>
       <c r="D497" t="n">
-        <v>3845544566897.47</v>
+        <v>3870245493297.725</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
-        <v>45047</v>
+        <v>45139</v>
       </c>
       <c r="B498" t="n">
-        <v>3058913000000</v>
+        <v>3032224000000</v>
       </c>
       <c r="C498" t="n">
-        <v>1.243873920939374</v>
+        <v>1.267170155608495</v>
       </c>
       <c r="D498" t="n">
-        <v>3804902107122.422</v>
+        <v>3842343757919.813</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
-        <v>45078</v>
+        <v>45170</v>
       </c>
       <c r="B499" t="n">
-        <v>3045763000000</v>
+        <v>3031917000000</v>
       </c>
       <c r="C499" t="n">
-        <v>1.269938027024281</v>
+        <v>1.219958521410272</v>
       </c>
       <c r="D499" t="n">
-        <v>3867930255003.556</v>
+        <v>3698812980358.668</v>
       </c>
     </row>
   </sheetData>

--- a/Global_M2/TVDataFeed/FinalData/United Kingdom.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/United Kingdom.xlsx
@@ -1,40 +1,57 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>United Kingdom_M2 (GBP)</t>
+  </si>
+  <si>
+    <t>United Kingdom_FX (USD)</t>
+  </si>
+  <si>
+    <t>United Kingdom_M2 (USD)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,96 +66,38 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -426,6785 +385,6661 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D499"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>United Kingdom_M2 (GBP)</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>United Kingdom_FX (USD)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>United Kingdom_M2 (USD)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2">
         <v>30042</v>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>1.79694512859137</v>
       </c>
-      <c r="D2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2">
         <v>30072</v>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>1.793078780458267</v>
       </c>
-      <c r="D3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2">
         <v>30103</v>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>1.743071261232852</v>
       </c>
-      <c r="D4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2">
         <v>30133</v>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>1.740643977697338</v>
       </c>
-      <c r="D5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2">
         <v>30164</v>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>1.717327808392104</v>
       </c>
-      <c r="D6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2">
         <v>30195</v>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>1.694628057865244</v>
       </c>
-      <c r="D7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2">
         <v>30225</v>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>1.67644599082803</v>
       </c>
-      <c r="D8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2">
         <v>30256</v>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>1.61472627781808</v>
       </c>
-      <c r="D9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2">
         <v>30286</v>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>1.617599482368166</v>
       </c>
-      <c r="D10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2">
         <v>30317</v>
       </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>1.525320294000606</v>
       </c>
-      <c r="D11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2">
         <v>30348</v>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>1.515610814119594</v>
       </c>
-      <c r="D12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2">
         <v>30376</v>
       </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>1.481700992739665</v>
       </c>
-      <c r="D13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2">
         <v>30407</v>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>1.562011822492602</v>
       </c>
-      <c r="D14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2">
         <v>30437</v>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>1.606167632310709</v>
       </c>
-      <c r="D15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2">
         <v>30468</v>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>1.534683855125844</v>
       </c>
-      <c r="D16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2">
         <v>30498</v>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>1.520450053215752</v>
       </c>
-      <c r="D17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2">
         <v>30529</v>
       </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>1.493652001398835</v>
       </c>
-      <c r="D18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2">
         <v>30560</v>
       </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>1.49499175519522</v>
       </c>
-      <c r="D19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2">
         <v>30590</v>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>1.494321578003586</v>
       </c>
-      <c r="D20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2">
         <v>30621</v>
       </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>1.466490644772235</v>
       </c>
-      <c r="D21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2">
         <v>30651</v>
       </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>1.452010993117149</v>
       </c>
-      <c r="D22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2">
         <v>30682</v>
       </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>1.403311835578331</v>
       </c>
-      <c r="D23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2">
         <v>30713</v>
       </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>1.491424354703187</v>
       </c>
-      <c r="D24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2">
         <v>30742</v>
       </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>1.441545295039778</v>
       </c>
-      <c r="D25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2">
         <v>30773</v>
       </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>1.396258047979029</v>
       </c>
-      <c r="D26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2">
         <v>30803</v>
       </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>1.386577944905407</v>
       </c>
-      <c r="D27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2">
         <v>30834</v>
       </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>1.356300050353996</v>
       </c>
-      <c r="D28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2">
         <v>30864</v>
       </c>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>1.310959656815932</v>
       </c>
-      <c r="D29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2">
         <v>30895</v>
       </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>1.309757729135762</v>
       </c>
-      <c r="D30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2">
         <v>30926</v>
       </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>1.238696936901905</v>
       </c>
-      <c r="D31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2">
         <v>30956</v>
       </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>1.216693013545529</v>
       </c>
-      <c r="D32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2">
         <v>30987</v>
       </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>1.203659123736158</v>
       </c>
-      <c r="D33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2">
         <v>31017</v>
       </c>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>1.157943465540911</v>
       </c>
-      <c r="D34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2">
         <v>31048</v>
       </c>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>1.12968818053122</v>
       </c>
-      <c r="D35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2">
         <v>31079</v>
       </c>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>1.08201687946332</v>
       </c>
-      <c r="D36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2">
         <v>31107</v>
       </c>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>1.230012269864397</v>
       </c>
-      <c r="D37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2">
         <v>31138</v>
       </c>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>1.238543488215798</v>
       </c>
-      <c r="D38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2">
         <v>31168</v>
       </c>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>1.286504567091213</v>
       </c>
-      <c r="D39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2">
         <v>31199</v>
       </c>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>1.311991603253739</v>
       </c>
-      <c r="D40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2">
         <v>31229</v>
       </c>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>1.416029453412631</v>
       </c>
-      <c r="D41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2">
         <v>31260</v>
       </c>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>1.396453048357857</v>
       </c>
-      <c r="D42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2">
         <v>31291</v>
       </c>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>1.407063498158534</v>
       </c>
-      <c r="D43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="2">
         <v>31321</v>
       </c>
-      <c r="B44" t="inlineStr"/>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>1.445086767850582</v>
       </c>
-      <c r="D44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="2">
         <v>31352</v>
       </c>
-      <c r="B45" t="inlineStr"/>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>1.490312965722802</v>
       </c>
-      <c r="D45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="2">
         <v>31382</v>
       </c>
-      <c r="B46" t="inlineStr"/>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>1.445504481063891</v>
       </c>
-      <c r="D46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="2">
         <v>31413</v>
       </c>
-      <c r="B47" t="inlineStr"/>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>1.408649065821973</v>
       </c>
-      <c r="D47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="2">
         <v>31444</v>
       </c>
-      <c r="B48" t="inlineStr"/>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>1.450536656497341</v>
       </c>
-      <c r="D48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="2">
         <v>31472</v>
       </c>
-      <c r="B49" t="inlineStr"/>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>1.477978169612124</v>
       </c>
-      <c r="D49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="2">
         <v>31503</v>
       </c>
-      <c r="B50" t="inlineStr"/>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>1.553518719900575</v>
       </c>
-      <c r="D50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="2">
         <v>31533</v>
       </c>
-      <c r="B51" t="inlineStr"/>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>1.472537224931151</v>
       </c>
-      <c r="D51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="2">
         <v>31564</v>
       </c>
-      <c r="B52" t="inlineStr"/>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>1.533507060258838</v>
       </c>
-      <c r="D52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="2">
         <v>31594</v>
       </c>
-      <c r="B53" t="inlineStr"/>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>1.492091935125216</v>
       </c>
-      <c r="D53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="2">
         <v>31625</v>
       </c>
-      <c r="B54" t="inlineStr"/>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>1.487431250555741</v>
       </c>
-      <c r="D54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="2">
         <v>31656</v>
       </c>
-      <c r="B55" t="inlineStr"/>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>1.447596968042893</v>
       </c>
-      <c r="D55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="2">
         <v>31686</v>
       </c>
-      <c r="B56" t="inlineStr"/>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>1.408450743900021</v>
       </c>
-      <c r="D56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="2">
         <v>31717</v>
       </c>
-      <c r="B57" t="inlineStr"/>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>1.437194575493036</v>
       </c>
-      <c r="D57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="2">
         <v>31747</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>167337000000</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>1.483679481196454</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>248274473344.9711</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
+    <row r="59" spans="1:4">
+      <c r="A59" s="2">
         <v>31778</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>256330000000</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>1.51446307695099</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59">
         <v>388202320514.8472</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
+    <row r="60" spans="1:4">
+      <c r="A60" s="2">
         <v>31809</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>259350000000</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>1.546551166926212</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60">
         <v>401098045142.313</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
+    <row r="61" spans="1:4">
+      <c r="A61" s="2">
         <v>31837</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>263526000000</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>1.604106589867176</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61">
         <v>422723793201.3375</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
+    <row r="62" spans="1:4">
+      <c r="A62" s="2">
         <v>31868</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>267779000000</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>1.660577963828195</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62">
         <v>444667906575.9502</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
+    <row r="63" spans="1:4">
+      <c r="A63" s="2">
         <v>31898</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>270683000000</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63">
         <v>1.62813415825464</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63">
         <v>440708238358.8408</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
+    <row r="64" spans="1:4">
+      <c r="A64" s="2">
         <v>31929</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>272668000000</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64">
         <v>1.612383154220676</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64">
         <v>439645289895.0432</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
+    <row r="65" spans="1:4">
+      <c r="A65" s="2">
         <v>31959</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>277415000000</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65">
         <v>1.593117807541077</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65">
         <v>441954776579.0079</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
+    <row r="66" spans="1:4">
+      <c r="A66" s="2">
         <v>31990</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>280138000000</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66">
         <v>1.630523318252569</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66">
         <v>456771541328.6381</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
+    <row r="67" spans="1:4">
+      <c r="A67" s="2">
         <v>32021</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>281171000000</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67">
         <v>1.628929766591794</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67">
         <v>458007811402.3813</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
+    <row r="68" spans="1:4">
+      <c r="A68" s="2">
         <v>32051</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>287007000000</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68">
         <v>1.722949719554613</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68">
         <v>494498630160.2108</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
+    <row r="69" spans="1:4">
+      <c r="A69" s="2">
         <v>32082</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>289314000000</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69">
         <v>1.831837366401124</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69">
         <v>529976195822.9748</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
+    <row r="70" spans="1:4">
+      <c r="A70" s="2">
         <v>32112</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>291622000000</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70">
         <v>1.887148482975118</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D70">
         <v>550334014902.1699</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="2" t="n">
+    <row r="71" spans="1:4">
+      <c r="A71" s="2">
         <v>32143</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>295120000000</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71">
         <v>1.769911504424779</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D71">
         <v>522336283185.8408</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="2" t="n">
+    <row r="72" spans="1:4">
+      <c r="A72" s="2">
         <v>32174</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>297648000000</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72">
         <v>1.773049613953021</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D72">
         <v>527744671493.8888</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="2" t="n">
+    <row r="73" spans="1:4">
+      <c r="A73" s="2">
         <v>32203</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>302566000000</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73">
         <v>1.884658841223919</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D73">
         <v>570233686953.7563</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="2" t="n">
+    <row r="74" spans="1:4">
+      <c r="A74" s="2">
         <v>32234</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>304945000000</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74">
         <v>1.879345916957492</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D74">
         <v>573097140646.6024</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="2" t="n">
+    <row r="75" spans="1:4">
+      <c r="A75" s="2">
         <v>32264</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>307356000000</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75">
         <v>1.840265032025488</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D75">
         <v>565616499183.226</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="2" t="n">
+    <row r="76" spans="1:4">
+      <c r="A76" s="2">
         <v>32295</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>313691000000</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76">
         <v>1.705611403526816</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D76">
         <v>535034946783.7303</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="2" t="n">
+    <row r="77" spans="1:4">
+      <c r="A77" s="2">
         <v>32325</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>319150000000</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77">
         <v>1.711449656390541</v>
       </c>
-      <c r="D77" t="n">
+      <c r="D77">
         <v>546209157837.0411</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="2" t="n">
+    <row r="78" spans="1:4">
+      <c r="A78" s="2">
         <v>32356</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>322995000000</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78">
         <v>1.680954754060266</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D78">
         <v>542939980787.6957</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="2" t="n">
+    <row r="79" spans="1:4">
+      <c r="A79" s="2">
         <v>32387</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>327797000000</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79">
         <v>1.686056285853039</v>
       </c>
-      <c r="D79" t="n">
+      <c r="D79">
         <v>552684192333.7684</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
+    <row r="80" spans="1:4">
+      <c r="A80" s="2">
         <v>32417</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>331916000000</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80">
         <v>1.76959826987085</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D80">
         <v>587357979342.453</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="2" t="n">
+    <row r="81" spans="1:4">
+      <c r="A81" s="2">
         <v>32448</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>333293000000</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81">
         <v>1.848087127254456</v>
       </c>
-      <c r="D81" t="n">
+      <c r="D81">
         <v>615954502904.0195</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="2" t="n">
+    <row r="82" spans="1:4">
+      <c r="A82" s="2">
         <v>32478</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>339317000000</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82">
         <v>1.807991354329983</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D82">
         <v>613482202377.1869</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="2" t="n">
+    <row r="83" spans="1:4">
+      <c r="A83" s="2">
         <v>32509</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>343461000000</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83">
         <v>1.755926158599149</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D83">
         <v>603092154358.6222</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="2" t="n">
+    <row r="84" spans="1:4">
+      <c r="A84" s="2">
         <v>32540</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>349710000000</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84">
         <v>1.743071261232852</v>
       </c>
-      <c r="D84" t="n">
+      <c r="D84">
         <v>609569450765.7407</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="2" t="n">
+    <row r="85" spans="1:4">
+      <c r="A85" s="2">
         <v>32568</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>353734000000</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85">
         <v>1.685488005578561</v>
       </c>
-      <c r="D85" t="n">
+      <c r="D85">
         <v>596214414165.3267</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="2" t="n">
+    <row r="86" spans="1:4">
+      <c r="A86" s="2">
         <v>32599</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>357400000000</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86">
         <v>1.688048587305054</v>
       </c>
-      <c r="D86" t="n">
+      <c r="D86">
         <v>603308565102.8264</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="2" t="n">
+    <row r="87" spans="1:4">
+      <c r="A87" s="2">
         <v>32629</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>363827000000</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87">
         <v>1.572079886371324</v>
       </c>
-      <c r="D87" t="n">
+      <c r="D87">
         <v>571965108818.8196</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="2" t="n">
+    <row r="88" spans="1:4">
+      <c r="A88" s="2">
         <v>32660</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>375186000000</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88">
         <v>1.550147263990079</v>
       </c>
-      <c r="D88" t="n">
+      <c r="D88">
         <v>581593551387.3818</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="2" t="n">
+    <row r="89" spans="1:4">
+      <c r="A89" s="2">
         <v>32690</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>377386000000</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89">
         <v>1.661129568106312</v>
       </c>
-      <c r="D89" t="n">
+      <c r="D89">
         <v>626887043189.3688</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="2" t="n">
+    <row r="90" spans="1:4">
+      <c r="A90" s="2">
         <v>32721</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>384842000000</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90">
         <v>1.573564097976961</v>
       </c>
-      <c r="D90" t="n">
+      <c r="D90">
         <v>605573554593.6498</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="2" t="n">
+    <row r="91" spans="1:4">
+      <c r="A91" s="2">
         <v>32752</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>389498000000</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91">
         <v>1.618908907848758</v>
       </c>
-      <c r="D91" t="n">
+      <c r="D91">
         <v>630561781789.2758</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="2" t="n">
+    <row r="92" spans="1:4">
+      <c r="A92" s="2">
         <v>32782</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92">
         <v>396227000000</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92">
         <v>1.579778781049644</v>
       </c>
-      <c r="D92" t="n">
+      <c r="D92">
         <v>625951007078.9572</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="2" t="n">
+    <row r="93" spans="1:4">
+      <c r="A93" s="2">
         <v>32813</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>398337000000</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93">
         <v>1.569119699213562</v>
       </c>
-      <c r="D93" t="n">
+      <c r="D93">
         <v>625038433625.6326</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="2" t="n">
+    <row r="94" spans="1:4">
+      <c r="A94" s="2">
         <v>32843</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>406224000000</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94">
         <v>1.612383154220676</v>
       </c>
-      <c r="D94" t="n">
+      <c r="D94">
         <v>654988734440.1398</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="2" t="n">
+    <row r="95" spans="1:4">
+      <c r="A95" s="2">
         <v>32874</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>410992000000</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95">
         <v>1.68010752688172</v>
       </c>
-      <c r="D95" t="n">
+      <c r="D95">
         <v>690510752688.1721</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="2" t="n">
+    <row r="96" spans="1:4">
+      <c r="A96" s="2">
         <v>32905</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96">
         <v>414448000000</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96">
         <v>1.690617132396184</v>
       </c>
-      <c r="D96" t="n">
+      <c r="D96">
         <v>700672889287.3335</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="2" t="n">
+    <row r="97" spans="1:4">
+      <c r="A97" s="2">
         <v>32933</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>420823000000</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97">
         <v>1.645548817599948</v>
       </c>
-      <c r="D97" t="n">
+      <c r="D97">
         <v>692484790068.8628</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="2" t="n">
+    <row r="98" spans="1:4">
+      <c r="A98" s="2">
         <v>32964</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>424387000000</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98">
         <v>1.635055645358262</v>
       </c>
-      <c r="D98" t="n">
+      <c r="D98">
         <v>693896360166.6566</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="2" t="n">
+    <row r="99" spans="1:4">
+      <c r="A99" s="2">
         <v>32994</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99">
         <v>427459000000</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99">
         <v>1.677570961796895</v>
       </c>
-      <c r="D99" t="n">
+      <c r="D99">
         <v>717092805758.7388</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="2" t="n">
+    <row r="100" spans="1:4">
+      <c r="A100" s="2">
         <v>33025</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100">
         <v>431382000000</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C100">
         <v>1.743983196931175</v>
       </c>
-      <c r="D100" t="n">
+      <c r="D100">
         <v>752322959458.5643</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="2" t="n">
+    <row r="101" spans="1:4">
+      <c r="A101" s="2">
         <v>33055</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101">
         <v>432276000000</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C101">
         <v>1.85908171736838</v>
       </c>
-      <c r="D101" t="n">
+      <c r="D101">
         <v>803636408457.1338</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="2" t="n">
+    <row r="102" spans="1:4">
+      <c r="A102" s="2">
         <v>33086</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102">
         <v>435034000000</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C102">
         <v>1.890716474340151</v>
       </c>
-      <c r="D102" t="n">
+      <c r="D102">
         <v>822525950698.0933</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="2" t="n">
+    <row r="103" spans="1:4">
+      <c r="A103" s="2">
         <v>33117</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103">
         <v>439584000000</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C103">
         <v>1.870557356133283</v>
       </c>
-      <c r="D103" t="n">
+      <c r="D103">
         <v>822267084838.4929</v>
       </c>
     </row>
-    <row r="104">
-      <c r="A104" s="2" t="n">
+    <row r="104" spans="1:4">
+      <c r="A104" s="2">
         <v>33147</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104">
         <v>441285000000</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C104">
         <v>1.944390471405609</v>
       </c>
-      <c r="D104" t="n">
+      <c r="D104">
         <v>858030349174.2241</v>
       </c>
     </row>
-    <row r="105">
-      <c r="A105" s="2" t="n">
+    <row r="105" spans="1:4">
+      <c r="A105" s="2">
         <v>33178</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105">
         <v>446469000000</v>
       </c>
-      <c r="C105" t="n">
+      <c r="C105">
         <v>1.936858340621409</v>
       </c>
-      <c r="D105" t="n">
+      <c r="D105">
         <v>864747206478.8997</v>
       </c>
     </row>
-    <row r="106">
-      <c r="A106" s="2" t="n">
+    <row r="106" spans="1:4">
+      <c r="A106" s="2">
         <v>33208</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106">
         <v>448145000000</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C106">
         <v>1.929384526336099</v>
       </c>
-      <c r="D106" t="n">
+      <c r="D106">
         <v>864644028554.891</v>
       </c>
     </row>
-    <row r="107">
-      <c r="A107" s="2" t="n">
+    <row r="107" spans="1:4">
+      <c r="A107" s="2">
         <v>33239</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107">
         <v>449342000000</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C107">
         <v>1.958863820590327</v>
       </c>
-      <c r="D107" t="n">
+      <c r="D107">
         <v>880199786871.6986</v>
       </c>
     </row>
-    <row r="108">
-      <c r="A108" s="2" t="n">
+    <row r="108" spans="1:4">
+      <c r="A108" s="2">
         <v>33270</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108">
         <v>450874000000</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C108">
         <v>1.912045889101338</v>
       </c>
-      <c r="D108" t="n">
+      <c r="D108">
         <v>862091778202.6768</v>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" s="2" t="n">
+    <row r="109" spans="1:4">
+      <c r="A109" s="2">
         <v>33298</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109">
         <v>452937000000</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C109">
         <v>1.740644038294169</v>
       </c>
-      <c r="D109" t="n">
+      <c r="D109">
         <v>788402088772.8459</v>
       </c>
     </row>
-    <row r="110">
-      <c r="A110" s="2" t="n">
+    <row r="110" spans="1:4">
+      <c r="A110" s="2">
         <v>33329</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110">
         <v>454556000000</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C110">
         <v>1.732501732501732</v>
       </c>
-      <c r="D110" t="n">
+      <c r="D110">
         <v>787519057519.0575</v>
       </c>
     </row>
-    <row r="111">
-      <c r="A111" s="2" t="n">
+    <row r="111" spans="1:4">
+      <c r="A111" s="2">
         <v>33359</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111">
         <v>457279000000</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C111">
         <v>1.697216564833673</v>
       </c>
-      <c r="D111" t="n">
+      <c r="D111">
         <v>776101493550.5771</v>
       </c>
     </row>
-    <row r="112">
-      <c r="A112" s="2" t="n">
+    <row r="112" spans="1:4">
+      <c r="A112" s="2">
         <v>33390</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112">
         <v>458137000000</v>
       </c>
-      <c r="C112" t="n">
+      <c r="C112">
         <v>1.619170984455959</v>
       </c>
-      <c r="D112" t="n">
+      <c r="D112">
         <v>741802137305.6995</v>
       </c>
     </row>
-    <row r="113">
-      <c r="A113" s="2" t="n">
+    <row r="113" spans="1:4">
+      <c r="A113" s="2">
         <v>33420</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B113">
         <v>457916000000</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C113">
         <v>1.685772083614296</v>
       </c>
-      <c r="D113" t="n">
+      <c r="D113">
         <v>771942009440.3237</v>
       </c>
     </row>
-    <row r="114">
-      <c r="A114" s="2" t="n">
+    <row r="114" spans="1:4">
+      <c r="A114" s="2">
         <v>33451</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B114">
         <v>459621000000</v>
       </c>
-      <c r="C114" t="n">
+      <c r="C114">
         <v>1.68321831341525</v>
       </c>
-      <c r="D114" t="n">
+      <c r="D114">
         <v>773642484430.2307</v>
       </c>
     </row>
-    <row r="115">
-      <c r="A115" s="2" t="n">
+    <row r="115" spans="1:4">
+      <c r="A115" s="2">
         <v>33482</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115">
         <v>461686000000</v>
       </c>
-      <c r="C115" t="n">
+      <c r="C115">
         <v>1.747030048916841</v>
       </c>
-      <c r="D115" t="n">
+      <c r="D115">
         <v>806579315164.2208</v>
       </c>
     </row>
-    <row r="116">
-      <c r="A116" s="2" t="n">
+    <row r="116" spans="1:4">
+      <c r="A116" s="2">
         <v>33512</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B116">
         <v>460846000000</v>
       </c>
-      <c r="C116" t="n">
+      <c r="C116">
         <v>1.742160278745645</v>
       </c>
-      <c r="D116" t="n">
+      <c r="D116">
         <v>802867595818.8154</v>
       </c>
     </row>
-    <row r="117">
-      <c r="A117" s="2" t="n">
+    <row r="117" spans="1:4">
+      <c r="A117" s="2">
         <v>33543</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B117">
         <v>461203000000</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C117">
         <v>1.76772140710624</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D117">
         <v>815278416121.6193</v>
       </c>
     </row>
-    <row r="118">
-      <c r="A118" s="2" t="n">
+    <row r="118" spans="1:4">
+      <c r="A118" s="2">
         <v>33573</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B118">
         <v>462476000000</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C118">
         <v>1.868460388639761</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D118">
         <v>864118086696.562</v>
       </c>
     </row>
-    <row r="119">
-      <c r="A119" s="2" t="n">
+    <row r="119" spans="1:4">
+      <c r="A119" s="2">
         <v>33604</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B119">
         <v>466046000000</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C119">
         <v>1.787629603146228</v>
       </c>
-      <c r="D119" t="n">
+      <c r="D119">
         <v>833117626027.887</v>
       </c>
     </row>
-    <row r="120">
-      <c r="A120" s="2" t="n">
+    <row r="120" spans="1:4">
+      <c r="A120" s="2">
         <v>33635</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B120">
         <v>467523000000</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C120">
         <v>1.757469244288225</v>
       </c>
-      <c r="D120" t="n">
+      <c r="D120">
         <v>821657293497.3639</v>
       </c>
     </row>
-    <row r="121">
-      <c r="A121" s="2" t="n">
+    <row r="121" spans="1:4">
+      <c r="A121" s="2">
         <v>33664</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B121">
         <v>468674000000</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C121">
         <v>1.735809755250825</v>
       </c>
-      <c r="D121" t="n">
+      <c r="D121">
         <v>813528901232.425</v>
       </c>
     </row>
-    <row r="122">
-      <c r="A122" s="2" t="n">
+    <row r="122" spans="1:4">
+      <c r="A122" s="2">
         <v>33695</v>
       </c>
-      <c r="B122" t="n">
+      <c r="B122">
         <v>472017000000</v>
       </c>
-      <c r="C122" t="n">
+      <c r="C122">
         <v>1.779359430604982</v>
       </c>
-      <c r="D122" t="n">
+      <c r="D122">
         <v>839887900355.8718</v>
       </c>
     </row>
-    <row r="123">
-      <c r="A123" s="2" t="n">
+    <row r="123" spans="1:4">
+      <c r="A123" s="2">
         <v>33725</v>
       </c>
-      <c r="B123" t="n">
+      <c r="B123">
         <v>469327000000</v>
       </c>
-      <c r="C123" t="n">
+      <c r="C123">
         <v>1.827485380116959</v>
       </c>
-      <c r="D123" t="n">
+      <c r="D123">
         <v>857688230994.152</v>
       </c>
     </row>
-    <row r="124">
-      <c r="A124" s="2" t="n">
+    <row r="124" spans="1:4">
+      <c r="A124" s="2">
         <v>33756</v>
       </c>
-      <c r="B124" t="n">
+      <c r="B124">
         <v>471821000000</v>
       </c>
-      <c r="C124" t="n">
+      <c r="C124">
         <v>1.903311762466692</v>
       </c>
-      <c r="D124" t="n">
+      <c r="D124">
         <v>898022459078.7972</v>
       </c>
     </row>
-    <row r="125">
-      <c r="A125" s="2" t="n">
+    <row r="125" spans="1:4">
+      <c r="A125" s="2">
         <v>33786</v>
       </c>
-      <c r="B125" t="n">
+      <c r="B125">
         <v>473214000000</v>
       </c>
-      <c r="C125" t="n">
+      <c r="C125">
         <v>1.927153594141453</v>
       </c>
-      <c r="D125" t="n">
+      <c r="D125">
         <v>911956060898.0536</v>
       </c>
     </row>
-    <row r="126">
-      <c r="A126" s="2" t="n">
+    <row r="126" spans="1:4">
+      <c r="A126" s="2">
         <v>33817</v>
       </c>
-      <c r="B126" t="n">
+      <c r="B126">
         <v>472160000000</v>
       </c>
-      <c r="C126" t="n">
+      <c r="C126">
         <v>1.990842126219391</v>
       </c>
-      <c r="D126" t="n">
+      <c r="D126">
         <v>939996018315.7477</v>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" s="2" t="n">
+    <row r="127" spans="1:4">
+      <c r="A127" s="2">
         <v>33848</v>
       </c>
-      <c r="B127" t="n">
+      <c r="B127">
         <v>478010000000</v>
       </c>
-      <c r="C127" t="n">
+      <c r="C127">
         <v>1.786033220217896</v>
       </c>
-      <c r="D127" t="n">
+      <c r="D127">
         <v>853741739596.3566</v>
       </c>
     </row>
-    <row r="128">
-      <c r="A128" s="2" t="n">
+    <row r="128" spans="1:4">
+      <c r="A128" s="2">
         <v>33878</v>
       </c>
-      <c r="B128" t="n">
+      <c r="B128">
         <v>484452000000</v>
       </c>
-      <c r="C128" t="n">
+      <c r="C128">
         <v>1.556904873112253</v>
       </c>
-      <c r="D128" t="n">
+      <c r="D128">
         <v>754245679588.9771</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" s="2" t="n">
+    <row r="129" spans="1:4">
+      <c r="A129" s="2">
         <v>33909</v>
       </c>
-      <c r="B129" t="n">
+      <c r="B129">
         <v>483075000000</v>
       </c>
-      <c r="C129" t="n">
+      <c r="C129">
         <v>1.516990291262136</v>
       </c>
-      <c r="D129" t="n">
+      <c r="D129">
         <v>732820084951.4563</v>
       </c>
     </row>
-    <row r="130">
-      <c r="A130" s="2" t="n">
+    <row r="130" spans="1:4">
+      <c r="A130" s="2">
         <v>33939</v>
       </c>
-      <c r="B130" t="n">
+      <c r="B130">
         <v>481592000000</v>
       </c>
-      <c r="C130" t="n">
+      <c r="C130">
         <v>1.510117789187557</v>
       </c>
-      <c r="D130" t="n">
+      <c r="D130">
         <v>727260646330.4137</v>
       </c>
     </row>
-    <row r="131">
-      <c r="A131" s="2" t="n">
+    <row r="131" spans="1:4">
+      <c r="A131" s="2">
         <v>33970</v>
       </c>
-      <c r="B131" t="n">
+      <c r="B131">
         <v>481917000000</v>
       </c>
-      <c r="C131" t="n">
+      <c r="C131">
         <v>1.48720999405116</v>
       </c>
-      <c r="D131" t="n">
+      <c r="D131">
         <v>716711778703.153</v>
       </c>
     </row>
-    <row r="132">
-      <c r="A132" s="2" t="n">
+    <row r="132" spans="1:4">
+      <c r="A132" s="2">
         <v>34001</v>
       </c>
-      <c r="B132" t="n">
+      <c r="B132">
         <v>484043000000</v>
       </c>
-      <c r="C132" t="n">
+      <c r="C132">
         <v>1.426533523537803</v>
       </c>
-      <c r="D132" t="n">
+      <c r="D132">
         <v>690503566333.8088</v>
       </c>
     </row>
-    <row r="133">
-      <c r="A133" s="2" t="n">
+    <row r="133" spans="1:4">
+      <c r="A133" s="2">
         <v>34029</v>
       </c>
-      <c r="B133" t="n">
+      <c r="B133">
         <v>484425000000</v>
       </c>
-      <c r="C133" t="n">
+      <c r="C133">
         <v>1.511944360447536</v>
       </c>
-      <c r="D133" t="n">
+      <c r="D133">
         <v>732423646809.7974</v>
       </c>
     </row>
-    <row r="134">
-      <c r="A134" s="2" t="n">
+    <row r="134" spans="1:4">
+      <c r="A134" s="2">
         <v>34060</v>
       </c>
-      <c r="B134" t="n">
+      <c r="B134">
         <v>486473000000</v>
       </c>
-      <c r="C134" t="n">
+      <c r="C134">
         <v>1.573564122738002</v>
       </c>
-      <c r="D134" t="n">
+      <c r="D134">
         <v>765496459480.7239</v>
       </c>
     </row>
-    <row r="135">
-      <c r="A135" s="2" t="n">
+    <row r="135" spans="1:4">
+      <c r="A135" s="2">
         <v>34090</v>
       </c>
-      <c r="B135" t="n">
+      <c r="B135">
         <v>487064000000</v>
       </c>
-      <c r="C135" t="n">
+      <c r="C135">
         <v>1.562011871290222</v>
       </c>
-      <c r="D135" t="n">
+      <c r="D135">
         <v>760799750078.1006</v>
       </c>
     </row>
-    <row r="136">
-      <c r="A136" s="2" t="n">
+    <row r="136" spans="1:4">
+      <c r="A136" s="2">
         <v>34121</v>
       </c>
-      <c r="B136" t="n">
+      <c r="B136">
         <v>490069000000</v>
       </c>
-      <c r="C136" t="n">
+      <c r="C136">
         <v>1.491646778042959</v>
       </c>
-      <c r="D136" t="n">
+      <c r="D136">
         <v>731009844868.7351</v>
       </c>
     </row>
-    <row r="137">
-      <c r="A137" s="2" t="n">
+    <row r="137" spans="1:4">
+      <c r="A137" s="2">
         <v>34151</v>
       </c>
-      <c r="B137" t="n">
+      <c r="B137">
         <v>493307000000</v>
       </c>
-      <c r="C137" t="n">
+      <c r="C137">
         <v>1.48214021046391</v>
       </c>
-      <c r="D137" t="n">
+      <c r="D137">
         <v>731150140803.3199</v>
       </c>
     </row>
-    <row r="138">
-      <c r="A138" s="2" t="n">
+    <row r="138" spans="1:4">
+      <c r="A138" s="2">
         <v>34182</v>
       </c>
-      <c r="B138" t="n">
+      <c r="B138">
         <v>495736000000</v>
       </c>
-      <c r="C138" t="n">
+      <c r="C138">
         <v>1.492091912861832</v>
       </c>
-      <c r="D138" t="n">
+      <c r="D138">
         <v>739683676514.4733</v>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" s="2" t="n">
+    <row r="139" spans="1:4">
+      <c r="A139" s="2">
         <v>34213</v>
       </c>
-      <c r="B139" t="n">
+      <c r="B139">
         <v>497207000000</v>
       </c>
-      <c r="C139" t="n">
+      <c r="C139">
         <v>1.49655791679138</v>
       </c>
-      <c r="D139" t="n">
+      <c r="D139">
         <v>744099072134.0916</v>
       </c>
     </row>
-    <row r="140">
-      <c r="A140" s="2" t="n">
+    <row r="140" spans="1:4">
+      <c r="A140" s="2">
         <v>34243</v>
       </c>
-      <c r="B140" t="n">
+      <c r="B140">
         <v>500928000000</v>
       </c>
-      <c r="C140" t="n">
+      <c r="C140">
         <v>1.478852410529429</v>
       </c>
-      <c r="D140" t="n">
+      <c r="D140">
         <v>740798580301.6859</v>
       </c>
     </row>
-    <row r="141">
-      <c r="A141" s="2" t="n">
+    <row r="141" spans="1:4">
+      <c r="A141" s="2">
         <v>34274</v>
       </c>
-      <c r="B141" t="n">
+      <c r="B141">
         <v>503900000000</v>
       </c>
-      <c r="C141" t="n">
+      <c r="C141">
         <v>1.485663348685188</v>
       </c>
-      <c r="D141" t="n">
+      <c r="D141">
         <v>748625761402.4662</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" s="2" t="n">
+    <row r="142" spans="1:4">
+      <c r="A142" s="2">
         <v>34304</v>
       </c>
-      <c r="B142" t="n">
+      <c r="B142">
         <v>509216000000</v>
       </c>
-      <c r="C142" t="n">
+      <c r="C142">
         <v>1.477104874446086</v>
       </c>
-      <c r="D142" t="n">
+      <c r="D142">
         <v>752165435745.9379</v>
       </c>
     </row>
-    <row r="143">
-      <c r="A143" s="2" t="n">
+    <row r="143" spans="1:4">
+      <c r="A143" s="2">
         <v>34335</v>
       </c>
-      <c r="B143" t="n">
+      <c r="B143">
         <v>510034000000</v>
       </c>
-      <c r="C143" t="n">
+      <c r="C143">
         <v>1.506931886678722</v>
       </c>
-      <c r="D143" t="n">
+      <c r="D143">
         <v>768586497890.2954</v>
       </c>
     </row>
-    <row r="144">
-      <c r="A144" s="2" t="n">
+    <row r="144" spans="1:4">
+      <c r="A144" s="2">
         <v>34366</v>
       </c>
-      <c r="B144" t="n">
+      <c r="B144">
         <v>514261000000</v>
       </c>
-      <c r="C144" t="n">
+      <c r="C144">
         <v>1.485222040695084</v>
       </c>
-      <c r="D144" t="n">
+      <c r="D144">
         <v>763791771869.8945</v>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" s="2" t="n">
+    <row r="145" spans="1:4">
+      <c r="A145" s="2">
         <v>34394</v>
       </c>
-      <c r="B145" t="n">
+      <c r="B145">
         <v>515859000000</v>
       </c>
-      <c r="C145" t="n">
+      <c r="C145">
         <v>1.483459427384661</v>
       </c>
-      <c r="D145" t="n">
+      <c r="D145">
         <v>765255896751.2238</v>
       </c>
     </row>
-    <row r="146">
-      <c r="A146" s="2" t="n">
+    <row r="146" spans="1:4">
+      <c r="A146" s="2">
         <v>34425</v>
       </c>
-      <c r="B146" t="n">
+      <c r="B146">
         <v>514456000000</v>
       </c>
-      <c r="C146" t="n">
+      <c r="C146">
         <v>1.51952590791673</v>
       </c>
-      <c r="D146" t="n">
+      <c r="D146">
         <v>781729220483.2092</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" s="2" t="n">
+    <row r="147" spans="1:4">
+      <c r="A147" s="2">
         <v>34455</v>
       </c>
-      <c r="B147" t="n">
+      <c r="B147">
         <v>517720000000</v>
       </c>
-      <c r="C147" t="n">
+      <c r="C147">
         <v>1.511030522816561</v>
       </c>
-      <c r="D147" t="n">
+      <c r="D147">
         <v>782290722272.5898</v>
       </c>
     </row>
-    <row r="148">
-      <c r="A148" s="2" t="n">
+    <row r="148" spans="1:4">
+      <c r="A148" s="2">
         <v>34486</v>
       </c>
-      <c r="B148" t="n">
+      <c r="B148">
         <v>517125000000</v>
       </c>
-      <c r="C148" t="n">
+      <c r="C148">
         <v>1.544401544401544</v>
       </c>
-      <c r="D148" t="n">
+      <c r="D148">
         <v>798648648648.6487</v>
       </c>
     </row>
-    <row r="149">
-      <c r="A149" s="2" t="n">
+    <row r="149" spans="1:4">
+      <c r="A149" s="2">
         <v>34516</v>
       </c>
-      <c r="B149" t="n">
+      <c r="B149">
         <v>516624000000</v>
       </c>
-      <c r="C149" t="n">
+      <c r="C149">
         <v>1.544163063619518</v>
       </c>
-      <c r="D149" t="n">
+      <c r="D149">
         <v>797751698579.37</v>
       </c>
     </row>
-    <row r="150">
-      <c r="A150" s="2" t="n">
+    <row r="150" spans="1:4">
+      <c r="A150" s="2">
         <v>34547</v>
       </c>
-      <c r="B150" t="n">
+      <c r="B150">
         <v>518423000000</v>
       </c>
-      <c r="C150" t="n">
+      <c r="C150">
         <v>1.534448365812491</v>
       </c>
-      <c r="D150" t="n">
+      <c r="D150">
         <v>795493325149.6088</v>
       </c>
     </row>
-    <row r="151">
-      <c r="A151" s="2" t="n">
+    <row r="151" spans="1:4">
+      <c r="A151" s="2">
         <v>34578</v>
       </c>
-      <c r="B151" t="n">
+      <c r="B151">
         <v>521865000000</v>
       </c>
-      <c r="C151" t="n">
+      <c r="C151">
         <v>1.577535888941473</v>
       </c>
-      <c r="D151" t="n">
+      <c r="D151">
         <v>823260766682.442</v>
       </c>
     </row>
-    <row r="152">
-      <c r="A152" s="2" t="n">
+    <row r="152" spans="1:4">
+      <c r="A152" s="2">
         <v>34608</v>
       </c>
-      <c r="B152" t="n">
+      <c r="B152">
         <v>521391000000</v>
       </c>
-      <c r="C152" t="n">
+      <c r="C152">
         <v>1.635858007524947</v>
       </c>
-      <c r="D152" t="n">
+      <c r="D152">
         <v>852921642401.4396</v>
       </c>
     </row>
-    <row r="153">
-      <c r="A153" s="2" t="n">
+    <row r="153" spans="1:4">
+      <c r="A153" s="2">
         <v>34639</v>
       </c>
-      <c r="B153" t="n">
+      <c r="B153">
         <v>524786000000</v>
       </c>
-      <c r="C153" t="n">
+      <c r="C153">
         <v>1.563477173233271</v>
       </c>
-      <c r="D153" t="n">
+      <c r="D153">
         <v>820490931832.3953</v>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" s="2" t="n">
+    <row r="154" spans="1:4">
+      <c r="A154" s="2">
         <v>34669</v>
       </c>
-      <c r="B154" t="n">
+      <c r="B154">
         <v>527178000000</v>
       </c>
-      <c r="C154" t="n">
+      <c r="C154">
         <v>1.564700359881083</v>
       </c>
-      <c r="D154" t="n">
+      <c r="D154">
         <v>824875606321.3894</v>
       </c>
     </row>
-    <row r="155">
-      <c r="A155" s="2" t="n">
+    <row r="155" spans="1:4">
+      <c r="A155" s="2">
         <v>34700</v>
       </c>
-      <c r="B155" t="n">
+      <c r="B155">
         <v>529708000000</v>
       </c>
-      <c r="C155" t="n">
+      <c r="C155">
         <v>1.57952930026852</v>
       </c>
-      <c r="D155" t="n">
+      <c r="D155">
         <v>836689306586.6372</v>
       </c>
     </row>
-    <row r="156">
-      <c r="A156" s="2" t="n">
+    <row r="156" spans="1:4">
+      <c r="A156" s="2">
         <v>34731</v>
       </c>
-      <c r="B156" t="n">
+      <c r="B156">
         <v>533750000000</v>
       </c>
-      <c r="C156" t="n">
+      <c r="C156">
         <v>1.58378207158695</v>
       </c>
-      <c r="D156" t="n">
+      <c r="D156">
         <v>845343680709.5344</v>
       </c>
     </row>
-    <row r="157">
-      <c r="A157" s="2" t="n">
+    <row r="157" spans="1:4">
+      <c r="A157" s="2">
         <v>34759</v>
       </c>
-      <c r="B157" t="n">
+      <c r="B157">
         <v>542876000000</v>
       </c>
-      <c r="C157" t="n">
+      <c r="C157">
         <v>1.621533971136695</v>
       </c>
-      <c r="D157" t="n">
+      <c r="D157">
         <v>880291876114.8046</v>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" s="2" t="n">
+    <row r="158" spans="1:4">
+      <c r="A158" s="2">
         <v>34790</v>
       </c>
-      <c r="B158" t="n">
+      <c r="B158">
         <v>542961000000</v>
       </c>
-      <c r="C158" t="n">
+      <c r="C158">
         <v>1.612383102225089</v>
       </c>
-      <c r="D158" t="n">
+      <c r="D158">
         <v>875461141567.2365</v>
       </c>
     </row>
-    <row r="159">
-      <c r="A159" s="2" t="n">
+    <row r="159" spans="1:4">
+      <c r="A159" s="2">
         <v>34820</v>
       </c>
-      <c r="B159" t="n">
+      <c r="B159">
         <v>546560000000</v>
       </c>
-      <c r="C159" t="n">
+      <c r="C159">
         <v>1.587301587301587</v>
       </c>
-      <c r="D159" t="n">
+      <c r="D159">
         <v>867555555555.5555</v>
       </c>
     </row>
-    <row r="160">
-      <c r="A160" s="2" t="n">
+    <row r="160" spans="1:4">
+      <c r="A160" s="2">
         <v>34851</v>
       </c>
-      <c r="B160" t="n">
+      <c r="B160">
         <v>550532000000</v>
       </c>
-      <c r="C160" t="n">
+      <c r="C160">
         <v>1.594896331738437</v>
       </c>
-      <c r="D160" t="n">
+      <c r="D160">
         <v>878041467304.6252</v>
       </c>
     </row>
-    <row r="161">
-      <c r="A161" s="2" t="n">
+    <row r="161" spans="1:4">
+      <c r="A161" s="2">
         <v>34881</v>
       </c>
-      <c r="B161" t="n">
+      <c r="B161">
         <v>558179000000</v>
       </c>
-      <c r="C161" t="n">
+      <c r="C161">
         <v>1.597444089456869</v>
       </c>
-      <c r="D161" t="n">
+      <c r="D161">
         <v>891659744408.9458</v>
       </c>
     </row>
-    <row r="162">
-      <c r="A162" s="2" t="n">
+    <row r="162" spans="1:4">
+      <c r="A162" s="2">
         <v>34912</v>
       </c>
-      <c r="B162" t="n">
+      <c r="B162">
         <v>564092000000</v>
       </c>
-      <c r="C162" t="n">
+      <c r="C162">
         <v>1.549907005579665</v>
       </c>
-      <c r="D162" t="n">
+      <c r="D162">
         <v>874290142591.4446</v>
       </c>
     </row>
-    <row r="163">
-      <c r="A163" s="2" t="n">
+    <row r="163" spans="1:4">
+      <c r="A163" s="2">
         <v>34943</v>
       </c>
-      <c r="B163" t="n">
+      <c r="B163">
         <v>568035000000</v>
       </c>
-      <c r="C163" t="n">
+      <c r="C163">
         <v>1.584534938995405</v>
       </c>
-      <c r="D163" t="n">
+      <c r="D163">
         <v>900071304072.2548</v>
       </c>
     </row>
-    <row r="164">
-      <c r="A164" s="2" t="n">
+    <row r="164" spans="1:4">
+      <c r="A164" s="2">
         <v>34973</v>
       </c>
-      <c r="B164" t="n">
+      <c r="B164">
         <v>573711000000</v>
       </c>
-      <c r="C164" t="n">
+      <c r="C164">
         <v>1.58052789631737</v>
       </c>
-      <c r="D164" t="n">
+      <c r="D164">
         <v>906766239924.1346</v>
       </c>
     </row>
-    <row r="165">
-      <c r="A165" s="2" t="n">
+    <row r="165" spans="1:4">
+      <c r="A165" s="2">
         <v>35004</v>
       </c>
-      <c r="B165" t="n">
+      <c r="B165">
         <v>577801000000</v>
       </c>
-      <c r="C165" t="n">
+      <c r="C165">
         <v>1.531159087429184</v>
       </c>
-      <c r="D165" t="n">
+      <c r="D165">
         <v>884705251875.6698</v>
       </c>
     </row>
-    <row r="166">
-      <c r="A166" s="2" t="n">
+    <row r="166" spans="1:4">
+      <c r="A166" s="2">
         <v>35034</v>
       </c>
-      <c r="B166" t="n">
+      <c r="B166">
         <v>580830000000</v>
       </c>
-      <c r="C166" t="n">
+      <c r="C166">
         <v>1.550628004341758</v>
       </c>
-      <c r="D166" t="n">
+      <c r="D166">
         <v>900651263761.8235</v>
       </c>
     </row>
-    <row r="167">
-      <c r="A167" s="2" t="n">
+    <row r="167" spans="1:4">
+      <c r="A167" s="2">
         <v>35065</v>
       </c>
-      <c r="B167" t="n">
+      <c r="B167">
         <v>588638000000</v>
       </c>
-      <c r="C167" t="n">
+      <c r="C167">
         <v>1.504890895410083</v>
       </c>
-      <c r="D167" t="n">
+      <c r="D167">
         <v>885835966892.4003</v>
       </c>
     </row>
-    <row r="168">
-      <c r="A168" s="2" t="n">
+    <row r="168" spans="1:4">
+      <c r="A168" s="2">
         <v>35096</v>
       </c>
-      <c r="B168" t="n">
+      <c r="B168">
         <v>591466000000</v>
       </c>
-      <c r="C168" t="n">
+      <c r="C168">
         <v>1.531628120692296</v>
       </c>
-      <c r="D168" t="n">
+      <c r="D168">
         <v>905905958033.3895</v>
       </c>
     </row>
-    <row r="169">
-      <c r="A169" s="2" t="n">
+    <row r="169" spans="1:4">
+      <c r="A169" s="2">
         <v>35125</v>
       </c>
-      <c r="B169" t="n">
+      <c r="B169">
         <v>596040000000</v>
       </c>
-      <c r="C169" t="n">
+      <c r="C169">
         <v>1.526717557251908</v>
       </c>
-      <c r="D169" t="n">
+      <c r="D169">
         <v>909984732824.4274</v>
       </c>
     </row>
-    <row r="170">
-      <c r="A170" s="2" t="n">
+    <row r="170" spans="1:4">
+      <c r="A170" s="2">
         <v>35156</v>
       </c>
-      <c r="B170" t="n">
+      <c r="B170">
         <v>601044000000</v>
       </c>
-      <c r="C170" t="n">
+      <c r="C170">
         <v>1.507159005275057</v>
       </c>
-      <c r="D170" t="n">
+      <c r="D170">
         <v>905868877166.541</v>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" s="2" t="n">
+    <row r="171" spans="1:4">
+      <c r="A171" s="2">
         <v>35186</v>
       </c>
-      <c r="B171" t="n">
+      <c r="B171">
         <v>601672000000</v>
       </c>
-      <c r="C171" t="n">
+      <c r="C171">
         <v>1.55110904296572</v>
       </c>
-      <c r="D171" t="n">
+      <c r="D171">
         <v>933258880099.2709</v>
       </c>
     </row>
-    <row r="172">
-      <c r="A172" s="2" t="n">
+    <row r="172" spans="1:4">
+      <c r="A172" s="2">
         <v>35217</v>
       </c>
-      <c r="B172" t="n">
+      <c r="B172">
         <v>610827000000</v>
       </c>
-      <c r="C172" t="n">
+      <c r="C172">
         <v>1.552795031055901</v>
       </c>
-      <c r="D172" t="n">
+      <c r="D172">
         <v>948489130434.7826</v>
       </c>
     </row>
-    <row r="173">
-      <c r="A173" s="2" t="n">
+    <row r="173" spans="1:4">
+      <c r="A173" s="2">
         <v>35247</v>
       </c>
-      <c r="B173" t="n">
+      <c r="B173">
         <v>613598000000</v>
       </c>
-      <c r="C173" t="n">
+      <c r="C173">
         <v>1.556904873112253</v>
       </c>
-      <c r="D173" t="n">
+      <c r="D173">
         <v>955313716331.9321</v>
       </c>
     </row>
-    <row r="174">
-      <c r="A174" s="2" t="n">
+    <row r="174" spans="1:4">
+      <c r="A174" s="2">
         <v>35278</v>
       </c>
-      <c r="B174" t="n">
+      <c r="B174">
         <v>617720000000</v>
       </c>
-      <c r="C174" t="n">
+      <c r="C174">
         <v>1.562011871290222</v>
       </c>
-      <c r="D174" t="n">
+      <c r="D174">
         <v>964885973133.3958</v>
       </c>
     </row>
-    <row r="175">
-      <c r="A175" s="2" t="n">
+    <row r="175" spans="1:4">
+      <c r="A175" s="2">
         <v>35309</v>
       </c>
-      <c r="B175" t="n">
+      <c r="B175">
         <v>627415000000</v>
       </c>
-      <c r="C175" t="n">
+      <c r="C175">
         <v>1.565435190983093</v>
       </c>
-      <c r="D175" t="n">
+      <c r="D175">
         <v>982177520350.6575</v>
       </c>
     </row>
-    <row r="176">
-      <c r="A176" s="2" t="n">
+    <row r="176" spans="1:4">
+      <c r="A176" s="2">
         <v>35339</v>
       </c>
-      <c r="B176" t="n">
+      <c r="B176">
         <v>627185000000</v>
       </c>
-      <c r="C176" t="n">
+      <c r="C176">
         <v>1.627339300244101</v>
       </c>
-      <c r="D176" t="n">
+      <c r="D176">
         <v>1020642799023.596</v>
       </c>
     </row>
-    <row r="177">
-      <c r="A177" s="2" t="n">
+    <row r="177" spans="1:4">
+      <c r="A177" s="2">
         <v>35370</v>
       </c>
-      <c r="B177" t="n">
+      <c r="B177">
         <v>633336000000</v>
       </c>
-      <c r="C177" t="n">
+      <c r="C177">
         <v>1.682085786375105</v>
       </c>
-      <c r="D177" t="n">
+      <c r="D177">
         <v>1065325483599.664</v>
       </c>
     </row>
-    <row r="178">
-      <c r="A178" s="2" t="n">
+    <row r="178" spans="1:4">
+      <c r="A178" s="2">
         <v>35400</v>
       </c>
-      <c r="B178" t="n">
+      <c r="B178">
         <v>637982000000</v>
       </c>
-      <c r="C178" t="n">
+      <c r="C178">
         <v>1.714383679067375</v>
       </c>
-      <c r="D178" t="n">
+      <c r="D178">
         <v>1093745928338.762</v>
       </c>
     </row>
-    <row r="179">
-      <c r="A179" s="2" t="n">
+    <row r="179" spans="1:4">
+      <c r="A179" s="2">
         <v>35431</v>
       </c>
-      <c r="B179" t="n">
+      <c r="B179">
         <v>648719000000</v>
       </c>
-      <c r="C179" t="n">
+      <c r="C179">
         <v>1.602564102564103</v>
       </c>
-      <c r="D179" t="n">
+      <c r="D179">
         <v>1039613782051.282</v>
       </c>
     </row>
-    <row r="180">
-      <c r="A180" s="2" t="n">
+    <row r="180" spans="1:4">
+      <c r="A180" s="2">
         <v>35462</v>
       </c>
-      <c r="B180" t="n">
+      <c r="B180">
         <v>654780000000</v>
       </c>
-      <c r="C180" t="n">
+      <c r="C180">
         <v>1.628664495114007</v>
       </c>
-      <c r="D180" t="n">
+      <c r="D180">
         <v>1066416938110.749</v>
       </c>
     </row>
-    <row r="181">
-      <c r="A181" s="2" t="n">
+    <row r="181" spans="1:4">
+      <c r="A181" s="2">
         <v>35490</v>
       </c>
-      <c r="B181" t="n">
+      <c r="B181">
         <v>659762000000</v>
       </c>
-      <c r="C181" t="n">
+      <c r="C181">
         <v>1.637465203864418</v>
       </c>
-      <c r="D181" t="n">
+      <c r="D181">
         <v>1080337317831.996</v>
       </c>
     </row>
-    <row r="182">
-      <c r="A182" s="2" t="n">
+    <row r="182" spans="1:4">
+      <c r="A182" s="2">
         <v>35521</v>
       </c>
-      <c r="B182" t="n">
+      <c r="B182">
         <v>663250000000</v>
       </c>
-      <c r="C182" t="n">
+      <c r="C182">
         <v>1.623903864891198</v>
       </c>
-      <c r="D182" t="n">
+      <c r="D182">
         <v>1077054238389.087</v>
       </c>
     </row>
-    <row r="183">
-      <c r="A183" s="2" t="n">
+    <row r="183" spans="1:4">
+      <c r="A183" s="2">
         <v>35551</v>
       </c>
-      <c r="B183" t="n">
+      <c r="B183">
         <v>669276000000</v>
       </c>
-      <c r="C183" t="n">
+      <c r="C183">
         <v>1.641227638273429</v>
       </c>
-      <c r="D183" t="n">
+      <c r="D183">
         <v>1098434268833.087</v>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" s="2" t="n">
+    <row r="184" spans="1:4">
+      <c r="A184" s="2">
         <v>35582</v>
       </c>
-      <c r="B184" t="n">
+      <c r="B184">
         <v>691883000000</v>
       </c>
-      <c r="C184" t="n">
+      <c r="C184">
         <v>1.665556295802798</v>
       </c>
-      <c r="D184" t="n">
+      <c r="D184">
         <v>1152370086608.927</v>
       </c>
     </row>
-    <row r="185">
-      <c r="A185" s="2" t="n">
+    <row r="185" spans="1:4">
+      <c r="A185" s="2">
         <v>35612</v>
       </c>
-      <c r="B185" t="n">
+      <c r="B185">
         <v>697612000000</v>
       </c>
-      <c r="C185" t="n">
+      <c r="C185">
         <v>1.640419947506562</v>
       </c>
-      <c r="D185" t="n">
+      <c r="D185">
         <v>1144376640419.947</v>
       </c>
     </row>
-    <row r="186">
-      <c r="A186" s="2" t="n">
+    <row r="186" spans="1:4">
+      <c r="A186" s="2">
         <v>35643</v>
       </c>
-      <c r="B186" t="n">
+      <c r="B186">
         <v>700575000000</v>
       </c>
-      <c r="C186" t="n">
+      <c r="C186">
         <v>1.620745542949757</v>
       </c>
-      <c r="D186" t="n">
+      <c r="D186">
         <v>1135453808752.026</v>
       </c>
     </row>
-    <row r="187">
-      <c r="A187" s="2" t="n">
+    <row r="187" spans="1:4">
+      <c r="A187" s="2">
         <v>35674</v>
       </c>
-      <c r="B187" t="n">
+      <c r="B187">
         <v>660520000000</v>
       </c>
-      <c r="C187" t="n">
+      <c r="C187">
         <v>1.617861187510112</v>
       </c>
-      <c r="D187" t="n">
+      <c r="D187">
         <v>1068629671574.179</v>
       </c>
     </row>
-    <row r="188">
-      <c r="A188" s="2" t="n">
+    <row r="188" spans="1:4">
+      <c r="A188" s="2">
         <v>35704</v>
       </c>
-      <c r="B188" t="n">
+      <c r="B188">
         <v>680566000000</v>
       </c>
-      <c r="C188" t="n">
+      <c r="C188">
         <v>1.672520488375983</v>
       </c>
-      <c r="D188" t="n">
+      <c r="D188">
         <v>1138260578692.089</v>
       </c>
     </row>
-    <row r="189">
-      <c r="A189" s="2" t="n">
+    <row r="189" spans="1:4">
+      <c r="A189" s="2">
         <v>35735</v>
       </c>
-      <c r="B189" t="n">
+      <c r="B189">
         <v>684652000000</v>
       </c>
-      <c r="C189" t="n">
+      <c r="C189">
         <v>1.688618709895306</v>
       </c>
-      <c r="D189" t="n">
+      <c r="D189">
         <v>1156116176967.241</v>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" s="2" t="n">
+    <row r="190" spans="1:4">
+      <c r="A190" s="2">
         <v>35765</v>
       </c>
-      <c r="B190" t="n">
+      <c r="B190">
         <v>691525000000</v>
       </c>
-      <c r="C190" t="n">
+      <c r="C190">
         <v>1.651800462504129</v>
       </c>
-      <c r="D190" t="n">
+      <c r="D190">
         <v>1142261314833.168</v>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" s="2" t="n">
+    <row r="191" spans="1:4">
+      <c r="A191" s="2">
         <v>35796</v>
       </c>
-      <c r="B191" t="n">
+      <c r="B191">
         <v>693271000000</v>
       </c>
-      <c r="C191" t="n">
+      <c r="C191">
         <v>1.63425396306586</v>
       </c>
-      <c r="D191" t="n">
+      <c r="D191">
         <v>1132980879228.632</v>
       </c>
     </row>
-    <row r="192">
-      <c r="A192" s="2" t="n">
+    <row r="192" spans="1:4">
+      <c r="A192" s="2">
         <v>35827</v>
       </c>
-      <c r="B192" t="n">
+      <c r="B192">
         <v>696656000000</v>
       </c>
-      <c r="C192" t="n">
+      <c r="C192">
         <v>1.643925694558606</v>
       </c>
-      <c r="D192" t="n">
+      <c r="D192">
         <v>1145250698668.42</v>
       </c>
     </row>
-    <row r="193">
-      <c r="A193" s="2" t="n">
+    <row r="193" spans="1:4">
+      <c r="A193" s="2">
         <v>35855</v>
       </c>
-      <c r="B193" t="n">
+      <c r="B193">
         <v>700764000000</v>
       </c>
-      <c r="C193" t="n">
+      <c r="C193">
         <v>1.672520488375983</v>
       </c>
-      <c r="D193" t="n">
+      <c r="D193">
         <v>1172042147516.307</v>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" s="2" t="n">
+    <row r="194" spans="1:4">
+      <c r="A194" s="2">
         <v>35886</v>
       </c>
-      <c r="B194" t="n">
+      <c r="B194">
         <v>703331000000</v>
       </c>
-      <c r="C194" t="n">
+      <c r="C194">
         <v>1.672240802675585</v>
       </c>
-      <c r="D194" t="n">
+      <c r="D194">
         <v>1176138795986.622</v>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" s="2" t="n">
+    <row r="195" spans="1:4">
+      <c r="A195" s="2">
         <v>35916</v>
       </c>
-      <c r="B195" t="n">
+      <c r="B195">
         <v>706471000000</v>
       </c>
-      <c r="C195" t="n">
+      <c r="C195">
         <v>1.630523398010762</v>
       </c>
-      <c r="D195" t="n">
+      <c r="D195">
         <v>1151917495516.061</v>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" s="2" t="n">
+    <row r="196" spans="1:4">
+      <c r="A196" s="2">
         <v>35947</v>
       </c>
-      <c r="B196" t="n">
+      <c r="B196">
         <v>708289000000</v>
       </c>
-      <c r="C196" t="n">
+      <c r="C196">
         <v>1.667500416875104</v>
       </c>
-      <c r="D196" t="n">
+      <c r="D196">
         <v>1181072202768.051</v>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" s="2" t="n">
+    <row r="197" spans="1:4">
+      <c r="A197" s="2">
         <v>35977</v>
       </c>
-      <c r="B197" t="n">
+      <c r="B197">
         <v>713922000000</v>
       </c>
-      <c r="C197" t="n">
+      <c r="C197">
         <v>1.633986928104575</v>
       </c>
-      <c r="D197" t="n">
+      <c r="D197">
         <v>1166539215686.274</v>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" s="2" t="n">
+    <row r="198" spans="1:4">
+      <c r="A198" s="2">
         <v>36008</v>
       </c>
-      <c r="B198" t="n">
+      <c r="B198">
         <v>716632000000</v>
       </c>
-      <c r="C198" t="n">
+      <c r="C198">
         <v>1.682935038707506</v>
       </c>
-      <c r="D198" t="n">
+      <c r="D198">
         <v>1206045102659.037</v>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" s="2" t="n">
+    <row r="199" spans="1:4">
+      <c r="A199" s="2">
         <v>36039</v>
       </c>
-      <c r="B199" t="n">
+      <c r="B199">
         <v>722274000000</v>
       </c>
-      <c r="C199" t="n">
+      <c r="C199">
         <v>1.701837985023826</v>
       </c>
-      <c r="D199" t="n">
+      <c r="D199">
         <v>1229193328795.099</v>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" s="2" t="n">
+    <row r="200" spans="1:4">
+      <c r="A200" s="2">
         <v>36069</v>
       </c>
-      <c r="B200" t="n">
+      <c r="B200">
         <v>726106000000</v>
       </c>
-      <c r="C200" t="n">
+      <c r="C200">
         <v>1.675603217158177</v>
       </c>
-      <c r="D200" t="n">
+      <c r="D200">
         <v>1216665549597.855</v>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" s="2" t="n">
+    <row r="201" spans="1:4">
+      <c r="A201" s="2">
         <v>36100</v>
       </c>
-      <c r="B201" t="n">
+      <c r="B201">
         <v>729029000000</v>
       </c>
-      <c r="C201" t="n">
+      <c r="C201">
         <v>1.649348507339601</v>
       </c>
-      <c r="D201" t="n">
+      <c r="D201">
         <v>1202422892957.282</v>
       </c>
     </row>
-    <row r="202">
-      <c r="A202" s="2" t="n">
+    <row r="202" spans="1:4">
+      <c r="A202" s="2">
         <v>36130</v>
       </c>
-      <c r="B202" t="n">
+      <c r="B202">
         <v>732268000000</v>
       </c>
-      <c r="C202" t="n">
+      <c r="C202">
         <v>1.658374792703151</v>
       </c>
-      <c r="D202" t="n">
+      <c r="D202">
         <v>1214374792703.151</v>
       </c>
     </row>
-    <row r="203">
-      <c r="A203" s="2" t="n">
+    <row r="203" spans="1:4">
+      <c r="A203" s="2">
         <v>36161</v>
       </c>
-      <c r="B203" t="n">
+      <c r="B203">
         <v>728217000000</v>
       </c>
-      <c r="C203" t="n">
+      <c r="C203">
         <v>1.645007402533311</v>
       </c>
-      <c r="D203" t="n">
+      <c r="D203">
         <v>1197922355650.601</v>
       </c>
     </row>
-    <row r="204">
-      <c r="A204" s="2" t="n">
+    <row r="204" spans="1:4">
+      <c r="A204" s="2">
         <v>36192</v>
       </c>
-      <c r="B204" t="n">
+      <c r="B204">
         <v>730712000000</v>
       </c>
-      <c r="C204" t="n">
+      <c r="C204">
         <v>1.60333493666827</v>
       </c>
-      <c r="D204" t="n">
+      <c r="D204">
         <v>1171576078242.745</v>
       </c>
     </row>
-    <row r="205">
-      <c r="A205" s="2" t="n">
+    <row r="205" spans="1:4">
+      <c r="A205" s="2">
         <v>36220</v>
       </c>
-      <c r="B205" t="n">
+      <c r="B205">
         <v>728454000000</v>
       </c>
-      <c r="C205" t="n">
+      <c r="C205">
         <v>1.6116035455278</v>
       </c>
-      <c r="D205" t="n">
+      <c r="D205">
         <v>1173979049153.908</v>
       </c>
     </row>
-    <row r="206">
-      <c r="A206" s="2" t="n">
+    <row r="206" spans="1:4">
+      <c r="A206" s="2">
         <v>36251</v>
       </c>
-      <c r="B206" t="n">
+      <c r="B206">
         <v>734294000000</v>
       </c>
-      <c r="C206" t="n">
+      <c r="C206">
         <v>1.609528408176404</v>
       </c>
-      <c r="D206" t="n">
+      <c r="D206">
         <v>1181867052953.485</v>
       </c>
     </row>
-    <row r="207">
-      <c r="A207" s="2" t="n">
+    <row r="207" spans="1:4">
+      <c r="A207" s="2">
         <v>36281</v>
       </c>
-      <c r="B207" t="n">
+      <c r="B207">
         <v>738292000000</v>
       </c>
-      <c r="C207" t="n">
+      <c r="C207">
         <v>1.602564102564103</v>
       </c>
-      <c r="D207" t="n">
+      <c r="D207">
         <v>1183160256410.256</v>
       </c>
     </row>
-    <row r="208">
-      <c r="A208" s="2" t="n">
+    <row r="208" spans="1:4">
+      <c r="A208" s="2">
         <v>36312</v>
       </c>
-      <c r="B208" t="n">
+      <c r="B208">
         <v>742193000000</v>
       </c>
-      <c r="C208" t="n">
+      <c r="C208">
         <v>1.578282828282828</v>
       </c>
-      <c r="D208" t="n">
+      <c r="D208">
         <v>1171390467171.717</v>
       </c>
     </row>
-    <row r="209">
-      <c r="A209" s="2" t="n">
+    <row r="209" spans="1:4">
+      <c r="A209" s="2">
         <v>36342</v>
       </c>
-      <c r="B209" t="n">
+      <c r="B209">
         <v>742954000000</v>
       </c>
-      <c r="C209" t="n">
+      <c r="C209">
         <v>1.621533971136695</v>
       </c>
-      <c r="D209" t="n">
+      <c r="D209">
         <v>1204725149991.892</v>
       </c>
     </row>
-    <row r="210">
-      <c r="A210" s="2" t="n">
+    <row r="210" spans="1:4">
+      <c r="A210" s="2">
         <v>36373</v>
       </c>
-      <c r="B210" t="n">
+      <c r="B210">
         <v>743940000000</v>
       </c>
-      <c r="C210" t="n">
+      <c r="C210">
         <v>1.603849238171612</v>
       </c>
-      <c r="D210" t="n">
+      <c r="D210">
         <v>1193167602245.389</v>
       </c>
     </row>
-    <row r="211">
-      <c r="A211" s="2" t="n">
+    <row r="211" spans="1:4">
+      <c r="A211" s="2">
         <v>36404</v>
       </c>
-      <c r="B211" t="n">
+      <c r="B211">
         <v>738154000000</v>
       </c>
-      <c r="C211" t="n">
+      <c r="C211">
         <v>1.647446457990115</v>
       </c>
-      <c r="D211" t="n">
+      <c r="D211">
         <v>1216069192751.236</v>
       </c>
     </row>
-    <row r="212">
-      <c r="A212" s="2" t="n">
+    <row r="212" spans="1:4">
+      <c r="A212" s="2">
         <v>36434</v>
       </c>
-      <c r="B212" t="n">
+      <c r="B212">
         <v>741868000000</v>
       </c>
-      <c r="C212" t="n">
+      <c r="C212">
         <v>1.644195988161789</v>
       </c>
-      <c r="D212" t="n">
+      <c r="D212">
         <v>1219776389345.61</v>
       </c>
     </row>
-    <row r="213">
-      <c r="A213" s="2" t="n">
+    <row r="213" spans="1:4">
+      <c r="A213" s="2">
         <v>36465</v>
       </c>
-      <c r="B213" t="n">
+      <c r="B213">
         <v>748110000000</v>
       </c>
-      <c r="C213" t="n">
+      <c r="C213">
         <v>1.599232368463138</v>
       </c>
-      <c r="D213" t="n">
+      <c r="D213">
         <v>1196401727170.958</v>
       </c>
     </row>
-    <row r="214">
-      <c r="A214" s="2" t="n">
+    <row r="214" spans="1:4">
+      <c r="A214" s="2">
         <v>36495</v>
       </c>
-      <c r="B214" t="n">
+      <c r="B214">
         <v>754894000000</v>
       </c>
-      <c r="C214" t="n">
+      <c r="C214">
         <v>1.614726303891491</v>
       </c>
-      <c r="D214" t="n">
+      <c r="D214">
         <v>1218947198449.863</v>
       </c>
     </row>
-    <row r="215">
-      <c r="A215" s="2" t="n">
+    <row r="215" spans="1:4">
+      <c r="A215" s="2">
         <v>36526</v>
       </c>
-      <c r="B215" t="n">
+      <c r="B215">
         <v>754973000000</v>
       </c>
-      <c r="C215" t="n">
+      <c r="C215">
         <v>1.616553507921112</v>
       </c>
-      <c r="D215" t="n">
+      <c r="D215">
         <v>1220454251535.726</v>
       </c>
     </row>
-    <row r="216">
-      <c r="A216" s="2" t="n">
+    <row r="216" spans="1:4">
+      <c r="A216" s="2">
         <v>36557</v>
       </c>
-      <c r="B216" t="n">
+      <c r="B216">
         <v>762561000000</v>
       </c>
-      <c r="C216" t="n">
+      <c r="C216">
         <v>1.579279848389135</v>
       </c>
-      <c r="D216" t="n">
+      <c r="D216">
         <v>1204297220467.467</v>
       </c>
     </row>
-    <row r="217">
-      <c r="A217" s="2" t="n">
+    <row r="217" spans="1:4">
+      <c r="A217" s="2">
         <v>36586</v>
       </c>
-      <c r="B217" t="n">
+      <c r="B217">
         <v>765290000000</v>
       </c>
-      <c r="C217" t="n">
+      <c r="C217">
         <v>1.591596371160274</v>
       </c>
-      <c r="D217" t="n">
+      <c r="D217">
         <v>1218032786885.246</v>
       </c>
     </row>
-    <row r="218">
-      <c r="A218" s="2" t="n">
+    <row r="218" spans="1:4">
+      <c r="A218" s="2">
         <v>36617</v>
       </c>
-      <c r="B218" t="n">
+      <c r="B218">
         <v>775477000000</v>
       </c>
-      <c r="C218" t="n">
+      <c r="C218">
         <v>1.553760099440646</v>
       </c>
-      <c r="D218" t="n">
+      <c r="D218">
         <v>1204905220633.934</v>
       </c>
     </row>
-    <row r="219">
-      <c r="A219" s="2" t="n">
+    <row r="219" spans="1:4">
+      <c r="A219" s="2">
         <v>36647</v>
       </c>
-      <c r="B219" t="n">
+      <c r="B219">
         <v>786459000000</v>
       </c>
-      <c r="C219" t="n">
+      <c r="C219">
         <v>1.5008254539997</v>
       </c>
-      <c r="D219" t="n">
+      <c r="D219">
         <v>1180337685727.15</v>
       </c>
     </row>
-    <row r="220">
-      <c r="A220" s="2" t="n">
+    <row r="220" spans="1:4">
+      <c r="A220" s="2">
         <v>36678</v>
       </c>
-      <c r="B220" t="n">
+      <c r="B220">
         <v>792298000000</v>
       </c>
-      <c r="C220" t="n">
+      <c r="C220">
         <v>1.517450682852807</v>
       </c>
-      <c r="D220" t="n">
+      <c r="D220">
         <v>1202273141122.913</v>
       </c>
     </row>
-    <row r="221">
-      <c r="A221" s="2" t="n">
+    <row r="221" spans="1:4">
+      <c r="A221" s="2">
         <v>36708</v>
       </c>
-      <c r="B221" t="n">
+      <c r="B221">
         <v>793562000000</v>
       </c>
-      <c r="C221" t="n">
+      <c r="C221">
         <v>1.5001500150015</v>
       </c>
-      <c r="D221" t="n">
+      <c r="D221">
         <v>1190462046204.62</v>
       </c>
     </row>
-    <row r="222">
-      <c r="A222" s="2" t="n">
+    <row r="222" spans="1:4">
+      <c r="A222" s="2">
         <v>36739</v>
       </c>
-      <c r="B222" t="n">
+      <c r="B222">
         <v>801121000000</v>
       </c>
-      <c r="C222" t="n">
+      <c r="C222">
         <v>1.446968600781363</v>
       </c>
-      <c r="D222" t="n">
+      <c r="D222">
         <v>1159196932426.566</v>
       </c>
     </row>
-    <row r="223">
-      <c r="A223" s="2" t="n">
+    <row r="223" spans="1:4">
+      <c r="A223" s="2">
         <v>36770</v>
       </c>
-      <c r="B223" t="n">
+      <c r="B223">
         <v>804800000000</v>
       </c>
-      <c r="C223" t="n">
+      <c r="C223">
         <v>1.476232654266312</v>
       </c>
-      <c r="D223" t="n">
+      <c r="D223">
         <v>1188072040153.528</v>
       </c>
     </row>
-    <row r="224">
-      <c r="A224" s="2" t="n">
+    <row r="224" spans="1:4">
+      <c r="A224" s="2">
         <v>36800</v>
       </c>
-      <c r="B224" t="n">
+      <c r="B224">
         <v>812462000000</v>
       </c>
-      <c r="C224" t="n">
+      <c r="C224">
         <v>1.447806573041842</v>
       </c>
-      <c r="D224" t="n">
+      <c r="D224">
         <v>1176287823946.721</v>
       </c>
     </row>
-    <row r="225">
-      <c r="A225" s="2" t="n">
+    <row r="225" spans="1:4">
+      <c r="A225" s="2">
         <v>36831</v>
       </c>
-      <c r="B225" t="n">
+      <c r="B225">
         <v>816932000000</v>
       </c>
-      <c r="C225" t="n">
+      <c r="C225">
         <v>1.42551674982181</v>
       </c>
-      <c r="D225" t="n">
+      <c r="D225">
         <v>1164550249465.431</v>
       </c>
     </row>
-    <row r="226">
-      <c r="A226" s="2" t="n">
+    <row r="226" spans="1:4">
+      <c r="A226" s="2">
         <v>36861</v>
       </c>
-      <c r="B226" t="n">
+      <c r="B226">
         <v>825924000000</v>
       </c>
-      <c r="C226" t="n">
+      <c r="C226">
         <v>1.496333981744725</v>
       </c>
-      <c r="D226" t="n">
+      <c r="D226">
         <v>1235858147538.531</v>
       </c>
     </row>
-    <row r="227">
-      <c r="A227" s="2" t="n">
+    <row r="227" spans="1:4">
+      <c r="A227" s="2">
         <v>36892</v>
       </c>
-      <c r="B227" t="n">
+      <c r="B227">
         <v>834749000000</v>
       </c>
-      <c r="C227" t="n">
+      <c r="C227">
         <v>1.463914507392768</v>
       </c>
-      <c r="D227" t="n">
+      <c r="D227">
         <v>1222001171131.606</v>
       </c>
     </row>
-    <row r="228">
-      <c r="A228" s="2" t="n">
+    <row r="228" spans="1:4">
+      <c r="A228" s="2">
         <v>36923</v>
       </c>
-      <c r="B228" t="n">
+      <c r="B228">
         <v>833780000000</v>
       </c>
-      <c r="C228" t="n">
+      <c r="C228">
         <v>1.445504481063891</v>
       </c>
-      <c r="D228" t="n">
+      <c r="D228">
         <v>1205232726221.451</v>
       </c>
     </row>
-    <row r="229">
-      <c r="A229" s="2" t="n">
+    <row r="229" spans="1:4">
+      <c r="A229" s="2">
         <v>36951</v>
       </c>
-      <c r="B229" t="n">
+      <c r="B229">
         <v>848444000000</v>
       </c>
-      <c r="C229" t="n">
+      <c r="C229">
         <v>1.414627245720753</v>
       </c>
-      <c r="D229" t="n">
+      <c r="D229">
         <v>1200231998868.298</v>
       </c>
     </row>
-    <row r="230">
-      <c r="A230" s="2" t="n">
+    <row r="230" spans="1:4">
+      <c r="A230" s="2">
         <v>36982</v>
       </c>
-      <c r="B230" t="n">
+      <c r="B230">
         <v>849637000000</v>
       </c>
-      <c r="C230" t="n">
+      <c r="C230">
         <v>1.433280779704744</v>
       </c>
-      <c r="D230" t="n">
+      <c r="D230">
         <v>1217768381826</v>
       </c>
     </row>
-    <row r="231">
-      <c r="A231" s="2" t="n">
+    <row r="231" spans="1:4">
+      <c r="A231" s="2">
         <v>37012</v>
       </c>
-      <c r="B231" t="n">
+      <c r="B231">
         <v>850902000000</v>
       </c>
-      <c r="C231" t="n">
+      <c r="C231">
         <v>1.418439716312057</v>
       </c>
-      <c r="D231" t="n">
+      <c r="D231">
         <v>1206953191489.362</v>
       </c>
     </row>
-    <row r="232">
-      <c r="A232" s="2" t="n">
+    <row r="232" spans="1:4">
+      <c r="A232" s="2">
         <v>37043</v>
       </c>
-      <c r="B232" t="n">
+      <c r="B232">
         <v>852962000000</v>
       </c>
-      <c r="C232" t="n">
+      <c r="C232">
         <v>1.41622999575131</v>
       </c>
-      <c r="D232" t="n">
+      <c r="D232">
         <v>1207990369636.029</v>
       </c>
     </row>
-    <row r="233">
-      <c r="A233" s="2" t="n">
+    <row r="233" spans="1:4">
+      <c r="A233" s="2">
         <v>37073</v>
       </c>
-      <c r="B233" t="n">
+      <c r="B233">
         <v>865112000000</v>
       </c>
-      <c r="C233" t="n">
+      <c r="C233">
         <v>1.425313568985177</v>
       </c>
-      <c r="D233" t="n">
+      <c r="D233">
         <v>1233055872291.904</v>
       </c>
     </row>
-    <row r="234">
-      <c r="A234" s="2" t="n">
+    <row r="234" spans="1:4">
+      <c r="A234" s="2">
         <v>37104</v>
       </c>
-      <c r="B234" t="n">
+      <c r="B234">
         <v>867394000000</v>
       </c>
-      <c r="C234" t="n">
+      <c r="C234">
         <v>1.454122437109205</v>
       </c>
-      <c r="D234" t="n">
+      <c r="D234">
         <v>1261297077213.902</v>
       </c>
     </row>
-    <row r="235">
-      <c r="A235" s="2" t="n">
+    <row r="235" spans="1:4">
+      <c r="A235" s="2">
         <v>37135</v>
       </c>
-      <c r="B235" t="n">
+      <c r="B235">
         <v>879930000000</v>
       </c>
-      <c r="C235" t="n">
+      <c r="C235">
         <v>1.474491300501327</v>
       </c>
-      <c r="D235" t="n">
+      <c r="D235">
         <v>1297449130050.133</v>
       </c>
     </row>
-    <row r="236">
-      <c r="A236" s="2" t="n">
+    <row r="236" spans="1:4">
+      <c r="A236" s="2">
         <v>37165</v>
       </c>
-      <c r="B236" t="n">
+      <c r="B236">
         <v>886043000000</v>
       </c>
-      <c r="C236" t="n">
+      <c r="C236">
         <v>1.455180442374854</v>
       </c>
-      <c r="D236" t="n">
+      <c r="D236">
         <v>1289352444703.143</v>
       </c>
     </row>
-    <row r="237">
-      <c r="A237" s="2" t="n">
+    <row r="237" spans="1:4">
+      <c r="A237" s="2">
         <v>37196</v>
       </c>
-      <c r="B237" t="n">
+      <c r="B237">
         <v>887309000000</v>
       </c>
-      <c r="C237" t="n">
+      <c r="C237">
         <v>1.424501424501425</v>
       </c>
-      <c r="D237" t="n">
+      <c r="D237">
         <v>1263972934472.935</v>
       </c>
     </row>
-    <row r="238">
-      <c r="A238" s="2" t="n">
+    <row r="238" spans="1:4">
+      <c r="A238" s="2">
         <v>37226</v>
       </c>
-      <c r="B238" t="n">
+      <c r="B238">
         <v>892090000000</v>
       </c>
-      <c r="C238" t="n">
+      <c r="C238">
         <v>1.450747134774409</v>
       </c>
-      <c r="D238" t="n">
+      <c r="D238">
         <v>1294197011460.902</v>
       </c>
     </row>
-    <row r="239">
-      <c r="A239" s="2" t="n">
+    <row r="239" spans="1:4">
+      <c r="A239" s="2">
         <v>37257</v>
       </c>
-      <c r="B239" t="n">
+      <c r="B239">
         <v>885655000000</v>
       </c>
-      <c r="C239" t="n">
+      <c r="C239">
         <v>1.410835214446953</v>
       </c>
-      <c r="D239" t="n">
+      <c r="D239">
         <v>1249513261851.016</v>
       </c>
     </row>
-    <row r="240">
-      <c r="A240" s="2" t="n">
+    <row r="240" spans="1:4">
+      <c r="A240" s="2">
         <v>37288</v>
       </c>
-      <c r="B240" t="n">
+      <c r="B240">
         <v>887706000000</v>
       </c>
-      <c r="C240" t="n">
+      <c r="C240">
         <v>1.416831963729102</v>
       </c>
-      <c r="D240" t="n">
+      <c r="D240">
         <v>1257730235194.106</v>
       </c>
     </row>
-    <row r="241">
-      <c r="A241" s="2" t="n">
+    <row r="241" spans="1:4">
+      <c r="A241" s="2">
         <v>37316</v>
       </c>
-      <c r="B241" t="n">
+      <c r="B241">
         <v>892254000000</v>
       </c>
-      <c r="C241" t="n">
+      <c r="C241">
         <v>1.425923285327249</v>
       </c>
-      <c r="D241" t="n">
+      <c r="D241">
         <v>1272285755026.38</v>
       </c>
     </row>
-    <row r="242">
-      <c r="A242" s="2" t="n">
+    <row r="242" spans="1:4">
+      <c r="A242" s="2">
         <v>37347</v>
       </c>
-      <c r="B242" t="n">
+      <c r="B242">
         <v>894439000000</v>
       </c>
-      <c r="C242" t="n">
+      <c r="C242">
         <v>1.457938474996355</v>
       </c>
-      <c r="D242" t="n">
+      <c r="D242">
         <v>1304037031637.265</v>
       </c>
     </row>
-    <row r="243">
-      <c r="A243" s="2" t="n">
+    <row r="243" spans="1:4">
+      <c r="A243" s="2">
         <v>37377</v>
       </c>
-      <c r="B243" t="n">
+      <c r="B243">
         <v>899955000000</v>
       </c>
-      <c r="C243" t="n">
+      <c r="C243">
         <v>1.45602795573675</v>
       </c>
-      <c r="D243" t="n">
+      <c r="D243">
         <v>1310359638905.067</v>
       </c>
     </row>
-    <row r="244">
-      <c r="A244" s="2" t="n">
+    <row r="244" spans="1:4">
+      <c r="A244" s="2">
         <v>37408</v>
       </c>
-      <c r="B244" t="n">
+      <c r="B244">
         <v>903085000000</v>
       </c>
-      <c r="C244" t="n">
+      <c r="C244">
         <v>1.533272002453235</v>
       </c>
-      <c r="D244" t="n">
+      <c r="D244">
         <v>1384674946335.48</v>
       </c>
     </row>
-    <row r="245">
-      <c r="A245" s="2" t="n">
+    <row r="245" spans="1:4">
+      <c r="A245" s="2">
         <v>37438</v>
       </c>
-      <c r="B245" t="n">
+      <c r="B245">
         <v>909212000000</v>
       </c>
-      <c r="C245" t="n">
+      <c r="C245">
         <v>1.563477173233271</v>
       </c>
-      <c r="D245" t="n">
+      <c r="D245">
         <v>1421532207629.769</v>
       </c>
     </row>
-    <row r="246">
-      <c r="A246" s="2" t="n">
+    <row r="246" spans="1:4">
+      <c r="A246" s="2">
         <v>37469</v>
       </c>
-      <c r="B246" t="n">
+      <c r="B246">
         <v>917589000000</v>
       </c>
-      <c r="C246" t="n">
+      <c r="C246">
         <v>1.550387596899225</v>
       </c>
-      <c r="D246" t="n">
+      <c r="D246">
         <v>1422618604651.163</v>
       </c>
     </row>
-    <row r="247">
-      <c r="A247" s="2" t="n">
+    <row r="247" spans="1:4">
+      <c r="A247" s="2">
         <v>37500</v>
       </c>
-      <c r="B247" t="n">
+      <c r="B247">
         <v>917413000000</v>
       </c>
-      <c r="C247" t="n">
+      <c r="C247">
         <v>1.568381430363865</v>
       </c>
-      <c r="D247" t="n">
+      <c r="D247">
         <v>1438853513174.404</v>
       </c>
     </row>
-    <row r="248">
-      <c r="A248" s="2" t="n">
+    <row r="248" spans="1:4">
+      <c r="A248" s="2">
         <v>37530</v>
       </c>
-      <c r="B248" t="n">
+      <c r="B248">
         <v>927123000000</v>
       </c>
-      <c r="C248" t="n">
+      <c r="C248">
         <v>1.564455569461827</v>
       </c>
-      <c r="D248" t="n">
+      <c r="D248">
         <v>1450442740926.158</v>
       </c>
     </row>
-    <row r="249">
-      <c r="A249" s="2" t="n">
+    <row r="249" spans="1:4">
+      <c r="A249" s="2">
         <v>37561</v>
       </c>
-      <c r="B249" t="n">
+      <c r="B249">
         <v>930592000000</v>
       </c>
-      <c r="C249" t="n">
+      <c r="C249">
         <v>1.557875058420315</v>
       </c>
-      <c r="D249" t="n">
+      <c r="D249">
         <v>1449746066365.478</v>
       </c>
     </row>
-    <row r="250">
-      <c r="A250" s="2" t="n">
+    <row r="250" spans="1:4">
+      <c r="A250" s="2">
         <v>37591</v>
       </c>
-      <c r="B250" t="n">
+      <c r="B250">
         <v>932620000000</v>
       </c>
-      <c r="C250" t="n">
+      <c r="C250">
         <v>1.6116035455278</v>
       </c>
-      <c r="D250" t="n">
+      <c r="D250">
         <v>1503013698630.137</v>
       </c>
     </row>
-    <row r="251">
-      <c r="A251" s="2" t="n">
+    <row r="251" spans="1:4">
+      <c r="A251" s="2">
         <v>37622</v>
       </c>
-      <c r="B251" t="n">
+      <c r="B251">
         <v>931987000000</v>
       </c>
-      <c r="C251" t="n">
+      <c r="C251">
         <v>1.646903820816864</v>
       </c>
-      <c r="D251" t="n">
+      <c r="D251">
         <v>1534892951251.647</v>
       </c>
     </row>
-    <row r="252">
-      <c r="A252" s="2" t="n">
+    <row r="252" spans="1:4">
+      <c r="A252" s="2">
         <v>37653</v>
       </c>
-      <c r="B252" t="n">
+      <c r="B252">
         <v>943611000000</v>
       </c>
-      <c r="C252" t="n">
+      <c r="C252">
         <v>1.573069057731634</v>
       </c>
-      <c r="D252" t="n">
+      <c r="D252">
         <v>1484365266635.205</v>
       </c>
     </row>
-    <row r="253">
-      <c r="A253" s="2" t="n">
+    <row r="253" spans="1:4">
+      <c r="A253" s="2">
         <v>37681</v>
       </c>
-      <c r="B253" t="n">
+      <c r="B253">
         <v>940322000000</v>
       </c>
-      <c r="C253" t="n">
+      <c r="C253">
         <v>1.58202816010125</v>
       </c>
-      <c r="D253" t="n">
+      <c r="D253">
         <v>1487615883562.728</v>
       </c>
     </row>
-    <row r="254">
-      <c r="A254" s="2" t="n">
+    <row r="254" spans="1:4">
+      <c r="A254" s="2">
         <v>37712</v>
       </c>
-      <c r="B254" t="n">
+      <c r="B254">
         <v>947353000000</v>
       </c>
-      <c r="C254" t="n">
+      <c r="C254">
         <v>1.597954618088846</v>
       </c>
-      <c r="D254" t="n">
+      <c r="D254">
         <v>1513827101310.323</v>
       </c>
     </row>
-    <row r="255">
-      <c r="A255" s="2" t="n">
+    <row r="255" spans="1:4">
+      <c r="A255" s="2">
         <v>37742</v>
       </c>
-      <c r="B255" t="n">
+      <c r="B255">
         <v>950857000000</v>
       </c>
-      <c r="C255" t="n">
+      <c r="C255">
         <v>1.636393388970709</v>
       </c>
-      <c r="D255" t="n">
+      <c r="D255">
         <v>1555976108656.521</v>
       </c>
     </row>
-    <row r="256">
-      <c r="A256" s="2" t="n">
+    <row r="256" spans="1:4">
+      <c r="A256" s="2">
         <v>37773</v>
       </c>
-      <c r="B256" t="n">
+      <c r="B256">
         <v>958832000000</v>
       </c>
-      <c r="C256" t="n">
+      <c r="C256">
         <v>1.655355073663301</v>
       </c>
-      <c r="D256" t="n">
+      <c r="D256">
         <v>1587207415990.73</v>
       </c>
     </row>
-    <row r="257">
-      <c r="A257" s="2" t="n">
+    <row r="257" spans="1:4">
+      <c r="A257" s="2">
         <v>37803</v>
       </c>
-      <c r="B257" t="n">
+      <c r="B257">
         <v>963658000000</v>
       </c>
-      <c r="C257" t="n">
+      <c r="C257">
         <v>1.610824742268041</v>
       </c>
-      <c r="D257" t="n">
+      <c r="D257">
         <v>1552284149484.536</v>
       </c>
     </row>
-    <row r="258">
-      <c r="A258" s="2" t="n">
+    <row r="258" spans="1:4">
+      <c r="A258" s="2">
         <v>37834</v>
       </c>
-      <c r="B258" t="n">
+      <c r="B258">
         <v>968813000000</v>
       </c>
-      <c r="C258" t="n">
+      <c r="C258">
         <v>1.577784790154623</v>
       </c>
-      <c r="D258" t="n">
+      <c r="D258">
         <v>1528578415904.071</v>
       </c>
     </row>
-    <row r="259">
-      <c r="A259" s="2" t="n">
+    <row r="259" spans="1:4">
+      <c r="A259" s="2">
         <v>37865</v>
       </c>
-      <c r="B259" t="n">
+      <c r="B259">
         <v>971829000000</v>
       </c>
-      <c r="C259" t="n">
+      <c r="C259">
         <v>1.661957786272229</v>
       </c>
-      <c r="D259" t="n">
+      <c r="D259">
         <v>1615138773475.154</v>
       </c>
     </row>
-    <row r="260">
-      <c r="A260" s="2" t="n">
+    <row r="260" spans="1:4">
+      <c r="A260" s="2">
         <v>37895</v>
       </c>
-      <c r="B260" t="n">
+      <c r="B260">
         <v>978314000000</v>
       </c>
-      <c r="C260" t="n">
+      <c r="C260">
         <v>1.695777513990165</v>
       </c>
-      <c r="D260" t="n">
+      <c r="D260">
         <v>1659002882821.774</v>
       </c>
     </row>
-    <row r="261">
-      <c r="A261" s="2" t="n">
+    <row r="261" spans="1:4">
+      <c r="A261" s="2">
         <v>37926</v>
       </c>
-      <c r="B261" t="n">
+      <c r="B261">
         <v>988357000000</v>
       </c>
-      <c r="C261" t="n">
+      <c r="C261">
         <v>1.722059583261581</v>
       </c>
-      <c r="D261" t="n">
+      <c r="D261">
         <v>1702009643533.666</v>
       </c>
     </row>
-    <row r="262">
-      <c r="A262" s="2" t="n">
+    <row r="262" spans="1:4">
+      <c r="A262" s="2">
         <v>37956</v>
       </c>
-      <c r="B262" t="n">
+      <c r="B262">
         <v>997834000000</v>
       </c>
-      <c r="C262" t="n">
+      <c r="C262">
         <v>1.77683013503909</v>
       </c>
-      <c r="D262" t="n">
+      <c r="D262">
         <v>1772981520966.596</v>
       </c>
     </row>
-    <row r="263">
-      <c r="A263" s="2" t="n">
+    <row r="263" spans="1:4">
+      <c r="A263" s="2">
         <v>37987</v>
       </c>
-      <c r="B263" t="n">
+      <c r="B263">
         <v>1006973000000</v>
       </c>
-      <c r="C263" t="n">
+      <c r="C263">
         <v>1.823486506199854</v>
       </c>
-      <c r="D263" t="n">
+      <c r="D263">
         <v>1836201677607.586</v>
       </c>
     </row>
-    <row r="264">
-      <c r="A264" s="2" t="n">
+    <row r="264" spans="1:4">
+      <c r="A264" s="2">
         <v>38018</v>
       </c>
-      <c r="B264" t="n">
+      <c r="B264">
         <v>1014084000000</v>
       </c>
-      <c r="C264" t="n">
+      <c r="C264">
         <v>1.868460388639761</v>
       </c>
-      <c r="D264" t="n">
+      <c r="D264">
         <v>1894775784753.363</v>
       </c>
     </row>
-    <row r="265">
-      <c r="A265" s="2" t="n">
+    <row r="265" spans="1:4">
+      <c r="A265" s="2">
         <v>38047</v>
       </c>
-      <c r="B265" t="n">
+      <c r="B265">
         <v>1019846000000</v>
       </c>
-      <c r="C265" t="n">
+      <c r="C265">
         <v>1.845699520118125</v>
       </c>
-      <c r="D265" t="n">
+      <c r="D265">
         <v>1882329272794.389</v>
       </c>
     </row>
-    <row r="266">
-      <c r="A266" s="2" t="n">
+    <row r="266" spans="1:4">
+      <c r="A266" s="2">
         <v>38078</v>
       </c>
-      <c r="B266" t="n">
+      <c r="B266">
         <v>1029067000000</v>
       </c>
-      <c r="C266" t="n">
+      <c r="C266">
         <v>1.778410101369376</v>
       </c>
-      <c r="D266" t="n">
+      <c r="D266">
         <v>1830103147785.879</v>
       </c>
     </row>
-    <row r="267">
-      <c r="A267" s="2" t="n">
+    <row r="267" spans="1:4">
+      <c r="A267" s="2">
         <v>38108</v>
       </c>
-      <c r="B267" t="n">
+      <c r="B267">
         <v>1032545000000</v>
       </c>
-      <c r="C267" t="n">
+      <c r="C267">
         <v>1.832172957127153</v>
       </c>
-      <c r="D267" t="n">
+      <c r="D267">
         <v>1891801026016.856</v>
       </c>
     </row>
-    <row r="268">
-      <c r="A268" s="2" t="n">
+    <row r="268" spans="1:4">
+      <c r="A268" s="2">
         <v>38139</v>
       </c>
-      <c r="B268" t="n">
+      <c r="B268">
         <v>1047502000000</v>
       </c>
-      <c r="C268" t="n">
+      <c r="C268">
         <v>1.820498816675769</v>
       </c>
-      <c r="D268" t="n">
+      <c r="D268">
         <v>1906976151465.501</v>
       </c>
     </row>
-    <row r="269">
-      <c r="A269" s="2" t="n">
+    <row r="269" spans="1:4">
+      <c r="A269" s="2">
         <v>38169</v>
       </c>
-      <c r="B269" t="n">
+      <c r="B269">
         <v>1052836000000</v>
       </c>
-      <c r="C269" t="n">
+      <c r="C269">
         <v>1.819836214740673</v>
       </c>
-      <c r="D269" t="n">
+      <c r="D269">
         <v>1915989080982.712</v>
       </c>
     </row>
-    <row r="270">
-      <c r="A270" s="2" t="n">
+    <row r="270" spans="1:4">
+      <c r="A270" s="2">
         <v>38200</v>
       </c>
-      <c r="B270" t="n">
+      <c r="B270">
         <v>1065079000000</v>
       </c>
-      <c r="C270" t="n">
+      <c r="C270">
         <v>1.802776275464215</v>
       </c>
-      <c r="D270" t="n">
+      <c r="D270">
         <v>1920099152695.151</v>
       </c>
     </row>
-    <row r="271">
-      <c r="A271" s="2" t="n">
+    <row r="271" spans="1:4">
+      <c r="A271" s="2">
         <v>38231</v>
       </c>
-      <c r="B271" t="n">
+      <c r="B271">
         <v>1073336000000</v>
       </c>
-      <c r="C271" t="n">
+      <c r="C271">
         <v>1.81257930034439</v>
       </c>
-      <c r="D271" t="n">
+      <c r="D271">
         <v>1945506615914.446</v>
       </c>
     </row>
-    <row r="272">
-      <c r="A272" s="2" t="n">
+    <row r="272" spans="1:4">
+      <c r="A272" s="2">
         <v>38261</v>
       </c>
-      <c r="B272" t="n">
+      <c r="B272">
         <v>1081830000000</v>
       </c>
-      <c r="C272" t="n">
+      <c r="C272">
         <v>1.836547291092746</v>
       </c>
-      <c r="D272" t="n">
+      <c r="D272">
         <v>1986831955922.865</v>
       </c>
     </row>
-    <row r="273">
-      <c r="A273" s="2" t="n">
+    <row r="273" spans="1:4">
+      <c r="A273" s="2">
         <v>38292</v>
       </c>
-      <c r="B273" t="n">
+      <c r="B273">
         <v>1093097000000</v>
       </c>
-      <c r="C273" t="n">
+      <c r="C273">
         <v>1.909490166125644</v>
       </c>
-      <c r="D273" t="n">
+      <c r="D273">
         <v>2087257972121.443</v>
       </c>
     </row>
-    <row r="274">
-      <c r="A274" s="2" t="n">
+    <row r="274" spans="1:4">
+      <c r="A274" s="2">
         <v>38322</v>
       </c>
-      <c r="B274" t="n">
+      <c r="B274">
         <v>1097986000000</v>
       </c>
-      <c r="C274" t="n">
+      <c r="C274">
         <v>1.918649270913277</v>
       </c>
-      <c r="D274" t="n">
+      <c r="D274">
         <v>2106650038372.985</v>
       </c>
     </row>
-    <row r="275">
-      <c r="A275" s="2" t="n">
+    <row r="275" spans="1:4">
+      <c r="A275" s="2">
         <v>38353</v>
       </c>
-      <c r="B275" t="n">
+      <c r="B275">
         <v>1109899000000</v>
       </c>
-      <c r="C275" t="n">
+      <c r="C275">
         <v>1.883239171374764</v>
       </c>
-      <c r="D275" t="n">
+      <c r="D275">
         <v>2090205273069.68</v>
       </c>
     </row>
-    <row r="276">
-      <c r="A276" s="2" t="n">
+    <row r="276" spans="1:4">
+      <c r="A276" s="2">
         <v>38384</v>
       </c>
-      <c r="B276" t="n">
+      <c r="B276">
         <v>1114240000000</v>
       </c>
-      <c r="C276" t="n">
+      <c r="C276">
         <v>1.921229586935639</v>
       </c>
-      <c r="D276" t="n">
+      <c r="D276">
         <v>2140710854947.167</v>
       </c>
     </row>
-    <row r="277">
-      <c r="A277" s="2" t="n">
+    <row r="277" spans="1:4">
+      <c r="A277" s="2">
         <v>38412</v>
       </c>
-      <c r="B277" t="n">
+      <c r="B277">
         <v>1126640000000</v>
       </c>
-      <c r="C277" t="n">
+      <c r="C277">
         <v>1.89000189000189</v>
       </c>
-      <c r="D277" t="n">
+      <c r="D277">
         <v>2129351729351.729</v>
       </c>
     </row>
-    <row r="278">
-      <c r="A278" s="2" t="n">
+    <row r="278" spans="1:4">
+      <c r="A278" s="2">
         <v>38443</v>
       </c>
-      <c r="B278" t="n">
+      <c r="B278">
         <v>1141002000000</v>
       </c>
-      <c r="C278" t="n">
+      <c r="C278">
         <v>1.909125620465826</v>
       </c>
-      <c r="D278" t="n">
+      <c r="D278">
         <v>2178316151202.749</v>
       </c>
     </row>
-    <row r="279">
-      <c r="A279" s="2" t="n">
+    <row r="279" spans="1:4">
+      <c r="A279" s="2">
         <v>38473</v>
       </c>
-      <c r="B279" t="n">
+      <c r="B279">
         <v>1156696000000</v>
       </c>
-      <c r="C279" t="n">
+      <c r="C279">
         <v>1.817190623296384</v>
       </c>
-      <c r="D279" t="n">
+      <c r="D279">
         <v>2101937125204.434</v>
       </c>
     </row>
-    <row r="280">
-      <c r="A280" s="2" t="n">
+    <row r="280" spans="1:4">
+      <c r="A280" s="2">
         <v>38504</v>
       </c>
-      <c r="B280" t="n">
+      <c r="B280">
         <v>1163947000000</v>
       </c>
-      <c r="C280" t="n">
+      <c r="C280">
         <v>1.791793585378964</v>
       </c>
-      <c r="D280" t="n">
+      <c r="D280">
         <v>2085552768321.089</v>
       </c>
     </row>
-    <row r="281">
-      <c r="A281" s="2" t="n">
+    <row r="281" spans="1:4">
+      <c r="A281" s="2">
         <v>38534</v>
       </c>
-      <c r="B281" t="n">
+      <c r="B281">
         <v>1176816000000</v>
       </c>
-      <c r="C281" t="n">
+      <c r="C281">
         <v>1.758087201125176</v>
       </c>
-      <c r="D281" t="n">
+      <c r="D281">
         <v>2068945147679.325</v>
       </c>
     </row>
-    <row r="282">
-      <c r="A282" s="2" t="n">
+    <row r="282" spans="1:4">
+      <c r="A282" s="2">
         <v>38565</v>
       </c>
-      <c r="B282" t="n">
+      <c r="B282">
         <v>1173328000000</v>
       </c>
-      <c r="C282" t="n">
+      <c r="C282">
         <v>1.804728388377549</v>
       </c>
-      <c r="D282" t="n">
+      <c r="D282">
         <v>2117538350478.253</v>
       </c>
     </row>
-    <row r="283">
-      <c r="A283" s="2" t="n">
+    <row r="283" spans="1:4">
+      <c r="A283" s="2">
         <v>38596</v>
       </c>
-      <c r="B283" t="n">
+      <c r="B283">
         <v>1193005000000</v>
       </c>
-      <c r="C283" t="n">
+      <c r="C283">
         <v>1.768659356207994</v>
       </c>
-      <c r="D283" t="n">
+      <c r="D283">
         <v>2110019455252.918</v>
       </c>
     </row>
-    <row r="284">
-      <c r="A284" s="2" t="n">
+    <row r="284" spans="1:4">
+      <c r="A284" s="2">
         <v>38626</v>
       </c>
-      <c r="B284" t="n">
+      <c r="B284">
         <v>1202441000000</v>
       </c>
-      <c r="C284" t="n">
+      <c r="C284">
         <v>1.771165426850868</v>
       </c>
-      <c r="D284" t="n">
+      <c r="D284">
         <v>2129721927027.984</v>
       </c>
     </row>
-    <row r="285">
-      <c r="A285" s="2" t="n">
+    <row r="285" spans="1:4">
+      <c r="A285" s="2">
         <v>38657</v>
       </c>
-      <c r="B285" t="n">
+      <c r="B285">
         <v>1212700000000</v>
       </c>
-      <c r="C285" t="n">
+      <c r="C285">
         <v>1.730403183941859</v>
       </c>
-      <c r="D285" t="n">
+      <c r="D285">
         <v>2098459941166.292</v>
       </c>
     </row>
-    <row r="286">
-      <c r="A286" s="2" t="n">
+    <row r="286" spans="1:4">
+      <c r="A286" s="2">
         <v>38687</v>
       </c>
-      <c r="B286" t="n">
+      <c r="B286">
         <v>1226950000000</v>
       </c>
-      <c r="C286" t="n">
+      <c r="C286">
         <v>1.723840717117739</v>
       </c>
-      <c r="D286" t="n">
+      <c r="D286">
         <v>2115066367867.609</v>
       </c>
     </row>
-    <row r="287">
-      <c r="A287" s="2" t="n">
+    <row r="287" spans="1:4">
+      <c r="A287" s="2">
         <v>38718</v>
       </c>
-      <c r="B287" t="n">
+      <c r="B287">
         <v>1233062000000</v>
       </c>
-      <c r="C287" t="n">
+      <c r="C287">
         <v>1.779676098949991</v>
       </c>
-      <c r="D287" t="n">
+      <c r="D287">
         <v>2194450969923.474</v>
       </c>
     </row>
-    <row r="288">
-      <c r="A288" s="2" t="n">
+    <row r="288" spans="1:4">
+      <c r="A288" s="2">
         <v>38749</v>
       </c>
-      <c r="B288" t="n">
+      <c r="B288">
         <v>1252313000000</v>
       </c>
-      <c r="C288" t="n">
+      <c r="C288">
         <v>1.754693805930865</v>
       </c>
-      <c r="D288" t="n">
+      <c r="D288">
         <v>2197425864186.7</v>
       </c>
     </row>
-    <row r="289">
-      <c r="A289" s="2" t="n">
+    <row r="289" spans="1:4">
+      <c r="A289" s="2">
         <v>38777</v>
       </c>
-      <c r="B289" t="n">
+      <c r="B289">
         <v>1261558000000</v>
       </c>
-      <c r="C289" t="n">
+      <c r="C289">
         <v>1.738223535546671</v>
       </c>
-      <c r="D289" t="n">
+      <c r="D289">
         <v>2192869807057.188</v>
       </c>
     </row>
-    <row r="290">
-      <c r="A290" s="2" t="n">
+    <row r="290" spans="1:4">
+      <c r="A290" s="2">
         <v>38808</v>
       </c>
-      <c r="B290" t="n">
+      <c r="B290">
         <v>1275564000000</v>
       </c>
-      <c r="C290" t="n">
+      <c r="C290">
         <v>1.825817053131276</v>
       </c>
-      <c r="D290" t="n">
+      <c r="D290">
         <v>2328946503560.343</v>
       </c>
     </row>
-    <row r="291">
-      <c r="A291" s="2" t="n">
+    <row r="291" spans="1:4">
+      <c r="A291" s="2">
         <v>38838</v>
       </c>
-      <c r="B291" t="n">
+      <c r="B291">
         <v>1279359000000</v>
       </c>
-      <c r="C291" t="n">
+      <c r="C291">
         <v>1.872308556450103</v>
       </c>
-      <c r="D291" t="n">
+      <c r="D291">
         <v>2395354802471.447</v>
       </c>
     </row>
-    <row r="292">
-      <c r="A292" s="2" t="n">
+    <row r="292" spans="1:4">
+      <c r="A292" s="2">
         <v>38869</v>
       </c>
-      <c r="B292" t="n">
+      <c r="B292">
         <v>1297929000000</v>
       </c>
-      <c r="C292" t="n">
+      <c r="C292">
         <v>1.849112426035503</v>
       </c>
-      <c r="D292" t="n">
+      <c r="D292">
         <v>2400016642011.834</v>
       </c>
     </row>
-    <row r="293">
-      <c r="A293" s="2" t="n">
+    <row r="293" spans="1:4">
+      <c r="A293" s="2">
         <v>38899</v>
       </c>
-      <c r="B293" t="n">
+      <c r="B293">
         <v>1310723000000</v>
       </c>
-      <c r="C293" t="n">
+      <c r="C293">
         <v>1.868460388639761</v>
       </c>
-      <c r="D293" t="n">
+      <c r="D293">
         <v>2449034005979.073</v>
       </c>
     </row>
-    <row r="294">
-      <c r="A294" s="2" t="n">
+    <row r="294" spans="1:4">
+      <c r="A294" s="2">
         <v>38930</v>
       </c>
-      <c r="B294" t="n">
+      <c r="B294">
         <v>1321893000000</v>
       </c>
-      <c r="C294" t="n">
+      <c r="C294">
         <v>1.904761904761905</v>
       </c>
-      <c r="D294" t="n">
+      <c r="D294">
         <v>2517891428571.428</v>
       </c>
     </row>
-    <row r="295">
-      <c r="A295" s="2" t="n">
+    <row r="295" spans="1:4">
+      <c r="A295" s="2">
         <v>38961</v>
       </c>
-      <c r="B295" t="n">
+      <c r="B295">
         <v>1340612000000</v>
       </c>
-      <c r="C295" t="n">
+      <c r="C295">
         <v>1.874062968515742</v>
       </c>
-      <c r="D295" t="n">
+      <c r="D295">
         <v>2512391304347.826</v>
       </c>
     </row>
-    <row r="296">
-      <c r="A296" s="2" t="n">
+    <row r="296" spans="1:4">
+      <c r="A296" s="2">
         <v>38991</v>
       </c>
-      <c r="B296" t="n">
+      <c r="B296">
         <v>1362179000000</v>
       </c>
-      <c r="C296" t="n">
+      <c r="C296">
         <v>1.907304978065993</v>
       </c>
-      <c r="D296" t="n">
+      <c r="D296">
         <v>2598090787716.956</v>
       </c>
     </row>
-    <row r="297">
-      <c r="A297" s="2" t="n">
+    <row r="297" spans="1:4">
+      <c r="A297" s="2">
         <v>39022</v>
       </c>
-      <c r="B297" t="n">
+      <c r="B297">
         <v>1373469000000</v>
       </c>
-      <c r="C297" t="n">
+      <c r="C297">
         <v>1.966568338249754</v>
       </c>
-      <c r="D297" t="n">
+      <c r="D297">
         <v>2701020648967.552</v>
       </c>
     </row>
-    <row r="298">
-      <c r="A298" s="2" t="n">
+    <row r="298" spans="1:4">
+      <c r="A298" s="2">
         <v>39052</v>
       </c>
-      <c r="B298" t="n">
+      <c r="B298">
         <v>1399379000000</v>
       </c>
-      <c r="C298" t="n">
+      <c r="C298">
         <v>1.96078431372549</v>
       </c>
-      <c r="D298" t="n">
+      <c r="D298">
         <v>2743880392156.863</v>
       </c>
     </row>
-    <row r="299">
-      <c r="A299" s="2" t="n">
+    <row r="299" spans="1:4">
+      <c r="A299" s="2">
         <v>39083</v>
       </c>
-      <c r="B299" t="n">
+      <c r="B299">
         <v>1400685000000</v>
       </c>
-      <c r="C299" t="n">
+      <c r="C299">
         <v>1.966181675186787</v>
       </c>
-      <c r="D299" t="n">
+      <c r="D299">
         <v>2754001179709.005</v>
       </c>
     </row>
-    <row r="300">
-      <c r="A300" s="2" t="n">
+    <row r="300" spans="1:4">
+      <c r="A300" s="2">
         <v>39114</v>
       </c>
-      <c r="B300" t="n">
+      <c r="B300">
         <v>1419749000000</v>
       </c>
-      <c r="C300" t="n">
+      <c r="C300">
         <v>1.965022597759874</v>
       </c>
-      <c r="D300" t="n">
+      <c r="D300">
         <v>2789838868146.983</v>
       </c>
     </row>
-    <row r="301">
-      <c r="A301" s="2" t="n">
+    <row r="301" spans="1:4">
+      <c r="A301" s="2">
         <v>39142</v>
       </c>
-      <c r="B301" t="n">
+      <c r="B301">
         <v>1441536000000</v>
       </c>
-      <c r="C301" t="n">
+      <c r="C301">
         <v>1.968503937007874</v>
       </c>
-      <c r="D301" t="n">
+      <c r="D301">
         <v>2837669291338.583</v>
       </c>
     </row>
-    <row r="302">
-      <c r="A302" s="2" t="n">
+    <row r="302" spans="1:4">
+      <c r="A302" s="2">
         <v>39173</v>
       </c>
-      <c r="B302" t="n">
+      <c r="B302">
         <v>1459002000000</v>
       </c>
-      <c r="C302" t="n">
+      <c r="C302">
         <v>2.000400080016003</v>
       </c>
-      <c r="D302" t="n">
+      <c r="D302">
         <v>2918587717543.509</v>
       </c>
     </row>
-    <row r="303">
-      <c r="A303" s="2" t="n">
+    <row r="303" spans="1:4">
+      <c r="A303" s="2">
         <v>39203</v>
       </c>
-      <c r="B303" t="n">
+      <c r="B303">
         <v>1480566000000</v>
       </c>
-      <c r="C303" t="n">
+      <c r="C303">
         <v>1.980590215884333</v>
       </c>
-      <c r="D303" t="n">
+      <c r="D303">
         <v>2932394533571.004</v>
       </c>
     </row>
-    <row r="304">
-      <c r="A304" s="2" t="n">
+    <row r="304" spans="1:4">
+      <c r="A304" s="2">
         <v>39234</v>
       </c>
-      <c r="B304" t="n">
+      <c r="B304">
         <v>1498320000000</v>
       </c>
-      <c r="C304" t="n">
+      <c r="C304">
         <v>2.009646302250804</v>
       </c>
-      <c r="D304" t="n">
+      <c r="D304">
         <v>3011093247588.425</v>
       </c>
     </row>
-    <row r="305">
-      <c r="A305" s="2" t="n">
+    <row r="305" spans="1:4">
+      <c r="A305" s="2">
         <v>39264</v>
       </c>
-      <c r="B305" t="n">
+      <c r="B305">
         <v>1512976000000</v>
       </c>
-      <c r="C305" t="n">
+      <c r="C305">
         <v>2.030869212022746</v>
       </c>
-      <c r="D305" t="n">
+      <c r="D305">
         <v>3072656376929.326</v>
       </c>
     </row>
-    <row r="306">
-      <c r="A306" s="2" t="n">
+    <row r="306" spans="1:4">
+      <c r="A306" s="2">
         <v>39295</v>
       </c>
-      <c r="B306" t="n">
+      <c r="B306">
         <v>1538862000000</v>
       </c>
-      <c r="C306" t="n">
+      <c r="C306">
         <v>2.01816347124117</v>
       </c>
-      <c r="D306" t="n">
+      <c r="D306">
         <v>3105675075681.13</v>
       </c>
     </row>
-    <row r="307">
-      <c r="A307" s="2" t="n">
+    <row r="307" spans="1:4">
+      <c r="A307" s="2">
         <v>39326</v>
       </c>
-      <c r="B307" t="n">
+      <c r="B307">
         <v>1538690000000</v>
       </c>
-      <c r="C307" t="n">
+      <c r="C307">
         <v>2.047082906857728</v>
       </c>
-      <c r="D307" t="n">
+      <c r="D307">
         <v>3149825997952.917</v>
       </c>
     </row>
-    <row r="308">
-      <c r="A308" s="2" t="n">
+    <row r="308" spans="1:4">
+      <c r="A308" s="2">
         <v>39356</v>
       </c>
-      <c r="B308" t="n">
+      <c r="B308">
         <v>1529328000000</v>
       </c>
-      <c r="C308" t="n">
+      <c r="C308">
         <v>2.082465639316951</v>
       </c>
-      <c r="D308" t="n">
+      <c r="D308">
         <v>3184773011245.314</v>
       </c>
     </row>
-    <row r="309">
-      <c r="A309" s="2" t="n">
+    <row r="309" spans="1:4">
+      <c r="A309" s="2">
         <v>39387</v>
       </c>
-      <c r="B309" t="n">
+      <c r="B309">
         <v>1539735000000</v>
       </c>
-      <c r="C309" t="n">
+      <c r="C309">
         <v>2.058884084826024</v>
       </c>
-      <c r="D309" t="n">
+      <c r="D309">
         <v>3170135886349.599</v>
       </c>
     </row>
-    <row r="310">
-      <c r="A310" s="2" t="n">
+    <row r="310" spans="1:4">
+      <c r="A310" s="2">
         <v>39417</v>
       </c>
-      <c r="B310" t="n">
+      <c r="B310">
         <v>1552875000000</v>
       </c>
-      <c r="C310" t="n">
+      <c r="C310">
         <v>1.987676406281057</v>
       </c>
-      <c r="D310" t="n">
+      <c r="D310">
         <v>3086612999403.697</v>
       </c>
     </row>
-    <row r="311">
-      <c r="A311" s="2" t="n">
+    <row r="311" spans="1:4">
+      <c r="A311" s="2">
         <v>39448</v>
       </c>
-      <c r="B311" t="n">
+      <c r="B311">
         <v>1614644000000</v>
       </c>
-      <c r="C311" t="n">
+      <c r="C311">
         <v>1.988466892026248</v>
       </c>
-      <c r="D311" t="n">
+      <c r="D311">
         <v>3210666136408.829</v>
       </c>
     </row>
-    <row r="312">
-      <c r="A312" s="2" t="n">
+    <row r="312" spans="1:4">
+      <c r="A312" s="2">
         <v>39479</v>
       </c>
-      <c r="B312" t="n">
+      <c r="B312">
         <v>1619432000000</v>
       </c>
-      <c r="C312" t="n">
+      <c r="C312">
         <v>1.989653800238758</v>
       </c>
-      <c r="D312" t="n">
+      <c r="D312">
         <v>3222109033028.253</v>
       </c>
     </row>
-    <row r="313">
-      <c r="A313" s="2" t="n">
+    <row r="313" spans="1:4">
+      <c r="A313" s="2">
         <v>39508</v>
       </c>
-      <c r="B313" t="n">
+      <c r="B313">
         <v>1642420000000</v>
       </c>
-      <c r="C313" t="n">
+      <c r="C313">
         <v>1.984126984126984</v>
       </c>
-      <c r="D313" t="n">
+      <c r="D313">
         <v>3258769841269.841</v>
       </c>
     </row>
-    <row r="314">
-      <c r="A314" s="2" t="n">
+    <row r="314" spans="1:4">
+      <c r="A314" s="2">
         <v>39539</v>
       </c>
-      <c r="B314" t="n">
+      <c r="B314">
         <v>1653886000000</v>
       </c>
-      <c r="C314" t="n">
+      <c r="C314">
         <v>1.988862370723946</v>
       </c>
-      <c r="D314" t="n">
+      <c r="D314">
         <v>3289351630867.144</v>
       </c>
     </row>
-    <row r="315">
-      <c r="A315" s="2" t="n">
+    <row r="315" spans="1:4">
+      <c r="A315" s="2">
         <v>39569</v>
       </c>
-      <c r="B315" t="n">
+      <c r="B315">
         <v>1659316000000</v>
       </c>
-      <c r="C315" t="n">
+      <c r="C315">
         <v>1.983339944466482</v>
       </c>
-      <c r="D315" t="n">
+      <c r="D315">
         <v>3290987703292.344</v>
       </c>
     </row>
-    <row r="316">
-      <c r="A316" s="2" t="n">
+    <row r="316" spans="1:4">
+      <c r="A316" s="2">
         <v>39600</v>
       </c>
-      <c r="B316" t="n">
+      <c r="B316">
         <v>1671091000000</v>
       </c>
-      <c r="C316" t="n">
+      <c r="C316">
         <v>1.994017946161516</v>
       </c>
-      <c r="D316" t="n">
+      <c r="D316">
         <v>3332185443668.994</v>
       </c>
     </row>
-    <row r="317">
-      <c r="A317" s="2" t="n">
+    <row r="317" spans="1:4">
+      <c r="A317" s="2">
         <v>39630</v>
       </c>
-      <c r="B317" t="n">
+      <c r="B317">
         <v>1673925000000</v>
       </c>
-      <c r="C317" t="n">
+      <c r="C317">
         <v>1.984520738241714</v>
       </c>
-      <c r="D317" t="n">
+      <c r="D317">
         <v>3321938876761.262</v>
       </c>
     </row>
-    <row r="318">
-      <c r="A318" s="2" t="n">
+    <row r="318" spans="1:4">
+      <c r="A318" s="2">
         <v>39661</v>
       </c>
-      <c r="B318" t="n">
+      <c r="B318">
         <v>1680684000000</v>
       </c>
-      <c r="C318" t="n">
+      <c r="C318">
         <v>1.817190623296384</v>
       </c>
-      <c r="D318" t="n">
+      <c r="D318">
         <v>3054123205524.259</v>
       </c>
     </row>
-    <row r="319">
-      <c r="A319" s="2" t="n">
+    <row r="319" spans="1:4">
+      <c r="A319" s="2">
         <v>39692</v>
       </c>
-      <c r="B319" t="n">
+      <c r="B319">
         <v>1687895000000</v>
       </c>
-      <c r="C319" t="n">
+      <c r="C319">
         <v>1.784121320249777</v>
       </c>
-      <c r="D319" t="n">
+      <c r="D319">
         <v>3011409455842.998</v>
       </c>
     </row>
-    <row r="320">
-      <c r="A320" s="2" t="n">
+    <row r="320" spans="1:4">
+      <c r="A320" s="2">
         <v>39722</v>
       </c>
-      <c r="B320" t="n">
+      <c r="B320">
         <v>1743259000000</v>
       </c>
-      <c r="C320" t="n">
+      <c r="C320">
         <v>1.605394124257505</v>
       </c>
-      <c r="D320" t="n">
+      <c r="D320">
         <v>2798617755659.014</v>
       </c>
     </row>
-    <row r="321">
-      <c r="A321" s="2" t="n">
+    <row r="321" spans="1:4">
+      <c r="A321" s="2">
         <v>39753</v>
       </c>
-      <c r="B321" t="n">
+      <c r="B321">
         <v>1793354000000</v>
       </c>
-      <c r="C321" t="n">
+      <c r="C321">
         <v>1.538224888478696</v>
       </c>
-      <c r="D321" t="n">
+      <c r="D321">
         <v>2758581756652.823</v>
       </c>
     </row>
-    <row r="322">
-      <c r="A322" s="2" t="n">
+    <row r="322" spans="1:4">
+      <c r="A322" s="2">
         <v>39783</v>
       </c>
-      <c r="B322" t="n">
+      <c r="B322">
         <v>1838164000000</v>
       </c>
-      <c r="C322" t="n">
+      <c r="C322">
         <v>1.462629808395495</v>
       </c>
-      <c r="D322" t="n">
+      <c r="D322">
         <v>2688553459119.497</v>
       </c>
     </row>
-    <row r="323">
-      <c r="A323" s="2" t="n">
+    <row r="323" spans="1:4">
+      <c r="A323" s="2">
         <v>39814</v>
       </c>
-      <c r="B323" t="n">
+      <c r="B323">
         <v>1847619000000</v>
       </c>
-      <c r="C323" t="n">
+      <c r="C323">
         <v>1.452011035283868</v>
       </c>
-      <c r="D323" t="n">
+      <c r="D323">
         <v>2682763177000.146</v>
       </c>
     </row>
-    <row r="324">
-      <c r="A324" s="2" t="n">
+    <row r="324" spans="1:4">
+      <c r="A324" s="2">
         <v>39845</v>
       </c>
-      <c r="B324" t="n">
+      <c r="B324">
         <v>1839000000000</v>
       </c>
-      <c r="C324" t="n">
+      <c r="C324">
         <v>1.431639226914817</v>
       </c>
-      <c r="D324" t="n">
+      <c r="D324">
         <v>2632784538296.349</v>
       </c>
     </row>
-    <row r="325">
-      <c r="A325" s="2" t="n">
+    <row r="325" spans="1:4">
+      <c r="A325" s="2">
         <v>39873</v>
       </c>
-      <c r="B325" t="n">
+      <c r="B325">
         <v>1852102000000</v>
       </c>
-      <c r="C325" t="n">
+      <c r="C325">
         <v>1.433280779704744</v>
       </c>
-      <c r="D325" t="n">
+      <c r="D325">
         <v>2654582198652.716</v>
       </c>
     </row>
-    <row r="326">
-      <c r="A326" s="2" t="n">
+    <row r="326" spans="1:4">
+      <c r="A326" s="2">
         <v>39904</v>
       </c>
-      <c r="B326" t="n">
+      <c r="B326">
         <v>1828305000000</v>
       </c>
-      <c r="C326" t="n">
+      <c r="C326">
         <v>1.478633742422002</v>
       </c>
-      <c r="D326" t="n">
+      <c r="D326">
         <v>2703393464438.858</v>
       </c>
     </row>
-    <row r="327">
-      <c r="A327" s="2" t="n">
+    <row r="327" spans="1:4">
+      <c r="A327" s="2">
         <v>39934</v>
       </c>
-      <c r="B327" t="n">
+      <c r="B327">
         <v>1821504000000</v>
       </c>
-      <c r="C327" t="n">
+      <c r="C327">
         <v>1.619695497246518</v>
       </c>
-      <c r="D327" t="n">
+      <c r="D327">
         <v>2950281827016.521</v>
       </c>
     </row>
-    <row r="328">
-      <c r="A328" s="2" t="n">
+    <row r="328" spans="1:4">
+      <c r="A328" s="2">
         <v>39965</v>
       </c>
-      <c r="B328" t="n">
+      <c r="B328">
         <v>1813632000000</v>
       </c>
-      <c r="C328" t="n">
+      <c r="C328">
         <v>1.647446457990115</v>
       </c>
-      <c r="D328" t="n">
+      <c r="D328">
         <v>2987861614497.529</v>
       </c>
     </row>
-    <row r="329">
-      <c r="A329" s="2" t="n">
+    <row r="329" spans="1:4">
+      <c r="A329" s="2">
         <v>39995</v>
       </c>
-      <c r="B329" t="n">
+      <c r="B329">
         <v>1825833000000</v>
       </c>
-      <c r="C329" t="n">
+      <c r="C329">
         <v>1.671402306535183</v>
       </c>
-      <c r="D329" t="n">
+      <c r="D329">
         <v>3051701487548.053</v>
       </c>
     </row>
-    <row r="330">
-      <c r="A330" s="2" t="n">
+    <row r="330" spans="1:4">
+      <c r="A330" s="2">
         <v>40026</v>
       </c>
-      <c r="B330" t="n">
+      <c r="B330">
         <v>1837989000000</v>
       </c>
-      <c r="C330" t="n">
+      <c r="C330">
         <v>1.628399283504315</v>
       </c>
-      <c r="D330" t="n">
+      <c r="D330">
         <v>2992979970688.813</v>
       </c>
     </row>
-    <row r="331">
-      <c r="A331" s="2" t="n">
+    <row r="331" spans="1:4">
+      <c r="A331" s="2">
         <v>40057</v>
       </c>
-      <c r="B331" t="n">
+      <c r="B331">
         <v>1860450000000</v>
       </c>
-      <c r="C331" t="n">
+      <c r="C331">
         <v>1.601537475976938</v>
       </c>
-      <c r="D331" t="n">
+      <c r="D331">
         <v>2979580397181.294</v>
       </c>
     </row>
-    <row r="332">
-      <c r="A332" s="2" t="n">
+    <row r="332" spans="1:4">
+      <c r="A332" s="2">
         <v>40087</v>
       </c>
-      <c r="B332" t="n">
+      <c r="B332">
         <v>1897862000000</v>
       </c>
-      <c r="C332" t="n">
+      <c r="C332">
         <v>1.645278051990786</v>
       </c>
-      <c r="D332" t="n">
+      <c r="D332">
         <v>3122510694307.338</v>
       </c>
     </row>
-    <row r="333">
-      <c r="A333" s="2" t="n">
+    <row r="333" spans="1:4">
+      <c r="A333" s="2">
         <v>40118</v>
       </c>
-      <c r="B333" t="n">
+      <c r="B333">
         <v>1898759000000</v>
       </c>
-      <c r="C333" t="n">
+      <c r="C333">
         <v>1.645007402533311</v>
       </c>
-      <c r="D333" t="n">
+      <c r="D333">
         <v>3123472610626.748</v>
       </c>
     </row>
-    <row r="334">
-      <c r="A334" s="2" t="n">
+    <row r="334" spans="1:4">
+      <c r="A334" s="2">
         <v>40148</v>
       </c>
-      <c r="B334" t="n">
+      <c r="B334">
         <v>1900611000000</v>
       </c>
-      <c r="C334" t="n">
+      <c r="C334">
         <v>1.616292225634395</v>
       </c>
-      <c r="D334" t="n">
+      <c r="D334">
         <v>3071942783255.212</v>
       </c>
     </row>
-    <row r="335">
-      <c r="A335" s="2" t="n">
+    <row r="335" spans="1:4">
+      <c r="A335" s="2">
         <v>40179</v>
       </c>
-      <c r="B335" t="n">
+      <c r="B335">
         <v>2092468000000</v>
       </c>
-      <c r="C335" t="n">
+      <c r="C335">
         <v>1.600256040966555</v>
       </c>
-      <c r="D335" t="n">
+      <c r="D335">
         <v>3348484557529.205</v>
       </c>
     </row>
-    <row r="336">
-      <c r="A336" s="2" t="n">
+    <row r="336" spans="1:4">
+      <c r="A336" s="2">
         <v>40210</v>
       </c>
-      <c r="B336" t="n">
+      <c r="B336">
         <v>2120092000000</v>
       </c>
-      <c r="C336" t="n">
+      <c r="C336">
         <v>1.524157902758726</v>
       </c>
-      <c r="D336" t="n">
+      <c r="D336">
         <v>3231354976375.552</v>
       </c>
     </row>
-    <row r="337">
-      <c r="A337" s="2" t="n">
+    <row r="337" spans="1:4">
+      <c r="A337" s="2">
         <v>40238</v>
       </c>
-      <c r="B337" t="n">
+      <c r="B337">
         <v>2103885000000</v>
       </c>
-      <c r="C337" t="n">
+      <c r="C337">
         <v>1.519064256418047</v>
       </c>
-      <c r="D337" t="n">
+      <c r="D337">
         <v>3195936503114.082</v>
       </c>
     </row>
-    <row r="338">
-      <c r="A338" s="2" t="n">
+    <row r="338" spans="1:4">
+      <c r="A338" s="2">
         <v>40269</v>
       </c>
-      <c r="B338" t="n">
+      <c r="B338">
         <v>2075259000000</v>
       </c>
-      <c r="C338" t="n">
+      <c r="C338">
         <v>1.527883880825057</v>
       </c>
-      <c r="D338" t="n">
+      <c r="D338">
         <v>3170754774637.128</v>
       </c>
     </row>
-    <row r="339">
-      <c r="A339" s="2" t="n">
+    <row r="339" spans="1:4">
+      <c r="A339" s="2">
         <v>40299</v>
       </c>
-      <c r="B339" t="n">
+      <c r="B339">
         <v>2090960000000</v>
       </c>
-      <c r="C339" t="n">
+      <c r="C339">
         <v>1.453911020645537</v>
       </c>
-      <c r="D339" t="n">
+      <c r="D339">
         <v>3040069787728.991</v>
       </c>
     </row>
-    <row r="340">
-      <c r="A340" s="2" t="n">
+    <row r="340" spans="1:4">
+      <c r="A340" s="2">
         <v>40330</v>
       </c>
-      <c r="B340" t="n">
+      <c r="B340">
         <v>2092957000000</v>
       </c>
-      <c r="C340" t="n">
+      <c r="C340">
         <v>1.494544911074578</v>
       </c>
-      <c r="D340" t="n">
+      <c r="D340">
         <v>3128018233447.915</v>
       </c>
     </row>
-    <row r="341">
-      <c r="A341" s="2" t="n">
+    <row r="341" spans="1:4">
+      <c r="A341" s="2">
         <v>40360</v>
       </c>
-      <c r="B341" t="n">
+      <c r="B341">
         <v>2089612000000</v>
       </c>
-      <c r="C341" t="n">
+      <c r="C341">
         <v>1.569612305760477</v>
       </c>
-      <c r="D341" t="n">
+      <c r="D341">
         <v>3279880709464.762</v>
       </c>
     </row>
-    <row r="342">
-      <c r="A342" s="2" t="n">
+    <row r="342" spans="1:4">
+      <c r="A342" s="2">
         <v>40391</v>
       </c>
-      <c r="B342" t="n">
+      <c r="B342">
         <v>2080823000000</v>
       </c>
-      <c r="C342" t="n">
+      <c r="C342">
         <v>1.535862386730149</v>
       </c>
-      <c r="D342" t="n">
+      <c r="D342">
         <v>3195857779142.989</v>
       </c>
     </row>
-    <row r="343">
-      <c r="A343" s="2" t="n">
+    <row r="343" spans="1:4">
+      <c r="A343" s="2">
         <v>40422</v>
       </c>
-      <c r="B343" t="n">
+      <c r="B343">
         <v>2081669000000</v>
       </c>
-      <c r="C343" t="n">
+      <c r="C343">
         <v>1.571585730001572</v>
       </c>
-      <c r="D343" t="n">
+      <c r="D343">
         <v>3271521294986.642</v>
       </c>
     </row>
-    <row r="344">
-      <c r="A344" s="2" t="n">
+    <row r="344" spans="1:4">
+      <c r="A344" s="2">
         <v>40452</v>
       </c>
-      <c r="B344" t="n">
+      <c r="B344">
         <v>2093135000000</v>
       </c>
-      <c r="C344" t="n">
+      <c r="C344">
         <v>1.604621309370988</v>
       </c>
-      <c r="D344" t="n">
+      <c r="D344">
         <v>3358689024390.244</v>
       </c>
     </row>
-    <row r="345">
-      <c r="A345" s="2" t="n">
+    <row r="345" spans="1:4">
+      <c r="A345" s="2">
         <v>40483</v>
       </c>
-      <c r="B345" t="n">
+      <c r="B345">
         <v>2083505000000</v>
       </c>
-      <c r="C345" t="n">
+      <c r="C345">
         <v>1.556904873112253</v>
       </c>
-      <c r="D345" t="n">
+      <c r="D345">
         <v>3243819087653.744</v>
       </c>
     </row>
-    <row r="346">
-      <c r="A346" s="2" t="n">
+    <row r="346" spans="1:4">
+      <c r="A346" s="2">
         <v>40513</v>
       </c>
-      <c r="B346" t="n">
+      <c r="B346">
         <v>2079532000000</v>
       </c>
-      <c r="C346" t="n">
+      <c r="C346">
         <v>1.561524047470331</v>
       </c>
-      <c r="D346" t="n">
+      <c r="D346">
         <v>3247239225484.073</v>
       </c>
     </row>
-    <row r="347">
-      <c r="A347" s="2" t="n">
+    <row r="347" spans="1:4">
+      <c r="A347" s="2">
         <v>40544</v>
       </c>
-      <c r="B347" t="n">
+      <c r="B347">
         <v>2065670000000</v>
       </c>
-      <c r="C347" t="n">
+      <c r="C347">
         <v>1.601794009290405</v>
       </c>
-      <c r="D347" t="n">
+      <c r="D347">
         <v>3308777831170.912</v>
       </c>
     </row>
-    <row r="348">
-      <c r="A348" s="2" t="n">
+    <row r="348" spans="1:4">
+      <c r="A348" s="2">
         <v>40575</v>
       </c>
-      <c r="B348" t="n">
+      <c r="B348">
         <v>2059734000000</v>
       </c>
-      <c r="C348" t="n">
+      <c r="C348">
         <v>1.626545217957059</v>
       </c>
-      <c r="D348" t="n">
+      <c r="D348">
         <v>3350250487963.565</v>
       </c>
     </row>
-    <row r="349">
-      <c r="A349" s="2" t="n">
+    <row r="349" spans="1:4">
+      <c r="A349" s="2">
         <v>40603</v>
       </c>
-      <c r="B349" t="n">
+      <c r="B349">
         <v>2083323000000</v>
       </c>
-      <c r="C349" t="n">
+      <c r="C349">
         <v>1.604621309370988</v>
       </c>
-      <c r="D349" t="n">
+      <c r="D349">
         <v>3342944480102.696</v>
       </c>
     </row>
-    <row r="350">
-      <c r="A350" s="2" t="n">
+    <row r="350" spans="1:4">
+      <c r="A350" s="2">
         <v>40634</v>
       </c>
-      <c r="B350" t="n">
+      <c r="B350">
         <v>2083914000000</v>
       </c>
-      <c r="C350" t="n">
+      <c r="C350">
         <v>1.671122994652406</v>
       </c>
-      <c r="D350" t="n">
+      <c r="D350">
         <v>3482476604278.074</v>
       </c>
     </row>
-    <row r="351">
-      <c r="A351" s="2" t="n">
+    <row r="351" spans="1:4">
+      <c r="A351" s="2">
         <v>40664</v>
       </c>
-      <c r="B351" t="n">
+      <c r="B351">
         <v>2085955000000</v>
       </c>
-      <c r="C351" t="n">
+      <c r="C351">
         <v>1.645819618169849</v>
       </c>
-      <c r="D351" t="n">
+      <c r="D351">
         <v>3433105661619.486</v>
       </c>
     </row>
-    <row r="352">
-      <c r="A352" s="2" t="n">
+    <row r="352" spans="1:4">
+      <c r="A352" s="2">
         <v>40695</v>
       </c>
-      <c r="B352" t="n">
+      <c r="B352">
         <v>2083062000000</v>
       </c>
-      <c r="C352" t="n">
+      <c r="C352">
         <v>1.604878831648211</v>
       </c>
-      <c r="D352" t="n">
+      <c r="D352">
         <v>3343062108810.785</v>
       </c>
     </row>
-    <row r="353">
-      <c r="A353" s="2" t="n">
+    <row r="353" spans="1:4">
+      <c r="A353" s="2">
         <v>40725</v>
       </c>
-      <c r="B353" t="n">
+      <c r="B353">
         <v>2079183000000</v>
       </c>
-      <c r="C353" t="n">
+      <c r="C353">
         <v>1.642845408247084</v>
       </c>
-      <c r="D353" t="n">
+      <c r="D353">
         <v>3415776244455.396</v>
       </c>
     </row>
-    <row r="354">
-      <c r="A354" s="2" t="n">
+    <row r="354" spans="1:4">
+      <c r="A354" s="2">
         <v>40756</v>
       </c>
-      <c r="B354" t="n">
+      <c r="B354">
         <v>2090215000000</v>
       </c>
-      <c r="C354" t="n">
+      <c r="C354">
         <v>1.626280696048138</v>
       </c>
-      <c r="D354" t="n">
+      <c r="D354">
         <v>3399276305090.259</v>
       </c>
     </row>
-    <row r="355">
-      <c r="A355" s="2" t="n">
+    <row r="355" spans="1:4">
+      <c r="A355" s="2">
         <v>40787</v>
       </c>
-      <c r="B355" t="n">
+      <c r="B355">
         <v>2090984000000</v>
       </c>
-      <c r="C355" t="n">
+      <c r="C355">
         <v>1.559089491736826</v>
       </c>
-      <c r="D355" t="n">
+      <c r="D355">
         <v>3260031181789.835</v>
       </c>
     </row>
-    <row r="356">
-      <c r="A356" s="2" t="n">
+    <row r="356" spans="1:4">
+      <c r="A356" s="2">
         <v>40817</v>
       </c>
-      <c r="B356" t="n">
+      <c r="B356">
         <v>2069754000000</v>
       </c>
-      <c r="C356" t="n">
+      <c r="C356">
         <v>1.608751608751609</v>
       </c>
-      <c r="D356" t="n">
+      <c r="D356">
         <v>3329720077220.077</v>
       </c>
     </row>
-    <row r="357">
-      <c r="A357" s="2" t="n">
+    <row r="357" spans="1:4">
+      <c r="A357" s="2">
         <v>40848</v>
       </c>
-      <c r="B357" t="n">
+      <c r="B357">
         <v>2075028000000</v>
       </c>
-      <c r="C357" t="n">
+      <c r="C357">
         <v>1.571091908876669</v>
       </c>
-      <c r="D357" t="n">
+      <c r="D357">
         <v>3260059701492.538</v>
       </c>
     </row>
-    <row r="358">
-      <c r="A358" s="2" t="n">
+    <row r="358" spans="1:4">
+      <c r="A358" s="2">
         <v>40878</v>
       </c>
-      <c r="B358" t="n">
+      <c r="B358">
         <v>2034632000000</v>
       </c>
-      <c r="C358" t="n">
+      <c r="C358">
         <v>1.555935895441108</v>
       </c>
-      <c r="D358" t="n">
+      <c r="D358">
         <v>3165756962813.132</v>
       </c>
     </row>
-    <row r="359">
-      <c r="A359" s="2" t="n">
+    <row r="359" spans="1:4">
+      <c r="A359" s="2">
         <v>40909</v>
       </c>
-      <c r="B359" t="n">
+      <c r="B359">
         <v>2049504000000</v>
       </c>
-      <c r="C359" t="n">
+      <c r="C359">
         <v>1.576789656259855</v>
       </c>
-      <c r="D359" t="n">
+      <c r="D359">
         <v>3231636707663.198</v>
       </c>
     </row>
-    <row r="360">
-      <c r="A360" s="2" t="n">
+    <row r="360" spans="1:4">
+      <c r="A360" s="2">
         <v>40940</v>
       </c>
-      <c r="B360" t="n">
+      <c r="B360">
         <v>2016250000000</v>
       </c>
-      <c r="C360" t="n">
+      <c r="C360">
         <v>1.592103168285305</v>
       </c>
-      <c r="D360" t="n">
+      <c r="D360">
         <v>3210078013055.246</v>
       </c>
     </row>
-    <row r="361">
-      <c r="A361" s="2" t="n">
+    <row r="361" spans="1:4">
+      <c r="A361" s="2">
         <v>40969</v>
       </c>
-      <c r="B361" t="n">
+      <c r="B361">
         <v>2022808000000</v>
       </c>
-      <c r="C361" t="n">
+      <c r="C361">
         <v>1.602050624799744</v>
       </c>
-      <c r="D361" t="n">
+      <c r="D361">
         <v>3240640820249.92</v>
       </c>
     </row>
-    <row r="362">
-      <c r="A362" s="2" t="n">
+    <row r="362" spans="1:4">
+      <c r="A362" s="2">
         <v>41000</v>
       </c>
-      <c r="B362" t="n">
+      <c r="B362">
         <v>2032829000000</v>
       </c>
-      <c r="C362" t="n">
+      <c r="C362">
         <v>1.624431448992852</v>
       </c>
-      <c r="D362" t="n">
+      <c r="D362">
         <v>3302191358024.691</v>
       </c>
     </row>
-    <row r="363">
-      <c r="A363" s="2" t="n">
+    <row r="363" spans="1:4">
+      <c r="A363" s="2">
         <v>41030</v>
       </c>
-      <c r="B363" t="n">
+      <c r="B363">
         <v>2036778000000</v>
       </c>
-      <c r="C363" t="n">
+      <c r="C363">
         <v>1.541069502234551</v>
       </c>
-      <c r="D363" t="n">
+      <c r="D363">
         <v>3138816458622.284</v>
       </c>
     </row>
-    <row r="364">
-      <c r="A364" s="2" t="n">
+    <row r="364" spans="1:4">
+      <c r="A364" s="2">
         <v>41061</v>
       </c>
-      <c r="B364" t="n">
+      <c r="B364">
         <v>2028076000000</v>
       </c>
-      <c r="C364" t="n">
+      <c r="C364">
         <v>1.570598397989634</v>
       </c>
-      <c r="D364" t="n">
+      <c r="D364">
         <v>3185292916601.225</v>
       </c>
     </row>
-    <row r="365">
-      <c r="A365" s="2" t="n">
+    <row r="365" spans="1:4">
+      <c r="A365" s="2">
         <v>41091</v>
       </c>
-      <c r="B365" t="n">
+      <c r="B365">
         <v>2029029000000</v>
       </c>
-      <c r="C365" t="n">
+      <c r="C365">
         <v>1.568135486906069</v>
       </c>
-      <c r="D365" t="n">
+      <c r="D365">
         <v>3181792378861.534</v>
       </c>
     </row>
-    <row r="366">
-      <c r="A366" s="2" t="n">
+    <row r="366" spans="1:4">
+      <c r="A366" s="2">
         <v>41122</v>
       </c>
-      <c r="B366" t="n">
+      <c r="B366">
         <v>2024862000000</v>
       </c>
-      <c r="C366" t="n">
+      <c r="C366">
         <v>1.587301587301587</v>
       </c>
-      <c r="D366" t="n">
+      <c r="D366">
         <v>3214066666666.667</v>
       </c>
     </row>
-    <row r="367">
-      <c r="A367" s="2" t="n">
+    <row r="367" spans="1:4">
+      <c r="A367" s="2">
         <v>41153</v>
       </c>
-      <c r="B367" t="n">
+      <c r="B367">
         <v>2023352000000</v>
       </c>
-      <c r="C367" t="n">
+      <c r="C367">
         <v>1.617076326002588</v>
       </c>
-      <c r="D367" t="n">
+      <c r="D367">
         <v>3271914618369.987</v>
       </c>
     </row>
-    <row r="368">
-      <c r="A368" s="2" t="n">
+    <row r="368" spans="1:4">
+      <c r="A368" s="2">
         <v>41183</v>
       </c>
-      <c r="B368" t="n">
+      <c r="B368">
         <v>2021639000000</v>
       </c>
-      <c r="C368" t="n">
+      <c r="C368">
         <v>1.613684040664838</v>
       </c>
-      <c r="D368" t="n">
+      <c r="D368">
         <v>3262286590285.622</v>
       </c>
     </row>
-    <row r="369">
-      <c r="A369" s="2" t="n">
+    <row r="369" spans="1:4">
+      <c r="A369" s="2">
         <v>41214</v>
       </c>
-      <c r="B369" t="n">
+      <c r="B369">
         <v>2019792000000</v>
       </c>
-      <c r="C369" t="n">
+      <c r="C369">
         <v>1.602307322544464</v>
       </c>
-      <c r="D369" t="n">
+      <c r="D369">
         <v>3236327511616.728</v>
       </c>
     </row>
-    <row r="370">
-      <c r="A370" s="2" t="n">
+    <row r="370" spans="1:4">
+      <c r="A370" s="2">
         <v>41244</v>
       </c>
-      <c r="B370" t="n">
+      <c r="B370">
         <v>2043169000000</v>
       </c>
-      <c r="C370" t="n">
+      <c r="C370">
         <v>1.626545217957059</v>
       </c>
-      <c r="D370" t="n">
+      <c r="D370">
         <v>3323306766428.106</v>
       </c>
     </row>
-    <row r="371">
-      <c r="A371" s="2" t="n">
+    <row r="371" spans="1:4">
+      <c r="A371" s="2">
         <v>41275</v>
       </c>
-      <c r="B371" t="n">
+      <c r="B371">
         <v>2056209000000</v>
       </c>
-      <c r="C371" t="n">
+      <c r="C371">
         <v>1.586294416243655</v>
       </c>
-      <c r="D371" t="n">
+      <c r="D371">
         <v>3261752855329.95</v>
       </c>
     </row>
-    <row r="372">
-      <c r="A372" s="2" t="n">
+    <row r="372" spans="1:4">
+      <c r="A372" s="2">
         <v>41306</v>
       </c>
-      <c r="B372" t="n">
+      <c r="B372">
         <v>2075688000000</v>
       </c>
-      <c r="C372" t="n">
+      <c r="C372">
         <v>1.516990291262136</v>
       </c>
-      <c r="D372" t="n">
+      <c r="D372">
         <v>3148798543689.32</v>
       </c>
     </row>
-    <row r="373">
-      <c r="A373" s="2" t="n">
+    <row r="373" spans="1:4">
+      <c r="A373" s="2">
         <v>41334</v>
       </c>
-      <c r="B373" t="n">
+      <c r="B373">
         <v>2074510000000</v>
       </c>
-      <c r="C373" t="n">
+      <c r="C373">
         <v>1.521606816798539</v>
       </c>
-      <c r="D373" t="n">
+      <c r="D373">
         <v>3156588557516.738</v>
       </c>
     </row>
-    <row r="374">
-      <c r="A374" s="2" t="n">
+    <row r="374" spans="1:4">
+      <c r="A374" s="2">
         <v>41365</v>
       </c>
-      <c r="B374" t="n">
+      <c r="B374">
         <v>2079958000000</v>
       </c>
-      <c r="C374" t="n">
+      <c r="C374">
         <v>1.55448468832582</v>
       </c>
-      <c r="D374" t="n">
+      <c r="D374">
         <v>3233262863360.796</v>
       </c>
     </row>
-    <row r="375">
-      <c r="A375" s="2" t="n">
+    <row r="375" spans="1:4">
+      <c r="A375" s="2">
         <v>41395</v>
       </c>
-      <c r="B375" t="n">
+      <c r="B375">
         <v>2081336000000</v>
       </c>
-      <c r="C375" t="n">
+      <c r="C375">
         <v>1.520218911523259</v>
       </c>
-      <c r="D375" t="n">
+      <c r="D375">
         <v>3164086348434.174</v>
       </c>
     </row>
-    <row r="376">
-      <c r="A376" s="2" t="n">
+    <row r="376" spans="1:4">
+      <c r="A376" s="2">
         <v>41426</v>
       </c>
-      <c r="B376" t="n">
+      <c r="B376">
         <v>2086483000000</v>
       </c>
-      <c r="C376" t="n">
+      <c r="C376">
         <v>1.522533495736906</v>
       </c>
-      <c r="D376" t="n">
+      <c r="D376">
         <v>3176740255785.627</v>
       </c>
     </row>
-    <row r="377">
-      <c r="A377" s="2" t="n">
+    <row r="377" spans="1:4">
+      <c r="A377" s="2">
         <v>41456</v>
       </c>
-      <c r="B377" t="n">
+      <c r="B377">
         <v>2099960000000</v>
       </c>
-      <c r="C377" t="n">
+      <c r="C377">
         <v>1.519987840097279</v>
       </c>
-      <c r="D377" t="n">
+      <c r="D377">
         <v>3191913664690.682</v>
       </c>
     </row>
-    <row r="378">
-      <c r="A378" s="2" t="n">
+    <row r="378" spans="1:4">
+      <c r="A378" s="2">
         <v>41487</v>
       </c>
-      <c r="B378" t="n">
+      <c r="B378">
         <v>2105687000000</v>
       </c>
-      <c r="C378" t="n">
+      <c r="C378">
         <v>1.550868486352357</v>
       </c>
-      <c r="D378" t="n">
+      <c r="D378">
         <v>3265643610421.836</v>
       </c>
     </row>
-    <row r="379">
-      <c r="A379" s="2" t="n">
+    <row r="379" spans="1:4">
+      <c r="A379" s="2">
         <v>41518</v>
       </c>
-      <c r="B379" t="n">
+      <c r="B379">
         <v>2089621000000</v>
       </c>
-      <c r="C379" t="n">
+      <c r="C379">
         <v>1.619170984455959</v>
       </c>
-      <c r="D379" t="n">
+      <c r="D379">
         <v>3383453691709.845</v>
       </c>
     </row>
-    <row r="380">
-      <c r="A380" s="2" t="n">
+    <row r="380" spans="1:4">
+      <c r="A380" s="2">
         <v>41548</v>
       </c>
-      <c r="B380" t="n">
+      <c r="B380">
         <v>2104154000000</v>
       </c>
-      <c r="C380" t="n">
+      <c r="C380">
         <v>1.604621309370988</v>
       </c>
-      <c r="D380" t="n">
+      <c r="D380">
         <v>3376370346598.203</v>
       </c>
     </row>
-    <row r="381">
-      <c r="A381" s="2" t="n">
+    <row r="381" spans="1:4">
+      <c r="A381" s="2">
         <v>41579</v>
       </c>
-      <c r="B381" t="n">
+      <c r="B381">
         <v>2100629000000</v>
       </c>
-      <c r="C381" t="n">
+      <c r="C381">
         <v>1.637465203864418</v>
       </c>
-      <c r="D381" t="n">
+      <c r="D381">
         <v>3439706893728.508</v>
       </c>
     </row>
-    <row r="382">
-      <c r="A382" s="2" t="n">
+    <row r="382" spans="1:4">
+      <c r="A382" s="2">
         <v>41609</v>
       </c>
-      <c r="B382" t="n">
+      <c r="B382">
         <v>2078312000000</v>
       </c>
-      <c r="C382" t="n">
+      <c r="C382">
         <v>1.655629139072848</v>
       </c>
-      <c r="D382" t="n">
+      <c r="D382">
         <v>3440913907284.768</v>
       </c>
     </row>
-    <row r="383">
-      <c r="A383" s="2" t="n">
+    <row r="383" spans="1:4">
+      <c r="A383" s="2">
         <v>41640</v>
       </c>
-      <c r="B383" t="n">
+      <c r="B383">
         <v>2091926000000</v>
       </c>
-      <c r="C383" t="n">
+      <c r="C383">
         <v>1.64446637066272</v>
       </c>
-      <c r="D383" t="n">
+      <c r="D383">
         <v>3440101956914.981</v>
       </c>
     </row>
-    <row r="384">
-      <c r="A384" s="2" t="n">
+    <row r="384" spans="1:4">
+      <c r="A384" s="2">
         <v>41671</v>
       </c>
-      <c r="B384" t="n">
+      <c r="B384">
         <v>2110400000000</v>
       </c>
-      <c r="C384" t="n">
+      <c r="C384">
         <v>1.674761346508123</v>
       </c>
-      <c r="D384" t="n">
+      <c r="D384">
         <v>3534416345670.742</v>
       </c>
     </row>
-    <row r="385">
-      <c r="A385" s="2" t="n">
+    <row r="385" spans="1:4">
+      <c r="A385" s="2">
         <v>41699</v>
       </c>
-      <c r="B385" t="n">
+      <c r="B385">
         <v>2083975000000</v>
       </c>
-      <c r="C385" t="n">
+      <c r="C385">
         <v>1.666944490748458</v>
       </c>
-      <c r="D385" t="n">
+      <c r="D385">
         <v>3473870645107.518</v>
       </c>
     </row>
-    <row r="386">
-      <c r="A386" s="2" t="n">
+    <row r="386" spans="1:4">
+      <c r="A386" s="2">
         <v>41730</v>
       </c>
-      <c r="B386" t="n">
+      <c r="B386">
         <v>2077730000000</v>
       </c>
-      <c r="C386" t="n">
+      <c r="C386">
         <v>1.688333614722269</v>
       </c>
-      <c r="D386" t="n">
+      <c r="D386">
         <v>3507901401316.9</v>
       </c>
     </row>
-    <row r="387">
-      <c r="A387" s="2" t="n">
+    <row r="387" spans="1:4">
+      <c r="A387" s="2">
         <v>41760</v>
       </c>
-      <c r="B387" t="n">
+      <c r="B387">
         <v>2072517000000</v>
       </c>
-      <c r="C387" t="n">
+      <c r="C387">
         <v>1.676164934629568</v>
       </c>
-      <c r="D387" t="n">
+      <c r="D387">
         <v>3473880321823.667</v>
       </c>
     </row>
-    <row r="388">
-      <c r="A388" s="2" t="n">
+    <row r="388" spans="1:4">
+      <c r="A388" s="2">
         <v>41791</v>
       </c>
-      <c r="B388" t="n">
+      <c r="B388">
         <v>2063761000000</v>
       </c>
-      <c r="C388" t="n">
+      <c r="C388">
         <v>1.71174255391989</v>
       </c>
-      <c r="D388" t="n">
+      <c r="D388">
         <v>3532627524820.267</v>
       </c>
     </row>
-    <row r="389">
-      <c r="A389" s="2" t="n">
+    <row r="389" spans="1:4">
+      <c r="A389" s="2">
         <v>41821</v>
       </c>
-      <c r="B389" t="n">
+      <c r="B389">
         <v>2065111000000</v>
       </c>
-      <c r="C389" t="n">
+      <c r="C389">
         <v>1.689189189189189</v>
       </c>
-      <c r="D389" t="n">
+      <c r="D389">
         <v>3488363175675.676</v>
       </c>
     </row>
-    <row r="390">
-      <c r="A390" s="2" t="n">
+    <row r="390" spans="1:4">
+      <c r="A390" s="2">
         <v>41852</v>
       </c>
-      <c r="B390" t="n">
+      <c r="B390">
         <v>2065981000000</v>
       </c>
-      <c r="C390" t="n">
+      <c r="C390">
         <v>1.660577881102624</v>
       </c>
-      <c r="D390" t="n">
+      <c r="D390">
         <v>3430722351378.28</v>
       </c>
     </row>
-    <row r="391">
-      <c r="A391" s="2" t="n">
+    <row r="391" spans="1:4">
+      <c r="A391" s="2">
         <v>41883</v>
       </c>
-      <c r="B391" t="n">
+      <c r="B391">
         <v>2073272000000</v>
       </c>
-      <c r="C391" t="n">
+      <c r="C391">
         <v>1.6220600162206</v>
       </c>
-      <c r="D391" t="n">
+      <c r="D391">
         <v>3362971613949.716</v>
       </c>
     </row>
-    <row r="392">
-      <c r="A392" s="2" t="n">
+    <row r="392" spans="1:4">
+      <c r="A392" s="2">
         <v>41913</v>
       </c>
-      <c r="B392" t="n">
+      <c r="B392">
         <v>2061189000000</v>
       </c>
-      <c r="C392" t="n">
+      <c r="C392">
         <v>1.600256040966555</v>
       </c>
-      <c r="D392" t="n">
+      <c r="D392">
         <v>3298430148823.812</v>
       </c>
     </row>
-    <row r="393">
-      <c r="A393" s="2" t="n">
+    <row r="393" spans="1:4">
+      <c r="A393" s="2">
         <v>41944</v>
       </c>
-      <c r="B393" t="n">
+      <c r="B393">
         <v>2068537000000</v>
       </c>
-      <c r="C393" t="n">
+      <c r="C393">
         <v>1.565680288085173</v>
       </c>
-      <c r="D393" t="n">
+      <c r="D393">
         <v>3238667606074.839</v>
       </c>
     </row>
-    <row r="394">
-      <c r="A394" s="2" t="n">
+    <row r="394" spans="1:4">
+      <c r="A394" s="2">
         <v>41974</v>
       </c>
-      <c r="B394" t="n">
+      <c r="B394">
         <v>2080329000000</v>
       </c>
-      <c r="C394" t="n">
+      <c r="C394">
         <v>1.558360604643914</v>
       </c>
-      <c r="D394" t="n">
+      <c r="D394">
         <v>3241902758298.27</v>
       </c>
     </row>
-    <row r="395">
-      <c r="A395" s="2" t="n">
+    <row r="395" spans="1:4">
+      <c r="A395" s="2">
         <v>42005</v>
       </c>
-      <c r="B395" t="n">
+      <c r="B395">
         <v>2073808000000</v>
       </c>
-      <c r="C395" t="n">
+      <c r="C395">
         <v>1.506250941406838</v>
       </c>
-      <c r="D395" t="n">
+      <c r="D395">
         <v>3123675252297.033</v>
       </c>
     </row>
-    <row r="396">
-      <c r="A396" s="2" t="n">
+    <row r="396" spans="1:4">
+      <c r="A396" s="2">
         <v>42036</v>
       </c>
-      <c r="B396" t="n">
+      <c r="B396">
         <v>2070258000000</v>
       </c>
-      <c r="C396" t="n">
+      <c r="C396">
         <v>1.544401544401544</v>
       </c>
-      <c r="D396" t="n">
+      <c r="D396">
         <v>3197309652509.652</v>
       </c>
     </row>
-    <row r="397">
-      <c r="A397" s="2" t="n">
+    <row r="397" spans="1:4">
+      <c r="A397" s="2">
         <v>42064</v>
       </c>
-      <c r="B397" t="n">
+      <c r="B397">
         <v>2088266000000</v>
       </c>
-      <c r="C397" t="n">
+      <c r="C397">
         <v>1.483239394838327</v>
       </c>
-      <c r="D397" t="n">
+      <c r="D397">
         <v>3097398398101.454</v>
       </c>
     </row>
-    <row r="398">
-      <c r="A398" s="2" t="n">
+    <row r="398" spans="1:4">
+      <c r="A398" s="2">
         <v>42095</v>
       </c>
-      <c r="B398" t="n">
+      <c r="B398">
         <v>2093872000000</v>
       </c>
-      <c r="C398" t="n">
+      <c r="C398">
         <v>1.534801626889725</v>
       </c>
-      <c r="D398" t="n">
+      <c r="D398">
         <v>3213678152098.841</v>
       </c>
     </row>
-    <row r="399">
-      <c r="A399" s="2" t="n">
+    <row r="399" spans="1:4">
+      <c r="A399" s="2">
         <v>42125</v>
       </c>
-      <c r="B399" t="n">
+      <c r="B399">
         <v>2090446000000</v>
       </c>
-      <c r="C399" t="n">
+      <c r="C399">
         <v>1.528701368187724</v>
       </c>
-      <c r="D399" t="n">
+      <c r="D399">
         <v>3195667660322.556</v>
       </c>
     </row>
-    <row r="400">
-      <c r="A400" s="2" t="n">
+    <row r="400" spans="1:4">
+      <c r="A400" s="2">
         <v>42156</v>
       </c>
-      <c r="B400" t="n">
+      <c r="B400">
         <v>2088205000000</v>
       </c>
-      <c r="C400" t="n">
+      <c r="C400">
         <v>1.571388164304347</v>
       </c>
-      <c r="D400" t="n">
+      <c r="D400">
         <v>3281380621641.158</v>
       </c>
     </row>
-    <row r="401">
-      <c r="A401" s="2" t="n">
+    <row r="401" spans="1:4">
+      <c r="A401" s="2">
         <v>42186</v>
       </c>
-      <c r="B401" t="n">
+      <c r="B401">
         <v>2102076000000</v>
       </c>
-      <c r="C401" t="n">
+      <c r="C401">
         <v>1.562207086171343</v>
       </c>
-      <c r="D401" t="n">
+      <c r="D401">
         <v>3283878022870.712</v>
       </c>
     </row>
-    <row r="402">
-      <c r="A402" s="2" t="n">
+    <row r="402" spans="1:4">
+      <c r="A402" s="2">
         <v>42217</v>
       </c>
-      <c r="B402" t="n">
+      <c r="B402">
         <v>2103164000000</v>
       </c>
-      <c r="C402" t="n">
+      <c r="C402">
         <v>1.534589650727396</v>
       </c>
-      <c r="D402" t="n">
+      <c r="D402">
         <v>3227493708182.432</v>
       </c>
     </row>
-    <row r="403">
-      <c r="A403" s="2" t="n">
+    <row r="403" spans="1:4">
+      <c r="A403" s="2">
         <v>42248</v>
       </c>
-      <c r="B403" t="n">
+      <c r="B403">
         <v>2111984000000</v>
       </c>
-      <c r="C403" t="n">
+      <c r="C403">
         <v>1.512538947877908</v>
       </c>
-      <c r="D403" t="n">
+      <c r="D403">
         <v>3194458057294.976</v>
       </c>
     </row>
-    <row r="404">
-      <c r="A404" s="2" t="n">
+    <row r="404" spans="1:4">
+      <c r="A404" s="2">
         <v>42278</v>
       </c>
-      <c r="B404" t="n">
+      <c r="B404">
         <v>2124264000000</v>
       </c>
-      <c r="C404" t="n">
+      <c r="C404">
         <v>1.543519533239693</v>
       </c>
-      <c r="D404" t="n">
+      <c r="D404">
         <v>3278842977757.884</v>
       </c>
     </row>
-    <row r="405">
-      <c r="A405" s="2" t="n">
+    <row r="405" spans="1:4">
+      <c r="A405" s="2">
         <v>42309</v>
       </c>
-      <c r="B405" t="n">
+      <c r="B405">
         <v>2120899000000</v>
       </c>
-      <c r="C405" t="n">
+      <c r="C405">
         <v>1.505706628120577</v>
       </c>
-      <c r="D405" t="n">
+      <c r="D405">
         <v>3193451681874.304</v>
       </c>
     </row>
-    <row r="406">
-      <c r="A406" s="2" t="n">
+    <row r="406" spans="1:4">
+      <c r="A406" s="2">
         <v>42339</v>
       </c>
-      <c r="B406" t="n">
+      <c r="B406">
         <v>2132947000000</v>
       </c>
-      <c r="C406" t="n">
+      <c r="C406">
         <v>1.473600447974536</v>
       </c>
-      <c r="D406" t="n">
+      <c r="D406">
         <v>3143111654705.943</v>
       </c>
     </row>
-    <row r="407">
-      <c r="A407" s="2" t="n">
+    <row r="407" spans="1:4">
+      <c r="A407" s="2">
         <v>42370</v>
       </c>
-      <c r="B407" t="n">
+      <c r="B407">
         <v>2159028000000</v>
       </c>
-      <c r="C407" t="n">
+      <c r="C407">
         <v>1.424278246998333</v>
       </c>
-      <c r="D407" t="n">
+      <c r="D407">
         <v>3075056615060.318</v>
       </c>
     </row>
-    <row r="408">
-      <c r="A408" s="2" t="n">
+    <row r="408" spans="1:4">
+      <c r="A408" s="2">
         <v>42401</v>
       </c>
-      <c r="B408" t="n">
+      <c r="B408">
         <v>2181982000000</v>
       </c>
-      <c r="C408" t="n">
+      <c r="C408">
         <v>1.391594767603674</v>
       </c>
-      <c r="D408" t="n">
+      <c r="D408">
         <v>3036434734205.399</v>
       </c>
     </row>
-    <row r="409">
-      <c r="A409" s="2" t="n">
+    <row r="409" spans="1:4">
+      <c r="A409" s="2">
         <v>42430</v>
       </c>
-      <c r="B409" t="n">
+      <c r="B409">
         <v>2183304000000</v>
       </c>
-      <c r="C409" t="n">
+      <c r="C409">
         <v>1.436513294930545</v>
       </c>
-      <c r="D409" t="n">
+      <c r="D409">
         <v>3136345222875.038</v>
       </c>
     </row>
-    <row r="410">
-      <c r="A410" s="2" t="n">
+    <row r="410" spans="1:4">
+      <c r="A410" s="2">
         <v>42461</v>
       </c>
-      <c r="B410" t="n">
+      <c r="B410">
         <v>2177769000000</v>
       </c>
-      <c r="C410" t="n">
+      <c r="C410">
         <v>1.460984411296331</v>
       </c>
-      <c r="D410" t="n">
+      <c r="D410">
         <v>3181686560404.4</v>
       </c>
     </row>
-    <row r="411">
-      <c r="A411" s="2" t="n">
+    <row r="411" spans="1:4">
+      <c r="A411" s="2">
         <v>42491</v>
       </c>
-      <c r="B411" t="n">
+      <c r="B411">
         <v>2179996000000</v>
       </c>
-      <c r="C411" t="n">
+      <c r="C411">
         <v>1.448204949964519</v>
       </c>
-      <c r="D411" t="n">
+      <c r="D411">
         <v>3157080998102.852</v>
       </c>
     </row>
-    <row r="412">
-      <c r="A412" s="2" t="n">
+    <row r="412" spans="1:4">
+      <c r="A412" s="2">
         <v>42522</v>
       </c>
-      <c r="B412" t="n">
+      <c r="B412">
         <v>2245921000000</v>
       </c>
-      <c r="C412" t="n">
+      <c r="C412">
         <v>1.328762390709293</v>
       </c>
-      <c r="D412" t="n">
+      <c r="D412">
         <v>2984295357304.207</v>
       </c>
     </row>
-    <row r="413">
-      <c r="A413" s="2" t="n">
+    <row r="413" spans="1:4">
+      <c r="A413" s="2">
         <v>42552</v>
       </c>
-      <c r="B413" t="n">
+      <c r="B413">
         <v>2255333000000</v>
       </c>
-      <c r="C413" t="n">
+      <c r="C413">
         <v>1.323171377156769</v>
       </c>
-      <c r="D413" t="n">
+      <c r="D413">
         <v>2984192071557.108</v>
       </c>
     </row>
-    <row r="414">
-      <c r="A414" s="2" t="n">
+    <row r="414" spans="1:4">
+      <c r="A414" s="2">
         <v>42583</v>
       </c>
-      <c r="B414" t="n">
+      <c r="B414">
         <v>2269290000000</v>
       </c>
-      <c r="C414" t="n">
+      <c r="C414">
         <v>1.314008646176892</v>
       </c>
-      <c r="D414" t="n">
+      <c r="D414">
         <v>2981866680682.759</v>
       </c>
     </row>
-    <row r="415">
-      <c r="A415" s="2" t="n">
+    <row r="415" spans="1:4">
+      <c r="A415" s="2">
         <v>42614</v>
       </c>
-      <c r="B415" t="n">
+      <c r="B415">
         <v>2275824000000</v>
       </c>
-      <c r="C415" t="n">
+      <c r="C415">
         <v>1.297875378006204</v>
       </c>
-      <c r="D415" t="n">
+      <c r="D415">
         <v>2953735934275.591</v>
       </c>
     </row>
-    <row r="416">
-      <c r="A416" s="2" t="n">
+    <row r="416" spans="1:4">
+      <c r="A416" s="2">
         <v>42644</v>
       </c>
-      <c r="B416" t="n">
+      <c r="B416">
         <v>2290205000000</v>
       </c>
-      <c r="C416" t="n">
+      <c r="C416">
         <v>1.223945265167742</v>
       </c>
-      <c r="D416" t="n">
+      <c r="D416">
         <v>2803085566013.488</v>
       </c>
     </row>
-    <row r="417">
-      <c r="A417" s="2" t="n">
+    <row r="417" spans="1:4">
+      <c r="A417" s="2">
         <v>42675</v>
       </c>
-      <c r="B417" t="n">
+      <c r="B417">
         <v>2277516000000</v>
       </c>
-      <c r="C417" t="n">
+      <c r="C417">
         <v>1.250750450270162</v>
       </c>
-      <c r="D417" t="n">
+      <c r="D417">
         <v>2848604162497.499</v>
       </c>
     </row>
-    <row r="418">
-      <c r="A418" s="2" t="n">
+    <row r="418" spans="1:4">
+      <c r="A418" s="2">
         <v>42705</v>
       </c>
-      <c r="B418" t="n">
+      <c r="B418">
         <v>2280428000000</v>
       </c>
-      <c r="C418" t="n">
+      <c r="C418">
         <v>1.23449169804333</v>
       </c>
-      <c r="D418" t="n">
+      <c r="D418">
         <v>2815169433985.556</v>
       </c>
     </row>
-    <row r="419">
-      <c r="A419" s="2" t="n">
+    <row r="419" spans="1:4">
+      <c r="A419" s="2">
         <v>42736</v>
       </c>
-      <c r="B419" t="n">
+      <c r="B419">
         <v>2281087000000</v>
       </c>
-      <c r="C419" t="n">
+      <c r="C419">
         <v>1.257940750990628</v>
       </c>
-      <c r="D419" t="n">
+      <c r="D419">
         <v>2869472293854.959</v>
       </c>
     </row>
-    <row r="420">
-      <c r="A420" s="2" t="n">
+    <row r="420" spans="1:4">
+      <c r="A420" s="2">
         <v>42767</v>
       </c>
-      <c r="B420" t="n">
+      <c r="B420">
         <v>2287240000000</v>
       </c>
-      <c r="C420" t="n">
+      <c r="C420">
         <v>1.238236750866766</v>
       </c>
-      <c r="D420" t="n">
+      <c r="D420">
         <v>2832144626052.501</v>
       </c>
     </row>
-    <row r="421">
-      <c r="A421" s="2" t="n">
+    <row r="421" spans="1:4">
+      <c r="A421" s="2">
         <v>42795</v>
       </c>
-      <c r="B421" t="n">
+      <c r="B421">
         <v>2294915000000</v>
       </c>
-      <c r="C421" t="n">
+      <c r="C421">
         <v>1.254500520617716</v>
       </c>
-      <c r="D421" t="n">
+      <c r="D421">
         <v>2878972062273.406</v>
       </c>
     </row>
-    <row r="422">
-      <c r="A422" s="2" t="n">
+    <row r="422" spans="1:4">
+      <c r="A422" s="2">
         <v>42826</v>
       </c>
-      <c r="B422" t="n">
+      <c r="B422">
         <v>2302035000000</v>
       </c>
-      <c r="C422" t="n">
+      <c r="C422">
         <v>1.295018065502014</v>
       </c>
-      <c r="D422" t="n">
+      <c r="D422">
         <v>2981176912417.928</v>
       </c>
     </row>
-    <row r="423">
-      <c r="A423" s="2" t="n">
+    <row r="423" spans="1:4">
+      <c r="A423" s="2">
         <v>42856</v>
       </c>
-      <c r="B423" t="n">
+      <c r="B423">
         <v>2309303000000</v>
       </c>
-      <c r="C423" t="n">
+      <c r="C423">
         <v>1.287316074715825</v>
       </c>
-      <c r="D423" t="n">
+      <c r="D423">
         <v>2972802873289.479</v>
       </c>
     </row>
-    <row r="424">
-      <c r="A424" s="2" t="n">
+    <row r="424" spans="1:4">
+      <c r="A424" s="2">
         <v>42887</v>
       </c>
-      <c r="B424" t="n">
+      <c r="B424">
         <v>2315462000000</v>
       </c>
-      <c r="C424" t="n">
+      <c r="C424">
         <v>1.302677001237543</v>
       </c>
-      <c r="D424" t="n">
+      <c r="D424">
         <v>3016299094639.484</v>
       </c>
     </row>
-    <row r="425">
-      <c r="A425" s="2" t="n">
+    <row r="425" spans="1:4">
+      <c r="A425" s="2">
         <v>42917</v>
       </c>
-      <c r="B425" t="n">
+      <c r="B425">
         <v>2310118000000</v>
       </c>
-      <c r="C425" t="n">
+      <c r="C425">
         <v>1.320742257148517</v>
       </c>
-      <c r="D425" t="n">
+      <c r="D425">
         <v>3051070461599.419</v>
       </c>
     </row>
-    <row r="426">
-      <c r="A426" s="2" t="n">
+    <row r="426" spans="1:4">
+      <c r="A426" s="2">
         <v>42948</v>
       </c>
-      <c r="B426" t="n">
+      <c r="B426">
         <v>2332401000000</v>
       </c>
-      <c r="C426" t="n">
+      <c r="C426">
         <v>1.292791395180474</v>
       </c>
-      <c r="D426" t="n">
+      <c r="D426">
         <v>3015307942910.332</v>
       </c>
     </row>
-    <row r="427">
-      <c r="A427" s="2" t="n">
+    <row r="427" spans="1:4">
+      <c r="A427" s="2">
         <v>42979</v>
       </c>
-      <c r="B427" t="n">
+      <c r="B427">
         <v>2338246000000</v>
       </c>
-      <c r="C427" t="n">
+      <c r="C427">
         <v>1.339764201500536</v>
       </c>
-      <c r="D427" t="n">
+      <c r="D427">
         <v>3132698285101.822</v>
       </c>
     </row>
-    <row r="428">
-      <c r="A428" s="2" t="n">
+    <row r="428" spans="1:4">
+      <c r="A428" s="2">
         <v>43009</v>
       </c>
-      <c r="B428" t="n">
+      <c r="B428">
         <v>2340072000000</v>
       </c>
-      <c r="C428" t="n">
+      <c r="C428">
         <v>1.328427009577959</v>
       </c>
-      <c r="D428" t="n">
+      <c r="D428">
         <v>3108614849157.113</v>
       </c>
     </row>
-    <row r="429">
-      <c r="A429" s="2" t="n">
+    <row r="429" spans="1:4">
+      <c r="A429" s="2">
         <v>43040</v>
       </c>
-      <c r="B429" t="n">
+      <c r="B429">
         <v>2344772000000</v>
       </c>
-      <c r="C429" t="n">
+      <c r="C429">
         <v>1.352905364269769</v>
       </c>
-      <c r="D429" t="n">
+      <c r="D429">
         <v>3172254616789.556</v>
       </c>
     </row>
-    <row r="430">
-      <c r="A430" s="2" t="n">
+    <row r="430" spans="1:4">
+      <c r="A430" s="2">
         <v>43070</v>
       </c>
-      <c r="B430" t="n">
+      <c r="B430">
         <v>2346035000000</v>
       </c>
-      <c r="C430" t="n">
+      <c r="C430">
         <v>1.351351351351351</v>
       </c>
-      <c r="D430" t="n">
+      <c r="D430">
         <v>3170317567567.567</v>
       </c>
     </row>
-    <row r="431">
-      <c r="A431" s="2" t="n">
+    <row r="431" spans="1:4">
+      <c r="A431" s="2">
         <v>43101</v>
       </c>
-      <c r="B431" t="n">
+      <c r="B431">
         <v>2357302000000</v>
       </c>
-      <c r="C431" t="n">
+      <c r="C431">
         <v>1.419385973627809</v>
       </c>
-      <c r="D431" t="n">
+      <c r="D431">
         <v>3345921394404.781</v>
       </c>
     </row>
-    <row r="432">
-      <c r="A432" s="2" t="n">
+    <row r="432" spans="1:4">
+      <c r="A432" s="2">
         <v>43132</v>
       </c>
-      <c r="B432" t="n">
+      <c r="B432">
         <v>2359071000000</v>
       </c>
-      <c r="C432" t="n">
+      <c r="C432">
         <v>1.376026860044308</v>
       </c>
-      <c r="D432" t="n">
+      <c r="D432">
         <v>3246145060751.586</v>
       </c>
     </row>
-    <row r="433">
-      <c r="A433" s="2" t="n">
+    <row r="433" spans="1:4">
+      <c r="A433" s="2">
         <v>43160</v>
       </c>
-      <c r="B433" t="n">
+      <c r="B433">
         <v>2347292000000</v>
       </c>
-      <c r="C433" t="n">
+      <c r="C433">
         <v>1.401600627917081</v>
       </c>
-      <c r="D433" t="n">
+      <c r="D433">
         <v>3289965941104.741</v>
       </c>
     </row>
-    <row r="434">
-      <c r="A434" s="2" t="n">
+    <row r="434" spans="1:4">
+      <c r="A434" s="2">
         <v>43191</v>
       </c>
-      <c r="B434" t="n">
+      <c r="B434">
         <v>2351932000000</v>
       </c>
-      <c r="C434" t="n">
+      <c r="C434">
         <v>1.37680361273268</v>
       </c>
-      <c r="D434" t="n">
+      <c r="D434">
         <v>3238148474501.597</v>
       </c>
     </row>
-    <row r="435">
-      <c r="A435" s="2" t="n">
+    <row r="435" spans="1:4">
+      <c r="A435" s="2">
         <v>43221</v>
       </c>
-      <c r="B435" t="n">
+      <c r="B435">
         <v>2372075000000</v>
       </c>
-      <c r="C435" t="n">
+      <c r="C435">
         <v>1.329469010077375</v>
       </c>
-      <c r="D435" t="n">
+      <c r="D435">
         <v>3153600202079.29</v>
       </c>
     </row>
-    <row r="436">
-      <c r="A436" s="2" t="n">
+    <row r="436" spans="1:4">
+      <c r="A436" s="2">
         <v>43252</v>
       </c>
-      <c r="B436" t="n">
+      <c r="B436">
         <v>2371730000000</v>
       </c>
-      <c r="C436" t="n">
+      <c r="C436">
         <v>1.320620163228652</v>
       </c>
-      <c r="D436" t="n">
+      <c r="D436">
         <v>3132154459734.292</v>
       </c>
     </row>
-    <row r="437">
-      <c r="A437" s="2" t="n">
+    <row r="437" spans="1:4">
+      <c r="A437" s="2">
         <v>43282</v>
       </c>
-      <c r="B437" t="n">
+      <c r="B437">
         <v>2371507000000</v>
       </c>
-      <c r="C437" t="n">
+      <c r="C437">
         <v>1.311733455761789</v>
       </c>
-      <c r="D437" t="n">
+      <c r="D437">
         <v>3110785072473.273</v>
       </c>
     </row>
-    <row r="438">
-      <c r="A438" s="2" t="n">
+    <row r="438" spans="1:4">
+      <c r="A438" s="2">
         <v>43313</v>
       </c>
-      <c r="B438" t="n">
+      <c r="B438">
         <v>2375015000000</v>
       </c>
-      <c r="C438" t="n">
+      <c r="C438">
         <v>1.295706030215865</v>
       </c>
-      <c r="D438" t="n">
+      <c r="D438">
         <v>3077321257353.131</v>
       </c>
     </row>
-    <row r="439">
-      <c r="A439" s="2" t="n">
+    <row r="439" spans="1:4">
+      <c r="A439" s="2">
         <v>43344</v>
       </c>
-      <c r="B439" t="n">
+      <c r="B439">
         <v>2388940000000</v>
       </c>
-      <c r="C439" t="n">
+      <c r="C439">
         <v>1.303237241307408</v>
       </c>
-      <c r="D439" t="n">
+      <c r="D439">
         <v>3113355575248.918</v>
       </c>
     </row>
-    <row r="440">
-      <c r="A440" s="2" t="n">
+    <row r="440" spans="1:4">
+      <c r="A440" s="2">
         <v>43374</v>
       </c>
-      <c r="B440" t="n">
+      <c r="B440">
         <v>2416323000000</v>
       </c>
-      <c r="C440" t="n">
+      <c r="C440">
         <v>1.276959814074651</v>
       </c>
-      <c r="D440" t="n">
+      <c r="D440">
         <v>3085547368824.303</v>
       </c>
     </row>
-    <row r="441">
-      <c r="A441" s="2" t="n">
+    <row r="441" spans="1:4">
+      <c r="A441" s="2">
         <v>43405</v>
       </c>
-      <c r="B441" t="n">
+      <c r="B441">
         <v>2414471000000</v>
       </c>
-      <c r="C441" t="n">
+      <c r="C441">
         <v>1.275152380709495</v>
       </c>
-      <c r="D441" t="n">
+      <c r="D441">
         <v>3078818443804.034</v>
       </c>
     </row>
-    <row r="442">
-      <c r="A442" s="2" t="n">
+    <row r="442" spans="1:4">
+      <c r="A442" s="2">
         <v>43435</v>
       </c>
-      <c r="B442" t="n">
+      <c r="B442">
         <v>2414673000000</v>
       </c>
-      <c r="C442" t="n">
+      <c r="C442">
         <v>1.275705465122213</v>
       </c>
-      <c r="D442" t="n">
+      <c r="D442">
         <v>3080411542583.048</v>
       </c>
     </row>
-    <row r="443">
-      <c r="A443" s="2" t="n">
+    <row r="443" spans="1:4">
+      <c r="A443" s="2">
         <v>43466</v>
       </c>
-      <c r="B443" t="n">
+      <c r="B443">
         <v>2407134000000</v>
       </c>
-      <c r="C443" t="n">
+      <c r="C443">
         <v>1.311114316057217</v>
       </c>
-      <c r="D443" t="n">
+      <c r="D443">
         <v>3156027848068.073</v>
       </c>
     </row>
-    <row r="444">
-      <c r="A444" s="2" t="n">
+    <row r="444" spans="1:4">
+      <c r="A444" s="2">
         <v>43497</v>
       </c>
-      <c r="B444" t="n">
+      <c r="B444">
         <v>2403459000000</v>
       </c>
-      <c r="C444" t="n">
+      <c r="C444">
         <v>1.326277536837358</v>
       </c>
-      <c r="D444" t="n">
+      <c r="D444">
         <v>3187653682409.581</v>
       </c>
     </row>
-    <row r="445">
-      <c r="A445" s="2" t="n">
+    <row r="445" spans="1:4">
+      <c r="A445" s="2">
         <v>43525</v>
       </c>
-      <c r="B445" t="n">
+      <c r="B445">
         <v>2415238000000</v>
       </c>
-      <c r="C445" t="n">
+      <c r="C445">
         <v>1.304597401241977</v>
       </c>
-      <c r="D445" t="n">
+      <c r="D445">
         <v>3150913218180.87</v>
       </c>
     </row>
-    <row r="446">
-      <c r="A446" s="2" t="n">
+    <row r="446" spans="1:4">
+      <c r="A446" s="2">
         <v>43556</v>
       </c>
-      <c r="B446" t="n">
+      <c r="B446">
         <v>2415149000000</v>
       </c>
-      <c r="C446" t="n">
+      <c r="C446">
         <v>1.303322168206759</v>
       </c>
-      <c r="D446" t="n">
+      <c r="D446">
         <v>3147717231222.386</v>
       </c>
     </row>
-    <row r="447">
-      <c r="A447" s="2" t="n">
+    <row r="447" spans="1:4">
+      <c r="A447" s="2">
         <v>43586</v>
       </c>
-      <c r="B447" t="n">
+      <c r="B447">
         <v>2405921000000</v>
       </c>
-      <c r="C447" t="n">
+      <c r="C447">
         <v>1.263839037460189</v>
       </c>
-      <c r="D447" t="n">
+      <c r="D447">
         <v>3040696880845.255</v>
       </c>
     </row>
-    <row r="448">
-      <c r="A448" s="2" t="n">
+    <row r="448" spans="1:4">
+      <c r="A448" s="2">
         <v>43617</v>
       </c>
-      <c r="B448" t="n">
+      <c r="B448">
         <v>2415770000000</v>
       </c>
-      <c r="C448" t="n">
+      <c r="C448">
         <v>1.269132167423916</v>
       </c>
-      <c r="D448" t="n">
+      <c r="D448">
         <v>3065931416097.672</v>
       </c>
     </row>
-    <row r="449">
-      <c r="A449" s="2" t="n">
+    <row r="449" spans="1:4">
+      <c r="A449" s="2">
         <v>43647</v>
       </c>
-      <c r="B449" t="n">
+      <c r="B449">
         <v>2417956000000</v>
       </c>
-      <c r="C449" t="n">
+      <c r="C449">
         <v>1.215199718073665</v>
       </c>
-      <c r="D449" t="n">
+      <c r="D449">
         <v>2938299449514.527</v>
       </c>
     </row>
-    <row r="450">
-      <c r="A450" s="2" t="n">
+    <row r="450" spans="1:4">
+      <c r="A450" s="2">
         <v>43678</v>
       </c>
-      <c r="B450" t="n">
+      <c r="B450">
         <v>2429486000000</v>
       </c>
-      <c r="C450" t="n">
+      <c r="C450">
         <v>1.216130758379141</v>
       </c>
-      <c r="D450" t="n">
+      <c r="D450">
         <v>2954572651651.506</v>
       </c>
     </row>
-    <row r="451">
-      <c r="A451" s="2" t="n">
+    <row r="451" spans="1:4">
+      <c r="A451" s="2">
         <v>43709</v>
       </c>
-      <c r="B451" t="n">
+      <c r="B451">
         <v>2429391000000</v>
       </c>
-      <c r="C451" t="n">
+      <c r="C451">
         <v>1.229316745752711</v>
       </c>
-      <c r="D451" t="n">
+      <c r="D451">
         <v>2986491038280.924</v>
       </c>
     </row>
-    <row r="452">
-      <c r="A452" s="2" t="n">
+    <row r="452" spans="1:4">
+      <c r="A452" s="2">
         <v>43739</v>
       </c>
-      <c r="B452" t="n">
+      <c r="B452">
         <v>2419713000000</v>
       </c>
-      <c r="C452" t="n">
+      <c r="C452">
         <v>1.292874966062032</v>
       </c>
-      <c r="D452" t="n">
+      <c r="D452">
         <v>3128386362754.858</v>
       </c>
     </row>
-    <row r="453">
-      <c r="A453" s="2" t="n">
+    <row r="453" spans="1:4">
+      <c r="A453" s="2">
         <v>43770</v>
       </c>
-      <c r="B453" t="n">
+      <c r="B453">
         <v>2430432000000</v>
       </c>
-      <c r="C453" t="n">
+      <c r="C453">
         <v>1.293560655059116</v>
       </c>
-      <c r="D453" t="n">
+      <c r="D453">
         <v>3143911209996.637</v>
       </c>
     </row>
-    <row r="454">
-      <c r="A454" s="2" t="n">
+    <row r="454" spans="1:4">
+      <c r="A454" s="2">
         <v>43800</v>
       </c>
-      <c r="B454" t="n">
+      <c r="B454">
         <v>2446557000000</v>
       </c>
-      <c r="C454" t="n">
+      <c r="C454">
         <v>1.326154417420365</v>
       </c>
-      <c r="D454" t="n">
+      <c r="D454">
         <v>3244512373020.715</v>
       </c>
     </row>
-    <row r="455">
-      <c r="A455" s="2" t="n">
+    <row r="455" spans="1:4">
+      <c r="A455" s="2">
         <v>43831</v>
       </c>
-      <c r="B455" t="n">
+      <c r="B455">
         <v>2456339000000</v>
       </c>
-      <c r="C455" t="n">
+      <c r="C455">
         <v>1.320515529262624</v>
       </c>
-      <c r="D455" t="n">
+      <c r="D455">
         <v>3243633794633.425</v>
       </c>
     </row>
-    <row r="456">
-      <c r="A456" s="2" t="n">
+    <row r="456" spans="1:4">
+      <c r="A456" s="2">
         <v>43862</v>
       </c>
-      <c r="B456" t="n">
+      <c r="B456">
         <v>2481709000000</v>
       </c>
-      <c r="C456" t="n">
+      <c r="C456">
         <v>1.281640499839795</v>
       </c>
-      <c r="D456" t="n">
+      <c r="D456">
         <v>3180658763216.918</v>
       </c>
     </row>
-    <row r="457">
-      <c r="A457" s="2" t="n">
+    <row r="457" spans="1:4">
+      <c r="A457" s="2">
         <v>43891</v>
       </c>
-      <c r="B457" t="n">
+      <c r="B457">
         <v>2603794000000</v>
       </c>
-      <c r="C457" t="n">
+      <c r="C457">
         <v>1.243471773190749</v>
       </c>
-      <c r="D457" t="n">
+      <c r="D457">
         <v>3237744342203.432</v>
       </c>
     </row>
-    <row r="458">
-      <c r="A458" s="2" t="n">
+    <row r="458" spans="1:4">
+      <c r="A458" s="2">
         <v>43922</v>
       </c>
-      <c r="B458" t="n">
+      <c r="B458">
         <v>2639714000000</v>
       </c>
-      <c r="C458" t="n">
+      <c r="C458">
         <v>1.259556887886841</v>
       </c>
-      <c r="D458" t="n">
+      <c r="D458">
         <v>3324869950751.325</v>
       </c>
     </row>
-    <row r="459">
-      <c r="A459" s="2" t="n">
+    <row r="459" spans="1:4">
+      <c r="A459" s="2">
         <v>43952</v>
       </c>
-      <c r="B459" t="n">
+      <c r="B459">
         <v>2682519000000</v>
       </c>
-      <c r="C459" t="n">
+      <c r="C459">
         <v>1.235177865612648</v>
       </c>
-      <c r="D459" t="n">
+      <c r="D459">
         <v>3313388092885.375</v>
       </c>
     </row>
-    <row r="460">
-      <c r="A460" s="2" t="n">
+    <row r="460" spans="1:4">
+      <c r="A460" s="2">
         <v>43983</v>
       </c>
-      <c r="B460" t="n">
+      <c r="B460">
         <v>2700321000000</v>
       </c>
-      <c r="C460" t="n">
+      <c r="C460">
         <v>1.240110121778814</v>
       </c>
-      <c r="D460" t="n">
+      <c r="D460">
         <v>3348695404151.889</v>
       </c>
     </row>
-    <row r="461">
-      <c r="A461" s="2" t="n">
+    <row r="461" spans="1:4">
+      <c r="A461" s="2">
         <v>44013</v>
       </c>
-      <c r="B461" t="n">
+      <c r="B461">
         <v>2715730000000</v>
       </c>
-      <c r="C461" t="n">
+      <c r="C461">
         <v>1.308335404864391</v>
       </c>
-      <c r="D461" t="n">
+      <c r="D461">
         <v>3553085709052.373</v>
       </c>
     </row>
-    <row r="462">
-      <c r="A462" s="2" t="n">
+    <row r="462" spans="1:4">
+      <c r="A462" s="2">
         <v>44044</v>
       </c>
-      <c r="B462" t="n">
+      <c r="B462">
         <v>2719354000000</v>
       </c>
-      <c r="C462" t="n">
+      <c r="C462">
         <v>1.336630354875359</v>
       </c>
-      <c r="D462" t="n">
+      <c r="D462">
         <v>3634771102051.728</v>
       </c>
     </row>
-    <row r="463">
-      <c r="A463" s="2" t="n">
+    <row r="463" spans="1:4">
+      <c r="A463" s="2">
         <v>44075</v>
       </c>
-      <c r="B463" t="n">
+      <c r="B463">
         <v>2729336000000</v>
       </c>
-      <c r="C463" t="n">
+      <c r="C463">
         <v>1.291972971925427</v>
       </c>
-      <c r="D463" t="n">
+      <c r="D463">
         <v>3526228343303.058</v>
       </c>
     </row>
-    <row r="464">
-      <c r="A464" s="2" t="n">
+    <row r="464" spans="1:4">
+      <c r="A464" s="2">
         <v>44105</v>
       </c>
-      <c r="B464" t="n">
+      <c r="B464">
         <v>2757401000000</v>
       </c>
-      <c r="C464" t="n">
+      <c r="C464">
         <v>1.29510192452146</v>
       </c>
-      <c r="D464" t="n">
+      <c r="D464">
         <v>3571115341777.397</v>
       </c>
     </row>
-    <row r="465">
-      <c r="A465" s="2" t="n">
+    <row r="465" spans="1:4">
+      <c r="A465" s="2">
         <v>44136</v>
       </c>
-      <c r="B465" t="n">
+      <c r="B465">
         <v>2769646000000</v>
       </c>
-      <c r="C465" t="n">
+      <c r="C465">
         <v>1.332480545784031</v>
       </c>
-      <c r="D465" t="n">
+      <c r="D465">
         <v>3690499413708.56</v>
       </c>
     </row>
-    <row r="466">
-      <c r="A466" s="2" t="n">
+    <row r="466" spans="1:4">
+      <c r="A466" s="2">
         <v>44166</v>
       </c>
-      <c r="B466" t="n">
+      <c r="B466">
         <v>2810605000000</v>
       </c>
-      <c r="C466" t="n">
+      <c r="C466">
         <v>1.366288204833928</v>
       </c>
-      <c r="D466" t="n">
+      <c r="D466">
         <v>3840096459947.262</v>
       </c>
     </row>
-    <row r="467">
-      <c r="A467" s="2" t="n">
+    <row r="467" spans="1:4">
+      <c r="A467" s="2">
         <v>44197</v>
       </c>
-      <c r="B467" t="n">
+      <c r="B467">
         <v>2821228000000</v>
       </c>
-      <c r="C467" t="n">
+      <c r="C467">
         <v>1.370050691875599</v>
       </c>
-      <c r="D467" t="n">
+      <c r="D467">
         <v>3865225373338.814</v>
       </c>
     </row>
-    <row r="468">
-      <c r="A468" s="2" t="n">
+    <row r="468" spans="1:4">
+      <c r="A468" s="2">
         <v>44228</v>
       </c>
-      <c r="B468" t="n">
+      <c r="B468">
         <v>2842868000000</v>
       </c>
-      <c r="C468" t="n">
+      <c r="C468">
         <v>1.392079070091181</v>
       </c>
-      <c r="D468" t="n">
+      <c r="D468">
         <v>3957497041831.976</v>
       </c>
     </row>
-    <row r="469">
-      <c r="A469" s="2" t="n">
+    <row r="469" spans="1:4">
+      <c r="A469" s="2">
         <v>44256</v>
       </c>
-      <c r="B469" t="n">
+      <c r="B469">
         <v>2858521000000</v>
       </c>
-      <c r="C469" t="n">
+      <c r="C469">
         <v>1.378169790518192</v>
       </c>
-      <c r="D469" t="n">
+      <c r="D469">
         <v>3939527287761.852</v>
       </c>
     </row>
-    <row r="470">
-      <c r="A470" s="2" t="n">
+    <row r="470" spans="1:4">
+      <c r="A470" s="2">
         <v>44287</v>
       </c>
-      <c r="B470" t="n">
+      <c r="B470">
         <v>2875638000000</v>
       </c>
-      <c r="C470" t="n">
+      <c r="C470">
         <v>1.381654392970142</v>
       </c>
-      <c r="D470" t="n">
+      <c r="D470">
         <v>3973137875291.874</v>
       </c>
     </row>
-    <row r="471">
-      <c r="A471" s="2" t="n">
+    <row r="471" spans="1:4">
+      <c r="A471" s="2">
         <v>44317</v>
       </c>
-      <c r="B471" t="n">
+      <c r="B471">
         <v>2870729000000</v>
       </c>
-      <c r="C471" t="n">
+      <c r="C471">
         <v>1.420555437175936</v>
       </c>
-      <c r="D471" t="n">
+      <c r="D471">
         <v>4078029689608.637</v>
       </c>
     </row>
-    <row r="472">
-      <c r="A472" s="2" t="n">
+    <row r="472" spans="1:4">
+      <c r="A472" s="2">
         <v>44348</v>
       </c>
-      <c r="B472" t="n">
+      <c r="B472">
         <v>2887930000000</v>
       </c>
-      <c r="C472" t="n">
+      <c r="C472">
         <v>1.382934587194026</v>
       </c>
-      <c r="D472" t="n">
+      <c r="D472">
         <v>3993818282395.243</v>
       </c>
     </row>
-    <row r="473">
-      <c r="A473" s="2" t="n">
+    <row r="473" spans="1:4">
+      <c r="A473" s="2">
         <v>44378</v>
       </c>
-      <c r="B473" t="n">
+      <c r="B473">
         <v>2892060000000</v>
       </c>
-      <c r="C473" t="n">
+      <c r="C473">
         <v>1.390607834684541</v>
       </c>
-      <c r="D473" t="n">
+      <c r="D473">
         <v>4021721294377.772</v>
       </c>
     </row>
-    <row r="474">
-      <c r="A474" s="2" t="n">
+    <row r="474" spans="1:4">
+      <c r="A474" s="2">
         <v>44409</v>
       </c>
-      <c r="B474" t="n">
+      <c r="B474">
         <v>2890721000000</v>
       </c>
-      <c r="C474" t="n">
+      <c r="C474">
         <v>1.375459059461095</v>
       </c>
-      <c r="D474" t="n">
+      <c r="D474">
         <v>3976068387824.437</v>
       </c>
     </row>
-    <row r="475">
-      <c r="A475" s="2" t="n">
+    <row r="475" spans="1:4">
+      <c r="A475" s="2">
         <v>44440</v>
       </c>
-      <c r="B475" t="n">
+      <c r="B475">
         <v>2933670000000</v>
       </c>
-      <c r="C475" t="n">
+      <c r="C475">
         <v>1.347745222243187</v>
       </c>
-      <c r="D475" t="n">
+      <c r="D475">
         <v>3953839726138.171</v>
       </c>
     </row>
-    <row r="476">
-      <c r="A476" s="2" t="n">
+    <row r="476" spans="1:4">
+      <c r="A476" s="2">
         <v>44470</v>
       </c>
-      <c r="B476" t="n">
+      <c r="B476">
         <v>2946167000000</v>
       </c>
-      <c r="C476" t="n">
+      <c r="C476">
         <v>1.370275973581079</v>
       </c>
-      <c r="D476" t="n">
+      <c r="D476">
         <v>4037061854257.447</v>
       </c>
     </row>
-    <row r="477">
-      <c r="A477" s="2" t="n">
+    <row r="477" spans="1:4">
+      <c r="A477" s="2">
         <v>44501</v>
       </c>
-      <c r="B477" t="n">
+      <c r="B477">
         <v>2968038000000</v>
       </c>
-      <c r="C477" t="n">
+      <c r="C477">
         <v>1.330353341847595</v>
       </c>
-      <c r="D477" t="n">
+      <c r="D477">
         <v>3948539272030.651</v>
       </c>
     </row>
-    <row r="478">
-      <c r="A478" s="2" t="n">
+    <row r="478" spans="1:4">
+      <c r="A478" s="2">
         <v>44531</v>
       </c>
-      <c r="B478" t="n">
+      <c r="B478">
         <v>2978879000000</v>
       </c>
-      <c r="C478" t="n">
+      <c r="C478">
         <v>1.353473011748146</v>
       </c>
-      <c r="D478" t="n">
+      <c r="D478">
         <v>4031832331763.305</v>
       </c>
     </row>
-    <row r="479">
-      <c r="A479" s="2" t="n">
+    <row r="479" spans="1:4">
+      <c r="A479" s="2">
         <v>44562</v>
       </c>
-      <c r="B479" t="n">
+      <c r="B479">
         <v>2970952000000</v>
       </c>
-      <c r="C479" t="n">
+      <c r="C479">
         <v>1.344501660459551</v>
       </c>
-      <c r="D479" t="n">
+      <c r="D479">
         <v>3994449897145.623</v>
       </c>
     </row>
-    <row r="480">
-      <c r="A480" s="2" t="n">
+    <row r="480" spans="1:4">
+      <c r="A480" s="2">
         <v>44593</v>
       </c>
-      <c r="B480" t="n">
+      <c r="B480">
         <v>2988480000000</v>
       </c>
-      <c r="C480" t="n">
+      <c r="C480">
         <v>1.34197565656159</v>
       </c>
-      <c r="D480" t="n">
+      <c r="D480">
         <v>4010467410121.18</v>
       </c>
     </row>
-    <row r="481">
-      <c r="A481" s="2" t="n">
+    <row r="481" spans="1:4">
+      <c r="A481" s="2">
         <v>44621</v>
       </c>
-      <c r="B481" t="n">
+      <c r="B481">
         <v>3032901000000</v>
       </c>
-      <c r="C481" t="n">
+      <c r="C481">
         <v>1.313905057220565</v>
       </c>
-      <c r="D481" t="n">
+      <c r="D481">
         <v>3984943961949.31</v>
       </c>
     </row>
-    <row r="482">
-      <c r="A482" s="2" t="n">
+    <row r="482" spans="1:4">
+      <c r="A482" s="2">
         <v>44652</v>
       </c>
-      <c r="B482" t="n">
+      <c r="B482">
         <v>3040249000000</v>
       </c>
-      <c r="C482" t="n">
+      <c r="C482">
         <v>1.257308103350726</v>
       </c>
-      <c r="D482" t="n">
+      <c r="D482">
         <v>3822529703903.941</v>
       </c>
     </row>
-    <row r="483">
-      <c r="A483" s="2" t="n">
+    <row r="483" spans="1:4">
+      <c r="A483" s="2">
         <v>44682</v>
       </c>
-      <c r="B483" t="n">
+      <c r="B483">
         <v>3040088000000</v>
       </c>
-      <c r="C483" t="n">
+      <c r="C483">
         <v>1.260112402026261</v>
       </c>
-      <c r="D483" t="n">
+      <c r="D483">
         <v>3830852592051.211</v>
       </c>
     </row>
-    <row r="484">
-      <c r="A484" s="2" t="n">
+    <row r="484" spans="1:4">
+      <c r="A484" s="2">
         <v>44713</v>
       </c>
-      <c r="B484" t="n">
+      <c r="B484">
         <v>3068538000000</v>
       </c>
-      <c r="C484" t="n">
+      <c r="C484">
         <v>1.217626359175424</v>
       </c>
-      <c r="D484" t="n">
+      <c r="D484">
         <v>3736332752931.436</v>
       </c>
     </row>
-    <row r="485">
-      <c r="A485" s="2" t="n">
+    <row r="485" spans="1:4">
+      <c r="A485" s="2">
         <v>44743</v>
       </c>
-      <c r="B485" t="n">
+      <c r="B485">
         <v>3076742000000</v>
       </c>
-      <c r="C485" t="n">
+      <c r="C485">
         <v>1.218011960877456</v>
       </c>
-      <c r="D485" t="n">
+      <c r="D485">
         <v>3747508556534.025</v>
       </c>
     </row>
-    <row r="486">
-      <c r="A486" s="2" t="n">
+    <row r="486" spans="1:4">
+      <c r="A486" s="2">
         <v>44774</v>
       </c>
-      <c r="B486" t="n">
+      <c r="B486">
         <v>3105571000000</v>
       </c>
-      <c r="C486" t="n">
+      <c r="C486">
         <v>1.161750525692113</v>
       </c>
-      <c r="D486" t="n">
+      <c r="D486">
         <v>3607898741824.18</v>
       </c>
     </row>
-    <row r="487">
-      <c r="A487" s="2" t="n">
+    <row r="487" spans="1:4">
+      <c r="A487" s="2">
         <v>44805</v>
       </c>
-      <c r="B487" t="n">
+      <c r="B487">
         <v>3217985000000</v>
       </c>
-      <c r="C487" t="n">
+      <c r="C487">
         <v>1.116769409452336</v>
       </c>
-      <c r="D487" t="n">
+      <c r="D487">
         <v>3593747208076.476</v>
       </c>
     </row>
-    <row r="488">
-      <c r="A488" s="2" t="n">
+    <row r="488" spans="1:4">
+      <c r="A488" s="2">
         <v>44835</v>
       </c>
-      <c r="B488" t="n">
+      <c r="B488">
         <v>3099642000000</v>
       </c>
-      <c r="C488" t="n">
+      <c r="C488">
         <v>1.146920518408074</v>
       </c>
-      <c r="D488" t="n">
+      <c r="D488">
         <v>3555043009519.44</v>
       </c>
     </row>
-    <row r="489">
-      <c r="A489" s="2" t="n">
+    <row r="489" spans="1:4">
+      <c r="A489" s="2">
         <v>44866</v>
       </c>
-      <c r="B489" t="n">
+      <c r="B489">
         <v>3096180000000</v>
       </c>
-      <c r="C489" t="n">
+      <c r="C489">
         <v>1.2059234962134</v>
       </c>
-      <c r="D489" t="n">
+      <c r="D489">
         <v>3733756210506.005</v>
       </c>
     </row>
-    <row r="490">
-      <c r="A490" s="2" t="n">
+    <row r="490" spans="1:4">
+      <c r="A490" s="2">
         <v>44896</v>
       </c>
-      <c r="B490" t="n">
+      <c r="B490">
         <v>3067035000000</v>
       </c>
-      <c r="C490" t="n">
+      <c r="C490">
         <v>1.209643276197849</v>
       </c>
-      <c r="D490" t="n">
+      <c r="D490">
         <v>3710018265613.471</v>
       </c>
     </row>
-    <row r="491">
-      <c r="A491" s="2" t="n">
+    <row r="491" spans="1:4">
+      <c r="A491" s="2">
         <v>44927</v>
       </c>
-      <c r="B491" t="n">
+      <c r="B491">
         <v>3094336000000</v>
       </c>
-      <c r="C491" t="n">
+      <c r="C491">
         <v>1.23164843826978</v>
       </c>
-      <c r="D491" t="n">
+      <c r="D491">
         <v>3811134101881.959</v>
       </c>
     </row>
-    <row r="492">
-      <c r="A492" s="2" t="n">
+    <row r="492" spans="1:4">
+      <c r="A492" s="2">
         <v>44958</v>
       </c>
-      <c r="B492" t="n">
+      <c r="B492">
         <v>3097533000000</v>
       </c>
-      <c r="C492" t="n">
+      <c r="C492">
         <v>1.20225543118891</v>
       </c>
-      <c r="D492" t="n">
+      <c r="D492">
         <v>3724025872536.879</v>
       </c>
     </row>
-    <row r="493">
-      <c r="A493" s="2" t="n">
+    <row r="493" spans="1:4">
+      <c r="A493" s="2">
         <v>44986</v>
       </c>
-      <c r="B493" t="n">
+      <c r="B493">
         <v>3069687000000</v>
       </c>
-      <c r="C493" t="n">
+      <c r="C493">
         <v>1.233486696845975</v>
       </c>
-      <c r="D493" t="n">
+      <c r="D493">
         <v>3786418077981.029</v>
       </c>
     </row>
-    <row r="494">
-      <c r="A494" s="2" t="n">
+    <row r="494" spans="1:4">
+      <c r="A494" s="2">
         <v>45017</v>
       </c>
-      <c r="B494" t="n">
+      <c r="B494">
         <v>3057863000000</v>
       </c>
-      <c r="C494" t="n">
+      <c r="C494">
         <v>1.256644507835178</v>
       </c>
-      <c r="D494" t="n">
+      <c r="D494">
         <v>3842646744662.402</v>
       </c>
     </row>
-    <row r="495">
-      <c r="A495" s="2" t="n">
+    <row r="495" spans="1:4">
+      <c r="A495" s="2">
         <v>45047</v>
       </c>
-      <c r="B495" t="n">
+      <c r="B495">
         <v>3058434000000</v>
       </c>
-      <c r="C495" t="n">
+      <c r="C495">
         <v>1.243873920939374</v>
       </c>
-      <c r="D495" t="n">
+      <c r="D495">
         <v>3804306291514.292</v>
       </c>
     </row>
-    <row r="496">
-      <c r="A496" s="2" t="n">
+    <row r="496" spans="1:4">
+      <c r="A496" s="2">
         <v>45078</v>
       </c>
-      <c r="B496" t="n">
+      <c r="B496">
         <v>3044958000000</v>
       </c>
-      <c r="C496" t="n">
+      <c r="C496">
         <v>1.269938027024281</v>
       </c>
-      <c r="D496" t="n">
+      <c r="D496">
         <v>3866907954891.801</v>
       </c>
     </row>
-    <row r="497">
-      <c r="A497" s="2" t="n">
+    <row r="497" spans="1:4">
+      <c r="A497" s="2">
         <v>45108</v>
       </c>
-      <c r="B497" t="n">
+      <c r="B497">
         <v>3014302000000</v>
       </c>
-      <c r="C497" t="n">
+      <c r="C497">
         <v>1.283960762159108</v>
       </c>
-      <c r="D497" t="n">
+      <c r="D497">
         <v>3870245493297.725</v>
       </c>
     </row>
-    <row r="498">
-      <c r="A498" s="2" t="n">
+    <row r="498" spans="1:4">
+      <c r="A498" s="2">
         <v>45139</v>
       </c>
-      <c r="B498" t="n">
+      <c r="B498">
         <v>3032224000000</v>
       </c>
-      <c r="C498" t="n">
+      <c r="C498">
         <v>1.267170155608495</v>
       </c>
-      <c r="D498" t="n">
+      <c r="D498">
         <v>3842343757919.813</v>
       </c>
     </row>
-    <row r="499">
-      <c r="A499" s="2" t="n">
+    <row r="499" spans="1:4">
+      <c r="A499" s="2">
         <v>45170</v>
       </c>
-      <c r="B499" t="n">
+      <c r="B499">
         <v>3031917000000</v>
       </c>
-      <c r="C499" t="n">
+      <c r="C499">
         <v>1.219958521410272</v>
       </c>
-      <c r="D499" t="n">
+      <c r="D499">
         <v>3698812980358.668</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Global_M2/TVDataFeed/FinalData/United Kingdom.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/United Kingdom.xlsx
@@ -405,6638 +405,6644 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>30042</v>
+        <v>30072</v>
       </c>
       <c r="C2">
-        <v>1.79694512859137</v>
+        <v>1.793078780458267</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>30072</v>
+        <v>30103</v>
       </c>
       <c r="C3">
-        <v>1.793078780458267</v>
+        <v>1.743071261232852</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>30103</v>
+        <v>30133</v>
       </c>
       <c r="C4">
-        <v>1.743071261232852</v>
+        <v>1.740643977697338</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>30133</v>
+        <v>30164</v>
       </c>
       <c r="C5">
-        <v>1.740643977697338</v>
+        <v>1.717327808392104</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>30164</v>
+        <v>30195</v>
       </c>
       <c r="C6">
-        <v>1.717327808392104</v>
+        <v>1.694628057865244</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>30195</v>
+        <v>30225</v>
       </c>
       <c r="C7">
-        <v>1.694628057865244</v>
+        <v>1.67644599082803</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>30225</v>
+        <v>30256</v>
       </c>
       <c r="C8">
-        <v>1.67644599082803</v>
+        <v>1.61472627781808</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>30256</v>
+        <v>30286</v>
       </c>
       <c r="C9">
-        <v>1.61472627781808</v>
+        <v>1.617599482368166</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>30286</v>
+        <v>30317</v>
       </c>
       <c r="C10">
-        <v>1.617599482368166</v>
+        <v>1.525320294000606</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>30317</v>
+        <v>30348</v>
       </c>
       <c r="C11">
-        <v>1.525320294000606</v>
+        <v>1.515610814119594</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>30348</v>
+        <v>30376</v>
       </c>
       <c r="C12">
-        <v>1.515610814119594</v>
+        <v>1.481700992739665</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>30376</v>
+        <v>30407</v>
       </c>
       <c r="C13">
-        <v>1.481700992739665</v>
+        <v>1.562011822492602</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>30407</v>
+        <v>30437</v>
       </c>
       <c r="C14">
-        <v>1.562011822492602</v>
+        <v>1.606167632310709</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>30437</v>
+        <v>30468</v>
       </c>
       <c r="C15">
-        <v>1.606167632310709</v>
+        <v>1.534683855125844</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>30468</v>
+        <v>30498</v>
       </c>
       <c r="C16">
-        <v>1.534683855125844</v>
+        <v>1.520450053215752</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <v>30498</v>
+        <v>30529</v>
       </c>
       <c r="C17">
-        <v>1.520450053215752</v>
+        <v>1.493652001398835</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>30529</v>
+        <v>30560</v>
       </c>
       <c r="C18">
-        <v>1.493652001398835</v>
+        <v>1.49499175519522</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
-        <v>30560</v>
+        <v>30590</v>
       </c>
       <c r="C19">
-        <v>1.49499175519522</v>
+        <v>1.494321578003586</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2">
-        <v>30590</v>
+        <v>30621</v>
       </c>
       <c r="C20">
-        <v>1.494321578003586</v>
+        <v>1.466490644772235</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>30621</v>
+        <v>30651</v>
       </c>
       <c r="C21">
-        <v>1.466490644772235</v>
+        <v>1.452010993117149</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
-        <v>30651</v>
+        <v>30682</v>
       </c>
       <c r="C22">
-        <v>1.452010993117149</v>
+        <v>1.403311835578331</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
-        <v>30682</v>
+        <v>30713</v>
       </c>
       <c r="C23">
-        <v>1.403311835578331</v>
+        <v>1.491424354703187</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
-        <v>30713</v>
+        <v>30742</v>
       </c>
       <c r="C24">
-        <v>1.491424354703187</v>
+        <v>1.441545295039778</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
-        <v>30742</v>
+        <v>30773</v>
       </c>
       <c r="C25">
-        <v>1.441545295039778</v>
+        <v>1.396258047979029</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">
-        <v>30773</v>
+        <v>30803</v>
       </c>
       <c r="C26">
-        <v>1.396258047979029</v>
+        <v>1.386577944905407</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2">
-        <v>30803</v>
+        <v>30834</v>
       </c>
       <c r="C27">
-        <v>1.386577944905407</v>
+        <v>1.356300050353996</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2">
-        <v>30834</v>
+        <v>30864</v>
       </c>
       <c r="C28">
-        <v>1.356300050353996</v>
+        <v>1.310959656815932</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2">
-        <v>30864</v>
+        <v>30895</v>
       </c>
       <c r="C29">
-        <v>1.310959656815932</v>
+        <v>1.309757729135762</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2">
-        <v>30895</v>
+        <v>30926</v>
       </c>
       <c r="C30">
-        <v>1.309757729135762</v>
+        <v>1.238696936901905</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2">
-        <v>30926</v>
+        <v>30956</v>
       </c>
       <c r="C31">
-        <v>1.238696936901905</v>
+        <v>1.216693013545529</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2">
-        <v>30956</v>
+        <v>30987</v>
       </c>
       <c r="C32">
-        <v>1.216693013545529</v>
+        <v>1.203659123736158</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2">
-        <v>30987</v>
+        <v>31017</v>
       </c>
       <c r="C33">
-        <v>1.203659123736158</v>
+        <v>1.157943465540911</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2">
-        <v>31017</v>
+        <v>31048</v>
       </c>
       <c r="C34">
-        <v>1.157943465540911</v>
+        <v>1.12968818053122</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2">
-        <v>31048</v>
+        <v>31079</v>
       </c>
       <c r="C35">
-        <v>1.12968818053122</v>
+        <v>1.08201687946332</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2">
-        <v>31079</v>
+        <v>31107</v>
       </c>
       <c r="C36">
-        <v>1.08201687946332</v>
+        <v>1.230012269864397</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2">
-        <v>31107</v>
+        <v>31138</v>
       </c>
       <c r="C37">
-        <v>1.230012269864397</v>
+        <v>1.238543488215798</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2">
-        <v>31138</v>
+        <v>31168</v>
       </c>
       <c r="C38">
-        <v>1.238543488215798</v>
+        <v>1.286504567091213</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2">
-        <v>31168</v>
+        <v>31199</v>
       </c>
       <c r="C39">
-        <v>1.286504567091213</v>
+        <v>1.311991603253739</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2">
-        <v>31199</v>
+        <v>31229</v>
       </c>
       <c r="C40">
-        <v>1.311991603253739</v>
+        <v>1.416029453412631</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2">
-        <v>31229</v>
+        <v>31260</v>
       </c>
       <c r="C41">
-        <v>1.416029453412631</v>
+        <v>1.396453048357857</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2">
-        <v>31260</v>
+        <v>31291</v>
       </c>
       <c r="C42">
-        <v>1.396453048357857</v>
+        <v>1.407063498158534</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2">
-        <v>31291</v>
+        <v>31321</v>
       </c>
       <c r="C43">
-        <v>1.407063498158534</v>
+        <v>1.445086767850582</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2">
-        <v>31321</v>
+        <v>31352</v>
       </c>
       <c r="C44">
-        <v>1.445086767850582</v>
+        <v>1.490312965722802</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2">
-        <v>31352</v>
+        <v>31382</v>
       </c>
       <c r="C45">
-        <v>1.490312965722802</v>
+        <v>1.445504481063891</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2">
-        <v>31382</v>
+        <v>31413</v>
       </c>
       <c r="C46">
-        <v>1.445504481063891</v>
+        <v>1.408649065821973</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2">
-        <v>31413</v>
+        <v>31444</v>
       </c>
       <c r="C47">
-        <v>1.408649065821973</v>
+        <v>1.450536656497341</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2">
-        <v>31444</v>
+        <v>31472</v>
       </c>
       <c r="C48">
-        <v>1.450536656497341</v>
+        <v>1.477978169612124</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2">
-        <v>31472</v>
+        <v>31503</v>
       </c>
       <c r="C49">
-        <v>1.477978169612124</v>
+        <v>1.553518719900575</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2">
-        <v>31503</v>
+        <v>31533</v>
       </c>
       <c r="C50">
-        <v>1.553518719900575</v>
+        <v>1.472537224931151</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2">
-        <v>31533</v>
+        <v>31564</v>
       </c>
       <c r="C51">
-        <v>1.472537224931151</v>
+        <v>1.533507060258838</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2">
-        <v>31564</v>
+        <v>31594</v>
       </c>
       <c r="C52">
-        <v>1.533507060258838</v>
+        <v>1.492091935125216</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2">
-        <v>31594</v>
+        <v>31625</v>
       </c>
       <c r="C53">
-        <v>1.492091935125216</v>
+        <v>1.487431250555741</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2">
-        <v>31625</v>
+        <v>31656</v>
       </c>
       <c r="C54">
-        <v>1.487431250555741</v>
+        <v>1.447596968042893</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2">
-        <v>31656</v>
+        <v>31686</v>
       </c>
       <c r="C55">
-        <v>1.447596968042893</v>
+        <v>1.408450743900021</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2">
-        <v>31686</v>
+        <v>31717</v>
       </c>
       <c r="C56">
-        <v>1.408450743900021</v>
+        <v>1.437194575493036</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2">
-        <v>31717</v>
+        <v>31747</v>
+      </c>
+      <c r="B57">
+        <v>167337000000</v>
       </c>
       <c r="C57">
-        <v>1.437194575493036</v>
+        <v>1.483679481196454</v>
+      </c>
+      <c r="D57">
+        <v>248274473344.9711</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2">
-        <v>31747</v>
+        <v>31778</v>
       </c>
       <c r="B58">
-        <v>167337000000</v>
+        <v>256330000000</v>
       </c>
       <c r="C58">
-        <v>1.483679481196454</v>
+        <v>1.51446307695099</v>
       </c>
       <c r="D58">
-        <v>248274473344.9711</v>
+        <v>388202320514.8472</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2">
-        <v>31778</v>
+        <v>31809</v>
       </c>
       <c r="B59">
-        <v>256330000000</v>
+        <v>259350000000</v>
       </c>
       <c r="C59">
-        <v>1.51446307695099</v>
+        <v>1.546551166926212</v>
       </c>
       <c r="D59">
-        <v>388202320514.8472</v>
+        <v>401098045142.313</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2">
-        <v>31809</v>
+        <v>31837</v>
       </c>
       <c r="B60">
-        <v>259350000000</v>
+        <v>263526000000</v>
       </c>
       <c r="C60">
-        <v>1.546551166926212</v>
+        <v>1.604106589867176</v>
       </c>
       <c r="D60">
-        <v>401098045142.313</v>
+        <v>422723793201.3375</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2">
-        <v>31837</v>
+        <v>31868</v>
       </c>
       <c r="B61">
-        <v>263526000000</v>
+        <v>267779000000</v>
       </c>
       <c r="C61">
-        <v>1.604106589867176</v>
+        <v>1.660577963828195</v>
       </c>
       <c r="D61">
-        <v>422723793201.3375</v>
+        <v>444667906575.9502</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2">
-        <v>31868</v>
+        <v>31898</v>
       </c>
       <c r="B62">
-        <v>267779000000</v>
+        <v>270683000000</v>
       </c>
       <c r="C62">
-        <v>1.660577963828195</v>
+        <v>1.62813415825464</v>
       </c>
       <c r="D62">
-        <v>444667906575.9502</v>
+        <v>440708238358.8408</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2">
-        <v>31898</v>
+        <v>31929</v>
       </c>
       <c r="B63">
-        <v>270683000000</v>
+        <v>272668000000</v>
       </c>
       <c r="C63">
-        <v>1.62813415825464</v>
+        <v>1.612383154220676</v>
       </c>
       <c r="D63">
-        <v>440708238358.8408</v>
+        <v>439645289895.0432</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2">
-        <v>31929</v>
+        <v>31959</v>
       </c>
       <c r="B64">
-        <v>272668000000</v>
+        <v>277415000000</v>
       </c>
       <c r="C64">
-        <v>1.612383154220676</v>
+        <v>1.593117807541077</v>
       </c>
       <c r="D64">
-        <v>439645289895.0432</v>
+        <v>441954776579.0079</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2">
-        <v>31959</v>
+        <v>31990</v>
       </c>
       <c r="B65">
-        <v>277415000000</v>
+        <v>280138000000</v>
       </c>
       <c r="C65">
-        <v>1.593117807541077</v>
+        <v>1.630523318252569</v>
       </c>
       <c r="D65">
-        <v>441954776579.0079</v>
+        <v>456771541328.6381</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2">
-        <v>31990</v>
+        <v>32021</v>
       </c>
       <c r="B66">
-        <v>280138000000</v>
+        <v>281171000000</v>
       </c>
       <c r="C66">
-        <v>1.630523318252569</v>
+        <v>1.628929766591794</v>
       </c>
       <c r="D66">
-        <v>456771541328.6381</v>
+        <v>458007811402.3813</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2">
-        <v>32021</v>
+        <v>32051</v>
       </c>
       <c r="B67">
-        <v>281171000000</v>
+        <v>287007000000</v>
       </c>
       <c r="C67">
-        <v>1.628929766591794</v>
+        <v>1.722949719554613</v>
       </c>
       <c r="D67">
-        <v>458007811402.3813</v>
+        <v>494498630160.2108</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2">
-        <v>32051</v>
+        <v>32082</v>
       </c>
       <c r="B68">
-        <v>287007000000</v>
+        <v>289314000000</v>
       </c>
       <c r="C68">
-        <v>1.722949719554613</v>
+        <v>1.831837366401124</v>
       </c>
       <c r="D68">
-        <v>494498630160.2108</v>
+        <v>529976195822.9748</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2">
-        <v>32082</v>
+        <v>32112</v>
       </c>
       <c r="B69">
-        <v>289314000000</v>
+        <v>291622000000</v>
       </c>
       <c r="C69">
-        <v>1.831837366401124</v>
+        <v>1.887148482975118</v>
       </c>
       <c r="D69">
-        <v>529976195822.9748</v>
+        <v>550334014902.1699</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2">
-        <v>32112</v>
+        <v>32143</v>
       </c>
       <c r="B70">
-        <v>291622000000</v>
+        <v>295120000000</v>
       </c>
       <c r="C70">
-        <v>1.887148482975118</v>
+        <v>1.769911504424779</v>
       </c>
       <c r="D70">
-        <v>550334014902.1699</v>
+        <v>522336283185.8408</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2">
-        <v>32143</v>
+        <v>32174</v>
       </c>
       <c r="B71">
-        <v>295120000000</v>
+        <v>297648000000</v>
       </c>
       <c r="C71">
-        <v>1.769911504424779</v>
+        <v>1.773049613953021</v>
       </c>
       <c r="D71">
-        <v>522336283185.8408</v>
+        <v>527744671493.8888</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2">
-        <v>32174</v>
+        <v>32203</v>
       </c>
       <c r="B72">
-        <v>297648000000</v>
+        <v>302566000000</v>
       </c>
       <c r="C72">
-        <v>1.773049613953021</v>
+        <v>1.884658841223919</v>
       </c>
       <c r="D72">
-        <v>527744671493.8888</v>
+        <v>570233686953.7563</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2">
-        <v>32203</v>
+        <v>32234</v>
       </c>
       <c r="B73">
-        <v>302566000000</v>
+        <v>304945000000</v>
       </c>
       <c r="C73">
-        <v>1.884658841223919</v>
+        <v>1.879345916957492</v>
       </c>
       <c r="D73">
-        <v>570233686953.7563</v>
+        <v>573097140646.6024</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2">
-        <v>32234</v>
+        <v>32264</v>
       </c>
       <c r="B74">
-        <v>304945000000</v>
+        <v>307356000000</v>
       </c>
       <c r="C74">
-        <v>1.879345916957492</v>
+        <v>1.840265032025488</v>
       </c>
       <c r="D74">
-        <v>573097140646.6024</v>
+        <v>565616499183.226</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2">
-        <v>32264</v>
+        <v>32295</v>
       </c>
       <c r="B75">
-        <v>307356000000</v>
+        <v>313691000000</v>
       </c>
       <c r="C75">
-        <v>1.840265032025488</v>
+        <v>1.705611403526816</v>
       </c>
       <c r="D75">
-        <v>565616499183.226</v>
+        <v>535034946783.7303</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2">
-        <v>32295</v>
+        <v>32325</v>
       </c>
       <c r="B76">
-        <v>313691000000</v>
+        <v>319150000000</v>
       </c>
       <c r="C76">
-        <v>1.705611403526816</v>
+        <v>1.711449656390541</v>
       </c>
       <c r="D76">
-        <v>535034946783.7303</v>
+        <v>546209157837.0411</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2">
-        <v>32325</v>
+        <v>32356</v>
       </c>
       <c r="B77">
-        <v>319150000000</v>
+        <v>322995000000</v>
       </c>
       <c r="C77">
-        <v>1.711449656390541</v>
+        <v>1.680954754060266</v>
       </c>
       <c r="D77">
-        <v>546209157837.0411</v>
+        <v>542939980787.6957</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2">
-        <v>32356</v>
+        <v>32387</v>
       </c>
       <c r="B78">
-        <v>322995000000</v>
+        <v>327797000000</v>
       </c>
       <c r="C78">
-        <v>1.680954754060266</v>
+        <v>1.686056285853039</v>
       </c>
       <c r="D78">
-        <v>542939980787.6957</v>
+        <v>552684192333.7684</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2">
-        <v>32387</v>
+        <v>32417</v>
       </c>
       <c r="B79">
-        <v>327797000000</v>
+        <v>331916000000</v>
       </c>
       <c r="C79">
-        <v>1.686056285853039</v>
+        <v>1.76959826987085</v>
       </c>
       <c r="D79">
-        <v>552684192333.7684</v>
+        <v>587357979342.453</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2">
-        <v>32417</v>
+        <v>32448</v>
       </c>
       <c r="B80">
-        <v>331916000000</v>
+        <v>333293000000</v>
       </c>
       <c r="C80">
-        <v>1.76959826987085</v>
+        <v>1.848087127254456</v>
       </c>
       <c r="D80">
-        <v>587357979342.453</v>
+        <v>615954502904.0195</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2">
-        <v>32448</v>
+        <v>32478</v>
       </c>
       <c r="B81">
-        <v>333293000000</v>
+        <v>339317000000</v>
       </c>
       <c r="C81">
-        <v>1.848087127254456</v>
+        <v>1.807991354329983</v>
       </c>
       <c r="D81">
-        <v>615954502904.0195</v>
+        <v>613482202377.1869</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2">
-        <v>32478</v>
+        <v>32509</v>
       </c>
       <c r="B82">
-        <v>339317000000</v>
+        <v>343461000000</v>
       </c>
       <c r="C82">
-        <v>1.807991354329983</v>
+        <v>1.755926158599149</v>
       </c>
       <c r="D82">
-        <v>613482202377.1869</v>
+        <v>603092154358.6222</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2">
-        <v>32509</v>
+        <v>32540</v>
       </c>
       <c r="B83">
-        <v>343461000000</v>
+        <v>349710000000</v>
       </c>
       <c r="C83">
-        <v>1.755926158599149</v>
+        <v>1.743071261232852</v>
       </c>
       <c r="D83">
-        <v>603092154358.6222</v>
+        <v>609569450765.7407</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2">
-        <v>32540</v>
+        <v>32568</v>
       </c>
       <c r="B84">
-        <v>349710000000</v>
+        <v>353734000000</v>
       </c>
       <c r="C84">
-        <v>1.743071261232852</v>
+        <v>1.685488005578561</v>
       </c>
       <c r="D84">
-        <v>609569450765.7407</v>
+        <v>596214414165.3267</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2">
-        <v>32568</v>
+        <v>32599</v>
       </c>
       <c r="B85">
-        <v>353734000000</v>
+        <v>357400000000</v>
       </c>
       <c r="C85">
-        <v>1.685488005578561</v>
+        <v>1.688048587305054</v>
       </c>
       <c r="D85">
-        <v>596214414165.3267</v>
+        <v>603308565102.8264</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2">
-        <v>32599</v>
+        <v>32629</v>
       </c>
       <c r="B86">
-        <v>357400000000</v>
+        <v>363827000000</v>
       </c>
       <c r="C86">
-        <v>1.688048587305054</v>
+        <v>1.572079886371324</v>
       </c>
       <c r="D86">
-        <v>603308565102.8264</v>
+        <v>571965108818.8196</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2">
-        <v>32629</v>
+        <v>32660</v>
       </c>
       <c r="B87">
-        <v>363827000000</v>
+        <v>375186000000</v>
       </c>
       <c r="C87">
-        <v>1.572079886371324</v>
+        <v>1.550147263990079</v>
       </c>
       <c r="D87">
-        <v>571965108818.8196</v>
+        <v>581593551387.3818</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="2">
-        <v>32660</v>
+        <v>32690</v>
       </c>
       <c r="B88">
-        <v>375186000000</v>
+        <v>377386000000</v>
       </c>
       <c r="C88">
-        <v>1.550147263990079</v>
+        <v>1.661129568106312</v>
       </c>
       <c r="D88">
-        <v>581593551387.3818</v>
+        <v>626887043189.3688</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2">
-        <v>32690</v>
+        <v>32721</v>
       </c>
       <c r="B89">
-        <v>377386000000</v>
+        <v>384842000000</v>
       </c>
       <c r="C89">
-        <v>1.661129568106312</v>
+        <v>1.573564097976961</v>
       </c>
       <c r="D89">
-        <v>626887043189.3688</v>
+        <v>605573554593.6498</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="2">
-        <v>32721</v>
+        <v>32752</v>
       </c>
       <c r="B90">
-        <v>384842000000</v>
+        <v>389498000000</v>
       </c>
       <c r="C90">
-        <v>1.573564097976961</v>
+        <v>1.618908907848758</v>
       </c>
       <c r="D90">
-        <v>605573554593.6498</v>
+        <v>630561781789.2758</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2">
-        <v>32752</v>
+        <v>32782</v>
       </c>
       <c r="B91">
-        <v>389498000000</v>
+        <v>396227000000</v>
       </c>
       <c r="C91">
-        <v>1.618908907848758</v>
+        <v>1.579778781049644</v>
       </c>
       <c r="D91">
-        <v>630561781789.2758</v>
+        <v>625951007078.9572</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2">
-        <v>32782</v>
+        <v>32813</v>
       </c>
       <c r="B92">
-        <v>396227000000</v>
+        <v>398337000000</v>
       </c>
       <c r="C92">
-        <v>1.579778781049644</v>
+        <v>1.569119699213562</v>
       </c>
       <c r="D92">
-        <v>625951007078.9572</v>
+        <v>625038433625.6326</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2">
-        <v>32813</v>
+        <v>32843</v>
       </c>
       <c r="B93">
-        <v>398337000000</v>
+        <v>406224000000</v>
       </c>
       <c r="C93">
-        <v>1.569119699213562</v>
+        <v>1.612383154220676</v>
       </c>
       <c r="D93">
-        <v>625038433625.6326</v>
+        <v>654988734440.1398</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2">
-        <v>32843</v>
+        <v>32874</v>
       </c>
       <c r="B94">
-        <v>406224000000</v>
+        <v>410992000000</v>
       </c>
       <c r="C94">
-        <v>1.612383154220676</v>
+        <v>1.68010752688172</v>
       </c>
       <c r="D94">
-        <v>654988734440.1398</v>
+        <v>690510752688.1721</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="2">
-        <v>32874</v>
+        <v>32905</v>
       </c>
       <c r="B95">
-        <v>410992000000</v>
+        <v>414448000000</v>
       </c>
       <c r="C95">
-        <v>1.68010752688172</v>
+        <v>1.690617132396184</v>
       </c>
       <c r="D95">
-        <v>690510752688.1721</v>
+        <v>700672889287.3335</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="2">
-        <v>32905</v>
+        <v>32933</v>
       </c>
       <c r="B96">
-        <v>414448000000</v>
+        <v>420823000000</v>
       </c>
       <c r="C96">
-        <v>1.690617132396184</v>
+        <v>1.645548817599948</v>
       </c>
       <c r="D96">
-        <v>700672889287.3335</v>
+        <v>692484790068.8628</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2">
-        <v>32933</v>
+        <v>32964</v>
       </c>
       <c r="B97">
-        <v>420823000000</v>
+        <v>424387000000</v>
       </c>
       <c r="C97">
-        <v>1.645548817599948</v>
+        <v>1.635055645358262</v>
       </c>
       <c r="D97">
-        <v>692484790068.8628</v>
+        <v>693896360166.6566</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2">
-        <v>32964</v>
+        <v>32994</v>
       </c>
       <c r="B98">
-        <v>424387000000</v>
+        <v>427459000000</v>
       </c>
       <c r="C98">
-        <v>1.635055645358262</v>
+        <v>1.677570961796895</v>
       </c>
       <c r="D98">
-        <v>693896360166.6566</v>
+        <v>717092805758.7388</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2">
-        <v>32994</v>
+        <v>33025</v>
       </c>
       <c r="B99">
-        <v>427459000000</v>
+        <v>431382000000</v>
       </c>
       <c r="C99">
-        <v>1.677570961796895</v>
+        <v>1.743983196931175</v>
       </c>
       <c r="D99">
-        <v>717092805758.7388</v>
+        <v>752322959458.5643</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2">
-        <v>33025</v>
+        <v>33055</v>
       </c>
       <c r="B100">
-        <v>431382000000</v>
+        <v>432276000000</v>
       </c>
       <c r="C100">
-        <v>1.743983196931175</v>
+        <v>1.85908171736838</v>
       </c>
       <c r="D100">
-        <v>752322959458.5643</v>
+        <v>803636408457.1338</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="2">
-        <v>33055</v>
+        <v>33086</v>
       </c>
       <c r="B101">
-        <v>432276000000</v>
+        <v>435034000000</v>
       </c>
       <c r="C101">
-        <v>1.85908171736838</v>
+        <v>1.890716474340151</v>
       </c>
       <c r="D101">
-        <v>803636408457.1338</v>
+        <v>822525950698.0933</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="2">
-        <v>33086</v>
+        <v>33117</v>
       </c>
       <c r="B102">
-        <v>435034000000</v>
+        <v>439584000000</v>
       </c>
       <c r="C102">
-        <v>1.890716474340151</v>
+        <v>1.870557356133283</v>
       </c>
       <c r="D102">
-        <v>822525950698.0933</v>
+        <v>822267084838.4929</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2">
-        <v>33117</v>
+        <v>33147</v>
       </c>
       <c r="B103">
-        <v>439584000000</v>
+        <v>441285000000</v>
       </c>
       <c r="C103">
-        <v>1.870557356133283</v>
+        <v>1.944390471405609</v>
       </c>
       <c r="D103">
-        <v>822267084838.4929</v>
+        <v>858030349174.2241</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="2">
-        <v>33147</v>
+        <v>33178</v>
       </c>
       <c r="B104">
-        <v>441285000000</v>
+        <v>446469000000</v>
       </c>
       <c r="C104">
-        <v>1.944390471405609</v>
+        <v>1.936858340621409</v>
       </c>
       <c r="D104">
-        <v>858030349174.2241</v>
+        <v>864747206478.8997</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="2">
-        <v>33178</v>
+        <v>33208</v>
       </c>
       <c r="B105">
-        <v>446469000000</v>
+        <v>448145000000</v>
       </c>
       <c r="C105">
-        <v>1.936858340621409</v>
+        <v>1.929384526336099</v>
       </c>
       <c r="D105">
-        <v>864747206478.8997</v>
+        <v>864644028554.891</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2">
-        <v>33208</v>
+        <v>33239</v>
       </c>
       <c r="B106">
-        <v>448145000000</v>
+        <v>449342000000</v>
       </c>
       <c r="C106">
-        <v>1.929384526336099</v>
+        <v>1.958863820590327</v>
       </c>
       <c r="D106">
-        <v>864644028554.891</v>
+        <v>880199786871.6986</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="2">
-        <v>33239</v>
+        <v>33270</v>
       </c>
       <c r="B107">
-        <v>449342000000</v>
+        <v>450874000000</v>
       </c>
       <c r="C107">
-        <v>1.958863820590327</v>
+        <v>1.912045889101338</v>
       </c>
       <c r="D107">
-        <v>880199786871.6986</v>
+        <v>862091778202.6768</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="2">
-        <v>33270</v>
+        <v>33298</v>
       </c>
       <c r="B108">
-        <v>450874000000</v>
+        <v>452937000000</v>
       </c>
       <c r="C108">
-        <v>1.912045889101338</v>
+        <v>1.740644038294169</v>
       </c>
       <c r="D108">
-        <v>862091778202.6768</v>
+        <v>788402088772.8459</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="2">
-        <v>33298</v>
+        <v>33329</v>
       </c>
       <c r="B109">
-        <v>452937000000</v>
+        <v>454556000000</v>
       </c>
       <c r="C109">
-        <v>1.740644038294169</v>
+        <v>1.732501732501732</v>
       </c>
       <c r="D109">
-        <v>788402088772.8459</v>
+        <v>787519057519.0575</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="2">
-        <v>33329</v>
+        <v>33359</v>
       </c>
       <c r="B110">
-        <v>454556000000</v>
+        <v>457279000000</v>
       </c>
       <c r="C110">
-        <v>1.732501732501732</v>
+        <v>1.697216564833673</v>
       </c>
       <c r="D110">
-        <v>787519057519.0575</v>
+        <v>776101493550.5771</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="2">
-        <v>33359</v>
+        <v>33390</v>
       </c>
       <c r="B111">
-        <v>457279000000</v>
+        <v>458137000000</v>
       </c>
       <c r="C111">
-        <v>1.697216564833673</v>
+        <v>1.619170984455959</v>
       </c>
       <c r="D111">
-        <v>776101493550.5771</v>
+        <v>741802137305.6995</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="2">
-        <v>33390</v>
+        <v>33420</v>
       </c>
       <c r="B112">
-        <v>458137000000</v>
+        <v>457916000000</v>
       </c>
       <c r="C112">
-        <v>1.619170984455959</v>
+        <v>1.685772083614296</v>
       </c>
       <c r="D112">
-        <v>741802137305.6995</v>
+        <v>771942009440.3237</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="2">
-        <v>33420</v>
+        <v>33451</v>
       </c>
       <c r="B113">
-        <v>457916000000</v>
+        <v>459621000000</v>
       </c>
       <c r="C113">
-        <v>1.685772083614296</v>
+        <v>1.68321831341525</v>
       </c>
       <c r="D113">
-        <v>771942009440.3237</v>
+        <v>773642484430.2307</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="2">
-        <v>33451</v>
+        <v>33482</v>
       </c>
       <c r="B114">
-        <v>459621000000</v>
+        <v>461686000000</v>
       </c>
       <c r="C114">
-        <v>1.68321831341525</v>
+        <v>1.747030048916841</v>
       </c>
       <c r="D114">
-        <v>773642484430.2307</v>
+        <v>806579315164.2208</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="2">
-        <v>33482</v>
+        <v>33512</v>
       </c>
       <c r="B115">
-        <v>461686000000</v>
+        <v>460846000000</v>
       </c>
       <c r="C115">
-        <v>1.747030048916841</v>
+        <v>1.742160278745645</v>
       </c>
       <c r="D115">
-        <v>806579315164.2208</v>
+        <v>802867595818.8154</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="2">
-        <v>33512</v>
+        <v>33543</v>
       </c>
       <c r="B116">
-        <v>460846000000</v>
+        <v>461203000000</v>
       </c>
       <c r="C116">
-        <v>1.742160278745645</v>
+        <v>1.76772140710624</v>
       </c>
       <c r="D116">
-        <v>802867595818.8154</v>
+        <v>815278416121.6193</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="2">
-        <v>33543</v>
+        <v>33573</v>
       </c>
       <c r="B117">
-        <v>461203000000</v>
+        <v>462476000000</v>
       </c>
       <c r="C117">
-        <v>1.76772140710624</v>
+        <v>1.868460388639761</v>
       </c>
       <c r="D117">
-        <v>815278416121.6193</v>
+        <v>864118086696.562</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="2">
-        <v>33573</v>
+        <v>33604</v>
       </c>
       <c r="B118">
-        <v>462476000000</v>
+        <v>466046000000</v>
       </c>
       <c r="C118">
-        <v>1.868460388639761</v>
+        <v>1.787629603146228</v>
       </c>
       <c r="D118">
-        <v>864118086696.562</v>
+        <v>833117626027.887</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="2">
-        <v>33604</v>
+        <v>33635</v>
       </c>
       <c r="B119">
-        <v>466046000000</v>
+        <v>467523000000</v>
       </c>
       <c r="C119">
-        <v>1.787629603146228</v>
+        <v>1.757469244288225</v>
       </c>
       <c r="D119">
-        <v>833117626027.887</v>
+        <v>821657293497.3639</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="2">
-        <v>33635</v>
+        <v>33664</v>
       </c>
       <c r="B120">
-        <v>467523000000</v>
+        <v>468674000000</v>
       </c>
       <c r="C120">
-        <v>1.757469244288225</v>
+        <v>1.735809755250825</v>
       </c>
       <c r="D120">
-        <v>821657293497.3639</v>
+        <v>813528901232.425</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="2">
-        <v>33664</v>
+        <v>33695</v>
       </c>
       <c r="B121">
-        <v>468674000000</v>
+        <v>472017000000</v>
       </c>
       <c r="C121">
-        <v>1.735809755250825</v>
+        <v>1.779359430604982</v>
       </c>
       <c r="D121">
-        <v>813528901232.425</v>
+        <v>839887900355.8718</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="2">
-        <v>33695</v>
+        <v>33725</v>
       </c>
       <c r="B122">
-        <v>472017000000</v>
+        <v>469327000000</v>
       </c>
       <c r="C122">
-        <v>1.779359430604982</v>
+        <v>1.827485380116959</v>
       </c>
       <c r="D122">
-        <v>839887900355.8718</v>
+        <v>857688230994.152</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="2">
-        <v>33725</v>
+        <v>33756</v>
       </c>
       <c r="B123">
-        <v>469327000000</v>
+        <v>471821000000</v>
       </c>
       <c r="C123">
-        <v>1.827485380116959</v>
+        <v>1.903311762466692</v>
       </c>
       <c r="D123">
-        <v>857688230994.152</v>
+        <v>898022459078.7972</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="2">
-        <v>33756</v>
+        <v>33786</v>
       </c>
       <c r="B124">
-        <v>471821000000</v>
+        <v>473214000000</v>
       </c>
       <c r="C124">
-        <v>1.903311762466692</v>
+        <v>1.927153594141453</v>
       </c>
       <c r="D124">
-        <v>898022459078.7972</v>
+        <v>911956060898.0536</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="2">
-        <v>33786</v>
+        <v>33817</v>
       </c>
       <c r="B125">
-        <v>473214000000</v>
+        <v>472160000000</v>
       </c>
       <c r="C125">
-        <v>1.927153594141453</v>
+        <v>1.990842126219391</v>
       </c>
       <c r="D125">
-        <v>911956060898.0536</v>
+        <v>939996018315.7477</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="2">
-        <v>33817</v>
+        <v>33848</v>
       </c>
       <c r="B126">
-        <v>472160000000</v>
+        <v>478010000000</v>
       </c>
       <c r="C126">
-        <v>1.990842126219391</v>
+        <v>1.786033220217896</v>
       </c>
       <c r="D126">
-        <v>939996018315.7477</v>
+        <v>853741739596.3566</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="2">
-        <v>33848</v>
+        <v>33878</v>
       </c>
       <c r="B127">
-        <v>478010000000</v>
+        <v>484452000000</v>
       </c>
       <c r="C127">
-        <v>1.786033220217896</v>
+        <v>1.556904873112253</v>
       </c>
       <c r="D127">
-        <v>853741739596.3566</v>
+        <v>754245679588.9771</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="2">
-        <v>33878</v>
+        <v>33909</v>
       </c>
       <c r="B128">
-        <v>484452000000</v>
+        <v>483075000000</v>
       </c>
       <c r="C128">
-        <v>1.556904873112253</v>
+        <v>1.516990291262136</v>
       </c>
       <c r="D128">
-        <v>754245679588.9771</v>
+        <v>732820084951.4563</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="2">
-        <v>33909</v>
+        <v>33939</v>
       </c>
       <c r="B129">
-        <v>483075000000</v>
+        <v>481592000000</v>
       </c>
       <c r="C129">
-        <v>1.516990291262136</v>
+        <v>1.510117789187557</v>
       </c>
       <c r="D129">
-        <v>732820084951.4563</v>
+        <v>727260646330.4137</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="2">
-        <v>33939</v>
+        <v>33970</v>
       </c>
       <c r="B130">
-        <v>481592000000</v>
+        <v>481917000000</v>
       </c>
       <c r="C130">
-        <v>1.510117789187557</v>
+        <v>1.48720999405116</v>
       </c>
       <c r="D130">
-        <v>727260646330.4137</v>
+        <v>716711778703.153</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="2">
-        <v>33970</v>
+        <v>34001</v>
       </c>
       <c r="B131">
-        <v>481917000000</v>
+        <v>484043000000</v>
       </c>
       <c r="C131">
-        <v>1.48720999405116</v>
+        <v>1.426533523537803</v>
       </c>
       <c r="D131">
-        <v>716711778703.153</v>
+        <v>690503566333.8088</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="2">
-        <v>34001</v>
+        <v>34029</v>
       </c>
       <c r="B132">
-        <v>484043000000</v>
+        <v>484425000000</v>
       </c>
       <c r="C132">
-        <v>1.426533523537803</v>
+        <v>1.511944360447536</v>
       </c>
       <c r="D132">
-        <v>690503566333.8088</v>
+        <v>732423646809.7974</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="2">
-        <v>34029</v>
+        <v>34060</v>
       </c>
       <c r="B133">
-        <v>484425000000</v>
+        <v>486473000000</v>
       </c>
       <c r="C133">
-        <v>1.511944360447536</v>
+        <v>1.573564122738002</v>
       </c>
       <c r="D133">
-        <v>732423646809.7974</v>
+        <v>765496459480.7239</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="2">
-        <v>34060</v>
+        <v>34090</v>
       </c>
       <c r="B134">
-        <v>486473000000</v>
+        <v>487064000000</v>
       </c>
       <c r="C134">
-        <v>1.573564122738002</v>
+        <v>1.562011871290222</v>
       </c>
       <c r="D134">
-        <v>765496459480.7239</v>
+        <v>760799750078.1006</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="2">
-        <v>34090</v>
+        <v>34121</v>
       </c>
       <c r="B135">
-        <v>487064000000</v>
+        <v>490069000000</v>
       </c>
       <c r="C135">
-        <v>1.562011871290222</v>
+        <v>1.491646778042959</v>
       </c>
       <c r="D135">
-        <v>760799750078.1006</v>
+        <v>731009844868.7351</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="2">
-        <v>34121</v>
+        <v>34151</v>
       </c>
       <c r="B136">
-        <v>490069000000</v>
+        <v>493307000000</v>
       </c>
       <c r="C136">
-        <v>1.491646778042959</v>
+        <v>1.48214021046391</v>
       </c>
       <c r="D136">
-        <v>731009844868.7351</v>
+        <v>731150140803.3199</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="2">
-        <v>34151</v>
+        <v>34182</v>
       </c>
       <c r="B137">
-        <v>493307000000</v>
+        <v>495736000000</v>
       </c>
       <c r="C137">
-        <v>1.48214021046391</v>
+        <v>1.492091912861832</v>
       </c>
       <c r="D137">
-        <v>731150140803.3199</v>
+        <v>739683676514.4733</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="2">
-        <v>34182</v>
+        <v>34213</v>
       </c>
       <c r="B138">
-        <v>495736000000</v>
+        <v>497207000000</v>
       </c>
       <c r="C138">
-        <v>1.492091912861832</v>
+        <v>1.49655791679138</v>
       </c>
       <c r="D138">
-        <v>739683676514.4733</v>
+        <v>744099072134.0916</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="2">
-        <v>34213</v>
+        <v>34243</v>
       </c>
       <c r="B139">
-        <v>497207000000</v>
+        <v>500928000000</v>
       </c>
       <c r="C139">
-        <v>1.49655791679138</v>
+        <v>1.478852410529429</v>
       </c>
       <c r="D139">
-        <v>744099072134.0916</v>
+        <v>740798580301.6859</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="2">
-        <v>34243</v>
+        <v>34274</v>
       </c>
       <c r="B140">
-        <v>500928000000</v>
+        <v>503900000000</v>
       </c>
       <c r="C140">
-        <v>1.478852410529429</v>
+        <v>1.485663348685188</v>
       </c>
       <c r="D140">
-        <v>740798580301.6859</v>
+        <v>748625761402.4662</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="2">
-        <v>34274</v>
+        <v>34304</v>
       </c>
       <c r="B141">
-        <v>503900000000</v>
+        <v>509216000000</v>
       </c>
       <c r="C141">
-        <v>1.485663348685188</v>
+        <v>1.477104874446086</v>
       </c>
       <c r="D141">
-        <v>748625761402.4662</v>
+        <v>752165435745.9379</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="2">
-        <v>34304</v>
+        <v>34335</v>
       </c>
       <c r="B142">
-        <v>509216000000</v>
+        <v>510034000000</v>
       </c>
       <c r="C142">
-        <v>1.477104874446086</v>
+        <v>1.506931886678722</v>
       </c>
       <c r="D142">
-        <v>752165435745.9379</v>
+        <v>768586497890.2954</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="2">
-        <v>34335</v>
+        <v>34366</v>
       </c>
       <c r="B143">
-        <v>510034000000</v>
+        <v>514261000000</v>
       </c>
       <c r="C143">
-        <v>1.506931886678722</v>
+        <v>1.485222040695084</v>
       </c>
       <c r="D143">
-        <v>768586497890.2954</v>
+        <v>763791771869.8945</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="2">
-        <v>34366</v>
+        <v>34394</v>
       </c>
       <c r="B144">
-        <v>514261000000</v>
+        <v>515859000000</v>
       </c>
       <c r="C144">
-        <v>1.485222040695084</v>
+        <v>1.483459427384661</v>
       </c>
       <c r="D144">
-        <v>763791771869.8945</v>
+        <v>765255896751.2238</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="2">
-        <v>34394</v>
+        <v>34425</v>
       </c>
       <c r="B145">
-        <v>515859000000</v>
+        <v>514456000000</v>
       </c>
       <c r="C145">
-        <v>1.483459427384661</v>
+        <v>1.51952590791673</v>
       </c>
       <c r="D145">
-        <v>765255896751.2238</v>
+        <v>781729220483.2092</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="2">
-        <v>34425</v>
+        <v>34455</v>
       </c>
       <c r="B146">
-        <v>514456000000</v>
+        <v>517720000000</v>
       </c>
       <c r="C146">
-        <v>1.51952590791673</v>
+        <v>1.511030522816561</v>
       </c>
       <c r="D146">
-        <v>781729220483.2092</v>
+        <v>782290722272.5898</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="2">
-        <v>34455</v>
+        <v>34486</v>
       </c>
       <c r="B147">
-        <v>517720000000</v>
+        <v>517125000000</v>
       </c>
       <c r="C147">
-        <v>1.511030522816561</v>
+        <v>1.544401544401544</v>
       </c>
       <c r="D147">
-        <v>782290722272.5898</v>
+        <v>798648648648.6487</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="2">
-        <v>34486</v>
+        <v>34516</v>
       </c>
       <c r="B148">
-        <v>517125000000</v>
+        <v>516624000000</v>
       </c>
       <c r="C148">
-        <v>1.544401544401544</v>
+        <v>1.544163063619518</v>
       </c>
       <c r="D148">
-        <v>798648648648.6487</v>
+        <v>797751698579.37</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="2">
-        <v>34516</v>
+        <v>34547</v>
       </c>
       <c r="B149">
-        <v>516624000000</v>
+        <v>518423000000</v>
       </c>
       <c r="C149">
-        <v>1.544163063619518</v>
+        <v>1.534448365812491</v>
       </c>
       <c r="D149">
-        <v>797751698579.37</v>
+        <v>795493325149.6088</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="2">
-        <v>34547</v>
+        <v>34578</v>
       </c>
       <c r="B150">
-        <v>518423000000</v>
+        <v>521865000000</v>
       </c>
       <c r="C150">
-        <v>1.534448365812491</v>
+        <v>1.577535888941473</v>
       </c>
       <c r="D150">
-        <v>795493325149.6088</v>
+        <v>823260766682.442</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="2">
-        <v>34578</v>
+        <v>34608</v>
       </c>
       <c r="B151">
-        <v>521865000000</v>
+        <v>521391000000</v>
       </c>
       <c r="C151">
-        <v>1.577535888941473</v>
+        <v>1.635858007524947</v>
       </c>
       <c r="D151">
-        <v>823260766682.442</v>
+        <v>852921642401.4396</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="2">
-        <v>34608</v>
+        <v>34639</v>
       </c>
       <c r="B152">
-        <v>521391000000</v>
+        <v>524786000000</v>
       </c>
       <c r="C152">
-        <v>1.635858007524947</v>
+        <v>1.563477173233271</v>
       </c>
       <c r="D152">
-        <v>852921642401.4396</v>
+        <v>820490931832.3953</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="2">
-        <v>34639</v>
+        <v>34669</v>
       </c>
       <c r="B153">
-        <v>524786000000</v>
+        <v>527178000000</v>
       </c>
       <c r="C153">
-        <v>1.563477173233271</v>
+        <v>1.564700359881083</v>
       </c>
       <c r="D153">
-        <v>820490931832.3953</v>
+        <v>824875606321.3894</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="2">
-        <v>34669</v>
+        <v>34700</v>
       </c>
       <c r="B154">
-        <v>527178000000</v>
+        <v>529708000000</v>
       </c>
       <c r="C154">
-        <v>1.564700359881083</v>
+        <v>1.57952930026852</v>
       </c>
       <c r="D154">
-        <v>824875606321.3894</v>
+        <v>836689306586.6372</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="2">
-        <v>34700</v>
+        <v>34731</v>
       </c>
       <c r="B155">
-        <v>529708000000</v>
+        <v>533750000000</v>
       </c>
       <c r="C155">
-        <v>1.57952930026852</v>
+        <v>1.58378207158695</v>
       </c>
       <c r="D155">
-        <v>836689306586.6372</v>
+        <v>845343680709.5344</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="2">
-        <v>34731</v>
+        <v>34759</v>
       </c>
       <c r="B156">
-        <v>533750000000</v>
+        <v>542876000000</v>
       </c>
       <c r="C156">
-        <v>1.58378207158695</v>
+        <v>1.621533971136695</v>
       </c>
       <c r="D156">
-        <v>845343680709.5344</v>
+        <v>880291876114.8046</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="2">
-        <v>34759</v>
+        <v>34790</v>
       </c>
       <c r="B157">
-        <v>542876000000</v>
+        <v>542961000000</v>
       </c>
       <c r="C157">
-        <v>1.621533971136695</v>
+        <v>1.612383102225089</v>
       </c>
       <c r="D157">
-        <v>880291876114.8046</v>
+        <v>875461141567.2365</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="2">
-        <v>34790</v>
+        <v>34820</v>
       </c>
       <c r="B158">
-        <v>542961000000</v>
+        <v>546560000000</v>
       </c>
       <c r="C158">
-        <v>1.612383102225089</v>
+        <v>1.587301587301587</v>
       </c>
       <c r="D158">
-        <v>875461141567.2365</v>
+        <v>867555555555.5555</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="2">
-        <v>34820</v>
+        <v>34851</v>
       </c>
       <c r="B159">
-        <v>546560000000</v>
+        <v>550532000000</v>
       </c>
       <c r="C159">
-        <v>1.587301587301587</v>
+        <v>1.594896331738437</v>
       </c>
       <c r="D159">
-        <v>867555555555.5555</v>
+        <v>878041467304.6252</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="2">
-        <v>34851</v>
+        <v>34881</v>
       </c>
       <c r="B160">
-        <v>550532000000</v>
+        <v>558179000000</v>
       </c>
       <c r="C160">
-        <v>1.594896331738437</v>
+        <v>1.597444089456869</v>
       </c>
       <c r="D160">
-        <v>878041467304.6252</v>
+        <v>891659744408.9458</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="2">
-        <v>34881</v>
+        <v>34912</v>
       </c>
       <c r="B161">
-        <v>558179000000</v>
+        <v>564092000000</v>
       </c>
       <c r="C161">
-        <v>1.597444089456869</v>
+        <v>1.549907005579665</v>
       </c>
       <c r="D161">
-        <v>891659744408.9458</v>
+        <v>874290142591.4446</v>
       </c>
     </row>
     <row r="162" spans="1:4">
       <c r="A162" s="2">
-        <v>34912</v>
+        <v>34943</v>
       </c>
       <c r="B162">
-        <v>564092000000</v>
+        <v>568035000000</v>
       </c>
       <c r="C162">
-        <v>1.549907005579665</v>
+        <v>1.584534938995405</v>
       </c>
       <c r="D162">
-        <v>874290142591.4446</v>
+        <v>900071304072.2548</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="2">
-        <v>34943</v>
+        <v>34973</v>
       </c>
       <c r="B163">
-        <v>568035000000</v>
+        <v>573711000000</v>
       </c>
       <c r="C163">
-        <v>1.584534938995405</v>
+        <v>1.58052789631737</v>
       </c>
       <c r="D163">
-        <v>900071304072.2548</v>
+        <v>906766239924.1346</v>
       </c>
     </row>
     <row r="164" spans="1:4">
       <c r="A164" s="2">
-        <v>34973</v>
+        <v>35004</v>
       </c>
       <c r="B164">
-        <v>573711000000</v>
+        <v>577801000000</v>
       </c>
       <c r="C164">
-        <v>1.58052789631737</v>
+        <v>1.531159087429184</v>
       </c>
       <c r="D164">
-        <v>906766239924.1346</v>
+        <v>884705251875.6698</v>
       </c>
     </row>
     <row r="165" spans="1:4">
       <c r="A165" s="2">
-        <v>35004</v>
+        <v>35034</v>
       </c>
       <c r="B165">
-        <v>577801000000</v>
+        <v>580830000000</v>
       </c>
       <c r="C165">
-        <v>1.531159087429184</v>
+        <v>1.550628004341758</v>
       </c>
       <c r="D165">
-        <v>884705251875.6698</v>
+        <v>900651263761.8235</v>
       </c>
     </row>
     <row r="166" spans="1:4">
       <c r="A166" s="2">
-        <v>35034</v>
+        <v>35065</v>
       </c>
       <c r="B166">
-        <v>580830000000</v>
+        <v>588638000000</v>
       </c>
       <c r="C166">
-        <v>1.550628004341758</v>
+        <v>1.504890895410083</v>
       </c>
       <c r="D166">
-        <v>900651263761.8235</v>
+        <v>885835966892.4003</v>
       </c>
     </row>
     <row r="167" spans="1:4">
       <c r="A167" s="2">
-        <v>35065</v>
+        <v>35096</v>
       </c>
       <c r="B167">
-        <v>588638000000</v>
+        <v>591466000000</v>
       </c>
       <c r="C167">
-        <v>1.504890895410083</v>
+        <v>1.531628120692296</v>
       </c>
       <c r="D167">
-        <v>885835966892.4003</v>
+        <v>905905958033.3895</v>
       </c>
     </row>
     <row r="168" spans="1:4">
       <c r="A168" s="2">
-        <v>35096</v>
+        <v>35125</v>
       </c>
       <c r="B168">
-        <v>591466000000</v>
+        <v>596040000000</v>
       </c>
       <c r="C168">
-        <v>1.531628120692296</v>
+        <v>1.526717557251908</v>
       </c>
       <c r="D168">
-        <v>905905958033.3895</v>
+        <v>909984732824.4274</v>
       </c>
     </row>
     <row r="169" spans="1:4">
       <c r="A169" s="2">
-        <v>35125</v>
+        <v>35156</v>
       </c>
       <c r="B169">
-        <v>596040000000</v>
+        <v>601044000000</v>
       </c>
       <c r="C169">
-        <v>1.526717557251908</v>
+        <v>1.507159005275057</v>
       </c>
       <c r="D169">
-        <v>909984732824.4274</v>
+        <v>905868877166.541</v>
       </c>
     </row>
     <row r="170" spans="1:4">
       <c r="A170" s="2">
-        <v>35156</v>
+        <v>35186</v>
       </c>
       <c r="B170">
-        <v>601044000000</v>
+        <v>601672000000</v>
       </c>
       <c r="C170">
-        <v>1.507159005275057</v>
+        <v>1.55110904296572</v>
       </c>
       <c r="D170">
-        <v>905868877166.541</v>
+        <v>933258880099.2709</v>
       </c>
     </row>
     <row r="171" spans="1:4">
       <c r="A171" s="2">
-        <v>35186</v>
+        <v>35217</v>
       </c>
       <c r="B171">
-        <v>601672000000</v>
+        <v>610827000000</v>
       </c>
       <c r="C171">
-        <v>1.55110904296572</v>
+        <v>1.552795031055901</v>
       </c>
       <c r="D171">
-        <v>933258880099.2709</v>
+        <v>948489130434.7826</v>
       </c>
     </row>
     <row r="172" spans="1:4">
       <c r="A172" s="2">
-        <v>35217</v>
+        <v>35247</v>
       </c>
       <c r="B172">
-        <v>610827000000</v>
+        <v>613598000000</v>
       </c>
       <c r="C172">
-        <v>1.552795031055901</v>
+        <v>1.556904873112253</v>
       </c>
       <c r="D172">
-        <v>948489130434.7826</v>
+        <v>955313716331.9321</v>
       </c>
     </row>
     <row r="173" spans="1:4">
       <c r="A173" s="2">
-        <v>35247</v>
+        <v>35278</v>
       </c>
       <c r="B173">
-        <v>613598000000</v>
+        <v>617720000000</v>
       </c>
       <c r="C173">
-        <v>1.556904873112253</v>
+        <v>1.562011871290222</v>
       </c>
       <c r="D173">
-        <v>955313716331.9321</v>
+        <v>964885973133.3958</v>
       </c>
     </row>
     <row r="174" spans="1:4">
       <c r="A174" s="2">
-        <v>35278</v>
+        <v>35309</v>
       </c>
       <c r="B174">
-        <v>617720000000</v>
+        <v>627415000000</v>
       </c>
       <c r="C174">
-        <v>1.562011871290222</v>
+        <v>1.565435190983093</v>
       </c>
       <c r="D174">
-        <v>964885973133.3958</v>
+        <v>982177520350.6575</v>
       </c>
     </row>
     <row r="175" spans="1:4">
       <c r="A175" s="2">
-        <v>35309</v>
+        <v>35339</v>
       </c>
       <c r="B175">
-        <v>627415000000</v>
+        <v>627185000000</v>
       </c>
       <c r="C175">
-        <v>1.565435190983093</v>
+        <v>1.627339300244101</v>
       </c>
       <c r="D175">
-        <v>982177520350.6575</v>
+        <v>1020642799023.596</v>
       </c>
     </row>
     <row r="176" spans="1:4">
       <c r="A176" s="2">
-        <v>35339</v>
+        <v>35370</v>
       </c>
       <c r="B176">
-        <v>627185000000</v>
+        <v>633336000000</v>
       </c>
       <c r="C176">
-        <v>1.627339300244101</v>
+        <v>1.682085786375105</v>
       </c>
       <c r="D176">
-        <v>1020642799023.596</v>
+        <v>1065325483599.664</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="2">
-        <v>35370</v>
+        <v>35400</v>
       </c>
       <c r="B177">
-        <v>633336000000</v>
+        <v>637982000000</v>
       </c>
       <c r="C177">
-        <v>1.682085786375105</v>
+        <v>1.714383679067375</v>
       </c>
       <c r="D177">
-        <v>1065325483599.664</v>
+        <v>1093745928338.762</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="2">
-        <v>35400</v>
+        <v>35431</v>
       </c>
       <c r="B178">
-        <v>637982000000</v>
+        <v>648719000000</v>
       </c>
       <c r="C178">
-        <v>1.714383679067375</v>
+        <v>1.602564102564103</v>
       </c>
       <c r="D178">
-        <v>1093745928338.762</v>
+        <v>1039613782051.282</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="2">
-        <v>35431</v>
+        <v>35462</v>
       </c>
       <c r="B179">
-        <v>648719000000</v>
+        <v>654780000000</v>
       </c>
       <c r="C179">
-        <v>1.602564102564103</v>
+        <v>1.628664495114007</v>
       </c>
       <c r="D179">
-        <v>1039613782051.282</v>
+        <v>1066416938110.749</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2">
-        <v>35462</v>
+        <v>35490</v>
       </c>
       <c r="B180">
-        <v>654780000000</v>
+        <v>659762000000</v>
       </c>
       <c r="C180">
-        <v>1.628664495114007</v>
+        <v>1.637465203864418</v>
       </c>
       <c r="D180">
-        <v>1066416938110.749</v>
+        <v>1080337317831.996</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2">
-        <v>35490</v>
+        <v>35521</v>
       </c>
       <c r="B181">
-        <v>659762000000</v>
+        <v>663250000000</v>
       </c>
       <c r="C181">
-        <v>1.637465203864418</v>
+        <v>1.623903864891198</v>
       </c>
       <c r="D181">
-        <v>1080337317831.996</v>
+        <v>1077054238389.087</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2">
-        <v>35521</v>
+        <v>35551</v>
       </c>
       <c r="B182">
-        <v>663250000000</v>
+        <v>669276000000</v>
       </c>
       <c r="C182">
-        <v>1.623903864891198</v>
+        <v>1.641227638273429</v>
       </c>
       <c r="D182">
-        <v>1077054238389.087</v>
+        <v>1098434268833.087</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2">
-        <v>35551</v>
+        <v>35582</v>
       </c>
       <c r="B183">
-        <v>669276000000</v>
+        <v>691883000000</v>
       </c>
       <c r="C183">
-        <v>1.641227638273429</v>
+        <v>1.665556295802798</v>
       </c>
       <c r="D183">
-        <v>1098434268833.087</v>
+        <v>1152370086608.927</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2">
-        <v>35582</v>
+        <v>35612</v>
       </c>
       <c r="B184">
-        <v>691883000000</v>
+        <v>697612000000</v>
       </c>
       <c r="C184">
-        <v>1.665556295802798</v>
+        <v>1.640419947506562</v>
       </c>
       <c r="D184">
-        <v>1152370086608.927</v>
+        <v>1144376640419.947</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2">
-        <v>35612</v>
+        <v>35643</v>
       </c>
       <c r="B185">
-        <v>697612000000</v>
+        <v>700575000000</v>
       </c>
       <c r="C185">
-        <v>1.640419947506562</v>
+        <v>1.620745542949757</v>
       </c>
       <c r="D185">
-        <v>1144376640419.947</v>
+        <v>1135453808752.026</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="2">
-        <v>35643</v>
+        <v>35674</v>
       </c>
       <c r="B186">
-        <v>700575000000</v>
+        <v>660520000000</v>
       </c>
       <c r="C186">
-        <v>1.620745542949757</v>
+        <v>1.617861187510112</v>
       </c>
       <c r="D186">
-        <v>1135453808752.026</v>
+        <v>1068629671574.179</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2">
-        <v>35674</v>
+        <v>35704</v>
       </c>
       <c r="B187">
-        <v>660520000000</v>
+        <v>680566000000</v>
       </c>
       <c r="C187">
-        <v>1.617861187510112</v>
+        <v>1.672520488375983</v>
       </c>
       <c r="D187">
-        <v>1068629671574.179</v>
+        <v>1138260578692.089</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="2">
-        <v>35704</v>
+        <v>35735</v>
       </c>
       <c r="B188">
-        <v>680566000000</v>
+        <v>684652000000</v>
       </c>
       <c r="C188">
-        <v>1.672520488375983</v>
+        <v>1.688618709895306</v>
       </c>
       <c r="D188">
-        <v>1138260578692.089</v>
+        <v>1156116176967.241</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="2">
-        <v>35735</v>
+        <v>35765</v>
       </c>
       <c r="B189">
-        <v>684652000000</v>
+        <v>691525000000</v>
       </c>
       <c r="C189">
-        <v>1.688618709895306</v>
+        <v>1.651800462504129</v>
       </c>
       <c r="D189">
-        <v>1156116176967.241</v>
+        <v>1142261314833.168</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2">
-        <v>35765</v>
+        <v>35796</v>
       </c>
       <c r="B190">
-        <v>691525000000</v>
+        <v>693271000000</v>
       </c>
       <c r="C190">
-        <v>1.651800462504129</v>
+        <v>1.63425396306586</v>
       </c>
       <c r="D190">
-        <v>1142261314833.168</v>
+        <v>1132980879228.632</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="2">
-        <v>35796</v>
+        <v>35827</v>
       </c>
       <c r="B191">
-        <v>693271000000</v>
+        <v>696656000000</v>
       </c>
       <c r="C191">
-        <v>1.63425396306586</v>
+        <v>1.643925694558606</v>
       </c>
       <c r="D191">
-        <v>1132980879228.632</v>
+        <v>1145250698668.42</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="2">
-        <v>35827</v>
+        <v>35855</v>
       </c>
       <c r="B192">
-        <v>696656000000</v>
+        <v>700764000000</v>
       </c>
       <c r="C192">
-        <v>1.643925694558606</v>
+        <v>1.672520488375983</v>
       </c>
       <c r="D192">
-        <v>1145250698668.42</v>
+        <v>1172042147516.307</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2">
-        <v>35855</v>
+        <v>35886</v>
       </c>
       <c r="B193">
-        <v>700764000000</v>
+        <v>703331000000</v>
       </c>
       <c r="C193">
-        <v>1.672520488375983</v>
+        <v>1.672240802675585</v>
       </c>
       <c r="D193">
-        <v>1172042147516.307</v>
+        <v>1176138795986.622</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="2">
-        <v>35886</v>
+        <v>35916</v>
       </c>
       <c r="B194">
-        <v>703331000000</v>
+        <v>706471000000</v>
       </c>
       <c r="C194">
-        <v>1.672240802675585</v>
+        <v>1.630523398010762</v>
       </c>
       <c r="D194">
-        <v>1176138795986.622</v>
+        <v>1151917495516.061</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="2">
-        <v>35916</v>
+        <v>35947</v>
       </c>
       <c r="B195">
-        <v>706471000000</v>
+        <v>708289000000</v>
       </c>
       <c r="C195">
-        <v>1.630523398010762</v>
+        <v>1.667500416875104</v>
       </c>
       <c r="D195">
-        <v>1151917495516.061</v>
+        <v>1181072202768.051</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="2">
-        <v>35947</v>
+        <v>35977</v>
       </c>
       <c r="B196">
-        <v>708289000000</v>
+        <v>713922000000</v>
       </c>
       <c r="C196">
-        <v>1.667500416875104</v>
+        <v>1.633986928104575</v>
       </c>
       <c r="D196">
-        <v>1181072202768.051</v>
+        <v>1166539215686.274</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="2">
-        <v>35977</v>
+        <v>36008</v>
       </c>
       <c r="B197">
-        <v>713922000000</v>
+        <v>716632000000</v>
       </c>
       <c r="C197">
-        <v>1.633986928104575</v>
+        <v>1.682935038707506</v>
       </c>
       <c r="D197">
-        <v>1166539215686.274</v>
+        <v>1206045102659.037</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="2">
-        <v>36008</v>
+        <v>36039</v>
       </c>
       <c r="B198">
-        <v>716632000000</v>
+        <v>722274000000</v>
       </c>
       <c r="C198">
-        <v>1.682935038707506</v>
+        <v>1.701837985023826</v>
       </c>
       <c r="D198">
-        <v>1206045102659.037</v>
+        <v>1229193328795.099</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="2">
-        <v>36039</v>
+        <v>36069</v>
       </c>
       <c r="B199">
-        <v>722274000000</v>
+        <v>726106000000</v>
       </c>
       <c r="C199">
-        <v>1.701837985023826</v>
+        <v>1.675603217158177</v>
       </c>
       <c r="D199">
-        <v>1229193328795.099</v>
+        <v>1216665549597.855</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="2">
-        <v>36069</v>
+        <v>36100</v>
       </c>
       <c r="B200">
-        <v>726106000000</v>
+        <v>729029000000</v>
       </c>
       <c r="C200">
-        <v>1.675603217158177</v>
+        <v>1.649348507339601</v>
       </c>
       <c r="D200">
-        <v>1216665549597.855</v>
+        <v>1202422892957.282</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="2">
-        <v>36100</v>
+        <v>36130</v>
       </c>
       <c r="B201">
-        <v>729029000000</v>
+        <v>732268000000</v>
       </c>
       <c r="C201">
-        <v>1.649348507339601</v>
+        <v>1.658374792703151</v>
       </c>
       <c r="D201">
-        <v>1202422892957.282</v>
+        <v>1214374792703.151</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="2">
-        <v>36130</v>
+        <v>36161</v>
       </c>
       <c r="B202">
-        <v>732268000000</v>
+        <v>728217000000</v>
       </c>
       <c r="C202">
-        <v>1.658374792703151</v>
+        <v>1.645007402533311</v>
       </c>
       <c r="D202">
-        <v>1214374792703.151</v>
+        <v>1197922355650.601</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="2">
-        <v>36161</v>
+        <v>36192</v>
       </c>
       <c r="B203">
-        <v>728217000000</v>
+        <v>730712000000</v>
       </c>
       <c r="C203">
-        <v>1.645007402533311</v>
+        <v>1.60333493666827</v>
       </c>
       <c r="D203">
-        <v>1197922355650.601</v>
+        <v>1171576078242.745</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="2">
-        <v>36192</v>
+        <v>36220</v>
       </c>
       <c r="B204">
-        <v>730712000000</v>
+        <v>728454000000</v>
       </c>
       <c r="C204">
-        <v>1.60333493666827</v>
+        <v>1.6116035455278</v>
       </c>
       <c r="D204">
-        <v>1171576078242.745</v>
+        <v>1173979049153.908</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="2">
-        <v>36220</v>
+        <v>36251</v>
       </c>
       <c r="B205">
-        <v>728454000000</v>
+        <v>734294000000</v>
       </c>
       <c r="C205">
-        <v>1.6116035455278</v>
+        <v>1.609528408176404</v>
       </c>
       <c r="D205">
-        <v>1173979049153.908</v>
+        <v>1181867052953.485</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="2">
-        <v>36251</v>
+        <v>36281</v>
       </c>
       <c r="B206">
-        <v>734294000000</v>
+        <v>738292000000</v>
       </c>
       <c r="C206">
-        <v>1.609528408176404</v>
+        <v>1.602564102564103</v>
       </c>
       <c r="D206">
-        <v>1181867052953.485</v>
+        <v>1183160256410.256</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="2">
-        <v>36281</v>
+        <v>36312</v>
       </c>
       <c r="B207">
-        <v>738292000000</v>
+        <v>742193000000</v>
       </c>
       <c r="C207">
-        <v>1.602564102564103</v>
+        <v>1.578282828282828</v>
       </c>
       <c r="D207">
-        <v>1183160256410.256</v>
+        <v>1171390467171.717</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="2">
-        <v>36312</v>
+        <v>36342</v>
       </c>
       <c r="B208">
-        <v>742193000000</v>
+        <v>742954000000</v>
       </c>
       <c r="C208">
-        <v>1.578282828282828</v>
+        <v>1.621533971136695</v>
       </c>
       <c r="D208">
-        <v>1171390467171.717</v>
+        <v>1204725149991.892</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="2">
-        <v>36342</v>
+        <v>36373</v>
       </c>
       <c r="B209">
-        <v>742954000000</v>
+        <v>743940000000</v>
       </c>
       <c r="C209">
-        <v>1.621533971136695</v>
+        <v>1.603849238171612</v>
       </c>
       <c r="D209">
-        <v>1204725149991.892</v>
+        <v>1193167602245.389</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="2">
-        <v>36373</v>
+        <v>36404</v>
       </c>
       <c r="B210">
-        <v>743940000000</v>
+        <v>738154000000</v>
       </c>
       <c r="C210">
-        <v>1.603849238171612</v>
+        <v>1.647446457990115</v>
       </c>
       <c r="D210">
-        <v>1193167602245.389</v>
+        <v>1216069192751.236</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="2">
-        <v>36404</v>
+        <v>36434</v>
       </c>
       <c r="B211">
-        <v>738154000000</v>
+        <v>741868000000</v>
       </c>
       <c r="C211">
-        <v>1.647446457990115</v>
+        <v>1.644195988161789</v>
       </c>
       <c r="D211">
-        <v>1216069192751.236</v>
+        <v>1219776389345.61</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="2">
-        <v>36434</v>
+        <v>36465</v>
       </c>
       <c r="B212">
-        <v>741868000000</v>
+        <v>748110000000</v>
       </c>
       <c r="C212">
-        <v>1.644195988161789</v>
+        <v>1.599232368463138</v>
       </c>
       <c r="D212">
-        <v>1219776389345.61</v>
+        <v>1196401727170.958</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="2">
-        <v>36465</v>
+        <v>36495</v>
       </c>
       <c r="B213">
-        <v>748110000000</v>
+        <v>754894000000</v>
       </c>
       <c r="C213">
-        <v>1.599232368463138</v>
+        <v>1.614726303891491</v>
       </c>
       <c r="D213">
-        <v>1196401727170.958</v>
+        <v>1218947198449.863</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="2">
-        <v>36495</v>
+        <v>36526</v>
       </c>
       <c r="B214">
-        <v>754894000000</v>
+        <v>754973000000</v>
       </c>
       <c r="C214">
-        <v>1.614726303891491</v>
+        <v>1.616553507921112</v>
       </c>
       <c r="D214">
-        <v>1218947198449.863</v>
+        <v>1220454251535.726</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="2">
-        <v>36526</v>
+        <v>36557</v>
       </c>
       <c r="B215">
-        <v>754973000000</v>
+        <v>762561000000</v>
       </c>
       <c r="C215">
-        <v>1.616553507921112</v>
+        <v>1.579279848389135</v>
       </c>
       <c r="D215">
-        <v>1220454251535.726</v>
+        <v>1204297220467.467</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="2">
-        <v>36557</v>
+        <v>36586</v>
       </c>
       <c r="B216">
-        <v>762561000000</v>
+        <v>765290000000</v>
       </c>
       <c r="C216">
-        <v>1.579279848389135</v>
+        <v>1.591596371160274</v>
       </c>
       <c r="D216">
-        <v>1204297220467.467</v>
+        <v>1218032786885.246</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="2">
-        <v>36586</v>
+        <v>36617</v>
       </c>
       <c r="B217">
-        <v>765290000000</v>
+        <v>775477000000</v>
       </c>
       <c r="C217">
-        <v>1.591596371160274</v>
+        <v>1.553760099440646</v>
       </c>
       <c r="D217">
-        <v>1218032786885.246</v>
+        <v>1204905220633.934</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="2">
-        <v>36617</v>
+        <v>36647</v>
       </c>
       <c r="B218">
-        <v>775477000000</v>
+        <v>786459000000</v>
       </c>
       <c r="C218">
-        <v>1.553760099440646</v>
+        <v>1.5008254539997</v>
       </c>
       <c r="D218">
-        <v>1204905220633.934</v>
+        <v>1180337685727.15</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="2">
-        <v>36647</v>
+        <v>36678</v>
       </c>
       <c r="B219">
-        <v>786459000000</v>
+        <v>792298000000</v>
       </c>
       <c r="C219">
-        <v>1.5008254539997</v>
+        <v>1.517450682852807</v>
       </c>
       <c r="D219">
-        <v>1180337685727.15</v>
+        <v>1202273141122.913</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="2">
-        <v>36678</v>
+        <v>36708</v>
       </c>
       <c r="B220">
-        <v>792298000000</v>
+        <v>793562000000</v>
       </c>
       <c r="C220">
-        <v>1.517450682852807</v>
+        <v>1.5001500150015</v>
       </c>
       <c r="D220">
-        <v>1202273141122.913</v>
+        <v>1190462046204.62</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="2">
-        <v>36708</v>
+        <v>36739</v>
       </c>
       <c r="B221">
-        <v>793562000000</v>
+        <v>801121000000</v>
       </c>
       <c r="C221">
-        <v>1.5001500150015</v>
+        <v>1.446968600781363</v>
       </c>
       <c r="D221">
-        <v>1190462046204.62</v>
+        <v>1159196932426.566</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="2">
-        <v>36739</v>
+        <v>36770</v>
       </c>
       <c r="B222">
-        <v>801121000000</v>
+        <v>804800000000</v>
       </c>
       <c r="C222">
-        <v>1.446968600781363</v>
+        <v>1.476232654266312</v>
       </c>
       <c r="D222">
-        <v>1159196932426.566</v>
+        <v>1188072040153.528</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="2">
-        <v>36770</v>
+        <v>36800</v>
       </c>
       <c r="B223">
-        <v>804800000000</v>
+        <v>812462000000</v>
       </c>
       <c r="C223">
-        <v>1.476232654266312</v>
+        <v>1.447806573041842</v>
       </c>
       <c r="D223">
-        <v>1188072040153.528</v>
+        <v>1176287823946.721</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="2">
-        <v>36800</v>
+        <v>36831</v>
       </c>
       <c r="B224">
-        <v>812462000000</v>
+        <v>816932000000</v>
       </c>
       <c r="C224">
-        <v>1.447806573041842</v>
+        <v>1.42551674982181</v>
       </c>
       <c r="D224">
-        <v>1176287823946.721</v>
+        <v>1164550249465.431</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="2">
-        <v>36831</v>
+        <v>36861</v>
       </c>
       <c r="B225">
-        <v>816932000000</v>
+        <v>825924000000</v>
       </c>
       <c r="C225">
-        <v>1.42551674982181</v>
+        <v>1.496333981744725</v>
       </c>
       <c r="D225">
-        <v>1164550249465.431</v>
+        <v>1235858147538.531</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="2">
-        <v>36861</v>
+        <v>36892</v>
       </c>
       <c r="B226">
-        <v>825924000000</v>
+        <v>834749000000</v>
       </c>
       <c r="C226">
-        <v>1.496333981744725</v>
+        <v>1.463914507392768</v>
       </c>
       <c r="D226">
-        <v>1235858147538.531</v>
+        <v>1222001171131.606</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="2">
-        <v>36892</v>
+        <v>36923</v>
       </c>
       <c r="B227">
-        <v>834749000000</v>
+        <v>833780000000</v>
       </c>
       <c r="C227">
-        <v>1.463914507392768</v>
+        <v>1.445504481063891</v>
       </c>
       <c r="D227">
-        <v>1222001171131.606</v>
+        <v>1205232726221.451</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="2">
-        <v>36923</v>
+        <v>36951</v>
       </c>
       <c r="B228">
-        <v>833780000000</v>
+        <v>848444000000</v>
       </c>
       <c r="C228">
-        <v>1.445504481063891</v>
+        <v>1.414627245720753</v>
       </c>
       <c r="D228">
-        <v>1205232726221.451</v>
+        <v>1200231998868.298</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="2">
-        <v>36951</v>
+        <v>36982</v>
       </c>
       <c r="B229">
-        <v>848444000000</v>
+        <v>849637000000</v>
       </c>
       <c r="C229">
-        <v>1.414627245720753</v>
+        <v>1.433280779704744</v>
       </c>
       <c r="D229">
-        <v>1200231998868.298</v>
+        <v>1217768381826</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="2">
-        <v>36982</v>
+        <v>37012</v>
       </c>
       <c r="B230">
-        <v>849637000000</v>
+        <v>850902000000</v>
       </c>
       <c r="C230">
-        <v>1.433280779704744</v>
+        <v>1.418439716312057</v>
       </c>
       <c r="D230">
-        <v>1217768381826</v>
+        <v>1206953191489.362</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="2">
-        <v>37012</v>
+        <v>37043</v>
       </c>
       <c r="B231">
-        <v>850902000000</v>
+        <v>852962000000</v>
       </c>
       <c r="C231">
-        <v>1.418439716312057</v>
+        <v>1.41622999575131</v>
       </c>
       <c r="D231">
-        <v>1206953191489.362</v>
+        <v>1207990369636.029</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="2">
-        <v>37043</v>
+        <v>37073</v>
       </c>
       <c r="B232">
-        <v>852962000000</v>
+        <v>865112000000</v>
       </c>
       <c r="C232">
-        <v>1.41622999575131</v>
+        <v>1.425313568985177</v>
       </c>
       <c r="D232">
-        <v>1207990369636.029</v>
+        <v>1233055872291.904</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="2">
-        <v>37073</v>
+        <v>37104</v>
       </c>
       <c r="B233">
-        <v>865112000000</v>
+        <v>867394000000</v>
       </c>
       <c r="C233">
-        <v>1.425313568985177</v>
+        <v>1.454122437109205</v>
       </c>
       <c r="D233">
-        <v>1233055872291.904</v>
+        <v>1261297077213.902</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="2">
-        <v>37104</v>
+        <v>37135</v>
       </c>
       <c r="B234">
-        <v>867394000000</v>
+        <v>879930000000</v>
       </c>
       <c r="C234">
-        <v>1.454122437109205</v>
+        <v>1.474491300501327</v>
       </c>
       <c r="D234">
-        <v>1261297077213.902</v>
+        <v>1297449130050.133</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="2">
-        <v>37135</v>
+        <v>37165</v>
       </c>
       <c r="B235">
-        <v>879930000000</v>
+        <v>886043000000</v>
       </c>
       <c r="C235">
-        <v>1.474491300501327</v>
+        <v>1.455180442374854</v>
       </c>
       <c r="D235">
-        <v>1297449130050.133</v>
+        <v>1289352444703.143</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="2">
-        <v>37165</v>
+        <v>37196</v>
       </c>
       <c r="B236">
-        <v>886043000000</v>
+        <v>887309000000</v>
       </c>
       <c r="C236">
-        <v>1.455180442374854</v>
+        <v>1.424501424501425</v>
       </c>
       <c r="D236">
-        <v>1289352444703.143</v>
+        <v>1263972934472.935</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="2">
-        <v>37196</v>
+        <v>37226</v>
       </c>
       <c r="B237">
-        <v>887309000000</v>
+        <v>892090000000</v>
       </c>
       <c r="C237">
-        <v>1.424501424501425</v>
+        <v>1.450747134774409</v>
       </c>
       <c r="D237">
-        <v>1263972934472.935</v>
+        <v>1294197011460.902</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="2">
-        <v>37226</v>
+        <v>37257</v>
       </c>
       <c r="B238">
-        <v>892090000000</v>
+        <v>885655000000</v>
       </c>
       <c r="C238">
-        <v>1.450747134774409</v>
+        <v>1.410835214446953</v>
       </c>
       <c r="D238">
-        <v>1294197011460.902</v>
+        <v>1249513261851.016</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="2">
-        <v>37257</v>
+        <v>37288</v>
       </c>
       <c r="B239">
-        <v>885655000000</v>
+        <v>887706000000</v>
       </c>
       <c r="C239">
-        <v>1.410835214446953</v>
+        <v>1.416831963729102</v>
       </c>
       <c r="D239">
-        <v>1249513261851.016</v>
+        <v>1257730235194.106</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="2">
-        <v>37288</v>
+        <v>37316</v>
       </c>
       <c r="B240">
-        <v>887706000000</v>
+        <v>892254000000</v>
       </c>
       <c r="C240">
-        <v>1.416831963729102</v>
+        <v>1.425923285327249</v>
       </c>
       <c r="D240">
-        <v>1257730235194.106</v>
+        <v>1272285755026.38</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="2">
-        <v>37316</v>
+        <v>37347</v>
       </c>
       <c r="B241">
-        <v>892254000000</v>
+        <v>894439000000</v>
       </c>
       <c r="C241">
-        <v>1.425923285327249</v>
+        <v>1.457938474996355</v>
       </c>
       <c r="D241">
-        <v>1272285755026.38</v>
+        <v>1304037031637.265</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="2">
-        <v>37347</v>
+        <v>37377</v>
       </c>
       <c r="B242">
-        <v>894439000000</v>
+        <v>899955000000</v>
       </c>
       <c r="C242">
-        <v>1.457938474996355</v>
+        <v>1.45602795573675</v>
       </c>
       <c r="D242">
-        <v>1304037031637.265</v>
+        <v>1310359638905.067</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="2">
-        <v>37377</v>
+        <v>37408</v>
       </c>
       <c r="B243">
-        <v>899955000000</v>
+        <v>903085000000</v>
       </c>
       <c r="C243">
-        <v>1.45602795573675</v>
+        <v>1.533272002453235</v>
       </c>
       <c r="D243">
-        <v>1310359638905.067</v>
+        <v>1384674946335.48</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="2">
-        <v>37408</v>
+        <v>37438</v>
       </c>
       <c r="B244">
-        <v>903085000000</v>
+        <v>909212000000</v>
       </c>
       <c r="C244">
-        <v>1.533272002453235</v>
+        <v>1.563477173233271</v>
       </c>
       <c r="D244">
-        <v>1384674946335.48</v>
+        <v>1421532207629.769</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="2">
-        <v>37438</v>
+        <v>37469</v>
       </c>
       <c r="B245">
-        <v>909212000000</v>
+        <v>917589000000</v>
       </c>
       <c r="C245">
-        <v>1.563477173233271</v>
+        <v>1.550387596899225</v>
       </c>
       <c r="D245">
-        <v>1421532207629.769</v>
+        <v>1422618604651.163</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="2">
-        <v>37469</v>
+        <v>37500</v>
       </c>
       <c r="B246">
-        <v>917589000000</v>
+        <v>917413000000</v>
       </c>
       <c r="C246">
-        <v>1.550387596899225</v>
+        <v>1.568381430363865</v>
       </c>
       <c r="D246">
-        <v>1422618604651.163</v>
+        <v>1438853513174.404</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="2">
-        <v>37500</v>
+        <v>37530</v>
       </c>
       <c r="B247">
-        <v>917413000000</v>
+        <v>927123000000</v>
       </c>
       <c r="C247">
-        <v>1.568381430363865</v>
+        <v>1.564455569461827</v>
       </c>
       <c r="D247">
-        <v>1438853513174.404</v>
+        <v>1450442740926.158</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="2">
-        <v>37530</v>
+        <v>37561</v>
       </c>
       <c r="B248">
-        <v>927123000000</v>
+        <v>930592000000</v>
       </c>
       <c r="C248">
-        <v>1.564455569461827</v>
+        <v>1.557875058420315</v>
       </c>
       <c r="D248">
-        <v>1450442740926.158</v>
+        <v>1449746066365.478</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="2">
-        <v>37561</v>
+        <v>37591</v>
       </c>
       <c r="B249">
-        <v>930592000000</v>
+        <v>932620000000</v>
       </c>
       <c r="C249">
-        <v>1.557875058420315</v>
+        <v>1.6116035455278</v>
       </c>
       <c r="D249">
-        <v>1449746066365.478</v>
+        <v>1503013698630.137</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" s="2">
-        <v>37591</v>
+        <v>37622</v>
       </c>
       <c r="B250">
-        <v>932620000000</v>
+        <v>931987000000</v>
       </c>
       <c r="C250">
-        <v>1.6116035455278</v>
+        <v>1.646903820816864</v>
       </c>
       <c r="D250">
-        <v>1503013698630.137</v>
+        <v>1534892951251.647</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="2">
-        <v>37622</v>
+        <v>37653</v>
       </c>
       <c r="B251">
-        <v>931987000000</v>
+        <v>943611000000</v>
       </c>
       <c r="C251">
-        <v>1.646903820816864</v>
+        <v>1.573069057731634</v>
       </c>
       <c r="D251">
-        <v>1534892951251.647</v>
+        <v>1484365266635.205</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" s="2">
-        <v>37653</v>
+        <v>37681</v>
       </c>
       <c r="B252">
-        <v>943611000000</v>
+        <v>940322000000</v>
       </c>
       <c r="C252">
-        <v>1.573069057731634</v>
+        <v>1.58202816010125</v>
       </c>
       <c r="D252">
-        <v>1484365266635.205</v>
+        <v>1487615883562.728</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" s="2">
-        <v>37681</v>
+        <v>37712</v>
       </c>
       <c r="B253">
-        <v>940322000000</v>
+        <v>947353000000</v>
       </c>
       <c r="C253">
-        <v>1.58202816010125</v>
+        <v>1.597954618088846</v>
       </c>
       <c r="D253">
-        <v>1487615883562.728</v>
+        <v>1513827101310.323</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="2">
-        <v>37712</v>
+        <v>37742</v>
       </c>
       <c r="B254">
-        <v>947353000000</v>
+        <v>950857000000</v>
       </c>
       <c r="C254">
-        <v>1.597954618088846</v>
+        <v>1.636393388970709</v>
       </c>
       <c r="D254">
-        <v>1513827101310.323</v>
+        <v>1555976108656.521</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="2">
-        <v>37742</v>
+        <v>37773</v>
       </c>
       <c r="B255">
-        <v>950857000000</v>
+        <v>958832000000</v>
       </c>
       <c r="C255">
-        <v>1.636393388970709</v>
+        <v>1.655355073663301</v>
       </c>
       <c r="D255">
-        <v>1555976108656.521</v>
+        <v>1587207415990.73</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" s="2">
-        <v>37773</v>
+        <v>37803</v>
       </c>
       <c r="B256">
-        <v>958832000000</v>
+        <v>963658000000</v>
       </c>
       <c r="C256">
-        <v>1.655355073663301</v>
+        <v>1.610824742268041</v>
       </c>
       <c r="D256">
-        <v>1587207415990.73</v>
+        <v>1552284149484.536</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="2">
-        <v>37803</v>
+        <v>37834</v>
       </c>
       <c r="B257">
-        <v>963658000000</v>
+        <v>968813000000</v>
       </c>
       <c r="C257">
-        <v>1.610824742268041</v>
+        <v>1.577784790154623</v>
       </c>
       <c r="D257">
-        <v>1552284149484.536</v>
+        <v>1528578415904.071</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="2">
-        <v>37834</v>
+        <v>37865</v>
       </c>
       <c r="B258">
-        <v>968813000000</v>
+        <v>971829000000</v>
       </c>
       <c r="C258">
-        <v>1.577784790154623</v>
+        <v>1.661957786272229</v>
       </c>
       <c r="D258">
-        <v>1528578415904.071</v>
+        <v>1615138773475.154</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="2">
-        <v>37865</v>
+        <v>37895</v>
       </c>
       <c r="B259">
-        <v>971829000000</v>
+        <v>978314000000</v>
       </c>
       <c r="C259">
-        <v>1.661957786272229</v>
+        <v>1.695777513990165</v>
       </c>
       <c r="D259">
-        <v>1615138773475.154</v>
+        <v>1659002882821.774</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="2">
-        <v>37895</v>
+        <v>37926</v>
       </c>
       <c r="B260">
-        <v>978314000000</v>
+        <v>988357000000</v>
       </c>
       <c r="C260">
-        <v>1.695777513990165</v>
+        <v>1.722059583261581</v>
       </c>
       <c r="D260">
-        <v>1659002882821.774</v>
+        <v>1702009643533.666</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="2">
-        <v>37926</v>
+        <v>37956</v>
       </c>
       <c r="B261">
-        <v>988357000000</v>
+        <v>997834000000</v>
       </c>
       <c r="C261">
-        <v>1.722059583261581</v>
+        <v>1.77683013503909</v>
       </c>
       <c r="D261">
-        <v>1702009643533.666</v>
+        <v>1772981520966.596</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="2">
-        <v>37956</v>
+        <v>37987</v>
       </c>
       <c r="B262">
-        <v>997834000000</v>
+        <v>1006973000000</v>
       </c>
       <c r="C262">
-        <v>1.77683013503909</v>
+        <v>1.823486506199854</v>
       </c>
       <c r="D262">
-        <v>1772981520966.596</v>
+        <v>1836201677607.586</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="2">
-        <v>37987</v>
+        <v>38018</v>
       </c>
       <c r="B263">
-        <v>1006973000000</v>
+        <v>1014084000000</v>
       </c>
       <c r="C263">
-        <v>1.823486506199854</v>
+        <v>1.868460388639761</v>
       </c>
       <c r="D263">
-        <v>1836201677607.586</v>
+        <v>1894775784753.363</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="2">
-        <v>38018</v>
+        <v>38047</v>
       </c>
       <c r="B264">
-        <v>1014084000000</v>
+        <v>1019846000000</v>
       </c>
       <c r="C264">
-        <v>1.868460388639761</v>
+        <v>1.845699520118125</v>
       </c>
       <c r="D264">
-        <v>1894775784753.363</v>
+        <v>1882329272794.389</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="2">
-        <v>38047</v>
+        <v>38078</v>
       </c>
       <c r="B265">
-        <v>1019846000000</v>
+        <v>1029067000000</v>
       </c>
       <c r="C265">
-        <v>1.845699520118125</v>
+        <v>1.778410101369376</v>
       </c>
       <c r="D265">
-        <v>1882329272794.389</v>
+        <v>1830103147785.879</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="2">
-        <v>38078</v>
+        <v>38108</v>
       </c>
       <c r="B266">
-        <v>1029067000000</v>
+        <v>1032545000000</v>
       </c>
       <c r="C266">
-        <v>1.778410101369376</v>
+        <v>1.832172957127153</v>
       </c>
       <c r="D266">
-        <v>1830103147785.879</v>
+        <v>1891801026016.856</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="2">
-        <v>38108</v>
+        <v>38139</v>
       </c>
       <c r="B267">
-        <v>1032545000000</v>
+        <v>1047502000000</v>
       </c>
       <c r="C267">
-        <v>1.832172957127153</v>
+        <v>1.820498816675769</v>
       </c>
       <c r="D267">
-        <v>1891801026016.856</v>
+        <v>1906976151465.501</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="2">
-        <v>38139</v>
+        <v>38169</v>
       </c>
       <c r="B268">
-        <v>1047502000000</v>
+        <v>1052836000000</v>
       </c>
       <c r="C268">
-        <v>1.820498816675769</v>
+        <v>1.819836214740673</v>
       </c>
       <c r="D268">
-        <v>1906976151465.501</v>
+        <v>1915989080982.712</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="2">
-        <v>38169</v>
+        <v>38200</v>
       </c>
       <c r="B269">
-        <v>1052836000000</v>
+        <v>1065079000000</v>
       </c>
       <c r="C269">
-        <v>1.819836214740673</v>
+        <v>1.802776275464215</v>
       </c>
       <c r="D269">
-        <v>1915989080982.712</v>
+        <v>1920099152695.151</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="2">
-        <v>38200</v>
+        <v>38231</v>
       </c>
       <c r="B270">
-        <v>1065079000000</v>
+        <v>1073336000000</v>
       </c>
       <c r="C270">
-        <v>1.802776275464215</v>
+        <v>1.81257930034439</v>
       </c>
       <c r="D270">
-        <v>1920099152695.151</v>
+        <v>1945506615914.446</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="2">
-        <v>38231</v>
+        <v>38261</v>
       </c>
       <c r="B271">
-        <v>1073336000000</v>
+        <v>1081830000000</v>
       </c>
       <c r="C271">
-        <v>1.81257930034439</v>
+        <v>1.836547291092746</v>
       </c>
       <c r="D271">
-        <v>1945506615914.446</v>
+        <v>1986831955922.865</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="2">
-        <v>38261</v>
+        <v>38292</v>
       </c>
       <c r="B272">
-        <v>1081830000000</v>
+        <v>1093097000000</v>
       </c>
       <c r="C272">
-        <v>1.836547291092746</v>
+        <v>1.909490166125644</v>
       </c>
       <c r="D272">
-        <v>1986831955922.865</v>
+        <v>2087257972121.443</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="2">
-        <v>38292</v>
+        <v>38322</v>
       </c>
       <c r="B273">
-        <v>1093097000000</v>
+        <v>1097986000000</v>
       </c>
       <c r="C273">
-        <v>1.909490166125644</v>
+        <v>1.918649270913277</v>
       </c>
       <c r="D273">
-        <v>2087257972121.443</v>
+        <v>2106650038372.985</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="2">
-        <v>38322</v>
+        <v>38353</v>
       </c>
       <c r="B274">
-        <v>1097986000000</v>
+        <v>1109899000000</v>
       </c>
       <c r="C274">
-        <v>1.918649270913277</v>
+        <v>1.883239171374764</v>
       </c>
       <c r="D274">
-        <v>2106650038372.985</v>
+        <v>2090205273069.68</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="2">
-        <v>38353</v>
+        <v>38384</v>
       </c>
       <c r="B275">
-        <v>1109899000000</v>
+        <v>1114240000000</v>
       </c>
       <c r="C275">
-        <v>1.883239171374764</v>
+        <v>1.921229586935639</v>
       </c>
       <c r="D275">
-        <v>2090205273069.68</v>
+        <v>2140710854947.167</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="2">
-        <v>38384</v>
+        <v>38412</v>
       </c>
       <c r="B276">
-        <v>1114240000000</v>
+        <v>1126640000000</v>
       </c>
       <c r="C276">
-        <v>1.921229586935639</v>
+        <v>1.89000189000189</v>
       </c>
       <c r="D276">
-        <v>2140710854947.167</v>
+        <v>2129351729351.729</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="2">
-        <v>38412</v>
+        <v>38443</v>
       </c>
       <c r="B277">
-        <v>1126640000000</v>
+        <v>1141002000000</v>
       </c>
       <c r="C277">
-        <v>1.89000189000189</v>
+        <v>1.909125620465826</v>
       </c>
       <c r="D277">
-        <v>2129351729351.729</v>
+        <v>2178316151202.749</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="2">
-        <v>38443</v>
+        <v>38473</v>
       </c>
       <c r="B278">
-        <v>1141002000000</v>
+        <v>1156696000000</v>
       </c>
       <c r="C278">
-        <v>1.909125620465826</v>
+        <v>1.817190623296384</v>
       </c>
       <c r="D278">
-        <v>2178316151202.749</v>
+        <v>2101937125204.434</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="2">
-        <v>38473</v>
+        <v>38504</v>
       </c>
       <c r="B279">
-        <v>1156696000000</v>
+        <v>1163947000000</v>
       </c>
       <c r="C279">
-        <v>1.817190623296384</v>
+        <v>1.791793585378964</v>
       </c>
       <c r="D279">
-        <v>2101937125204.434</v>
+        <v>2085552768321.089</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="2">
-        <v>38504</v>
+        <v>38534</v>
       </c>
       <c r="B280">
-        <v>1163947000000</v>
+        <v>1176816000000</v>
       </c>
       <c r="C280">
-        <v>1.791793585378964</v>
+        <v>1.758087201125176</v>
       </c>
       <c r="D280">
-        <v>2085552768321.089</v>
+        <v>2068945147679.325</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="2">
-        <v>38534</v>
+        <v>38565</v>
       </c>
       <c r="B281">
-        <v>1176816000000</v>
+        <v>1173328000000</v>
       </c>
       <c r="C281">
-        <v>1.758087201125176</v>
+        <v>1.804728388377549</v>
       </c>
       <c r="D281">
-        <v>2068945147679.325</v>
+        <v>2117538350478.253</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="2">
-        <v>38565</v>
+        <v>38596</v>
       </c>
       <c r="B282">
-        <v>1173328000000</v>
+        <v>1193005000000</v>
       </c>
       <c r="C282">
-        <v>1.804728388377549</v>
+        <v>1.768659356207994</v>
       </c>
       <c r="D282">
-        <v>2117538350478.253</v>
+        <v>2110019455252.918</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="2">
-        <v>38596</v>
+        <v>38626</v>
       </c>
       <c r="B283">
-        <v>1193005000000</v>
+        <v>1202441000000</v>
       </c>
       <c r="C283">
-        <v>1.768659356207994</v>
+        <v>1.771165426850868</v>
       </c>
       <c r="D283">
-        <v>2110019455252.918</v>
+        <v>2129721927027.984</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="2">
-        <v>38626</v>
+        <v>38657</v>
       </c>
       <c r="B284">
-        <v>1202441000000</v>
+        <v>1212700000000</v>
       </c>
       <c r="C284">
-        <v>1.771165426850868</v>
+        <v>1.730403183941859</v>
       </c>
       <c r="D284">
-        <v>2129721927027.984</v>
+        <v>2098459941166.292</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="2">
-        <v>38657</v>
+        <v>38687</v>
       </c>
       <c r="B285">
-        <v>1212700000000</v>
+        <v>1226950000000</v>
       </c>
       <c r="C285">
-        <v>1.730403183941859</v>
+        <v>1.723840717117739</v>
       </c>
       <c r="D285">
-        <v>2098459941166.292</v>
+        <v>2115066367867.609</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="2">
-        <v>38687</v>
+        <v>38718</v>
       </c>
       <c r="B286">
-        <v>1226950000000</v>
+        <v>1233062000000</v>
       </c>
       <c r="C286">
-        <v>1.723840717117739</v>
+        <v>1.779676098949991</v>
       </c>
       <c r="D286">
-        <v>2115066367867.609</v>
+        <v>2194450969923.474</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="2">
-        <v>38718</v>
+        <v>38749</v>
       </c>
       <c r="B287">
-        <v>1233062000000</v>
+        <v>1252313000000</v>
       </c>
       <c r="C287">
-        <v>1.779676098949991</v>
+        <v>1.754693805930865</v>
       </c>
       <c r="D287">
-        <v>2194450969923.474</v>
+        <v>2197425864186.7</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="2">
-        <v>38749</v>
+        <v>38777</v>
       </c>
       <c r="B288">
-        <v>1252313000000</v>
+        <v>1261558000000</v>
       </c>
       <c r="C288">
-        <v>1.754693805930865</v>
+        <v>1.738223535546671</v>
       </c>
       <c r="D288">
-        <v>2197425864186.7</v>
+        <v>2192869807057.188</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="2">
-        <v>38777</v>
+        <v>38808</v>
       </c>
       <c r="B289">
-        <v>1261558000000</v>
+        <v>1275564000000</v>
       </c>
       <c r="C289">
-        <v>1.738223535546671</v>
+        <v>1.825817053131276</v>
       </c>
       <c r="D289">
-        <v>2192869807057.188</v>
+        <v>2328946503560.343</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="2">
-        <v>38808</v>
+        <v>38838</v>
       </c>
       <c r="B290">
-        <v>1275564000000</v>
+        <v>1279359000000</v>
       </c>
       <c r="C290">
-        <v>1.825817053131276</v>
+        <v>1.872308556450103</v>
       </c>
       <c r="D290">
-        <v>2328946503560.343</v>
+        <v>2395354802471.447</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="2">
-        <v>38838</v>
+        <v>38869</v>
       </c>
       <c r="B291">
-        <v>1279359000000</v>
+        <v>1297929000000</v>
       </c>
       <c r="C291">
-        <v>1.872308556450103</v>
+        <v>1.849112426035503</v>
       </c>
       <c r="D291">
-        <v>2395354802471.447</v>
+        <v>2400016642011.834</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="2">
-        <v>38869</v>
+        <v>38899</v>
       </c>
       <c r="B292">
-        <v>1297929000000</v>
+        <v>1310723000000</v>
       </c>
       <c r="C292">
-        <v>1.849112426035503</v>
+        <v>1.868460388639761</v>
       </c>
       <c r="D292">
-        <v>2400016642011.834</v>
+        <v>2449034005979.073</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="2">
-        <v>38899</v>
+        <v>38930</v>
       </c>
       <c r="B293">
-        <v>1310723000000</v>
+        <v>1321893000000</v>
       </c>
       <c r="C293">
-        <v>1.868460388639761</v>
+        <v>1.904761904761905</v>
       </c>
       <c r="D293">
-        <v>2449034005979.073</v>
+        <v>2517891428571.428</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="2">
-        <v>38930</v>
+        <v>38961</v>
       </c>
       <c r="B294">
-        <v>1321893000000</v>
+        <v>1340612000000</v>
       </c>
       <c r="C294">
-        <v>1.904761904761905</v>
+        <v>1.874062968515742</v>
       </c>
       <c r="D294">
-        <v>2517891428571.428</v>
+        <v>2512391304347.826</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="2">
-        <v>38961</v>
+        <v>38991</v>
       </c>
       <c r="B295">
-        <v>1340612000000</v>
+        <v>1362179000000</v>
       </c>
       <c r="C295">
-        <v>1.874062968515742</v>
+        <v>1.907304978065993</v>
       </c>
       <c r="D295">
-        <v>2512391304347.826</v>
+        <v>2598090787716.956</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="2">
-        <v>38991</v>
+        <v>39022</v>
       </c>
       <c r="B296">
-        <v>1362179000000</v>
+        <v>1373469000000</v>
       </c>
       <c r="C296">
-        <v>1.907304978065993</v>
+        <v>1.966568338249754</v>
       </c>
       <c r="D296">
-        <v>2598090787716.956</v>
+        <v>2701020648967.552</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="2">
-        <v>39022</v>
+        <v>39052</v>
       </c>
       <c r="B297">
-        <v>1373469000000</v>
+        <v>1399379000000</v>
       </c>
       <c r="C297">
-        <v>1.966568338249754</v>
+        <v>1.96078431372549</v>
       </c>
       <c r="D297">
-        <v>2701020648967.552</v>
+        <v>2743880392156.863</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="2">
-        <v>39052</v>
+        <v>39083</v>
       </c>
       <c r="B298">
-        <v>1399379000000</v>
+        <v>1400685000000</v>
       </c>
       <c r="C298">
-        <v>1.96078431372549</v>
+        <v>1.966181675186787</v>
       </c>
       <c r="D298">
-        <v>2743880392156.863</v>
+        <v>2754001179709.005</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="2">
-        <v>39083</v>
+        <v>39114</v>
       </c>
       <c r="B299">
-        <v>1400685000000</v>
+        <v>1419749000000</v>
       </c>
       <c r="C299">
-        <v>1.966181675186787</v>
+        <v>1.965022597759874</v>
       </c>
       <c r="D299">
-        <v>2754001179709.005</v>
+        <v>2789838868146.983</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="2">
-        <v>39114</v>
+        <v>39142</v>
       </c>
       <c r="B300">
-        <v>1419749000000</v>
+        <v>1441536000000</v>
       </c>
       <c r="C300">
-        <v>1.965022597759874</v>
+        <v>1.968503937007874</v>
       </c>
       <c r="D300">
-        <v>2789838868146.983</v>
+        <v>2837669291338.583</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="2">
-        <v>39142</v>
+        <v>39173</v>
       </c>
       <c r="B301">
-        <v>1441536000000</v>
+        <v>1459002000000</v>
       </c>
       <c r="C301">
-        <v>1.968503937007874</v>
+        <v>2.000400080016003</v>
       </c>
       <c r="D301">
-        <v>2837669291338.583</v>
+        <v>2918587717543.509</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="2">
-        <v>39173</v>
+        <v>39203</v>
       </c>
       <c r="B302">
-        <v>1459002000000</v>
+        <v>1480566000000</v>
       </c>
       <c r="C302">
-        <v>2.000400080016003</v>
+        <v>1.980590215884333</v>
       </c>
       <c r="D302">
-        <v>2918587717543.509</v>
+        <v>2932394533571.004</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="2">
-        <v>39203</v>
+        <v>39234</v>
       </c>
       <c r="B303">
-        <v>1480566000000</v>
+        <v>1498320000000</v>
       </c>
       <c r="C303">
-        <v>1.980590215884333</v>
+        <v>2.009646302250804</v>
       </c>
       <c r="D303">
-        <v>2932394533571.004</v>
+        <v>3011093247588.425</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="2">
-        <v>39234</v>
+        <v>39264</v>
       </c>
       <c r="B304">
-        <v>1498320000000</v>
+        <v>1512976000000</v>
       </c>
       <c r="C304">
-        <v>2.009646302250804</v>
+        <v>2.030869212022746</v>
       </c>
       <c r="D304">
-        <v>3011093247588.425</v>
+        <v>3072656376929.326</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="2">
-        <v>39264</v>
+        <v>39295</v>
       </c>
       <c r="B305">
-        <v>1512976000000</v>
+        <v>1538862000000</v>
       </c>
       <c r="C305">
-        <v>2.030869212022746</v>
+        <v>2.01816347124117</v>
       </c>
       <c r="D305">
-        <v>3072656376929.326</v>
+        <v>3105675075681.13</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="2">
-        <v>39295</v>
+        <v>39326</v>
       </c>
       <c r="B306">
-        <v>1538862000000</v>
+        <v>1538690000000</v>
       </c>
       <c r="C306">
-        <v>2.01816347124117</v>
+        <v>2.047082906857728</v>
       </c>
       <c r="D306">
-        <v>3105675075681.13</v>
+        <v>3149825997952.917</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="2">
-        <v>39326</v>
+        <v>39356</v>
       </c>
       <c r="B307">
-        <v>1538690000000</v>
+        <v>1529328000000</v>
       </c>
       <c r="C307">
-        <v>2.047082906857728</v>
+        <v>2.082465639316951</v>
       </c>
       <c r="D307">
-        <v>3149825997952.917</v>
+        <v>3184773011245.314</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="2">
-        <v>39356</v>
+        <v>39387</v>
       </c>
       <c r="B308">
-        <v>1529328000000</v>
+        <v>1539735000000</v>
       </c>
       <c r="C308">
-        <v>2.082465639316951</v>
+        <v>2.058884084826024</v>
       </c>
       <c r="D308">
-        <v>3184773011245.314</v>
+        <v>3170135886349.599</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="2">
-        <v>39387</v>
+        <v>39417</v>
       </c>
       <c r="B309">
-        <v>1539735000000</v>
+        <v>1552875000000</v>
       </c>
       <c r="C309">
-        <v>2.058884084826024</v>
+        <v>1.987676406281057</v>
       </c>
       <c r="D309">
-        <v>3170135886349.599</v>
+        <v>3086612999403.697</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="2">
-        <v>39417</v>
+        <v>39448</v>
       </c>
       <c r="B310">
-        <v>1552875000000</v>
+        <v>1614644000000</v>
       </c>
       <c r="C310">
-        <v>1.987676406281057</v>
+        <v>1.988466892026248</v>
       </c>
       <c r="D310">
-        <v>3086612999403.697</v>
+        <v>3210666136408.829</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="2">
-        <v>39448</v>
+        <v>39479</v>
       </c>
       <c r="B311">
-        <v>1614644000000</v>
+        <v>1619432000000</v>
       </c>
       <c r="C311">
-        <v>1.988466892026248</v>
+        <v>1.989653800238758</v>
       </c>
       <c r="D311">
-        <v>3210666136408.829</v>
+        <v>3222109033028.253</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="2">
-        <v>39479</v>
+        <v>39508</v>
       </c>
       <c r="B312">
-        <v>1619432000000</v>
+        <v>1642420000000</v>
       </c>
       <c r="C312">
-        <v>1.989653800238758</v>
+        <v>1.984126984126984</v>
       </c>
       <c r="D312">
-        <v>3222109033028.253</v>
+        <v>3258769841269.841</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="2">
-        <v>39508</v>
+        <v>39539</v>
       </c>
       <c r="B313">
-        <v>1642420000000</v>
+        <v>1653886000000</v>
       </c>
       <c r="C313">
-        <v>1.984126984126984</v>
+        <v>1.988862370723946</v>
       </c>
       <c r="D313">
-        <v>3258769841269.841</v>
+        <v>3289351630867.144</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="2">
-        <v>39539</v>
+        <v>39569</v>
       </c>
       <c r="B314">
-        <v>1653886000000</v>
+        <v>1659316000000</v>
       </c>
       <c r="C314">
-        <v>1.988862370723946</v>
+        <v>1.983339944466482</v>
       </c>
       <c r="D314">
-        <v>3289351630867.144</v>
+        <v>3290987703292.344</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="2">
-        <v>39569</v>
+        <v>39600</v>
       </c>
       <c r="B315">
-        <v>1659316000000</v>
+        <v>1671091000000</v>
       </c>
       <c r="C315">
-        <v>1.983339944466482</v>
+        <v>1.994017946161516</v>
       </c>
       <c r="D315">
-        <v>3290987703292.344</v>
+        <v>3332185443668.994</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="2">
-        <v>39600</v>
+        <v>39630</v>
       </c>
       <c r="B316">
-        <v>1671091000000</v>
+        <v>1673925000000</v>
       </c>
       <c r="C316">
-        <v>1.994017946161516</v>
+        <v>1.984520738241714</v>
       </c>
       <c r="D316">
-        <v>3332185443668.994</v>
+        <v>3321938876761.262</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="2">
-        <v>39630</v>
+        <v>39661</v>
       </c>
       <c r="B317">
-        <v>1673925000000</v>
+        <v>1680684000000</v>
       </c>
       <c r="C317">
-        <v>1.984520738241714</v>
+        <v>1.817190623296384</v>
       </c>
       <c r="D317">
-        <v>3321938876761.262</v>
+        <v>3054123205524.259</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="2">
-        <v>39661</v>
+        <v>39692</v>
       </c>
       <c r="B318">
-        <v>1680684000000</v>
+        <v>1687895000000</v>
       </c>
       <c r="C318">
-        <v>1.817190623296384</v>
+        <v>1.784121320249777</v>
       </c>
       <c r="D318">
-        <v>3054123205524.259</v>
+        <v>3011409455842.998</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="2">
-        <v>39692</v>
+        <v>39722</v>
       </c>
       <c r="B319">
-        <v>1687895000000</v>
+        <v>1743259000000</v>
       </c>
       <c r="C319">
-        <v>1.784121320249777</v>
+        <v>1.605394124257505</v>
       </c>
       <c r="D319">
-        <v>3011409455842.998</v>
+        <v>2798617755659.014</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="2">
-        <v>39722</v>
+        <v>39753</v>
       </c>
       <c r="B320">
-        <v>1743259000000</v>
+        <v>1793354000000</v>
       </c>
       <c r="C320">
-        <v>1.605394124257505</v>
+        <v>1.538224888478696</v>
       </c>
       <c r="D320">
-        <v>2798617755659.014</v>
+        <v>2758581756652.823</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="2">
-        <v>39753</v>
+        <v>39783</v>
       </c>
       <c r="B321">
-        <v>1793354000000</v>
+        <v>1838164000000</v>
       </c>
       <c r="C321">
-        <v>1.538224888478696</v>
+        <v>1.462629808395495</v>
       </c>
       <c r="D321">
-        <v>2758581756652.823</v>
+        <v>2688553459119.497</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="2">
-        <v>39783</v>
+        <v>39814</v>
       </c>
       <c r="B322">
-        <v>1838164000000</v>
+        <v>1847619000000</v>
       </c>
       <c r="C322">
-        <v>1.462629808395495</v>
+        <v>1.452011035283868</v>
       </c>
       <c r="D322">
-        <v>2688553459119.497</v>
+        <v>2682763177000.146</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="2">
-        <v>39814</v>
+        <v>39845</v>
       </c>
       <c r="B323">
-        <v>1847619000000</v>
+        <v>1839000000000</v>
       </c>
       <c r="C323">
-        <v>1.452011035283868</v>
+        <v>1.431639226914817</v>
       </c>
       <c r="D323">
-        <v>2682763177000.146</v>
+        <v>2632784538296.349</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="2">
-        <v>39845</v>
+        <v>39873</v>
       </c>
       <c r="B324">
-        <v>1839000000000</v>
+        <v>1852102000000</v>
       </c>
       <c r="C324">
-        <v>1.431639226914817</v>
+        <v>1.433280779704744</v>
       </c>
       <c r="D324">
-        <v>2632784538296.349</v>
+        <v>2654582198652.716</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="2">
-        <v>39873</v>
+        <v>39904</v>
       </c>
       <c r="B325">
-        <v>1852102000000</v>
+        <v>1828305000000</v>
       </c>
       <c r="C325">
-        <v>1.433280779704744</v>
+        <v>1.478633742422002</v>
       </c>
       <c r="D325">
-        <v>2654582198652.716</v>
+        <v>2703393464438.858</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="2">
-        <v>39904</v>
+        <v>39934</v>
       </c>
       <c r="B326">
-        <v>1828305000000</v>
+        <v>1821504000000</v>
       </c>
       <c r="C326">
-        <v>1.478633742422002</v>
+        <v>1.619695497246518</v>
       </c>
       <c r="D326">
-        <v>2703393464438.858</v>
+        <v>2950281827016.521</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="2">
-        <v>39934</v>
+        <v>39965</v>
       </c>
       <c r="B327">
-        <v>1821504000000</v>
+        <v>1813632000000</v>
       </c>
       <c r="C327">
-        <v>1.619695497246518</v>
+        <v>1.647446457990115</v>
       </c>
       <c r="D327">
-        <v>2950281827016.521</v>
+        <v>2987861614497.529</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="2">
-        <v>39965</v>
+        <v>39995</v>
       </c>
       <c r="B328">
-        <v>1813632000000</v>
+        <v>1825833000000</v>
       </c>
       <c r="C328">
-        <v>1.647446457990115</v>
+        <v>1.671402306535183</v>
       </c>
       <c r="D328">
-        <v>2987861614497.529</v>
+        <v>3051701487548.053</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="2">
-        <v>39995</v>
+        <v>40026</v>
       </c>
       <c r="B329">
-        <v>1825833000000</v>
+        <v>1837989000000</v>
       </c>
       <c r="C329">
-        <v>1.671402306535183</v>
+        <v>1.628399283504315</v>
       </c>
       <c r="D329">
-        <v>3051701487548.053</v>
+        <v>2992979970688.813</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="2">
-        <v>40026</v>
+        <v>40057</v>
       </c>
       <c r="B330">
-        <v>1837989000000</v>
+        <v>1860450000000</v>
       </c>
       <c r="C330">
-        <v>1.628399283504315</v>
+        <v>1.601537475976938</v>
       </c>
       <c r="D330">
-        <v>2992979970688.813</v>
+        <v>2979580397181.294</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="2">
-        <v>40057</v>
+        <v>40087</v>
       </c>
       <c r="B331">
-        <v>1860450000000</v>
+        <v>1897862000000</v>
       </c>
       <c r="C331">
-        <v>1.601537475976938</v>
+        <v>1.645278051990786</v>
       </c>
       <c r="D331">
-        <v>2979580397181.294</v>
+        <v>3122510694307.338</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="2">
-        <v>40087</v>
+        <v>40118</v>
       </c>
       <c r="B332">
-        <v>1897862000000</v>
+        <v>1898759000000</v>
       </c>
       <c r="C332">
-        <v>1.645278051990786</v>
+        <v>1.645007402533311</v>
       </c>
       <c r="D332">
-        <v>3122510694307.338</v>
+        <v>3123472610626.748</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="2">
-        <v>40118</v>
+        <v>40148</v>
       </c>
       <c r="B333">
-        <v>1898759000000</v>
+        <v>1900611000000</v>
       </c>
       <c r="C333">
-        <v>1.645007402533311</v>
+        <v>1.616292225634395</v>
       </c>
       <c r="D333">
-        <v>3123472610626.748</v>
+        <v>3071942783255.212</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="2">
-        <v>40148</v>
+        <v>40179</v>
       </c>
       <c r="B334">
-        <v>1900611000000</v>
+        <v>2092468000000</v>
       </c>
       <c r="C334">
-        <v>1.616292225634395</v>
+        <v>1.600256040966555</v>
       </c>
       <c r="D334">
-        <v>3071942783255.212</v>
+        <v>3348484557529.205</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="2">
-        <v>40179</v>
+        <v>40210</v>
       </c>
       <c r="B335">
-        <v>2092468000000</v>
+        <v>2120092000000</v>
       </c>
       <c r="C335">
-        <v>1.600256040966555</v>
+        <v>1.524157902758726</v>
       </c>
       <c r="D335">
-        <v>3348484557529.205</v>
+        <v>3231354976375.552</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="2">
-        <v>40210</v>
+        <v>40238</v>
       </c>
       <c r="B336">
-        <v>2120092000000</v>
+        <v>2103885000000</v>
       </c>
       <c r="C336">
-        <v>1.524157902758726</v>
+        <v>1.519064256418047</v>
       </c>
       <c r="D336">
-        <v>3231354976375.552</v>
+        <v>3195936503114.082</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="2">
-        <v>40238</v>
+        <v>40269</v>
       </c>
       <c r="B337">
-        <v>2103885000000</v>
+        <v>2075259000000</v>
       </c>
       <c r="C337">
-        <v>1.519064256418047</v>
+        <v>1.527883880825057</v>
       </c>
       <c r="D337">
-        <v>3195936503114.082</v>
+        <v>3170754774637.128</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="2">
-        <v>40269</v>
+        <v>40299</v>
       </c>
       <c r="B338">
-        <v>2075259000000</v>
+        <v>2090960000000</v>
       </c>
       <c r="C338">
-        <v>1.527883880825057</v>
+        <v>1.453911020645537</v>
       </c>
       <c r="D338">
-        <v>3170754774637.128</v>
+        <v>3040069787728.991</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="2">
-        <v>40299</v>
+        <v>40330</v>
       </c>
       <c r="B339">
-        <v>2090960000000</v>
+        <v>2092957000000</v>
       </c>
       <c r="C339">
-        <v>1.453911020645537</v>
+        <v>1.494544911074578</v>
       </c>
       <c r="D339">
-        <v>3040069787728.991</v>
+        <v>3128018233447.915</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="2">
-        <v>40330</v>
+        <v>40360</v>
       </c>
       <c r="B340">
-        <v>2092957000000</v>
+        <v>2089612000000</v>
       </c>
       <c r="C340">
-        <v>1.494544911074578</v>
+        <v>1.569612305760477</v>
       </c>
       <c r="D340">
-        <v>3128018233447.915</v>
+        <v>3279880709464.762</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="2">
-        <v>40360</v>
+        <v>40391</v>
       </c>
       <c r="B341">
-        <v>2089612000000</v>
+        <v>2080823000000</v>
       </c>
       <c r="C341">
-        <v>1.569612305760477</v>
+        <v>1.535862386730149</v>
       </c>
       <c r="D341">
-        <v>3279880709464.762</v>
+        <v>3195857779142.989</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="2">
-        <v>40391</v>
+        <v>40422</v>
       </c>
       <c r="B342">
-        <v>2080823000000</v>
+        <v>2081669000000</v>
       </c>
       <c r="C342">
-        <v>1.535862386730149</v>
+        <v>1.571585730001572</v>
       </c>
       <c r="D342">
-        <v>3195857779142.989</v>
+        <v>3271521294986.642</v>
       </c>
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="2">
-        <v>40422</v>
+        <v>40452</v>
       </c>
       <c r="B343">
-        <v>2081669000000</v>
+        <v>2093135000000</v>
       </c>
       <c r="C343">
-        <v>1.571585730001572</v>
+        <v>1.604621309370988</v>
       </c>
       <c r="D343">
-        <v>3271521294986.642</v>
+        <v>3358689024390.244</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="2">
-        <v>40452</v>
+        <v>40483</v>
       </c>
       <c r="B344">
-        <v>2093135000000</v>
+        <v>2083505000000</v>
       </c>
       <c r="C344">
-        <v>1.604621309370988</v>
+        <v>1.556904873112253</v>
       </c>
       <c r="D344">
-        <v>3358689024390.244</v>
+        <v>3243819087653.744</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="2">
-        <v>40483</v>
+        <v>40513</v>
       </c>
       <c r="B345">
-        <v>2083505000000</v>
+        <v>2079532000000</v>
       </c>
       <c r="C345">
-        <v>1.556904873112253</v>
+        <v>1.561524047470331</v>
       </c>
       <c r="D345">
-        <v>3243819087653.744</v>
+        <v>3247239225484.073</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="2">
-        <v>40513</v>
+        <v>40544</v>
       </c>
       <c r="B346">
-        <v>2079532000000</v>
+        <v>2065670000000</v>
       </c>
       <c r="C346">
-        <v>1.561524047470331</v>
+        <v>1.601794009290405</v>
       </c>
       <c r="D346">
-        <v>3247239225484.073</v>
+        <v>3308777831170.912</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="2">
-        <v>40544</v>
+        <v>40575</v>
       </c>
       <c r="B347">
-        <v>2065670000000</v>
+        <v>2059734000000</v>
       </c>
       <c r="C347">
-        <v>1.601794009290405</v>
+        <v>1.626545217957059</v>
       </c>
       <c r="D347">
-        <v>3308777831170.912</v>
+        <v>3350250487963.565</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="2">
-        <v>40575</v>
+        <v>40603</v>
       </c>
       <c r="B348">
-        <v>2059734000000</v>
+        <v>2083323000000</v>
       </c>
       <c r="C348">
-        <v>1.626545217957059</v>
+        <v>1.604621309370988</v>
       </c>
       <c r="D348">
-        <v>3350250487963.565</v>
+        <v>3342944480102.696</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="2">
-        <v>40603</v>
+        <v>40634</v>
       </c>
       <c r="B349">
-        <v>2083323000000</v>
+        <v>2083914000000</v>
       </c>
       <c r="C349">
-        <v>1.604621309370988</v>
+        <v>1.671122994652406</v>
       </c>
       <c r="D349">
-        <v>3342944480102.696</v>
+        <v>3482476604278.074</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="2">
-        <v>40634</v>
+        <v>40664</v>
       </c>
       <c r="B350">
-        <v>2083914000000</v>
+        <v>2085955000000</v>
       </c>
       <c r="C350">
-        <v>1.671122994652406</v>
+        <v>1.645819618169849</v>
       </c>
       <c r="D350">
-        <v>3482476604278.074</v>
+        <v>3433105661619.486</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="2">
-        <v>40664</v>
+        <v>40695</v>
       </c>
       <c r="B351">
-        <v>2085955000000</v>
+        <v>2083062000000</v>
       </c>
       <c r="C351">
-        <v>1.645819618169849</v>
+        <v>1.604878831648211</v>
       </c>
       <c r="D351">
-        <v>3433105661619.486</v>
+        <v>3343062108810.785</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="2">
-        <v>40695</v>
+        <v>40725</v>
       </c>
       <c r="B352">
-        <v>2083062000000</v>
+        <v>2079183000000</v>
       </c>
       <c r="C352">
-        <v>1.604878831648211</v>
+        <v>1.642845408247084</v>
       </c>
       <c r="D352">
-        <v>3343062108810.785</v>
+        <v>3415776244455.396</v>
       </c>
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="2">
-        <v>40725</v>
+        <v>40756</v>
       </c>
       <c r="B353">
-        <v>2079183000000</v>
+        <v>2090215000000</v>
       </c>
       <c r="C353">
-        <v>1.642845408247084</v>
+        <v>1.626280696048138</v>
       </c>
       <c r="D353">
-        <v>3415776244455.396</v>
+        <v>3399276305090.259</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="2">
-        <v>40756</v>
+        <v>40787</v>
       </c>
       <c r="B354">
-        <v>2090215000000</v>
+        <v>2090984000000</v>
       </c>
       <c r="C354">
-        <v>1.626280696048138</v>
+        <v>1.559089491736826</v>
       </c>
       <c r="D354">
-        <v>3399276305090.259</v>
+        <v>3260031181789.835</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="2">
-        <v>40787</v>
+        <v>40817</v>
       </c>
       <c r="B355">
-        <v>2090984000000</v>
+        <v>2069754000000</v>
       </c>
       <c r="C355">
-        <v>1.559089491736826</v>
+        <v>1.608751608751609</v>
       </c>
       <c r="D355">
-        <v>3260031181789.835</v>
+        <v>3329720077220.077</v>
       </c>
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="2">
-        <v>40817</v>
+        <v>40848</v>
       </c>
       <c r="B356">
-        <v>2069754000000</v>
+        <v>2075028000000</v>
       </c>
       <c r="C356">
-        <v>1.608751608751609</v>
+        <v>1.571091908876669</v>
       </c>
       <c r="D356">
-        <v>3329720077220.077</v>
+        <v>3260059701492.538</v>
       </c>
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="2">
-        <v>40848</v>
+        <v>40878</v>
       </c>
       <c r="B357">
-        <v>2075028000000</v>
+        <v>2034632000000</v>
       </c>
       <c r="C357">
-        <v>1.571091908876669</v>
+        <v>1.555935895441108</v>
       </c>
       <c r="D357">
-        <v>3260059701492.538</v>
+        <v>3165756962813.132</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="2">
-        <v>40878</v>
+        <v>40909</v>
       </c>
       <c r="B358">
-        <v>2034632000000</v>
+        <v>2049504000000</v>
       </c>
       <c r="C358">
-        <v>1.555935895441108</v>
+        <v>1.576789656259855</v>
       </c>
       <c r="D358">
-        <v>3165756962813.132</v>
+        <v>3231636707663.198</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="2">
-        <v>40909</v>
+        <v>40940</v>
       </c>
       <c r="B359">
-        <v>2049504000000</v>
+        <v>2016250000000</v>
       </c>
       <c r="C359">
-        <v>1.576789656259855</v>
+        <v>1.592103168285305</v>
       </c>
       <c r="D359">
-        <v>3231636707663.198</v>
+        <v>3210078013055.246</v>
       </c>
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="2">
-        <v>40940</v>
+        <v>40969</v>
       </c>
       <c r="B360">
-        <v>2016250000000</v>
+        <v>2022808000000</v>
       </c>
       <c r="C360">
-        <v>1.592103168285305</v>
+        <v>1.602050624799744</v>
       </c>
       <c r="D360">
-        <v>3210078013055.246</v>
+        <v>3240640820249.92</v>
       </c>
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="2">
-        <v>40969</v>
+        <v>41000</v>
       </c>
       <c r="B361">
-        <v>2022808000000</v>
+        <v>2032829000000</v>
       </c>
       <c r="C361">
-        <v>1.602050624799744</v>
+        <v>1.624431448992852</v>
       </c>
       <c r="D361">
-        <v>3240640820249.92</v>
+        <v>3302191358024.691</v>
       </c>
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="2">
-        <v>41000</v>
+        <v>41030</v>
       </c>
       <c r="B362">
-        <v>2032829000000</v>
+        <v>2036778000000</v>
       </c>
       <c r="C362">
-        <v>1.624431448992852</v>
+        <v>1.541069502234551</v>
       </c>
       <c r="D362">
-        <v>3302191358024.691</v>
+        <v>3138816458622.284</v>
       </c>
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="2">
-        <v>41030</v>
+        <v>41061</v>
       </c>
       <c r="B363">
-        <v>2036778000000</v>
+        <v>2028076000000</v>
       </c>
       <c r="C363">
-        <v>1.541069502234551</v>
+        <v>1.570598397989634</v>
       </c>
       <c r="D363">
-        <v>3138816458622.284</v>
+        <v>3185292916601.225</v>
       </c>
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="2">
-        <v>41061</v>
+        <v>41091</v>
       </c>
       <c r="B364">
-        <v>2028076000000</v>
+        <v>2029029000000</v>
       </c>
       <c r="C364">
-        <v>1.570598397989634</v>
+        <v>1.568135486906069</v>
       </c>
       <c r="D364">
-        <v>3185292916601.225</v>
+        <v>3181792378861.534</v>
       </c>
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="2">
-        <v>41091</v>
+        <v>41122</v>
       </c>
       <c r="B365">
-        <v>2029029000000</v>
+        <v>2024862000000</v>
       </c>
       <c r="C365">
-        <v>1.568135486906069</v>
+        <v>1.587301587301587</v>
       </c>
       <c r="D365">
-        <v>3181792378861.534</v>
+        <v>3214066666666.667</v>
       </c>
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="2">
-        <v>41122</v>
+        <v>41153</v>
       </c>
       <c r="B366">
-        <v>2024862000000</v>
+        <v>2023352000000</v>
       </c>
       <c r="C366">
-        <v>1.587301587301587</v>
+        <v>1.617076326002588</v>
       </c>
       <c r="D366">
-        <v>3214066666666.667</v>
+        <v>3271914618369.987</v>
       </c>
     </row>
     <row r="367" spans="1:4">
       <c r="A367" s="2">
-        <v>41153</v>
+        <v>41183</v>
       </c>
       <c r="B367">
-        <v>2023352000000</v>
+        <v>2021639000000</v>
       </c>
       <c r="C367">
-        <v>1.617076326002588</v>
+        <v>1.613684040664838</v>
       </c>
       <c r="D367">
-        <v>3271914618369.987</v>
+        <v>3262286590285.622</v>
       </c>
     </row>
     <row r="368" spans="1:4">
       <c r="A368" s="2">
-        <v>41183</v>
+        <v>41214</v>
       </c>
       <c r="B368">
-        <v>2021639000000</v>
+        <v>2019792000000</v>
       </c>
       <c r="C368">
-        <v>1.613684040664838</v>
+        <v>1.602307322544464</v>
       </c>
       <c r="D368">
-        <v>3262286590285.622</v>
+        <v>3236327511616.728</v>
       </c>
     </row>
     <row r="369" spans="1:4">
       <c r="A369" s="2">
-        <v>41214</v>
+        <v>41244</v>
       </c>
       <c r="B369">
-        <v>2019792000000</v>
+        <v>2043169000000</v>
       </c>
       <c r="C369">
-        <v>1.602307322544464</v>
+        <v>1.626545217957059</v>
       </c>
       <c r="D369">
-        <v>3236327511616.728</v>
+        <v>3323306766428.106</v>
       </c>
     </row>
     <row r="370" spans="1:4">
       <c r="A370" s="2">
-        <v>41244</v>
+        <v>41275</v>
       </c>
       <c r="B370">
-        <v>2043169000000</v>
+        <v>2056209000000</v>
       </c>
       <c r="C370">
-        <v>1.626545217957059</v>
+        <v>1.586294416243655</v>
       </c>
       <c r="D370">
-        <v>3323306766428.106</v>
+        <v>3261752855329.95</v>
       </c>
     </row>
     <row r="371" spans="1:4">
       <c r="A371" s="2">
-        <v>41275</v>
+        <v>41306</v>
       </c>
       <c r="B371">
-        <v>2056209000000</v>
+        <v>2075688000000</v>
       </c>
       <c r="C371">
-        <v>1.586294416243655</v>
+        <v>1.516990291262136</v>
       </c>
       <c r="D371">
-        <v>3261752855329.95</v>
+        <v>3148798543689.32</v>
       </c>
     </row>
     <row r="372" spans="1:4">
       <c r="A372" s="2">
-        <v>41306</v>
+        <v>41334</v>
       </c>
       <c r="B372">
-        <v>2075688000000</v>
+        <v>2074510000000</v>
       </c>
       <c r="C372">
-        <v>1.516990291262136</v>
+        <v>1.521606816798539</v>
       </c>
       <c r="D372">
-        <v>3148798543689.32</v>
+        <v>3156588557516.738</v>
       </c>
     </row>
     <row r="373" spans="1:4">
       <c r="A373" s="2">
-        <v>41334</v>
+        <v>41365</v>
       </c>
       <c r="B373">
-        <v>2074510000000</v>
+        <v>2079958000000</v>
       </c>
       <c r="C373">
-        <v>1.521606816798539</v>
+        <v>1.55448468832582</v>
       </c>
       <c r="D373">
-        <v>3156588557516.738</v>
+        <v>3233262863360.796</v>
       </c>
     </row>
     <row r="374" spans="1:4">
       <c r="A374" s="2">
-        <v>41365</v>
+        <v>41395</v>
       </c>
       <c r="B374">
-        <v>2079958000000</v>
+        <v>2081336000000</v>
       </c>
       <c r="C374">
-        <v>1.55448468832582</v>
+        <v>1.520218911523259</v>
       </c>
       <c r="D374">
-        <v>3233262863360.796</v>
+        <v>3164086348434.174</v>
       </c>
     </row>
     <row r="375" spans="1:4">
       <c r="A375" s="2">
-        <v>41395</v>
+        <v>41426</v>
       </c>
       <c r="B375">
-        <v>2081336000000</v>
+        <v>2086483000000</v>
       </c>
       <c r="C375">
-        <v>1.520218911523259</v>
+        <v>1.522533495736906</v>
       </c>
       <c r="D375">
-        <v>3164086348434.174</v>
+        <v>3176740255785.627</v>
       </c>
     </row>
     <row r="376" spans="1:4">
       <c r="A376" s="2">
-        <v>41426</v>
+        <v>41456</v>
       </c>
       <c r="B376">
-        <v>2086483000000</v>
+        <v>2099960000000</v>
       </c>
       <c r="C376">
-        <v>1.522533495736906</v>
+        <v>1.519987840097279</v>
       </c>
       <c r="D376">
-        <v>3176740255785.627</v>
+        <v>3191913664690.682</v>
       </c>
     </row>
     <row r="377" spans="1:4">
       <c r="A377" s="2">
-        <v>41456</v>
+        <v>41487</v>
       </c>
       <c r="B377">
-        <v>2099960000000</v>
+        <v>2105687000000</v>
       </c>
       <c r="C377">
-        <v>1.519987840097279</v>
+        <v>1.550868486352357</v>
       </c>
       <c r="D377">
-        <v>3191913664690.682</v>
+        <v>3265643610421.836</v>
       </c>
     </row>
     <row r="378" spans="1:4">
       <c r="A378" s="2">
-        <v>41487</v>
+        <v>41518</v>
       </c>
       <c r="B378">
-        <v>2105687000000</v>
+        <v>2089621000000</v>
       </c>
       <c r="C378">
-        <v>1.550868486352357</v>
+        <v>1.619170984455959</v>
       </c>
       <c r="D378">
-        <v>3265643610421.836</v>
+        <v>3383453691709.845</v>
       </c>
     </row>
     <row r="379" spans="1:4">
       <c r="A379" s="2">
-        <v>41518</v>
+        <v>41548</v>
       </c>
       <c r="B379">
-        <v>2089621000000</v>
+        <v>2104154000000</v>
       </c>
       <c r="C379">
-        <v>1.619170984455959</v>
+        <v>1.604621309370988</v>
       </c>
       <c r="D379">
-        <v>3383453691709.845</v>
+        <v>3376370346598.203</v>
       </c>
     </row>
     <row r="380" spans="1:4">
       <c r="A380" s="2">
-        <v>41548</v>
+        <v>41579</v>
       </c>
       <c r="B380">
-        <v>2104154000000</v>
+        <v>2100629000000</v>
       </c>
       <c r="C380">
-        <v>1.604621309370988</v>
+        <v>1.637465203864418</v>
       </c>
       <c r="D380">
-        <v>3376370346598.203</v>
+        <v>3439706893728.508</v>
       </c>
     </row>
     <row r="381" spans="1:4">
       <c r="A381" s="2">
-        <v>41579</v>
+        <v>41609</v>
       </c>
       <c r="B381">
-        <v>2100629000000</v>
+        <v>2078312000000</v>
       </c>
       <c r="C381">
-        <v>1.637465203864418</v>
+        <v>1.655629139072848</v>
       </c>
       <c r="D381">
-        <v>3439706893728.508</v>
+        <v>3440913907284.768</v>
       </c>
     </row>
     <row r="382" spans="1:4">
       <c r="A382" s="2">
-        <v>41609</v>
+        <v>41640</v>
       </c>
       <c r="B382">
-        <v>2078312000000</v>
+        <v>2091926000000</v>
       </c>
       <c r="C382">
-        <v>1.655629139072848</v>
+        <v>1.64446637066272</v>
       </c>
       <c r="D382">
-        <v>3440913907284.768</v>
+        <v>3440101956914.981</v>
       </c>
     </row>
     <row r="383" spans="1:4">
       <c r="A383" s="2">
-        <v>41640</v>
+        <v>41671</v>
       </c>
       <c r="B383">
-        <v>2091926000000</v>
+        <v>2110400000000</v>
       </c>
       <c r="C383">
-        <v>1.64446637066272</v>
+        <v>1.674761346508123</v>
       </c>
       <c r="D383">
-        <v>3440101956914.981</v>
+        <v>3534416345670.742</v>
       </c>
     </row>
     <row r="384" spans="1:4">
       <c r="A384" s="2">
-        <v>41671</v>
+        <v>41699</v>
       </c>
       <c r="B384">
-        <v>2110400000000</v>
+        <v>2083975000000</v>
       </c>
       <c r="C384">
-        <v>1.674761346508123</v>
+        <v>1.666944490748458</v>
       </c>
       <c r="D384">
-        <v>3534416345670.742</v>
+        <v>3473870645107.518</v>
       </c>
     </row>
     <row r="385" spans="1:4">
       <c r="A385" s="2">
-        <v>41699</v>
+        <v>41730</v>
       </c>
       <c r="B385">
-        <v>2083975000000</v>
+        <v>2077730000000</v>
       </c>
       <c r="C385">
-        <v>1.666944490748458</v>
+        <v>1.688333614722269</v>
       </c>
       <c r="D385">
-        <v>3473870645107.518</v>
+        <v>3507901401316.9</v>
       </c>
     </row>
     <row r="386" spans="1:4">
       <c r="A386" s="2">
-        <v>41730</v>
+        <v>41760</v>
       </c>
       <c r="B386">
-        <v>2077730000000</v>
+        <v>2072517000000</v>
       </c>
       <c r="C386">
-        <v>1.688333614722269</v>
+        <v>1.676164934629568</v>
       </c>
       <c r="D386">
-        <v>3507901401316.9</v>
+        <v>3473880321823.667</v>
       </c>
     </row>
     <row r="387" spans="1:4">
       <c r="A387" s="2">
-        <v>41760</v>
+        <v>41791</v>
       </c>
       <c r="B387">
-        <v>2072517000000</v>
+        <v>2063761000000</v>
       </c>
       <c r="C387">
-        <v>1.676164934629568</v>
+        <v>1.71174255391989</v>
       </c>
       <c r="D387">
-        <v>3473880321823.667</v>
+        <v>3532627524820.267</v>
       </c>
     </row>
     <row r="388" spans="1:4">
       <c r="A388" s="2">
-        <v>41791</v>
+        <v>41821</v>
       </c>
       <c r="B388">
-        <v>2063761000000</v>
+        <v>2065111000000</v>
       </c>
       <c r="C388">
-        <v>1.71174255391989</v>
+        <v>1.689189189189189</v>
       </c>
       <c r="D388">
-        <v>3532627524820.267</v>
+        <v>3488363175675.676</v>
       </c>
     </row>
     <row r="389" spans="1:4">
       <c r="A389" s="2">
-        <v>41821</v>
+        <v>41852</v>
       </c>
       <c r="B389">
-        <v>2065111000000</v>
+        <v>2065981000000</v>
       </c>
       <c r="C389">
-        <v>1.689189189189189</v>
+        <v>1.660577881102624</v>
       </c>
       <c r="D389">
-        <v>3488363175675.676</v>
+        <v>3430722351378.28</v>
       </c>
     </row>
     <row r="390" spans="1:4">
       <c r="A390" s="2">
-        <v>41852</v>
+        <v>41883</v>
       </c>
       <c r="B390">
-        <v>2065981000000</v>
+        <v>2073272000000</v>
       </c>
       <c r="C390">
-        <v>1.660577881102624</v>
+        <v>1.6220600162206</v>
       </c>
       <c r="D390">
-        <v>3430722351378.28</v>
+        <v>3362971613949.716</v>
       </c>
     </row>
     <row r="391" spans="1:4">
       <c r="A391" s="2">
-        <v>41883</v>
+        <v>41913</v>
       </c>
       <c r="B391">
-        <v>2073272000000</v>
+        <v>2061189000000</v>
       </c>
       <c r="C391">
-        <v>1.6220600162206</v>
+        <v>1.600256040966555</v>
       </c>
       <c r="D391">
-        <v>3362971613949.716</v>
+        <v>3298430148823.812</v>
       </c>
     </row>
     <row r="392" spans="1:4">
       <c r="A392" s="2">
-        <v>41913</v>
+        <v>41944</v>
       </c>
       <c r="B392">
-        <v>2061189000000</v>
+        <v>2068537000000</v>
       </c>
       <c r="C392">
-        <v>1.600256040966555</v>
+        <v>1.565680288085173</v>
       </c>
       <c r="D392">
-        <v>3298430148823.812</v>
+        <v>3238667606074.839</v>
       </c>
     </row>
     <row r="393" spans="1:4">
       <c r="A393" s="2">
-        <v>41944</v>
+        <v>41974</v>
       </c>
       <c r="B393">
-        <v>2068537000000</v>
+        <v>2080329000000</v>
       </c>
       <c r="C393">
-        <v>1.565680288085173</v>
+        <v>1.558360604643914</v>
       </c>
       <c r="D393">
-        <v>3238667606074.839</v>
+        <v>3241902758298.27</v>
       </c>
     </row>
     <row r="394" spans="1:4">
       <c r="A394" s="2">
-        <v>41974</v>
+        <v>42005</v>
       </c>
       <c r="B394">
-        <v>2080329000000</v>
+        <v>2073808000000</v>
       </c>
       <c r="C394">
-        <v>1.558360604643914</v>
+        <v>1.506250941406838</v>
       </c>
       <c r="D394">
-        <v>3241902758298.27</v>
+        <v>3123675252297.033</v>
       </c>
     </row>
     <row r="395" spans="1:4">
       <c r="A395" s="2">
-        <v>42005</v>
+        <v>42036</v>
       </c>
       <c r="B395">
-        <v>2073808000000</v>
+        <v>2070258000000</v>
       </c>
       <c r="C395">
-        <v>1.506250941406838</v>
+        <v>1.544401544401544</v>
       </c>
       <c r="D395">
-        <v>3123675252297.033</v>
+        <v>3197309652509.652</v>
       </c>
     </row>
     <row r="396" spans="1:4">
       <c r="A396" s="2">
-        <v>42036</v>
+        <v>42064</v>
       </c>
       <c r="B396">
-        <v>2070258000000</v>
+        <v>2088266000000</v>
       </c>
       <c r="C396">
-        <v>1.544401544401544</v>
+        <v>1.483239394838327</v>
       </c>
       <c r="D396">
-        <v>3197309652509.652</v>
+        <v>3097398398101.454</v>
       </c>
     </row>
     <row r="397" spans="1:4">
       <c r="A397" s="2">
-        <v>42064</v>
+        <v>42095</v>
       </c>
       <c r="B397">
-        <v>2088266000000</v>
+        <v>2093872000000</v>
       </c>
       <c r="C397">
-        <v>1.483239394838327</v>
+        <v>1.534801626889725</v>
       </c>
       <c r="D397">
-        <v>3097398398101.454</v>
+        <v>3213678152098.841</v>
       </c>
     </row>
     <row r="398" spans="1:4">
       <c r="A398" s="2">
-        <v>42095</v>
+        <v>42125</v>
       </c>
       <c r="B398">
-        <v>2093872000000</v>
+        <v>2090446000000</v>
       </c>
       <c r="C398">
-        <v>1.534801626889725</v>
+        <v>1.528701368187724</v>
       </c>
       <c r="D398">
-        <v>3213678152098.841</v>
+        <v>3195667660322.556</v>
       </c>
     </row>
     <row r="399" spans="1:4">
       <c r="A399" s="2">
-        <v>42125</v>
+        <v>42156</v>
       </c>
       <c r="B399">
-        <v>2090446000000</v>
+        <v>2088205000000</v>
       </c>
       <c r="C399">
-        <v>1.528701368187724</v>
+        <v>1.571388164304347</v>
       </c>
       <c r="D399">
-        <v>3195667660322.556</v>
+        <v>3281380621641.158</v>
       </c>
     </row>
     <row r="400" spans="1:4">
       <c r="A400" s="2">
-        <v>42156</v>
+        <v>42186</v>
       </c>
       <c r="B400">
-        <v>2088205000000</v>
+        <v>2102076000000</v>
       </c>
       <c r="C400">
-        <v>1.571388164304347</v>
+        <v>1.562207086171343</v>
       </c>
       <c r="D400">
-        <v>3281380621641.158</v>
+        <v>3283878022870.712</v>
       </c>
     </row>
     <row r="401" spans="1:4">
       <c r="A401" s="2">
-        <v>42186</v>
+        <v>42217</v>
       </c>
       <c r="B401">
-        <v>2102076000000</v>
+        <v>2103164000000</v>
       </c>
       <c r="C401">
-        <v>1.562207086171343</v>
+        <v>1.534589650727396</v>
       </c>
       <c r="D401">
-        <v>3283878022870.712</v>
+        <v>3227493708182.432</v>
       </c>
     </row>
     <row r="402" spans="1:4">
       <c r="A402" s="2">
-        <v>42217</v>
+        <v>42248</v>
       </c>
       <c r="B402">
-        <v>2103164000000</v>
+        <v>2111984000000</v>
       </c>
       <c r="C402">
-        <v>1.534589650727396</v>
+        <v>1.512538947877908</v>
       </c>
       <c r="D402">
-        <v>3227493708182.432</v>
+        <v>3194458057294.976</v>
       </c>
     </row>
     <row r="403" spans="1:4">
       <c r="A403" s="2">
-        <v>42248</v>
+        <v>42278</v>
       </c>
       <c r="B403">
-        <v>2111984000000</v>
+        <v>2124264000000</v>
       </c>
       <c r="C403">
-        <v>1.512538947877908</v>
+        <v>1.543519533239693</v>
       </c>
       <c r="D403">
-        <v>3194458057294.976</v>
+        <v>3278842977757.884</v>
       </c>
     </row>
     <row r="404" spans="1:4">
       <c r="A404" s="2">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="B404">
-        <v>2124264000000</v>
+        <v>2120899000000</v>
       </c>
       <c r="C404">
-        <v>1.543519533239693</v>
+        <v>1.505706628120577</v>
       </c>
       <c r="D404">
-        <v>3278842977757.884</v>
+        <v>3193451681874.304</v>
       </c>
     </row>
     <row r="405" spans="1:4">
       <c r="A405" s="2">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="B405">
-        <v>2120899000000</v>
+        <v>2132947000000</v>
       </c>
       <c r="C405">
-        <v>1.505706628120577</v>
+        <v>1.473600447974536</v>
       </c>
       <c r="D405">
-        <v>3193451681874.304</v>
+        <v>3143111654705.943</v>
       </c>
     </row>
     <row r="406" spans="1:4">
       <c r="A406" s="2">
-        <v>42339</v>
+        <v>42370</v>
       </c>
       <c r="B406">
-        <v>2132947000000</v>
+        <v>2159028000000</v>
       </c>
       <c r="C406">
-        <v>1.473600447974536</v>
+        <v>1.424278246998333</v>
       </c>
       <c r="D406">
-        <v>3143111654705.943</v>
+        <v>3075056615060.318</v>
       </c>
     </row>
     <row r="407" spans="1:4">
       <c r="A407" s="2">
-        <v>42370</v>
+        <v>42401</v>
       </c>
       <c r="B407">
-        <v>2159028000000</v>
+        <v>2181982000000</v>
       </c>
       <c r="C407">
-        <v>1.424278246998333</v>
+        <v>1.391594767603674</v>
       </c>
       <c r="D407">
-        <v>3075056615060.318</v>
+        <v>3036434734205.399</v>
       </c>
     </row>
     <row r="408" spans="1:4">
       <c r="A408" s="2">
-        <v>42401</v>
+        <v>42430</v>
       </c>
       <c r="B408">
-        <v>2181982000000</v>
+        <v>2183304000000</v>
       </c>
       <c r="C408">
-        <v>1.391594767603674</v>
+        <v>1.436513294930545</v>
       </c>
       <c r="D408">
-        <v>3036434734205.399</v>
+        <v>3136345222875.038</v>
       </c>
     </row>
     <row r="409" spans="1:4">
       <c r="A409" s="2">
-        <v>42430</v>
+        <v>42461</v>
       </c>
       <c r="B409">
-        <v>2183304000000</v>
+        <v>2177769000000</v>
       </c>
       <c r="C409">
-        <v>1.436513294930545</v>
+        <v>1.460984411296331</v>
       </c>
       <c r="D409">
-        <v>3136345222875.038</v>
+        <v>3181686560404.4</v>
       </c>
     </row>
     <row r="410" spans="1:4">
       <c r="A410" s="2">
-        <v>42461</v>
+        <v>42491</v>
       </c>
       <c r="B410">
-        <v>2177769000000</v>
+        <v>2179996000000</v>
       </c>
       <c r="C410">
-        <v>1.460984411296331</v>
+        <v>1.448204949964519</v>
       </c>
       <c r="D410">
-        <v>3181686560404.4</v>
+        <v>3157080998102.852</v>
       </c>
     </row>
     <row r="411" spans="1:4">
       <c r="A411" s="2">
-        <v>42491</v>
+        <v>42522</v>
       </c>
       <c r="B411">
-        <v>2179996000000</v>
+        <v>2245921000000</v>
       </c>
       <c r="C411">
-        <v>1.448204949964519</v>
+        <v>1.328762390709293</v>
       </c>
       <c r="D411">
-        <v>3157080998102.852</v>
+        <v>2984295357304.207</v>
       </c>
     </row>
     <row r="412" spans="1:4">
       <c r="A412" s="2">
-        <v>42522</v>
+        <v>42552</v>
       </c>
       <c r="B412">
-        <v>2245921000000</v>
+        <v>2255333000000</v>
       </c>
       <c r="C412">
-        <v>1.328762390709293</v>
+        <v>1.323171377156769</v>
       </c>
       <c r="D412">
-        <v>2984295357304.207</v>
+        <v>2984192071557.108</v>
       </c>
     </row>
     <row r="413" spans="1:4">
       <c r="A413" s="2">
-        <v>42552</v>
+        <v>42583</v>
       </c>
       <c r="B413">
-        <v>2255333000000</v>
+        <v>2269290000000</v>
       </c>
       <c r="C413">
-        <v>1.323171377156769</v>
+        <v>1.314008646176892</v>
       </c>
       <c r="D413">
-        <v>2984192071557.108</v>
+        <v>2981866680682.759</v>
       </c>
     </row>
     <row r="414" spans="1:4">
       <c r="A414" s="2">
-        <v>42583</v>
+        <v>42614</v>
       </c>
       <c r="B414">
-        <v>2269290000000</v>
+        <v>2275824000000</v>
       </c>
       <c r="C414">
-        <v>1.314008646176892</v>
+        <v>1.297875378006204</v>
       </c>
       <c r="D414">
-        <v>2981866680682.759</v>
+        <v>2953735934275.591</v>
       </c>
     </row>
     <row r="415" spans="1:4">
       <c r="A415" s="2">
-        <v>42614</v>
+        <v>42644</v>
       </c>
       <c r="B415">
-        <v>2275824000000</v>
+        <v>2290205000000</v>
       </c>
       <c r="C415">
-        <v>1.297875378006204</v>
+        <v>1.223945265167742</v>
       </c>
       <c r="D415">
-        <v>2953735934275.591</v>
+        <v>2803085566013.488</v>
       </c>
     </row>
     <row r="416" spans="1:4">
       <c r="A416" s="2">
-        <v>42644</v>
+        <v>42675</v>
       </c>
       <c r="B416">
-        <v>2290205000000</v>
+        <v>2277516000000</v>
       </c>
       <c r="C416">
-        <v>1.223945265167742</v>
+        <v>1.250750450270162</v>
       </c>
       <c r="D416">
-        <v>2803085566013.488</v>
+        <v>2848604162497.499</v>
       </c>
     </row>
     <row r="417" spans="1:4">
       <c r="A417" s="2">
-        <v>42675</v>
+        <v>42705</v>
       </c>
       <c r="B417">
-        <v>2277516000000</v>
+        <v>2280428000000</v>
       </c>
       <c r="C417">
-        <v>1.250750450270162</v>
+        <v>1.23449169804333</v>
       </c>
       <c r="D417">
-        <v>2848604162497.499</v>
+        <v>2815169433985.556</v>
       </c>
     </row>
     <row r="418" spans="1:4">
       <c r="A418" s="2">
-        <v>42705</v>
+        <v>42736</v>
       </c>
       <c r="B418">
-        <v>2280428000000</v>
+        <v>2281087000000</v>
       </c>
       <c r="C418">
-        <v>1.23449169804333</v>
+        <v>1.257940750990628</v>
       </c>
       <c r="D418">
-        <v>2815169433985.556</v>
+        <v>2869472293854.959</v>
       </c>
     </row>
     <row r="419" spans="1:4">
       <c r="A419" s="2">
-        <v>42736</v>
+        <v>42767</v>
       </c>
       <c r="B419">
-        <v>2281087000000</v>
+        <v>2287240000000</v>
       </c>
       <c r="C419">
-        <v>1.257940750990628</v>
+        <v>1.238236750866766</v>
       </c>
       <c r="D419">
-        <v>2869472293854.959</v>
+        <v>2832144626052.501</v>
       </c>
     </row>
     <row r="420" spans="1:4">
       <c r="A420" s="2">
-        <v>42767</v>
+        <v>42795</v>
       </c>
       <c r="B420">
-        <v>2287240000000</v>
+        <v>2294915000000</v>
       </c>
       <c r="C420">
-        <v>1.238236750866766</v>
+        <v>1.254500520617716</v>
       </c>
       <c r="D420">
-        <v>2832144626052.501</v>
+        <v>2878972062273.406</v>
       </c>
     </row>
     <row r="421" spans="1:4">
       <c r="A421" s="2">
-        <v>42795</v>
+        <v>42826</v>
       </c>
       <c r="B421">
-        <v>2294915000000</v>
+        <v>2302035000000</v>
       </c>
       <c r="C421">
-        <v>1.254500520617716</v>
+        <v>1.295018065502014</v>
       </c>
       <c r="D421">
-        <v>2878972062273.406</v>
+        <v>2981176912417.928</v>
       </c>
     </row>
     <row r="422" spans="1:4">
       <c r="A422" s="2">
-        <v>42826</v>
+        <v>42856</v>
       </c>
       <c r="B422">
-        <v>2302035000000</v>
+        <v>2309303000000</v>
       </c>
       <c r="C422">
-        <v>1.295018065502014</v>
+        <v>1.287316074715825</v>
       </c>
       <c r="D422">
-        <v>2981176912417.928</v>
+        <v>2972802873289.479</v>
       </c>
     </row>
     <row r="423" spans="1:4">
       <c r="A423" s="2">
-        <v>42856</v>
+        <v>42887</v>
       </c>
       <c r="B423">
-        <v>2309303000000</v>
+        <v>2315462000000</v>
       </c>
       <c r="C423">
-        <v>1.287316074715825</v>
+        <v>1.302677001237543</v>
       </c>
       <c r="D423">
-        <v>2972802873289.479</v>
+        <v>3016299094639.484</v>
       </c>
     </row>
     <row r="424" spans="1:4">
       <c r="A424" s="2">
-        <v>42887</v>
+        <v>42917</v>
       </c>
       <c r="B424">
-        <v>2315462000000</v>
+        <v>2310118000000</v>
       </c>
       <c r="C424">
-        <v>1.302677001237543</v>
+        <v>1.320742257148517</v>
       </c>
       <c r="D424">
-        <v>3016299094639.484</v>
+        <v>3051070461599.419</v>
       </c>
     </row>
     <row r="425" spans="1:4">
       <c r="A425" s="2">
-        <v>42917</v>
+        <v>42948</v>
       </c>
       <c r="B425">
-        <v>2310118000000</v>
+        <v>2332401000000</v>
       </c>
       <c r="C425">
-        <v>1.320742257148517</v>
+        <v>1.292791395180474</v>
       </c>
       <c r="D425">
-        <v>3051070461599.419</v>
+        <v>3015307942910.332</v>
       </c>
     </row>
     <row r="426" spans="1:4">
       <c r="A426" s="2">
-        <v>42948</v>
+        <v>42979</v>
       </c>
       <c r="B426">
-        <v>2332401000000</v>
+        <v>2338246000000</v>
       </c>
       <c r="C426">
-        <v>1.292791395180474</v>
+        <v>1.339764201500536</v>
       </c>
       <c r="D426">
-        <v>3015307942910.332</v>
+        <v>3132698285101.822</v>
       </c>
     </row>
     <row r="427" spans="1:4">
       <c r="A427" s="2">
-        <v>42979</v>
+        <v>43009</v>
       </c>
       <c r="B427">
-        <v>2338246000000</v>
+        <v>2340072000000</v>
       </c>
       <c r="C427">
-        <v>1.339764201500536</v>
+        <v>1.328427009577959</v>
       </c>
       <c r="D427">
-        <v>3132698285101.822</v>
+        <v>3108614849157.113</v>
       </c>
     </row>
     <row r="428" spans="1:4">
       <c r="A428" s="2">
-        <v>43009</v>
+        <v>43040</v>
       </c>
       <c r="B428">
-        <v>2340072000000</v>
+        <v>2344772000000</v>
       </c>
       <c r="C428">
-        <v>1.328427009577959</v>
+        <v>1.352905364269769</v>
       </c>
       <c r="D428">
-        <v>3108614849157.113</v>
+        <v>3172254616789.556</v>
       </c>
     </row>
     <row r="429" spans="1:4">
       <c r="A429" s="2">
-        <v>43040</v>
+        <v>43070</v>
       </c>
       <c r="B429">
-        <v>2344772000000</v>
+        <v>2346035000000</v>
       </c>
       <c r="C429">
-        <v>1.352905364269769</v>
+        <v>1.351351351351351</v>
       </c>
       <c r="D429">
-        <v>3172254616789.556</v>
+        <v>3170317567567.567</v>
       </c>
     </row>
     <row r="430" spans="1:4">
       <c r="A430" s="2">
-        <v>43070</v>
+        <v>43101</v>
       </c>
       <c r="B430">
-        <v>2346035000000</v>
+        <v>2357302000000</v>
       </c>
       <c r="C430">
-        <v>1.351351351351351</v>
+        <v>1.419385973627809</v>
       </c>
       <c r="D430">
-        <v>3170317567567.567</v>
+        <v>3345921394404.781</v>
       </c>
     </row>
     <row r="431" spans="1:4">
       <c r="A431" s="2">
-        <v>43101</v>
+        <v>43132</v>
       </c>
       <c r="B431">
-        <v>2357302000000</v>
+        <v>2359071000000</v>
       </c>
       <c r="C431">
-        <v>1.419385973627809</v>
+        <v>1.376026860044308</v>
       </c>
       <c r="D431">
-        <v>3345921394404.781</v>
+        <v>3246145060751.586</v>
       </c>
     </row>
     <row r="432" spans="1:4">
       <c r="A432" s="2">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="B432">
-        <v>2359071000000</v>
+        <v>2347292000000</v>
       </c>
       <c r="C432">
-        <v>1.376026860044308</v>
+        <v>1.401600627917081</v>
       </c>
       <c r="D432">
-        <v>3246145060751.586</v>
+        <v>3289965941104.741</v>
       </c>
     </row>
     <row r="433" spans="1:4">
       <c r="A433" s="2">
-        <v>43160</v>
+        <v>43191</v>
       </c>
       <c r="B433">
-        <v>2347292000000</v>
+        <v>2351932000000</v>
       </c>
       <c r="C433">
-        <v>1.401600627917081</v>
+        <v>1.37680361273268</v>
       </c>
       <c r="D433">
-        <v>3289965941104.741</v>
+        <v>3238148474501.597</v>
       </c>
     </row>
     <row r="434" spans="1:4">
       <c r="A434" s="2">
-        <v>43191</v>
+        <v>43221</v>
       </c>
       <c r="B434">
-        <v>2351932000000</v>
+        <v>2372075000000</v>
       </c>
       <c r="C434">
-        <v>1.37680361273268</v>
+        <v>1.329469010077375</v>
       </c>
       <c r="D434">
-        <v>3238148474501.597</v>
+        <v>3153600202079.29</v>
       </c>
     </row>
     <row r="435" spans="1:4">
       <c r="A435" s="2">
-        <v>43221</v>
+        <v>43252</v>
       </c>
       <c r="B435">
-        <v>2372075000000</v>
+        <v>2371730000000</v>
       </c>
       <c r="C435">
-        <v>1.329469010077375</v>
+        <v>1.320620163228652</v>
       </c>
       <c r="D435">
-        <v>3153600202079.29</v>
+        <v>3132154459734.292</v>
       </c>
     </row>
     <row r="436" spans="1:4">
       <c r="A436" s="2">
-        <v>43252</v>
+        <v>43282</v>
       </c>
       <c r="B436">
-        <v>2371730000000</v>
+        <v>2371507000000</v>
       </c>
       <c r="C436">
-        <v>1.320620163228652</v>
+        <v>1.311733455761789</v>
       </c>
       <c r="D436">
-        <v>3132154459734.292</v>
+        <v>3110785072473.273</v>
       </c>
     </row>
     <row r="437" spans="1:4">
       <c r="A437" s="2">
-        <v>43282</v>
+        <v>43313</v>
       </c>
       <c r="B437">
-        <v>2371507000000</v>
+        <v>2375015000000</v>
       </c>
       <c r="C437">
-        <v>1.311733455761789</v>
+        <v>1.295706030215865</v>
       </c>
       <c r="D437">
-        <v>3110785072473.273</v>
+        <v>3077321257353.131</v>
       </c>
     </row>
     <row r="438" spans="1:4">
       <c r="A438" s="2">
-        <v>43313</v>
+        <v>43344</v>
       </c>
       <c r="B438">
-        <v>2375015000000</v>
+        <v>2388940000000</v>
       </c>
       <c r="C438">
-        <v>1.295706030215865</v>
+        <v>1.303237241307408</v>
       </c>
       <c r="D438">
-        <v>3077321257353.131</v>
+        <v>3113355575248.918</v>
       </c>
     </row>
     <row r="439" spans="1:4">
       <c r="A439" s="2">
-        <v>43344</v>
+        <v>43374</v>
       </c>
       <c r="B439">
-        <v>2388940000000</v>
+        <v>2416323000000</v>
       </c>
       <c r="C439">
-        <v>1.303237241307408</v>
+        <v>1.276959814074651</v>
       </c>
       <c r="D439">
-        <v>3113355575248.918</v>
+        <v>3085547368824.303</v>
       </c>
     </row>
     <row r="440" spans="1:4">
       <c r="A440" s="2">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B440">
-        <v>2416323000000</v>
+        <v>2414471000000</v>
       </c>
       <c r="C440">
-        <v>1.276959814074651</v>
+        <v>1.275152380709495</v>
       </c>
       <c r="D440">
-        <v>3085547368824.303</v>
+        <v>3078818443804.034</v>
       </c>
     </row>
     <row r="441" spans="1:4">
       <c r="A441" s="2">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B441">
-        <v>2414471000000</v>
+        <v>2414673000000</v>
       </c>
       <c r="C441">
-        <v>1.275152380709495</v>
+        <v>1.275705465122213</v>
       </c>
       <c r="D441">
-        <v>3078818443804.034</v>
+        <v>3080411542583.048</v>
       </c>
     </row>
     <row r="442" spans="1:4">
       <c r="A442" s="2">
-        <v>43435</v>
+        <v>43466</v>
       </c>
       <c r="B442">
-        <v>2414673000000</v>
+        <v>2407134000000</v>
       </c>
       <c r="C442">
-        <v>1.275705465122213</v>
+        <v>1.311114316057217</v>
       </c>
       <c r="D442">
-        <v>3080411542583.048</v>
+        <v>3156027848068.073</v>
       </c>
     </row>
     <row r="443" spans="1:4">
       <c r="A443" s="2">
-        <v>43466</v>
+        <v>43497</v>
       </c>
       <c r="B443">
-        <v>2407134000000</v>
+        <v>2403459000000</v>
       </c>
       <c r="C443">
-        <v>1.311114316057217</v>
+        <v>1.326277536837358</v>
       </c>
       <c r="D443">
-        <v>3156027848068.073</v>
+        <v>3187653682409.581</v>
       </c>
     </row>
     <row r="444" spans="1:4">
       <c r="A444" s="2">
-        <v>43497</v>
+        <v>43525</v>
       </c>
       <c r="B444">
-        <v>2403459000000</v>
+        <v>2415238000000</v>
       </c>
       <c r="C444">
-        <v>1.326277536837358</v>
+        <v>1.304597401241977</v>
       </c>
       <c r="D444">
-        <v>3187653682409.581</v>
+        <v>3150913218180.87</v>
       </c>
     </row>
     <row r="445" spans="1:4">
       <c r="A445" s="2">
-        <v>43525</v>
+        <v>43556</v>
       </c>
       <c r="B445">
-        <v>2415238000000</v>
+        <v>2415149000000</v>
       </c>
       <c r="C445">
-        <v>1.304597401241977</v>
+        <v>1.303322168206759</v>
       </c>
       <c r="D445">
-        <v>3150913218180.87</v>
+        <v>3147717231222.386</v>
       </c>
     </row>
     <row r="446" spans="1:4">
       <c r="A446" s="2">
-        <v>43556</v>
+        <v>43586</v>
       </c>
       <c r="B446">
-        <v>2415149000000</v>
+        <v>2405921000000</v>
       </c>
       <c r="C446">
-        <v>1.303322168206759</v>
+        <v>1.263839037460189</v>
       </c>
       <c r="D446">
-        <v>3147717231222.386</v>
+        <v>3040696880845.255</v>
       </c>
     </row>
     <row r="447" spans="1:4">
       <c r="A447" s="2">
-        <v>43586</v>
+        <v>43617</v>
       </c>
       <c r="B447">
-        <v>2405921000000</v>
+        <v>2415770000000</v>
       </c>
       <c r="C447">
-        <v>1.263839037460189</v>
+        <v>1.269132167423916</v>
       </c>
       <c r="D447">
-        <v>3040696880845.255</v>
+        <v>3065931416097.672</v>
       </c>
     </row>
     <row r="448" spans="1:4">
       <c r="A448" s="2">
-        <v>43617</v>
+        <v>43647</v>
       </c>
       <c r="B448">
-        <v>2415770000000</v>
+        <v>2417956000000</v>
       </c>
       <c r="C448">
-        <v>1.269132167423916</v>
+        <v>1.215199718073665</v>
       </c>
       <c r="D448">
-        <v>3065931416097.672</v>
+        <v>2938299449514.527</v>
       </c>
     </row>
     <row r="449" spans="1:4">
       <c r="A449" s="2">
-        <v>43647</v>
+        <v>43678</v>
       </c>
       <c r="B449">
-        <v>2417956000000</v>
+        <v>2429486000000</v>
       </c>
       <c r="C449">
-        <v>1.215199718073665</v>
+        <v>1.216130758379141</v>
       </c>
       <c r="D449">
-        <v>2938299449514.527</v>
+        <v>2954572651651.506</v>
       </c>
     </row>
     <row r="450" spans="1:4">
       <c r="A450" s="2">
-        <v>43678</v>
+        <v>43709</v>
       </c>
       <c r="B450">
-        <v>2429486000000</v>
+        <v>2429391000000</v>
       </c>
       <c r="C450">
-        <v>1.216130758379141</v>
+        <v>1.229316745752711</v>
       </c>
       <c r="D450">
-        <v>2954572651651.506</v>
+        <v>2986491038280.924</v>
       </c>
     </row>
     <row r="451" spans="1:4">
       <c r="A451" s="2">
-        <v>43709</v>
+        <v>43739</v>
       </c>
       <c r="B451">
-        <v>2429391000000</v>
+        <v>2419713000000</v>
       </c>
       <c r="C451">
-        <v>1.229316745752711</v>
+        <v>1.292874966062032</v>
       </c>
       <c r="D451">
-        <v>2986491038280.924</v>
+        <v>3128386362754.858</v>
       </c>
     </row>
     <row r="452" spans="1:4">
       <c r="A452" s="2">
-        <v>43739</v>
+        <v>43770</v>
       </c>
       <c r="B452">
-        <v>2419713000000</v>
+        <v>2430432000000</v>
       </c>
       <c r="C452">
-        <v>1.292874966062032</v>
+        <v>1.293560655059116</v>
       </c>
       <c r="D452">
-        <v>3128386362754.858</v>
+        <v>3143911209996.637</v>
       </c>
     </row>
     <row r="453" spans="1:4">
       <c r="A453" s="2">
-        <v>43770</v>
+        <v>43800</v>
       </c>
       <c r="B453">
-        <v>2430432000000</v>
+        <v>2446557000000</v>
       </c>
       <c r="C453">
-        <v>1.293560655059116</v>
+        <v>1.326154417420365</v>
       </c>
       <c r="D453">
-        <v>3143911209996.637</v>
+        <v>3244512373020.715</v>
       </c>
     </row>
     <row r="454" spans="1:4">
       <c r="A454" s="2">
-        <v>43800</v>
+        <v>43831</v>
       </c>
       <c r="B454">
-        <v>2446557000000</v>
+        <v>2456339000000</v>
       </c>
       <c r="C454">
-        <v>1.326154417420365</v>
+        <v>1.320515529262624</v>
       </c>
       <c r="D454">
-        <v>3244512373020.715</v>
+        <v>3243633794633.425</v>
       </c>
     </row>
     <row r="455" spans="1:4">
       <c r="A455" s="2">
-        <v>43831</v>
+        <v>43862</v>
       </c>
       <c r="B455">
-        <v>2456339000000</v>
+        <v>2481709000000</v>
       </c>
       <c r="C455">
-        <v>1.320515529262624</v>
+        <v>1.281640499839795</v>
       </c>
       <c r="D455">
-        <v>3243633794633.425</v>
+        <v>3180658763216.918</v>
       </c>
     </row>
     <row r="456" spans="1:4">
       <c r="A456" s="2">
-        <v>43862</v>
+        <v>43891</v>
       </c>
       <c r="B456">
-        <v>2481709000000</v>
+        <v>2603794000000</v>
       </c>
       <c r="C456">
-        <v>1.281640499839795</v>
+        <v>1.243471773190749</v>
       </c>
       <c r="D456">
-        <v>3180658763216.918</v>
+        <v>3237744342203.432</v>
       </c>
     </row>
     <row r="457" spans="1:4">
       <c r="A457" s="2">
-        <v>43891</v>
+        <v>43922</v>
       </c>
       <c r="B457">
-        <v>2603794000000</v>
+        <v>2639714000000</v>
       </c>
       <c r="C457">
-        <v>1.243471773190749</v>
+        <v>1.259556887886841</v>
       </c>
       <c r="D457">
-        <v>3237744342203.432</v>
+        <v>3324869950751.325</v>
       </c>
     </row>
     <row r="458" spans="1:4">
       <c r="A458" s="2">
-        <v>43922</v>
+        <v>43952</v>
       </c>
       <c r="B458">
-        <v>2639714000000</v>
+        <v>2682519000000</v>
       </c>
       <c r="C458">
-        <v>1.259556887886841</v>
+        <v>1.235177865612648</v>
       </c>
       <c r="D458">
-        <v>3324869950751.325</v>
+        <v>3313388092885.375</v>
       </c>
     </row>
     <row r="459" spans="1:4">
       <c r="A459" s="2">
-        <v>43952</v>
+        <v>43983</v>
       </c>
       <c r="B459">
-        <v>2682519000000</v>
+        <v>2700321000000</v>
       </c>
       <c r="C459">
-        <v>1.235177865612648</v>
+        <v>1.240110121778814</v>
       </c>
       <c r="D459">
-        <v>3313388092885.375</v>
+        <v>3348695404151.889</v>
       </c>
     </row>
     <row r="460" spans="1:4">
       <c r="A460" s="2">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="B460">
-        <v>2700321000000</v>
+        <v>2715730000000</v>
       </c>
       <c r="C460">
-        <v>1.240110121778814</v>
+        <v>1.308335404864391</v>
       </c>
       <c r="D460">
-        <v>3348695404151.889</v>
+        <v>3553085709052.373</v>
       </c>
     </row>
     <row r="461" spans="1:4">
       <c r="A461" s="2">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="B461">
-        <v>2715730000000</v>
+        <v>2719354000000</v>
       </c>
       <c r="C461">
-        <v>1.308335404864391</v>
+        <v>1.336630354875359</v>
       </c>
       <c r="D461">
-        <v>3553085709052.373</v>
+        <v>3634771102051.728</v>
       </c>
     </row>
     <row r="462" spans="1:4">
       <c r="A462" s="2">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="B462">
-        <v>2719354000000</v>
+        <v>2729336000000</v>
       </c>
       <c r="C462">
-        <v>1.336630354875359</v>
+        <v>1.291972971925427</v>
       </c>
       <c r="D462">
-        <v>3634771102051.728</v>
+        <v>3526228343303.058</v>
       </c>
     </row>
     <row r="463" spans="1:4">
       <c r="A463" s="2">
-        <v>44075</v>
+        <v>44105</v>
       </c>
       <c r="B463">
-        <v>2729336000000</v>
+        <v>2757401000000</v>
       </c>
       <c r="C463">
-        <v>1.291972971925427</v>
+        <v>1.29510192452146</v>
       </c>
       <c r="D463">
-        <v>3526228343303.058</v>
+        <v>3571115341777.397</v>
       </c>
     </row>
     <row r="464" spans="1:4">
       <c r="A464" s="2">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B464">
-        <v>2757401000000</v>
+        <v>2769646000000</v>
       </c>
       <c r="C464">
-        <v>1.29510192452146</v>
+        <v>1.332480545784031</v>
       </c>
       <c r="D464">
-        <v>3571115341777.397</v>
+        <v>3690499413708.56</v>
       </c>
     </row>
     <row r="465" spans="1:4">
       <c r="A465" s="2">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B465">
-        <v>2769646000000</v>
+        <v>2810605000000</v>
       </c>
       <c r="C465">
-        <v>1.332480545784031</v>
+        <v>1.366288204833928</v>
       </c>
       <c r="D465">
-        <v>3690499413708.56</v>
+        <v>3840096459947.262</v>
       </c>
     </row>
     <row r="466" spans="1:4">
       <c r="A466" s="2">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="B466">
-        <v>2810605000000</v>
+        <v>2821228000000</v>
       </c>
       <c r="C466">
-        <v>1.366288204833928</v>
+        <v>1.370050691875599</v>
       </c>
       <c r="D466">
-        <v>3840096459947.262</v>
+        <v>3865225373338.814</v>
       </c>
     </row>
     <row r="467" spans="1:4">
       <c r="A467" s="2">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B467">
-        <v>2821228000000</v>
+        <v>2842868000000</v>
       </c>
       <c r="C467">
-        <v>1.370050691875599</v>
+        <v>1.392079070091181</v>
       </c>
       <c r="D467">
-        <v>3865225373338.814</v>
+        <v>3957497041831.976</v>
       </c>
     </row>
     <row r="468" spans="1:4">
       <c r="A468" s="2">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B468">
-        <v>2842868000000</v>
+        <v>2858521000000</v>
       </c>
       <c r="C468">
-        <v>1.392079070091181</v>
+        <v>1.378169790518192</v>
       </c>
       <c r="D468">
-        <v>3957497041831.976</v>
+        <v>3939527287761.852</v>
       </c>
     </row>
     <row r="469" spans="1:4">
       <c r="A469" s="2">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B469">
-        <v>2858521000000</v>
+        <v>2875638000000</v>
       </c>
       <c r="C469">
-        <v>1.378169790518192</v>
+        <v>1.381654392970142</v>
       </c>
       <c r="D469">
-        <v>3939527287761.852</v>
+        <v>3973137875291.874</v>
       </c>
     </row>
     <row r="470" spans="1:4">
       <c r="A470" s="2">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B470">
-        <v>2875638000000</v>
+        <v>2870729000000</v>
       </c>
       <c r="C470">
-        <v>1.381654392970142</v>
+        <v>1.420555437175936</v>
       </c>
       <c r="D470">
-        <v>3973137875291.874</v>
+        <v>4078029689608.637</v>
       </c>
     </row>
     <row r="471" spans="1:4">
       <c r="A471" s="2">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B471">
-        <v>2870729000000</v>
+        <v>2887930000000</v>
       </c>
       <c r="C471">
-        <v>1.420555437175936</v>
+        <v>1.382934587194026</v>
       </c>
       <c r="D471">
-        <v>4078029689608.637</v>
+        <v>3993818282395.243</v>
       </c>
     </row>
     <row r="472" spans="1:4">
       <c r="A472" s="2">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B472">
-        <v>2887930000000</v>
+        <v>2892060000000</v>
       </c>
       <c r="C472">
-        <v>1.382934587194026</v>
+        <v>1.390607834684541</v>
       </c>
       <c r="D472">
-        <v>3993818282395.243</v>
+        <v>4021721294377.772</v>
       </c>
     </row>
     <row r="473" spans="1:4">
       <c r="A473" s="2">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B473">
-        <v>2892060000000</v>
+        <v>2890721000000</v>
       </c>
       <c r="C473">
-        <v>1.390607834684541</v>
+        <v>1.375459059461095</v>
       </c>
       <c r="D473">
-        <v>4021721294377.772</v>
+        <v>3976068387824.437</v>
       </c>
     </row>
     <row r="474" spans="1:4">
       <c r="A474" s="2">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B474">
-        <v>2890721000000</v>
+        <v>2933670000000</v>
       </c>
       <c r="C474">
-        <v>1.375459059461095</v>
+        <v>1.347745222243187</v>
       </c>
       <c r="D474">
-        <v>3976068387824.437</v>
+        <v>3953839726138.171</v>
       </c>
     </row>
     <row r="475" spans="1:4">
       <c r="A475" s="2">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B475">
-        <v>2933670000000</v>
+        <v>2946167000000</v>
       </c>
       <c r="C475">
-        <v>1.347745222243187</v>
+        <v>1.370275973581079</v>
       </c>
       <c r="D475">
-        <v>3953839726138.171</v>
+        <v>4037061854257.447</v>
       </c>
     </row>
     <row r="476" spans="1:4">
       <c r="A476" s="2">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B476">
-        <v>2946167000000</v>
+        <v>2968038000000</v>
       </c>
       <c r="C476">
-        <v>1.370275973581079</v>
+        <v>1.330353341847595</v>
       </c>
       <c r="D476">
-        <v>4037061854257.447</v>
+        <v>3948539272030.651</v>
       </c>
     </row>
     <row r="477" spans="1:4">
       <c r="A477" s="2">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B477">
-        <v>2968038000000</v>
+        <v>2978879000000</v>
       </c>
       <c r="C477">
-        <v>1.330353341847595</v>
+        <v>1.353473011748146</v>
       </c>
       <c r="D477">
-        <v>3948539272030.651</v>
+        <v>4031832331763.305</v>
       </c>
     </row>
     <row r="478" spans="1:4">
       <c r="A478" s="2">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B478">
-        <v>2978879000000</v>
+        <v>2970952000000</v>
       </c>
       <c r="C478">
-        <v>1.353473011748146</v>
+        <v>1.344501660459551</v>
       </c>
       <c r="D478">
-        <v>4031832331763.305</v>
+        <v>3994449897145.623</v>
       </c>
     </row>
     <row r="479" spans="1:4">
       <c r="A479" s="2">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B479">
-        <v>2970952000000</v>
+        <v>2988480000000</v>
       </c>
       <c r="C479">
-        <v>1.344501660459551</v>
+        <v>1.34197565656159</v>
       </c>
       <c r="D479">
-        <v>3994449897145.623</v>
+        <v>4010467410121.18</v>
       </c>
     </row>
     <row r="480" spans="1:4">
       <c r="A480" s="2">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B480">
-        <v>2988480000000</v>
+        <v>3032901000000</v>
       </c>
       <c r="C480">
-        <v>1.34197565656159</v>
+        <v>1.313905057220565</v>
       </c>
       <c r="D480">
-        <v>4010467410121.18</v>
+        <v>3984943961949.31</v>
       </c>
     </row>
     <row r="481" spans="1:4">
       <c r="A481" s="2">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B481">
-        <v>3032901000000</v>
+        <v>3040249000000</v>
       </c>
       <c r="C481">
-        <v>1.313905057220565</v>
+        <v>1.257308103350726</v>
       </c>
       <c r="D481">
-        <v>3984943961949.31</v>
+        <v>3822529703903.941</v>
       </c>
     </row>
     <row r="482" spans="1:4">
       <c r="A482" s="2">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B482">
-        <v>3040249000000</v>
+        <v>3040088000000</v>
       </c>
       <c r="C482">
-        <v>1.257308103350726</v>
+        <v>1.260112402026261</v>
       </c>
       <c r="D482">
-        <v>3822529703903.941</v>
+        <v>3830852592051.211</v>
       </c>
     </row>
     <row r="483" spans="1:4">
       <c r="A483" s="2">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B483">
-        <v>3040088000000</v>
+        <v>3068538000000</v>
       </c>
       <c r="C483">
-        <v>1.260112402026261</v>
+        <v>1.217626359175424</v>
       </c>
       <c r="D483">
-        <v>3830852592051.211</v>
+        <v>3736332752931.436</v>
       </c>
     </row>
     <row r="484" spans="1:4">
       <c r="A484" s="2">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B484">
-        <v>3068538000000</v>
+        <v>3076742000000</v>
       </c>
       <c r="C484">
-        <v>1.217626359175424</v>
+        <v>1.218011960877456</v>
       </c>
       <c r="D484">
-        <v>3736332752931.436</v>
+        <v>3747508556534.025</v>
       </c>
     </row>
     <row r="485" spans="1:4">
       <c r="A485" s="2">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B485">
-        <v>3076742000000</v>
+        <v>3105571000000</v>
       </c>
       <c r="C485">
-        <v>1.218011960877456</v>
+        <v>1.161750525692113</v>
       </c>
       <c r="D485">
-        <v>3747508556534.025</v>
+        <v>3607898741824.18</v>
       </c>
     </row>
     <row r="486" spans="1:4">
       <c r="A486" s="2">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B486">
-        <v>3105571000000</v>
+        <v>3217985000000</v>
       </c>
       <c r="C486">
-        <v>1.161750525692113</v>
+        <v>1.116769409452336</v>
       </c>
       <c r="D486">
-        <v>3607898741824.18</v>
+        <v>3593747208076.476</v>
       </c>
     </row>
     <row r="487" spans="1:4">
       <c r="A487" s="2">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B487">
-        <v>3217985000000</v>
+        <v>3099642000000</v>
       </c>
       <c r="C487">
-        <v>1.116769409452336</v>
+        <v>1.146920518408074</v>
       </c>
       <c r="D487">
-        <v>3593747208076.476</v>
+        <v>3555043009519.44</v>
       </c>
     </row>
     <row r="488" spans="1:4">
       <c r="A488" s="2">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B488">
-        <v>3099642000000</v>
+        <v>3096180000000</v>
       </c>
       <c r="C488">
-        <v>1.146920518408074</v>
+        <v>1.2059234962134</v>
       </c>
       <c r="D488">
-        <v>3555043009519.44</v>
+        <v>3733756210506.005</v>
       </c>
     </row>
     <row r="489" spans="1:4">
       <c r="A489" s="2">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B489">
-        <v>3096180000000</v>
+        <v>3067035000000</v>
       </c>
       <c r="C489">
-        <v>1.2059234962134</v>
+        <v>1.209643276197849</v>
       </c>
       <c r="D489">
-        <v>3733756210506.005</v>
+        <v>3710018265613.471</v>
       </c>
     </row>
     <row r="490" spans="1:4">
       <c r="A490" s="2">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B490">
-        <v>3067035000000</v>
+        <v>3094336000000</v>
       </c>
       <c r="C490">
-        <v>1.209643276197849</v>
+        <v>1.23164843826978</v>
       </c>
       <c r="D490">
-        <v>3710018265613.471</v>
+        <v>3811134101881.959</v>
       </c>
     </row>
     <row r="491" spans="1:4">
       <c r="A491" s="2">
-        <v>44927</v>
+        <v>44958</v>
       </c>
       <c r="B491">
-        <v>3094336000000</v>
+        <v>3097533000000</v>
       </c>
       <c r="C491">
-        <v>1.23164843826978</v>
+        <v>1.20225543118891</v>
       </c>
       <c r="D491">
-        <v>3811134101881.959</v>
+        <v>3724025872536.879</v>
       </c>
     </row>
     <row r="492" spans="1:4">
       <c r="A492" s="2">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B492">
-        <v>3097533000000</v>
+        <v>3069687000000</v>
       </c>
       <c r="C492">
-        <v>1.20225543118891</v>
+        <v>1.233486696845975</v>
       </c>
       <c r="D492">
-        <v>3724025872536.879</v>
+        <v>3786418077981.029</v>
       </c>
     </row>
     <row r="493" spans="1:4">
       <c r="A493" s="2">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B493">
-        <v>3069687000000</v>
+        <v>3057863000000</v>
       </c>
       <c r="C493">
-        <v>1.233486696845975</v>
+        <v>1.256644507835178</v>
       </c>
       <c r="D493">
-        <v>3786418077981.029</v>
+        <v>3842646744662.402</v>
       </c>
     </row>
     <row r="494" spans="1:4">
       <c r="A494" s="2">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B494">
-        <v>3057863000000</v>
+        <v>3058434000000</v>
       </c>
       <c r="C494">
-        <v>1.256644507835178</v>
+        <v>1.243873920939374</v>
       </c>
       <c r="D494">
-        <v>3842646744662.402</v>
+        <v>3804306291514.292</v>
       </c>
     </row>
     <row r="495" spans="1:4">
       <c r="A495" s="2">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B495">
-        <v>3058434000000</v>
+        <v>3044958000000</v>
       </c>
       <c r="C495">
-        <v>1.243873920939374</v>
+        <v>1.269938027024281</v>
       </c>
       <c r="D495">
-        <v>3804306291514.292</v>
+        <v>3866907954891.801</v>
       </c>
     </row>
     <row r="496" spans="1:4">
       <c r="A496" s="2">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B496">
-        <v>3044958000000</v>
+        <v>3014302000000</v>
       </c>
       <c r="C496">
-        <v>1.269938027024281</v>
+        <v>1.283960762159108</v>
       </c>
       <c r="D496">
-        <v>3866907954891.801</v>
+        <v>3870245493297.725</v>
       </c>
     </row>
     <row r="497" spans="1:4">
       <c r="A497" s="2">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B497">
-        <v>3014302000000</v>
+        <v>3032224000000</v>
       </c>
       <c r="C497">
-        <v>1.283960762159108</v>
+        <v>1.267170155608495</v>
       </c>
       <c r="D497">
-        <v>3870245493297.725</v>
+        <v>3842343757919.813</v>
       </c>
     </row>
     <row r="498" spans="1:4">
       <c r="A498" s="2">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B498">
-        <v>3032224000000</v>
+        <v>3032024000000</v>
       </c>
       <c r="C498">
-        <v>1.267170155608495</v>
+        <v>1.219958521410272</v>
       </c>
       <c r="D498">
-        <v>3842343757919.813</v>
+        <v>3698943515920.459</v>
       </c>
     </row>
     <row r="499" spans="1:4">
       <c r="A499" s="2">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B499">
-        <v>3031917000000</v>
+        <v>2982934000000</v>
       </c>
       <c r="C499">
-        <v>1.219958521410272</v>
+        <v>1.214933968338821</v>
       </c>
       <c r="D499">
-        <v>3698812980358.668</v>
+        <v>3624067841912.792</v>
       </c>
     </row>
   </sheetData>

--- a/Global_M2/TVDataFeed/FinalData/United Kingdom.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/United Kingdom.xlsx
@@ -1,57 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>United Kingdom_M2 (GBP)</t>
-  </si>
-  <si>
-    <t>United Kingdom_FX (USD)</t>
-  </si>
-  <si>
-    <t>United Kingdom_M2 (USD)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -66,38 +49,96 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -385,6667 +426,6793 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D499"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2">
-        <v>30072</v>
-      </c>
-      <c r="C2">
-        <v>1.793078780458267</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>United Kingdom_M2 (GBP)</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>United Kingdom_FX (USD)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>United Kingdom_M2 (USD)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
         <v>30103</v>
       </c>
-      <c r="C3">
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="n">
         <v>1.743071261232852</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2">
+      <c r="D2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
         <v>30133</v>
       </c>
-      <c r="C4">
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="n">
         <v>1.740643977697338</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2">
+      <c r="D3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
         <v>30164</v>
       </c>
-      <c r="C5">
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="n">
         <v>1.717327808392104</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2">
+      <c r="D4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>30195</v>
       </c>
-      <c r="C6">
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="n">
         <v>1.694628057865244</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="2">
+      <c r="D5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
         <v>30225</v>
       </c>
-      <c r="C7">
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="n">
         <v>1.67644599082803</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="2">
+      <c r="D6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>30256</v>
       </c>
-      <c r="C8">
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="n">
         <v>1.61472627781808</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="2">
+      <c r="D7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
         <v>30286</v>
       </c>
-      <c r="C9">
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="n">
         <v>1.617599482368166</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="2">
+      <c r="D8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
         <v>30317</v>
       </c>
-      <c r="C10">
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="n">
         <v>1.525320294000606</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="2">
+      <c r="D9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
         <v>30348</v>
       </c>
-      <c r="C11">
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="n">
         <v>1.515610814119594</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="2">
+      <c r="D10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
         <v>30376</v>
       </c>
-      <c r="C12">
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="n">
         <v>1.481700992739665</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="2">
+      <c r="D11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
         <v>30407</v>
       </c>
-      <c r="C13">
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="n">
         <v>1.562011822492602</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2">
+      <c r="D12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
         <v>30437</v>
       </c>
-      <c r="C14">
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="n">
         <v>1.606167632310709</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="2">
+      <c r="D13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
         <v>30468</v>
       </c>
-      <c r="C15">
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="n">
         <v>1.534683855125844</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="2">
+      <c r="D14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
         <v>30498</v>
       </c>
-      <c r="C16">
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="n">
         <v>1.520450053215752</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="2">
+      <c r="D15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
         <v>30529</v>
       </c>
-      <c r="C17">
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="n">
         <v>1.493652001398835</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2">
+      <c r="D16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
         <v>30560</v>
       </c>
-      <c r="C18">
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="n">
         <v>1.49499175519522</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2">
+      <c r="D17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
         <v>30590</v>
       </c>
-      <c r="C19">
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="n">
         <v>1.494321578003586</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2">
+      <c r="D18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
         <v>30621</v>
       </c>
-      <c r="C20">
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="n">
         <v>1.466490644772235</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="2">
+      <c r="D19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
         <v>30651</v>
       </c>
-      <c r="C21">
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="n">
         <v>1.452010993117149</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2">
+      <c r="D20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
         <v>30682</v>
       </c>
-      <c r="C22">
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="n">
         <v>1.403311835578331</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2">
+      <c r="D21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
         <v>30713</v>
       </c>
-      <c r="C23">
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="n">
         <v>1.491424354703187</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="2">
+      <c r="D22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
         <v>30742</v>
       </c>
-      <c r="C24">
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="n">
         <v>1.441545295039778</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="2">
+      <c r="D23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
         <v>30773</v>
       </c>
-      <c r="C25">
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="n">
         <v>1.396258047979029</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="2">
+      <c r="D24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
         <v>30803</v>
       </c>
-      <c r="C26">
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="n">
         <v>1.386577944905407</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="2">
+      <c r="D25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
         <v>30834</v>
       </c>
-      <c r="C27">
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="n">
         <v>1.356300050353996</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="2">
+      <c r="D26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
         <v>30864</v>
       </c>
-      <c r="C28">
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="n">
         <v>1.310959656815932</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="2">
+      <c r="D27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
         <v>30895</v>
       </c>
-      <c r="C29">
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="n">
         <v>1.309757729135762</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="2">
+      <c r="D28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
         <v>30926</v>
       </c>
-      <c r="C30">
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="n">
         <v>1.238696936901905</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="2">
+      <c r="D29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
         <v>30956</v>
       </c>
-      <c r="C31">
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="n">
         <v>1.216693013545529</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="2">
+      <c r="D30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
         <v>30987</v>
       </c>
-      <c r="C32">
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="n">
         <v>1.203659123736158</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="2">
+      <c r="D31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
         <v>31017</v>
       </c>
-      <c r="C33">
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="n">
         <v>1.157943465540911</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="2">
+      <c r="D32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
         <v>31048</v>
       </c>
-      <c r="C34">
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="n">
         <v>1.12968818053122</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="2">
+      <c r="D33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
         <v>31079</v>
       </c>
-      <c r="C35">
+      <c r="B34" t="inlineStr"/>
+      <c r="C34" t="n">
         <v>1.08201687946332</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="2">
+      <c r="D34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
         <v>31107</v>
       </c>
-      <c r="C36">
+      <c r="B35" t="inlineStr"/>
+      <c r="C35" t="n">
         <v>1.230012269864397</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="2">
+      <c r="D35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
         <v>31138</v>
       </c>
-      <c r="C37">
+      <c r="B36" t="inlineStr"/>
+      <c r="C36" t="n">
         <v>1.238543488215798</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="2">
+      <c r="D36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
         <v>31168</v>
       </c>
-      <c r="C38">
+      <c r="B37" t="inlineStr"/>
+      <c r="C37" t="n">
         <v>1.286504567091213</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="2">
+      <c r="D37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
         <v>31199</v>
       </c>
-      <c r="C39">
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="n">
         <v>1.311991603253739</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="2">
+      <c r="D38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
         <v>31229</v>
       </c>
-      <c r="C40">
+      <c r="B39" t="inlineStr"/>
+      <c r="C39" t="n">
         <v>1.416029453412631</v>
       </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="2">
+      <c r="D39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
         <v>31260</v>
       </c>
-      <c r="C41">
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="n">
         <v>1.396453048357857</v>
       </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="2">
+      <c r="D40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
         <v>31291</v>
       </c>
-      <c r="C42">
+      <c r="B41" t="inlineStr"/>
+      <c r="C41" t="n">
         <v>1.407063498158534</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="2">
+      <c r="D41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
         <v>31321</v>
       </c>
-      <c r="C43">
+      <c r="B42" t="inlineStr"/>
+      <c r="C42" t="n">
         <v>1.445086767850582</v>
       </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="2">
+      <c r="D42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
         <v>31352</v>
       </c>
-      <c r="C44">
+      <c r="B43" t="inlineStr"/>
+      <c r="C43" t="n">
         <v>1.490312965722802</v>
       </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="2">
+      <c r="D43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
         <v>31382</v>
       </c>
-      <c r="C45">
+      <c r="B44" t="inlineStr"/>
+      <c r="C44" t="n">
         <v>1.445504481063891</v>
       </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="2">
+      <c r="D44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
         <v>31413</v>
       </c>
-      <c r="C46">
+      <c r="B45" t="inlineStr"/>
+      <c r="C45" t="n">
         <v>1.408649065821973</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="2">
+      <c r="D45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
         <v>31444</v>
       </c>
-      <c r="C47">
+      <c r="B46" t="inlineStr"/>
+      <c r="C46" t="n">
         <v>1.450536656497341</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="2">
+      <c r="D46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
         <v>31472</v>
       </c>
-      <c r="C48">
+      <c r="B47" t="inlineStr"/>
+      <c r="C47" t="n">
         <v>1.477978169612124</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="2">
+      <c r="D47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
         <v>31503</v>
       </c>
-      <c r="C49">
+      <c r="B48" t="inlineStr"/>
+      <c r="C48" t="n">
         <v>1.553518719900575</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="2">
+      <c r="D48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
         <v>31533</v>
       </c>
-      <c r="C50">
+      <c r="B49" t="inlineStr"/>
+      <c r="C49" t="n">
         <v>1.472537224931151</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="2">
+      <c r="D49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
         <v>31564</v>
       </c>
-      <c r="C51">
+      <c r="B50" t="inlineStr"/>
+      <c r="C50" t="n">
         <v>1.533507060258838</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="2">
+      <c r="D50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
         <v>31594</v>
       </c>
-      <c r="C52">
+      <c r="B51" t="inlineStr"/>
+      <c r="C51" t="n">
         <v>1.492091935125216</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="2">
+      <c r="D51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
         <v>31625</v>
       </c>
-      <c r="C53">
+      <c r="B52" t="inlineStr"/>
+      <c r="C52" t="n">
         <v>1.487431250555741</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="2">
+      <c r="D52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
         <v>31656</v>
       </c>
-      <c r="C54">
+      <c r="B53" t="inlineStr"/>
+      <c r="C53" t="n">
         <v>1.447596968042893</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="2">
+      <c r="D53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
         <v>31686</v>
       </c>
-      <c r="C55">
+      <c r="B54" t="inlineStr"/>
+      <c r="C54" t="n">
         <v>1.408450743900021</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="2">
+      <c r="D54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
         <v>31717</v>
       </c>
-      <c r="C56">
+      <c r="B55" t="inlineStr"/>
+      <c r="C55" t="n">
         <v>1.437194575493036</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="2">
+      <c r="D55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
         <v>31747</v>
       </c>
-      <c r="B57">
+      <c r="B56" t="n">
         <v>167337000000</v>
       </c>
-      <c r="C57">
+      <c r="C56" t="n">
         <v>1.483679481196454</v>
       </c>
-      <c r="D57">
+      <c r="D56" t="n">
         <v>248274473344.9711</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="2">
+    <row r="57">
+      <c r="A57" s="2" t="n">
         <v>31778</v>
       </c>
-      <c r="B58">
+      <c r="B57" t="n">
         <v>256330000000</v>
       </c>
-      <c r="C58">
+      <c r="C57" t="n">
         <v>1.51446307695099</v>
       </c>
-      <c r="D58">
+      <c r="D57" t="n">
         <v>388202320514.8472</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="2">
+    <row r="58">
+      <c r="A58" s="2" t="n">
         <v>31809</v>
       </c>
-      <c r="B59">
+      <c r="B58" t="n">
         <v>259350000000</v>
       </c>
-      <c r="C59">
+      <c r="C58" t="n">
         <v>1.546551166926212</v>
       </c>
-      <c r="D59">
+      <c r="D58" t="n">
         <v>401098045142.313</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="2">
+    <row r="59">
+      <c r="A59" s="2" t="n">
         <v>31837</v>
       </c>
-      <c r="B60">
+      <c r="B59" t="n">
         <v>263526000000</v>
       </c>
-      <c r="C60">
+      <c r="C59" t="n">
         <v>1.604106589867176</v>
       </c>
-      <c r="D60">
+      <c r="D59" t="n">
         <v>422723793201.3375</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="2">
+    <row r="60">
+      <c r="A60" s="2" t="n">
         <v>31868</v>
       </c>
-      <c r="B61">
+      <c r="B60" t="n">
         <v>267779000000</v>
       </c>
-      <c r="C61">
+      <c r="C60" t="n">
         <v>1.660577963828195</v>
       </c>
-      <c r="D61">
+      <c r="D60" t="n">
         <v>444667906575.9502</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="2">
+    <row r="61">
+      <c r="A61" s="2" t="n">
         <v>31898</v>
       </c>
-      <c r="B62">
+      <c r="B61" t="n">
         <v>270683000000</v>
       </c>
-      <c r="C62">
+      <c r="C61" t="n">
         <v>1.62813415825464</v>
       </c>
-      <c r="D62">
+      <c r="D61" t="n">
         <v>440708238358.8408</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="2">
+    <row r="62">
+      <c r="A62" s="2" t="n">
         <v>31929</v>
       </c>
-      <c r="B63">
+      <c r="B62" t="n">
         <v>272668000000</v>
       </c>
-      <c r="C63">
+      <c r="C62" t="n">
         <v>1.612383154220676</v>
       </c>
-      <c r="D63">
+      <c r="D62" t="n">
         <v>439645289895.0432</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="2">
+    <row r="63">
+      <c r="A63" s="2" t="n">
         <v>31959</v>
       </c>
-      <c r="B64">
+      <c r="B63" t="n">
         <v>277415000000</v>
       </c>
-      <c r="C64">
+      <c r="C63" t="n">
         <v>1.593117807541077</v>
       </c>
-      <c r="D64">
+      <c r="D63" t="n">
         <v>441954776579.0079</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="2">
+    <row r="64">
+      <c r="A64" s="2" t="n">
         <v>31990</v>
       </c>
-      <c r="B65">
+      <c r="B64" t="n">
         <v>280138000000</v>
       </c>
-      <c r="C65">
+      <c r="C64" t="n">
         <v>1.630523318252569</v>
       </c>
-      <c r="D65">
+      <c r="D64" t="n">
         <v>456771541328.6381</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="2">
+    <row r="65">
+      <c r="A65" s="2" t="n">
         <v>32021</v>
       </c>
-      <c r="B66">
+      <c r="B65" t="n">
         <v>281171000000</v>
       </c>
-      <c r="C66">
+      <c r="C65" t="n">
         <v>1.628929766591794</v>
       </c>
-      <c r="D66">
+      <c r="D65" t="n">
         <v>458007811402.3813</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="2">
+    <row r="66">
+      <c r="A66" s="2" t="n">
         <v>32051</v>
       </c>
-      <c r="B67">
+      <c r="B66" t="n">
         <v>287007000000</v>
       </c>
-      <c r="C67">
+      <c r="C66" t="n">
         <v>1.722949719554613</v>
       </c>
-      <c r="D67">
+      <c r="D66" t="n">
         <v>494498630160.2108</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="2">
+    <row r="67">
+      <c r="A67" s="2" t="n">
         <v>32082</v>
       </c>
-      <c r="B68">
+      <c r="B67" t="n">
         <v>289314000000</v>
       </c>
-      <c r="C68">
+      <c r="C67" t="n">
         <v>1.831837366401124</v>
       </c>
-      <c r="D68">
+      <c r="D67" t="n">
         <v>529976195822.9748</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="2">
+    <row r="68">
+      <c r="A68" s="2" t="n">
         <v>32112</v>
       </c>
-      <c r="B69">
+      <c r="B68" t="n">
         <v>291622000000</v>
       </c>
-      <c r="C69">
+      <c r="C68" t="n">
         <v>1.887148482975118</v>
       </c>
-      <c r="D69">
+      <c r="D68" t="n">
         <v>550334014902.1699</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="2">
+    <row r="69">
+      <c r="A69" s="2" t="n">
         <v>32143</v>
       </c>
-      <c r="B70">
+      <c r="B69" t="n">
         <v>295120000000</v>
       </c>
-      <c r="C70">
+      <c r="C69" t="n">
         <v>1.769911504424779</v>
       </c>
-      <c r="D70">
+      <c r="D69" t="n">
         <v>522336283185.8408</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="2">
+    <row r="70">
+      <c r="A70" s="2" t="n">
         <v>32174</v>
       </c>
-      <c r="B71">
+      <c r="B70" t="n">
         <v>297648000000</v>
       </c>
-      <c r="C71">
+      <c r="C70" t="n">
         <v>1.773049613953021</v>
       </c>
-      <c r="D71">
+      <c r="D70" t="n">
         <v>527744671493.8888</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="2">
+    <row r="71">
+      <c r="A71" s="2" t="n">
         <v>32203</v>
       </c>
-      <c r="B72">
+      <c r="B71" t="n">
         <v>302566000000</v>
       </c>
-      <c r="C72">
+      <c r="C71" t="n">
         <v>1.884658841223919</v>
       </c>
-      <c r="D72">
+      <c r="D71" t="n">
         <v>570233686953.7563</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="2">
+    <row r="72">
+      <c r="A72" s="2" t="n">
         <v>32234</v>
       </c>
-      <c r="B73">
+      <c r="B72" t="n">
         <v>304945000000</v>
       </c>
-      <c r="C73">
+      <c r="C72" t="n">
         <v>1.879345916957492</v>
       </c>
-      <c r="D73">
+      <c r="D72" t="n">
         <v>573097140646.6024</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="2">
+    <row r="73">
+      <c r="A73" s="2" t="n">
         <v>32264</v>
       </c>
-      <c r="B74">
+      <c r="B73" t="n">
         <v>307356000000</v>
       </c>
-      <c r="C74">
+      <c r="C73" t="n">
         <v>1.840265032025488</v>
       </c>
-      <c r="D74">
+      <c r="D73" t="n">
         <v>565616499183.226</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="2">
+    <row r="74">
+      <c r="A74" s="2" t="n">
         <v>32295</v>
       </c>
-      <c r="B75">
+      <c r="B74" t="n">
         <v>313691000000</v>
       </c>
-      <c r="C75">
+      <c r="C74" t="n">
         <v>1.705611403526816</v>
       </c>
-      <c r="D75">
+      <c r="D74" t="n">
         <v>535034946783.7303</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="2">
+    <row r="75">
+      <c r="A75" s="2" t="n">
         <v>32325</v>
       </c>
-      <c r="B76">
+      <c r="B75" t="n">
         <v>319150000000</v>
       </c>
-      <c r="C76">
+      <c r="C75" t="n">
         <v>1.711449656390541</v>
       </c>
-      <c r="D76">
+      <c r="D75" t="n">
         <v>546209157837.0411</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="2">
+    <row r="76">
+      <c r="A76" s="2" t="n">
         <v>32356</v>
       </c>
-      <c r="B77">
+      <c r="B76" t="n">
         <v>322995000000</v>
       </c>
-      <c r="C77">
+      <c r="C76" t="n">
         <v>1.680954754060266</v>
       </c>
-      <c r="D77">
+      <c r="D76" t="n">
         <v>542939980787.6957</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="2">
+    <row r="77">
+      <c r="A77" s="2" t="n">
         <v>32387</v>
       </c>
-      <c r="B78">
+      <c r="B77" t="n">
         <v>327797000000</v>
       </c>
-      <c r="C78">
+      <c r="C77" t="n">
         <v>1.686056285853039</v>
       </c>
-      <c r="D78">
+      <c r="D77" t="n">
         <v>552684192333.7684</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="2">
+    <row r="78">
+      <c r="A78" s="2" t="n">
         <v>32417</v>
       </c>
-      <c r="B79">
+      <c r="B78" t="n">
         <v>331916000000</v>
       </c>
-      <c r="C79">
+      <c r="C78" t="n">
         <v>1.76959826987085</v>
       </c>
-      <c r="D79">
+      <c r="D78" t="n">
         <v>587357979342.453</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="2">
+    <row r="79">
+      <c r="A79" s="2" t="n">
         <v>32448</v>
       </c>
-      <c r="B80">
+      <c r="B79" t="n">
         <v>333293000000</v>
       </c>
-      <c r="C80">
+      <c r="C79" t="n">
         <v>1.848087127254456</v>
       </c>
-      <c r="D80">
+      <c r="D79" t="n">
         <v>615954502904.0195</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="2">
+    <row r="80">
+      <c r="A80" s="2" t="n">
         <v>32478</v>
       </c>
-      <c r="B81">
+      <c r="B80" t="n">
         <v>339317000000</v>
       </c>
-      <c r="C81">
+      <c r="C80" t="n">
         <v>1.807991354329983</v>
       </c>
-      <c r="D81">
+      <c r="D80" t="n">
         <v>613482202377.1869</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="2">
+    <row r="81">
+      <c r="A81" s="2" t="n">
         <v>32509</v>
       </c>
-      <c r="B82">
+      <c r="B81" t="n">
         <v>343461000000</v>
       </c>
-      <c r="C82">
+      <c r="C81" t="n">
         <v>1.755926158599149</v>
       </c>
-      <c r="D82">
+      <c r="D81" t="n">
         <v>603092154358.6222</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="2">
+    <row r="82">
+      <c r="A82" s="2" t="n">
         <v>32540</v>
       </c>
-      <c r="B83">
+      <c r="B82" t="n">
         <v>349710000000</v>
       </c>
-      <c r="C83">
+      <c r="C82" t="n">
         <v>1.743071261232852</v>
       </c>
-      <c r="D83">
+      <c r="D82" t="n">
         <v>609569450765.7407</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="2">
+    <row r="83">
+      <c r="A83" s="2" t="n">
         <v>32568</v>
       </c>
-      <c r="B84">
+      <c r="B83" t="n">
         <v>353734000000</v>
       </c>
-      <c r="C84">
+      <c r="C83" t="n">
         <v>1.685488005578561</v>
       </c>
-      <c r="D84">
+      <c r="D83" t="n">
         <v>596214414165.3267</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="2">
+    <row r="84">
+      <c r="A84" s="2" t="n">
         <v>32599</v>
       </c>
-      <c r="B85">
+      <c r="B84" t="n">
         <v>357400000000</v>
       </c>
-      <c r="C85">
+      <c r="C84" t="n">
         <v>1.688048587305054</v>
       </c>
-      <c r="D85">
+      <c r="D84" t="n">
         <v>603308565102.8264</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="2">
+    <row r="85">
+      <c r="A85" s="2" t="n">
         <v>32629</v>
       </c>
-      <c r="B86">
+      <c r="B85" t="n">
         <v>363827000000</v>
       </c>
-      <c r="C86">
+      <c r="C85" t="n">
         <v>1.572079886371324</v>
       </c>
-      <c r="D86">
+      <c r="D85" t="n">
         <v>571965108818.8196</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="2">
+    <row r="86">
+      <c r="A86" s="2" t="n">
         <v>32660</v>
       </c>
-      <c r="B87">
+      <c r="B86" t="n">
         <v>375186000000</v>
       </c>
-      <c r="C87">
+      <c r="C86" t="n">
         <v>1.550147263990079</v>
       </c>
-      <c r="D87">
+      <c r="D86" t="n">
         <v>581593551387.3818</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="2">
+    <row r="87">
+      <c r="A87" s="2" t="n">
         <v>32690</v>
       </c>
-      <c r="B88">
+      <c r="B87" t="n">
         <v>377386000000</v>
       </c>
-      <c r="C88">
+      <c r="C87" t="n">
         <v>1.661129568106312</v>
       </c>
-      <c r="D88">
+      <c r="D87" t="n">
         <v>626887043189.3688</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="2">
+    <row r="88">
+      <c r="A88" s="2" t="n">
         <v>32721</v>
       </c>
-      <c r="B89">
+      <c r="B88" t="n">
         <v>384842000000</v>
       </c>
-      <c r="C89">
+      <c r="C88" t="n">
         <v>1.573564097976961</v>
       </c>
-      <c r="D89">
+      <c r="D88" t="n">
         <v>605573554593.6498</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="2">
+    <row r="89">
+      <c r="A89" s="2" t="n">
         <v>32752</v>
       </c>
-      <c r="B90">
+      <c r="B89" t="n">
         <v>389498000000</v>
       </c>
-      <c r="C90">
+      <c r="C89" t="n">
         <v>1.618908907848758</v>
       </c>
-      <c r="D90">
+      <c r="D89" t="n">
         <v>630561781789.2758</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
-      <c r="A91" s="2">
+    <row r="90">
+      <c r="A90" s="2" t="n">
         <v>32782</v>
       </c>
-      <c r="B91">
+      <c r="B90" t="n">
         <v>396227000000</v>
       </c>
-      <c r="C91">
+      <c r="C90" t="n">
         <v>1.579778781049644</v>
       </c>
-      <c r="D91">
+      <c r="D90" t="n">
         <v>625951007078.9572</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
-      <c r="A92" s="2">
+    <row r="91">
+      <c r="A91" s="2" t="n">
         <v>32813</v>
       </c>
-      <c r="B92">
+      <c r="B91" t="n">
         <v>398337000000</v>
       </c>
-      <c r="C92">
+      <c r="C91" t="n">
         <v>1.569119699213562</v>
       </c>
-      <c r="D92">
+      <c r="D91" t="n">
         <v>625038433625.6326</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
-      <c r="A93" s="2">
+    <row r="92">
+      <c r="A92" s="2" t="n">
         <v>32843</v>
       </c>
-      <c r="B93">
+      <c r="B92" t="n">
         <v>406224000000</v>
       </c>
-      <c r="C93">
+      <c r="C92" t="n">
         <v>1.612383154220676</v>
       </c>
-      <c r="D93">
+      <c r="D92" t="n">
         <v>654988734440.1398</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
-      <c r="A94" s="2">
+    <row r="93">
+      <c r="A93" s="2" t="n">
         <v>32874</v>
       </c>
-      <c r="B94">
+      <c r="B93" t="n">
         <v>410992000000</v>
       </c>
-      <c r="C94">
+      <c r="C93" t="n">
         <v>1.68010752688172</v>
       </c>
-      <c r="D94">
+      <c r="D93" t="n">
         <v>690510752688.1721</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
-      <c r="A95" s="2">
+    <row r="94">
+      <c r="A94" s="2" t="n">
         <v>32905</v>
       </c>
-      <c r="B95">
+      <c r="B94" t="n">
         <v>414448000000</v>
       </c>
-      <c r="C95">
+      <c r="C94" t="n">
         <v>1.690617132396184</v>
       </c>
-      <c r="D95">
+      <c r="D94" t="n">
         <v>700672889287.3335</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
-      <c r="A96" s="2">
+    <row r="95">
+      <c r="A95" s="2" t="n">
         <v>32933</v>
       </c>
-      <c r="B96">
+      <c r="B95" t="n">
         <v>420823000000</v>
       </c>
-      <c r="C96">
+      <c r="C95" t="n">
         <v>1.645548817599948</v>
       </c>
-      <c r="D96">
+      <c r="D95" t="n">
         <v>692484790068.8628</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
-      <c r="A97" s="2">
+    <row r="96">
+      <c r="A96" s="2" t="n">
         <v>32964</v>
       </c>
-      <c r="B97">
+      <c r="B96" t="n">
         <v>424387000000</v>
       </c>
-      <c r="C97">
+      <c r="C96" t="n">
         <v>1.635055645358262</v>
       </c>
-      <c r="D97">
+      <c r="D96" t="n">
         <v>693896360166.6566</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
-      <c r="A98" s="2">
+    <row r="97">
+      <c r="A97" s="2" t="n">
         <v>32994</v>
       </c>
-      <c r="B98">
+      <c r="B97" t="n">
         <v>427459000000</v>
       </c>
-      <c r="C98">
+      <c r="C97" t="n">
         <v>1.677570961796895</v>
       </c>
-      <c r="D98">
+      <c r="D97" t="n">
         <v>717092805758.7388</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
-      <c r="A99" s="2">
+    <row r="98">
+      <c r="A98" s="2" t="n">
         <v>33025</v>
       </c>
-      <c r="B99">
+      <c r="B98" t="n">
         <v>431382000000</v>
       </c>
-      <c r="C99">
+      <c r="C98" t="n">
         <v>1.743983196931175</v>
       </c>
-      <c r="D99">
+      <c r="D98" t="n">
         <v>752322959458.5643</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
-      <c r="A100" s="2">
+    <row r="99">
+      <c r="A99" s="2" t="n">
         <v>33055</v>
       </c>
-      <c r="B100">
+      <c r="B99" t="n">
         <v>432276000000</v>
       </c>
-      <c r="C100">
+      <c r="C99" t="n">
         <v>1.85908171736838</v>
       </c>
-      <c r="D100">
+      <c r="D99" t="n">
         <v>803636408457.1338</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
-      <c r="A101" s="2">
+    <row r="100">
+      <c r="A100" s="2" t="n">
         <v>33086</v>
       </c>
-      <c r="B101">
+      <c r="B100" t="n">
         <v>435034000000</v>
       </c>
-      <c r="C101">
+      <c r="C100" t="n">
         <v>1.890716474340151</v>
       </c>
-      <c r="D101">
+      <c r="D100" t="n">
         <v>822525950698.0933</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
-      <c r="A102" s="2">
+    <row r="101">
+      <c r="A101" s="2" t="n">
         <v>33117</v>
       </c>
-      <c r="B102">
+      <c r="B101" t="n">
         <v>439584000000</v>
       </c>
-      <c r="C102">
+      <c r="C101" t="n">
         <v>1.870557356133283</v>
       </c>
-      <c r="D102">
+      <c r="D101" t="n">
         <v>822267084838.4929</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
-      <c r="A103" s="2">
+    <row r="102">
+      <c r="A102" s="2" t="n">
         <v>33147</v>
       </c>
-      <c r="B103">
+      <c r="B102" t="n">
         <v>441285000000</v>
       </c>
-      <c r="C103">
+      <c r="C102" t="n">
         <v>1.944390471405609</v>
       </c>
-      <c r="D103">
+      <c r="D102" t="n">
         <v>858030349174.2241</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
-      <c r="A104" s="2">
+    <row r="103">
+      <c r="A103" s="2" t="n">
         <v>33178</v>
       </c>
-      <c r="B104">
+      <c r="B103" t="n">
         <v>446469000000</v>
       </c>
-      <c r="C104">
+      <c r="C103" t="n">
         <v>1.936858340621409</v>
       </c>
-      <c r="D104">
+      <c r="D103" t="n">
         <v>864747206478.8997</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
-      <c r="A105" s="2">
+    <row r="104">
+      <c r="A104" s="2" t="n">
         <v>33208</v>
       </c>
-      <c r="B105">
+      <c r="B104" t="n">
         <v>448145000000</v>
       </c>
-      <c r="C105">
+      <c r="C104" t="n">
         <v>1.929384526336099</v>
       </c>
-      <c r="D105">
+      <c r="D104" t="n">
         <v>864644028554.891</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
-      <c r="A106" s="2">
+    <row r="105">
+      <c r="A105" s="2" t="n">
         <v>33239</v>
       </c>
-      <c r="B106">
+      <c r="B105" t="n">
         <v>449342000000</v>
       </c>
-      <c r="C106">
+      <c r="C105" t="n">
         <v>1.958863820590327</v>
       </c>
-      <c r="D106">
+      <c r="D105" t="n">
         <v>880199786871.6986</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
-      <c r="A107" s="2">
+    <row r="106">
+      <c r="A106" s="2" t="n">
         <v>33270</v>
       </c>
-      <c r="B107">
+      <c r="B106" t="n">
         <v>450874000000</v>
       </c>
-      <c r="C107">
+      <c r="C106" t="n">
         <v>1.912045889101338</v>
       </c>
-      <c r="D107">
+      <c r="D106" t="n">
         <v>862091778202.6768</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
-      <c r="A108" s="2">
+    <row r="107">
+      <c r="A107" s="2" t="n">
         <v>33298</v>
       </c>
-      <c r="B108">
+      <c r="B107" t="n">
         <v>452937000000</v>
       </c>
-      <c r="C108">
+      <c r="C107" t="n">
         <v>1.740644038294169</v>
       </c>
-      <c r="D108">
+      <c r="D107" t="n">
         <v>788402088772.8459</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
-      <c r="A109" s="2">
+    <row r="108">
+      <c r="A108" s="2" t="n">
         <v>33329</v>
       </c>
-      <c r="B109">
+      <c r="B108" t="n">
         <v>454556000000</v>
       </c>
-      <c r="C109">
+      <c r="C108" t="n">
         <v>1.732501732501732</v>
       </c>
-      <c r="D109">
+      <c r="D108" t="n">
         <v>787519057519.0575</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
-      <c r="A110" s="2">
+    <row r="109">
+      <c r="A109" s="2" t="n">
         <v>33359</v>
       </c>
-      <c r="B110">
+      <c r="B109" t="n">
         <v>457279000000</v>
       </c>
-      <c r="C110">
+      <c r="C109" t="n">
         <v>1.697216564833673</v>
       </c>
-      <c r="D110">
+      <c r="D109" t="n">
         <v>776101493550.5771</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
-      <c r="A111" s="2">
+    <row r="110">
+      <c r="A110" s="2" t="n">
         <v>33390</v>
       </c>
-      <c r="B111">
+      <c r="B110" t="n">
         <v>458137000000</v>
       </c>
-      <c r="C111">
+      <c r="C110" t="n">
         <v>1.619170984455959</v>
       </c>
-      <c r="D111">
+      <c r="D110" t="n">
         <v>741802137305.6995</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
-      <c r="A112" s="2">
+    <row r="111">
+      <c r="A111" s="2" t="n">
         <v>33420</v>
       </c>
-      <c r="B112">
+      <c r="B111" t="n">
         <v>457916000000</v>
       </c>
-      <c r="C112">
+      <c r="C111" t="n">
         <v>1.685772083614296</v>
       </c>
-      <c r="D112">
+      <c r="D111" t="n">
         <v>771942009440.3237</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
-      <c r="A113" s="2">
+    <row r="112">
+      <c r="A112" s="2" t="n">
         <v>33451</v>
       </c>
-      <c r="B113">
+      <c r="B112" t="n">
         <v>459621000000</v>
       </c>
-      <c r="C113">
+      <c r="C112" t="n">
         <v>1.68321831341525</v>
       </c>
-      <c r="D113">
+      <c r="D112" t="n">
         <v>773642484430.2307</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
-      <c r="A114" s="2">
+    <row r="113">
+      <c r="A113" s="2" t="n">
         <v>33482</v>
       </c>
-      <c r="B114">
+      <c r="B113" t="n">
         <v>461686000000</v>
       </c>
-      <c r="C114">
+      <c r="C113" t="n">
         <v>1.747030048916841</v>
       </c>
-      <c r="D114">
+      <c r="D113" t="n">
         <v>806579315164.2208</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
-      <c r="A115" s="2">
+    <row r="114">
+      <c r="A114" s="2" t="n">
         <v>33512</v>
       </c>
-      <c r="B115">
+      <c r="B114" t="n">
         <v>460846000000</v>
       </c>
-      <c r="C115">
+      <c r="C114" t="n">
         <v>1.742160278745645</v>
       </c>
-      <c r="D115">
+      <c r="D114" t="n">
         <v>802867595818.8154</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
-      <c r="A116" s="2">
+    <row r="115">
+      <c r="A115" s="2" t="n">
         <v>33543</v>
       </c>
-      <c r="B116">
+      <c r="B115" t="n">
         <v>461203000000</v>
       </c>
-      <c r="C116">
+      <c r="C115" t="n">
         <v>1.76772140710624</v>
       </c>
-      <c r="D116">
+      <c r="D115" t="n">
         <v>815278416121.6193</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
-      <c r="A117" s="2">
+    <row r="116">
+      <c r="A116" s="2" t="n">
         <v>33573</v>
       </c>
-      <c r="B117">
+      <c r="B116" t="n">
         <v>462476000000</v>
       </c>
-      <c r="C117">
+      <c r="C116" t="n">
         <v>1.868460388639761</v>
       </c>
-      <c r="D117">
+      <c r="D116" t="n">
         <v>864118086696.562</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
-      <c r="A118" s="2">
+    <row r="117">
+      <c r="A117" s="2" t="n">
         <v>33604</v>
       </c>
-      <c r="B118">
+      <c r="B117" t="n">
         <v>466046000000</v>
       </c>
-      <c r="C118">
+      <c r="C117" t="n">
         <v>1.787629603146228</v>
       </c>
-      <c r="D118">
+      <c r="D117" t="n">
         <v>833117626027.887</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
-      <c r="A119" s="2">
+    <row r="118">
+      <c r="A118" s="2" t="n">
         <v>33635</v>
       </c>
-      <c r="B119">
+      <c r="B118" t="n">
         <v>467523000000</v>
       </c>
-      <c r="C119">
+      <c r="C118" t="n">
         <v>1.757469244288225</v>
       </c>
-      <c r="D119">
+      <c r="D118" t="n">
         <v>821657293497.3639</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
-      <c r="A120" s="2">
+    <row r="119">
+      <c r="A119" s="2" t="n">
         <v>33664</v>
       </c>
-      <c r="B120">
+      <c r="B119" t="n">
         <v>468674000000</v>
       </c>
-      <c r="C120">
+      <c r="C119" t="n">
         <v>1.735809755250825</v>
       </c>
-      <c r="D120">
+      <c r="D119" t="n">
         <v>813528901232.425</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
-      <c r="A121" s="2">
+    <row r="120">
+      <c r="A120" s="2" t="n">
         <v>33695</v>
       </c>
-      <c r="B121">
+      <c r="B120" t="n">
         <v>472017000000</v>
       </c>
-      <c r="C121">
+      <c r="C120" t="n">
         <v>1.779359430604982</v>
       </c>
-      <c r="D121">
+      <c r="D120" t="n">
         <v>839887900355.8718</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
-      <c r="A122" s="2">
+    <row r="121">
+      <c r="A121" s="2" t="n">
         <v>33725</v>
       </c>
-      <c r="B122">
+      <c r="B121" t="n">
         <v>469327000000</v>
       </c>
-      <c r="C122">
+      <c r="C121" t="n">
         <v>1.827485380116959</v>
       </c>
-      <c r="D122">
+      <c r="D121" t="n">
         <v>857688230994.152</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
-      <c r="A123" s="2">
+    <row r="122">
+      <c r="A122" s="2" t="n">
         <v>33756</v>
       </c>
-      <c r="B123">
+      <c r="B122" t="n">
         <v>471821000000</v>
       </c>
-      <c r="C123">
+      <c r="C122" t="n">
         <v>1.903311762466692</v>
       </c>
-      <c r="D123">
+      <c r="D122" t="n">
         <v>898022459078.7972</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
-      <c r="A124" s="2">
+    <row r="123">
+      <c r="A123" s="2" t="n">
         <v>33786</v>
       </c>
-      <c r="B124">
+      <c r="B123" t="n">
         <v>473214000000</v>
       </c>
-      <c r="C124">
+      <c r="C123" t="n">
         <v>1.927153594141453</v>
       </c>
-      <c r="D124">
+      <c r="D123" t="n">
         <v>911956060898.0536</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
-      <c r="A125" s="2">
+    <row r="124">
+      <c r="A124" s="2" t="n">
         <v>33817</v>
       </c>
-      <c r="B125">
+      <c r="B124" t="n">
         <v>472160000000</v>
       </c>
-      <c r="C125">
+      <c r="C124" t="n">
         <v>1.990842126219391</v>
       </c>
-      <c r="D125">
+      <c r="D124" t="n">
         <v>939996018315.7477</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
-      <c r="A126" s="2">
+    <row r="125">
+      <c r="A125" s="2" t="n">
         <v>33848</v>
       </c>
-      <c r="B126">
+      <c r="B125" t="n">
         <v>478010000000</v>
       </c>
-      <c r="C126">
+      <c r="C125" t="n">
         <v>1.786033220217896</v>
       </c>
-      <c r="D126">
+      <c r="D125" t="n">
         <v>853741739596.3566</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
-      <c r="A127" s="2">
+    <row r="126">
+      <c r="A126" s="2" t="n">
         <v>33878</v>
       </c>
-      <c r="B127">
+      <c r="B126" t="n">
         <v>484452000000</v>
       </c>
-      <c r="C127">
+      <c r="C126" t="n">
         <v>1.556904873112253</v>
       </c>
-      <c r="D127">
+      <c r="D126" t="n">
         <v>754245679588.9771</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
-      <c r="A128" s="2">
+    <row r="127">
+      <c r="A127" s="2" t="n">
         <v>33909</v>
       </c>
-      <c r="B128">
+      <c r="B127" t="n">
         <v>483075000000</v>
       </c>
-      <c r="C128">
+      <c r="C127" t="n">
         <v>1.516990291262136</v>
       </c>
-      <c r="D128">
+      <c r="D127" t="n">
         <v>732820084951.4563</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
-      <c r="A129" s="2">
+    <row r="128">
+      <c r="A128" s="2" t="n">
         <v>33939</v>
       </c>
-      <c r="B129">
+      <c r="B128" t="n">
         <v>481592000000</v>
       </c>
-      <c r="C129">
+      <c r="C128" t="n">
         <v>1.510117789187557</v>
       </c>
-      <c r="D129">
+      <c r="D128" t="n">
         <v>727260646330.4137</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
-      <c r="A130" s="2">
+    <row r="129">
+      <c r="A129" s="2" t="n">
         <v>33970</v>
       </c>
-      <c r="B130">
+      <c r="B129" t="n">
         <v>481917000000</v>
       </c>
-      <c r="C130">
+      <c r="C129" t="n">
         <v>1.48720999405116</v>
       </c>
-      <c r="D130">
+      <c r="D129" t="n">
         <v>716711778703.153</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
-      <c r="A131" s="2">
+    <row r="130">
+      <c r="A130" s="2" t="n">
         <v>34001</v>
       </c>
-      <c r="B131">
+      <c r="B130" t="n">
         <v>484043000000</v>
       </c>
-      <c r="C131">
+      <c r="C130" t="n">
         <v>1.426533523537803</v>
       </c>
-      <c r="D131">
+      <c r="D130" t="n">
         <v>690503566333.8088</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
-      <c r="A132" s="2">
+    <row r="131">
+      <c r="A131" s="2" t="n">
         <v>34029</v>
       </c>
-      <c r="B132">
+      <c r="B131" t="n">
         <v>484425000000</v>
       </c>
-      <c r="C132">
+      <c r="C131" t="n">
         <v>1.511944360447536</v>
       </c>
-      <c r="D132">
+      <c r="D131" t="n">
         <v>732423646809.7974</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
-      <c r="A133" s="2">
+    <row r="132">
+      <c r="A132" s="2" t="n">
         <v>34060</v>
       </c>
-      <c r="B133">
+      <c r="B132" t="n">
         <v>486473000000</v>
       </c>
-      <c r="C133">
+      <c r="C132" t="n">
         <v>1.573564122738002</v>
       </c>
-      <c r="D133">
+      <c r="D132" t="n">
         <v>765496459480.7239</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
-      <c r="A134" s="2">
+    <row r="133">
+      <c r="A133" s="2" t="n">
         <v>34090</v>
       </c>
-      <c r="B134">
+      <c r="B133" t="n">
         <v>487064000000</v>
       </c>
-      <c r="C134">
+      <c r="C133" t="n">
         <v>1.562011871290222</v>
       </c>
-      <c r="D134">
+      <c r="D133" t="n">
         <v>760799750078.1006</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
-      <c r="A135" s="2">
+    <row r="134">
+      <c r="A134" s="2" t="n">
         <v>34121</v>
       </c>
-      <c r="B135">
+      <c r="B134" t="n">
         <v>490069000000</v>
       </c>
-      <c r="C135">
+      <c r="C134" t="n">
         <v>1.491646778042959</v>
       </c>
-      <c r="D135">
+      <c r="D134" t="n">
         <v>731009844868.7351</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
-      <c r="A136" s="2">
+    <row r="135">
+      <c r="A135" s="2" t="n">
         <v>34151</v>
       </c>
-      <c r="B136">
+      <c r="B135" t="n">
         <v>493307000000</v>
       </c>
-      <c r="C136">
+      <c r="C135" t="n">
         <v>1.48214021046391</v>
       </c>
-      <c r="D136">
+      <c r="D135" t="n">
         <v>731150140803.3199</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
-      <c r="A137" s="2">
+    <row r="136">
+      <c r="A136" s="2" t="n">
         <v>34182</v>
       </c>
-      <c r="B137">
+      <c r="B136" t="n">
         <v>495736000000</v>
       </c>
-      <c r="C137">
+      <c r="C136" t="n">
         <v>1.492091912861832</v>
       </c>
-      <c r="D137">
+      <c r="D136" t="n">
         <v>739683676514.4733</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
-      <c r="A138" s="2">
+    <row r="137">
+      <c r="A137" s="2" t="n">
         <v>34213</v>
       </c>
-      <c r="B138">
+      <c r="B137" t="n">
         <v>497207000000</v>
       </c>
-      <c r="C138">
+      <c r="C137" t="n">
         <v>1.49655791679138</v>
       </c>
-      <c r="D138">
+      <c r="D137" t="n">
         <v>744099072134.0916</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
-      <c r="A139" s="2">
+    <row r="138">
+      <c r="A138" s="2" t="n">
         <v>34243</v>
       </c>
-      <c r="B139">
+      <c r="B138" t="n">
         <v>500928000000</v>
       </c>
-      <c r="C139">
+      <c r="C138" t="n">
         <v>1.478852410529429</v>
       </c>
-      <c r="D139">
+      <c r="D138" t="n">
         <v>740798580301.6859</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
-      <c r="A140" s="2">
+    <row r="139">
+      <c r="A139" s="2" t="n">
         <v>34274</v>
       </c>
-      <c r="B140">
+      <c r="B139" t="n">
         <v>503900000000</v>
       </c>
-      <c r="C140">
+      <c r="C139" t="n">
         <v>1.485663348685188</v>
       </c>
-      <c r="D140">
+      <c r="D139" t="n">
         <v>748625761402.4662</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
-      <c r="A141" s="2">
+    <row r="140">
+      <c r="A140" s="2" t="n">
         <v>34304</v>
       </c>
-      <c r="B141">
+      <c r="B140" t="n">
         <v>509216000000</v>
       </c>
-      <c r="C141">
+      <c r="C140" t="n">
         <v>1.477104874446086</v>
       </c>
-      <c r="D141">
+      <c r="D140" t="n">
         <v>752165435745.9379</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
-      <c r="A142" s="2">
+    <row r="141">
+      <c r="A141" s="2" t="n">
         <v>34335</v>
       </c>
-      <c r="B142">
+      <c r="B141" t="n">
         <v>510034000000</v>
       </c>
-      <c r="C142">
+      <c r="C141" t="n">
         <v>1.506931886678722</v>
       </c>
-      <c r="D142">
+      <c r="D141" t="n">
         <v>768586497890.2954</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
-      <c r="A143" s="2">
+    <row r="142">
+      <c r="A142" s="2" t="n">
         <v>34366</v>
       </c>
-      <c r="B143">
+      <c r="B142" t="n">
         <v>514261000000</v>
       </c>
-      <c r="C143">
+      <c r="C142" t="n">
         <v>1.485222040695084</v>
       </c>
-      <c r="D143">
+      <c r="D142" t="n">
         <v>763791771869.8945</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
-      <c r="A144" s="2">
+    <row r="143">
+      <c r="A143" s="2" t="n">
         <v>34394</v>
       </c>
-      <c r="B144">
+      <c r="B143" t="n">
         <v>515859000000</v>
       </c>
-      <c r="C144">
+      <c r="C143" t="n">
         <v>1.483459427384661</v>
       </c>
-      <c r="D144">
+      <c r="D143" t="n">
         <v>765255896751.2238</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
-      <c r="A145" s="2">
+    <row r="144">
+      <c r="A144" s="2" t="n">
         <v>34425</v>
       </c>
-      <c r="B145">
+      <c r="B144" t="n">
         <v>514456000000</v>
       </c>
-      <c r="C145">
+      <c r="C144" t="n">
         <v>1.51952590791673</v>
       </c>
-      <c r="D145">
+      <c r="D144" t="n">
         <v>781729220483.2092</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
-      <c r="A146" s="2">
+    <row r="145">
+      <c r="A145" s="2" t="n">
         <v>34455</v>
       </c>
-      <c r="B146">
+      <c r="B145" t="n">
         <v>517720000000</v>
       </c>
-      <c r="C146">
+      <c r="C145" t="n">
         <v>1.511030522816561</v>
       </c>
-      <c r="D146">
+      <c r="D145" t="n">
         <v>782290722272.5898</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
-      <c r="A147" s="2">
+    <row r="146">
+      <c r="A146" s="2" t="n">
         <v>34486</v>
       </c>
-      <c r="B147">
+      <c r="B146" t="n">
         <v>517125000000</v>
       </c>
-      <c r="C147">
+      <c r="C146" t="n">
         <v>1.544401544401544</v>
       </c>
-      <c r="D147">
+      <c r="D146" t="n">
         <v>798648648648.6487</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
-      <c r="A148" s="2">
+    <row r="147">
+      <c r="A147" s="2" t="n">
         <v>34516</v>
       </c>
-      <c r="B148">
+      <c r="B147" t="n">
         <v>516624000000</v>
       </c>
-      <c r="C148">
+      <c r="C147" t="n">
         <v>1.544163063619518</v>
       </c>
-      <c r="D148">
+      <c r="D147" t="n">
         <v>797751698579.37</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
-      <c r="A149" s="2">
+    <row r="148">
+      <c r="A148" s="2" t="n">
         <v>34547</v>
       </c>
-      <c r="B149">
+      <c r="B148" t="n">
         <v>518423000000</v>
       </c>
-      <c r="C149">
+      <c r="C148" t="n">
         <v>1.534448365812491</v>
       </c>
-      <c r="D149">
+      <c r="D148" t="n">
         <v>795493325149.6088</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
-      <c r="A150" s="2">
+    <row r="149">
+      <c r="A149" s="2" t="n">
         <v>34578</v>
       </c>
-      <c r="B150">
+      <c r="B149" t="n">
         <v>521865000000</v>
       </c>
-      <c r="C150">
+      <c r="C149" t="n">
         <v>1.577535888941473</v>
       </c>
-      <c r="D150">
+      <c r="D149" t="n">
         <v>823260766682.442</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
-      <c r="A151" s="2">
+    <row r="150">
+      <c r="A150" s="2" t="n">
         <v>34608</v>
       </c>
-      <c r="B151">
+      <c r="B150" t="n">
         <v>521391000000</v>
       </c>
-      <c r="C151">
+      <c r="C150" t="n">
         <v>1.635858007524947</v>
       </c>
-      <c r="D151">
+      <c r="D150" t="n">
         <v>852921642401.4396</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
-      <c r="A152" s="2">
+    <row r="151">
+      <c r="A151" s="2" t="n">
         <v>34639</v>
       </c>
-      <c r="B152">
+      <c r="B151" t="n">
         <v>524786000000</v>
       </c>
-      <c r="C152">
+      <c r="C151" t="n">
         <v>1.563477173233271</v>
       </c>
-      <c r="D152">
+      <c r="D151" t="n">
         <v>820490931832.3953</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
-      <c r="A153" s="2">
+    <row r="152">
+      <c r="A152" s="2" t="n">
         <v>34669</v>
       </c>
-      <c r="B153">
+      <c r="B152" t="n">
         <v>527178000000</v>
       </c>
-      <c r="C153">
+      <c r="C152" t="n">
         <v>1.564700359881083</v>
       </c>
-      <c r="D153">
+      <c r="D152" t="n">
         <v>824875606321.3894</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
-      <c r="A154" s="2">
+    <row r="153">
+      <c r="A153" s="2" t="n">
         <v>34700</v>
       </c>
-      <c r="B154">
+      <c r="B153" t="n">
         <v>529708000000</v>
       </c>
-      <c r="C154">
+      <c r="C153" t="n">
         <v>1.57952930026852</v>
       </c>
-      <c r="D154">
+      <c r="D153" t="n">
         <v>836689306586.6372</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
-      <c r="A155" s="2">
+    <row r="154">
+      <c r="A154" s="2" t="n">
         <v>34731</v>
       </c>
-      <c r="B155">
+      <c r="B154" t="n">
         <v>533750000000</v>
       </c>
-      <c r="C155">
+      <c r="C154" t="n">
         <v>1.58378207158695</v>
       </c>
-      <c r="D155">
+      <c r="D154" t="n">
         <v>845343680709.5344</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
-      <c r="A156" s="2">
+    <row r="155">
+      <c r="A155" s="2" t="n">
         <v>34759</v>
       </c>
-      <c r="B156">
+      <c r="B155" t="n">
         <v>542876000000</v>
       </c>
-      <c r="C156">
+      <c r="C155" t="n">
         <v>1.621533971136695</v>
       </c>
-      <c r="D156">
+      <c r="D155" t="n">
         <v>880291876114.8046</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
-      <c r="A157" s="2">
+    <row r="156">
+      <c r="A156" s="2" t="n">
         <v>34790</v>
       </c>
-      <c r="B157">
+      <c r="B156" t="n">
         <v>542961000000</v>
       </c>
-      <c r="C157">
+      <c r="C156" t="n">
         <v>1.612383102225089</v>
       </c>
-      <c r="D157">
+      <c r="D156" t="n">
         <v>875461141567.2365</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
-      <c r="A158" s="2">
+    <row r="157">
+      <c r="A157" s="2" t="n">
         <v>34820</v>
       </c>
-      <c r="B158">
+      <c r="B157" t="n">
         <v>546560000000</v>
       </c>
-      <c r="C158">
+      <c r="C157" t="n">
         <v>1.587301587301587</v>
       </c>
-      <c r="D158">
+      <c r="D157" t="n">
         <v>867555555555.5555</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
-      <c r="A159" s="2">
+    <row r="158">
+      <c r="A158" s="2" t="n">
         <v>34851</v>
       </c>
-      <c r="B159">
+      <c r="B158" t="n">
         <v>550532000000</v>
       </c>
-      <c r="C159">
+      <c r="C158" t="n">
         <v>1.594896331738437</v>
       </c>
-      <c r="D159">
+      <c r="D158" t="n">
         <v>878041467304.6252</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
-      <c r="A160" s="2">
+    <row r="159">
+      <c r="A159" s="2" t="n">
         <v>34881</v>
       </c>
-      <c r="B160">
+      <c r="B159" t="n">
         <v>558179000000</v>
       </c>
-      <c r="C160">
+      <c r="C159" t="n">
         <v>1.597444089456869</v>
       </c>
-      <c r="D160">
+      <c r="D159" t="n">
         <v>891659744408.9458</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
-      <c r="A161" s="2">
+    <row r="160">
+      <c r="A160" s="2" t="n">
         <v>34912</v>
       </c>
-      <c r="B161">
+      <c r="B160" t="n">
         <v>564092000000</v>
       </c>
-      <c r="C161">
+      <c r="C160" t="n">
         <v>1.549907005579665</v>
       </c>
-      <c r="D161">
+      <c r="D160" t="n">
         <v>874290142591.4446</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
-      <c r="A162" s="2">
+    <row r="161">
+      <c r="A161" s="2" t="n">
         <v>34943</v>
       </c>
-      <c r="B162">
+      <c r="B161" t="n">
         <v>568035000000</v>
       </c>
-      <c r="C162">
+      <c r="C161" t="n">
         <v>1.584534938995405</v>
       </c>
-      <c r="D162">
+      <c r="D161" t="n">
         <v>900071304072.2548</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
-      <c r="A163" s="2">
+    <row r="162">
+      <c r="A162" s="2" t="n">
         <v>34973</v>
       </c>
-      <c r="B163">
+      <c r="B162" t="n">
         <v>573711000000</v>
       </c>
-      <c r="C163">
+      <c r="C162" t="n">
         <v>1.58052789631737</v>
       </c>
-      <c r="D163">
+      <c r="D162" t="n">
         <v>906766239924.1346</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
-      <c r="A164" s="2">
+    <row r="163">
+      <c r="A163" s="2" t="n">
         <v>35004</v>
       </c>
-      <c r="B164">
+      <c r="B163" t="n">
         <v>577801000000</v>
       </c>
-      <c r="C164">
+      <c r="C163" t="n">
         <v>1.531159087429184</v>
       </c>
-      <c r="D164">
+      <c r="D163" t="n">
         <v>884705251875.6698</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
-      <c r="A165" s="2">
+    <row r="164">
+      <c r="A164" s="2" t="n">
         <v>35034</v>
       </c>
-      <c r="B165">
+      <c r="B164" t="n">
         <v>580830000000</v>
       </c>
-      <c r="C165">
+      <c r="C164" t="n">
         <v>1.550628004341758</v>
       </c>
-      <c r="D165">
+      <c r="D164" t="n">
         <v>900651263761.8235</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
-      <c r="A166" s="2">
+    <row r="165">
+      <c r="A165" s="2" t="n">
         <v>35065</v>
       </c>
-      <c r="B166">
+      <c r="B165" t="n">
         <v>588638000000</v>
       </c>
-      <c r="C166">
+      <c r="C165" t="n">
         <v>1.504890895410083</v>
       </c>
-      <c r="D166">
+      <c r="D165" t="n">
         <v>885835966892.4003</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
-      <c r="A167" s="2">
+    <row r="166">
+      <c r="A166" s="2" t="n">
         <v>35096</v>
       </c>
-      <c r="B167">
+      <c r="B166" t="n">
         <v>591466000000</v>
       </c>
-      <c r="C167">
+      <c r="C166" t="n">
         <v>1.531628120692296</v>
       </c>
-      <c r="D167">
+      <c r="D166" t="n">
         <v>905905958033.3895</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
-      <c r="A168" s="2">
+    <row r="167">
+      <c r="A167" s="2" t="n">
         <v>35125</v>
       </c>
-      <c r="B168">
+      <c r="B167" t="n">
         <v>596040000000</v>
       </c>
-      <c r="C168">
+      <c r="C167" t="n">
         <v>1.526717557251908</v>
       </c>
-      <c r="D168">
+      <c r="D167" t="n">
         <v>909984732824.4274</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
-      <c r="A169" s="2">
+    <row r="168">
+      <c r="A168" s="2" t="n">
         <v>35156</v>
       </c>
-      <c r="B169">
+      <c r="B168" t="n">
         <v>601044000000</v>
       </c>
-      <c r="C169">
+      <c r="C168" t="n">
         <v>1.507159005275057</v>
       </c>
-      <c r="D169">
+      <c r="D168" t="n">
         <v>905868877166.541</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
-      <c r="A170" s="2">
+    <row r="169">
+      <c r="A169" s="2" t="n">
         <v>35186</v>
       </c>
-      <c r="B170">
+      <c r="B169" t="n">
         <v>601672000000</v>
       </c>
-      <c r="C170">
+      <c r="C169" t="n">
         <v>1.55110904296572</v>
       </c>
-      <c r="D170">
+      <c r="D169" t="n">
         <v>933258880099.2709</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
-      <c r="A171" s="2">
+    <row r="170">
+      <c r="A170" s="2" t="n">
         <v>35217</v>
       </c>
-      <c r="B171">
+      <c r="B170" t="n">
         <v>610827000000</v>
       </c>
-      <c r="C171">
+      <c r="C170" t="n">
         <v>1.552795031055901</v>
       </c>
-      <c r="D171">
+      <c r="D170" t="n">
         <v>948489130434.7826</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
-      <c r="A172" s="2">
+    <row r="171">
+      <c r="A171" s="2" t="n">
         <v>35247</v>
       </c>
-      <c r="B172">
+      <c r="B171" t="n">
         <v>613598000000</v>
       </c>
-      <c r="C172">
+      <c r="C171" t="n">
         <v>1.556904873112253</v>
       </c>
-      <c r="D172">
+      <c r="D171" t="n">
         <v>955313716331.9321</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
-      <c r="A173" s="2">
+    <row r="172">
+      <c r="A172" s="2" t="n">
         <v>35278</v>
       </c>
-      <c r="B173">
+      <c r="B172" t="n">
         <v>617720000000</v>
       </c>
-      <c r="C173">
+      <c r="C172" t="n">
         <v>1.562011871290222</v>
       </c>
-      <c r="D173">
+      <c r="D172" t="n">
         <v>964885973133.3958</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
-      <c r="A174" s="2">
+    <row r="173">
+      <c r="A173" s="2" t="n">
         <v>35309</v>
       </c>
-      <c r="B174">
+      <c r="B173" t="n">
         <v>627415000000</v>
       </c>
-      <c r="C174">
+      <c r="C173" t="n">
         <v>1.565435190983093</v>
       </c>
-      <c r="D174">
+      <c r="D173" t="n">
         <v>982177520350.6575</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
-      <c r="A175" s="2">
+    <row r="174">
+      <c r="A174" s="2" t="n">
         <v>35339</v>
       </c>
-      <c r="B175">
+      <c r="B174" t="n">
         <v>627185000000</v>
       </c>
-      <c r="C175">
+      <c r="C174" t="n">
         <v>1.627339300244101</v>
       </c>
-      <c r="D175">
+      <c r="D174" t="n">
         <v>1020642799023.596</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
-      <c r="A176" s="2">
+    <row r="175">
+      <c r="A175" s="2" t="n">
         <v>35370</v>
       </c>
-      <c r="B176">
+      <c r="B175" t="n">
         <v>633336000000</v>
       </c>
-      <c r="C176">
+      <c r="C175" t="n">
         <v>1.682085786375105</v>
       </c>
-      <c r="D176">
+      <c r="D175" t="n">
         <v>1065325483599.664</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
-      <c r="A177" s="2">
+    <row r="176">
+      <c r="A176" s="2" t="n">
         <v>35400</v>
       </c>
-      <c r="B177">
+      <c r="B176" t="n">
         <v>637982000000</v>
       </c>
-      <c r="C177">
+      <c r="C176" t="n">
         <v>1.714383679067375</v>
       </c>
-      <c r="D177">
+      <c r="D176" t="n">
         <v>1093745928338.762</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
-      <c r="A178" s="2">
+    <row r="177">
+      <c r="A177" s="2" t="n">
         <v>35431</v>
       </c>
-      <c r="B178">
+      <c r="B177" t="n">
         <v>648719000000</v>
       </c>
-      <c r="C178">
+      <c r="C177" t="n">
         <v>1.602564102564103</v>
       </c>
-      <c r="D178">
+      <c r="D177" t="n">
         <v>1039613782051.282</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
-      <c r="A179" s="2">
+    <row r="178">
+      <c r="A178" s="2" t="n">
         <v>35462</v>
       </c>
-      <c r="B179">
+      <c r="B178" t="n">
         <v>654780000000</v>
       </c>
-      <c r="C179">
+      <c r="C178" t="n">
         <v>1.628664495114007</v>
       </c>
-      <c r="D179">
+      <c r="D178" t="n">
         <v>1066416938110.749</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
-      <c r="A180" s="2">
+    <row r="179">
+      <c r="A179" s="2" t="n">
         <v>35490</v>
       </c>
-      <c r="B180">
+      <c r="B179" t="n">
         <v>659762000000</v>
       </c>
-      <c r="C180">
+      <c r="C179" t="n">
         <v>1.637465203864418</v>
       </c>
-      <c r="D180">
+      <c r="D179" t="n">
         <v>1080337317831.996</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
-      <c r="A181" s="2">
+    <row r="180">
+      <c r="A180" s="2" t="n">
         <v>35521</v>
       </c>
-      <c r="B181">
+      <c r="B180" t="n">
         <v>663250000000</v>
       </c>
-      <c r="C181">
+      <c r="C180" t="n">
         <v>1.623903864891198</v>
       </c>
-      <c r="D181">
+      <c r="D180" t="n">
         <v>1077054238389.087</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
-      <c r="A182" s="2">
+    <row r="181">
+      <c r="A181" s="2" t="n">
         <v>35551</v>
       </c>
-      <c r="B182">
+      <c r="B181" t="n">
         <v>669276000000</v>
       </c>
-      <c r="C182">
+      <c r="C181" t="n">
         <v>1.641227638273429</v>
       </c>
-      <c r="D182">
+      <c r="D181" t="n">
         <v>1098434268833.087</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
-      <c r="A183" s="2">
+    <row r="182">
+      <c r="A182" s="2" t="n">
         <v>35582</v>
       </c>
-      <c r="B183">
+      <c r="B182" t="n">
         <v>691883000000</v>
       </c>
-      <c r="C183">
+      <c r="C182" t="n">
         <v>1.665556295802798</v>
       </c>
-      <c r="D183">
+      <c r="D182" t="n">
         <v>1152370086608.927</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
-      <c r="A184" s="2">
+    <row r="183">
+      <c r="A183" s="2" t="n">
         <v>35612</v>
       </c>
-      <c r="B184">
+      <c r="B183" t="n">
         <v>697612000000</v>
       </c>
-      <c r="C184">
+      <c r="C183" t="n">
         <v>1.640419947506562</v>
       </c>
-      <c r="D184">
+      <c r="D183" t="n">
         <v>1144376640419.947</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
-      <c r="A185" s="2">
+    <row r="184">
+      <c r="A184" s="2" t="n">
         <v>35643</v>
       </c>
-      <c r="B185">
+      <c r="B184" t="n">
         <v>700575000000</v>
       </c>
-      <c r="C185">
+      <c r="C184" t="n">
         <v>1.620745542949757</v>
       </c>
-      <c r="D185">
+      <c r="D184" t="n">
         <v>1135453808752.026</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
-      <c r="A186" s="2">
+    <row r="185">
+      <c r="A185" s="2" t="n">
         <v>35674</v>
       </c>
-      <c r="B186">
+      <c r="B185" t="n">
         <v>660520000000</v>
       </c>
-      <c r="C186">
+      <c r="C185" t="n">
         <v>1.617861187510112</v>
       </c>
-      <c r="D186">
+      <c r="D185" t="n">
         <v>1068629671574.179</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
-      <c r="A187" s="2">
+    <row r="186">
+      <c r="A186" s="2" t="n">
         <v>35704</v>
       </c>
-      <c r="B187">
+      <c r="B186" t="n">
         <v>680566000000</v>
       </c>
-      <c r="C187">
+      <c r="C186" t="n">
         <v>1.672520488375983</v>
       </c>
-      <c r="D187">
+      <c r="D186" t="n">
         <v>1138260578692.089</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
-      <c r="A188" s="2">
+    <row r="187">
+      <c r="A187" s="2" t="n">
         <v>35735</v>
       </c>
-      <c r="B188">
+      <c r="B187" t="n">
         <v>684652000000</v>
       </c>
-      <c r="C188">
+      <c r="C187" t="n">
         <v>1.688618709895306</v>
       </c>
-      <c r="D188">
+      <c r="D187" t="n">
         <v>1156116176967.241</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
-      <c r="A189" s="2">
+    <row r="188">
+      <c r="A188" s="2" t="n">
         <v>35765</v>
       </c>
-      <c r="B189">
+      <c r="B188" t="n">
         <v>691525000000</v>
       </c>
-      <c r="C189">
+      <c r="C188" t="n">
         <v>1.651800462504129</v>
       </c>
-      <c r="D189">
+      <c r="D188" t="n">
         <v>1142261314833.168</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
-      <c r="A190" s="2">
+    <row r="189">
+      <c r="A189" s="2" t="n">
         <v>35796</v>
       </c>
-      <c r="B190">
+      <c r="B189" t="n">
         <v>693271000000</v>
       </c>
-      <c r="C190">
+      <c r="C189" t="n">
         <v>1.63425396306586</v>
       </c>
-      <c r="D190">
+      <c r="D189" t="n">
         <v>1132980879228.632</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
-      <c r="A191" s="2">
+    <row r="190">
+      <c r="A190" s="2" t="n">
         <v>35827</v>
       </c>
-      <c r="B191">
+      <c r="B190" t="n">
         <v>696656000000</v>
       </c>
-      <c r="C191">
+      <c r="C190" t="n">
         <v>1.643925694558606</v>
       </c>
-      <c r="D191">
+      <c r="D190" t="n">
         <v>1145250698668.42</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
-      <c r="A192" s="2">
+    <row r="191">
+      <c r="A191" s="2" t="n">
         <v>35855</v>
       </c>
-      <c r="B192">
+      <c r="B191" t="n">
         <v>700764000000</v>
       </c>
-      <c r="C192">
+      <c r="C191" t="n">
         <v>1.672520488375983</v>
       </c>
-      <c r="D192">
+      <c r="D191" t="n">
         <v>1172042147516.307</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
-      <c r="A193" s="2">
+    <row r="192">
+      <c r="A192" s="2" t="n">
         <v>35886</v>
       </c>
-      <c r="B193">
+      <c r="B192" t="n">
         <v>703331000000</v>
       </c>
-      <c r="C193">
+      <c r="C192" t="n">
         <v>1.672240802675585</v>
       </c>
-      <c r="D193">
+      <c r="D192" t="n">
         <v>1176138795986.622</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
-      <c r="A194" s="2">
+    <row r="193">
+      <c r="A193" s="2" t="n">
         <v>35916</v>
       </c>
-      <c r="B194">
+      <c r="B193" t="n">
         <v>706471000000</v>
       </c>
-      <c r="C194">
+      <c r="C193" t="n">
         <v>1.630523398010762</v>
       </c>
-      <c r="D194">
+      <c r="D193" t="n">
         <v>1151917495516.061</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
-      <c r="A195" s="2">
+    <row r="194">
+      <c r="A194" s="2" t="n">
         <v>35947</v>
       </c>
-      <c r="B195">
+      <c r="B194" t="n">
         <v>708289000000</v>
       </c>
-      <c r="C195">
+      <c r="C194" t="n">
         <v>1.667500416875104</v>
       </c>
-      <c r="D195">
+      <c r="D194" t="n">
         <v>1181072202768.051</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
-      <c r="A196" s="2">
+    <row r="195">
+      <c r="A195" s="2" t="n">
         <v>35977</v>
       </c>
-      <c r="B196">
+      <c r="B195" t="n">
         <v>713922000000</v>
       </c>
-      <c r="C196">
+      <c r="C195" t="n">
         <v>1.633986928104575</v>
       </c>
-      <c r="D196">
+      <c r="D195" t="n">
         <v>1166539215686.274</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
-      <c r="A197" s="2">
+    <row r="196">
+      <c r="A196" s="2" t="n">
         <v>36008</v>
       </c>
-      <c r="B197">
+      <c r="B196" t="n">
         <v>716632000000</v>
       </c>
-      <c r="C197">
+      <c r="C196" t="n">
         <v>1.682935038707506</v>
       </c>
-      <c r="D197">
+      <c r="D196" t="n">
         <v>1206045102659.037</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
-      <c r="A198" s="2">
+    <row r="197">
+      <c r="A197" s="2" t="n">
         <v>36039</v>
       </c>
-      <c r="B198">
+      <c r="B197" t="n">
         <v>722274000000</v>
       </c>
-      <c r="C198">
+      <c r="C197" t="n">
         <v>1.701837985023826</v>
       </c>
-      <c r="D198">
+      <c r="D197" t="n">
         <v>1229193328795.099</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
-      <c r="A199" s="2">
+    <row r="198">
+      <c r="A198" s="2" t="n">
         <v>36069</v>
       </c>
-      <c r="B199">
+      <c r="B198" t="n">
         <v>726106000000</v>
       </c>
-      <c r="C199">
+      <c r="C198" t="n">
         <v>1.675603217158177</v>
       </c>
-      <c r="D199">
+      <c r="D198" t="n">
         <v>1216665549597.855</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
-      <c r="A200" s="2">
+    <row r="199">
+      <c r="A199" s="2" t="n">
         <v>36100</v>
       </c>
-      <c r="B200">
+      <c r="B199" t="n">
         <v>729029000000</v>
       </c>
-      <c r="C200">
+      <c r="C199" t="n">
         <v>1.649348507339601</v>
       </c>
-      <c r="D200">
+      <c r="D199" t="n">
         <v>1202422892957.282</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
-      <c r="A201" s="2">
+    <row r="200">
+      <c r="A200" s="2" t="n">
         <v>36130</v>
       </c>
-      <c r="B201">
+      <c r="B200" t="n">
         <v>732268000000</v>
       </c>
-      <c r="C201">
+      <c r="C200" t="n">
         <v>1.658374792703151</v>
       </c>
-      <c r="D201">
+      <c r="D200" t="n">
         <v>1214374792703.151</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
-      <c r="A202" s="2">
+    <row r="201">
+      <c r="A201" s="2" t="n">
         <v>36161</v>
       </c>
-      <c r="B202">
+      <c r="B201" t="n">
         <v>728217000000</v>
       </c>
-      <c r="C202">
+      <c r="C201" t="n">
         <v>1.645007402533311</v>
       </c>
-      <c r="D202">
+      <c r="D201" t="n">
         <v>1197922355650.601</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
-      <c r="A203" s="2">
+    <row r="202">
+      <c r="A202" s="2" t="n">
         <v>36192</v>
       </c>
-      <c r="B203">
+      <c r="B202" t="n">
         <v>730712000000</v>
       </c>
-      <c r="C203">
+      <c r="C202" t="n">
         <v>1.60333493666827</v>
       </c>
-      <c r="D203">
+      <c r="D202" t="n">
         <v>1171576078242.745</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
-      <c r="A204" s="2">
+    <row r="203">
+      <c r="A203" s="2" t="n">
         <v>36220</v>
       </c>
-      <c r="B204">
+      <c r="B203" t="n">
         <v>728454000000</v>
       </c>
-      <c r="C204">
+      <c r="C203" t="n">
         <v>1.6116035455278</v>
       </c>
-      <c r="D204">
+      <c r="D203" t="n">
         <v>1173979049153.908</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
-      <c r="A205" s="2">
+    <row r="204">
+      <c r="A204" s="2" t="n">
         <v>36251</v>
       </c>
-      <c r="B205">
+      <c r="B204" t="n">
         <v>734294000000</v>
       </c>
-      <c r="C205">
+      <c r="C204" t="n">
         <v>1.609528408176404</v>
       </c>
-      <c r="D205">
+      <c r="D204" t="n">
         <v>1181867052953.485</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
-      <c r="A206" s="2">
+    <row r="205">
+      <c r="A205" s="2" t="n">
         <v>36281</v>
       </c>
-      <c r="B206">
+      <c r="B205" t="n">
         <v>738292000000</v>
       </c>
-      <c r="C206">
+      <c r="C205" t="n">
         <v>1.602564102564103</v>
       </c>
-      <c r="D206">
+      <c r="D205" t="n">
         <v>1183160256410.256</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
-      <c r="A207" s="2">
+    <row r="206">
+      <c r="A206" s="2" t="n">
         <v>36312</v>
       </c>
-      <c r="B207">
+      <c r="B206" t="n">
         <v>742193000000</v>
       </c>
-      <c r="C207">
+      <c r="C206" t="n">
         <v>1.578282828282828</v>
       </c>
-      <c r="D207">
+      <c r="D206" t="n">
         <v>1171390467171.717</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
-      <c r="A208" s="2">
+    <row r="207">
+      <c r="A207" s="2" t="n">
         <v>36342</v>
       </c>
-      <c r="B208">
+      <c r="B207" t="n">
         <v>742954000000</v>
       </c>
-      <c r="C208">
+      <c r="C207" t="n">
         <v>1.621533971136695</v>
       </c>
-      <c r="D208">
+      <c r="D207" t="n">
         <v>1204725149991.892</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
-      <c r="A209" s="2">
+    <row r="208">
+      <c r="A208" s="2" t="n">
         <v>36373</v>
       </c>
-      <c r="B209">
+      <c r="B208" t="n">
         <v>743940000000</v>
       </c>
-      <c r="C209">
+      <c r="C208" t="n">
         <v>1.603849238171612</v>
       </c>
-      <c r="D209">
+      <c r="D208" t="n">
         <v>1193167602245.389</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
-      <c r="A210" s="2">
+    <row r="209">
+      <c r="A209" s="2" t="n">
         <v>36404</v>
       </c>
-      <c r="B210">
+      <c r="B209" t="n">
         <v>738154000000</v>
       </c>
-      <c r="C210">
+      <c r="C209" t="n">
         <v>1.647446457990115</v>
       </c>
-      <c r="D210">
+      <c r="D209" t="n">
         <v>1216069192751.236</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
-      <c r="A211" s="2">
+    <row r="210">
+      <c r="A210" s="2" t="n">
         <v>36434</v>
       </c>
-      <c r="B211">
+      <c r="B210" t="n">
         <v>741868000000</v>
       </c>
-      <c r="C211">
+      <c r="C210" t="n">
         <v>1.644195988161789</v>
       </c>
-      <c r="D211">
+      <c r="D210" t="n">
         <v>1219776389345.61</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
-      <c r="A212" s="2">
+    <row r="211">
+      <c r="A211" s="2" t="n">
         <v>36465</v>
       </c>
-      <c r="B212">
+      <c r="B211" t="n">
         <v>748110000000</v>
       </c>
-      <c r="C212">
+      <c r="C211" t="n">
         <v>1.599232368463138</v>
       </c>
-      <c r="D212">
+      <c r="D211" t="n">
         <v>1196401727170.958</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
-      <c r="A213" s="2">
+    <row r="212">
+      <c r="A212" s="2" t="n">
         <v>36495</v>
       </c>
-      <c r="B213">
+      <c r="B212" t="n">
         <v>754894000000</v>
       </c>
-      <c r="C213">
+      <c r="C212" t="n">
         <v>1.614726303891491</v>
       </c>
-      <c r="D213">
+      <c r="D212" t="n">
         <v>1218947198449.863</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
-      <c r="A214" s="2">
+    <row r="213">
+      <c r="A213" s="2" t="n">
         <v>36526</v>
       </c>
-      <c r="B214">
+      <c r="B213" t="n">
         <v>754973000000</v>
       </c>
-      <c r="C214">
+      <c r="C213" t="n">
         <v>1.616553507921112</v>
       </c>
-      <c r="D214">
+      <c r="D213" t="n">
         <v>1220454251535.726</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
-      <c r="A215" s="2">
+    <row r="214">
+      <c r="A214" s="2" t="n">
         <v>36557</v>
       </c>
-      <c r="B215">
+      <c r="B214" t="n">
         <v>762561000000</v>
       </c>
-      <c r="C215">
+      <c r="C214" t="n">
         <v>1.579279848389135</v>
       </c>
-      <c r="D215">
+      <c r="D214" t="n">
         <v>1204297220467.467</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
-      <c r="A216" s="2">
+    <row r="215">
+      <c r="A215" s="2" t="n">
         <v>36586</v>
       </c>
-      <c r="B216">
+      <c r="B215" t="n">
         <v>765290000000</v>
       </c>
-      <c r="C216">
+      <c r="C215" t="n">
         <v>1.591596371160274</v>
       </c>
-      <c r="D216">
+      <c r="D215" t="n">
         <v>1218032786885.246</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
-      <c r="A217" s="2">
+    <row r="216">
+      <c r="A216" s="2" t="n">
         <v>36617</v>
       </c>
-      <c r="B217">
+      <c r="B216" t="n">
         <v>775477000000</v>
       </c>
-      <c r="C217">
+      <c r="C216" t="n">
         <v>1.553760099440646</v>
       </c>
-      <c r="D217">
+      <c r="D216" t="n">
         <v>1204905220633.934</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
-      <c r="A218" s="2">
+    <row r="217">
+      <c r="A217" s="2" t="n">
         <v>36647</v>
       </c>
-      <c r="B218">
+      <c r="B217" t="n">
         <v>786459000000</v>
       </c>
-      <c r="C218">
+      <c r="C217" t="n">
         <v>1.5008254539997</v>
       </c>
-      <c r="D218">
+      <c r="D217" t="n">
         <v>1180337685727.15</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
-      <c r="A219" s="2">
+    <row r="218">
+      <c r="A218" s="2" t="n">
         <v>36678</v>
       </c>
-      <c r="B219">
+      <c r="B218" t="n">
         <v>792298000000</v>
       </c>
-      <c r="C219">
+      <c r="C218" t="n">
         <v>1.517450682852807</v>
       </c>
-      <c r="D219">
+      <c r="D218" t="n">
         <v>1202273141122.913</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
-      <c r="A220" s="2">
+    <row r="219">
+      <c r="A219" s="2" t="n">
         <v>36708</v>
       </c>
-      <c r="B220">
+      <c r="B219" t="n">
         <v>793562000000</v>
       </c>
-      <c r="C220">
+      <c r="C219" t="n">
         <v>1.5001500150015</v>
       </c>
-      <c r="D220">
+      <c r="D219" t="n">
         <v>1190462046204.62</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
-      <c r="A221" s="2">
+    <row r="220">
+      <c r="A220" s="2" t="n">
         <v>36739</v>
       </c>
-      <c r="B221">
+      <c r="B220" t="n">
         <v>801121000000</v>
       </c>
-      <c r="C221">
+      <c r="C220" t="n">
         <v>1.446968600781363</v>
       </c>
-      <c r="D221">
+      <c r="D220" t="n">
         <v>1159196932426.566</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
-      <c r="A222" s="2">
+    <row r="221">
+      <c r="A221" s="2" t="n">
         <v>36770</v>
       </c>
-      <c r="B222">
+      <c r="B221" t="n">
         <v>804800000000</v>
       </c>
-      <c r="C222">
+      <c r="C221" t="n">
         <v>1.476232654266312</v>
       </c>
-      <c r="D222">
+      <c r="D221" t="n">
         <v>1188072040153.528</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
-      <c r="A223" s="2">
+    <row r="222">
+      <c r="A222" s="2" t="n">
         <v>36800</v>
       </c>
-      <c r="B223">
+      <c r="B222" t="n">
         <v>812462000000</v>
       </c>
-      <c r="C223">
+      <c r="C222" t="n">
         <v>1.447806573041842</v>
       </c>
-      <c r="D223">
+      <c r="D222" t="n">
         <v>1176287823946.721</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
-      <c r="A224" s="2">
+    <row r="223">
+      <c r="A223" s="2" t="n">
         <v>36831</v>
       </c>
-      <c r="B224">
+      <c r="B223" t="n">
         <v>816932000000</v>
       </c>
-      <c r="C224">
+      <c r="C223" t="n">
         <v>1.42551674982181</v>
       </c>
-      <c r="D224">
+      <c r="D223" t="n">
         <v>1164550249465.431</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
-      <c r="A225" s="2">
+    <row r="224">
+      <c r="A224" s="2" t="n">
         <v>36861</v>
       </c>
-      <c r="B225">
+      <c r="B224" t="n">
         <v>825924000000</v>
       </c>
-      <c r="C225">
+      <c r="C224" t="n">
         <v>1.496333981744725</v>
       </c>
-      <c r="D225">
+      <c r="D224" t="n">
         <v>1235858147538.531</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
-      <c r="A226" s="2">
+    <row r="225">
+      <c r="A225" s="2" t="n">
         <v>36892</v>
       </c>
-      <c r="B226">
+      <c r="B225" t="n">
         <v>834749000000</v>
       </c>
-      <c r="C226">
+      <c r="C225" t="n">
         <v>1.463914507392768</v>
       </c>
-      <c r="D226">
+      <c r="D225" t="n">
         <v>1222001171131.606</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
-      <c r="A227" s="2">
+    <row r="226">
+      <c r="A226" s="2" t="n">
         <v>36923</v>
       </c>
-      <c r="B227">
+      <c r="B226" t="n">
         <v>833780000000</v>
       </c>
-      <c r="C227">
+      <c r="C226" t="n">
         <v>1.445504481063891</v>
       </c>
-      <c r="D227">
+      <c r="D226" t="n">
         <v>1205232726221.451</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
-      <c r="A228" s="2">
+    <row r="227">
+      <c r="A227" s="2" t="n">
         <v>36951</v>
       </c>
-      <c r="B228">
+      <c r="B227" t="n">
         <v>848444000000</v>
       </c>
-      <c r="C228">
+      <c r="C227" t="n">
         <v>1.414627245720753</v>
       </c>
-      <c r="D228">
+      <c r="D227" t="n">
         <v>1200231998868.298</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
-      <c r="A229" s="2">
+    <row r="228">
+      <c r="A228" s="2" t="n">
         <v>36982</v>
       </c>
-      <c r="B229">
+      <c r="B228" t="n">
         <v>849637000000</v>
       </c>
-      <c r="C229">
+      <c r="C228" t="n">
         <v>1.433280779704744</v>
       </c>
-      <c r="D229">
+      <c r="D228" t="n">
         <v>1217768381826</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
-      <c r="A230" s="2">
+    <row r="229">
+      <c r="A229" s="2" t="n">
         <v>37012</v>
       </c>
-      <c r="B230">
+      <c r="B229" t="n">
         <v>850902000000</v>
       </c>
-      <c r="C230">
+      <c r="C229" t="n">
         <v>1.418439716312057</v>
       </c>
-      <c r="D230">
+      <c r="D229" t="n">
         <v>1206953191489.362</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
-      <c r="A231" s="2">
+    <row r="230">
+      <c r="A230" s="2" t="n">
         <v>37043</v>
       </c>
-      <c r="B231">
+      <c r="B230" t="n">
         <v>852962000000</v>
       </c>
-      <c r="C231">
+      <c r="C230" t="n">
         <v>1.41622999575131</v>
       </c>
-      <c r="D231">
+      <c r="D230" t="n">
         <v>1207990369636.029</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
-      <c r="A232" s="2">
+    <row r="231">
+      <c r="A231" s="2" t="n">
         <v>37073</v>
       </c>
-      <c r="B232">
+      <c r="B231" t="n">
         <v>865112000000</v>
       </c>
-      <c r="C232">
+      <c r="C231" t="n">
         <v>1.425313568985177</v>
       </c>
-      <c r="D232">
+      <c r="D231" t="n">
         <v>1233055872291.904</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
-      <c r="A233" s="2">
+    <row r="232">
+      <c r="A232" s="2" t="n">
         <v>37104</v>
       </c>
-      <c r="B233">
+      <c r="B232" t="n">
         <v>867394000000</v>
       </c>
-      <c r="C233">
+      <c r="C232" t="n">
         <v>1.454122437109205</v>
       </c>
-      <c r="D233">
+      <c r="D232" t="n">
         <v>1261297077213.902</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
-      <c r="A234" s="2">
+    <row r="233">
+      <c r="A233" s="2" t="n">
         <v>37135</v>
       </c>
-      <c r="B234">
+      <c r="B233" t="n">
         <v>879930000000</v>
       </c>
-      <c r="C234">
+      <c r="C233" t="n">
         <v>1.474491300501327</v>
       </c>
-      <c r="D234">
+      <c r="D233" t="n">
         <v>1297449130050.133</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
-      <c r="A235" s="2">
+    <row r="234">
+      <c r="A234" s="2" t="n">
         <v>37165</v>
       </c>
-      <c r="B235">
+      <c r="B234" t="n">
         <v>886043000000</v>
       </c>
-      <c r="C235">
+      <c r="C234" t="n">
         <v>1.455180442374854</v>
       </c>
-      <c r="D235">
+      <c r="D234" t="n">
         <v>1289352444703.143</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
-      <c r="A236" s="2">
+    <row r="235">
+      <c r="A235" s="2" t="n">
         <v>37196</v>
       </c>
-      <c r="B236">
+      <c r="B235" t="n">
         <v>887309000000</v>
       </c>
-      <c r="C236">
+      <c r="C235" t="n">
         <v>1.424501424501425</v>
       </c>
-      <c r="D236">
+      <c r="D235" t="n">
         <v>1263972934472.935</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
-      <c r="A237" s="2">
+    <row r="236">
+      <c r="A236" s="2" t="n">
         <v>37226</v>
       </c>
-      <c r="B237">
+      <c r="B236" t="n">
         <v>892090000000</v>
       </c>
-      <c r="C237">
+      <c r="C236" t="n">
         <v>1.450747134774409</v>
       </c>
-      <c r="D237">
+      <c r="D236" t="n">
         <v>1294197011460.902</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
-      <c r="A238" s="2">
+    <row r="237">
+      <c r="A237" s="2" t="n">
         <v>37257</v>
       </c>
-      <c r="B238">
+      <c r="B237" t="n">
         <v>885655000000</v>
       </c>
-      <c r="C238">
+      <c r="C237" t="n">
         <v>1.410835214446953</v>
       </c>
-      <c r="D238">
+      <c r="D237" t="n">
         <v>1249513261851.016</v>
       </c>
     </row>
-    <row r="239" spans="1:4">
-      <c r="A239" s="2">
+    <row r="238">
+      <c r="A238" s="2" t="n">
         <v>37288</v>
       </c>
-      <c r="B239">
+      <c r="B238" t="n">
         <v>887706000000</v>
       </c>
-      <c r="C239">
+      <c r="C238" t="n">
         <v>1.416831963729102</v>
       </c>
-      <c r="D239">
+      <c r="D238" t="n">
         <v>1257730235194.106</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
-      <c r="A240" s="2">
+    <row r="239">
+      <c r="A239" s="2" t="n">
         <v>37316</v>
       </c>
-      <c r="B240">
+      <c r="B239" t="n">
         <v>892254000000</v>
       </c>
-      <c r="C240">
+      <c r="C239" t="n">
         <v>1.425923285327249</v>
       </c>
-      <c r="D240">
+      <c r="D239" t="n">
         <v>1272285755026.38</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
-      <c r="A241" s="2">
+    <row r="240">
+      <c r="A240" s="2" t="n">
         <v>37347</v>
       </c>
-      <c r="B241">
+      <c r="B240" t="n">
         <v>894439000000</v>
       </c>
-      <c r="C241">
+      <c r="C240" t="n">
         <v>1.457938474996355</v>
       </c>
-      <c r="D241">
+      <c r="D240" t="n">
         <v>1304037031637.265</v>
       </c>
     </row>
-    <row r="242" spans="1:4">
-      <c r="A242" s="2">
+    <row r="241">
+      <c r="A241" s="2" t="n">
         <v>37377</v>
       </c>
-      <c r="B242">
+      <c r="B241" t="n">
         <v>899955000000</v>
       </c>
-      <c r="C242">
+      <c r="C241" t="n">
         <v>1.45602795573675</v>
       </c>
-      <c r="D242">
+      <c r="D241" t="n">
         <v>1310359638905.067</v>
       </c>
     </row>
-    <row r="243" spans="1:4">
-      <c r="A243" s="2">
+    <row r="242">
+      <c r="A242" s="2" t="n">
         <v>37408</v>
       </c>
-      <c r="B243">
+      <c r="B242" t="n">
         <v>903085000000</v>
       </c>
-      <c r="C243">
+      <c r="C242" t="n">
         <v>1.533272002453235</v>
       </c>
-      <c r="D243">
+      <c r="D242" t="n">
         <v>1384674946335.48</v>
       </c>
     </row>
-    <row r="244" spans="1:4">
-      <c r="A244" s="2">
+    <row r="243">
+      <c r="A243" s="2" t="n">
         <v>37438</v>
       </c>
-      <c r="B244">
+      <c r="B243" t="n">
         <v>909212000000</v>
       </c>
-      <c r="C244">
+      <c r="C243" t="n">
         <v>1.563477173233271</v>
       </c>
-      <c r="D244">
+      <c r="D243" t="n">
         <v>1421532207629.769</v>
       </c>
     </row>
-    <row r="245" spans="1:4">
-      <c r="A245" s="2">
+    <row r="244">
+      <c r="A244" s="2" t="n">
         <v>37469</v>
       </c>
-      <c r="B245">
+      <c r="B244" t="n">
         <v>917589000000</v>
       </c>
-      <c r="C245">
+      <c r="C244" t="n">
         <v>1.550387596899225</v>
       </c>
-      <c r="D245">
+      <c r="D244" t="n">
         <v>1422618604651.163</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
-      <c r="A246" s="2">
+    <row r="245">
+      <c r="A245" s="2" t="n">
         <v>37500</v>
       </c>
-      <c r="B246">
+      <c r="B245" t="n">
         <v>917413000000</v>
       </c>
-      <c r="C246">
+      <c r="C245" t="n">
         <v>1.568381430363865</v>
       </c>
-      <c r="D246">
+      <c r="D245" t="n">
         <v>1438853513174.404</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
-      <c r="A247" s="2">
+    <row r="246">
+      <c r="A246" s="2" t="n">
         <v>37530</v>
       </c>
-      <c r="B247">
+      <c r="B246" t="n">
         <v>927123000000</v>
       </c>
-      <c r="C247">
+      <c r="C246" t="n">
         <v>1.564455569461827</v>
       </c>
-      <c r="D247">
+      <c r="D246" t="n">
         <v>1450442740926.158</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
-      <c r="A248" s="2">
+    <row r="247">
+      <c r="A247" s="2" t="n">
         <v>37561</v>
       </c>
-      <c r="B248">
+      <c r="B247" t="n">
         <v>930592000000</v>
       </c>
-      <c r="C248">
+      <c r="C247" t="n">
         <v>1.557875058420315</v>
       </c>
-      <c r="D248">
+      <c r="D247" t="n">
         <v>1449746066365.478</v>
       </c>
     </row>
-    <row r="249" spans="1:4">
-      <c r="A249" s="2">
+    <row r="248">
+      <c r="A248" s="2" t="n">
         <v>37591</v>
       </c>
-      <c r="B249">
+      <c r="B248" t="n">
         <v>932620000000</v>
       </c>
-      <c r="C249">
+      <c r="C248" t="n">
         <v>1.6116035455278</v>
       </c>
-      <c r="D249">
+      <c r="D248" t="n">
         <v>1503013698630.137</v>
       </c>
     </row>
-    <row r="250" spans="1:4">
-      <c r="A250" s="2">
+    <row r="249">
+      <c r="A249" s="2" t="n">
         <v>37622</v>
       </c>
-      <c r="B250">
+      <c r="B249" t="n">
         <v>931987000000</v>
       </c>
-      <c r="C250">
+      <c r="C249" t="n">
         <v>1.646903820816864</v>
       </c>
-      <c r="D250">
+      <c r="D249" t="n">
         <v>1534892951251.647</v>
       </c>
     </row>
-    <row r="251" spans="1:4">
-      <c r="A251" s="2">
+    <row r="250">
+      <c r="A250" s="2" t="n">
         <v>37653</v>
       </c>
-      <c r="B251">
+      <c r="B250" t="n">
         <v>943611000000</v>
       </c>
-      <c r="C251">
+      <c r="C250" t="n">
         <v>1.573069057731634</v>
       </c>
-      <c r="D251">
+      <c r="D250" t="n">
         <v>1484365266635.205</v>
       </c>
     </row>
-    <row r="252" spans="1:4">
-      <c r="A252" s="2">
+    <row r="251">
+      <c r="A251" s="2" t="n">
         <v>37681</v>
       </c>
-      <c r="B252">
+      <c r="B251" t="n">
         <v>940322000000</v>
       </c>
-      <c r="C252">
+      <c r="C251" t="n">
         <v>1.58202816010125</v>
       </c>
-      <c r="D252">
+      <c r="D251" t="n">
         <v>1487615883562.728</v>
       </c>
     </row>
-    <row r="253" spans="1:4">
-      <c r="A253" s="2">
+    <row r="252">
+      <c r="A252" s="2" t="n">
         <v>37712</v>
       </c>
-      <c r="B253">
+      <c r="B252" t="n">
         <v>947353000000</v>
       </c>
-      <c r="C253">
+      <c r="C252" t="n">
         <v>1.597954618088846</v>
       </c>
-      <c r="D253">
+      <c r="D252" t="n">
         <v>1513827101310.323</v>
       </c>
     </row>
-    <row r="254" spans="1:4">
-      <c r="A254" s="2">
+    <row r="253">
+      <c r="A253" s="2" t="n">
         <v>37742</v>
       </c>
-      <c r="B254">
+      <c r="B253" t="n">
         <v>950857000000</v>
       </c>
-      <c r="C254">
+      <c r="C253" t="n">
         <v>1.636393388970709</v>
       </c>
-      <c r="D254">
+      <c r="D253" t="n">
         <v>1555976108656.521</v>
       </c>
     </row>
-    <row r="255" spans="1:4">
-      <c r="A255" s="2">
+    <row r="254">
+      <c r="A254" s="2" t="n">
         <v>37773</v>
       </c>
-      <c r="B255">
+      <c r="B254" t="n">
         <v>958832000000</v>
       </c>
-      <c r="C255">
+      <c r="C254" t="n">
         <v>1.655355073663301</v>
       </c>
-      <c r="D255">
+      <c r="D254" t="n">
         <v>1587207415990.73</v>
       </c>
     </row>
-    <row r="256" spans="1:4">
-      <c r="A256" s="2">
+    <row r="255">
+      <c r="A255" s="2" t="n">
         <v>37803</v>
       </c>
-      <c r="B256">
+      <c r="B255" t="n">
         <v>963658000000</v>
       </c>
-      <c r="C256">
+      <c r="C255" t="n">
         <v>1.610824742268041</v>
       </c>
-      <c r="D256">
+      <c r="D255" t="n">
         <v>1552284149484.536</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
-      <c r="A257" s="2">
+    <row r="256">
+      <c r="A256" s="2" t="n">
         <v>37834</v>
       </c>
-      <c r="B257">
+      <c r="B256" t="n">
         <v>968813000000</v>
       </c>
-      <c r="C257">
+      <c r="C256" t="n">
         <v>1.577784790154623</v>
       </c>
-      <c r="D257">
+      <c r="D256" t="n">
         <v>1528578415904.071</v>
       </c>
     </row>
-    <row r="258" spans="1:4">
-      <c r="A258" s="2">
+    <row r="257">
+      <c r="A257" s="2" t="n">
         <v>37865</v>
       </c>
-      <c r="B258">
+      <c r="B257" t="n">
         <v>971829000000</v>
       </c>
-      <c r="C258">
+      <c r="C257" t="n">
         <v>1.661957786272229</v>
       </c>
-      <c r="D258">
+      <c r="D257" t="n">
         <v>1615138773475.154</v>
       </c>
     </row>
-    <row r="259" spans="1:4">
-      <c r="A259" s="2">
+    <row r="258">
+      <c r="A258" s="2" t="n">
         <v>37895</v>
       </c>
-      <c r="B259">
+      <c r="B258" t="n">
         <v>978314000000</v>
       </c>
-      <c r="C259">
+      <c r="C258" t="n">
         <v>1.695777513990165</v>
       </c>
-      <c r="D259">
+      <c r="D258" t="n">
         <v>1659002882821.774</v>
       </c>
     </row>
-    <row r="260" spans="1:4">
-      <c r="A260" s="2">
+    <row r="259">
+      <c r="A259" s="2" t="n">
         <v>37926</v>
       </c>
-      <c r="B260">
+      <c r="B259" t="n">
         <v>988357000000</v>
       </c>
-      <c r="C260">
+      <c r="C259" t="n">
         <v>1.722059583261581</v>
       </c>
-      <c r="D260">
+      <c r="D259" t="n">
         <v>1702009643533.666</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
-      <c r="A261" s="2">
+    <row r="260">
+      <c r="A260" s="2" t="n">
         <v>37956</v>
       </c>
-      <c r="B261">
+      <c r="B260" t="n">
         <v>997834000000</v>
       </c>
-      <c r="C261">
+      <c r="C260" t="n">
         <v>1.77683013503909</v>
       </c>
-      <c r="D261">
+      <c r="D260" t="n">
         <v>1772981520966.596</v>
       </c>
     </row>
-    <row r="262" spans="1:4">
-      <c r="A262" s="2">
+    <row r="261">
+      <c r="A261" s="2" t="n">
         <v>37987</v>
       </c>
-      <c r="B262">
+      <c r="B261" t="n">
         <v>1006973000000</v>
       </c>
-      <c r="C262">
+      <c r="C261" t="n">
         <v>1.823486506199854</v>
       </c>
-      <c r="D262">
+      <c r="D261" t="n">
         <v>1836201677607.586</v>
       </c>
     </row>
-    <row r="263" spans="1:4">
-      <c r="A263" s="2">
+    <row r="262">
+      <c r="A262" s="2" t="n">
         <v>38018</v>
       </c>
-      <c r="B263">
+      <c r="B262" t="n">
         <v>1014084000000</v>
       </c>
-      <c r="C263">
+      <c r="C262" t="n">
         <v>1.868460388639761</v>
       </c>
-      <c r="D263">
+      <c r="D262" t="n">
         <v>1894775784753.363</v>
       </c>
     </row>
-    <row r="264" spans="1:4">
-      <c r="A264" s="2">
+    <row r="263">
+      <c r="A263" s="2" t="n">
         <v>38047</v>
       </c>
-      <c r="B264">
+      <c r="B263" t="n">
         <v>1019846000000</v>
       </c>
-      <c r="C264">
+      <c r="C263" t="n">
         <v>1.845699520118125</v>
       </c>
-      <c r="D264">
+      <c r="D263" t="n">
         <v>1882329272794.389</v>
       </c>
     </row>
-    <row r="265" spans="1:4">
-      <c r="A265" s="2">
+    <row r="264">
+      <c r="A264" s="2" t="n">
         <v>38078</v>
       </c>
-      <c r="B265">
+      <c r="B264" t="n">
         <v>1029067000000</v>
       </c>
-      <c r="C265">
+      <c r="C264" t="n">
         <v>1.778410101369376</v>
       </c>
-      <c r="D265">
+      <c r="D264" t="n">
         <v>1830103147785.879</v>
       </c>
     </row>
-    <row r="266" spans="1:4">
-      <c r="A266" s="2">
+    <row r="265">
+      <c r="A265" s="2" t="n">
         <v>38108</v>
       </c>
-      <c r="B266">
+      <c r="B265" t="n">
         <v>1032545000000</v>
       </c>
-      <c r="C266">
+      <c r="C265" t="n">
         <v>1.832172957127153</v>
       </c>
-      <c r="D266">
+      <c r="D265" t="n">
         <v>1891801026016.856</v>
       </c>
     </row>
-    <row r="267" spans="1:4">
-      <c r="A267" s="2">
+    <row r="266">
+      <c r="A266" s="2" t="n">
         <v>38139</v>
       </c>
-      <c r="B267">
+      <c r="B266" t="n">
         <v>1047502000000</v>
       </c>
-      <c r="C267">
+      <c r="C266" t="n">
         <v>1.820498816675769</v>
       </c>
-      <c r="D267">
+      <c r="D266" t="n">
         <v>1906976151465.501</v>
       </c>
     </row>
-    <row r="268" spans="1:4">
-      <c r="A268" s="2">
+    <row r="267">
+      <c r="A267" s="2" t="n">
         <v>38169</v>
       </c>
-      <c r="B268">
+      <c r="B267" t="n">
         <v>1052836000000</v>
       </c>
-      <c r="C268">
+      <c r="C267" t="n">
         <v>1.819836214740673</v>
       </c>
-      <c r="D268">
+      <c r="D267" t="n">
         <v>1915989080982.712</v>
       </c>
     </row>
-    <row r="269" spans="1:4">
-      <c r="A269" s="2">
+    <row r="268">
+      <c r="A268" s="2" t="n">
         <v>38200</v>
       </c>
-      <c r="B269">
+      <c r="B268" t="n">
         <v>1065079000000</v>
       </c>
-      <c r="C269">
+      <c r="C268" t="n">
         <v>1.802776275464215</v>
       </c>
-      <c r="D269">
+      <c r="D268" t="n">
         <v>1920099152695.151</v>
       </c>
     </row>
-    <row r="270" spans="1:4">
-      <c r="A270" s="2">
+    <row r="269">
+      <c r="A269" s="2" t="n">
         <v>38231</v>
       </c>
-      <c r="B270">
+      <c r="B269" t="n">
         <v>1073336000000</v>
       </c>
-      <c r="C270">
+      <c r="C269" t="n">
         <v>1.81257930034439</v>
       </c>
-      <c r="D270">
+      <c r="D269" t="n">
         <v>1945506615914.446</v>
       </c>
     </row>
-    <row r="271" spans="1:4">
-      <c r="A271" s="2">
+    <row r="270">
+      <c r="A270" s="2" t="n">
         <v>38261</v>
       </c>
-      <c r="B271">
+      <c r="B270" t="n">
         <v>1081830000000</v>
       </c>
-      <c r="C271">
+      <c r="C270" t="n">
         <v>1.836547291092746</v>
       </c>
-      <c r="D271">
+      <c r="D270" t="n">
         <v>1986831955922.865</v>
       </c>
     </row>
-    <row r="272" spans="1:4">
-      <c r="A272" s="2">
+    <row r="271">
+      <c r="A271" s="2" t="n">
         <v>38292</v>
       </c>
-      <c r="B272">
+      <c r="B271" t="n">
         <v>1093097000000</v>
       </c>
-      <c r="C272">
+      <c r="C271" t="n">
         <v>1.909490166125644</v>
       </c>
-      <c r="D272">
+      <c r="D271" t="n">
         <v>2087257972121.443</v>
       </c>
     </row>
-    <row r="273" spans="1:4">
-      <c r="A273" s="2">
+    <row r="272">
+      <c r="A272" s="2" t="n">
         <v>38322</v>
       </c>
-      <c r="B273">
+      <c r="B272" t="n">
         <v>1097986000000</v>
       </c>
-      <c r="C273">
+      <c r="C272" t="n">
         <v>1.918649270913277</v>
       </c>
-      <c r="D273">
+      <c r="D272" t="n">
         <v>2106650038372.985</v>
       </c>
     </row>
-    <row r="274" spans="1:4">
-      <c r="A274" s="2">
+    <row r="273">
+      <c r="A273" s="2" t="n">
         <v>38353</v>
       </c>
-      <c r="B274">
+      <c r="B273" t="n">
         <v>1109899000000</v>
       </c>
-      <c r="C274">
+      <c r="C273" t="n">
         <v>1.883239171374764</v>
       </c>
-      <c r="D274">
+      <c r="D273" t="n">
         <v>2090205273069.68</v>
       </c>
     </row>
-    <row r="275" spans="1:4">
-      <c r="A275" s="2">
+    <row r="274">
+      <c r="A274" s="2" t="n">
         <v>38384</v>
       </c>
-      <c r="B275">
+      <c r="B274" t="n">
         <v>1114240000000</v>
       </c>
-      <c r="C275">
+      <c r="C274" t="n">
         <v>1.921229586935639</v>
       </c>
-      <c r="D275">
+      <c r="D274" t="n">
         <v>2140710854947.167</v>
       </c>
     </row>
-    <row r="276" spans="1:4">
-      <c r="A276" s="2">
+    <row r="275">
+      <c r="A275" s="2" t="n">
         <v>38412</v>
       </c>
-      <c r="B276">
+      <c r="B275" t="n">
         <v>1126640000000</v>
       </c>
-      <c r="C276">
+      <c r="C275" t="n">
         <v>1.89000189000189</v>
       </c>
-      <c r="D276">
+      <c r="D275" t="n">
         <v>2129351729351.729</v>
       </c>
     </row>
-    <row r="277" spans="1:4">
-      <c r="A277" s="2">
+    <row r="276">
+      <c r="A276" s="2" t="n">
         <v>38443</v>
       </c>
-      <c r="B277">
+      <c r="B276" t="n">
         <v>1141002000000</v>
       </c>
-      <c r="C277">
+      <c r="C276" t="n">
         <v>1.909125620465826</v>
       </c>
-      <c r="D277">
+      <c r="D276" t="n">
         <v>2178316151202.749</v>
       </c>
     </row>
-    <row r="278" spans="1:4">
-      <c r="A278" s="2">
+    <row r="277">
+      <c r="A277" s="2" t="n">
         <v>38473</v>
       </c>
-      <c r="B278">
+      <c r="B277" t="n">
         <v>1156696000000</v>
       </c>
-      <c r="C278">
+      <c r="C277" t="n">
         <v>1.817190623296384</v>
       </c>
-      <c r="D278">
+      <c r="D277" t="n">
         <v>2101937125204.434</v>
       </c>
     </row>
-    <row r="279" spans="1:4">
-      <c r="A279" s="2">
+    <row r="278">
+      <c r="A278" s="2" t="n">
         <v>38504</v>
       </c>
-      <c r="B279">
+      <c r="B278" t="n">
         <v>1163947000000</v>
       </c>
-      <c r="C279">
+      <c r="C278" t="n">
         <v>1.791793585378964</v>
       </c>
-      <c r="D279">
+      <c r="D278" t="n">
         <v>2085552768321.089</v>
       </c>
     </row>
-    <row r="280" spans="1:4">
-      <c r="A280" s="2">
+    <row r="279">
+      <c r="A279" s="2" t="n">
         <v>38534</v>
       </c>
-      <c r="B280">
+      <c r="B279" t="n">
         <v>1176816000000</v>
       </c>
-      <c r="C280">
+      <c r="C279" t="n">
         <v>1.758087201125176</v>
       </c>
-      <c r="D280">
+      <c r="D279" t="n">
         <v>2068945147679.325</v>
       </c>
     </row>
-    <row r="281" spans="1:4">
-      <c r="A281" s="2">
+    <row r="280">
+      <c r="A280" s="2" t="n">
         <v>38565</v>
       </c>
-      <c r="B281">
+      <c r="B280" t="n">
         <v>1173328000000</v>
       </c>
-      <c r="C281">
+      <c r="C280" t="n">
         <v>1.804728388377549</v>
       </c>
-      <c r="D281">
+      <c r="D280" t="n">
         <v>2117538350478.253</v>
       </c>
     </row>
-    <row r="282" spans="1:4">
-      <c r="A282" s="2">
+    <row r="281">
+      <c r="A281" s="2" t="n">
         <v>38596</v>
       </c>
-      <c r="B282">
+      <c r="B281" t="n">
         <v>1193005000000</v>
       </c>
-      <c r="C282">
+      <c r="C281" t="n">
         <v>1.768659356207994</v>
       </c>
-      <c r="D282">
+      <c r="D281" t="n">
         <v>2110019455252.918</v>
       </c>
     </row>
-    <row r="283" spans="1:4">
-      <c r="A283" s="2">
+    <row r="282">
+      <c r="A282" s="2" t="n">
         <v>38626</v>
       </c>
-      <c r="B283">
+      <c r="B282" t="n">
         <v>1202441000000</v>
       </c>
-      <c r="C283">
+      <c r="C282" t="n">
         <v>1.771165426850868</v>
       </c>
-      <c r="D283">
+      <c r="D282" t="n">
         <v>2129721927027.984</v>
       </c>
     </row>
-    <row r="284" spans="1:4">
-      <c r="A284" s="2">
+    <row r="283">
+      <c r="A283" s="2" t="n">
         <v>38657</v>
       </c>
-      <c r="B284">
+      <c r="B283" t="n">
         <v>1212700000000</v>
       </c>
-      <c r="C284">
+      <c r="C283" t="n">
         <v>1.730403183941859</v>
       </c>
-      <c r="D284">
+      <c r="D283" t="n">
         <v>2098459941166.292</v>
       </c>
     </row>
-    <row r="285" spans="1:4">
-      <c r="A285" s="2">
+    <row r="284">
+      <c r="A284" s="2" t="n">
         <v>38687</v>
       </c>
-      <c r="B285">
+      <c r="B284" t="n">
         <v>1226950000000</v>
       </c>
-      <c r="C285">
+      <c r="C284" t="n">
         <v>1.723840717117739</v>
       </c>
-      <c r="D285">
+      <c r="D284" t="n">
         <v>2115066367867.609</v>
       </c>
     </row>
-    <row r="286" spans="1:4">
-      <c r="A286" s="2">
+    <row r="285">
+      <c r="A285" s="2" t="n">
         <v>38718</v>
       </c>
-      <c r="B286">
+      <c r="B285" t="n">
         <v>1233062000000</v>
       </c>
-      <c r="C286">
+      <c r="C285" t="n">
         <v>1.779676098949991</v>
       </c>
-      <c r="D286">
+      <c r="D285" t="n">
         <v>2194450969923.474</v>
       </c>
     </row>
-    <row r="287" spans="1:4">
-      <c r="A287" s="2">
+    <row r="286">
+      <c r="A286" s="2" t="n">
         <v>38749</v>
       </c>
-      <c r="B287">
+      <c r="B286" t="n">
         <v>1252313000000</v>
       </c>
-      <c r="C287">
+      <c r="C286" t="n">
         <v>1.754693805930865</v>
       </c>
-      <c r="D287">
+      <c r="D286" t="n">
         <v>2197425864186.7</v>
       </c>
     </row>
-    <row r="288" spans="1:4">
-      <c r="A288" s="2">
+    <row r="287">
+      <c r="A287" s="2" t="n">
         <v>38777</v>
       </c>
-      <c r="B288">
+      <c r="B287" t="n">
         <v>1261558000000</v>
       </c>
-      <c r="C288">
+      <c r="C287" t="n">
         <v>1.738223535546671</v>
       </c>
-      <c r="D288">
+      <c r="D287" t="n">
         <v>2192869807057.188</v>
       </c>
     </row>
-    <row r="289" spans="1:4">
-      <c r="A289" s="2">
+    <row r="288">
+      <c r="A288" s="2" t="n">
         <v>38808</v>
       </c>
-      <c r="B289">
+      <c r="B288" t="n">
         <v>1275564000000</v>
       </c>
-      <c r="C289">
+      <c r="C288" t="n">
         <v>1.825817053131276</v>
       </c>
-      <c r="D289">
+      <c r="D288" t="n">
         <v>2328946503560.343</v>
       </c>
     </row>
-    <row r="290" spans="1:4">
-      <c r="A290" s="2">
+    <row r="289">
+      <c r="A289" s="2" t="n">
         <v>38838</v>
       </c>
-      <c r="B290">
+      <c r="B289" t="n">
         <v>1279359000000</v>
       </c>
-      <c r="C290">
+      <c r="C289" t="n">
         <v>1.872308556450103</v>
       </c>
-      <c r="D290">
+      <c r="D289" t="n">
         <v>2395354802471.447</v>
       </c>
     </row>
-    <row r="291" spans="1:4">
-      <c r="A291" s="2">
+    <row r="290">
+      <c r="A290" s="2" t="n">
         <v>38869</v>
       </c>
-      <c r="B291">
+      <c r="B290" t="n">
         <v>1297929000000</v>
       </c>
-      <c r="C291">
+      <c r="C290" t="n">
         <v>1.849112426035503</v>
       </c>
-      <c r="D291">
+      <c r="D290" t="n">
         <v>2400016642011.834</v>
       </c>
     </row>
-    <row r="292" spans="1:4">
-      <c r="A292" s="2">
+    <row r="291">
+      <c r="A291" s="2" t="n">
         <v>38899</v>
       </c>
-      <c r="B292">
+      <c r="B291" t="n">
         <v>1310723000000</v>
       </c>
-      <c r="C292">
+      <c r="C291" t="n">
         <v>1.868460388639761</v>
       </c>
-      <c r="D292">
+      <c r="D291" t="n">
         <v>2449034005979.073</v>
       </c>
     </row>
-    <row r="293" spans="1:4">
-      <c r="A293" s="2">
+    <row r="292">
+      <c r="A292" s="2" t="n">
         <v>38930</v>
       </c>
-      <c r="B293">
+      <c r="B292" t="n">
         <v>1321893000000</v>
       </c>
-      <c r="C293">
+      <c r="C292" t="n">
         <v>1.904761904761905</v>
       </c>
-      <c r="D293">
+      <c r="D292" t="n">
         <v>2517891428571.428</v>
       </c>
     </row>
-    <row r="294" spans="1:4">
-      <c r="A294" s="2">
+    <row r="293">
+      <c r="A293" s="2" t="n">
         <v>38961</v>
       </c>
-      <c r="B294">
+      <c r="B293" t="n">
         <v>1340612000000</v>
       </c>
-      <c r="C294">
+      <c r="C293" t="n">
         <v>1.874062968515742</v>
       </c>
-      <c r="D294">
+      <c r="D293" t="n">
         <v>2512391304347.826</v>
       </c>
     </row>
-    <row r="295" spans="1:4">
-      <c r="A295" s="2">
+    <row r="294">
+      <c r="A294" s="2" t="n">
         <v>38991</v>
       </c>
-      <c r="B295">
+      <c r="B294" t="n">
         <v>1362179000000</v>
       </c>
-      <c r="C295">
+      <c r="C294" t="n">
         <v>1.907304978065993</v>
       </c>
-      <c r="D295">
+      <c r="D294" t="n">
         <v>2598090787716.956</v>
       </c>
     </row>
-    <row r="296" spans="1:4">
-      <c r="A296" s="2">
+    <row r="295">
+      <c r="A295" s="2" t="n">
         <v>39022</v>
       </c>
-      <c r="B296">
+      <c r="B295" t="n">
         <v>1373469000000</v>
       </c>
-      <c r="C296">
+      <c r="C295" t="n">
         <v>1.966568338249754</v>
       </c>
-      <c r="D296">
+      <c r="D295" t="n">
         <v>2701020648967.552</v>
       </c>
     </row>
-    <row r="297" spans="1:4">
-      <c r="A297" s="2">
+    <row r="296">
+      <c r="A296" s="2" t="n">
         <v>39052</v>
       </c>
-      <c r="B297">
+      <c r="B296" t="n">
         <v>1399379000000</v>
       </c>
-      <c r="C297">
+      <c r="C296" t="n">
         <v>1.96078431372549</v>
       </c>
-      <c r="D297">
+      <c r="D296" t="n">
         <v>2743880392156.863</v>
       </c>
     </row>
-    <row r="298" spans="1:4">
-      <c r="A298" s="2">
+    <row r="297">
+      <c r="A297" s="2" t="n">
         <v>39083</v>
       </c>
-      <c r="B298">
+      <c r="B297" t="n">
         <v>1400685000000</v>
       </c>
-      <c r="C298">
+      <c r="C297" t="n">
         <v>1.966181675186787</v>
       </c>
-      <c r="D298">
+      <c r="D297" t="n">
         <v>2754001179709.005</v>
       </c>
     </row>
-    <row r="299" spans="1:4">
-      <c r="A299" s="2">
+    <row r="298">
+      <c r="A298" s="2" t="n">
         <v>39114</v>
       </c>
-      <c r="B299">
+      <c r="B298" t="n">
         <v>1419749000000</v>
       </c>
-      <c r="C299">
+      <c r="C298" t="n">
         <v>1.965022597759874</v>
       </c>
-      <c r="D299">
+      <c r="D298" t="n">
         <v>2789838868146.983</v>
       </c>
     </row>
-    <row r="300" spans="1:4">
-      <c r="A300" s="2">
+    <row r="299">
+      <c r="A299" s="2" t="n">
         <v>39142</v>
       </c>
-      <c r="B300">
+      <c r="B299" t="n">
         <v>1441536000000</v>
       </c>
-      <c r="C300">
+      <c r="C299" t="n">
         <v>1.968503937007874</v>
       </c>
-      <c r="D300">
+      <c r="D299" t="n">
         <v>2837669291338.583</v>
       </c>
     </row>
-    <row r="301" spans="1:4">
-      <c r="A301" s="2">
+    <row r="300">
+      <c r="A300" s="2" t="n">
         <v>39173</v>
       </c>
-      <c r="B301">
+      <c r="B300" t="n">
         <v>1459002000000</v>
       </c>
-      <c r="C301">
+      <c r="C300" t="n">
         <v>2.000400080016003</v>
       </c>
-      <c r="D301">
+      <c r="D300" t="n">
         <v>2918587717543.509</v>
       </c>
     </row>
-    <row r="302" spans="1:4">
-      <c r="A302" s="2">
+    <row r="301">
+      <c r="A301" s="2" t="n">
         <v>39203</v>
       </c>
-      <c r="B302">
+      <c r="B301" t="n">
         <v>1480566000000</v>
       </c>
-      <c r="C302">
+      <c r="C301" t="n">
         <v>1.980590215884333</v>
       </c>
-      <c r="D302">
+      <c r="D301" t="n">
         <v>2932394533571.004</v>
       </c>
     </row>
-    <row r="303" spans="1:4">
-      <c r="A303" s="2">
+    <row r="302">
+      <c r="A302" s="2" t="n">
         <v>39234</v>
       </c>
-      <c r="B303">
+      <c r="B302" t="n">
         <v>1498320000000</v>
       </c>
-      <c r="C303">
+      <c r="C302" t="n">
         <v>2.009646302250804</v>
       </c>
-      <c r="D303">
+      <c r="D302" t="n">
         <v>3011093247588.425</v>
       </c>
     </row>
-    <row r="304" spans="1:4">
-      <c r="A304" s="2">
+    <row r="303">
+      <c r="A303" s="2" t="n">
         <v>39264</v>
       </c>
-      <c r="B304">
+      <c r="B303" t="n">
         <v>1512976000000</v>
       </c>
-      <c r="C304">
+      <c r="C303" t="n">
         <v>2.030869212022746</v>
       </c>
-      <c r="D304">
+      <c r="D303" t="n">
         <v>3072656376929.326</v>
       </c>
     </row>
-    <row r="305" spans="1:4">
-      <c r="A305" s="2">
+    <row r="304">
+      <c r="A304" s="2" t="n">
         <v>39295</v>
       </c>
-      <c r="B305">
+      <c r="B304" t="n">
         <v>1538862000000</v>
       </c>
-      <c r="C305">
+      <c r="C304" t="n">
         <v>2.01816347124117</v>
       </c>
-      <c r="D305">
+      <c r="D304" t="n">
         <v>3105675075681.13</v>
       </c>
     </row>
-    <row r="306" spans="1:4">
-      <c r="A306" s="2">
+    <row r="305">
+      <c r="A305" s="2" t="n">
         <v>39326</v>
       </c>
-      <c r="B306">
+      <c r="B305" t="n">
         <v>1538690000000</v>
       </c>
-      <c r="C306">
+      <c r="C305" t="n">
         <v>2.047082906857728</v>
       </c>
-      <c r="D306">
+      <c r="D305" t="n">
         <v>3149825997952.917</v>
       </c>
     </row>
-    <row r="307" spans="1:4">
-      <c r="A307" s="2">
+    <row r="306">
+      <c r="A306" s="2" t="n">
         <v>39356</v>
       </c>
-      <c r="B307">
+      <c r="B306" t="n">
         <v>1529328000000</v>
       </c>
-      <c r="C307">
+      <c r="C306" t="n">
         <v>2.082465639316951</v>
       </c>
-      <c r="D307">
+      <c r="D306" t="n">
         <v>3184773011245.314</v>
       </c>
     </row>
-    <row r="308" spans="1:4">
-      <c r="A308" s="2">
+    <row r="307">
+      <c r="A307" s="2" t="n">
         <v>39387</v>
       </c>
-      <c r="B308">
+      <c r="B307" t="n">
         <v>1539735000000</v>
       </c>
-      <c r="C308">
+      <c r="C307" t="n">
         <v>2.058884084826024</v>
       </c>
-      <c r="D308">
+      <c r="D307" t="n">
         <v>3170135886349.599</v>
       </c>
     </row>
-    <row r="309" spans="1:4">
-      <c r="A309" s="2">
+    <row r="308">
+      <c r="A308" s="2" t="n">
         <v>39417</v>
       </c>
-      <c r="B309">
+      <c r="B308" t="n">
         <v>1552875000000</v>
       </c>
-      <c r="C309">
+      <c r="C308" t="n">
         <v>1.987676406281057</v>
       </c>
-      <c r="D309">
+      <c r="D308" t="n">
         <v>3086612999403.697</v>
       </c>
     </row>
-    <row r="310" spans="1:4">
-      <c r="A310" s="2">
+    <row r="309">
+      <c r="A309" s="2" t="n">
         <v>39448</v>
       </c>
-      <c r="B310">
+      <c r="B309" t="n">
         <v>1614644000000</v>
       </c>
-      <c r="C310">
+      <c r="C309" t="n">
         <v>1.988466892026248</v>
       </c>
-      <c r="D310">
+      <c r="D309" t="n">
         <v>3210666136408.829</v>
       </c>
     </row>
-    <row r="311" spans="1:4">
-      <c r="A311" s="2">
+    <row r="310">
+      <c r="A310" s="2" t="n">
         <v>39479</v>
       </c>
-      <c r="B311">
+      <c r="B310" t="n">
         <v>1619432000000</v>
       </c>
-      <c r="C311">
+      <c r="C310" t="n">
         <v>1.989653800238758</v>
       </c>
-      <c r="D311">
+      <c r="D310" t="n">
         <v>3222109033028.253</v>
       </c>
     </row>
-    <row r="312" spans="1:4">
-      <c r="A312" s="2">
+    <row r="311">
+      <c r="A311" s="2" t="n">
         <v>39508</v>
       </c>
-      <c r="B312">
+      <c r="B311" t="n">
         <v>1642420000000</v>
       </c>
-      <c r="C312">
+      <c r="C311" t="n">
         <v>1.984126984126984</v>
       </c>
-      <c r="D312">
+      <c r="D311" t="n">
         <v>3258769841269.841</v>
       </c>
     </row>
-    <row r="313" spans="1:4">
-      <c r="A313" s="2">
+    <row r="312">
+      <c r="A312" s="2" t="n">
         <v>39539</v>
       </c>
-      <c r="B313">
+      <c r="B312" t="n">
         <v>1653886000000</v>
       </c>
-      <c r="C313">
+      <c r="C312" t="n">
         <v>1.988862370723946</v>
       </c>
-      <c r="D313">
+      <c r="D312" t="n">
         <v>3289351630867.144</v>
       </c>
     </row>
-    <row r="314" spans="1:4">
-      <c r="A314" s="2">
+    <row r="313">
+      <c r="A313" s="2" t="n">
         <v>39569</v>
       </c>
-      <c r="B314">
+      <c r="B313" t="n">
         <v>1659316000000</v>
       </c>
-      <c r="C314">
+      <c r="C313" t="n">
         <v>1.983339944466482</v>
       </c>
-      <c r="D314">
+      <c r="D313" t="n">
         <v>3290987703292.344</v>
       </c>
     </row>
-    <row r="315" spans="1:4">
-      <c r="A315" s="2">
+    <row r="314">
+      <c r="A314" s="2" t="n">
         <v>39600</v>
       </c>
-      <c r="B315">
+      <c r="B314" t="n">
         <v>1671091000000</v>
       </c>
-      <c r="C315">
+      <c r="C314" t="n">
         <v>1.994017946161516</v>
       </c>
-      <c r="D315">
+      <c r="D314" t="n">
         <v>3332185443668.994</v>
       </c>
     </row>
-    <row r="316" spans="1:4">
-      <c r="A316" s="2">
+    <row r="315">
+      <c r="A315" s="2" t="n">
         <v>39630</v>
       </c>
-      <c r="B316">
+      <c r="B315" t="n">
         <v>1673925000000</v>
       </c>
-      <c r="C316">
+      <c r="C315" t="n">
         <v>1.984520738241714</v>
       </c>
-      <c r="D316">
+      <c r="D315" t="n">
         <v>3321938876761.262</v>
       </c>
     </row>
-    <row r="317" spans="1:4">
-      <c r="A317" s="2">
+    <row r="316">
+      <c r="A316" s="2" t="n">
         <v>39661</v>
       </c>
-      <c r="B317">
+      <c r="B316" t="n">
         <v>1680684000000</v>
       </c>
-      <c r="C317">
+      <c r="C316" t="n">
         <v>1.817190623296384</v>
       </c>
-      <c r="D317">
+      <c r="D316" t="n">
         <v>3054123205524.259</v>
       </c>
     </row>
-    <row r="318" spans="1:4">
-      <c r="A318" s="2">
+    <row r="317">
+      <c r="A317" s="2" t="n">
         <v>39692</v>
       </c>
-      <c r="B318">
+      <c r="B317" t="n">
         <v>1687895000000</v>
       </c>
-      <c r="C318">
+      <c r="C317" t="n">
         <v>1.784121320249777</v>
       </c>
-      <c r="D318">
+      <c r="D317" t="n">
         <v>3011409455842.998</v>
       </c>
     </row>
-    <row r="319" spans="1:4">
-      <c r="A319" s="2">
+    <row r="318">
+      <c r="A318" s="2" t="n">
         <v>39722</v>
       </c>
-      <c r="B319">
+      <c r="B318" t="n">
         <v>1743259000000</v>
       </c>
-      <c r="C319">
+      <c r="C318" t="n">
         <v>1.605394124257505</v>
       </c>
-      <c r="D319">
+      <c r="D318" t="n">
         <v>2798617755659.014</v>
       </c>
     </row>
-    <row r="320" spans="1:4">
-      <c r="A320" s="2">
+    <row r="319">
+      <c r="A319" s="2" t="n">
         <v>39753</v>
       </c>
-      <c r="B320">
+      <c r="B319" t="n">
         <v>1793354000000</v>
       </c>
-      <c r="C320">
+      <c r="C319" t="n">
         <v>1.538224888478696</v>
       </c>
-      <c r="D320">
+      <c r="D319" t="n">
         <v>2758581756652.823</v>
       </c>
     </row>
-    <row r="321" spans="1:4">
-      <c r="A321" s="2">
+    <row r="320">
+      <c r="A320" s="2" t="n">
         <v>39783</v>
       </c>
-      <c r="B321">
+      <c r="B320" t="n">
         <v>1838164000000</v>
       </c>
-      <c r="C321">
+      <c r="C320" t="n">
         <v>1.462629808395495</v>
       </c>
-      <c r="D321">
+      <c r="D320" t="n">
         <v>2688553459119.497</v>
       </c>
     </row>
-    <row r="322" spans="1:4">
-      <c r="A322" s="2">
+    <row r="321">
+      <c r="A321" s="2" t="n">
         <v>39814</v>
       </c>
-      <c r="B322">
+      <c r="B321" t="n">
         <v>1847619000000</v>
       </c>
-      <c r="C322">
+      <c r="C321" t="n">
         <v>1.452011035283868</v>
       </c>
-      <c r="D322">
+      <c r="D321" t="n">
         <v>2682763177000.146</v>
       </c>
     </row>
-    <row r="323" spans="1:4">
-      <c r="A323" s="2">
+    <row r="322">
+      <c r="A322" s="2" t="n">
         <v>39845</v>
       </c>
-      <c r="B323">
+      <c r="B322" t="n">
         <v>1839000000000</v>
       </c>
-      <c r="C323">
+      <c r="C322" t="n">
         <v>1.431639226914817</v>
       </c>
-      <c r="D323">
+      <c r="D322" t="n">
         <v>2632784538296.349</v>
       </c>
     </row>
-    <row r="324" spans="1:4">
-      <c r="A324" s="2">
+    <row r="323">
+      <c r="A323" s="2" t="n">
         <v>39873</v>
       </c>
-      <c r="B324">
+      <c r="B323" t="n">
         <v>1852102000000</v>
       </c>
-      <c r="C324">
+      <c r="C323" t="n">
         <v>1.433280779704744</v>
       </c>
-      <c r="D324">
+      <c r="D323" t="n">
         <v>2654582198652.716</v>
       </c>
     </row>
-    <row r="325" spans="1:4">
-      <c r="A325" s="2">
+    <row r="324">
+      <c r="A324" s="2" t="n">
         <v>39904</v>
       </c>
-      <c r="B325">
+      <c r="B324" t="n">
         <v>1828305000000</v>
       </c>
-      <c r="C325">
+      <c r="C324" t="n">
         <v>1.478633742422002</v>
       </c>
-      <c r="D325">
+      <c r="D324" t="n">
         <v>2703393464438.858</v>
       </c>
     </row>
-    <row r="326" spans="1:4">
-      <c r="A326" s="2">
+    <row r="325">
+      <c r="A325" s="2" t="n">
         <v>39934</v>
       </c>
-      <c r="B326">
+      <c r="B325" t="n">
         <v>1821504000000</v>
       </c>
-      <c r="C326">
+      <c r="C325" t="n">
         <v>1.619695497246518</v>
       </c>
-      <c r="D326">
+      <c r="D325" t="n">
         <v>2950281827016.521</v>
       </c>
     </row>
-    <row r="327" spans="1:4">
-      <c r="A327" s="2">
+    <row r="326">
+      <c r="A326" s="2" t="n">
         <v>39965</v>
       </c>
-      <c r="B327">
+      <c r="B326" t="n">
         <v>1813632000000</v>
       </c>
-      <c r="C327">
+      <c r="C326" t="n">
         <v>1.647446457990115</v>
       </c>
-      <c r="D327">
+      <c r="D326" t="n">
         <v>2987861614497.529</v>
       </c>
     </row>
-    <row r="328" spans="1:4">
-      <c r="A328" s="2">
+    <row r="327">
+      <c r="A327" s="2" t="n">
         <v>39995</v>
       </c>
-      <c r="B328">
+      <c r="B327" t="n">
         <v>1825833000000</v>
       </c>
-      <c r="C328">
+      <c r="C327" t="n">
         <v>1.671402306535183</v>
       </c>
-      <c r="D328">
+      <c r="D327" t="n">
         <v>3051701487548.053</v>
       </c>
     </row>
-    <row r="329" spans="1:4">
-      <c r="A329" s="2">
+    <row r="328">
+      <c r="A328" s="2" t="n">
         <v>40026</v>
       </c>
-      <c r="B329">
+      <c r="B328" t="n">
         <v>1837989000000</v>
       </c>
-      <c r="C329">
+      <c r="C328" t="n">
         <v>1.628399283504315</v>
       </c>
-      <c r="D329">
+      <c r="D328" t="n">
         <v>2992979970688.813</v>
       </c>
     </row>
-    <row r="330" spans="1:4">
-      <c r="A330" s="2">
+    <row r="329">
+      <c r="A329" s="2" t="n">
         <v>40057</v>
       </c>
-      <c r="B330">
+      <c r="B329" t="n">
         <v>1860450000000</v>
       </c>
-      <c r="C330">
+      <c r="C329" t="n">
         <v>1.601537475976938</v>
       </c>
-      <c r="D330">
+      <c r="D329" t="n">
         <v>2979580397181.294</v>
       </c>
     </row>
-    <row r="331" spans="1:4">
-      <c r="A331" s="2">
+    <row r="330">
+      <c r="A330" s="2" t="n">
         <v>40087</v>
       </c>
-      <c r="B331">
+      <c r="B330" t="n">
         <v>1897862000000</v>
       </c>
-      <c r="C331">
+      <c r="C330" t="n">
         <v>1.645278051990786</v>
       </c>
-      <c r="D331">
+      <c r="D330" t="n">
         <v>3122510694307.338</v>
       </c>
     </row>
-    <row r="332" spans="1:4">
-      <c r="A332" s="2">
+    <row r="331">
+      <c r="A331" s="2" t="n">
         <v>40118</v>
       </c>
-      <c r="B332">
+      <c r="B331" t="n">
         <v>1898759000000</v>
       </c>
-      <c r="C332">
+      <c r="C331" t="n">
         <v>1.645007402533311</v>
       </c>
-      <c r="D332">
+      <c r="D331" t="n">
         <v>3123472610626.748</v>
       </c>
     </row>
-    <row r="333" spans="1:4">
-      <c r="A333" s="2">
+    <row r="332">
+      <c r="A332" s="2" t="n">
         <v>40148</v>
       </c>
-      <c r="B333">
+      <c r="B332" t="n">
         <v>1900611000000</v>
       </c>
-      <c r="C333">
+      <c r="C332" t="n">
         <v>1.616292225634395</v>
       </c>
-      <c r="D333">
+      <c r="D332" t="n">
         <v>3071942783255.212</v>
       </c>
     </row>
-    <row r="334" spans="1:4">
-      <c r="A334" s="2">
+    <row r="333">
+      <c r="A333" s="2" t="n">
         <v>40179</v>
       </c>
-      <c r="B334">
+      <c r="B333" t="n">
         <v>2092468000000</v>
       </c>
-      <c r="C334">
+      <c r="C333" t="n">
         <v>1.600256040966555</v>
       </c>
-      <c r="D334">
+      <c r="D333" t="n">
         <v>3348484557529.205</v>
       </c>
     </row>
-    <row r="335" spans="1:4">
-      <c r="A335" s="2">
+    <row r="334">
+      <c r="A334" s="2" t="n">
         <v>40210</v>
       </c>
-      <c r="B335">
+      <c r="B334" t="n">
         <v>2120092000000</v>
       </c>
-      <c r="C335">
+      <c r="C334" t="n">
         <v>1.524157902758726</v>
       </c>
-      <c r="D335">
+      <c r="D334" t="n">
         <v>3231354976375.552</v>
       </c>
     </row>
-    <row r="336" spans="1:4">
-      <c r="A336" s="2">
+    <row r="335">
+      <c r="A335" s="2" t="n">
         <v>40238</v>
       </c>
-      <c r="B336">
+      <c r="B335" t="n">
         <v>2103885000000</v>
       </c>
-      <c r="C336">
+      <c r="C335" t="n">
         <v>1.519064256418047</v>
       </c>
-      <c r="D336">
+      <c r="D335" t="n">
         <v>3195936503114.082</v>
       </c>
     </row>
-    <row r="337" spans="1:4">
-      <c r="A337" s="2">
+    <row r="336">
+      <c r="A336" s="2" t="n">
         <v>40269</v>
       </c>
-      <c r="B337">
+      <c r="B336" t="n">
         <v>2075259000000</v>
       </c>
-      <c r="C337">
+      <c r="C336" t="n">
         <v>1.527883880825057</v>
       </c>
-      <c r="D337">
+      <c r="D336" t="n">
         <v>3170754774637.128</v>
       </c>
     </row>
-    <row r="338" spans="1:4">
-      <c r="A338" s="2">
+    <row r="337">
+      <c r="A337" s="2" t="n">
         <v>40299</v>
       </c>
-      <c r="B338">
+      <c r="B337" t="n">
         <v>2090960000000</v>
       </c>
-      <c r="C338">
+      <c r="C337" t="n">
         <v>1.453911020645537</v>
       </c>
-      <c r="D338">
+      <c r="D337" t="n">
         <v>3040069787728.991</v>
       </c>
     </row>
-    <row r="339" spans="1:4">
-      <c r="A339" s="2">
+    <row r="338">
+      <c r="A338" s="2" t="n">
         <v>40330</v>
       </c>
-      <c r="B339">
+      <c r="B338" t="n">
         <v>2092957000000</v>
       </c>
-      <c r="C339">
+      <c r="C338" t="n">
         <v>1.494544911074578</v>
       </c>
-      <c r="D339">
+      <c r="D338" t="n">
         <v>3128018233447.915</v>
       </c>
     </row>
-    <row r="340" spans="1:4">
-      <c r="A340" s="2">
+    <row r="339">
+      <c r="A339" s="2" t="n">
         <v>40360</v>
       </c>
-      <c r="B340">
+      <c r="B339" t="n">
         <v>2089612000000</v>
       </c>
-      <c r="C340">
+      <c r="C339" t="n">
         <v>1.569612305760477</v>
       </c>
-      <c r="D340">
+      <c r="D339" t="n">
         <v>3279880709464.762</v>
       </c>
     </row>
-    <row r="341" spans="1:4">
-      <c r="A341" s="2">
+    <row r="340">
+      <c r="A340" s="2" t="n">
         <v>40391</v>
       </c>
-      <c r="B341">
+      <c r="B340" t="n">
         <v>2080823000000</v>
       </c>
-      <c r="C341">
+      <c r="C340" t="n">
         <v>1.535862386730149</v>
       </c>
-      <c r="D341">
+      <c r="D340" t="n">
         <v>3195857779142.989</v>
       </c>
     </row>
-    <row r="342" spans="1:4">
-      <c r="A342" s="2">
+    <row r="341">
+      <c r="A341" s="2" t="n">
         <v>40422</v>
       </c>
-      <c r="B342">
+      <c r="B341" t="n">
         <v>2081669000000</v>
       </c>
-      <c r="C342">
+      <c r="C341" t="n">
         <v>1.571585730001572</v>
       </c>
-      <c r="D342">
+      <c r="D341" t="n">
         <v>3271521294986.642</v>
       </c>
     </row>
-    <row r="343" spans="1:4">
-      <c r="A343" s="2">
+    <row r="342">
+      <c r="A342" s="2" t="n">
         <v>40452</v>
       </c>
-      <c r="B343">
+      <c r="B342" t="n">
         <v>2093135000000</v>
       </c>
-      <c r="C343">
+      <c r="C342" t="n">
         <v>1.604621309370988</v>
       </c>
-      <c r="D343">
+      <c r="D342" t="n">
         <v>3358689024390.244</v>
       </c>
     </row>
-    <row r="344" spans="1:4">
-      <c r="A344" s="2">
+    <row r="343">
+      <c r="A343" s="2" t="n">
         <v>40483</v>
       </c>
-      <c r="B344">
+      <c r="B343" t="n">
         <v>2083505000000</v>
       </c>
-      <c r="C344">
+      <c r="C343" t="n">
         <v>1.556904873112253</v>
       </c>
-      <c r="D344">
+      <c r="D343" t="n">
         <v>3243819087653.744</v>
       </c>
     </row>
-    <row r="345" spans="1:4">
-      <c r="A345" s="2">
+    <row r="344">
+      <c r="A344" s="2" t="n">
         <v>40513</v>
       </c>
-      <c r="B345">
+      <c r="B344" t="n">
         <v>2079532000000</v>
       </c>
-      <c r="C345">
+      <c r="C344" t="n">
         <v>1.561524047470331</v>
       </c>
-      <c r="D345">
+      <c r="D344" t="n">
         <v>3247239225484.073</v>
       </c>
     </row>
-    <row r="346" spans="1:4">
-      <c r="A346" s="2">
+    <row r="345">
+      <c r="A345" s="2" t="n">
         <v>40544</v>
       </c>
-      <c r="B346">
+      <c r="B345" t="n">
         <v>2065670000000</v>
       </c>
-      <c r="C346">
+      <c r="C345" t="n">
         <v>1.601794009290405</v>
       </c>
-      <c r="D346">
+      <c r="D345" t="n">
         <v>3308777831170.912</v>
       </c>
     </row>
-    <row r="347" spans="1:4">
-      <c r="A347" s="2">
+    <row r="346">
+      <c r="A346" s="2" t="n">
         <v>40575</v>
       </c>
-      <c r="B347">
+      <c r="B346" t="n">
         <v>2059734000000</v>
       </c>
-      <c r="C347">
+      <c r="C346" t="n">
         <v>1.626545217957059</v>
       </c>
-      <c r="D347">
+      <c r="D346" t="n">
         <v>3350250487963.565</v>
       </c>
     </row>
-    <row r="348" spans="1:4">
-      <c r="A348" s="2">
+    <row r="347">
+      <c r="A347" s="2" t="n">
         <v>40603</v>
       </c>
-      <c r="B348">
+      <c r="B347" t="n">
         <v>2083323000000</v>
       </c>
-      <c r="C348">
+      <c r="C347" t="n">
         <v>1.604621309370988</v>
       </c>
-      <c r="D348">
+      <c r="D347" t="n">
         <v>3342944480102.696</v>
       </c>
     </row>
-    <row r="349" spans="1:4">
-      <c r="A349" s="2">
+    <row r="348">
+      <c r="A348" s="2" t="n">
         <v>40634</v>
       </c>
-      <c r="B349">
+      <c r="B348" t="n">
         <v>2083914000000</v>
       </c>
-      <c r="C349">
+      <c r="C348" t="n">
         <v>1.671122994652406</v>
       </c>
-      <c r="D349">
+      <c r="D348" t="n">
         <v>3482476604278.074</v>
       </c>
     </row>
-    <row r="350" spans="1:4">
-      <c r="A350" s="2">
+    <row r="349">
+      <c r="A349" s="2" t="n">
         <v>40664</v>
       </c>
-      <c r="B350">
+      <c r="B349" t="n">
         <v>2085955000000</v>
       </c>
-      <c r="C350">
+      <c r="C349" t="n">
         <v>1.645819618169849</v>
       </c>
-      <c r="D350">
+      <c r="D349" t="n">
         <v>3433105661619.486</v>
       </c>
     </row>
-    <row r="351" spans="1:4">
-      <c r="A351" s="2">
+    <row r="350">
+      <c r="A350" s="2" t="n">
         <v>40695</v>
       </c>
-      <c r="B351">
+      <c r="B350" t="n">
         <v>2083062000000</v>
       </c>
-      <c r="C351">
+      <c r="C350" t="n">
         <v>1.604878831648211</v>
       </c>
-      <c r="D351">
+      <c r="D350" t="n">
         <v>3343062108810.785</v>
       </c>
     </row>
-    <row r="352" spans="1:4">
-      <c r="A352" s="2">
+    <row r="351">
+      <c r="A351" s="2" t="n">
         <v>40725</v>
       </c>
-      <c r="B352">
+      <c r="B351" t="n">
         <v>2079183000000</v>
       </c>
-      <c r="C352">
+      <c r="C351" t="n">
         <v>1.642845408247084</v>
       </c>
-      <c r="D352">
+      <c r="D351" t="n">
         <v>3415776244455.396</v>
       </c>
     </row>
-    <row r="353" spans="1:4">
-      <c r="A353" s="2">
+    <row r="352">
+      <c r="A352" s="2" t="n">
         <v>40756</v>
       </c>
-      <c r="B353">
+      <c r="B352" t="n">
         <v>2090215000000</v>
       </c>
-      <c r="C353">
+      <c r="C352" t="n">
         <v>1.626280696048138</v>
       </c>
-      <c r="D353">
+      <c r="D352" t="n">
         <v>3399276305090.259</v>
       </c>
     </row>
-    <row r="354" spans="1:4">
-      <c r="A354" s="2">
+    <row r="353">
+      <c r="A353" s="2" t="n">
         <v>40787</v>
       </c>
-      <c r="B354">
+      <c r="B353" t="n">
         <v>2090984000000</v>
       </c>
-      <c r="C354">
+      <c r="C353" t="n">
         <v>1.559089491736826</v>
       </c>
-      <c r="D354">
+      <c r="D353" t="n">
         <v>3260031181789.835</v>
       </c>
     </row>
-    <row r="355" spans="1:4">
-      <c r="A355" s="2">
+    <row r="354">
+      <c r="A354" s="2" t="n">
         <v>40817</v>
       </c>
-      <c r="B355">
+      <c r="B354" t="n">
         <v>2069754000000</v>
       </c>
-      <c r="C355">
+      <c r="C354" t="n">
         <v>1.608751608751609</v>
       </c>
-      <c r="D355">
+      <c r="D354" t="n">
         <v>3329720077220.077</v>
       </c>
     </row>
-    <row r="356" spans="1:4">
-      <c r="A356" s="2">
+    <row r="355">
+      <c r="A355" s="2" t="n">
         <v>40848</v>
       </c>
-      <c r="B356">
+      <c r="B355" t="n">
         <v>2075028000000</v>
       </c>
-      <c r="C356">
+      <c r="C355" t="n">
         <v>1.571091908876669</v>
       </c>
-      <c r="D356">
+      <c r="D355" t="n">
         <v>3260059701492.538</v>
       </c>
     </row>
-    <row r="357" spans="1:4">
-      <c r="A357" s="2">
+    <row r="356">
+      <c r="A356" s="2" t="n">
         <v>40878</v>
       </c>
-      <c r="B357">
+      <c r="B356" t="n">
         <v>2034632000000</v>
       </c>
-      <c r="C357">
+      <c r="C356" t="n">
         <v>1.555935895441108</v>
       </c>
-      <c r="D357">
+      <c r="D356" t="n">
         <v>3165756962813.132</v>
       </c>
     </row>
-    <row r="358" spans="1:4">
-      <c r="A358" s="2">
+    <row r="357">
+      <c r="A357" s="2" t="n">
         <v>40909</v>
       </c>
-      <c r="B358">
+      <c r="B357" t="n">
         <v>2049504000000</v>
       </c>
-      <c r="C358">
+      <c r="C357" t="n">
         <v>1.576789656259855</v>
       </c>
-      <c r="D358">
+      <c r="D357" t="n">
         <v>3231636707663.198</v>
       </c>
     </row>
-    <row r="359" spans="1:4">
-      <c r="A359" s="2">
+    <row r="358">
+      <c r="A358" s="2" t="n">
         <v>40940</v>
       </c>
-      <c r="B359">
+      <c r="B358" t="n">
         <v>2016250000000</v>
       </c>
-      <c r="C359">
+      <c r="C358" t="n">
         <v>1.592103168285305</v>
       </c>
-      <c r="D359">
+      <c r="D358" t="n">
         <v>3210078013055.246</v>
       </c>
     </row>
-    <row r="360" spans="1:4">
-      <c r="A360" s="2">
+    <row r="359">
+      <c r="A359" s="2" t="n">
         <v>40969</v>
       </c>
-      <c r="B360">
+      <c r="B359" t="n">
         <v>2022808000000</v>
       </c>
-      <c r="C360">
+      <c r="C359" t="n">
         <v>1.602050624799744</v>
       </c>
-      <c r="D360">
+      <c r="D359" t="n">
         <v>3240640820249.92</v>
       </c>
     </row>
-    <row r="361" spans="1:4">
-      <c r="A361" s="2">
+    <row r="360">
+      <c r="A360" s="2" t="n">
         <v>41000</v>
       </c>
-      <c r="B361">
+      <c r="B360" t="n">
         <v>2032829000000</v>
       </c>
-      <c r="C361">
+      <c r="C360" t="n">
         <v>1.624431448992852</v>
       </c>
-      <c r="D361">
+      <c r="D360" t="n">
         <v>3302191358024.691</v>
       </c>
     </row>
-    <row r="362" spans="1:4">
-      <c r="A362" s="2">
+    <row r="361">
+      <c r="A361" s="2" t="n">
         <v>41030</v>
       </c>
-      <c r="B362">
+      <c r="B361" t="n">
         <v>2036778000000</v>
       </c>
-      <c r="C362">
+      <c r="C361" t="n">
         <v>1.541069502234551</v>
       </c>
-      <c r="D362">
+      <c r="D361" t="n">
         <v>3138816458622.284</v>
       </c>
     </row>
-    <row r="363" spans="1:4">
-      <c r="A363" s="2">
+    <row r="362">
+      <c r="A362" s="2" t="n">
         <v>41061</v>
       </c>
-      <c r="B363">
+      <c r="B362" t="n">
         <v>2028076000000</v>
       </c>
-      <c r="C363">
+      <c r="C362" t="n">
         <v>1.570598397989634</v>
       </c>
-      <c r="D363">
+      <c r="D362" t="n">
         <v>3185292916601.225</v>
       </c>
     </row>
-    <row r="364" spans="1:4">
-      <c r="A364" s="2">
+    <row r="363">
+      <c r="A363" s="2" t="n">
         <v>41091</v>
       </c>
-      <c r="B364">
+      <c r="B363" t="n">
         <v>2029029000000</v>
       </c>
-      <c r="C364">
+      <c r="C363" t="n">
         <v>1.568135486906069</v>
       </c>
-      <c r="D364">
+      <c r="D363" t="n">
         <v>3181792378861.534</v>
       </c>
     </row>
-    <row r="365" spans="1:4">
-      <c r="A365" s="2">
+    <row r="364">
+      <c r="A364" s="2" t="n">
         <v>41122</v>
       </c>
-      <c r="B365">
+      <c r="B364" t="n">
         <v>2024862000000</v>
       </c>
-      <c r="C365">
+      <c r="C364" t="n">
         <v>1.587301587301587</v>
       </c>
-      <c r="D365">
+      <c r="D364" t="n">
         <v>3214066666666.667</v>
       </c>
     </row>
-    <row r="366" spans="1:4">
-      <c r="A366" s="2">
+    <row r="365">
+      <c r="A365" s="2" t="n">
         <v>41153</v>
       </c>
-      <c r="B366">
+      <c r="B365" t="n">
         <v>2023352000000</v>
       </c>
-      <c r="C366">
+      <c r="C365" t="n">
         <v>1.617076326002588</v>
       </c>
-      <c r="D366">
+      <c r="D365" t="n">
         <v>3271914618369.987</v>
       </c>
     </row>
-    <row r="367" spans="1:4">
-      <c r="A367" s="2">
+    <row r="366">
+      <c r="A366" s="2" t="n">
         <v>41183</v>
       </c>
-      <c r="B367">
+      <c r="B366" t="n">
         <v>2021639000000</v>
       </c>
-      <c r="C367">
+      <c r="C366" t="n">
         <v>1.613684040664838</v>
       </c>
-      <c r="D367">
+      <c r="D366" t="n">
         <v>3262286590285.622</v>
       </c>
     </row>
-    <row r="368" spans="1:4">
-      <c r="A368" s="2">
+    <row r="367">
+      <c r="A367" s="2" t="n">
         <v>41214</v>
       </c>
-      <c r="B368">
+      <c r="B367" t="n">
         <v>2019792000000</v>
       </c>
-      <c r="C368">
+      <c r="C367" t="n">
         <v>1.602307322544464</v>
       </c>
-      <c r="D368">
+      <c r="D367" t="n">
         <v>3236327511616.728</v>
       </c>
     </row>
-    <row r="369" spans="1:4">
-      <c r="A369" s="2">
+    <row r="368">
+      <c r="A368" s="2" t="n">
         <v>41244</v>
       </c>
-      <c r="B369">
+      <c r="B368" t="n">
         <v>2043169000000</v>
       </c>
-      <c r="C369">
+      <c r="C368" t="n">
         <v>1.626545217957059</v>
       </c>
-      <c r="D369">
+      <c r="D368" t="n">
         <v>3323306766428.106</v>
       </c>
     </row>
-    <row r="370" spans="1:4">
-      <c r="A370" s="2">
+    <row r="369">
+      <c r="A369" s="2" t="n">
         <v>41275</v>
       </c>
-      <c r="B370">
+      <c r="B369" t="n">
         <v>2056209000000</v>
       </c>
-      <c r="C370">
+      <c r="C369" t="n">
         <v>1.586294416243655</v>
       </c>
-      <c r="D370">
+      <c r="D369" t="n">
         <v>3261752855329.95</v>
       </c>
     </row>
-    <row r="371" spans="1:4">
-      <c r="A371" s="2">
+    <row r="370">
+      <c r="A370" s="2" t="n">
         <v>41306</v>
       </c>
-      <c r="B371">
+      <c r="B370" t="n">
         <v>2075688000000</v>
       </c>
-      <c r="C371">
+      <c r="C370" t="n">
         <v>1.516990291262136</v>
       </c>
-      <c r="D371">
+      <c r="D370" t="n">
         <v>3148798543689.32</v>
       </c>
     </row>
-    <row r="372" spans="1:4">
-      <c r="A372" s="2">
+    <row r="371">
+      <c r="A371" s="2" t="n">
         <v>41334</v>
       </c>
-      <c r="B372">
+      <c r="B371" t="n">
         <v>2074510000000</v>
       </c>
-      <c r="C372">
+      <c r="C371" t="n">
         <v>1.521606816798539</v>
       </c>
-      <c r="D372">
+      <c r="D371" t="n">
         <v>3156588557516.738</v>
       </c>
     </row>
-    <row r="373" spans="1:4">
-      <c r="A373" s="2">
+    <row r="372">
+      <c r="A372" s="2" t="n">
         <v>41365</v>
       </c>
-      <c r="B373">
+      <c r="B372" t="n">
         <v>2079958000000</v>
       </c>
-      <c r="C373">
+      <c r="C372" t="n">
         <v>1.55448468832582</v>
       </c>
-      <c r="D373">
+      <c r="D372" t="n">
         <v>3233262863360.796</v>
       </c>
     </row>
-    <row r="374" spans="1:4">
-      <c r="A374" s="2">
+    <row r="373">
+      <c r="A373" s="2" t="n">
         <v>41395</v>
       </c>
-      <c r="B374">
+      <c r="B373" t="n">
         <v>2081336000000</v>
       </c>
-      <c r="C374">
+      <c r="C373" t="n">
         <v>1.520218911523259</v>
       </c>
-      <c r="D374">
+      <c r="D373" t="n">
         <v>3164086348434.174</v>
       </c>
     </row>
-    <row r="375" spans="1:4">
-      <c r="A375" s="2">
+    <row r="374">
+      <c r="A374" s="2" t="n">
         <v>41426</v>
       </c>
-      <c r="B375">
+      <c r="B374" t="n">
         <v>2086483000000</v>
       </c>
-      <c r="C375">
+      <c r="C374" t="n">
         <v>1.522533495736906</v>
       </c>
-      <c r="D375">
+      <c r="D374" t="n">
         <v>3176740255785.627</v>
       </c>
     </row>
-    <row r="376" spans="1:4">
-      <c r="A376" s="2">
+    <row r="375">
+      <c r="A375" s="2" t="n">
         <v>41456</v>
       </c>
-      <c r="B376">
+      <c r="B375" t="n">
         <v>2099960000000</v>
       </c>
-      <c r="C376">
+      <c r="C375" t="n">
         <v>1.519987840097279</v>
       </c>
-      <c r="D376">
+      <c r="D375" t="n">
         <v>3191913664690.682</v>
       </c>
     </row>
-    <row r="377" spans="1:4">
-      <c r="A377" s="2">
+    <row r="376">
+      <c r="A376" s="2" t="n">
         <v>41487</v>
       </c>
-      <c r="B377">
+      <c r="B376" t="n">
         <v>2105687000000</v>
       </c>
-      <c r="C377">
+      <c r="C376" t="n">
         <v>1.550868486352357</v>
       </c>
-      <c r="D377">
+      <c r="D376" t="n">
         <v>3265643610421.836</v>
       </c>
     </row>
-    <row r="378" spans="1:4">
-      <c r="A378" s="2">
+    <row r="377">
+      <c r="A377" s="2" t="n">
         <v>41518</v>
       </c>
-      <c r="B378">
+      <c r="B377" t="n">
         <v>2089621000000</v>
       </c>
-      <c r="C378">
+      <c r="C377" t="n">
         <v>1.619170984455959</v>
       </c>
-      <c r="D378">
+      <c r="D377" t="n">
         <v>3383453691709.845</v>
       </c>
     </row>
-    <row r="379" spans="1:4">
-      <c r="A379" s="2">
+    <row r="378">
+      <c r="A378" s="2" t="n">
         <v>41548</v>
       </c>
-      <c r="B379">
+      <c r="B378" t="n">
         <v>2104154000000</v>
       </c>
-      <c r="C379">
+      <c r="C378" t="n">
         <v>1.604621309370988</v>
       </c>
-      <c r="D379">
+      <c r="D378" t="n">
         <v>3376370346598.203</v>
       </c>
     </row>
-    <row r="380" spans="1:4">
-      <c r="A380" s="2">
+    <row r="379">
+      <c r="A379" s="2" t="n">
         <v>41579</v>
       </c>
-      <c r="B380">
+      <c r="B379" t="n">
         <v>2100629000000</v>
       </c>
-      <c r="C380">
+      <c r="C379" t="n">
         <v>1.637465203864418</v>
       </c>
-      <c r="D380">
+      <c r="D379" t="n">
         <v>3439706893728.508</v>
       </c>
     </row>
-    <row r="381" spans="1:4">
-      <c r="A381" s="2">
+    <row r="380">
+      <c r="A380" s="2" t="n">
         <v>41609</v>
       </c>
-      <c r="B381">
+      <c r="B380" t="n">
         <v>2078312000000</v>
       </c>
-      <c r="C381">
+      <c r="C380" t="n">
         <v>1.655629139072848</v>
       </c>
-      <c r="D381">
+      <c r="D380" t="n">
         <v>3440913907284.768</v>
       </c>
     </row>
-    <row r="382" spans="1:4">
-      <c r="A382" s="2">
+    <row r="381">
+      <c r="A381" s="2" t="n">
         <v>41640</v>
       </c>
-      <c r="B382">
+      <c r="B381" t="n">
         <v>2091926000000</v>
       </c>
-      <c r="C382">
+      <c r="C381" t="n">
         <v>1.64446637066272</v>
       </c>
-      <c r="D382">
+      <c r="D381" t="n">
         <v>3440101956914.981</v>
       </c>
     </row>
-    <row r="383" spans="1:4">
-      <c r="A383" s="2">
+    <row r="382">
+      <c r="A382" s="2" t="n">
         <v>41671</v>
       </c>
-      <c r="B383">
+      <c r="B382" t="n">
         <v>2110400000000</v>
       </c>
-      <c r="C383">
+      <c r="C382" t="n">
         <v>1.674761346508123</v>
       </c>
-      <c r="D383">
+      <c r="D382" t="n">
         <v>3534416345670.742</v>
       </c>
     </row>
-    <row r="384" spans="1:4">
-      <c r="A384" s="2">
+    <row r="383">
+      <c r="A383" s="2" t="n">
         <v>41699</v>
       </c>
-      <c r="B384">
+      <c r="B383" t="n">
         <v>2083975000000</v>
       </c>
-      <c r="C384">
+      <c r="C383" t="n">
         <v>1.666944490748458</v>
       </c>
-      <c r="D384">
+      <c r="D383" t="n">
         <v>3473870645107.518</v>
       </c>
     </row>
-    <row r="385" spans="1:4">
-      <c r="A385" s="2">
+    <row r="384">
+      <c r="A384" s="2" t="n">
         <v>41730</v>
       </c>
-      <c r="B385">
+      <c r="B384" t="n">
         <v>2077730000000</v>
       </c>
-      <c r="C385">
+      <c r="C384" t="n">
         <v>1.688333614722269</v>
       </c>
-      <c r="D385">
+      <c r="D384" t="n">
         <v>3507901401316.9</v>
       </c>
     </row>
-    <row r="386" spans="1:4">
-      <c r="A386" s="2">
+    <row r="385">
+      <c r="A385" s="2" t="n">
         <v>41760</v>
       </c>
-      <c r="B386">
+      <c r="B385" t="n">
         <v>2072517000000</v>
       </c>
-      <c r="C386">
+      <c r="C385" t="n">
         <v>1.676164934629568</v>
       </c>
-      <c r="D386">
+      <c r="D385" t="n">
         <v>3473880321823.667</v>
       </c>
     </row>
-    <row r="387" spans="1:4">
-      <c r="A387" s="2">
+    <row r="386">
+      <c r="A386" s="2" t="n">
         <v>41791</v>
       </c>
-      <c r="B387">
+      <c r="B386" t="n">
         <v>2063761000000</v>
       </c>
-      <c r="C387">
+      <c r="C386" t="n">
         <v>1.71174255391989</v>
       </c>
-      <c r="D387">
+      <c r="D386" t="n">
         <v>3532627524820.267</v>
       </c>
     </row>
-    <row r="388" spans="1:4">
-      <c r="A388" s="2">
+    <row r="387">
+      <c r="A387" s="2" t="n">
         <v>41821</v>
       </c>
-      <c r="B388">
+      <c r="B387" t="n">
         <v>2065111000000</v>
       </c>
-      <c r="C388">
+      <c r="C387" t="n">
         <v>1.689189189189189</v>
       </c>
-      <c r="D388">
+      <c r="D387" t="n">
         <v>3488363175675.676</v>
       </c>
     </row>
-    <row r="389" spans="1:4">
-      <c r="A389" s="2">
+    <row r="388">
+      <c r="A388" s="2" t="n">
         <v>41852</v>
       </c>
-      <c r="B389">
+      <c r="B388" t="n">
         <v>2065981000000</v>
       </c>
-      <c r="C389">
+      <c r="C388" t="n">
         <v>1.660577881102624</v>
       </c>
-      <c r="D389">
+      <c r="D388" t="n">
         <v>3430722351378.28</v>
       </c>
     </row>
-    <row r="390" spans="1:4">
-      <c r="A390" s="2">
+    <row r="389">
+      <c r="A389" s="2" t="n">
         <v>41883</v>
       </c>
-      <c r="B390">
+      <c r="B389" t="n">
         <v>2073272000000</v>
       </c>
-      <c r="C390">
+      <c r="C389" t="n">
         <v>1.6220600162206</v>
       </c>
-      <c r="D390">
+      <c r="D389" t="n">
         <v>3362971613949.716</v>
       </c>
     </row>
-    <row r="391" spans="1:4">
-      <c r="A391" s="2">
+    <row r="390">
+      <c r="A390" s="2" t="n">
         <v>41913</v>
       </c>
-      <c r="B391">
+      <c r="B390" t="n">
         <v>2061189000000</v>
       </c>
-      <c r="C391">
+      <c r="C390" t="n">
         <v>1.600256040966555</v>
       </c>
-      <c r="D391">
+      <c r="D390" t="n">
         <v>3298430148823.812</v>
       </c>
     </row>
-    <row r="392" spans="1:4">
-      <c r="A392" s="2">
+    <row r="391">
+      <c r="A391" s="2" t="n">
         <v>41944</v>
       </c>
-      <c r="B392">
+      <c r="B391" t="n">
         <v>2068537000000</v>
       </c>
-      <c r="C392">
+      <c r="C391" t="n">
         <v>1.565680288085173</v>
       </c>
-      <c r="D392">
+      <c r="D391" t="n">
         <v>3238667606074.839</v>
       </c>
     </row>
-    <row r="393" spans="1:4">
-      <c r="A393" s="2">
+    <row r="392">
+      <c r="A392" s="2" t="n">
         <v>41974</v>
       </c>
-      <c r="B393">
+      <c r="B392" t="n">
         <v>2080329000000</v>
       </c>
-      <c r="C393">
+      <c r="C392" t="n">
         <v>1.558360604643914</v>
       </c>
-      <c r="D393">
+      <c r="D392" t="n">
         <v>3241902758298.27</v>
       </c>
     </row>
-    <row r="394" spans="1:4">
-      <c r="A394" s="2">
+    <row r="393">
+      <c r="A393" s="2" t="n">
         <v>42005</v>
       </c>
-      <c r="B394">
+      <c r="B393" t="n">
         <v>2073808000000</v>
       </c>
-      <c r="C394">
+      <c r="C393" t="n">
         <v>1.506250941406838</v>
       </c>
-      <c r="D394">
+      <c r="D393" t="n">
         <v>3123675252297.033</v>
       </c>
     </row>
-    <row r="395" spans="1:4">
-      <c r="A395" s="2">
+    <row r="394">
+      <c r="A394" s="2" t="n">
         <v>42036</v>
       </c>
-      <c r="B395">
+      <c r="B394" t="n">
         <v>2070258000000</v>
       </c>
-      <c r="C395">
+      <c r="C394" t="n">
         <v>1.544401544401544</v>
       </c>
-      <c r="D395">
+      <c r="D394" t="n">
         <v>3197309652509.652</v>
       </c>
     </row>
-    <row r="396" spans="1:4">
-      <c r="A396" s="2">
+    <row r="395">
+      <c r="A395" s="2" t="n">
         <v>42064</v>
       </c>
-      <c r="B396">
+      <c r="B395" t="n">
         <v>2088266000000</v>
       </c>
-      <c r="C396">
+      <c r="C395" t="n">
         <v>1.483239394838327</v>
       </c>
-      <c r="D396">
+      <c r="D395" t="n">
         <v>3097398398101.454</v>
       </c>
     </row>
-    <row r="397" spans="1:4">
-      <c r="A397" s="2">
+    <row r="396">
+      <c r="A396" s="2" t="n">
         <v>42095</v>
       </c>
-      <c r="B397">
+      <c r="B396" t="n">
         <v>2093872000000</v>
       </c>
-      <c r="C397">
+      <c r="C396" t="n">
         <v>1.534801626889725</v>
       </c>
-      <c r="D397">
+      <c r="D396" t="n">
         <v>3213678152098.841</v>
       </c>
     </row>
-    <row r="398" spans="1:4">
-      <c r="A398" s="2">
+    <row r="397">
+      <c r="A397" s="2" t="n">
         <v>42125</v>
       </c>
-      <c r="B398">
+      <c r="B397" t="n">
         <v>2090446000000</v>
       </c>
-      <c r="C398">
+      <c r="C397" t="n">
         <v>1.528701368187724</v>
       </c>
-      <c r="D398">
+      <c r="D397" t="n">
         <v>3195667660322.556</v>
       </c>
     </row>
-    <row r="399" spans="1:4">
-      <c r="A399" s="2">
+    <row r="398">
+      <c r="A398" s="2" t="n">
         <v>42156</v>
       </c>
-      <c r="B399">
+      <c r="B398" t="n">
         <v>2088205000000</v>
       </c>
-      <c r="C399">
+      <c r="C398" t="n">
         <v>1.571388164304347</v>
       </c>
-      <c r="D399">
+      <c r="D398" t="n">
         <v>3281380621641.158</v>
       </c>
     </row>
-    <row r="400" spans="1:4">
-      <c r="A400" s="2">
+    <row r="399">
+      <c r="A399" s="2" t="n">
         <v>42186</v>
       </c>
-      <c r="B400">
+      <c r="B399" t="n">
         <v>2102076000000</v>
       </c>
-      <c r="C400">
+      <c r="C399" t="n">
         <v>1.562207086171343</v>
       </c>
-      <c r="D400">
+      <c r="D399" t="n">
         <v>3283878022870.712</v>
       </c>
     </row>
-    <row r="401" spans="1:4">
-      <c r="A401" s="2">
+    <row r="400">
+      <c r="A400" s="2" t="n">
         <v>42217</v>
       </c>
-      <c r="B401">
+      <c r="B400" t="n">
         <v>2103164000000</v>
       </c>
-      <c r="C401">
+      <c r="C400" t="n">
         <v>1.534589650727396</v>
       </c>
-      <c r="D401">
+      <c r="D400" t="n">
         <v>3227493708182.432</v>
       </c>
     </row>
-    <row r="402" spans="1:4">
-      <c r="A402" s="2">
+    <row r="401">
+      <c r="A401" s="2" t="n">
         <v>42248</v>
       </c>
-      <c r="B402">
+      <c r="B401" t="n">
         <v>2111984000000</v>
       </c>
-      <c r="C402">
+      <c r="C401" t="n">
         <v>1.512538947877908</v>
       </c>
-      <c r="D402">
+      <c r="D401" t="n">
         <v>3194458057294.976</v>
       </c>
     </row>
-    <row r="403" spans="1:4">
-      <c r="A403" s="2">
+    <row r="402">
+      <c r="A402" s="2" t="n">
         <v>42278</v>
       </c>
-      <c r="B403">
+      <c r="B402" t="n">
         <v>2124264000000</v>
       </c>
-      <c r="C403">
+      <c r="C402" t="n">
         <v>1.543519533239693</v>
       </c>
-      <c r="D403">
+      <c r="D402" t="n">
         <v>3278842977757.884</v>
       </c>
     </row>
-    <row r="404" spans="1:4">
-      <c r="A404" s="2">
+    <row r="403">
+      <c r="A403" s="2" t="n">
         <v>42309</v>
       </c>
-      <c r="B404">
+      <c r="B403" t="n">
         <v>2120899000000</v>
       </c>
-      <c r="C404">
+      <c r="C403" t="n">
         <v>1.505706628120577</v>
       </c>
-      <c r="D404">
+      <c r="D403" t="n">
         <v>3193451681874.304</v>
       </c>
     </row>
-    <row r="405" spans="1:4">
-      <c r="A405" s="2">
+    <row r="404">
+      <c r="A404" s="2" t="n">
         <v>42339</v>
       </c>
-      <c r="B405">
+      <c r="B404" t="n">
         <v>2132947000000</v>
       </c>
-      <c r="C405">
+      <c r="C404" t="n">
         <v>1.473600447974536</v>
       </c>
-      <c r="D405">
+      <c r="D404" t="n">
         <v>3143111654705.943</v>
       </c>
     </row>
-    <row r="406" spans="1:4">
-      <c r="A406" s="2">
+    <row r="405">
+      <c r="A405" s="2" t="n">
         <v>42370</v>
       </c>
-      <c r="B406">
+      <c r="B405" t="n">
         <v>2159028000000</v>
       </c>
-      <c r="C406">
+      <c r="C405" t="n">
         <v>1.424278246998333</v>
       </c>
-      <c r="D406">
+      <c r="D405" t="n">
         <v>3075056615060.318</v>
       </c>
     </row>
-    <row r="407" spans="1:4">
-      <c r="A407" s="2">
+    <row r="406">
+      <c r="A406" s="2" t="n">
         <v>42401</v>
       </c>
-      <c r="B407">
+      <c r="B406" t="n">
         <v>2181982000000</v>
       </c>
-      <c r="C407">
+      <c r="C406" t="n">
         <v>1.391594767603674</v>
       </c>
-      <c r="D407">
+      <c r="D406" t="n">
         <v>3036434734205.399</v>
       </c>
     </row>
-    <row r="408" spans="1:4">
-      <c r="A408" s="2">
+    <row r="407">
+      <c r="A407" s="2" t="n">
         <v>42430</v>
       </c>
-      <c r="B408">
+      <c r="B407" t="n">
         <v>2183304000000</v>
       </c>
-      <c r="C408">
+      <c r="C407" t="n">
         <v>1.436513294930545</v>
       </c>
-      <c r="D408">
+      <c r="D407" t="n">
         <v>3136345222875.038</v>
       </c>
     </row>
-    <row r="409" spans="1:4">
-      <c r="A409" s="2">
+    <row r="408">
+      <c r="A408" s="2" t="n">
         <v>42461</v>
       </c>
-      <c r="B409">
+      <c r="B408" t="n">
         <v>2177769000000</v>
       </c>
-      <c r="C409">
+      <c r="C408" t="n">
         <v>1.460984411296331</v>
       </c>
-      <c r="D409">
+      <c r="D408" t="n">
         <v>3181686560404.4</v>
       </c>
     </row>
-    <row r="410" spans="1:4">
-      <c r="A410" s="2">
+    <row r="409">
+      <c r="A409" s="2" t="n">
         <v>42491</v>
       </c>
-      <c r="B410">
+      <c r="B409" t="n">
         <v>2179996000000</v>
       </c>
-      <c r="C410">
+      <c r="C409" t="n">
         <v>1.448204949964519</v>
       </c>
-      <c r="D410">
+      <c r="D409" t="n">
         <v>3157080998102.852</v>
       </c>
     </row>
-    <row r="411" spans="1:4">
-      <c r="A411" s="2">
+    <row r="410">
+      <c r="A410" s="2" t="n">
         <v>42522</v>
       </c>
-      <c r="B411">
+      <c r="B410" t="n">
         <v>2245921000000</v>
       </c>
-      <c r="C411">
+      <c r="C410" t="n">
         <v>1.328762390709293</v>
       </c>
-      <c r="D411">
+      <c r="D410" t="n">
         <v>2984295357304.207</v>
       </c>
     </row>
-    <row r="412" spans="1:4">
-      <c r="A412" s="2">
+    <row r="411">
+      <c r="A411" s="2" t="n">
         <v>42552</v>
       </c>
-      <c r="B412">
+      <c r="B411" t="n">
         <v>2255333000000</v>
       </c>
-      <c r="C412">
+      <c r="C411" t="n">
         <v>1.323171377156769</v>
       </c>
-      <c r="D412">
+      <c r="D411" t="n">
         <v>2984192071557.108</v>
       </c>
     </row>
-    <row r="413" spans="1:4">
-      <c r="A413" s="2">
+    <row r="412">
+      <c r="A412" s="2" t="n">
         <v>42583</v>
       </c>
-      <c r="B413">
+      <c r="B412" t="n">
         <v>2269290000000</v>
       </c>
-      <c r="C413">
+      <c r="C412" t="n">
         <v>1.314008646176892</v>
       </c>
-      <c r="D413">
+      <c r="D412" t="n">
         <v>2981866680682.759</v>
       </c>
     </row>
-    <row r="414" spans="1:4">
-      <c r="A414" s="2">
+    <row r="413">
+      <c r="A413" s="2" t="n">
         <v>42614</v>
       </c>
-      <c r="B414">
+      <c r="B413" t="n">
         <v>2275824000000</v>
       </c>
-      <c r="C414">
+      <c r="C413" t="n">
         <v>1.297875378006204</v>
       </c>
-      <c r="D414">
+      <c r="D413" t="n">
         <v>2953735934275.591</v>
       </c>
     </row>
-    <row r="415" spans="1:4">
-      <c r="A415" s="2">
+    <row r="414">
+      <c r="A414" s="2" t="n">
         <v>42644</v>
       </c>
-      <c r="B415">
+      <c r="B414" t="n">
         <v>2290205000000</v>
       </c>
-      <c r="C415">
+      <c r="C414" t="n">
         <v>1.223945265167742</v>
       </c>
-      <c r="D415">
+      <c r="D414" t="n">
         <v>2803085566013.488</v>
       </c>
     </row>
-    <row r="416" spans="1:4">
-      <c r="A416" s="2">
+    <row r="415">
+      <c r="A415" s="2" t="n">
         <v>42675</v>
       </c>
-      <c r="B416">
+      <c r="B415" t="n">
         <v>2277516000000</v>
       </c>
-      <c r="C416">
+      <c r="C415" t="n">
         <v>1.250750450270162</v>
       </c>
-      <c r="D416">
+      <c r="D415" t="n">
         <v>2848604162497.499</v>
       </c>
     </row>
-    <row r="417" spans="1:4">
-      <c r="A417" s="2">
+    <row r="416">
+      <c r="A416" s="2" t="n">
         <v>42705</v>
       </c>
-      <c r="B417">
+      <c r="B416" t="n">
         <v>2280428000000</v>
       </c>
-      <c r="C417">
+      <c r="C416" t="n">
         <v>1.23449169804333</v>
       </c>
-      <c r="D417">
+      <c r="D416" t="n">
         <v>2815169433985.556</v>
       </c>
     </row>
-    <row r="418" spans="1:4">
-      <c r="A418" s="2">
+    <row r="417">
+      <c r="A417" s="2" t="n">
         <v>42736</v>
       </c>
-      <c r="B418">
+      <c r="B417" t="n">
         <v>2281087000000</v>
       </c>
-      <c r="C418">
+      <c r="C417" t="n">
         <v>1.257940750990628</v>
       </c>
-      <c r="D418">
+      <c r="D417" t="n">
         <v>2869472293854.959</v>
       </c>
     </row>
-    <row r="419" spans="1:4">
-      <c r="A419" s="2">
+    <row r="418">
+      <c r="A418" s="2" t="n">
         <v>42767</v>
       </c>
-      <c r="B419">
+      <c r="B418" t="n">
         <v>2287240000000</v>
       </c>
-      <c r="C419">
+      <c r="C418" t="n">
         <v>1.238236750866766</v>
       </c>
-      <c r="D419">
+      <c r="D418" t="n">
         <v>2832144626052.501</v>
       </c>
     </row>
-    <row r="420" spans="1:4">
-      <c r="A420" s="2">
+    <row r="419">
+      <c r="A419" s="2" t="n">
         <v>42795</v>
       </c>
-      <c r="B420">
+      <c r="B419" t="n">
         <v>2294915000000</v>
       </c>
-      <c r="C420">
+      <c r="C419" t="n">
         <v>1.254500520617716</v>
       </c>
-      <c r="D420">
+      <c r="D419" t="n">
         <v>2878972062273.406</v>
       </c>
     </row>
-    <row r="421" spans="1:4">
-      <c r="A421" s="2">
+    <row r="420">
+      <c r="A420" s="2" t="n">
         <v>42826</v>
       </c>
-      <c r="B421">
+      <c r="B420" t="n">
         <v>2302035000000</v>
       </c>
-      <c r="C421">
+      <c r="C420" t="n">
         <v>1.295018065502014</v>
       </c>
-      <c r="D421">
+      <c r="D420" t="n">
         <v>2981176912417.928</v>
       </c>
     </row>
-    <row r="422" spans="1:4">
-      <c r="A422" s="2">
+    <row r="421">
+      <c r="A421" s="2" t="n">
         <v>42856</v>
       </c>
-      <c r="B422">
+      <c r="B421" t="n">
         <v>2309303000000</v>
       </c>
-      <c r="C422">
+      <c r="C421" t="n">
         <v>1.287316074715825</v>
       </c>
-      <c r="D422">
+      <c r="D421" t="n">
         <v>2972802873289.479</v>
       </c>
     </row>
-    <row r="423" spans="1:4">
-      <c r="A423" s="2">
+    <row r="422">
+      <c r="A422" s="2" t="n">
         <v>42887</v>
       </c>
-      <c r="B423">
+      <c r="B422" t="n">
         <v>2315462000000</v>
       </c>
-      <c r="C423">
+      <c r="C422" t="n">
         <v>1.302677001237543</v>
       </c>
-      <c r="D423">
+      <c r="D422" t="n">
         <v>3016299094639.484</v>
       </c>
     </row>
-    <row r="424" spans="1:4">
-      <c r="A424" s="2">
+    <row r="423">
+      <c r="A423" s="2" t="n">
         <v>42917</v>
       </c>
-      <c r="B424">
+      <c r="B423" t="n">
         <v>2310118000000</v>
       </c>
-      <c r="C424">
+      <c r="C423" t="n">
         <v>1.320742257148517</v>
       </c>
-      <c r="D424">
+      <c r="D423" t="n">
         <v>3051070461599.419</v>
       </c>
     </row>
-    <row r="425" spans="1:4">
-      <c r="A425" s="2">
+    <row r="424">
+      <c r="A424" s="2" t="n">
         <v>42948</v>
       </c>
-      <c r="B425">
+      <c r="B424" t="n">
         <v>2332401000000</v>
       </c>
-      <c r="C425">
+      <c r="C424" t="n">
         <v>1.292791395180474</v>
       </c>
-      <c r="D425">
+      <c r="D424" t="n">
         <v>3015307942910.332</v>
       </c>
     </row>
-    <row r="426" spans="1:4">
-      <c r="A426" s="2">
+    <row r="425">
+      <c r="A425" s="2" t="n">
         <v>42979</v>
       </c>
-      <c r="B426">
+      <c r="B425" t="n">
         <v>2338246000000</v>
       </c>
-      <c r="C426">
+      <c r="C425" t="n">
         <v>1.339764201500536</v>
       </c>
-      <c r="D426">
+      <c r="D425" t="n">
         <v>3132698285101.822</v>
       </c>
     </row>
-    <row r="427" spans="1:4">
-      <c r="A427" s="2">
+    <row r="426">
+      <c r="A426" s="2" t="n">
         <v>43009</v>
       </c>
-      <c r="B427">
+      <c r="B426" t="n">
         <v>2340072000000</v>
       </c>
-      <c r="C427">
+      <c r="C426" t="n">
         <v>1.328427009577959</v>
       </c>
-      <c r="D427">
+      <c r="D426" t="n">
         <v>3108614849157.113</v>
       </c>
     </row>
-    <row r="428" spans="1:4">
-      <c r="A428" s="2">
+    <row r="427">
+      <c r="A427" s="2" t="n">
         <v>43040</v>
       </c>
-      <c r="B428">
+      <c r="B427" t="n">
         <v>2344772000000</v>
       </c>
-      <c r="C428">
+      <c r="C427" t="n">
         <v>1.352905364269769</v>
       </c>
-      <c r="D428">
+      <c r="D427" t="n">
         <v>3172254616789.556</v>
       </c>
     </row>
-    <row r="429" spans="1:4">
-      <c r="A429" s="2">
+    <row r="428">
+      <c r="A428" s="2" t="n">
         <v>43070</v>
       </c>
-      <c r="B429">
+      <c r="B428" t="n">
         <v>2346035000000</v>
       </c>
-      <c r="C429">
+      <c r="C428" t="n">
         <v>1.351351351351351</v>
       </c>
-      <c r="D429">
+      <c r="D428" t="n">
         <v>3170317567567.567</v>
       </c>
     </row>
-    <row r="430" spans="1:4">
-      <c r="A430" s="2">
+    <row r="429">
+      <c r="A429" s="2" t="n">
         <v>43101</v>
       </c>
-      <c r="B430">
+      <c r="B429" t="n">
         <v>2357302000000</v>
       </c>
-      <c r="C430">
+      <c r="C429" t="n">
         <v>1.419385973627809</v>
       </c>
-      <c r="D430">
+      <c r="D429" t="n">
         <v>3345921394404.781</v>
       </c>
     </row>
-    <row r="431" spans="1:4">
-      <c r="A431" s="2">
+    <row r="430">
+      <c r="A430" s="2" t="n">
         <v>43132</v>
       </c>
-      <c r="B431">
+      <c r="B430" t="n">
         <v>2359071000000</v>
       </c>
-      <c r="C431">
+      <c r="C430" t="n">
         <v>1.376026860044308</v>
       </c>
-      <c r="D431">
+      <c r="D430" t="n">
         <v>3246145060751.586</v>
       </c>
     </row>
-    <row r="432" spans="1:4">
-      <c r="A432" s="2">
+    <row r="431">
+      <c r="A431" s="2" t="n">
         <v>43160</v>
       </c>
-      <c r="B432">
+      <c r="B431" t="n">
         <v>2347292000000</v>
       </c>
-      <c r="C432">
+      <c r="C431" t="n">
         <v>1.401600627917081</v>
       </c>
-      <c r="D432">
+      <c r="D431" t="n">
         <v>3289965941104.741</v>
       </c>
     </row>
-    <row r="433" spans="1:4">
-      <c r="A433" s="2">
+    <row r="432">
+      <c r="A432" s="2" t="n">
         <v>43191</v>
       </c>
-      <c r="B433">
+      <c r="B432" t="n">
         <v>2351932000000</v>
       </c>
-      <c r="C433">
+      <c r="C432" t="n">
         <v>1.37680361273268</v>
       </c>
-      <c r="D433">
+      <c r="D432" t="n">
         <v>3238148474501.597</v>
       </c>
     </row>
-    <row r="434" spans="1:4">
-      <c r="A434" s="2">
+    <row r="433">
+      <c r="A433" s="2" t="n">
         <v>43221</v>
       </c>
-      <c r="B434">
+      <c r="B433" t="n">
         <v>2372075000000</v>
       </c>
-      <c r="C434">
+      <c r="C433" t="n">
         <v>1.329469010077375</v>
       </c>
-      <c r="D434">
+      <c r="D433" t="n">
         <v>3153600202079.29</v>
       </c>
     </row>
-    <row r="435" spans="1:4">
-      <c r="A435" s="2">
+    <row r="434">
+      <c r="A434" s="2" t="n">
         <v>43252</v>
       </c>
-      <c r="B435">
+      <c r="B434" t="n">
         <v>2371730000000</v>
       </c>
-      <c r="C435">
+      <c r="C434" t="n">
         <v>1.320620163228652</v>
       </c>
-      <c r="D435">
+      <c r="D434" t="n">
         <v>3132154459734.292</v>
       </c>
     </row>
-    <row r="436" spans="1:4">
-      <c r="A436" s="2">
+    <row r="435">
+      <c r="A435" s="2" t="n">
         <v>43282</v>
       </c>
-      <c r="B436">
+      <c r="B435" t="n">
         <v>2371507000000</v>
       </c>
-      <c r="C436">
+      <c r="C435" t="n">
         <v>1.311733455761789</v>
       </c>
-      <c r="D436">
+      <c r="D435" t="n">
         <v>3110785072473.273</v>
       </c>
     </row>
-    <row r="437" spans="1:4">
-      <c r="A437" s="2">
+    <row r="436">
+      <c r="A436" s="2" t="n">
         <v>43313</v>
       </c>
-      <c r="B437">
+      <c r="B436" t="n">
         <v>2375015000000</v>
       </c>
-      <c r="C437">
+      <c r="C436" t="n">
         <v>1.295706030215865</v>
       </c>
-      <c r="D437">
+      <c r="D436" t="n">
         <v>3077321257353.131</v>
       </c>
     </row>
-    <row r="438" spans="1:4">
-      <c r="A438" s="2">
+    <row r="437">
+      <c r="A437" s="2" t="n">
         <v>43344</v>
       </c>
-      <c r="B438">
+      <c r="B437" t="n">
         <v>2388940000000</v>
       </c>
-      <c r="C438">
+      <c r="C437" t="n">
         <v>1.303237241307408</v>
       </c>
-      <c r="D438">
+      <c r="D437" t="n">
         <v>3113355575248.918</v>
       </c>
     </row>
-    <row r="439" spans="1:4">
-      <c r="A439" s="2">
+    <row r="438">
+      <c r="A438" s="2" t="n">
         <v>43374</v>
       </c>
-      <c r="B439">
+      <c r="B438" t="n">
         <v>2416323000000</v>
       </c>
-      <c r="C439">
+      <c r="C438" t="n">
         <v>1.276959814074651</v>
       </c>
-      <c r="D439">
+      <c r="D438" t="n">
         <v>3085547368824.303</v>
       </c>
     </row>
-    <row r="440" spans="1:4">
-      <c r="A440" s="2">
+    <row r="439">
+      <c r="A439" s="2" t="n">
         <v>43405</v>
       </c>
-      <c r="B440">
+      <c r="B439" t="n">
         <v>2414471000000</v>
       </c>
-      <c r="C440">
+      <c r="C439" t="n">
         <v>1.275152380709495</v>
       </c>
-      <c r="D440">
+      <c r="D439" t="n">
         <v>3078818443804.034</v>
       </c>
     </row>
-    <row r="441" spans="1:4">
-      <c r="A441" s="2">
+    <row r="440">
+      <c r="A440" s="2" t="n">
         <v>43435</v>
       </c>
-      <c r="B441">
+      <c r="B440" t="n">
         <v>2414673000000</v>
       </c>
-      <c r="C441">
+      <c r="C440" t="n">
         <v>1.275705465122213</v>
       </c>
-      <c r="D441">
+      <c r="D440" t="n">
         <v>3080411542583.048</v>
       </c>
     </row>
-    <row r="442" spans="1:4">
-      <c r="A442" s="2">
+    <row r="441">
+      <c r="A441" s="2" t="n">
         <v>43466</v>
       </c>
-      <c r="B442">
+      <c r="B441" t="n">
         <v>2407134000000</v>
       </c>
-      <c r="C442">
+      <c r="C441" t="n">
         <v>1.311114316057217</v>
       </c>
-      <c r="D442">
+      <c r="D441" t="n">
         <v>3156027848068.073</v>
       </c>
     </row>
-    <row r="443" spans="1:4">
-      <c r="A443" s="2">
+    <row r="442">
+      <c r="A442" s="2" t="n">
         <v>43497</v>
       </c>
-      <c r="B443">
+      <c r="B442" t="n">
         <v>2403459000000</v>
       </c>
-      <c r="C443">
+      <c r="C442" t="n">
         <v>1.326277536837358</v>
       </c>
-      <c r="D443">
+      <c r="D442" t="n">
         <v>3187653682409.581</v>
       </c>
     </row>
-    <row r="444" spans="1:4">
-      <c r="A444" s="2">
+    <row r="443">
+      <c r="A443" s="2" t="n">
         <v>43525</v>
       </c>
-      <c r="B444">
+      <c r="B443" t="n">
         <v>2415238000000</v>
       </c>
-      <c r="C444">
+      <c r="C443" t="n">
         <v>1.304597401241977</v>
       </c>
-      <c r="D444">
+      <c r="D443" t="n">
         <v>3150913218180.87</v>
       </c>
     </row>
-    <row r="445" spans="1:4">
-      <c r="A445" s="2">
+    <row r="444">
+      <c r="A444" s="2" t="n">
         <v>43556</v>
       </c>
-      <c r="B445">
+      <c r="B444" t="n">
         <v>2415149000000</v>
       </c>
-      <c r="C445">
+      <c r="C444" t="n">
         <v>1.303322168206759</v>
       </c>
-      <c r="D445">
+      <c r="D444" t="n">
         <v>3147717231222.386</v>
       </c>
     </row>
-    <row r="446" spans="1:4">
-      <c r="A446" s="2">
+    <row r="445">
+      <c r="A445" s="2" t="n">
         <v>43586</v>
       </c>
-      <c r="B446">
+      <c r="B445" t="n">
         <v>2405921000000</v>
       </c>
-      <c r="C446">
+      <c r="C445" t="n">
         <v>1.263839037460189</v>
       </c>
-      <c r="D446">
+      <c r="D445" t="n">
         <v>3040696880845.255</v>
       </c>
     </row>
-    <row r="447" spans="1:4">
-      <c r="A447" s="2">
+    <row r="446">
+      <c r="A446" s="2" t="n">
         <v>43617</v>
       </c>
-      <c r="B447">
+      <c r="B446" t="n">
         <v>2415770000000</v>
       </c>
-      <c r="C447">
+      <c r="C446" t="n">
         <v>1.269132167423916</v>
       </c>
-      <c r="D447">
+      <c r="D446" t="n">
         <v>3065931416097.672</v>
       </c>
     </row>
-    <row r="448" spans="1:4">
-      <c r="A448" s="2">
+    <row r="447">
+      <c r="A447" s="2" t="n">
         <v>43647</v>
       </c>
-      <c r="B448">
+      <c r="B447" t="n">
         <v>2417956000000</v>
       </c>
-      <c r="C448">
+      <c r="C447" t="n">
         <v>1.215199718073665</v>
       </c>
-      <c r="D448">
+      <c r="D447" t="n">
         <v>2938299449514.527</v>
       </c>
     </row>
-    <row r="449" spans="1:4">
-      <c r="A449" s="2">
+    <row r="448">
+      <c r="A448" s="2" t="n">
         <v>43678</v>
       </c>
-      <c r="B449">
+      <c r="B448" t="n">
         <v>2429486000000</v>
       </c>
-      <c r="C449">
+      <c r="C448" t="n">
         <v>1.216130758379141</v>
       </c>
-      <c r="D449">
+      <c r="D448" t="n">
         <v>2954572651651.506</v>
       </c>
     </row>
-    <row r="450" spans="1:4">
-      <c r="A450" s="2">
+    <row r="449">
+      <c r="A449" s="2" t="n">
         <v>43709</v>
       </c>
-      <c r="B450">
+      <c r="B449" t="n">
         <v>2429391000000</v>
       </c>
-      <c r="C450">
+      <c r="C449" t="n">
         <v>1.229316745752711</v>
       </c>
-      <c r="D450">
+      <c r="D449" t="n">
         <v>2986491038280.924</v>
       </c>
     </row>
-    <row r="451" spans="1:4">
-      <c r="A451" s="2">
+    <row r="450">
+      <c r="A450" s="2" t="n">
         <v>43739</v>
       </c>
-      <c r="B451">
+      <c r="B450" t="n">
         <v>2419713000000</v>
       </c>
-      <c r="C451">
+      <c r="C450" t="n">
         <v>1.292874966062032</v>
       </c>
-      <c r="D451">
+      <c r="D450" t="n">
         <v>3128386362754.858</v>
       </c>
     </row>
-    <row r="452" spans="1:4">
-      <c r="A452" s="2">
+    <row r="451">
+      <c r="A451" s="2" t="n">
         <v>43770</v>
       </c>
-      <c r="B452">
+      <c r="B451" t="n">
         <v>2430432000000</v>
       </c>
-      <c r="C452">
+      <c r="C451" t="n">
         <v>1.293560655059116</v>
       </c>
-      <c r="D452">
+      <c r="D451" t="n">
         <v>3143911209996.637</v>
       </c>
     </row>
-    <row r="453" spans="1:4">
-      <c r="A453" s="2">
+    <row r="452">
+      <c r="A452" s="2" t="n">
         <v>43800</v>
       </c>
-      <c r="B453">
+      <c r="B452" t="n">
         <v>2446557000000</v>
       </c>
-      <c r="C453">
+      <c r="C452" t="n">
         <v>1.326154417420365</v>
       </c>
-      <c r="D453">
+      <c r="D452" t="n">
         <v>3244512373020.715</v>
       </c>
     </row>
-    <row r="454" spans="1:4">
-      <c r="A454" s="2">
+    <row r="453">
+      <c r="A453" s="2" t="n">
         <v>43831</v>
       </c>
-      <c r="B454">
+      <c r="B453" t="n">
         <v>2456339000000</v>
       </c>
-      <c r="C454">
+      <c r="C453" t="n">
         <v>1.320515529262624</v>
       </c>
-      <c r="D454">
+      <c r="D453" t="n">
         <v>3243633794633.425</v>
       </c>
     </row>
-    <row r="455" spans="1:4">
-      <c r="A455" s="2">
+    <row r="454">
+      <c r="A454" s="2" t="n">
         <v>43862</v>
       </c>
-      <c r="B455">
+      <c r="B454" t="n">
         <v>2481709000000</v>
       </c>
-      <c r="C455">
+      <c r="C454" t="n">
         <v>1.281640499839795</v>
       </c>
-      <c r="D455">
+      <c r="D454" t="n">
         <v>3180658763216.918</v>
       </c>
     </row>
-    <row r="456" spans="1:4">
-      <c r="A456" s="2">
+    <row r="455">
+      <c r="A455" s="2" t="n">
         <v>43891</v>
       </c>
-      <c r="B456">
+      <c r="B455" t="n">
         <v>2603794000000</v>
       </c>
-      <c r="C456">
+      <c r="C455" t="n">
         <v>1.243471773190749</v>
       </c>
-      <c r="D456">
+      <c r="D455" t="n">
         <v>3237744342203.432</v>
       </c>
     </row>
-    <row r="457" spans="1:4">
-      <c r="A457" s="2">
+    <row r="456">
+      <c r="A456" s="2" t="n">
         <v>43922</v>
       </c>
-      <c r="B457">
+      <c r="B456" t="n">
         <v>2639714000000</v>
       </c>
-      <c r="C457">
+      <c r="C456" t="n">
         <v>1.259556887886841</v>
       </c>
-      <c r="D457">
+      <c r="D456" t="n">
         <v>3324869950751.325</v>
       </c>
     </row>
-    <row r="458" spans="1:4">
-      <c r="A458" s="2">
+    <row r="457">
+      <c r="A457" s="2" t="n">
         <v>43952</v>
       </c>
-      <c r="B458">
+      <c r="B457" t="n">
         <v>2682519000000</v>
       </c>
-      <c r="C458">
+      <c r="C457" t="n">
         <v>1.235177865612648</v>
       </c>
-      <c r="D458">
+      <c r="D457" t="n">
         <v>3313388092885.375</v>
       </c>
     </row>
-    <row r="459" spans="1:4">
-      <c r="A459" s="2">
+    <row r="458">
+      <c r="A458" s="2" t="n">
         <v>43983</v>
       </c>
-      <c r="B459">
+      <c r="B458" t="n">
         <v>2700321000000</v>
       </c>
-      <c r="C459">
+      <c r="C458" t="n">
         <v>1.240110121778814</v>
       </c>
-      <c r="D459">
+      <c r="D458" t="n">
         <v>3348695404151.889</v>
       </c>
     </row>
-    <row r="460" spans="1:4">
-      <c r="A460" s="2">
+    <row r="459">
+      <c r="A459" s="2" t="n">
         <v>44013</v>
       </c>
-      <c r="B460">
+      <c r="B459" t="n">
         <v>2715730000000</v>
       </c>
-      <c r="C460">
+      <c r="C459" t="n">
         <v>1.308335404864391</v>
       </c>
-      <c r="D460">
+      <c r="D459" t="n">
         <v>3553085709052.373</v>
       </c>
     </row>
-    <row r="461" spans="1:4">
-      <c r="A461" s="2">
+    <row r="460">
+      <c r="A460" s="2" t="n">
         <v>44044</v>
       </c>
-      <c r="B461">
+      <c r="B460" t="n">
         <v>2719354000000</v>
       </c>
-      <c r="C461">
+      <c r="C460" t="n">
         <v>1.336630354875359</v>
       </c>
-      <c r="D461">
+      <c r="D460" t="n">
         <v>3634771102051.728</v>
       </c>
     </row>
-    <row r="462" spans="1:4">
-      <c r="A462" s="2">
+    <row r="461">
+      <c r="A461" s="2" t="n">
         <v>44075</v>
       </c>
-      <c r="B462">
+      <c r="B461" t="n">
         <v>2729336000000</v>
       </c>
-      <c r="C462">
+      <c r="C461" t="n">
         <v>1.291972971925427</v>
       </c>
-      <c r="D462">
+      <c r="D461" t="n">
         <v>3526228343303.058</v>
       </c>
     </row>
-    <row r="463" spans="1:4">
-      <c r="A463" s="2">
+    <row r="462">
+      <c r="A462" s="2" t="n">
         <v>44105</v>
       </c>
-      <c r="B463">
+      <c r="B462" t="n">
         <v>2757401000000</v>
       </c>
-      <c r="C463">
+      <c r="C462" t="n">
         <v>1.29510192452146</v>
       </c>
-      <c r="D463">
+      <c r="D462" t="n">
         <v>3571115341777.397</v>
       </c>
     </row>
-    <row r="464" spans="1:4">
-      <c r="A464" s="2">
+    <row r="463">
+      <c r="A463" s="2" t="n">
         <v>44136</v>
       </c>
-      <c r="B464">
+      <c r="B463" t="n">
         <v>2769646000000</v>
       </c>
-      <c r="C464">
+      <c r="C463" t="n">
         <v>1.332480545784031</v>
       </c>
-      <c r="D464">
+      <c r="D463" t="n">
         <v>3690499413708.56</v>
       </c>
     </row>
-    <row r="465" spans="1:4">
-      <c r="A465" s="2">
+    <row r="464">
+      <c r="A464" s="2" t="n">
         <v>44166</v>
       </c>
-      <c r="B465">
+      <c r="B464" t="n">
         <v>2810605000000</v>
       </c>
-      <c r="C465">
+      <c r="C464" t="n">
         <v>1.366288204833928</v>
       </c>
-      <c r="D465">
+      <c r="D464" t="n">
         <v>3840096459947.262</v>
       </c>
     </row>
-    <row r="466" spans="1:4">
-      <c r="A466" s="2">
+    <row r="465">
+      <c r="A465" s="2" t="n">
         <v>44197</v>
       </c>
-      <c r="B466">
+      <c r="B465" t="n">
         <v>2821228000000</v>
       </c>
-      <c r="C466">
+      <c r="C465" t="n">
         <v>1.370050691875599</v>
       </c>
-      <c r="D466">
+      <c r="D465" t="n">
         <v>3865225373338.814</v>
       </c>
     </row>
-    <row r="467" spans="1:4">
-      <c r="A467" s="2">
+    <row r="466">
+      <c r="A466" s="2" t="n">
         <v>44228</v>
       </c>
-      <c r="B467">
+      <c r="B466" t="n">
         <v>2842868000000</v>
       </c>
-      <c r="C467">
+      <c r="C466" t="n">
         <v>1.392079070091181</v>
       </c>
-      <c r="D467">
+      <c r="D466" t="n">
         <v>3957497041831.976</v>
       </c>
     </row>
-    <row r="468" spans="1:4">
-      <c r="A468" s="2">
+    <row r="467">
+      <c r="A467" s="2" t="n">
         <v>44256</v>
       </c>
-      <c r="B468">
+      <c r="B467" t="n">
         <v>2858521000000</v>
       </c>
-      <c r="C468">
+      <c r="C467" t="n">
         <v>1.378169790518192</v>
       </c>
-      <c r="D468">
+      <c r="D467" t="n">
         <v>3939527287761.852</v>
       </c>
     </row>
-    <row r="469" spans="1:4">
-      <c r="A469" s="2">
+    <row r="468">
+      <c r="A468" s="2" t="n">
         <v>44287</v>
       </c>
-      <c r="B469">
+      <c r="B468" t="n">
         <v>2875638000000</v>
       </c>
-      <c r="C469">
+      <c r="C468" t="n">
         <v>1.381654392970142</v>
       </c>
-      <c r="D469">
+      <c r="D468" t="n">
         <v>3973137875291.874</v>
       </c>
     </row>
-    <row r="470" spans="1:4">
-      <c r="A470" s="2">
+    <row r="469">
+      <c r="A469" s="2" t="n">
         <v>44317</v>
       </c>
-      <c r="B470">
+      <c r="B469" t="n">
         <v>2870729000000</v>
       </c>
-      <c r="C470">
+      <c r="C469" t="n">
         <v>1.420555437175936</v>
       </c>
-      <c r="D470">
+      <c r="D469" t="n">
         <v>4078029689608.637</v>
       </c>
     </row>
-    <row r="471" spans="1:4">
-      <c r="A471" s="2">
+    <row r="470">
+      <c r="A470" s="2" t="n">
         <v>44348</v>
       </c>
-      <c r="B471">
+      <c r="B470" t="n">
         <v>2887930000000</v>
       </c>
-      <c r="C471">
+      <c r="C470" t="n">
         <v>1.382934587194026</v>
       </c>
-      <c r="D471">
+      <c r="D470" t="n">
         <v>3993818282395.243</v>
       </c>
     </row>
-    <row r="472" spans="1:4">
-      <c r="A472" s="2">
+    <row r="471">
+      <c r="A471" s="2" t="n">
         <v>44378</v>
       </c>
-      <c r="B472">
+      <c r="B471" t="n">
         <v>2892060000000</v>
       </c>
-      <c r="C472">
+      <c r="C471" t="n">
         <v>1.390607834684541</v>
       </c>
-      <c r="D472">
+      <c r="D471" t="n">
         <v>4021721294377.772</v>
       </c>
     </row>
-    <row r="473" spans="1:4">
-      <c r="A473" s="2">
+    <row r="472">
+      <c r="A472" s="2" t="n">
         <v>44409</v>
       </c>
-      <c r="B473">
+      <c r="B472" t="n">
         <v>2890721000000</v>
       </c>
-      <c r="C473">
+      <c r="C472" t="n">
         <v>1.375459059461095</v>
       </c>
-      <c r="D473">
+      <c r="D472" t="n">
         <v>3976068387824.437</v>
       </c>
     </row>
-    <row r="474" spans="1:4">
-      <c r="A474" s="2">
+    <row r="473">
+      <c r="A473" s="2" t="n">
         <v>44440</v>
       </c>
-      <c r="B474">
+      <c r="B473" t="n">
         <v>2933670000000</v>
       </c>
-      <c r="C474">
+      <c r="C473" t="n">
         <v>1.347745222243187</v>
       </c>
-      <c r="D474">
+      <c r="D473" t="n">
         <v>3953839726138.171</v>
       </c>
     </row>
-    <row r="475" spans="1:4">
-      <c r="A475" s="2">
+    <row r="474">
+      <c r="A474" s="2" t="n">
         <v>44470</v>
       </c>
-      <c r="B475">
+      <c r="B474" t="n">
         <v>2946167000000</v>
       </c>
-      <c r="C475">
+      <c r="C474" t="n">
         <v>1.370275973581079</v>
       </c>
-      <c r="D475">
+      <c r="D474" t="n">
         <v>4037061854257.447</v>
       </c>
     </row>
-    <row r="476" spans="1:4">
-      <c r="A476" s="2">
+    <row r="475">
+      <c r="A475" s="2" t="n">
         <v>44501</v>
       </c>
-      <c r="B476">
+      <c r="B475" t="n">
         <v>2968038000000</v>
       </c>
-      <c r="C476">
+      <c r="C475" t="n">
         <v>1.330353341847595</v>
       </c>
-      <c r="D476">
+      <c r="D475" t="n">
         <v>3948539272030.651</v>
       </c>
     </row>
-    <row r="477" spans="1:4">
-      <c r="A477" s="2">
+    <row r="476">
+      <c r="A476" s="2" t="n">
         <v>44531</v>
       </c>
-      <c r="B477">
+      <c r="B476" t="n">
         <v>2978879000000</v>
       </c>
-      <c r="C477">
+      <c r="C476" t="n">
         <v>1.353473011748146</v>
       </c>
-      <c r="D477">
+      <c r="D476" t="n">
         <v>4031832331763.305</v>
       </c>
     </row>
-    <row r="478" spans="1:4">
-      <c r="A478" s="2">
+    <row r="477">
+      <c r="A477" s="2" t="n">
         <v>44562</v>
       </c>
-      <c r="B478">
+      <c r="B477" t="n">
         <v>2970952000000</v>
       </c>
-      <c r="C478">
+      <c r="C477" t="n">
         <v>1.344501660459551</v>
       </c>
-      <c r="D478">
+      <c r="D477" t="n">
         <v>3994449897145.623</v>
       </c>
     </row>
-    <row r="479" spans="1:4">
-      <c r="A479" s="2">
+    <row r="478">
+      <c r="A478" s="2" t="n">
         <v>44593</v>
       </c>
-      <c r="B479">
+      <c r="B478" t="n">
         <v>2988480000000</v>
       </c>
-      <c r="C479">
+      <c r="C478" t="n">
         <v>1.34197565656159</v>
       </c>
-      <c r="D479">
+      <c r="D478" t="n">
         <v>4010467410121.18</v>
       </c>
     </row>
-    <row r="480" spans="1:4">
-      <c r="A480" s="2">
+    <row r="479">
+      <c r="A479" s="2" t="n">
         <v>44621</v>
       </c>
-      <c r="B480">
+      <c r="B479" t="n">
         <v>3032901000000</v>
       </c>
-      <c r="C480">
+      <c r="C479" t="n">
         <v>1.313905057220565</v>
       </c>
-      <c r="D480">
+      <c r="D479" t="n">
         <v>3984943961949.31</v>
       </c>
     </row>
-    <row r="481" spans="1:4">
-      <c r="A481" s="2">
+    <row r="480">
+      <c r="A480" s="2" t="n">
         <v>44652</v>
       </c>
-      <c r="B481">
+      <c r="B480" t="n">
         <v>3040249000000</v>
       </c>
-      <c r="C481">
+      <c r="C480" t="n">
         <v>1.257308103350726</v>
       </c>
-      <c r="D481">
+      <c r="D480" t="n">
         <v>3822529703903.941</v>
       </c>
     </row>
-    <row r="482" spans="1:4">
-      <c r="A482" s="2">
+    <row r="481">
+      <c r="A481" s="2" t="n">
         <v>44682</v>
       </c>
-      <c r="B482">
+      <c r="B481" t="n">
         <v>3040088000000</v>
       </c>
-      <c r="C482">
+      <c r="C481" t="n">
         <v>1.260112402026261</v>
       </c>
-      <c r="D482">
+      <c r="D481" t="n">
         <v>3830852592051.211</v>
       </c>
     </row>
-    <row r="483" spans="1:4">
-      <c r="A483" s="2">
+    <row r="482">
+      <c r="A482" s="2" t="n">
         <v>44713</v>
       </c>
-      <c r="B483">
+      <c r="B482" t="n">
         <v>3068538000000</v>
       </c>
-      <c r="C483">
+      <c r="C482" t="n">
         <v>1.217626359175424</v>
       </c>
-      <c r="D483">
+      <c r="D482" t="n">
         <v>3736332752931.436</v>
       </c>
     </row>
-    <row r="484" spans="1:4">
-      <c r="A484" s="2">
+    <row r="483">
+      <c r="A483" s="2" t="n">
         <v>44743</v>
       </c>
-      <c r="B484">
+      <c r="B483" t="n">
         <v>3076742000000</v>
       </c>
-      <c r="C484">
+      <c r="C483" t="n">
         <v>1.218011960877456</v>
       </c>
-      <c r="D484">
+      <c r="D483" t="n">
         <v>3747508556534.025</v>
       </c>
     </row>
-    <row r="485" spans="1:4">
-      <c r="A485" s="2">
+    <row r="484">
+      <c r="A484" s="2" t="n">
         <v>44774</v>
       </c>
-      <c r="B485">
+      <c r="B484" t="n">
         <v>3105571000000</v>
       </c>
-      <c r="C485">
+      <c r="C484" t="n">
         <v>1.161750525692113</v>
       </c>
-      <c r="D485">
+      <c r="D484" t="n">
         <v>3607898741824.18</v>
       </c>
     </row>
-    <row r="486" spans="1:4">
-      <c r="A486" s="2">
+    <row r="485">
+      <c r="A485" s="2" t="n">
         <v>44805</v>
       </c>
-      <c r="B486">
+      <c r="B485" t="n">
         <v>3217985000000</v>
       </c>
-      <c r="C486">
+      <c r="C485" t="n">
         <v>1.116769409452336</v>
       </c>
-      <c r="D486">
+      <c r="D485" t="n">
         <v>3593747208076.476</v>
       </c>
     </row>
-    <row r="487" spans="1:4">
-      <c r="A487" s="2">
+    <row r="486">
+      <c r="A486" s="2" t="n">
         <v>44835</v>
       </c>
-      <c r="B487">
+      <c r="B486" t="n">
         <v>3099642000000</v>
       </c>
-      <c r="C487">
+      <c r="C486" t="n">
         <v>1.146920518408074</v>
       </c>
-      <c r="D487">
+      <c r="D486" t="n">
         <v>3555043009519.44</v>
       </c>
     </row>
-    <row r="488" spans="1:4">
-      <c r="A488" s="2">
+    <row r="487">
+      <c r="A487" s="2" t="n">
         <v>44866</v>
       </c>
-      <c r="B488">
+      <c r="B487" t="n">
         <v>3096180000000</v>
       </c>
-      <c r="C488">
+      <c r="C487" t="n">
         <v>1.2059234962134</v>
       </c>
-      <c r="D488">
+      <c r="D487" t="n">
         <v>3733756210506.005</v>
       </c>
     </row>
-    <row r="489" spans="1:4">
-      <c r="A489" s="2">
+    <row r="488">
+      <c r="A488" s="2" t="n">
         <v>44896</v>
       </c>
-      <c r="B489">
+      <c r="B488" t="n">
         <v>3067035000000</v>
       </c>
-      <c r="C489">
+      <c r="C488" t="n">
         <v>1.209643276197849</v>
       </c>
-      <c r="D489">
+      <c r="D488" t="n">
         <v>3710018265613.471</v>
       </c>
     </row>
-    <row r="490" spans="1:4">
-      <c r="A490" s="2">
+    <row r="489">
+      <c r="A489" s="2" t="n">
         <v>44927</v>
       </c>
-      <c r="B490">
+      <c r="B489" t="n">
         <v>3094336000000</v>
       </c>
-      <c r="C490">
+      <c r="C489" t="n">
         <v>1.23164843826978</v>
       </c>
-      <c r="D490">
+      <c r="D489" t="n">
         <v>3811134101881.959</v>
       </c>
     </row>
-    <row r="491" spans="1:4">
-      <c r="A491" s="2">
+    <row r="490">
+      <c r="A490" s="2" t="n">
         <v>44958</v>
       </c>
-      <c r="B491">
+      <c r="B490" t="n">
         <v>3097533000000</v>
       </c>
-      <c r="C491">
+      <c r="C490" t="n">
         <v>1.20225543118891</v>
       </c>
-      <c r="D491">
+      <c r="D490" t="n">
         <v>3724025872536.879</v>
       </c>
     </row>
-    <row r="492" spans="1:4">
-      <c r="A492" s="2">
+    <row r="491">
+      <c r="A491" s="2" t="n">
         <v>44986</v>
       </c>
-      <c r="B492">
+      <c r="B491" t="n">
         <v>3069687000000</v>
       </c>
-      <c r="C492">
+      <c r="C491" t="n">
         <v>1.233486696845975</v>
       </c>
-      <c r="D492">
+      <c r="D491" t="n">
         <v>3786418077981.029</v>
       </c>
     </row>
-    <row r="493" spans="1:4">
-      <c r="A493" s="2">
+    <row r="492">
+      <c r="A492" s="2" t="n">
         <v>45017</v>
       </c>
-      <c r="B493">
+      <c r="B492" t="n">
         <v>3057863000000</v>
       </c>
-      <c r="C493">
+      <c r="C492" t="n">
         <v>1.256644507835178</v>
       </c>
-      <c r="D493">
+      <c r="D492" t="n">
         <v>3842646744662.402</v>
       </c>
     </row>
-    <row r="494" spans="1:4">
-      <c r="A494" s="2">
+    <row r="493">
+      <c r="A493" s="2" t="n">
         <v>45047</v>
       </c>
-      <c r="B494">
+      <c r="B493" t="n">
         <v>3058434000000</v>
       </c>
-      <c r="C494">
+      <c r="C493" t="n">
         <v>1.243873920939374</v>
       </c>
-      <c r="D494">
+      <c r="D493" t="n">
         <v>3804306291514.292</v>
       </c>
     </row>
-    <row r="495" spans="1:4">
-      <c r="A495" s="2">
+    <row r="494">
+      <c r="A494" s="2" t="n">
         <v>45078</v>
       </c>
-      <c r="B495">
+      <c r="B494" t="n">
         <v>3044958000000</v>
       </c>
-      <c r="C495">
+      <c r="C494" t="n">
         <v>1.269938027024281</v>
       </c>
-      <c r="D495">
+      <c r="D494" t="n">
         <v>3866907954891.801</v>
       </c>
     </row>
-    <row r="496" spans="1:4">
-      <c r="A496" s="2">
+    <row r="495">
+      <c r="A495" s="2" t="n">
         <v>45108</v>
       </c>
-      <c r="B496">
+      <c r="B495" t="n">
         <v>3014302000000</v>
       </c>
-      <c r="C496">
+      <c r="C495" t="n">
         <v>1.283960762159108</v>
       </c>
-      <c r="D496">
+      <c r="D495" t="n">
         <v>3870245493297.725</v>
       </c>
     </row>
-    <row r="497" spans="1:4">
-      <c r="A497" s="2">
+    <row r="496">
+      <c r="A496" s="2" t="n">
         <v>45139</v>
       </c>
-      <c r="B497">
+      <c r="B496" t="n">
         <v>3032224000000</v>
       </c>
-      <c r="C497">
+      <c r="C496" t="n">
         <v>1.267170155608495</v>
       </c>
-      <c r="D497">
+      <c r="D496" t="n">
         <v>3842343757919.813</v>
       </c>
     </row>
-    <row r="498" spans="1:4">
-      <c r="A498" s="2">
+    <row r="497">
+      <c r="A497" s="2" t="n">
         <v>45170</v>
       </c>
-      <c r="B498">
+      <c r="B497" t="n">
         <v>3032024000000</v>
       </c>
-      <c r="C498">
+      <c r="C497" t="n">
         <v>1.219958521410272</v>
       </c>
-      <c r="D498">
+      <c r="D497" t="n">
         <v>3698943515920.459</v>
       </c>
     </row>
-    <row r="499" spans="1:4">
-      <c r="A499" s="2">
+    <row r="498">
+      <c r="A498" s="2" t="n">
         <v>45200</v>
       </c>
-      <c r="B499">
-        <v>2982934000000</v>
-      </c>
-      <c r="C499">
+      <c r="B498" t="n">
+        <v>2984550000000</v>
+      </c>
+      <c r="C498" t="n">
         <v>1.214933968338821</v>
       </c>
-      <c r="D499">
-        <v>3624067841912.792</v>
+      <c r="D498" t="n">
+        <v>3626031175205.627</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="2" t="n">
+        <v>45231</v>
+      </c>
+      <c r="B499" t="n">
+        <v>2980488000000</v>
+      </c>
+      <c r="C499" t="n">
+        <v>1.262403110561265</v>
+      </c>
+      <c r="D499" t="n">
+        <v>3762577322190.522</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>